--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -25297,7 +25297,7 @@
       </c>
       <c r="H4" s="15" t="inlineStr">
         <is>
-          <t>single value</t>
+          <t>multiple values</t>
         </is>
       </c>
     </row>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -536,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1005"/>
+  <dimension ref="A1:F1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,42 +683,66 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>unrestricted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>optional</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n"/>
@@ -8711,6 +8735,14 @@
       <c r="D1005" s="3" t="n"/>
       <c r="E1005" s="3" t="n"/>
       <c r="F1005" s="3" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="3" t="n"/>
+      <c r="B1006" s="3" t="n"/>
+      <c r="C1006" s="3" t="n"/>
+      <c r="D1006" s="3" t="n"/>
+      <c r="E1006" s="3" t="n"/>
+      <c r="F1006" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8724,7 +8756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8934,60 +8966,96 @@
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
+          <t>unrestricted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
           <t>optional</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n"/>
@@ -19977,6 +20045,17 @@
       <c r="G1005" s="6" t="n"/>
       <c r="H1005" s="6" t="n"/>
       <c r="I1005" s="6" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="6" t="n"/>
+      <c r="B1006" s="6" t="n"/>
+      <c r="C1006" s="6" t="n"/>
+      <c r="D1006" s="6" t="n"/>
+      <c r="E1006" s="6" t="n"/>
+      <c r="F1006" s="6" t="n"/>
+      <c r="G1006" s="6" t="n"/>
+      <c r="H1006" s="6" t="n"/>
+      <c r="I1006" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19990,7 +20069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1005"/>
+  <dimension ref="A1:F1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20137,42 +20216,66 @@
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
+          <t>unrestricted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
           <t>optional</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="n"/>
-      <c r="B6" s="9" t="n"/>
-      <c r="C6" s="9" t="n"/>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="9" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n"/>
@@ -28165,6 +28268,14 @@
       <c r="D1005" s="9" t="n"/>
       <c r="E1005" s="9" t="n"/>
       <c r="F1005" s="9" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="9" t="n"/>
+      <c r="B1006" s="9" t="n"/>
+      <c r="C1006" s="9" t="n"/>
+      <c r="D1006" s="9" t="n"/>
+      <c r="E1006" s="9" t="n"/>
+      <c r="F1006" s="9" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28178,7 +28289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1005"/>
+  <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28388,60 +28499,96 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
+          <t>unrestricted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="I6" s="11" t="inlineStr">
+        <is>
           <t>optional</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="12" t="n"/>
-      <c r="C6" s="12" t="n"/>
-      <c r="D6" s="12" t="n"/>
-      <c r="E6" s="12" t="n"/>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="12" t="n"/>
-      <c r="H6" s="12" t="n"/>
-      <c r="I6" s="12" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="12" t="n"/>
@@ -39431,6 +39578,17 @@
       <c r="G1005" s="12" t="n"/>
       <c r="H1005" s="12" t="n"/>
       <c r="I1005" s="12" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="12" t="n"/>
+      <c r="B1006" s="12" t="n"/>
+      <c r="C1006" s="12" t="n"/>
+      <c r="D1006" s="12" t="n"/>
+      <c r="E1006" s="12" t="n"/>
+      <c r="F1006" s="12" t="n"/>
+      <c r="G1006" s="12" t="n"/>
+      <c r="H1006" s="12" t="n"/>
+      <c r="I1006" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -39444,7 +39602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1005"/>
+  <dimension ref="A1:D1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39549,30 +39707,46 @@
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="B5" s="14" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="C5" s="14" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="D5" s="14" t="inlineStr">
         <is>
+          <t>unrestricted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="C6" s="14" t="inlineStr">
+        <is>
           <t>optional</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="n"/>
-      <c r="B6" s="15" t="n"/>
-      <c r="C6" s="15" t="n"/>
-      <c r="D6" s="15" t="n"/>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n"/>
@@ -45567,6 +45741,12 @@
       <c r="B1005" s="15" t="n"/>
       <c r="C1005" s="15" t="n"/>
       <c r="D1005" s="15" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="15" t="n"/>
+      <c r="B1006" s="15" t="n"/>
+      <c r="C1006" s="15" t="n"/>
+      <c r="D1006" s="15" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -45580,7 +45760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1005"/>
+  <dimension ref="A1:H1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45769,54 +45949,86 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>unrestricted</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
           <t>optional</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>optional</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n"/>
@@ -55807,6 +56019,16 @@
       <c r="F1005" s="3" t="n"/>
       <c r="G1005" s="3" t="n"/>
       <c r="H1005" s="3" t="n"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="3" t="n"/>
+      <c r="B1006" s="3" t="n"/>
+      <c r="C1006" s="3" t="n"/>
+      <c r="D1006" s="3" t="n"/>
+      <c r="E1006" s="3" t="n"/>
+      <c r="F1006" s="3" t="n"/>
+      <c r="G1006" s="3" t="n"/>
+      <c r="H1006" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -698,7 +698,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>controlled vocabulary</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>type: string</t>
+          <t>type: integer</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>restriction: value from Study.alias</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>controlled vocabulary</t>
         </is>
       </c>
       <c r="E5" s="5" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>restriction: value from Dataset.alias</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>restriction: value from DataAccessPolicy.alias</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
@@ -28524,17 +28524,17 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>restriction: value from DataAccessCommittee.alias</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>controlled vocabulary</t>
         </is>
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>controlled vocabulary</t>
         </is>
       </c>
       <c r="I5" s="11" t="inlineStr">
@@ -45880,7 +45880,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>type: string</t>
+          <t>type: integer</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -45979,7 +45979,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>restriction: value from Study.alias</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -41636,7 +41636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1006"/>
+  <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41652,87 +41652,98 @@
     <col width="35" customWidth="1" min="6" max="6"/>
     <col width="35" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="8" max="8"/>
+    <col width="35" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>alias</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>abstract</t>
+          <t>title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>abstract</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>author</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>year</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>doi</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>xref</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>The alias for an entity at the time of submission.</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>The title for the Publication.</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>The study abstract that describes the goals. Can also hold abstract from a publication related to this study.</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>The individual who is responsible for the content of a document version.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Year in which the paper was published.</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Name of the journal.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>DOI identifier of the Publication.</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>The Study entity associated with this Publication.</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>One or more cross-references for this Publication.</t>
         </is>
@@ -41756,12 +41767,12 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>type: integer</t>
+          <t>type: string</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>type: string</t>
+          <t>type: integer</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -41775,6 +41786,11 @@
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>type: string</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>type: string</t>
         </is>
@@ -41818,6 +41834,11 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>single value</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>multiple values</t>
         </is>
       </c>
@@ -41855,11 +41876,16 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>restriction: value from Study.alias</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>restriction: value from Study.alias</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>unrestricted</t>
         </is>
       </c>
@@ -41867,7 +41893,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>required</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -41892,7 +41918,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>optional</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -41902,6 +41928,11 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>optional</t>
         </is>
       </c>
@@ -41915,6 +41946,7 @@
       <c r="F7" s="3" t="n"/>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n"/>
@@ -41925,6 +41957,7 @@
       <c r="F8" s="3" t="n"/>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n"/>
@@ -41935,6 +41968,7 @@
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n"/>
@@ -41945,6 +41979,7 @@
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
@@ -41955,6 +41990,7 @@
       <c r="F11" s="3" t="n"/>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n"/>
@@ -41965,6 +42001,7 @@
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
@@ -41975,6 +42012,7 @@
       <c r="F13" s="3" t="n"/>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>
@@ -41985,6 +42023,7 @@
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
@@ -41995,6 +42034,7 @@
       <c r="F15" s="3" t="n"/>
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n"/>
@@ -42005,6 +42045,7 @@
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n"/>
@@ -42015,6 +42056,7 @@
       <c r="F17" s="3" t="n"/>
       <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
@@ -42025,6 +42067,7 @@
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
@@ -42035,6 +42078,7 @@
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n"/>
@@ -42045,6 +42089,7 @@
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n"/>
@@ -42055,6 +42100,7 @@
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n"/>
@@ -42065,6 +42111,7 @@
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n"/>
@@ -42075,6 +42122,7 @@
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n"/>
@@ -42085,6 +42133,7 @@
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n"/>
@@ -42095,6 +42144,7 @@
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n"/>
@@ -42105,6 +42155,7 @@
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
@@ -42115,6 +42166,7 @@
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n"/>
@@ -42125,6 +42177,7 @@
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
@@ -42135,6 +42188,7 @@
       <c r="F29" s="3" t="n"/>
       <c r="G29" s="3" t="n"/>
       <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n"/>
@@ -42145,6 +42199,7 @@
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
@@ -42155,6 +42210,7 @@
       <c r="F31" s="3" t="n"/>
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n"/>
@@ -42165,6 +42221,7 @@
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n"/>
@@ -42175,6 +42232,7 @@
       <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n"/>
@@ -42185,6 +42243,7 @@
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
+      <c r="I34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n"/>
@@ -42195,6 +42254,7 @@
       <c r="F35" s="3" t="n"/>
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n"/>
@@ -42205,6 +42265,7 @@
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n"/>
@@ -42215,6 +42276,7 @@
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="3" t="n"/>
       <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n"/>
@@ -42225,6 +42287,7 @@
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
+      <c r="I38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n"/>
@@ -42235,6 +42298,7 @@
       <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n"/>
@@ -42245,6 +42309,7 @@
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
       <c r="H40" s="3" t="n"/>
+      <c r="I40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n"/>
@@ -42255,6 +42320,7 @@
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
       <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n"/>
@@ -42265,6 +42331,7 @@
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
       <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n"/>
@@ -42275,6 +42342,7 @@
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n"/>
@@ -42285,6 +42353,7 @@
       <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
@@ -42295,6 +42364,7 @@
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n"/>
@@ -42305,6 +42375,7 @@
       <c r="F46" s="3" t="n"/>
       <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n"/>
@@ -42315,6 +42386,7 @@
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n"/>
@@ -42325,6 +42397,7 @@
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
       <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n"/>
@@ -42335,6 +42408,7 @@
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n"/>
@@ -42345,6 +42419,7 @@
       <c r="F50" s="3" t="n"/>
       <c r="G50" s="3" t="n"/>
       <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n"/>
@@ -42355,6 +42430,7 @@
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="3" t="n"/>
       <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n"/>
@@ -42365,6 +42441,7 @@
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
       <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n"/>
@@ -42375,6 +42452,7 @@
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n"/>
@@ -42385,6 +42463,7 @@
       <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="n"/>
       <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n"/>
@@ -42395,6 +42474,7 @@
       <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="n"/>
       <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n"/>
@@ -42405,6 +42485,7 @@
       <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="n"/>
       <c r="H56" s="3" t="n"/>
+      <c r="I56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n"/>
@@ -42415,6 +42496,7 @@
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n"/>
@@ -42425,6 +42507,7 @@
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
       <c r="H58" s="3" t="n"/>
+      <c r="I58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n"/>
@@ -42435,6 +42518,7 @@
       <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="n"/>
       <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n"/>
@@ -42445,6 +42529,7 @@
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="n"/>
+      <c r="I60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n"/>
@@ -42455,6 +42540,7 @@
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n"/>
@@ -42465,6 +42551,7 @@
       <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="n"/>
       <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n"/>
@@ -42475,6 +42562,7 @@
       <c r="F63" s="3" t="n"/>
       <c r="G63" s="3" t="n"/>
       <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n"/>
@@ -42485,6 +42573,7 @@
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
       <c r="H64" s="3" t="n"/>
+      <c r="I64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n"/>
@@ -42495,6 +42584,7 @@
       <c r="F65" s="3" t="n"/>
       <c r="G65" s="3" t="n"/>
       <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n"/>
@@ -42505,6 +42595,7 @@
       <c r="F66" s="3" t="n"/>
       <c r="G66" s="3" t="n"/>
       <c r="H66" s="3" t="n"/>
+      <c r="I66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n"/>
@@ -42515,6 +42606,7 @@
       <c r="F67" s="3" t="n"/>
       <c r="G67" s="3" t="n"/>
       <c r="H67" s="3" t="n"/>
+      <c r="I67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n"/>
@@ -42525,6 +42617,7 @@
       <c r="F68" s="3" t="n"/>
       <c r="G68" s="3" t="n"/>
       <c r="H68" s="3" t="n"/>
+      <c r="I68" s="3" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n"/>
@@ -42535,6 +42628,7 @@
       <c r="F69" s="3" t="n"/>
       <c r="G69" s="3" t="n"/>
       <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n"/>
@@ -42545,6 +42639,7 @@
       <c r="F70" s="3" t="n"/>
       <c r="G70" s="3" t="n"/>
       <c r="H70" s="3" t="n"/>
+      <c r="I70" s="3" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n"/>
@@ -42555,6 +42650,7 @@
       <c r="F71" s="3" t="n"/>
       <c r="G71" s="3" t="n"/>
       <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n"/>
@@ -42565,6 +42661,7 @@
       <c r="F72" s="3" t="n"/>
       <c r="G72" s="3" t="n"/>
       <c r="H72" s="3" t="n"/>
+      <c r="I72" s="3" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n"/>
@@ -42575,6 +42672,7 @@
       <c r="F73" s="3" t="n"/>
       <c r="G73" s="3" t="n"/>
       <c r="H73" s="3" t="n"/>
+      <c r="I73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n"/>
@@ -42585,6 +42683,7 @@
       <c r="F74" s="3" t="n"/>
       <c r="G74" s="3" t="n"/>
       <c r="H74" s="3" t="n"/>
+      <c r="I74" s="3" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n"/>
@@ -42595,6 +42694,7 @@
       <c r="F75" s="3" t="n"/>
       <c r="G75" s="3" t="n"/>
       <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n"/>
@@ -42605,6 +42705,7 @@
       <c r="F76" s="3" t="n"/>
       <c r="G76" s="3" t="n"/>
       <c r="H76" s="3" t="n"/>
+      <c r="I76" s="3" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n"/>
@@ -42615,6 +42716,7 @@
       <c r="F77" s="3" t="n"/>
       <c r="G77" s="3" t="n"/>
       <c r="H77" s="3" t="n"/>
+      <c r="I77" s="3" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n"/>
@@ -42625,6 +42727,7 @@
       <c r="F78" s="3" t="n"/>
       <c r="G78" s="3" t="n"/>
       <c r="H78" s="3" t="n"/>
+      <c r="I78" s="3" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n"/>
@@ -42635,6 +42738,7 @@
       <c r="F79" s="3" t="n"/>
       <c r="G79" s="3" t="n"/>
       <c r="H79" s="3" t="n"/>
+      <c r="I79" s="3" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n"/>
@@ -42645,6 +42749,7 @@
       <c r="F80" s="3" t="n"/>
       <c r="G80" s="3" t="n"/>
       <c r="H80" s="3" t="n"/>
+      <c r="I80" s="3" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n"/>
@@ -42655,6 +42760,7 @@
       <c r="F81" s="3" t="n"/>
       <c r="G81" s="3" t="n"/>
       <c r="H81" s="3" t="n"/>
+      <c r="I81" s="3" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n"/>
@@ -42665,6 +42771,7 @@
       <c r="F82" s="3" t="n"/>
       <c r="G82" s="3" t="n"/>
       <c r="H82" s="3" t="n"/>
+      <c r="I82" s="3" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n"/>
@@ -42675,6 +42782,7 @@
       <c r="F83" s="3" t="n"/>
       <c r="G83" s="3" t="n"/>
       <c r="H83" s="3" t="n"/>
+      <c r="I83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n"/>
@@ -42685,6 +42793,7 @@
       <c r="F84" s="3" t="n"/>
       <c r="G84" s="3" t="n"/>
       <c r="H84" s="3" t="n"/>
+      <c r="I84" s="3" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n"/>
@@ -42695,6 +42804,7 @@
       <c r="F85" s="3" t="n"/>
       <c r="G85" s="3" t="n"/>
       <c r="H85" s="3" t="n"/>
+      <c r="I85" s="3" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n"/>
@@ -42705,6 +42815,7 @@
       <c r="F86" s="3" t="n"/>
       <c r="G86" s="3" t="n"/>
       <c r="H86" s="3" t="n"/>
+      <c r="I86" s="3" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n"/>
@@ -42715,6 +42826,7 @@
       <c r="F87" s="3" t="n"/>
       <c r="G87" s="3" t="n"/>
       <c r="H87" s="3" t="n"/>
+      <c r="I87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n"/>
@@ -42725,6 +42837,7 @@
       <c r="F88" s="3" t="n"/>
       <c r="G88" s="3" t="n"/>
       <c r="H88" s="3" t="n"/>
+      <c r="I88" s="3" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n"/>
@@ -42735,6 +42848,7 @@
       <c r="F89" s="3" t="n"/>
       <c r="G89" s="3" t="n"/>
       <c r="H89" s="3" t="n"/>
+      <c r="I89" s="3" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n"/>
@@ -42745,6 +42859,7 @@
       <c r="F90" s="3" t="n"/>
       <c r="G90" s="3" t="n"/>
       <c r="H90" s="3" t="n"/>
+      <c r="I90" s="3" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n"/>
@@ -42755,6 +42870,7 @@
       <c r="F91" s="3" t="n"/>
       <c r="G91" s="3" t="n"/>
       <c r="H91" s="3" t="n"/>
+      <c r="I91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n"/>
@@ -42765,6 +42881,7 @@
       <c r="F92" s="3" t="n"/>
       <c r="G92" s="3" t="n"/>
       <c r="H92" s="3" t="n"/>
+      <c r="I92" s="3" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n"/>
@@ -42775,6 +42892,7 @@
       <c r="F93" s="3" t="n"/>
       <c r="G93" s="3" t="n"/>
       <c r="H93" s="3" t="n"/>
+      <c r="I93" s="3" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n"/>
@@ -42785,6 +42903,7 @@
       <c r="F94" s="3" t="n"/>
       <c r="G94" s="3" t="n"/>
       <c r="H94" s="3" t="n"/>
+      <c r="I94" s="3" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n"/>
@@ -42795,6 +42914,7 @@
       <c r="F95" s="3" t="n"/>
       <c r="G95" s="3" t="n"/>
       <c r="H95" s="3" t="n"/>
+      <c r="I95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n"/>
@@ -42805,6 +42925,7 @@
       <c r="F96" s="3" t="n"/>
       <c r="G96" s="3" t="n"/>
       <c r="H96" s="3" t="n"/>
+      <c r="I96" s="3" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n"/>
@@ -42815,6 +42936,7 @@
       <c r="F97" s="3" t="n"/>
       <c r="G97" s="3" t="n"/>
       <c r="H97" s="3" t="n"/>
+      <c r="I97" s="3" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n"/>
@@ -42825,6 +42947,7 @@
       <c r="F98" s="3" t="n"/>
       <c r="G98" s="3" t="n"/>
       <c r="H98" s="3" t="n"/>
+      <c r="I98" s="3" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n"/>
@@ -42835,6 +42958,7 @@
       <c r="F99" s="3" t="n"/>
       <c r="G99" s="3" t="n"/>
       <c r="H99" s="3" t="n"/>
+      <c r="I99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n"/>
@@ -42845,6 +42969,7 @@
       <c r="F100" s="3" t="n"/>
       <c r="G100" s="3" t="n"/>
       <c r="H100" s="3" t="n"/>
+      <c r="I100" s="3" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n"/>
@@ -42855,6 +42980,7 @@
       <c r="F101" s="3" t="n"/>
       <c r="G101" s="3" t="n"/>
       <c r="H101" s="3" t="n"/>
+      <c r="I101" s="3" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n"/>
@@ -42865,6 +42991,7 @@
       <c r="F102" s="3" t="n"/>
       <c r="G102" s="3" t="n"/>
       <c r="H102" s="3" t="n"/>
+      <c r="I102" s="3" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n"/>
@@ -42875,6 +43002,7 @@
       <c r="F103" s="3" t="n"/>
       <c r="G103" s="3" t="n"/>
       <c r="H103" s="3" t="n"/>
+      <c r="I103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n"/>
@@ -42885,6 +43013,7 @@
       <c r="F104" s="3" t="n"/>
       <c r="G104" s="3" t="n"/>
       <c r="H104" s="3" t="n"/>
+      <c r="I104" s="3" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n"/>
@@ -42895,6 +43024,7 @@
       <c r="F105" s="3" t="n"/>
       <c r="G105" s="3" t="n"/>
       <c r="H105" s="3" t="n"/>
+      <c r="I105" s="3" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n"/>
@@ -42905,6 +43035,7 @@
       <c r="F106" s="3" t="n"/>
       <c r="G106" s="3" t="n"/>
       <c r="H106" s="3" t="n"/>
+      <c r="I106" s="3" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n"/>
@@ -42915,6 +43046,7 @@
       <c r="F107" s="3" t="n"/>
       <c r="G107" s="3" t="n"/>
       <c r="H107" s="3" t="n"/>
+      <c r="I107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n"/>
@@ -42925,6 +43057,7 @@
       <c r="F108" s="3" t="n"/>
       <c r="G108" s="3" t="n"/>
       <c r="H108" s="3" t="n"/>
+      <c r="I108" s="3" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n"/>
@@ -42935,6 +43068,7 @@
       <c r="F109" s="3" t="n"/>
       <c r="G109" s="3" t="n"/>
       <c r="H109" s="3" t="n"/>
+      <c r="I109" s="3" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n"/>
@@ -42945,6 +43079,7 @@
       <c r="F110" s="3" t="n"/>
       <c r="G110" s="3" t="n"/>
       <c r="H110" s="3" t="n"/>
+      <c r="I110" s="3" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n"/>
@@ -42955,6 +43090,7 @@
       <c r="F111" s="3" t="n"/>
       <c r="G111" s="3" t="n"/>
       <c r="H111" s="3" t="n"/>
+      <c r="I111" s="3" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n"/>
@@ -42965,6 +43101,7 @@
       <c r="F112" s="3" t="n"/>
       <c r="G112" s="3" t="n"/>
       <c r="H112" s="3" t="n"/>
+      <c r="I112" s="3" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n"/>
@@ -42975,6 +43112,7 @@
       <c r="F113" s="3" t="n"/>
       <c r="G113" s="3" t="n"/>
       <c r="H113" s="3" t="n"/>
+      <c r="I113" s="3" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n"/>
@@ -42985,6 +43123,7 @@
       <c r="F114" s="3" t="n"/>
       <c r="G114" s="3" t="n"/>
       <c r="H114" s="3" t="n"/>
+      <c r="I114" s="3" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n"/>
@@ -42995,6 +43134,7 @@
       <c r="F115" s="3" t="n"/>
       <c r="G115" s="3" t="n"/>
       <c r="H115" s="3" t="n"/>
+      <c r="I115" s="3" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n"/>
@@ -43005,6 +43145,7 @@
       <c r="F116" s="3" t="n"/>
       <c r="G116" s="3" t="n"/>
       <c r="H116" s="3" t="n"/>
+      <c r="I116" s="3" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n"/>
@@ -43015,6 +43156,7 @@
       <c r="F117" s="3" t="n"/>
       <c r="G117" s="3" t="n"/>
       <c r="H117" s="3" t="n"/>
+      <c r="I117" s="3" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n"/>
@@ -43025,6 +43167,7 @@
       <c r="F118" s="3" t="n"/>
       <c r="G118" s="3" t="n"/>
       <c r="H118" s="3" t="n"/>
+      <c r="I118" s="3" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n"/>
@@ -43035,6 +43178,7 @@
       <c r="F119" s="3" t="n"/>
       <c r="G119" s="3" t="n"/>
       <c r="H119" s="3" t="n"/>
+      <c r="I119" s="3" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n"/>
@@ -43045,6 +43189,7 @@
       <c r="F120" s="3" t="n"/>
       <c r="G120" s="3" t="n"/>
       <c r="H120" s="3" t="n"/>
+      <c r="I120" s="3" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n"/>
@@ -43055,6 +43200,7 @@
       <c r="F121" s="3" t="n"/>
       <c r="G121" s="3" t="n"/>
       <c r="H121" s="3" t="n"/>
+      <c r="I121" s="3" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n"/>
@@ -43065,6 +43211,7 @@
       <c r="F122" s="3" t="n"/>
       <c r="G122" s="3" t="n"/>
       <c r="H122" s="3" t="n"/>
+      <c r="I122" s="3" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n"/>
@@ -43075,6 +43222,7 @@
       <c r="F123" s="3" t="n"/>
       <c r="G123" s="3" t="n"/>
       <c r="H123" s="3" t="n"/>
+      <c r="I123" s="3" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n"/>
@@ -43085,6 +43233,7 @@
       <c r="F124" s="3" t="n"/>
       <c r="G124" s="3" t="n"/>
       <c r="H124" s="3" t="n"/>
+      <c r="I124" s="3" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n"/>
@@ -43095,6 +43244,7 @@
       <c r="F125" s="3" t="n"/>
       <c r="G125" s="3" t="n"/>
       <c r="H125" s="3" t="n"/>
+      <c r="I125" s="3" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n"/>
@@ -43105,6 +43255,7 @@
       <c r="F126" s="3" t="n"/>
       <c r="G126" s="3" t="n"/>
       <c r="H126" s="3" t="n"/>
+      <c r="I126" s="3" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n"/>
@@ -43115,6 +43266,7 @@
       <c r="F127" s="3" t="n"/>
       <c r="G127" s="3" t="n"/>
       <c r="H127" s="3" t="n"/>
+      <c r="I127" s="3" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n"/>
@@ -43125,6 +43277,7 @@
       <c r="F128" s="3" t="n"/>
       <c r="G128" s="3" t="n"/>
       <c r="H128" s="3" t="n"/>
+      <c r="I128" s="3" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n"/>
@@ -43135,6 +43288,7 @@
       <c r="F129" s="3" t="n"/>
       <c r="G129" s="3" t="n"/>
       <c r="H129" s="3" t="n"/>
+      <c r="I129" s="3" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n"/>
@@ -43145,6 +43299,7 @@
       <c r="F130" s="3" t="n"/>
       <c r="G130" s="3" t="n"/>
       <c r="H130" s="3" t="n"/>
+      <c r="I130" s="3" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n"/>
@@ -43155,6 +43310,7 @@
       <c r="F131" s="3" t="n"/>
       <c r="G131" s="3" t="n"/>
       <c r="H131" s="3" t="n"/>
+      <c r="I131" s="3" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n"/>
@@ -43165,6 +43321,7 @@
       <c r="F132" s="3" t="n"/>
       <c r="G132" s="3" t="n"/>
       <c r="H132" s="3" t="n"/>
+      <c r="I132" s="3" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n"/>
@@ -43175,6 +43332,7 @@
       <c r="F133" s="3" t="n"/>
       <c r="G133" s="3" t="n"/>
       <c r="H133" s="3" t="n"/>
+      <c r="I133" s="3" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n"/>
@@ -43185,6 +43343,7 @@
       <c r="F134" s="3" t="n"/>
       <c r="G134" s="3" t="n"/>
       <c r="H134" s="3" t="n"/>
+      <c r="I134" s="3" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n"/>
@@ -43195,6 +43354,7 @@
       <c r="F135" s="3" t="n"/>
       <c r="G135" s="3" t="n"/>
       <c r="H135" s="3" t="n"/>
+      <c r="I135" s="3" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n"/>
@@ -43205,6 +43365,7 @@
       <c r="F136" s="3" t="n"/>
       <c r="G136" s="3" t="n"/>
       <c r="H136" s="3" t="n"/>
+      <c r="I136" s="3" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n"/>
@@ -43215,6 +43376,7 @@
       <c r="F137" s="3" t="n"/>
       <c r="G137" s="3" t="n"/>
       <c r="H137" s="3" t="n"/>
+      <c r="I137" s="3" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n"/>
@@ -43225,6 +43387,7 @@
       <c r="F138" s="3" t="n"/>
       <c r="G138" s="3" t="n"/>
       <c r="H138" s="3" t="n"/>
+      <c r="I138" s="3" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n"/>
@@ -43235,6 +43398,7 @@
       <c r="F139" s="3" t="n"/>
       <c r="G139" s="3" t="n"/>
       <c r="H139" s="3" t="n"/>
+      <c r="I139" s="3" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n"/>
@@ -43245,6 +43409,7 @@
       <c r="F140" s="3" t="n"/>
       <c r="G140" s="3" t="n"/>
       <c r="H140" s="3" t="n"/>
+      <c r="I140" s="3" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n"/>
@@ -43255,6 +43420,7 @@
       <c r="F141" s="3" t="n"/>
       <c r="G141" s="3" t="n"/>
       <c r="H141" s="3" t="n"/>
+      <c r="I141" s="3" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n"/>
@@ -43265,6 +43431,7 @@
       <c r="F142" s="3" t="n"/>
       <c r="G142" s="3" t="n"/>
       <c r="H142" s="3" t="n"/>
+      <c r="I142" s="3" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n"/>
@@ -43275,6 +43442,7 @@
       <c r="F143" s="3" t="n"/>
       <c r="G143" s="3" t="n"/>
       <c r="H143" s="3" t="n"/>
+      <c r="I143" s="3" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n"/>
@@ -43285,6 +43453,7 @@
       <c r="F144" s="3" t="n"/>
       <c r="G144" s="3" t="n"/>
       <c r="H144" s="3" t="n"/>
+      <c r="I144" s="3" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n"/>
@@ -43295,6 +43464,7 @@
       <c r="F145" s="3" t="n"/>
       <c r="G145" s="3" t="n"/>
       <c r="H145" s="3" t="n"/>
+      <c r="I145" s="3" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n"/>
@@ -43305,6 +43475,7 @@
       <c r="F146" s="3" t="n"/>
       <c r="G146" s="3" t="n"/>
       <c r="H146" s="3" t="n"/>
+      <c r="I146" s="3" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n"/>
@@ -43315,6 +43486,7 @@
       <c r="F147" s="3" t="n"/>
       <c r="G147" s="3" t="n"/>
       <c r="H147" s="3" t="n"/>
+      <c r="I147" s="3" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n"/>
@@ -43325,6 +43497,7 @@
       <c r="F148" s="3" t="n"/>
       <c r="G148" s="3" t="n"/>
       <c r="H148" s="3" t="n"/>
+      <c r="I148" s="3" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n"/>
@@ -43335,6 +43508,7 @@
       <c r="F149" s="3" t="n"/>
       <c r="G149" s="3" t="n"/>
       <c r="H149" s="3" t="n"/>
+      <c r="I149" s="3" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n"/>
@@ -43345,6 +43519,7 @@
       <c r="F150" s="3" t="n"/>
       <c r="G150" s="3" t="n"/>
       <c r="H150" s="3" t="n"/>
+      <c r="I150" s="3" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n"/>
@@ -43355,6 +43530,7 @@
       <c r="F151" s="3" t="n"/>
       <c r="G151" s="3" t="n"/>
       <c r="H151" s="3" t="n"/>
+      <c r="I151" s="3" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n"/>
@@ -43365,6 +43541,7 @@
       <c r="F152" s="3" t="n"/>
       <c r="G152" s="3" t="n"/>
       <c r="H152" s="3" t="n"/>
+      <c r="I152" s="3" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n"/>
@@ -43375,6 +43552,7 @@
       <c r="F153" s="3" t="n"/>
       <c r="G153" s="3" t="n"/>
       <c r="H153" s="3" t="n"/>
+      <c r="I153" s="3" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n"/>
@@ -43385,6 +43563,7 @@
       <c r="F154" s="3" t="n"/>
       <c r="G154" s="3" t="n"/>
       <c r="H154" s="3" t="n"/>
+      <c r="I154" s="3" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n"/>
@@ -43395,6 +43574,7 @@
       <c r="F155" s="3" t="n"/>
       <c r="G155" s="3" t="n"/>
       <c r="H155" s="3" t="n"/>
+      <c r="I155" s="3" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n"/>
@@ -43405,6 +43585,7 @@
       <c r="F156" s="3" t="n"/>
       <c r="G156" s="3" t="n"/>
       <c r="H156" s="3" t="n"/>
+      <c r="I156" s="3" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n"/>
@@ -43415,6 +43596,7 @@
       <c r="F157" s="3" t="n"/>
       <c r="G157" s="3" t="n"/>
       <c r="H157" s="3" t="n"/>
+      <c r="I157" s="3" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n"/>
@@ -43425,6 +43607,7 @@
       <c r="F158" s="3" t="n"/>
       <c r="G158" s="3" t="n"/>
       <c r="H158" s="3" t="n"/>
+      <c r="I158" s="3" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n"/>
@@ -43435,6 +43618,7 @@
       <c r="F159" s="3" t="n"/>
       <c r="G159" s="3" t="n"/>
       <c r="H159" s="3" t="n"/>
+      <c r="I159" s="3" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n"/>
@@ -43445,6 +43629,7 @@
       <c r="F160" s="3" t="n"/>
       <c r="G160" s="3" t="n"/>
       <c r="H160" s="3" t="n"/>
+      <c r="I160" s="3" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n"/>
@@ -43455,6 +43640,7 @@
       <c r="F161" s="3" t="n"/>
       <c r="G161" s="3" t="n"/>
       <c r="H161" s="3" t="n"/>
+      <c r="I161" s="3" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n"/>
@@ -43465,6 +43651,7 @@
       <c r="F162" s="3" t="n"/>
       <c r="G162" s="3" t="n"/>
       <c r="H162" s="3" t="n"/>
+      <c r="I162" s="3" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n"/>
@@ -43475,6 +43662,7 @@
       <c r="F163" s="3" t="n"/>
       <c r="G163" s="3" t="n"/>
       <c r="H163" s="3" t="n"/>
+      <c r="I163" s="3" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n"/>
@@ -43485,6 +43673,7 @@
       <c r="F164" s="3" t="n"/>
       <c r="G164" s="3" t="n"/>
       <c r="H164" s="3" t="n"/>
+      <c r="I164" s="3" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n"/>
@@ -43495,6 +43684,7 @@
       <c r="F165" s="3" t="n"/>
       <c r="G165" s="3" t="n"/>
       <c r="H165" s="3" t="n"/>
+      <c r="I165" s="3" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n"/>
@@ -43505,6 +43695,7 @@
       <c r="F166" s="3" t="n"/>
       <c r="G166" s="3" t="n"/>
       <c r="H166" s="3" t="n"/>
+      <c r="I166" s="3" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n"/>
@@ -43515,6 +43706,7 @@
       <c r="F167" s="3" t="n"/>
       <c r="G167" s="3" t="n"/>
       <c r="H167" s="3" t="n"/>
+      <c r="I167" s="3" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n"/>
@@ -43525,6 +43717,7 @@
       <c r="F168" s="3" t="n"/>
       <c r="G168" s="3" t="n"/>
       <c r="H168" s="3" t="n"/>
+      <c r="I168" s="3" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n"/>
@@ -43535,6 +43728,7 @@
       <c r="F169" s="3" t="n"/>
       <c r="G169" s="3" t="n"/>
       <c r="H169" s="3" t="n"/>
+      <c r="I169" s="3" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n"/>
@@ -43545,6 +43739,7 @@
       <c r="F170" s="3" t="n"/>
       <c r="G170" s="3" t="n"/>
       <c r="H170" s="3" t="n"/>
+      <c r="I170" s="3" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n"/>
@@ -43555,6 +43750,7 @@
       <c r="F171" s="3" t="n"/>
       <c r="G171" s="3" t="n"/>
       <c r="H171" s="3" t="n"/>
+      <c r="I171" s="3" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n"/>
@@ -43565,6 +43761,7 @@
       <c r="F172" s="3" t="n"/>
       <c r="G172" s="3" t="n"/>
       <c r="H172" s="3" t="n"/>
+      <c r="I172" s="3" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n"/>
@@ -43575,6 +43772,7 @@
       <c r="F173" s="3" t="n"/>
       <c r="G173" s="3" t="n"/>
       <c r="H173" s="3" t="n"/>
+      <c r="I173" s="3" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n"/>
@@ -43585,6 +43783,7 @@
       <c r="F174" s="3" t="n"/>
       <c r="G174" s="3" t="n"/>
       <c r="H174" s="3" t="n"/>
+      <c r="I174" s="3" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n"/>
@@ -43595,6 +43794,7 @@
       <c r="F175" s="3" t="n"/>
       <c r="G175" s="3" t="n"/>
       <c r="H175" s="3" t="n"/>
+      <c r="I175" s="3" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n"/>
@@ -43605,6 +43805,7 @@
       <c r="F176" s="3" t="n"/>
       <c r="G176" s="3" t="n"/>
       <c r="H176" s="3" t="n"/>
+      <c r="I176" s="3" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n"/>
@@ -43615,6 +43816,7 @@
       <c r="F177" s="3" t="n"/>
       <c r="G177" s="3" t="n"/>
       <c r="H177" s="3" t="n"/>
+      <c r="I177" s="3" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n"/>
@@ -43625,6 +43827,7 @@
       <c r="F178" s="3" t="n"/>
       <c r="G178" s="3" t="n"/>
       <c r="H178" s="3" t="n"/>
+      <c r="I178" s="3" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n"/>
@@ -43635,6 +43838,7 @@
       <c r="F179" s="3" t="n"/>
       <c r="G179" s="3" t="n"/>
       <c r="H179" s="3" t="n"/>
+      <c r="I179" s="3" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n"/>
@@ -43645,6 +43849,7 @@
       <c r="F180" s="3" t="n"/>
       <c r="G180" s="3" t="n"/>
       <c r="H180" s="3" t="n"/>
+      <c r="I180" s="3" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n"/>
@@ -43655,6 +43860,7 @@
       <c r="F181" s="3" t="n"/>
       <c r="G181" s="3" t="n"/>
       <c r="H181" s="3" t="n"/>
+      <c r="I181" s="3" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n"/>
@@ -43665,6 +43871,7 @@
       <c r="F182" s="3" t="n"/>
       <c r="G182" s="3" t="n"/>
       <c r="H182" s="3" t="n"/>
+      <c r="I182" s="3" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n"/>
@@ -43675,6 +43882,7 @@
       <c r="F183" s="3" t="n"/>
       <c r="G183" s="3" t="n"/>
       <c r="H183" s="3" t="n"/>
+      <c r="I183" s="3" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n"/>
@@ -43685,6 +43893,7 @@
       <c r="F184" s="3" t="n"/>
       <c r="G184" s="3" t="n"/>
       <c r="H184" s="3" t="n"/>
+      <c r="I184" s="3" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n"/>
@@ -43695,6 +43904,7 @@
       <c r="F185" s="3" t="n"/>
       <c r="G185" s="3" t="n"/>
       <c r="H185" s="3" t="n"/>
+      <c r="I185" s="3" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n"/>
@@ -43705,6 +43915,7 @@
       <c r="F186" s="3" t="n"/>
       <c r="G186" s="3" t="n"/>
       <c r="H186" s="3" t="n"/>
+      <c r="I186" s="3" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n"/>
@@ -43715,6 +43926,7 @@
       <c r="F187" s="3" t="n"/>
       <c r="G187" s="3" t="n"/>
       <c r="H187" s="3" t="n"/>
+      <c r="I187" s="3" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n"/>
@@ -43725,6 +43937,7 @@
       <c r="F188" s="3" t="n"/>
       <c r="G188" s="3" t="n"/>
       <c r="H188" s="3" t="n"/>
+      <c r="I188" s="3" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n"/>
@@ -43735,6 +43948,7 @@
       <c r="F189" s="3" t="n"/>
       <c r="G189" s="3" t="n"/>
       <c r="H189" s="3" t="n"/>
+      <c r="I189" s="3" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n"/>
@@ -43745,6 +43959,7 @@
       <c r="F190" s="3" t="n"/>
       <c r="G190" s="3" t="n"/>
       <c r="H190" s="3" t="n"/>
+      <c r="I190" s="3" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n"/>
@@ -43755,6 +43970,7 @@
       <c r="F191" s="3" t="n"/>
       <c r="G191" s="3" t="n"/>
       <c r="H191" s="3" t="n"/>
+      <c r="I191" s="3" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n"/>
@@ -43765,6 +43981,7 @@
       <c r="F192" s="3" t="n"/>
       <c r="G192" s="3" t="n"/>
       <c r="H192" s="3" t="n"/>
+      <c r="I192" s="3" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n"/>
@@ -43775,6 +43992,7 @@
       <c r="F193" s="3" t="n"/>
       <c r="G193" s="3" t="n"/>
       <c r="H193" s="3" t="n"/>
+      <c r="I193" s="3" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n"/>
@@ -43785,6 +44003,7 @@
       <c r="F194" s="3" t="n"/>
       <c r="G194" s="3" t="n"/>
       <c r="H194" s="3" t="n"/>
+      <c r="I194" s="3" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n"/>
@@ -43795,6 +44014,7 @@
       <c r="F195" s="3" t="n"/>
       <c r="G195" s="3" t="n"/>
       <c r="H195" s="3" t="n"/>
+      <c r="I195" s="3" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n"/>
@@ -43805,6 +44025,7 @@
       <c r="F196" s="3" t="n"/>
       <c r="G196" s="3" t="n"/>
       <c r="H196" s="3" t="n"/>
+      <c r="I196" s="3" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n"/>
@@ -43815,6 +44036,7 @@
       <c r="F197" s="3" t="n"/>
       <c r="G197" s="3" t="n"/>
       <c r="H197" s="3" t="n"/>
+      <c r="I197" s="3" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n"/>
@@ -43825,6 +44047,7 @@
       <c r="F198" s="3" t="n"/>
       <c r="G198" s="3" t="n"/>
       <c r="H198" s="3" t="n"/>
+      <c r="I198" s="3" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n"/>
@@ -43835,6 +44058,7 @@
       <c r="F199" s="3" t="n"/>
       <c r="G199" s="3" t="n"/>
       <c r="H199" s="3" t="n"/>
+      <c r="I199" s="3" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n"/>
@@ -43845,6 +44069,7 @@
       <c r="F200" s="3" t="n"/>
       <c r="G200" s="3" t="n"/>
       <c r="H200" s="3" t="n"/>
+      <c r="I200" s="3" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n"/>
@@ -43855,6 +44080,7 @@
       <c r="F201" s="3" t="n"/>
       <c r="G201" s="3" t="n"/>
       <c r="H201" s="3" t="n"/>
+      <c r="I201" s="3" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n"/>
@@ -43865,6 +44091,7 @@
       <c r="F202" s="3" t="n"/>
       <c r="G202" s="3" t="n"/>
       <c r="H202" s="3" t="n"/>
+      <c r="I202" s="3" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n"/>
@@ -43875,6 +44102,7 @@
       <c r="F203" s="3" t="n"/>
       <c r="G203" s="3" t="n"/>
       <c r="H203" s="3" t="n"/>
+      <c r="I203" s="3" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n"/>
@@ -43885,6 +44113,7 @@
       <c r="F204" s="3" t="n"/>
       <c r="G204" s="3" t="n"/>
       <c r="H204" s="3" t="n"/>
+      <c r="I204" s="3" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n"/>
@@ -43895,6 +44124,7 @@
       <c r="F205" s="3" t="n"/>
       <c r="G205" s="3" t="n"/>
       <c r="H205" s="3" t="n"/>
+      <c r="I205" s="3" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n"/>
@@ -43905,6 +44135,7 @@
       <c r="F206" s="3" t="n"/>
       <c r="G206" s="3" t="n"/>
       <c r="H206" s="3" t="n"/>
+      <c r="I206" s="3" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n"/>
@@ -43915,6 +44146,7 @@
       <c r="F207" s="3" t="n"/>
       <c r="G207" s="3" t="n"/>
       <c r="H207" s="3" t="n"/>
+      <c r="I207" s="3" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n"/>
@@ -43925,6 +44157,7 @@
       <c r="F208" s="3" t="n"/>
       <c r="G208" s="3" t="n"/>
       <c r="H208" s="3" t="n"/>
+      <c r="I208" s="3" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n"/>
@@ -43935,6 +44168,7 @@
       <c r="F209" s="3" t="n"/>
       <c r="G209" s="3" t="n"/>
       <c r="H209" s="3" t="n"/>
+      <c r="I209" s="3" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n"/>
@@ -43945,6 +44179,7 @@
       <c r="F210" s="3" t="n"/>
       <c r="G210" s="3" t="n"/>
       <c r="H210" s="3" t="n"/>
+      <c r="I210" s="3" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n"/>
@@ -43955,6 +44190,7 @@
       <c r="F211" s="3" t="n"/>
       <c r="G211" s="3" t="n"/>
       <c r="H211" s="3" t="n"/>
+      <c r="I211" s="3" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n"/>
@@ -43965,6 +44201,7 @@
       <c r="F212" s="3" t="n"/>
       <c r="G212" s="3" t="n"/>
       <c r="H212" s="3" t="n"/>
+      <c r="I212" s="3" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n"/>
@@ -43975,6 +44212,7 @@
       <c r="F213" s="3" t="n"/>
       <c r="G213" s="3" t="n"/>
       <c r="H213" s="3" t="n"/>
+      <c r="I213" s="3" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n"/>
@@ -43985,6 +44223,7 @@
       <c r="F214" s="3" t="n"/>
       <c r="G214" s="3" t="n"/>
       <c r="H214" s="3" t="n"/>
+      <c r="I214" s="3" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n"/>
@@ -43995,6 +44234,7 @@
       <c r="F215" s="3" t="n"/>
       <c r="G215" s="3" t="n"/>
       <c r="H215" s="3" t="n"/>
+      <c r="I215" s="3" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n"/>
@@ -44005,6 +44245,7 @@
       <c r="F216" s="3" t="n"/>
       <c r="G216" s="3" t="n"/>
       <c r="H216" s="3" t="n"/>
+      <c r="I216" s="3" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n"/>
@@ -44015,6 +44256,7 @@
       <c r="F217" s="3" t="n"/>
       <c r="G217" s="3" t="n"/>
       <c r="H217" s="3" t="n"/>
+      <c r="I217" s="3" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n"/>
@@ -44025,6 +44267,7 @@
       <c r="F218" s="3" t="n"/>
       <c r="G218" s="3" t="n"/>
       <c r="H218" s="3" t="n"/>
+      <c r="I218" s="3" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n"/>
@@ -44035,6 +44278,7 @@
       <c r="F219" s="3" t="n"/>
       <c r="G219" s="3" t="n"/>
       <c r="H219" s="3" t="n"/>
+      <c r="I219" s="3" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n"/>
@@ -44045,6 +44289,7 @@
       <c r="F220" s="3" t="n"/>
       <c r="G220" s="3" t="n"/>
       <c r="H220" s="3" t="n"/>
+      <c r="I220" s="3" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n"/>
@@ -44055,6 +44300,7 @@
       <c r="F221" s="3" t="n"/>
       <c r="G221" s="3" t="n"/>
       <c r="H221" s="3" t="n"/>
+      <c r="I221" s="3" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n"/>
@@ -44065,6 +44311,7 @@
       <c r="F222" s="3" t="n"/>
       <c r="G222" s="3" t="n"/>
       <c r="H222" s="3" t="n"/>
+      <c r="I222" s="3" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n"/>
@@ -44075,6 +44322,7 @@
       <c r="F223" s="3" t="n"/>
       <c r="G223" s="3" t="n"/>
       <c r="H223" s="3" t="n"/>
+      <c r="I223" s="3" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n"/>
@@ -44085,6 +44333,7 @@
       <c r="F224" s="3" t="n"/>
       <c r="G224" s="3" t="n"/>
       <c r="H224" s="3" t="n"/>
+      <c r="I224" s="3" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n"/>
@@ -44095,6 +44344,7 @@
       <c r="F225" s="3" t="n"/>
       <c r="G225" s="3" t="n"/>
       <c r="H225" s="3" t="n"/>
+      <c r="I225" s="3" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n"/>
@@ -44105,6 +44355,7 @@
       <c r="F226" s="3" t="n"/>
       <c r="G226" s="3" t="n"/>
       <c r="H226" s="3" t="n"/>
+      <c r="I226" s="3" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n"/>
@@ -44115,6 +44366,7 @@
       <c r="F227" s="3" t="n"/>
       <c r="G227" s="3" t="n"/>
       <c r="H227" s="3" t="n"/>
+      <c r="I227" s="3" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n"/>
@@ -44125,6 +44377,7 @@
       <c r="F228" s="3" t="n"/>
       <c r="G228" s="3" t="n"/>
       <c r="H228" s="3" t="n"/>
+      <c r="I228" s="3" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n"/>
@@ -44135,6 +44388,7 @@
       <c r="F229" s="3" t="n"/>
       <c r="G229" s="3" t="n"/>
       <c r="H229" s="3" t="n"/>
+      <c r="I229" s="3" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n"/>
@@ -44145,6 +44399,7 @@
       <c r="F230" s="3" t="n"/>
       <c r="G230" s="3" t="n"/>
       <c r="H230" s="3" t="n"/>
+      <c r="I230" s="3" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n"/>
@@ -44155,6 +44410,7 @@
       <c r="F231" s="3" t="n"/>
       <c r="G231" s="3" t="n"/>
       <c r="H231" s="3" t="n"/>
+      <c r="I231" s="3" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n"/>
@@ -44165,6 +44421,7 @@
       <c r="F232" s="3" t="n"/>
       <c r="G232" s="3" t="n"/>
       <c r="H232" s="3" t="n"/>
+      <c r="I232" s="3" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n"/>
@@ -44175,6 +44432,7 @@
       <c r="F233" s="3" t="n"/>
       <c r="G233" s="3" t="n"/>
       <c r="H233" s="3" t="n"/>
+      <c r="I233" s="3" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n"/>
@@ -44185,6 +44443,7 @@
       <c r="F234" s="3" t="n"/>
       <c r="G234" s="3" t="n"/>
       <c r="H234" s="3" t="n"/>
+      <c r="I234" s="3" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n"/>
@@ -44195,6 +44454,7 @@
       <c r="F235" s="3" t="n"/>
       <c r="G235" s="3" t="n"/>
       <c r="H235" s="3" t="n"/>
+      <c r="I235" s="3" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n"/>
@@ -44205,6 +44465,7 @@
       <c r="F236" s="3" t="n"/>
       <c r="G236" s="3" t="n"/>
       <c r="H236" s="3" t="n"/>
+      <c r="I236" s="3" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n"/>
@@ -44215,6 +44476,7 @@
       <c r="F237" s="3" t="n"/>
       <c r="G237" s="3" t="n"/>
       <c r="H237" s="3" t="n"/>
+      <c r="I237" s="3" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n"/>
@@ -44225,6 +44487,7 @@
       <c r="F238" s="3" t="n"/>
       <c r="G238" s="3" t="n"/>
       <c r="H238" s="3" t="n"/>
+      <c r="I238" s="3" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n"/>
@@ -44235,6 +44498,7 @@
       <c r="F239" s="3" t="n"/>
       <c r="G239" s="3" t="n"/>
       <c r="H239" s="3" t="n"/>
+      <c r="I239" s="3" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n"/>
@@ -44245,6 +44509,7 @@
       <c r="F240" s="3" t="n"/>
       <c r="G240" s="3" t="n"/>
       <c r="H240" s="3" t="n"/>
+      <c r="I240" s="3" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n"/>
@@ -44255,6 +44520,7 @@
       <c r="F241" s="3" t="n"/>
       <c r="G241" s="3" t="n"/>
       <c r="H241" s="3" t="n"/>
+      <c r="I241" s="3" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n"/>
@@ -44265,6 +44531,7 @@
       <c r="F242" s="3" t="n"/>
       <c r="G242" s="3" t="n"/>
       <c r="H242" s="3" t="n"/>
+      <c r="I242" s="3" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n"/>
@@ -44275,6 +44542,7 @@
       <c r="F243" s="3" t="n"/>
       <c r="G243" s="3" t="n"/>
       <c r="H243" s="3" t="n"/>
+      <c r="I243" s="3" t="n"/>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n"/>
@@ -44285,6 +44553,7 @@
       <c r="F244" s="3" t="n"/>
       <c r="G244" s="3" t="n"/>
       <c r="H244" s="3" t="n"/>
+      <c r="I244" s="3" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n"/>
@@ -44295,6 +44564,7 @@
       <c r="F245" s="3" t="n"/>
       <c r="G245" s="3" t="n"/>
       <c r="H245" s="3" t="n"/>
+      <c r="I245" s="3" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n"/>
@@ -44305,6 +44575,7 @@
       <c r="F246" s="3" t="n"/>
       <c r="G246" s="3" t="n"/>
       <c r="H246" s="3" t="n"/>
+      <c r="I246" s="3" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n"/>
@@ -44315,6 +44586,7 @@
       <c r="F247" s="3" t="n"/>
       <c r="G247" s="3" t="n"/>
       <c r="H247" s="3" t="n"/>
+      <c r="I247" s="3" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n"/>
@@ -44325,6 +44597,7 @@
       <c r="F248" s="3" t="n"/>
       <c r="G248" s="3" t="n"/>
       <c r="H248" s="3" t="n"/>
+      <c r="I248" s="3" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n"/>
@@ -44335,6 +44608,7 @@
       <c r="F249" s="3" t="n"/>
       <c r="G249" s="3" t="n"/>
       <c r="H249" s="3" t="n"/>
+      <c r="I249" s="3" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n"/>
@@ -44345,6 +44619,7 @@
       <c r="F250" s="3" t="n"/>
       <c r="G250" s="3" t="n"/>
       <c r="H250" s="3" t="n"/>
+      <c r="I250" s="3" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n"/>
@@ -44355,6 +44630,7 @@
       <c r="F251" s="3" t="n"/>
       <c r="G251" s="3" t="n"/>
       <c r="H251" s="3" t="n"/>
+      <c r="I251" s="3" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n"/>
@@ -44365,6 +44641,7 @@
       <c r="F252" s="3" t="n"/>
       <c r="G252" s="3" t="n"/>
       <c r="H252" s="3" t="n"/>
+      <c r="I252" s="3" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n"/>
@@ -44375,6 +44652,7 @@
       <c r="F253" s="3" t="n"/>
       <c r="G253" s="3" t="n"/>
       <c r="H253" s="3" t="n"/>
+      <c r="I253" s="3" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n"/>
@@ -44385,6 +44663,7 @@
       <c r="F254" s="3" t="n"/>
       <c r="G254" s="3" t="n"/>
       <c r="H254" s="3" t="n"/>
+      <c r="I254" s="3" t="n"/>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n"/>
@@ -44395,6 +44674,7 @@
       <c r="F255" s="3" t="n"/>
       <c r="G255" s="3" t="n"/>
       <c r="H255" s="3" t="n"/>
+      <c r="I255" s="3" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n"/>
@@ -44405,6 +44685,7 @@
       <c r="F256" s="3" t="n"/>
       <c r="G256" s="3" t="n"/>
       <c r="H256" s="3" t="n"/>
+      <c r="I256" s="3" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n"/>
@@ -44415,6 +44696,7 @@
       <c r="F257" s="3" t="n"/>
       <c r="G257" s="3" t="n"/>
       <c r="H257" s="3" t="n"/>
+      <c r="I257" s="3" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n"/>
@@ -44425,6 +44707,7 @@
       <c r="F258" s="3" t="n"/>
       <c r="G258" s="3" t="n"/>
       <c r="H258" s="3" t="n"/>
+      <c r="I258" s="3" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n"/>
@@ -44435,6 +44718,7 @@
       <c r="F259" s="3" t="n"/>
       <c r="G259" s="3" t="n"/>
       <c r="H259" s="3" t="n"/>
+      <c r="I259" s="3" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n"/>
@@ -44445,6 +44729,7 @@
       <c r="F260" s="3" t="n"/>
       <c r="G260" s="3" t="n"/>
       <c r="H260" s="3" t="n"/>
+      <c r="I260" s="3" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n"/>
@@ -44455,6 +44740,7 @@
       <c r="F261" s="3" t="n"/>
       <c r="G261" s="3" t="n"/>
       <c r="H261" s="3" t="n"/>
+      <c r="I261" s="3" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n"/>
@@ -44465,6 +44751,7 @@
       <c r="F262" s="3" t="n"/>
       <c r="G262" s="3" t="n"/>
       <c r="H262" s="3" t="n"/>
+      <c r="I262" s="3" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n"/>
@@ -44475,6 +44762,7 @@
       <c r="F263" s="3" t="n"/>
       <c r="G263" s="3" t="n"/>
       <c r="H263" s="3" t="n"/>
+      <c r="I263" s="3" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n"/>
@@ -44485,6 +44773,7 @@
       <c r="F264" s="3" t="n"/>
       <c r="G264" s="3" t="n"/>
       <c r="H264" s="3" t="n"/>
+      <c r="I264" s="3" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n"/>
@@ -44495,6 +44784,7 @@
       <c r="F265" s="3" t="n"/>
       <c r="G265" s="3" t="n"/>
       <c r="H265" s="3" t="n"/>
+      <c r="I265" s="3" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n"/>
@@ -44505,6 +44795,7 @@
       <c r="F266" s="3" t="n"/>
       <c r="G266" s="3" t="n"/>
       <c r="H266" s="3" t="n"/>
+      <c r="I266" s="3" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n"/>
@@ -44515,6 +44806,7 @@
       <c r="F267" s="3" t="n"/>
       <c r="G267" s="3" t="n"/>
       <c r="H267" s="3" t="n"/>
+      <c r="I267" s="3" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n"/>
@@ -44525,6 +44817,7 @@
       <c r="F268" s="3" t="n"/>
       <c r="G268" s="3" t="n"/>
       <c r="H268" s="3" t="n"/>
+      <c r="I268" s="3" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n"/>
@@ -44535,6 +44828,7 @@
       <c r="F269" s="3" t="n"/>
       <c r="G269" s="3" t="n"/>
       <c r="H269" s="3" t="n"/>
+      <c r="I269" s="3" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n"/>
@@ -44545,6 +44839,7 @@
       <c r="F270" s="3" t="n"/>
       <c r="G270" s="3" t="n"/>
       <c r="H270" s="3" t="n"/>
+      <c r="I270" s="3" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n"/>
@@ -44555,6 +44850,7 @@
       <c r="F271" s="3" t="n"/>
       <c r="G271" s="3" t="n"/>
       <c r="H271" s="3" t="n"/>
+      <c r="I271" s="3" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n"/>
@@ -44565,6 +44861,7 @@
       <c r="F272" s="3" t="n"/>
       <c r="G272" s="3" t="n"/>
       <c r="H272" s="3" t="n"/>
+      <c r="I272" s="3" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n"/>
@@ -44575,6 +44872,7 @@
       <c r="F273" s="3" t="n"/>
       <c r="G273" s="3" t="n"/>
       <c r="H273" s="3" t="n"/>
+      <c r="I273" s="3" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n"/>
@@ -44585,6 +44883,7 @@
       <c r="F274" s="3" t="n"/>
       <c r="G274" s="3" t="n"/>
       <c r="H274" s="3" t="n"/>
+      <c r="I274" s="3" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n"/>
@@ -44595,6 +44894,7 @@
       <c r="F275" s="3" t="n"/>
       <c r="G275" s="3" t="n"/>
       <c r="H275" s="3" t="n"/>
+      <c r="I275" s="3" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n"/>
@@ -44605,6 +44905,7 @@
       <c r="F276" s="3" t="n"/>
       <c r="G276" s="3" t="n"/>
       <c r="H276" s="3" t="n"/>
+      <c r="I276" s="3" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n"/>
@@ -44615,6 +44916,7 @@
       <c r="F277" s="3" t="n"/>
       <c r="G277" s="3" t="n"/>
       <c r="H277" s="3" t="n"/>
+      <c r="I277" s="3" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n"/>
@@ -44625,6 +44927,7 @@
       <c r="F278" s="3" t="n"/>
       <c r="G278" s="3" t="n"/>
       <c r="H278" s="3" t="n"/>
+      <c r="I278" s="3" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n"/>
@@ -44635,6 +44938,7 @@
       <c r="F279" s="3" t="n"/>
       <c r="G279" s="3" t="n"/>
       <c r="H279" s="3" t="n"/>
+      <c r="I279" s="3" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n"/>
@@ -44645,6 +44949,7 @@
       <c r="F280" s="3" t="n"/>
       <c r="G280" s="3" t="n"/>
       <c r="H280" s="3" t="n"/>
+      <c r="I280" s="3" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n"/>
@@ -44655,6 +44960,7 @@
       <c r="F281" s="3" t="n"/>
       <c r="G281" s="3" t="n"/>
       <c r="H281" s="3" t="n"/>
+      <c r="I281" s="3" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n"/>
@@ -44665,6 +44971,7 @@
       <c r="F282" s="3" t="n"/>
       <c r="G282" s="3" t="n"/>
       <c r="H282" s="3" t="n"/>
+      <c r="I282" s="3" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="3" t="n"/>
@@ -44675,6 +44982,7 @@
       <c r="F283" s="3" t="n"/>
       <c r="G283" s="3" t="n"/>
       <c r="H283" s="3" t="n"/>
+      <c r="I283" s="3" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="3" t="n"/>
@@ -44685,6 +44993,7 @@
       <c r="F284" s="3" t="n"/>
       <c r="G284" s="3" t="n"/>
       <c r="H284" s="3" t="n"/>
+      <c r="I284" s="3" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="3" t="n"/>
@@ -44695,6 +45004,7 @@
       <c r="F285" s="3" t="n"/>
       <c r="G285" s="3" t="n"/>
       <c r="H285" s="3" t="n"/>
+      <c r="I285" s="3" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="3" t="n"/>
@@ -44705,6 +45015,7 @@
       <c r="F286" s="3" t="n"/>
       <c r="G286" s="3" t="n"/>
       <c r="H286" s="3" t="n"/>
+      <c r="I286" s="3" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="3" t="n"/>
@@ -44715,6 +45026,7 @@
       <c r="F287" s="3" t="n"/>
       <c r="G287" s="3" t="n"/>
       <c r="H287" s="3" t="n"/>
+      <c r="I287" s="3" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="3" t="n"/>
@@ -44725,6 +45037,7 @@
       <c r="F288" s="3" t="n"/>
       <c r="G288" s="3" t="n"/>
       <c r="H288" s="3" t="n"/>
+      <c r="I288" s="3" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="3" t="n"/>
@@ -44735,6 +45048,7 @@
       <c r="F289" s="3" t="n"/>
       <c r="G289" s="3" t="n"/>
       <c r="H289" s="3" t="n"/>
+      <c r="I289" s="3" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="3" t="n"/>
@@ -44745,6 +45059,7 @@
       <c r="F290" s="3" t="n"/>
       <c r="G290" s="3" t="n"/>
       <c r="H290" s="3" t="n"/>
+      <c r="I290" s="3" t="n"/>
     </row>
     <row r="291">
       <c r="A291" s="3" t="n"/>
@@ -44755,6 +45070,7 @@
       <c r="F291" s="3" t="n"/>
       <c r="G291" s="3" t="n"/>
       <c r="H291" s="3" t="n"/>
+      <c r="I291" s="3" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="3" t="n"/>
@@ -44765,6 +45081,7 @@
       <c r="F292" s="3" t="n"/>
       <c r="G292" s="3" t="n"/>
       <c r="H292" s="3" t="n"/>
+      <c r="I292" s="3" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="3" t="n"/>
@@ -44775,6 +45092,7 @@
       <c r="F293" s="3" t="n"/>
       <c r="G293" s="3" t="n"/>
       <c r="H293" s="3" t="n"/>
+      <c r="I293" s="3" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="3" t="n"/>
@@ -44785,6 +45103,7 @@
       <c r="F294" s="3" t="n"/>
       <c r="G294" s="3" t="n"/>
       <c r="H294" s="3" t="n"/>
+      <c r="I294" s="3" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="3" t="n"/>
@@ -44795,6 +45114,7 @@
       <c r="F295" s="3" t="n"/>
       <c r="G295" s="3" t="n"/>
       <c r="H295" s="3" t="n"/>
+      <c r="I295" s="3" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="3" t="n"/>
@@ -44805,6 +45125,7 @@
       <c r="F296" s="3" t="n"/>
       <c r="G296" s="3" t="n"/>
       <c r="H296" s="3" t="n"/>
+      <c r="I296" s="3" t="n"/>
     </row>
     <row r="297">
       <c r="A297" s="3" t="n"/>
@@ -44815,6 +45136,7 @@
       <c r="F297" s="3" t="n"/>
       <c r="G297" s="3" t="n"/>
       <c r="H297" s="3" t="n"/>
+      <c r="I297" s="3" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="3" t="n"/>
@@ -44825,6 +45147,7 @@
       <c r="F298" s="3" t="n"/>
       <c r="G298" s="3" t="n"/>
       <c r="H298" s="3" t="n"/>
+      <c r="I298" s="3" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="3" t="n"/>
@@ -44835,6 +45158,7 @@
       <c r="F299" s="3" t="n"/>
       <c r="G299" s="3" t="n"/>
       <c r="H299" s="3" t="n"/>
+      <c r="I299" s="3" t="n"/>
     </row>
     <row r="300">
       <c r="A300" s="3" t="n"/>
@@ -44845,6 +45169,7 @@
       <c r="F300" s="3" t="n"/>
       <c r="G300" s="3" t="n"/>
       <c r="H300" s="3" t="n"/>
+      <c r="I300" s="3" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="3" t="n"/>
@@ -44855,6 +45180,7 @@
       <c r="F301" s="3" t="n"/>
       <c r="G301" s="3" t="n"/>
       <c r="H301" s="3" t="n"/>
+      <c r="I301" s="3" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="3" t="n"/>
@@ -44865,6 +45191,7 @@
       <c r="F302" s="3" t="n"/>
       <c r="G302" s="3" t="n"/>
       <c r="H302" s="3" t="n"/>
+      <c r="I302" s="3" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="3" t="n"/>
@@ -44875,6 +45202,7 @@
       <c r="F303" s="3" t="n"/>
       <c r="G303" s="3" t="n"/>
       <c r="H303" s="3" t="n"/>
+      <c r="I303" s="3" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="3" t="n"/>
@@ -44885,6 +45213,7 @@
       <c r="F304" s="3" t="n"/>
       <c r="G304" s="3" t="n"/>
       <c r="H304" s="3" t="n"/>
+      <c r="I304" s="3" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="3" t="n"/>
@@ -44895,6 +45224,7 @@
       <c r="F305" s="3" t="n"/>
       <c r="G305" s="3" t="n"/>
       <c r="H305" s="3" t="n"/>
+      <c r="I305" s="3" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="3" t="n"/>
@@ -44905,6 +45235,7 @@
       <c r="F306" s="3" t="n"/>
       <c r="G306" s="3" t="n"/>
       <c r="H306" s="3" t="n"/>
+      <c r="I306" s="3" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="3" t="n"/>
@@ -44915,6 +45246,7 @@
       <c r="F307" s="3" t="n"/>
       <c r="G307" s="3" t="n"/>
       <c r="H307" s="3" t="n"/>
+      <c r="I307" s="3" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="3" t="n"/>
@@ -44925,6 +45257,7 @@
       <c r="F308" s="3" t="n"/>
       <c r="G308" s="3" t="n"/>
       <c r="H308" s="3" t="n"/>
+      <c r="I308" s="3" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="3" t="n"/>
@@ -44935,6 +45268,7 @@
       <c r="F309" s="3" t="n"/>
       <c r="G309" s="3" t="n"/>
       <c r="H309" s="3" t="n"/>
+      <c r="I309" s="3" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="3" t="n"/>
@@ -44945,6 +45279,7 @@
       <c r="F310" s="3" t="n"/>
       <c r="G310" s="3" t="n"/>
       <c r="H310" s="3" t="n"/>
+      <c r="I310" s="3" t="n"/>
     </row>
     <row r="311">
       <c r="A311" s="3" t="n"/>
@@ -44955,6 +45290,7 @@
       <c r="F311" s="3" t="n"/>
       <c r="G311" s="3" t="n"/>
       <c r="H311" s="3" t="n"/>
+      <c r="I311" s="3" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="3" t="n"/>
@@ -44965,6 +45301,7 @@
       <c r="F312" s="3" t="n"/>
       <c r="G312" s="3" t="n"/>
       <c r="H312" s="3" t="n"/>
+      <c r="I312" s="3" t="n"/>
     </row>
     <row r="313">
       <c r="A313" s="3" t="n"/>
@@ -44975,6 +45312,7 @@
       <c r="F313" s="3" t="n"/>
       <c r="G313" s="3" t="n"/>
       <c r="H313" s="3" t="n"/>
+      <c r="I313" s="3" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="3" t="n"/>
@@ -44985,6 +45323,7 @@
       <c r="F314" s="3" t="n"/>
       <c r="G314" s="3" t="n"/>
       <c r="H314" s="3" t="n"/>
+      <c r="I314" s="3" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="3" t="n"/>
@@ -44995,6 +45334,7 @@
       <c r="F315" s="3" t="n"/>
       <c r="G315" s="3" t="n"/>
       <c r="H315" s="3" t="n"/>
+      <c r="I315" s="3" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="3" t="n"/>
@@ -45005,6 +45345,7 @@
       <c r="F316" s="3" t="n"/>
       <c r="G316" s="3" t="n"/>
       <c r="H316" s="3" t="n"/>
+      <c r="I316" s="3" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="3" t="n"/>
@@ -45015,6 +45356,7 @@
       <c r="F317" s="3" t="n"/>
       <c r="G317" s="3" t="n"/>
       <c r="H317" s="3" t="n"/>
+      <c r="I317" s="3" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="3" t="n"/>
@@ -45025,6 +45367,7 @@
       <c r="F318" s="3" t="n"/>
       <c r="G318" s="3" t="n"/>
       <c r="H318" s="3" t="n"/>
+      <c r="I318" s="3" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="3" t="n"/>
@@ -45035,6 +45378,7 @@
       <c r="F319" s="3" t="n"/>
       <c r="G319" s="3" t="n"/>
       <c r="H319" s="3" t="n"/>
+      <c r="I319" s="3" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="3" t="n"/>
@@ -45045,6 +45389,7 @@
       <c r="F320" s="3" t="n"/>
       <c r="G320" s="3" t="n"/>
       <c r="H320" s="3" t="n"/>
+      <c r="I320" s="3" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="3" t="n"/>
@@ -45055,6 +45400,7 @@
       <c r="F321" s="3" t="n"/>
       <c r="G321" s="3" t="n"/>
       <c r="H321" s="3" t="n"/>
+      <c r="I321" s="3" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="3" t="n"/>
@@ -45065,6 +45411,7 @@
       <c r="F322" s="3" t="n"/>
       <c r="G322" s="3" t="n"/>
       <c r="H322" s="3" t="n"/>
+      <c r="I322" s="3" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="3" t="n"/>
@@ -45075,6 +45422,7 @@
       <c r="F323" s="3" t="n"/>
       <c r="G323" s="3" t="n"/>
       <c r="H323" s="3" t="n"/>
+      <c r="I323" s="3" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="3" t="n"/>
@@ -45085,6 +45433,7 @@
       <c r="F324" s="3" t="n"/>
       <c r="G324" s="3" t="n"/>
       <c r="H324" s="3" t="n"/>
+      <c r="I324" s="3" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="3" t="n"/>
@@ -45095,6 +45444,7 @@
       <c r="F325" s="3" t="n"/>
       <c r="G325" s="3" t="n"/>
       <c r="H325" s="3" t="n"/>
+      <c r="I325" s="3" t="n"/>
     </row>
     <row r="326">
       <c r="A326" s="3" t="n"/>
@@ -45105,6 +45455,7 @@
       <c r="F326" s="3" t="n"/>
       <c r="G326" s="3" t="n"/>
       <c r="H326" s="3" t="n"/>
+      <c r="I326" s="3" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="3" t="n"/>
@@ -45115,6 +45466,7 @@
       <c r="F327" s="3" t="n"/>
       <c r="G327" s="3" t="n"/>
       <c r="H327" s="3" t="n"/>
+      <c r="I327" s="3" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="3" t="n"/>
@@ -45125,6 +45477,7 @@
       <c r="F328" s="3" t="n"/>
       <c r="G328" s="3" t="n"/>
       <c r="H328" s="3" t="n"/>
+      <c r="I328" s="3" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="3" t="n"/>
@@ -45135,6 +45488,7 @@
       <c r="F329" s="3" t="n"/>
       <c r="G329" s="3" t="n"/>
       <c r="H329" s="3" t="n"/>
+      <c r="I329" s="3" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="3" t="n"/>
@@ -45145,6 +45499,7 @@
       <c r="F330" s="3" t="n"/>
       <c r="G330" s="3" t="n"/>
       <c r="H330" s="3" t="n"/>
+      <c r="I330" s="3" t="n"/>
     </row>
     <row r="331">
       <c r="A331" s="3" t="n"/>
@@ -45155,6 +45510,7 @@
       <c r="F331" s="3" t="n"/>
       <c r="G331" s="3" t="n"/>
       <c r="H331" s="3" t="n"/>
+      <c r="I331" s="3" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="3" t="n"/>
@@ -45165,6 +45521,7 @@
       <c r="F332" s="3" t="n"/>
       <c r="G332" s="3" t="n"/>
       <c r="H332" s="3" t="n"/>
+      <c r="I332" s="3" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="3" t="n"/>
@@ -45175,6 +45532,7 @@
       <c r="F333" s="3" t="n"/>
       <c r="G333" s="3" t="n"/>
       <c r="H333" s="3" t="n"/>
+      <c r="I333" s="3" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="3" t="n"/>
@@ -45185,6 +45543,7 @@
       <c r="F334" s="3" t="n"/>
       <c r="G334" s="3" t="n"/>
       <c r="H334" s="3" t="n"/>
+      <c r="I334" s="3" t="n"/>
     </row>
     <row r="335">
       <c r="A335" s="3" t="n"/>
@@ -45195,6 +45554,7 @@
       <c r="F335" s="3" t="n"/>
       <c r="G335" s="3" t="n"/>
       <c r="H335" s="3" t="n"/>
+      <c r="I335" s="3" t="n"/>
     </row>
     <row r="336">
       <c r="A336" s="3" t="n"/>
@@ -45205,6 +45565,7 @@
       <c r="F336" s="3" t="n"/>
       <c r="G336" s="3" t="n"/>
       <c r="H336" s="3" t="n"/>
+      <c r="I336" s="3" t="n"/>
     </row>
     <row r="337">
       <c r="A337" s="3" t="n"/>
@@ -45215,6 +45576,7 @@
       <c r="F337" s="3" t="n"/>
       <c r="G337" s="3" t="n"/>
       <c r="H337" s="3" t="n"/>
+      <c r="I337" s="3" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="3" t="n"/>
@@ -45225,6 +45587,7 @@
       <c r="F338" s="3" t="n"/>
       <c r="G338" s="3" t="n"/>
       <c r="H338" s="3" t="n"/>
+      <c r="I338" s="3" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="3" t="n"/>
@@ -45235,6 +45598,7 @@
       <c r="F339" s="3" t="n"/>
       <c r="G339" s="3" t="n"/>
       <c r="H339" s="3" t="n"/>
+      <c r="I339" s="3" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="3" t="n"/>
@@ -45245,6 +45609,7 @@
       <c r="F340" s="3" t="n"/>
       <c r="G340" s="3" t="n"/>
       <c r="H340" s="3" t="n"/>
+      <c r="I340" s="3" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="3" t="n"/>
@@ -45255,6 +45620,7 @@
       <c r="F341" s="3" t="n"/>
       <c r="G341" s="3" t="n"/>
       <c r="H341" s="3" t="n"/>
+      <c r="I341" s="3" t="n"/>
     </row>
     <row r="342">
       <c r="A342" s="3" t="n"/>
@@ -45265,6 +45631,7 @@
       <c r="F342" s="3" t="n"/>
       <c r="G342" s="3" t="n"/>
       <c r="H342" s="3" t="n"/>
+      <c r="I342" s="3" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="3" t="n"/>
@@ -45275,6 +45642,7 @@
       <c r="F343" s="3" t="n"/>
       <c r="G343" s="3" t="n"/>
       <c r="H343" s="3" t="n"/>
+      <c r="I343" s="3" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="3" t="n"/>
@@ -45285,6 +45653,7 @@
       <c r="F344" s="3" t="n"/>
       <c r="G344" s="3" t="n"/>
       <c r="H344" s="3" t="n"/>
+      <c r="I344" s="3" t="n"/>
     </row>
     <row r="345">
       <c r="A345" s="3" t="n"/>
@@ -45295,6 +45664,7 @@
       <c r="F345" s="3" t="n"/>
       <c r="G345" s="3" t="n"/>
       <c r="H345" s="3" t="n"/>
+      <c r="I345" s="3" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="3" t="n"/>
@@ -45305,6 +45675,7 @@
       <c r="F346" s="3" t="n"/>
       <c r="G346" s="3" t="n"/>
       <c r="H346" s="3" t="n"/>
+      <c r="I346" s="3" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="3" t="n"/>
@@ -45315,6 +45686,7 @@
       <c r="F347" s="3" t="n"/>
       <c r="G347" s="3" t="n"/>
       <c r="H347" s="3" t="n"/>
+      <c r="I347" s="3" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="3" t="n"/>
@@ -45325,6 +45697,7 @@
       <c r="F348" s="3" t="n"/>
       <c r="G348" s="3" t="n"/>
       <c r="H348" s="3" t="n"/>
+      <c r="I348" s="3" t="n"/>
     </row>
     <row r="349">
       <c r="A349" s="3" t="n"/>
@@ -45335,6 +45708,7 @@
       <c r="F349" s="3" t="n"/>
       <c r="G349" s="3" t="n"/>
       <c r="H349" s="3" t="n"/>
+      <c r="I349" s="3" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="3" t="n"/>
@@ -45345,6 +45719,7 @@
       <c r="F350" s="3" t="n"/>
       <c r="G350" s="3" t="n"/>
       <c r="H350" s="3" t="n"/>
+      <c r="I350" s="3" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="3" t="n"/>
@@ -45355,6 +45730,7 @@
       <c r="F351" s="3" t="n"/>
       <c r="G351" s="3" t="n"/>
       <c r="H351" s="3" t="n"/>
+      <c r="I351" s="3" t="n"/>
     </row>
     <row r="352">
       <c r="A352" s="3" t="n"/>
@@ -45365,6 +45741,7 @@
       <c r="F352" s="3" t="n"/>
       <c r="G352" s="3" t="n"/>
       <c r="H352" s="3" t="n"/>
+      <c r="I352" s="3" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="3" t="n"/>
@@ -45375,6 +45752,7 @@
       <c r="F353" s="3" t="n"/>
       <c r="G353" s="3" t="n"/>
       <c r="H353" s="3" t="n"/>
+      <c r="I353" s="3" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="3" t="n"/>
@@ -45385,6 +45763,7 @@
       <c r="F354" s="3" t="n"/>
       <c r="G354" s="3" t="n"/>
       <c r="H354" s="3" t="n"/>
+      <c r="I354" s="3" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="3" t="n"/>
@@ -45395,6 +45774,7 @@
       <c r="F355" s="3" t="n"/>
       <c r="G355" s="3" t="n"/>
       <c r="H355" s="3" t="n"/>
+      <c r="I355" s="3" t="n"/>
     </row>
     <row r="356">
       <c r="A356" s="3" t="n"/>
@@ -45405,6 +45785,7 @@
       <c r="F356" s="3" t="n"/>
       <c r="G356" s="3" t="n"/>
       <c r="H356" s="3" t="n"/>
+      <c r="I356" s="3" t="n"/>
     </row>
     <row r="357">
       <c r="A357" s="3" t="n"/>
@@ -45415,6 +45796,7 @@
       <c r="F357" s="3" t="n"/>
       <c r="G357" s="3" t="n"/>
       <c r="H357" s="3" t="n"/>
+      <c r="I357" s="3" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="3" t="n"/>
@@ -45425,6 +45807,7 @@
       <c r="F358" s="3" t="n"/>
       <c r="G358" s="3" t="n"/>
       <c r="H358" s="3" t="n"/>
+      <c r="I358" s="3" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="3" t="n"/>
@@ -45435,6 +45818,7 @@
       <c r="F359" s="3" t="n"/>
       <c r="G359" s="3" t="n"/>
       <c r="H359" s="3" t="n"/>
+      <c r="I359" s="3" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="3" t="n"/>
@@ -45445,6 +45829,7 @@
       <c r="F360" s="3" t="n"/>
       <c r="G360" s="3" t="n"/>
       <c r="H360" s="3" t="n"/>
+      <c r="I360" s="3" t="n"/>
     </row>
     <row r="361">
       <c r="A361" s="3" t="n"/>
@@ -45455,6 +45840,7 @@
       <c r="F361" s="3" t="n"/>
       <c r="G361" s="3" t="n"/>
       <c r="H361" s="3" t="n"/>
+      <c r="I361" s="3" t="n"/>
     </row>
     <row r="362">
       <c r="A362" s="3" t="n"/>
@@ -45465,6 +45851,7 @@
       <c r="F362" s="3" t="n"/>
       <c r="G362" s="3" t="n"/>
       <c r="H362" s="3" t="n"/>
+      <c r="I362" s="3" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="3" t="n"/>
@@ -45475,6 +45862,7 @@
       <c r="F363" s="3" t="n"/>
       <c r="G363" s="3" t="n"/>
       <c r="H363" s="3" t="n"/>
+      <c r="I363" s="3" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="3" t="n"/>
@@ -45485,6 +45873,7 @@
       <c r="F364" s="3" t="n"/>
       <c r="G364" s="3" t="n"/>
       <c r="H364" s="3" t="n"/>
+      <c r="I364" s="3" t="n"/>
     </row>
     <row r="365">
       <c r="A365" s="3" t="n"/>
@@ -45495,6 +45884,7 @@
       <c r="F365" s="3" t="n"/>
       <c r="G365" s="3" t="n"/>
       <c r="H365" s="3" t="n"/>
+      <c r="I365" s="3" t="n"/>
     </row>
     <row r="366">
       <c r="A366" s="3" t="n"/>
@@ -45505,6 +45895,7 @@
       <c r="F366" s="3" t="n"/>
       <c r="G366" s="3" t="n"/>
       <c r="H366" s="3" t="n"/>
+      <c r="I366" s="3" t="n"/>
     </row>
     <row r="367">
       <c r="A367" s="3" t="n"/>
@@ -45515,6 +45906,7 @@
       <c r="F367" s="3" t="n"/>
       <c r="G367" s="3" t="n"/>
       <c r="H367" s="3" t="n"/>
+      <c r="I367" s="3" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="3" t="n"/>
@@ -45525,6 +45917,7 @@
       <c r="F368" s="3" t="n"/>
       <c r="G368" s="3" t="n"/>
       <c r="H368" s="3" t="n"/>
+      <c r="I368" s="3" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="3" t="n"/>
@@ -45535,6 +45928,7 @@
       <c r="F369" s="3" t="n"/>
       <c r="G369" s="3" t="n"/>
       <c r="H369" s="3" t="n"/>
+      <c r="I369" s="3" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="3" t="n"/>
@@ -45545,6 +45939,7 @@
       <c r="F370" s="3" t="n"/>
       <c r="G370" s="3" t="n"/>
       <c r="H370" s="3" t="n"/>
+      <c r="I370" s="3" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="3" t="n"/>
@@ -45555,6 +45950,7 @@
       <c r="F371" s="3" t="n"/>
       <c r="G371" s="3" t="n"/>
       <c r="H371" s="3" t="n"/>
+      <c r="I371" s="3" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="3" t="n"/>
@@ -45565,6 +45961,7 @@
       <c r="F372" s="3" t="n"/>
       <c r="G372" s="3" t="n"/>
       <c r="H372" s="3" t="n"/>
+      <c r="I372" s="3" t="n"/>
     </row>
     <row r="373">
       <c r="A373" s="3" t="n"/>
@@ -45575,6 +45972,7 @@
       <c r="F373" s="3" t="n"/>
       <c r="G373" s="3" t="n"/>
       <c r="H373" s="3" t="n"/>
+      <c r="I373" s="3" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="3" t="n"/>
@@ -45585,6 +45983,7 @@
       <c r="F374" s="3" t="n"/>
       <c r="G374" s="3" t="n"/>
       <c r="H374" s="3" t="n"/>
+      <c r="I374" s="3" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="3" t="n"/>
@@ -45595,6 +45994,7 @@
       <c r="F375" s="3" t="n"/>
       <c r="G375" s="3" t="n"/>
       <c r="H375" s="3" t="n"/>
+      <c r="I375" s="3" t="n"/>
     </row>
     <row r="376">
       <c r="A376" s="3" t="n"/>
@@ -45605,6 +46005,7 @@
       <c r="F376" s="3" t="n"/>
       <c r="G376" s="3" t="n"/>
       <c r="H376" s="3" t="n"/>
+      <c r="I376" s="3" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="3" t="n"/>
@@ -45615,6 +46016,7 @@
       <c r="F377" s="3" t="n"/>
       <c r="G377" s="3" t="n"/>
       <c r="H377" s="3" t="n"/>
+      <c r="I377" s="3" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="3" t="n"/>
@@ -45625,6 +46027,7 @@
       <c r="F378" s="3" t="n"/>
       <c r="G378" s="3" t="n"/>
       <c r="H378" s="3" t="n"/>
+      <c r="I378" s="3" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="3" t="n"/>
@@ -45635,6 +46038,7 @@
       <c r="F379" s="3" t="n"/>
       <c r="G379" s="3" t="n"/>
       <c r="H379" s="3" t="n"/>
+      <c r="I379" s="3" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="3" t="n"/>
@@ -45645,6 +46049,7 @@
       <c r="F380" s="3" t="n"/>
       <c r="G380" s="3" t="n"/>
       <c r="H380" s="3" t="n"/>
+      <c r="I380" s="3" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="3" t="n"/>
@@ -45655,6 +46060,7 @@
       <c r="F381" s="3" t="n"/>
       <c r="G381" s="3" t="n"/>
       <c r="H381" s="3" t="n"/>
+      <c r="I381" s="3" t="n"/>
     </row>
     <row r="382">
       <c r="A382" s="3" t="n"/>
@@ -45665,6 +46071,7 @@
       <c r="F382" s="3" t="n"/>
       <c r="G382" s="3" t="n"/>
       <c r="H382" s="3" t="n"/>
+      <c r="I382" s="3" t="n"/>
     </row>
     <row r="383">
       <c r="A383" s="3" t="n"/>
@@ -45675,6 +46082,7 @@
       <c r="F383" s="3" t="n"/>
       <c r="G383" s="3" t="n"/>
       <c r="H383" s="3" t="n"/>
+      <c r="I383" s="3" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="3" t="n"/>
@@ -45685,6 +46093,7 @@
       <c r="F384" s="3" t="n"/>
       <c r="G384" s="3" t="n"/>
       <c r="H384" s="3" t="n"/>
+      <c r="I384" s="3" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="3" t="n"/>
@@ -45695,6 +46104,7 @@
       <c r="F385" s="3" t="n"/>
       <c r="G385" s="3" t="n"/>
       <c r="H385" s="3" t="n"/>
+      <c r="I385" s="3" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="3" t="n"/>
@@ -45705,6 +46115,7 @@
       <c r="F386" s="3" t="n"/>
       <c r="G386" s="3" t="n"/>
       <c r="H386" s="3" t="n"/>
+      <c r="I386" s="3" t="n"/>
     </row>
     <row r="387">
       <c r="A387" s="3" t="n"/>
@@ -45715,6 +46126,7 @@
       <c r="F387" s="3" t="n"/>
       <c r="G387" s="3" t="n"/>
       <c r="H387" s="3" t="n"/>
+      <c r="I387" s="3" t="n"/>
     </row>
     <row r="388">
       <c r="A388" s="3" t="n"/>
@@ -45725,6 +46137,7 @@
       <c r="F388" s="3" t="n"/>
       <c r="G388" s="3" t="n"/>
       <c r="H388" s="3" t="n"/>
+      <c r="I388" s="3" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="3" t="n"/>
@@ -45735,6 +46148,7 @@
       <c r="F389" s="3" t="n"/>
       <c r="G389" s="3" t="n"/>
       <c r="H389" s="3" t="n"/>
+      <c r="I389" s="3" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="3" t="n"/>
@@ -45745,6 +46159,7 @@
       <c r="F390" s="3" t="n"/>
       <c r="G390" s="3" t="n"/>
       <c r="H390" s="3" t="n"/>
+      <c r="I390" s="3" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="3" t="n"/>
@@ -45755,6 +46170,7 @@
       <c r="F391" s="3" t="n"/>
       <c r="G391" s="3" t="n"/>
       <c r="H391" s="3" t="n"/>
+      <c r="I391" s="3" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="3" t="n"/>
@@ -45765,6 +46181,7 @@
       <c r="F392" s="3" t="n"/>
       <c r="G392" s="3" t="n"/>
       <c r="H392" s="3" t="n"/>
+      <c r="I392" s="3" t="n"/>
     </row>
     <row r="393">
       <c r="A393" s="3" t="n"/>
@@ -45775,6 +46192,7 @@
       <c r="F393" s="3" t="n"/>
       <c r="G393" s="3" t="n"/>
       <c r="H393" s="3" t="n"/>
+      <c r="I393" s="3" t="n"/>
     </row>
     <row r="394">
       <c r="A394" s="3" t="n"/>
@@ -45785,6 +46203,7 @@
       <c r="F394" s="3" t="n"/>
       <c r="G394" s="3" t="n"/>
       <c r="H394" s="3" t="n"/>
+      <c r="I394" s="3" t="n"/>
     </row>
     <row r="395">
       <c r="A395" s="3" t="n"/>
@@ -45795,6 +46214,7 @@
       <c r="F395" s="3" t="n"/>
       <c r="G395" s="3" t="n"/>
       <c r="H395" s="3" t="n"/>
+      <c r="I395" s="3" t="n"/>
     </row>
     <row r="396">
       <c r="A396" s="3" t="n"/>
@@ -45805,6 +46225,7 @@
       <c r="F396" s="3" t="n"/>
       <c r="G396" s="3" t="n"/>
       <c r="H396" s="3" t="n"/>
+      <c r="I396" s="3" t="n"/>
     </row>
     <row r="397">
       <c r="A397" s="3" t="n"/>
@@ -45815,6 +46236,7 @@
       <c r="F397" s="3" t="n"/>
       <c r="G397" s="3" t="n"/>
       <c r="H397" s="3" t="n"/>
+      <c r="I397" s="3" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="3" t="n"/>
@@ -45825,6 +46247,7 @@
       <c r="F398" s="3" t="n"/>
       <c r="G398" s="3" t="n"/>
       <c r="H398" s="3" t="n"/>
+      <c r="I398" s="3" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="3" t="n"/>
@@ -45835,6 +46258,7 @@
       <c r="F399" s="3" t="n"/>
       <c r="G399" s="3" t="n"/>
       <c r="H399" s="3" t="n"/>
+      <c r="I399" s="3" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="3" t="n"/>
@@ -45845,6 +46269,7 @@
       <c r="F400" s="3" t="n"/>
       <c r="G400" s="3" t="n"/>
       <c r="H400" s="3" t="n"/>
+      <c r="I400" s="3" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="3" t="n"/>
@@ -45855,6 +46280,7 @@
       <c r="F401" s="3" t="n"/>
       <c r="G401" s="3" t="n"/>
       <c r="H401" s="3" t="n"/>
+      <c r="I401" s="3" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="3" t="n"/>
@@ -45865,6 +46291,7 @@
       <c r="F402" s="3" t="n"/>
       <c r="G402" s="3" t="n"/>
       <c r="H402" s="3" t="n"/>
+      <c r="I402" s="3" t="n"/>
     </row>
     <row r="403">
       <c r="A403" s="3" t="n"/>
@@ -45875,6 +46302,7 @@
       <c r="F403" s="3" t="n"/>
       <c r="G403" s="3" t="n"/>
       <c r="H403" s="3" t="n"/>
+      <c r="I403" s="3" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="3" t="n"/>
@@ -45885,6 +46313,7 @@
       <c r="F404" s="3" t="n"/>
       <c r="G404" s="3" t="n"/>
       <c r="H404" s="3" t="n"/>
+      <c r="I404" s="3" t="n"/>
     </row>
     <row r="405">
       <c r="A405" s="3" t="n"/>
@@ -45895,6 +46324,7 @@
       <c r="F405" s="3" t="n"/>
       <c r="G405" s="3" t="n"/>
       <c r="H405" s="3" t="n"/>
+      <c r="I405" s="3" t="n"/>
     </row>
     <row r="406">
       <c r="A406" s="3" t="n"/>
@@ -45905,6 +46335,7 @@
       <c r="F406" s="3" t="n"/>
       <c r="G406" s="3" t="n"/>
       <c r="H406" s="3" t="n"/>
+      <c r="I406" s="3" t="n"/>
     </row>
     <row r="407">
       <c r="A407" s="3" t="n"/>
@@ -45915,6 +46346,7 @@
       <c r="F407" s="3" t="n"/>
       <c r="G407" s="3" t="n"/>
       <c r="H407" s="3" t="n"/>
+      <c r="I407" s="3" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="3" t="n"/>
@@ -45925,6 +46357,7 @@
       <c r="F408" s="3" t="n"/>
       <c r="G408" s="3" t="n"/>
       <c r="H408" s="3" t="n"/>
+      <c r="I408" s="3" t="n"/>
     </row>
     <row r="409">
       <c r="A409" s="3" t="n"/>
@@ -45935,6 +46368,7 @@
       <c r="F409" s="3" t="n"/>
       <c r="G409" s="3" t="n"/>
       <c r="H409" s="3" t="n"/>
+      <c r="I409" s="3" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="3" t="n"/>
@@ -45945,6 +46379,7 @@
       <c r="F410" s="3" t="n"/>
       <c r="G410" s="3" t="n"/>
       <c r="H410" s="3" t="n"/>
+      <c r="I410" s="3" t="n"/>
     </row>
     <row r="411">
       <c r="A411" s="3" t="n"/>
@@ -45955,6 +46390,7 @@
       <c r="F411" s="3" t="n"/>
       <c r="G411" s="3" t="n"/>
       <c r="H411" s="3" t="n"/>
+      <c r="I411" s="3" t="n"/>
     </row>
     <row r="412">
       <c r="A412" s="3" t="n"/>
@@ -45965,6 +46401,7 @@
       <c r="F412" s="3" t="n"/>
       <c r="G412" s="3" t="n"/>
       <c r="H412" s="3" t="n"/>
+      <c r="I412" s="3" t="n"/>
     </row>
     <row r="413">
       <c r="A413" s="3" t="n"/>
@@ -45975,6 +46412,7 @@
       <c r="F413" s="3" t="n"/>
       <c r="G413" s="3" t="n"/>
       <c r="H413" s="3" t="n"/>
+      <c r="I413" s="3" t="n"/>
     </row>
     <row r="414">
       <c r="A414" s="3" t="n"/>
@@ -45985,6 +46423,7 @@
       <c r="F414" s="3" t="n"/>
       <c r="G414" s="3" t="n"/>
       <c r="H414" s="3" t="n"/>
+      <c r="I414" s="3" t="n"/>
     </row>
     <row r="415">
       <c r="A415" s="3" t="n"/>
@@ -45995,6 +46434,7 @@
       <c r="F415" s="3" t="n"/>
       <c r="G415" s="3" t="n"/>
       <c r="H415" s="3" t="n"/>
+      <c r="I415" s="3" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="3" t="n"/>
@@ -46005,6 +46445,7 @@
       <c r="F416" s="3" t="n"/>
       <c r="G416" s="3" t="n"/>
       <c r="H416" s="3" t="n"/>
+      <c r="I416" s="3" t="n"/>
     </row>
     <row r="417">
       <c r="A417" s="3" t="n"/>
@@ -46015,6 +46456,7 @@
       <c r="F417" s="3" t="n"/>
       <c r="G417" s="3" t="n"/>
       <c r="H417" s="3" t="n"/>
+      <c r="I417" s="3" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="3" t="n"/>
@@ -46025,6 +46467,7 @@
       <c r="F418" s="3" t="n"/>
       <c r="G418" s="3" t="n"/>
       <c r="H418" s="3" t="n"/>
+      <c r="I418" s="3" t="n"/>
     </row>
     <row r="419">
       <c r="A419" s="3" t="n"/>
@@ -46035,6 +46478,7 @@
       <c r="F419" s="3" t="n"/>
       <c r="G419" s="3" t="n"/>
       <c r="H419" s="3" t="n"/>
+      <c r="I419" s="3" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="3" t="n"/>
@@ -46045,6 +46489,7 @@
       <c r="F420" s="3" t="n"/>
       <c r="G420" s="3" t="n"/>
       <c r="H420" s="3" t="n"/>
+      <c r="I420" s="3" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="3" t="n"/>
@@ -46055,6 +46500,7 @@
       <c r="F421" s="3" t="n"/>
       <c r="G421" s="3" t="n"/>
       <c r="H421" s="3" t="n"/>
+      <c r="I421" s="3" t="n"/>
     </row>
     <row r="422">
       <c r="A422" s="3" t="n"/>
@@ -46065,6 +46511,7 @@
       <c r="F422" s="3" t="n"/>
       <c r="G422" s="3" t="n"/>
       <c r="H422" s="3" t="n"/>
+      <c r="I422" s="3" t="n"/>
     </row>
     <row r="423">
       <c r="A423" s="3" t="n"/>
@@ -46075,6 +46522,7 @@
       <c r="F423" s="3" t="n"/>
       <c r="G423" s="3" t="n"/>
       <c r="H423" s="3" t="n"/>
+      <c r="I423" s="3" t="n"/>
     </row>
     <row r="424">
       <c r="A424" s="3" t="n"/>
@@ -46085,6 +46533,7 @@
       <c r="F424" s="3" t="n"/>
       <c r="G424" s="3" t="n"/>
       <c r="H424" s="3" t="n"/>
+      <c r="I424" s="3" t="n"/>
     </row>
     <row r="425">
       <c r="A425" s="3" t="n"/>
@@ -46095,6 +46544,7 @@
       <c r="F425" s="3" t="n"/>
       <c r="G425" s="3" t="n"/>
       <c r="H425" s="3" t="n"/>
+      <c r="I425" s="3" t="n"/>
     </row>
     <row r="426">
       <c r="A426" s="3" t="n"/>
@@ -46105,6 +46555,7 @@
       <c r="F426" s="3" t="n"/>
       <c r="G426" s="3" t="n"/>
       <c r="H426" s="3" t="n"/>
+      <c r="I426" s="3" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="3" t="n"/>
@@ -46115,6 +46566,7 @@
       <c r="F427" s="3" t="n"/>
       <c r="G427" s="3" t="n"/>
       <c r="H427" s="3" t="n"/>
+      <c r="I427" s="3" t="n"/>
     </row>
     <row r="428">
       <c r="A428" s="3" t="n"/>
@@ -46125,6 +46577,7 @@
       <c r="F428" s="3" t="n"/>
       <c r="G428" s="3" t="n"/>
       <c r="H428" s="3" t="n"/>
+      <c r="I428" s="3" t="n"/>
     </row>
     <row r="429">
       <c r="A429" s="3" t="n"/>
@@ -46135,6 +46588,7 @@
       <c r="F429" s="3" t="n"/>
       <c r="G429" s="3" t="n"/>
       <c r="H429" s="3" t="n"/>
+      <c r="I429" s="3" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="3" t="n"/>
@@ -46145,6 +46599,7 @@
       <c r="F430" s="3" t="n"/>
       <c r="G430" s="3" t="n"/>
       <c r="H430" s="3" t="n"/>
+      <c r="I430" s="3" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="3" t="n"/>
@@ -46155,6 +46610,7 @@
       <c r="F431" s="3" t="n"/>
       <c r="G431" s="3" t="n"/>
       <c r="H431" s="3" t="n"/>
+      <c r="I431" s="3" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="3" t="n"/>
@@ -46165,6 +46621,7 @@
       <c r="F432" s="3" t="n"/>
       <c r="G432" s="3" t="n"/>
       <c r="H432" s="3" t="n"/>
+      <c r="I432" s="3" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="3" t="n"/>
@@ -46175,6 +46632,7 @@
       <c r="F433" s="3" t="n"/>
       <c r="G433" s="3" t="n"/>
       <c r="H433" s="3" t="n"/>
+      <c r="I433" s="3" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="3" t="n"/>
@@ -46185,6 +46643,7 @@
       <c r="F434" s="3" t="n"/>
       <c r="G434" s="3" t="n"/>
       <c r="H434" s="3" t="n"/>
+      <c r="I434" s="3" t="n"/>
     </row>
     <row r="435">
       <c r="A435" s="3" t="n"/>
@@ -46195,6 +46654,7 @@
       <c r="F435" s="3" t="n"/>
       <c r="G435" s="3" t="n"/>
       <c r="H435" s="3" t="n"/>
+      <c r="I435" s="3" t="n"/>
     </row>
     <row r="436">
       <c r="A436" s="3" t="n"/>
@@ -46205,6 +46665,7 @@
       <c r="F436" s="3" t="n"/>
       <c r="G436" s="3" t="n"/>
       <c r="H436" s="3" t="n"/>
+      <c r="I436" s="3" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="3" t="n"/>
@@ -46215,6 +46676,7 @@
       <c r="F437" s="3" t="n"/>
       <c r="G437" s="3" t="n"/>
       <c r="H437" s="3" t="n"/>
+      <c r="I437" s="3" t="n"/>
     </row>
     <row r="438">
       <c r="A438" s="3" t="n"/>
@@ -46225,6 +46687,7 @@
       <c r="F438" s="3" t="n"/>
       <c r="G438" s="3" t="n"/>
       <c r="H438" s="3" t="n"/>
+      <c r="I438" s="3" t="n"/>
     </row>
     <row r="439">
       <c r="A439" s="3" t="n"/>
@@ -46235,6 +46698,7 @@
       <c r="F439" s="3" t="n"/>
       <c r="G439" s="3" t="n"/>
       <c r="H439" s="3" t="n"/>
+      <c r="I439" s="3" t="n"/>
     </row>
     <row r="440">
       <c r="A440" s="3" t="n"/>
@@ -46245,6 +46709,7 @@
       <c r="F440" s="3" t="n"/>
       <c r="G440" s="3" t="n"/>
       <c r="H440" s="3" t="n"/>
+      <c r="I440" s="3" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="3" t="n"/>
@@ -46255,6 +46720,7 @@
       <c r="F441" s="3" t="n"/>
       <c r="G441" s="3" t="n"/>
       <c r="H441" s="3" t="n"/>
+      <c r="I441" s="3" t="n"/>
     </row>
     <row r="442">
       <c r="A442" s="3" t="n"/>
@@ -46265,6 +46731,7 @@
       <c r="F442" s="3" t="n"/>
       <c r="G442" s="3" t="n"/>
       <c r="H442" s="3" t="n"/>
+      <c r="I442" s="3" t="n"/>
     </row>
     <row r="443">
       <c r="A443" s="3" t="n"/>
@@ -46275,6 +46742,7 @@
       <c r="F443" s="3" t="n"/>
       <c r="G443" s="3" t="n"/>
       <c r="H443" s="3" t="n"/>
+      <c r="I443" s="3" t="n"/>
     </row>
     <row r="444">
       <c r="A444" s="3" t="n"/>
@@ -46285,6 +46753,7 @@
       <c r="F444" s="3" t="n"/>
       <c r="G444" s="3" t="n"/>
       <c r="H444" s="3" t="n"/>
+      <c r="I444" s="3" t="n"/>
     </row>
     <row r="445">
       <c r="A445" s="3" t="n"/>
@@ -46295,6 +46764,7 @@
       <c r="F445" s="3" t="n"/>
       <c r="G445" s="3" t="n"/>
       <c r="H445" s="3" t="n"/>
+      <c r="I445" s="3" t="n"/>
     </row>
     <row r="446">
       <c r="A446" s="3" t="n"/>
@@ -46305,6 +46775,7 @@
       <c r="F446" s="3" t="n"/>
       <c r="G446" s="3" t="n"/>
       <c r="H446" s="3" t="n"/>
+      <c r="I446" s="3" t="n"/>
     </row>
     <row r="447">
       <c r="A447" s="3" t="n"/>
@@ -46315,6 +46786,7 @@
       <c r="F447" s="3" t="n"/>
       <c r="G447" s="3" t="n"/>
       <c r="H447" s="3" t="n"/>
+      <c r="I447" s="3" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="3" t="n"/>
@@ -46325,6 +46797,7 @@
       <c r="F448" s="3" t="n"/>
       <c r="G448" s="3" t="n"/>
       <c r="H448" s="3" t="n"/>
+      <c r="I448" s="3" t="n"/>
     </row>
     <row r="449">
       <c r="A449" s="3" t="n"/>
@@ -46335,6 +46808,7 @@
       <c r="F449" s="3" t="n"/>
       <c r="G449" s="3" t="n"/>
       <c r="H449" s="3" t="n"/>
+      <c r="I449" s="3" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="3" t="n"/>
@@ -46345,6 +46819,7 @@
       <c r="F450" s="3" t="n"/>
       <c r="G450" s="3" t="n"/>
       <c r="H450" s="3" t="n"/>
+      <c r="I450" s="3" t="n"/>
     </row>
     <row r="451">
       <c r="A451" s="3" t="n"/>
@@ -46355,6 +46830,7 @@
       <c r="F451" s="3" t="n"/>
       <c r="G451" s="3" t="n"/>
       <c r="H451" s="3" t="n"/>
+      <c r="I451" s="3" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="3" t="n"/>
@@ -46365,6 +46841,7 @@
       <c r="F452" s="3" t="n"/>
       <c r="G452" s="3" t="n"/>
       <c r="H452" s="3" t="n"/>
+      <c r="I452" s="3" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="3" t="n"/>
@@ -46375,6 +46852,7 @@
       <c r="F453" s="3" t="n"/>
       <c r="G453" s="3" t="n"/>
       <c r="H453" s="3" t="n"/>
+      <c r="I453" s="3" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="3" t="n"/>
@@ -46385,6 +46863,7 @@
       <c r="F454" s="3" t="n"/>
       <c r="G454" s="3" t="n"/>
       <c r="H454" s="3" t="n"/>
+      <c r="I454" s="3" t="n"/>
     </row>
     <row r="455">
       <c r="A455" s="3" t="n"/>
@@ -46395,6 +46874,7 @@
       <c r="F455" s="3" t="n"/>
       <c r="G455" s="3" t="n"/>
       <c r="H455" s="3" t="n"/>
+      <c r="I455" s="3" t="n"/>
     </row>
     <row r="456">
       <c r="A456" s="3" t="n"/>
@@ -46405,6 +46885,7 @@
       <c r="F456" s="3" t="n"/>
       <c r="G456" s="3" t="n"/>
       <c r="H456" s="3" t="n"/>
+      <c r="I456" s="3" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="3" t="n"/>
@@ -46415,6 +46896,7 @@
       <c r="F457" s="3" t="n"/>
       <c r="G457" s="3" t="n"/>
       <c r="H457" s="3" t="n"/>
+      <c r="I457" s="3" t="n"/>
     </row>
     <row r="458">
       <c r="A458" s="3" t="n"/>
@@ -46425,6 +46907,7 @@
       <c r="F458" s="3" t="n"/>
       <c r="G458" s="3" t="n"/>
       <c r="H458" s="3" t="n"/>
+      <c r="I458" s="3" t="n"/>
     </row>
     <row r="459">
       <c r="A459" s="3" t="n"/>
@@ -46435,6 +46918,7 @@
       <c r="F459" s="3" t="n"/>
       <c r="G459" s="3" t="n"/>
       <c r="H459" s="3" t="n"/>
+      <c r="I459" s="3" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="3" t="n"/>
@@ -46445,6 +46929,7 @@
       <c r="F460" s="3" t="n"/>
       <c r="G460" s="3" t="n"/>
       <c r="H460" s="3" t="n"/>
+      <c r="I460" s="3" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="3" t="n"/>
@@ -46455,6 +46940,7 @@
       <c r="F461" s="3" t="n"/>
       <c r="G461" s="3" t="n"/>
       <c r="H461" s="3" t="n"/>
+      <c r="I461" s="3" t="n"/>
     </row>
     <row r="462">
       <c r="A462" s="3" t="n"/>
@@ -46465,6 +46951,7 @@
       <c r="F462" s="3" t="n"/>
       <c r="G462" s="3" t="n"/>
       <c r="H462" s="3" t="n"/>
+      <c r="I462" s="3" t="n"/>
     </row>
     <row r="463">
       <c r="A463" s="3" t="n"/>
@@ -46475,6 +46962,7 @@
       <c r="F463" s="3" t="n"/>
       <c r="G463" s="3" t="n"/>
       <c r="H463" s="3" t="n"/>
+      <c r="I463" s="3" t="n"/>
     </row>
     <row r="464">
       <c r="A464" s="3" t="n"/>
@@ -46485,6 +46973,7 @@
       <c r="F464" s="3" t="n"/>
       <c r="G464" s="3" t="n"/>
       <c r="H464" s="3" t="n"/>
+      <c r="I464" s="3" t="n"/>
     </row>
     <row r="465">
       <c r="A465" s="3" t="n"/>
@@ -46495,6 +46984,7 @@
       <c r="F465" s="3" t="n"/>
       <c r="G465" s="3" t="n"/>
       <c r="H465" s="3" t="n"/>
+      <c r="I465" s="3" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="3" t="n"/>
@@ -46505,6 +46995,7 @@
       <c r="F466" s="3" t="n"/>
       <c r="G466" s="3" t="n"/>
       <c r="H466" s="3" t="n"/>
+      <c r="I466" s="3" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="3" t="n"/>
@@ -46515,6 +47006,7 @@
       <c r="F467" s="3" t="n"/>
       <c r="G467" s="3" t="n"/>
       <c r="H467" s="3" t="n"/>
+      <c r="I467" s="3" t="n"/>
     </row>
     <row r="468">
       <c r="A468" s="3" t="n"/>
@@ -46525,6 +47017,7 @@
       <c r="F468" s="3" t="n"/>
       <c r="G468" s="3" t="n"/>
       <c r="H468" s="3" t="n"/>
+      <c r="I468" s="3" t="n"/>
     </row>
     <row r="469">
       <c r="A469" s="3" t="n"/>
@@ -46535,6 +47028,7 @@
       <c r="F469" s="3" t="n"/>
       <c r="G469" s="3" t="n"/>
       <c r="H469" s="3" t="n"/>
+      <c r="I469" s="3" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="3" t="n"/>
@@ -46545,6 +47039,7 @@
       <c r="F470" s="3" t="n"/>
       <c r="G470" s="3" t="n"/>
       <c r="H470" s="3" t="n"/>
+      <c r="I470" s="3" t="n"/>
     </row>
     <row r="471">
       <c r="A471" s="3" t="n"/>
@@ -46555,6 +47050,7 @@
       <c r="F471" s="3" t="n"/>
       <c r="G471" s="3" t="n"/>
       <c r="H471" s="3" t="n"/>
+      <c r="I471" s="3" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="3" t="n"/>
@@ -46565,6 +47061,7 @@
       <c r="F472" s="3" t="n"/>
       <c r="G472" s="3" t="n"/>
       <c r="H472" s="3" t="n"/>
+      <c r="I472" s="3" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="3" t="n"/>
@@ -46575,6 +47072,7 @@
       <c r="F473" s="3" t="n"/>
       <c r="G473" s="3" t="n"/>
       <c r="H473" s="3" t="n"/>
+      <c r="I473" s="3" t="n"/>
     </row>
     <row r="474">
       <c r="A474" s="3" t="n"/>
@@ -46585,6 +47083,7 @@
       <c r="F474" s="3" t="n"/>
       <c r="G474" s="3" t="n"/>
       <c r="H474" s="3" t="n"/>
+      <c r="I474" s="3" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="3" t="n"/>
@@ -46595,6 +47094,7 @@
       <c r="F475" s="3" t="n"/>
       <c r="G475" s="3" t="n"/>
       <c r="H475" s="3" t="n"/>
+      <c r="I475" s="3" t="n"/>
     </row>
     <row r="476">
       <c r="A476" s="3" t="n"/>
@@ -46605,6 +47105,7 @@
       <c r="F476" s="3" t="n"/>
       <c r="G476" s="3" t="n"/>
       <c r="H476" s="3" t="n"/>
+      <c r="I476" s="3" t="n"/>
     </row>
     <row r="477">
       <c r="A477" s="3" t="n"/>
@@ -46615,6 +47116,7 @@
       <c r="F477" s="3" t="n"/>
       <c r="G477" s="3" t="n"/>
       <c r="H477" s="3" t="n"/>
+      <c r="I477" s="3" t="n"/>
     </row>
     <row r="478">
       <c r="A478" s="3" t="n"/>
@@ -46625,6 +47127,7 @@
       <c r="F478" s="3" t="n"/>
       <c r="G478" s="3" t="n"/>
       <c r="H478" s="3" t="n"/>
+      <c r="I478" s="3" t="n"/>
     </row>
     <row r="479">
       <c r="A479" s="3" t="n"/>
@@ -46635,6 +47138,7 @@
       <c r="F479" s="3" t="n"/>
       <c r="G479" s="3" t="n"/>
       <c r="H479" s="3" t="n"/>
+      <c r="I479" s="3" t="n"/>
     </row>
     <row r="480">
       <c r="A480" s="3" t="n"/>
@@ -46645,6 +47149,7 @@
       <c r="F480" s="3" t="n"/>
       <c r="G480" s="3" t="n"/>
       <c r="H480" s="3" t="n"/>
+      <c r="I480" s="3" t="n"/>
     </row>
     <row r="481">
       <c r="A481" s="3" t="n"/>
@@ -46655,6 +47160,7 @@
       <c r="F481" s="3" t="n"/>
       <c r="G481" s="3" t="n"/>
       <c r="H481" s="3" t="n"/>
+      <c r="I481" s="3" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="3" t="n"/>
@@ -46665,6 +47171,7 @@
       <c r="F482" s="3" t="n"/>
       <c r="G482" s="3" t="n"/>
       <c r="H482" s="3" t="n"/>
+      <c r="I482" s="3" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="3" t="n"/>
@@ -46675,6 +47182,7 @@
       <c r="F483" s="3" t="n"/>
       <c r="G483" s="3" t="n"/>
       <c r="H483" s="3" t="n"/>
+      <c r="I483" s="3" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="3" t="n"/>
@@ -46685,6 +47193,7 @@
       <c r="F484" s="3" t="n"/>
       <c r="G484" s="3" t="n"/>
       <c r="H484" s="3" t="n"/>
+      <c r="I484" s="3" t="n"/>
     </row>
     <row r="485">
       <c r="A485" s="3" t="n"/>
@@ -46695,6 +47204,7 @@
       <c r="F485" s="3" t="n"/>
       <c r="G485" s="3" t="n"/>
       <c r="H485" s="3" t="n"/>
+      <c r="I485" s="3" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="3" t="n"/>
@@ -46705,6 +47215,7 @@
       <c r="F486" s="3" t="n"/>
       <c r="G486" s="3" t="n"/>
       <c r="H486" s="3" t="n"/>
+      <c r="I486" s="3" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="3" t="n"/>
@@ -46715,6 +47226,7 @@
       <c r="F487" s="3" t="n"/>
       <c r="G487" s="3" t="n"/>
       <c r="H487" s="3" t="n"/>
+      <c r="I487" s="3" t="n"/>
     </row>
     <row r="488">
       <c r="A488" s="3" t="n"/>
@@ -46725,6 +47237,7 @@
       <c r="F488" s="3" t="n"/>
       <c r="G488" s="3" t="n"/>
       <c r="H488" s="3" t="n"/>
+      <c r="I488" s="3" t="n"/>
     </row>
     <row r="489">
       <c r="A489" s="3" t="n"/>
@@ -46735,6 +47248,7 @@
       <c r="F489" s="3" t="n"/>
       <c r="G489" s="3" t="n"/>
       <c r="H489" s="3" t="n"/>
+      <c r="I489" s="3" t="n"/>
     </row>
     <row r="490">
       <c r="A490" s="3" t="n"/>
@@ -46745,6 +47259,7 @@
       <c r="F490" s="3" t="n"/>
       <c r="G490" s="3" t="n"/>
       <c r="H490" s="3" t="n"/>
+      <c r="I490" s="3" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="3" t="n"/>
@@ -46755,6 +47270,7 @@
       <c r="F491" s="3" t="n"/>
       <c r="G491" s="3" t="n"/>
       <c r="H491" s="3" t="n"/>
+      <c r="I491" s="3" t="n"/>
     </row>
     <row r="492">
       <c r="A492" s="3" t="n"/>
@@ -46765,6 +47281,7 @@
       <c r="F492" s="3" t="n"/>
       <c r="G492" s="3" t="n"/>
       <c r="H492" s="3" t="n"/>
+      <c r="I492" s="3" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="3" t="n"/>
@@ -46775,6 +47292,7 @@
       <c r="F493" s="3" t="n"/>
       <c r="G493" s="3" t="n"/>
       <c r="H493" s="3" t="n"/>
+      <c r="I493" s="3" t="n"/>
     </row>
     <row r="494">
       <c r="A494" s="3" t="n"/>
@@ -46785,6 +47303,7 @@
       <c r="F494" s="3" t="n"/>
       <c r="G494" s="3" t="n"/>
       <c r="H494" s="3" t="n"/>
+      <c r="I494" s="3" t="n"/>
     </row>
     <row r="495">
       <c r="A495" s="3" t="n"/>
@@ -46795,6 +47314,7 @@
       <c r="F495" s="3" t="n"/>
       <c r="G495" s="3" t="n"/>
       <c r="H495" s="3" t="n"/>
+      <c r="I495" s="3" t="n"/>
     </row>
     <row r="496">
       <c r="A496" s="3" t="n"/>
@@ -46805,6 +47325,7 @@
       <c r="F496" s="3" t="n"/>
       <c r="G496" s="3" t="n"/>
       <c r="H496" s="3" t="n"/>
+      <c r="I496" s="3" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="3" t="n"/>
@@ -46815,6 +47336,7 @@
       <c r="F497" s="3" t="n"/>
       <c r="G497" s="3" t="n"/>
       <c r="H497" s="3" t="n"/>
+      <c r="I497" s="3" t="n"/>
     </row>
     <row r="498">
       <c r="A498" s="3" t="n"/>
@@ -46825,6 +47347,7 @@
       <c r="F498" s="3" t="n"/>
       <c r="G498" s="3" t="n"/>
       <c r="H498" s="3" t="n"/>
+      <c r="I498" s="3" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="3" t="n"/>
@@ -46835,6 +47358,7 @@
       <c r="F499" s="3" t="n"/>
       <c r="G499" s="3" t="n"/>
       <c r="H499" s="3" t="n"/>
+      <c r="I499" s="3" t="n"/>
     </row>
     <row r="500">
       <c r="A500" s="3" t="n"/>
@@ -46845,6 +47369,7 @@
       <c r="F500" s="3" t="n"/>
       <c r="G500" s="3" t="n"/>
       <c r="H500" s="3" t="n"/>
+      <c r="I500" s="3" t="n"/>
     </row>
     <row r="501">
       <c r="A501" s="3" t="n"/>
@@ -46855,6 +47380,7 @@
       <c r="F501" s="3" t="n"/>
       <c r="G501" s="3" t="n"/>
       <c r="H501" s="3" t="n"/>
+      <c r="I501" s="3" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="3" t="n"/>
@@ -46865,6 +47391,7 @@
       <c r="F502" s="3" t="n"/>
       <c r="G502" s="3" t="n"/>
       <c r="H502" s="3" t="n"/>
+      <c r="I502" s="3" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="3" t="n"/>
@@ -46875,6 +47402,7 @@
       <c r="F503" s="3" t="n"/>
       <c r="G503" s="3" t="n"/>
       <c r="H503" s="3" t="n"/>
+      <c r="I503" s="3" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="3" t="n"/>
@@ -46885,6 +47413,7 @@
       <c r="F504" s="3" t="n"/>
       <c r="G504" s="3" t="n"/>
       <c r="H504" s="3" t="n"/>
+      <c r="I504" s="3" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="3" t="n"/>
@@ -46895,6 +47424,7 @@
       <c r="F505" s="3" t="n"/>
       <c r="G505" s="3" t="n"/>
       <c r="H505" s="3" t="n"/>
+      <c r="I505" s="3" t="n"/>
     </row>
     <row r="506">
       <c r="A506" s="3" t="n"/>
@@ -46905,6 +47435,7 @@
       <c r="F506" s="3" t="n"/>
       <c r="G506" s="3" t="n"/>
       <c r="H506" s="3" t="n"/>
+      <c r="I506" s="3" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="3" t="n"/>
@@ -46915,6 +47446,7 @@
       <c r="F507" s="3" t="n"/>
       <c r="G507" s="3" t="n"/>
       <c r="H507" s="3" t="n"/>
+      <c r="I507" s="3" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="3" t="n"/>
@@ -46925,6 +47457,7 @@
       <c r="F508" s="3" t="n"/>
       <c r="G508" s="3" t="n"/>
       <c r="H508" s="3" t="n"/>
+      <c r="I508" s="3" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="3" t="n"/>
@@ -46935,6 +47468,7 @@
       <c r="F509" s="3" t="n"/>
       <c r="G509" s="3" t="n"/>
       <c r="H509" s="3" t="n"/>
+      <c r="I509" s="3" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="3" t="n"/>
@@ -46945,6 +47479,7 @@
       <c r="F510" s="3" t="n"/>
       <c r="G510" s="3" t="n"/>
       <c r="H510" s="3" t="n"/>
+      <c r="I510" s="3" t="n"/>
     </row>
     <row r="511">
       <c r="A511" s="3" t="n"/>
@@ -46955,6 +47490,7 @@
       <c r="F511" s="3" t="n"/>
       <c r="G511" s="3" t="n"/>
       <c r="H511" s="3" t="n"/>
+      <c r="I511" s="3" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="3" t="n"/>
@@ -46965,6 +47501,7 @@
       <c r="F512" s="3" t="n"/>
       <c r="G512" s="3" t="n"/>
       <c r="H512" s="3" t="n"/>
+      <c r="I512" s="3" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="3" t="n"/>
@@ -46975,6 +47512,7 @@
       <c r="F513" s="3" t="n"/>
       <c r="G513" s="3" t="n"/>
       <c r="H513" s="3" t="n"/>
+      <c r="I513" s="3" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="3" t="n"/>
@@ -46985,6 +47523,7 @@
       <c r="F514" s="3" t="n"/>
       <c r="G514" s="3" t="n"/>
       <c r="H514" s="3" t="n"/>
+      <c r="I514" s="3" t="n"/>
     </row>
     <row r="515">
       <c r="A515" s="3" t="n"/>
@@ -46995,6 +47534,7 @@
       <c r="F515" s="3" t="n"/>
       <c r="G515" s="3" t="n"/>
       <c r="H515" s="3" t="n"/>
+      <c r="I515" s="3" t="n"/>
     </row>
     <row r="516">
       <c r="A516" s="3" t="n"/>
@@ -47005,6 +47545,7 @@
       <c r="F516" s="3" t="n"/>
       <c r="G516" s="3" t="n"/>
       <c r="H516" s="3" t="n"/>
+      <c r="I516" s="3" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="3" t="n"/>
@@ -47015,6 +47556,7 @@
       <c r="F517" s="3" t="n"/>
       <c r="G517" s="3" t="n"/>
       <c r="H517" s="3" t="n"/>
+      <c r="I517" s="3" t="n"/>
     </row>
     <row r="518">
       <c r="A518" s="3" t="n"/>
@@ -47025,6 +47567,7 @@
       <c r="F518" s="3" t="n"/>
       <c r="G518" s="3" t="n"/>
       <c r="H518" s="3" t="n"/>
+      <c r="I518" s="3" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="3" t="n"/>
@@ -47035,6 +47578,7 @@
       <c r="F519" s="3" t="n"/>
       <c r="G519" s="3" t="n"/>
       <c r="H519" s="3" t="n"/>
+      <c r="I519" s="3" t="n"/>
     </row>
     <row r="520">
       <c r="A520" s="3" t="n"/>
@@ -47045,6 +47589,7 @@
       <c r="F520" s="3" t="n"/>
       <c r="G520" s="3" t="n"/>
       <c r="H520" s="3" t="n"/>
+      <c r="I520" s="3" t="n"/>
     </row>
     <row r="521">
       <c r="A521" s="3" t="n"/>
@@ -47055,6 +47600,7 @@
       <c r="F521" s="3" t="n"/>
       <c r="G521" s="3" t="n"/>
       <c r="H521" s="3" t="n"/>
+      <c r="I521" s="3" t="n"/>
     </row>
     <row r="522">
       <c r="A522" s="3" t="n"/>
@@ -47065,6 +47611,7 @@
       <c r="F522" s="3" t="n"/>
       <c r="G522" s="3" t="n"/>
       <c r="H522" s="3" t="n"/>
+      <c r="I522" s="3" t="n"/>
     </row>
     <row r="523">
       <c r="A523" s="3" t="n"/>
@@ -47075,6 +47622,7 @@
       <c r="F523" s="3" t="n"/>
       <c r="G523" s="3" t="n"/>
       <c r="H523" s="3" t="n"/>
+      <c r="I523" s="3" t="n"/>
     </row>
     <row r="524">
       <c r="A524" s="3" t="n"/>
@@ -47085,6 +47633,7 @@
       <c r="F524" s="3" t="n"/>
       <c r="G524" s="3" t="n"/>
       <c r="H524" s="3" t="n"/>
+      <c r="I524" s="3" t="n"/>
     </row>
     <row r="525">
       <c r="A525" s="3" t="n"/>
@@ -47095,6 +47644,7 @@
       <c r="F525" s="3" t="n"/>
       <c r="G525" s="3" t="n"/>
       <c r="H525" s="3" t="n"/>
+      <c r="I525" s="3" t="n"/>
     </row>
     <row r="526">
       <c r="A526" s="3" t="n"/>
@@ -47105,6 +47655,7 @@
       <c r="F526" s="3" t="n"/>
       <c r="G526" s="3" t="n"/>
       <c r="H526" s="3" t="n"/>
+      <c r="I526" s="3" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="3" t="n"/>
@@ -47115,6 +47666,7 @@
       <c r="F527" s="3" t="n"/>
       <c r="G527" s="3" t="n"/>
       <c r="H527" s="3" t="n"/>
+      <c r="I527" s="3" t="n"/>
     </row>
     <row r="528">
       <c r="A528" s="3" t="n"/>
@@ -47125,6 +47677,7 @@
       <c r="F528" s="3" t="n"/>
       <c r="G528" s="3" t="n"/>
       <c r="H528" s="3" t="n"/>
+      <c r="I528" s="3" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="3" t="n"/>
@@ -47135,6 +47688,7 @@
       <c r="F529" s="3" t="n"/>
       <c r="G529" s="3" t="n"/>
       <c r="H529" s="3" t="n"/>
+      <c r="I529" s="3" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="3" t="n"/>
@@ -47145,6 +47699,7 @@
       <c r="F530" s="3" t="n"/>
       <c r="G530" s="3" t="n"/>
       <c r="H530" s="3" t="n"/>
+      <c r="I530" s="3" t="n"/>
     </row>
     <row r="531">
       <c r="A531" s="3" t="n"/>
@@ -47155,6 +47710,7 @@
       <c r="F531" s="3" t="n"/>
       <c r="G531" s="3" t="n"/>
       <c r="H531" s="3" t="n"/>
+      <c r="I531" s="3" t="n"/>
     </row>
     <row r="532">
       <c r="A532" s="3" t="n"/>
@@ -47165,6 +47721,7 @@
       <c r="F532" s="3" t="n"/>
       <c r="G532" s="3" t="n"/>
       <c r="H532" s="3" t="n"/>
+      <c r="I532" s="3" t="n"/>
     </row>
     <row r="533">
       <c r="A533" s="3" t="n"/>
@@ -47175,6 +47732,7 @@
       <c r="F533" s="3" t="n"/>
       <c r="G533" s="3" t="n"/>
       <c r="H533" s="3" t="n"/>
+      <c r="I533" s="3" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="3" t="n"/>
@@ -47185,6 +47743,7 @@
       <c r="F534" s="3" t="n"/>
       <c r="G534" s="3" t="n"/>
       <c r="H534" s="3" t="n"/>
+      <c r="I534" s="3" t="n"/>
     </row>
     <row r="535">
       <c r="A535" s="3" t="n"/>
@@ -47195,6 +47754,7 @@
       <c r="F535" s="3" t="n"/>
       <c r="G535" s="3" t="n"/>
       <c r="H535" s="3" t="n"/>
+      <c r="I535" s="3" t="n"/>
     </row>
     <row r="536">
       <c r="A536" s="3" t="n"/>
@@ -47205,6 +47765,7 @@
       <c r="F536" s="3" t="n"/>
       <c r="G536" s="3" t="n"/>
       <c r="H536" s="3" t="n"/>
+      <c r="I536" s="3" t="n"/>
     </row>
     <row r="537">
       <c r="A537" s="3" t="n"/>
@@ -47215,6 +47776,7 @@
       <c r="F537" s="3" t="n"/>
       <c r="G537" s="3" t="n"/>
       <c r="H537" s="3" t="n"/>
+      <c r="I537" s="3" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="3" t="n"/>
@@ -47225,6 +47787,7 @@
       <c r="F538" s="3" t="n"/>
       <c r="G538" s="3" t="n"/>
       <c r="H538" s="3" t="n"/>
+      <c r="I538" s="3" t="n"/>
     </row>
     <row r="539">
       <c r="A539" s="3" t="n"/>
@@ -47235,6 +47798,7 @@
       <c r="F539" s="3" t="n"/>
       <c r="G539" s="3" t="n"/>
       <c r="H539" s="3" t="n"/>
+      <c r="I539" s="3" t="n"/>
     </row>
     <row r="540">
       <c r="A540" s="3" t="n"/>
@@ -47245,6 +47809,7 @@
       <c r="F540" s="3" t="n"/>
       <c r="G540" s="3" t="n"/>
       <c r="H540" s="3" t="n"/>
+      <c r="I540" s="3" t="n"/>
     </row>
     <row r="541">
       <c r="A541" s="3" t="n"/>
@@ -47255,6 +47820,7 @@
       <c r="F541" s="3" t="n"/>
       <c r="G541" s="3" t="n"/>
       <c r="H541" s="3" t="n"/>
+      <c r="I541" s="3" t="n"/>
     </row>
     <row r="542">
       <c r="A542" s="3" t="n"/>
@@ -47265,6 +47831,7 @@
       <c r="F542" s="3" t="n"/>
       <c r="G542" s="3" t="n"/>
       <c r="H542" s="3" t="n"/>
+      <c r="I542" s="3" t="n"/>
     </row>
     <row r="543">
       <c r="A543" s="3" t="n"/>
@@ -47275,6 +47842,7 @@
       <c r="F543" s="3" t="n"/>
       <c r="G543" s="3" t="n"/>
       <c r="H543" s="3" t="n"/>
+      <c r="I543" s="3" t="n"/>
     </row>
     <row r="544">
       <c r="A544" s="3" t="n"/>
@@ -47285,6 +47853,7 @@
       <c r="F544" s="3" t="n"/>
       <c r="G544" s="3" t="n"/>
       <c r="H544" s="3" t="n"/>
+      <c r="I544" s="3" t="n"/>
     </row>
     <row r="545">
       <c r="A545" s="3" t="n"/>
@@ -47295,6 +47864,7 @@
       <c r="F545" s="3" t="n"/>
       <c r="G545" s="3" t="n"/>
       <c r="H545" s="3" t="n"/>
+      <c r="I545" s="3" t="n"/>
     </row>
     <row r="546">
       <c r="A546" s="3" t="n"/>
@@ -47305,6 +47875,7 @@
       <c r="F546" s="3" t="n"/>
       <c r="G546" s="3" t="n"/>
       <c r="H546" s="3" t="n"/>
+      <c r="I546" s="3" t="n"/>
     </row>
     <row r="547">
       <c r="A547" s="3" t="n"/>
@@ -47315,6 +47886,7 @@
       <c r="F547" s="3" t="n"/>
       <c r="G547" s="3" t="n"/>
       <c r="H547" s="3" t="n"/>
+      <c r="I547" s="3" t="n"/>
     </row>
     <row r="548">
       <c r="A548" s="3" t="n"/>
@@ -47325,6 +47897,7 @@
       <c r="F548" s="3" t="n"/>
       <c r="G548" s="3" t="n"/>
       <c r="H548" s="3" t="n"/>
+      <c r="I548" s="3" t="n"/>
     </row>
     <row r="549">
       <c r="A549" s="3" t="n"/>
@@ -47335,6 +47908,7 @@
       <c r="F549" s="3" t="n"/>
       <c r="G549" s="3" t="n"/>
       <c r="H549" s="3" t="n"/>
+      <c r="I549" s="3" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="3" t="n"/>
@@ -47345,6 +47919,7 @@
       <c r="F550" s="3" t="n"/>
       <c r="G550" s="3" t="n"/>
       <c r="H550" s="3" t="n"/>
+      <c r="I550" s="3" t="n"/>
     </row>
     <row r="551">
       <c r="A551" s="3" t="n"/>
@@ -47355,6 +47930,7 @@
       <c r="F551" s="3" t="n"/>
       <c r="G551" s="3" t="n"/>
       <c r="H551" s="3" t="n"/>
+      <c r="I551" s="3" t="n"/>
     </row>
     <row r="552">
       <c r="A552" s="3" t="n"/>
@@ -47365,6 +47941,7 @@
       <c r="F552" s="3" t="n"/>
       <c r="G552" s="3" t="n"/>
       <c r="H552" s="3" t="n"/>
+      <c r="I552" s="3" t="n"/>
     </row>
     <row r="553">
       <c r="A553" s="3" t="n"/>
@@ -47375,6 +47952,7 @@
       <c r="F553" s="3" t="n"/>
       <c r="G553" s="3" t="n"/>
       <c r="H553" s="3" t="n"/>
+      <c r="I553" s="3" t="n"/>
     </row>
     <row r="554">
       <c r="A554" s="3" t="n"/>
@@ -47385,6 +47963,7 @@
       <c r="F554" s="3" t="n"/>
       <c r="G554" s="3" t="n"/>
       <c r="H554" s="3" t="n"/>
+      <c r="I554" s="3" t="n"/>
     </row>
     <row r="555">
       <c r="A555" s="3" t="n"/>
@@ -47395,6 +47974,7 @@
       <c r="F555" s="3" t="n"/>
       <c r="G555" s="3" t="n"/>
       <c r="H555" s="3" t="n"/>
+      <c r="I555" s="3" t="n"/>
     </row>
     <row r="556">
       <c r="A556" s="3" t="n"/>
@@ -47405,6 +47985,7 @@
       <c r="F556" s="3" t="n"/>
       <c r="G556" s="3" t="n"/>
       <c r="H556" s="3" t="n"/>
+      <c r="I556" s="3" t="n"/>
     </row>
     <row r="557">
       <c r="A557" s="3" t="n"/>
@@ -47415,6 +47996,7 @@
       <c r="F557" s="3" t="n"/>
       <c r="G557" s="3" t="n"/>
       <c r="H557" s="3" t="n"/>
+      <c r="I557" s="3" t="n"/>
     </row>
     <row r="558">
       <c r="A558" s="3" t="n"/>
@@ -47425,6 +48007,7 @@
       <c r="F558" s="3" t="n"/>
       <c r="G558" s="3" t="n"/>
       <c r="H558" s="3" t="n"/>
+      <c r="I558" s="3" t="n"/>
     </row>
     <row r="559">
       <c r="A559" s="3" t="n"/>
@@ -47435,6 +48018,7 @@
       <c r="F559" s="3" t="n"/>
       <c r="G559" s="3" t="n"/>
       <c r="H559" s="3" t="n"/>
+      <c r="I559" s="3" t="n"/>
     </row>
     <row r="560">
       <c r="A560" s="3" t="n"/>
@@ -47445,6 +48029,7 @@
       <c r="F560" s="3" t="n"/>
       <c r="G560" s="3" t="n"/>
       <c r="H560" s="3" t="n"/>
+      <c r="I560" s="3" t="n"/>
     </row>
     <row r="561">
       <c r="A561" s="3" t="n"/>
@@ -47455,6 +48040,7 @@
       <c r="F561" s="3" t="n"/>
       <c r="G561" s="3" t="n"/>
       <c r="H561" s="3" t="n"/>
+      <c r="I561" s="3" t="n"/>
     </row>
     <row r="562">
       <c r="A562" s="3" t="n"/>
@@ -47465,6 +48051,7 @@
       <c r="F562" s="3" t="n"/>
       <c r="G562" s="3" t="n"/>
       <c r="H562" s="3" t="n"/>
+      <c r="I562" s="3" t="n"/>
     </row>
     <row r="563">
       <c r="A563" s="3" t="n"/>
@@ -47475,6 +48062,7 @@
       <c r="F563" s="3" t="n"/>
       <c r="G563" s="3" t="n"/>
       <c r="H563" s="3" t="n"/>
+      <c r="I563" s="3" t="n"/>
     </row>
     <row r="564">
       <c r="A564" s="3" t="n"/>
@@ -47485,6 +48073,7 @@
       <c r="F564" s="3" t="n"/>
       <c r="G564" s="3" t="n"/>
       <c r="H564" s="3" t="n"/>
+      <c r="I564" s="3" t="n"/>
     </row>
     <row r="565">
       <c r="A565" s="3" t="n"/>
@@ -47495,6 +48084,7 @@
       <c r="F565" s="3" t="n"/>
       <c r="G565" s="3" t="n"/>
       <c r="H565" s="3" t="n"/>
+      <c r="I565" s="3" t="n"/>
     </row>
     <row r="566">
       <c r="A566" s="3" t="n"/>
@@ -47505,6 +48095,7 @@
       <c r="F566" s="3" t="n"/>
       <c r="G566" s="3" t="n"/>
       <c r="H566" s="3" t="n"/>
+      <c r="I566" s="3" t="n"/>
     </row>
     <row r="567">
       <c r="A567" s="3" t="n"/>
@@ -47515,6 +48106,7 @@
       <c r="F567" s="3" t="n"/>
       <c r="G567" s="3" t="n"/>
       <c r="H567" s="3" t="n"/>
+      <c r="I567" s="3" t="n"/>
     </row>
     <row r="568">
       <c r="A568" s="3" t="n"/>
@@ -47525,6 +48117,7 @@
       <c r="F568" s="3" t="n"/>
       <c r="G568" s="3" t="n"/>
       <c r="H568" s="3" t="n"/>
+      <c r="I568" s="3" t="n"/>
     </row>
     <row r="569">
       <c r="A569" s="3" t="n"/>
@@ -47535,6 +48128,7 @@
       <c r="F569" s="3" t="n"/>
       <c r="G569" s="3" t="n"/>
       <c r="H569" s="3" t="n"/>
+      <c r="I569" s="3" t="n"/>
     </row>
     <row r="570">
       <c r="A570" s="3" t="n"/>
@@ -47545,6 +48139,7 @@
       <c r="F570" s="3" t="n"/>
       <c r="G570" s="3" t="n"/>
       <c r="H570" s="3" t="n"/>
+      <c r="I570" s="3" t="n"/>
     </row>
     <row r="571">
       <c r="A571" s="3" t="n"/>
@@ -47555,6 +48150,7 @@
       <c r="F571" s="3" t="n"/>
       <c r="G571" s="3" t="n"/>
       <c r="H571" s="3" t="n"/>
+      <c r="I571" s="3" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="3" t="n"/>
@@ -47565,6 +48161,7 @@
       <c r="F572" s="3" t="n"/>
       <c r="G572" s="3" t="n"/>
       <c r="H572" s="3" t="n"/>
+      <c r="I572" s="3" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="3" t="n"/>
@@ -47575,6 +48172,7 @@
       <c r="F573" s="3" t="n"/>
       <c r="G573" s="3" t="n"/>
       <c r="H573" s="3" t="n"/>
+      <c r="I573" s="3" t="n"/>
     </row>
     <row r="574">
       <c r="A574" s="3" t="n"/>
@@ -47585,6 +48183,7 @@
       <c r="F574" s="3" t="n"/>
       <c r="G574" s="3" t="n"/>
       <c r="H574" s="3" t="n"/>
+      <c r="I574" s="3" t="n"/>
     </row>
     <row r="575">
       <c r="A575" s="3" t="n"/>
@@ -47595,6 +48194,7 @@
       <c r="F575" s="3" t="n"/>
       <c r="G575" s="3" t="n"/>
       <c r="H575" s="3" t="n"/>
+      <c r="I575" s="3" t="n"/>
     </row>
     <row r="576">
       <c r="A576" s="3" t="n"/>
@@ -47605,6 +48205,7 @@
       <c r="F576" s="3" t="n"/>
       <c r="G576" s="3" t="n"/>
       <c r="H576" s="3" t="n"/>
+      <c r="I576" s="3" t="n"/>
     </row>
     <row r="577">
       <c r="A577" s="3" t="n"/>
@@ -47615,6 +48216,7 @@
       <c r="F577" s="3" t="n"/>
       <c r="G577" s="3" t="n"/>
       <c r="H577" s="3" t="n"/>
+      <c r="I577" s="3" t="n"/>
     </row>
     <row r="578">
       <c r="A578" s="3" t="n"/>
@@ -47625,6 +48227,7 @@
       <c r="F578" s="3" t="n"/>
       <c r="G578" s="3" t="n"/>
       <c r="H578" s="3" t="n"/>
+      <c r="I578" s="3" t="n"/>
     </row>
     <row r="579">
       <c r="A579" s="3" t="n"/>
@@ -47635,6 +48238,7 @@
       <c r="F579" s="3" t="n"/>
       <c r="G579" s="3" t="n"/>
       <c r="H579" s="3" t="n"/>
+      <c r="I579" s="3" t="n"/>
     </row>
     <row r="580">
       <c r="A580" s="3" t="n"/>
@@ -47645,6 +48249,7 @@
       <c r="F580" s="3" t="n"/>
       <c r="G580" s="3" t="n"/>
       <c r="H580" s="3" t="n"/>
+      <c r="I580" s="3" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="3" t="n"/>
@@ -47655,6 +48260,7 @@
       <c r="F581" s="3" t="n"/>
       <c r="G581" s="3" t="n"/>
       <c r="H581" s="3" t="n"/>
+      <c r="I581" s="3" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="3" t="n"/>
@@ -47665,6 +48271,7 @@
       <c r="F582" s="3" t="n"/>
       <c r="G582" s="3" t="n"/>
       <c r="H582" s="3" t="n"/>
+      <c r="I582" s="3" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="3" t="n"/>
@@ -47675,6 +48282,7 @@
       <c r="F583" s="3" t="n"/>
       <c r="G583" s="3" t="n"/>
       <c r="H583" s="3" t="n"/>
+      <c r="I583" s="3" t="n"/>
     </row>
     <row r="584">
       <c r="A584" s="3" t="n"/>
@@ -47685,6 +48293,7 @@
       <c r="F584" s="3" t="n"/>
       <c r="G584" s="3" t="n"/>
       <c r="H584" s="3" t="n"/>
+      <c r="I584" s="3" t="n"/>
     </row>
     <row r="585">
       <c r="A585" s="3" t="n"/>
@@ -47695,6 +48304,7 @@
       <c r="F585" s="3" t="n"/>
       <c r="G585" s="3" t="n"/>
       <c r="H585" s="3" t="n"/>
+      <c r="I585" s="3" t="n"/>
     </row>
     <row r="586">
       <c r="A586" s="3" t="n"/>
@@ -47705,6 +48315,7 @@
       <c r="F586" s="3" t="n"/>
       <c r="G586" s="3" t="n"/>
       <c r="H586" s="3" t="n"/>
+      <c r="I586" s="3" t="n"/>
     </row>
     <row r="587">
       <c r="A587" s="3" t="n"/>
@@ -47715,6 +48326,7 @@
       <c r="F587" s="3" t="n"/>
       <c r="G587" s="3" t="n"/>
       <c r="H587" s="3" t="n"/>
+      <c r="I587" s="3" t="n"/>
     </row>
     <row r="588">
       <c r="A588" s="3" t="n"/>
@@ -47725,6 +48337,7 @@
       <c r="F588" s="3" t="n"/>
       <c r="G588" s="3" t="n"/>
       <c r="H588" s="3" t="n"/>
+      <c r="I588" s="3" t="n"/>
     </row>
     <row r="589">
       <c r="A589" s="3" t="n"/>
@@ -47735,6 +48348,7 @@
       <c r="F589" s="3" t="n"/>
       <c r="G589" s="3" t="n"/>
       <c r="H589" s="3" t="n"/>
+      <c r="I589" s="3" t="n"/>
     </row>
     <row r="590">
       <c r="A590" s="3" t="n"/>
@@ -47745,6 +48359,7 @@
       <c r="F590" s="3" t="n"/>
       <c r="G590" s="3" t="n"/>
       <c r="H590" s="3" t="n"/>
+      <c r="I590" s="3" t="n"/>
     </row>
     <row r="591">
       <c r="A591" s="3" t="n"/>
@@ -47755,6 +48370,7 @@
       <c r="F591" s="3" t="n"/>
       <c r="G591" s="3" t="n"/>
       <c r="H591" s="3" t="n"/>
+      <c r="I591" s="3" t="n"/>
     </row>
     <row r="592">
       <c r="A592" s="3" t="n"/>
@@ -47765,6 +48381,7 @@
       <c r="F592" s="3" t="n"/>
       <c r="G592" s="3" t="n"/>
       <c r="H592" s="3" t="n"/>
+      <c r="I592" s="3" t="n"/>
     </row>
     <row r="593">
       <c r="A593" s="3" t="n"/>
@@ -47775,6 +48392,7 @@
       <c r="F593" s="3" t="n"/>
       <c r="G593" s="3" t="n"/>
       <c r="H593" s="3" t="n"/>
+      <c r="I593" s="3" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="3" t="n"/>
@@ -47785,6 +48403,7 @@
       <c r="F594" s="3" t="n"/>
       <c r="G594" s="3" t="n"/>
       <c r="H594" s="3" t="n"/>
+      <c r="I594" s="3" t="n"/>
     </row>
     <row r="595">
       <c r="A595" s="3" t="n"/>
@@ -47795,6 +48414,7 @@
       <c r="F595" s="3" t="n"/>
       <c r="G595" s="3" t="n"/>
       <c r="H595" s="3" t="n"/>
+      <c r="I595" s="3" t="n"/>
     </row>
     <row r="596">
       <c r="A596" s="3" t="n"/>
@@ -47805,6 +48425,7 @@
       <c r="F596" s="3" t="n"/>
       <c r="G596" s="3" t="n"/>
       <c r="H596" s="3" t="n"/>
+      <c r="I596" s="3" t="n"/>
     </row>
     <row r="597">
       <c r="A597" s="3" t="n"/>
@@ -47815,6 +48436,7 @@
       <c r="F597" s="3" t="n"/>
       <c r="G597" s="3" t="n"/>
       <c r="H597" s="3" t="n"/>
+      <c r="I597" s="3" t="n"/>
     </row>
     <row r="598">
       <c r="A598" s="3" t="n"/>
@@ -47825,6 +48447,7 @@
       <c r="F598" s="3" t="n"/>
       <c r="G598" s="3" t="n"/>
       <c r="H598" s="3" t="n"/>
+      <c r="I598" s="3" t="n"/>
     </row>
     <row r="599">
       <c r="A599" s="3" t="n"/>
@@ -47835,6 +48458,7 @@
       <c r="F599" s="3" t="n"/>
       <c r="G599" s="3" t="n"/>
       <c r="H599" s="3" t="n"/>
+      <c r="I599" s="3" t="n"/>
     </row>
     <row r="600">
       <c r="A600" s="3" t="n"/>
@@ -47845,6 +48469,7 @@
       <c r="F600" s="3" t="n"/>
       <c r="G600" s="3" t="n"/>
       <c r="H600" s="3" t="n"/>
+      <c r="I600" s="3" t="n"/>
     </row>
     <row r="601">
       <c r="A601" s="3" t="n"/>
@@ -47855,6 +48480,7 @@
       <c r="F601" s="3" t="n"/>
       <c r="G601" s="3" t="n"/>
       <c r="H601" s="3" t="n"/>
+      <c r="I601" s="3" t="n"/>
     </row>
     <row r="602">
       <c r="A602" s="3" t="n"/>
@@ -47865,6 +48491,7 @@
       <c r="F602" s="3" t="n"/>
       <c r="G602" s="3" t="n"/>
       <c r="H602" s="3" t="n"/>
+      <c r="I602" s="3" t="n"/>
     </row>
     <row r="603">
       <c r="A603" s="3" t="n"/>
@@ -47875,6 +48502,7 @@
       <c r="F603" s="3" t="n"/>
       <c r="G603" s="3" t="n"/>
       <c r="H603" s="3" t="n"/>
+      <c r="I603" s="3" t="n"/>
     </row>
     <row r="604">
       <c r="A604" s="3" t="n"/>
@@ -47885,6 +48513,7 @@
       <c r="F604" s="3" t="n"/>
       <c r="G604" s="3" t="n"/>
       <c r="H604" s="3" t="n"/>
+      <c r="I604" s="3" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="3" t="n"/>
@@ -47895,6 +48524,7 @@
       <c r="F605" s="3" t="n"/>
       <c r="G605" s="3" t="n"/>
       <c r="H605" s="3" t="n"/>
+      <c r="I605" s="3" t="n"/>
     </row>
     <row r="606">
       <c r="A606" s="3" t="n"/>
@@ -47905,6 +48535,7 @@
       <c r="F606" s="3" t="n"/>
       <c r="G606" s="3" t="n"/>
       <c r="H606" s="3" t="n"/>
+      <c r="I606" s="3" t="n"/>
     </row>
     <row r="607">
       <c r="A607" s="3" t="n"/>
@@ -47915,6 +48546,7 @@
       <c r="F607" s="3" t="n"/>
       <c r="G607" s="3" t="n"/>
       <c r="H607" s="3" t="n"/>
+      <c r="I607" s="3" t="n"/>
     </row>
     <row r="608">
       <c r="A608" s="3" t="n"/>
@@ -47925,6 +48557,7 @@
       <c r="F608" s="3" t="n"/>
       <c r="G608" s="3" t="n"/>
       <c r="H608" s="3" t="n"/>
+      <c r="I608" s="3" t="n"/>
     </row>
     <row r="609">
       <c r="A609" s="3" t="n"/>
@@ -47935,6 +48568,7 @@
       <c r="F609" s="3" t="n"/>
       <c r="G609" s="3" t="n"/>
       <c r="H609" s="3" t="n"/>
+      <c r="I609" s="3" t="n"/>
     </row>
     <row r="610">
       <c r="A610" s="3" t="n"/>
@@ -47945,6 +48579,7 @@
       <c r="F610" s="3" t="n"/>
       <c r="G610" s="3" t="n"/>
       <c r="H610" s="3" t="n"/>
+      <c r="I610" s="3" t="n"/>
     </row>
     <row r="611">
       <c r="A611" s="3" t="n"/>
@@ -47955,6 +48590,7 @@
       <c r="F611" s="3" t="n"/>
       <c r="G611" s="3" t="n"/>
       <c r="H611" s="3" t="n"/>
+      <c r="I611" s="3" t="n"/>
     </row>
     <row r="612">
       <c r="A612" s="3" t="n"/>
@@ -47965,6 +48601,7 @@
       <c r="F612" s="3" t="n"/>
       <c r="G612" s="3" t="n"/>
       <c r="H612" s="3" t="n"/>
+      <c r="I612" s="3" t="n"/>
     </row>
     <row r="613">
       <c r="A613" s="3" t="n"/>
@@ -47975,6 +48612,7 @@
       <c r="F613" s="3" t="n"/>
       <c r="G613" s="3" t="n"/>
       <c r="H613" s="3" t="n"/>
+      <c r="I613" s="3" t="n"/>
     </row>
     <row r="614">
       <c r="A614" s="3" t="n"/>
@@ -47985,6 +48623,7 @@
       <c r="F614" s="3" t="n"/>
       <c r="G614" s="3" t="n"/>
       <c r="H614" s="3" t="n"/>
+      <c r="I614" s="3" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="3" t="n"/>
@@ -47995,6 +48634,7 @@
       <c r="F615" s="3" t="n"/>
       <c r="G615" s="3" t="n"/>
       <c r="H615" s="3" t="n"/>
+      <c r="I615" s="3" t="n"/>
     </row>
     <row r="616">
       <c r="A616" s="3" t="n"/>
@@ -48005,6 +48645,7 @@
       <c r="F616" s="3" t="n"/>
       <c r="G616" s="3" t="n"/>
       <c r="H616" s="3" t="n"/>
+      <c r="I616" s="3" t="n"/>
     </row>
     <row r="617">
       <c r="A617" s="3" t="n"/>
@@ -48015,6 +48656,7 @@
       <c r="F617" s="3" t="n"/>
       <c r="G617" s="3" t="n"/>
       <c r="H617" s="3" t="n"/>
+      <c r="I617" s="3" t="n"/>
     </row>
     <row r="618">
       <c r="A618" s="3" t="n"/>
@@ -48025,6 +48667,7 @@
       <c r="F618" s="3" t="n"/>
       <c r="G618" s="3" t="n"/>
       <c r="H618" s="3" t="n"/>
+      <c r="I618" s="3" t="n"/>
     </row>
     <row r="619">
       <c r="A619" s="3" t="n"/>
@@ -48035,6 +48678,7 @@
       <c r="F619" s="3" t="n"/>
       <c r="G619" s="3" t="n"/>
       <c r="H619" s="3" t="n"/>
+      <c r="I619" s="3" t="n"/>
     </row>
     <row r="620">
       <c r="A620" s="3" t="n"/>
@@ -48045,6 +48689,7 @@
       <c r="F620" s="3" t="n"/>
       <c r="G620" s="3" t="n"/>
       <c r="H620" s="3" t="n"/>
+      <c r="I620" s="3" t="n"/>
     </row>
     <row r="621">
       <c r="A621" s="3" t="n"/>
@@ -48055,6 +48700,7 @@
       <c r="F621" s="3" t="n"/>
       <c r="G621" s="3" t="n"/>
       <c r="H621" s="3" t="n"/>
+      <c r="I621" s="3" t="n"/>
     </row>
     <row r="622">
       <c r="A622" s="3" t="n"/>
@@ -48065,6 +48711,7 @@
       <c r="F622" s="3" t="n"/>
       <c r="G622" s="3" t="n"/>
       <c r="H622" s="3" t="n"/>
+      <c r="I622" s="3" t="n"/>
     </row>
     <row r="623">
       <c r="A623" s="3" t="n"/>
@@ -48075,6 +48722,7 @@
       <c r="F623" s="3" t="n"/>
       <c r="G623" s="3" t="n"/>
       <c r="H623" s="3" t="n"/>
+      <c r="I623" s="3" t="n"/>
     </row>
     <row r="624">
       <c r="A624" s="3" t="n"/>
@@ -48085,6 +48733,7 @@
       <c r="F624" s="3" t="n"/>
       <c r="G624" s="3" t="n"/>
       <c r="H624" s="3" t="n"/>
+      <c r="I624" s="3" t="n"/>
     </row>
     <row r="625">
       <c r="A625" s="3" t="n"/>
@@ -48095,6 +48744,7 @@
       <c r="F625" s="3" t="n"/>
       <c r="G625" s="3" t="n"/>
       <c r="H625" s="3" t="n"/>
+      <c r="I625" s="3" t="n"/>
     </row>
     <row r="626">
       <c r="A626" s="3" t="n"/>
@@ -48105,6 +48755,7 @@
       <c r="F626" s="3" t="n"/>
       <c r="G626" s="3" t="n"/>
       <c r="H626" s="3" t="n"/>
+      <c r="I626" s="3" t="n"/>
     </row>
     <row r="627">
       <c r="A627" s="3" t="n"/>
@@ -48115,6 +48766,7 @@
       <c r="F627" s="3" t="n"/>
       <c r="G627" s="3" t="n"/>
       <c r="H627" s="3" t="n"/>
+      <c r="I627" s="3" t="n"/>
     </row>
     <row r="628">
       <c r="A628" s="3" t="n"/>
@@ -48125,6 +48777,7 @@
       <c r="F628" s="3" t="n"/>
       <c r="G628" s="3" t="n"/>
       <c r="H628" s="3" t="n"/>
+      <c r="I628" s="3" t="n"/>
     </row>
     <row r="629">
       <c r="A629" s="3" t="n"/>
@@ -48135,6 +48788,7 @@
       <c r="F629" s="3" t="n"/>
       <c r="G629" s="3" t="n"/>
       <c r="H629" s="3" t="n"/>
+      <c r="I629" s="3" t="n"/>
     </row>
     <row r="630">
       <c r="A630" s="3" t="n"/>
@@ -48145,6 +48799,7 @@
       <c r="F630" s="3" t="n"/>
       <c r="G630" s="3" t="n"/>
       <c r="H630" s="3" t="n"/>
+      <c r="I630" s="3" t="n"/>
     </row>
     <row r="631">
       <c r="A631" s="3" t="n"/>
@@ -48155,6 +48810,7 @@
       <c r="F631" s="3" t="n"/>
       <c r="G631" s="3" t="n"/>
       <c r="H631" s="3" t="n"/>
+      <c r="I631" s="3" t="n"/>
     </row>
     <row r="632">
       <c r="A632" s="3" t="n"/>
@@ -48165,6 +48821,7 @@
       <c r="F632" s="3" t="n"/>
       <c r="G632" s="3" t="n"/>
       <c r="H632" s="3" t="n"/>
+      <c r="I632" s="3" t="n"/>
     </row>
     <row r="633">
       <c r="A633" s="3" t="n"/>
@@ -48175,6 +48832,7 @@
       <c r="F633" s="3" t="n"/>
       <c r="G633" s="3" t="n"/>
       <c r="H633" s="3" t="n"/>
+      <c r="I633" s="3" t="n"/>
     </row>
     <row r="634">
       <c r="A634" s="3" t="n"/>
@@ -48185,6 +48843,7 @@
       <c r="F634" s="3" t="n"/>
       <c r="G634" s="3" t="n"/>
       <c r="H634" s="3" t="n"/>
+      <c r="I634" s="3" t="n"/>
     </row>
     <row r="635">
       <c r="A635" s="3" t="n"/>
@@ -48195,6 +48854,7 @@
       <c r="F635" s="3" t="n"/>
       <c r="G635" s="3" t="n"/>
       <c r="H635" s="3" t="n"/>
+      <c r="I635" s="3" t="n"/>
     </row>
     <row r="636">
       <c r="A636" s="3" t="n"/>
@@ -48205,6 +48865,7 @@
       <c r="F636" s="3" t="n"/>
       <c r="G636" s="3" t="n"/>
       <c r="H636" s="3" t="n"/>
+      <c r="I636" s="3" t="n"/>
     </row>
     <row r="637">
       <c r="A637" s="3" t="n"/>
@@ -48215,6 +48876,7 @@
       <c r="F637" s="3" t="n"/>
       <c r="G637" s="3" t="n"/>
       <c r="H637" s="3" t="n"/>
+      <c r="I637" s="3" t="n"/>
     </row>
     <row r="638">
       <c r="A638" s="3" t="n"/>
@@ -48225,6 +48887,7 @@
       <c r="F638" s="3" t="n"/>
       <c r="G638" s="3" t="n"/>
       <c r="H638" s="3" t="n"/>
+      <c r="I638" s="3" t="n"/>
     </row>
     <row r="639">
       <c r="A639" s="3" t="n"/>
@@ -48235,6 +48898,7 @@
       <c r="F639" s="3" t="n"/>
       <c r="G639" s="3" t="n"/>
       <c r="H639" s="3" t="n"/>
+      <c r="I639" s="3" t="n"/>
     </row>
     <row r="640">
       <c r="A640" s="3" t="n"/>
@@ -48245,6 +48909,7 @@
       <c r="F640" s="3" t="n"/>
       <c r="G640" s="3" t="n"/>
       <c r="H640" s="3" t="n"/>
+      <c r="I640" s="3" t="n"/>
     </row>
     <row r="641">
       <c r="A641" s="3" t="n"/>
@@ -48255,6 +48920,7 @@
       <c r="F641" s="3" t="n"/>
       <c r="G641" s="3" t="n"/>
       <c r="H641" s="3" t="n"/>
+      <c r="I641" s="3" t="n"/>
     </row>
     <row r="642">
       <c r="A642" s="3" t="n"/>
@@ -48265,6 +48931,7 @@
       <c r="F642" s="3" t="n"/>
       <c r="G642" s="3" t="n"/>
       <c r="H642" s="3" t="n"/>
+      <c r="I642" s="3" t="n"/>
     </row>
     <row r="643">
       <c r="A643" s="3" t="n"/>
@@ -48275,6 +48942,7 @@
       <c r="F643" s="3" t="n"/>
       <c r="G643" s="3" t="n"/>
       <c r="H643" s="3" t="n"/>
+      <c r="I643" s="3" t="n"/>
     </row>
     <row r="644">
       <c r="A644" s="3" t="n"/>
@@ -48285,6 +48953,7 @@
       <c r="F644" s="3" t="n"/>
       <c r="G644" s="3" t="n"/>
       <c r="H644" s="3" t="n"/>
+      <c r="I644" s="3" t="n"/>
     </row>
     <row r="645">
       <c r="A645" s="3" t="n"/>
@@ -48295,6 +48964,7 @@
       <c r="F645" s="3" t="n"/>
       <c r="G645" s="3" t="n"/>
       <c r="H645" s="3" t="n"/>
+      <c r="I645" s="3" t="n"/>
     </row>
     <row r="646">
       <c r="A646" s="3" t="n"/>
@@ -48305,6 +48975,7 @@
       <c r="F646" s="3" t="n"/>
       <c r="G646" s="3" t="n"/>
       <c r="H646" s="3" t="n"/>
+      <c r="I646" s="3" t="n"/>
     </row>
     <row r="647">
       <c r="A647" s="3" t="n"/>
@@ -48315,6 +48986,7 @@
       <c r="F647" s="3" t="n"/>
       <c r="G647" s="3" t="n"/>
       <c r="H647" s="3" t="n"/>
+      <c r="I647" s="3" t="n"/>
     </row>
     <row r="648">
       <c r="A648" s="3" t="n"/>
@@ -48325,6 +48997,7 @@
       <c r="F648" s="3" t="n"/>
       <c r="G648" s="3" t="n"/>
       <c r="H648" s="3" t="n"/>
+      <c r="I648" s="3" t="n"/>
     </row>
     <row r="649">
       <c r="A649" s="3" t="n"/>
@@ -48335,6 +49008,7 @@
       <c r="F649" s="3" t="n"/>
       <c r="G649" s="3" t="n"/>
       <c r="H649" s="3" t="n"/>
+      <c r="I649" s="3" t="n"/>
     </row>
     <row r="650">
       <c r="A650" s="3" t="n"/>
@@ -48345,6 +49019,7 @@
       <c r="F650" s="3" t="n"/>
       <c r="G650" s="3" t="n"/>
       <c r="H650" s="3" t="n"/>
+      <c r="I650" s="3" t="n"/>
     </row>
     <row r="651">
       <c r="A651" s="3" t="n"/>
@@ -48355,6 +49030,7 @@
       <c r="F651" s="3" t="n"/>
       <c r="G651" s="3" t="n"/>
       <c r="H651" s="3" t="n"/>
+      <c r="I651" s="3" t="n"/>
     </row>
     <row r="652">
       <c r="A652" s="3" t="n"/>
@@ -48365,6 +49041,7 @@
       <c r="F652" s="3" t="n"/>
       <c r="G652" s="3" t="n"/>
       <c r="H652" s="3" t="n"/>
+      <c r="I652" s="3" t="n"/>
     </row>
     <row r="653">
       <c r="A653" s="3" t="n"/>
@@ -48375,6 +49052,7 @@
       <c r="F653" s="3" t="n"/>
       <c r="G653" s="3" t="n"/>
       <c r="H653" s="3" t="n"/>
+      <c r="I653" s="3" t="n"/>
     </row>
     <row r="654">
       <c r="A654" s="3" t="n"/>
@@ -48385,6 +49063,7 @@
       <c r="F654" s="3" t="n"/>
       <c r="G654" s="3" t="n"/>
       <c r="H654" s="3" t="n"/>
+      <c r="I654" s="3" t="n"/>
     </row>
     <row r="655">
       <c r="A655" s="3" t="n"/>
@@ -48395,6 +49074,7 @@
       <c r="F655" s="3" t="n"/>
       <c r="G655" s="3" t="n"/>
       <c r="H655" s="3" t="n"/>
+      <c r="I655" s="3" t="n"/>
     </row>
     <row r="656">
       <c r="A656" s="3" t="n"/>
@@ -48405,6 +49085,7 @@
       <c r="F656" s="3" t="n"/>
       <c r="G656" s="3" t="n"/>
       <c r="H656" s="3" t="n"/>
+      <c r="I656" s="3" t="n"/>
     </row>
     <row r="657">
       <c r="A657" s="3" t="n"/>
@@ -48415,6 +49096,7 @@
       <c r="F657" s="3" t="n"/>
       <c r="G657" s="3" t="n"/>
       <c r="H657" s="3" t="n"/>
+      <c r="I657" s="3" t="n"/>
     </row>
     <row r="658">
       <c r="A658" s="3" t="n"/>
@@ -48425,6 +49107,7 @@
       <c r="F658" s="3" t="n"/>
       <c r="G658" s="3" t="n"/>
       <c r="H658" s="3" t="n"/>
+      <c r="I658" s="3" t="n"/>
     </row>
     <row r="659">
       <c r="A659" s="3" t="n"/>
@@ -48435,6 +49118,7 @@
       <c r="F659" s="3" t="n"/>
       <c r="G659" s="3" t="n"/>
       <c r="H659" s="3" t="n"/>
+      <c r="I659" s="3" t="n"/>
     </row>
     <row r="660">
       <c r="A660" s="3" t="n"/>
@@ -48445,6 +49129,7 @@
       <c r="F660" s="3" t="n"/>
       <c r="G660" s="3" t="n"/>
       <c r="H660" s="3" t="n"/>
+      <c r="I660" s="3" t="n"/>
     </row>
     <row r="661">
       <c r="A661" s="3" t="n"/>
@@ -48455,6 +49140,7 @@
       <c r="F661" s="3" t="n"/>
       <c r="G661" s="3" t="n"/>
       <c r="H661" s="3" t="n"/>
+      <c r="I661" s="3" t="n"/>
     </row>
     <row r="662">
       <c r="A662" s="3" t="n"/>
@@ -48465,6 +49151,7 @@
       <c r="F662" s="3" t="n"/>
       <c r="G662" s="3" t="n"/>
       <c r="H662" s="3" t="n"/>
+      <c r="I662" s="3" t="n"/>
     </row>
     <row r="663">
       <c r="A663" s="3" t="n"/>
@@ -48475,6 +49162,7 @@
       <c r="F663" s="3" t="n"/>
       <c r="G663" s="3" t="n"/>
       <c r="H663" s="3" t="n"/>
+      <c r="I663" s="3" t="n"/>
     </row>
     <row r="664">
       <c r="A664" s="3" t="n"/>
@@ -48485,6 +49173,7 @@
       <c r="F664" s="3" t="n"/>
       <c r="G664" s="3" t="n"/>
       <c r="H664" s="3" t="n"/>
+      <c r="I664" s="3" t="n"/>
     </row>
     <row r="665">
       <c r="A665" s="3" t="n"/>
@@ -48495,6 +49184,7 @@
       <c r="F665" s="3" t="n"/>
       <c r="G665" s="3" t="n"/>
       <c r="H665" s="3" t="n"/>
+      <c r="I665" s="3" t="n"/>
     </row>
     <row r="666">
       <c r="A666" s="3" t="n"/>
@@ -48505,6 +49195,7 @@
       <c r="F666" s="3" t="n"/>
       <c r="G666" s="3" t="n"/>
       <c r="H666" s="3" t="n"/>
+      <c r="I666" s="3" t="n"/>
     </row>
     <row r="667">
       <c r="A667" s="3" t="n"/>
@@ -48515,6 +49206,7 @@
       <c r="F667" s="3" t="n"/>
       <c r="G667" s="3" t="n"/>
       <c r="H667" s="3" t="n"/>
+      <c r="I667" s="3" t="n"/>
     </row>
     <row r="668">
       <c r="A668" s="3" t="n"/>
@@ -48525,6 +49217,7 @@
       <c r="F668" s="3" t="n"/>
       <c r="G668" s="3" t="n"/>
       <c r="H668" s="3" t="n"/>
+      <c r="I668" s="3" t="n"/>
     </row>
     <row r="669">
       <c r="A669" s="3" t="n"/>
@@ -48535,6 +49228,7 @@
       <c r="F669" s="3" t="n"/>
       <c r="G669" s="3" t="n"/>
       <c r="H669" s="3" t="n"/>
+      <c r="I669" s="3" t="n"/>
     </row>
     <row r="670">
       <c r="A670" s="3" t="n"/>
@@ -48545,6 +49239,7 @@
       <c r="F670" s="3" t="n"/>
       <c r="G670" s="3" t="n"/>
       <c r="H670" s="3" t="n"/>
+      <c r="I670" s="3" t="n"/>
     </row>
     <row r="671">
       <c r="A671" s="3" t="n"/>
@@ -48555,6 +49250,7 @@
       <c r="F671" s="3" t="n"/>
       <c r="G671" s="3" t="n"/>
       <c r="H671" s="3" t="n"/>
+      <c r="I671" s="3" t="n"/>
     </row>
     <row r="672">
       <c r="A672" s="3" t="n"/>
@@ -48565,6 +49261,7 @@
       <c r="F672" s="3" t="n"/>
       <c r="G672" s="3" t="n"/>
       <c r="H672" s="3" t="n"/>
+      <c r="I672" s="3" t="n"/>
     </row>
     <row r="673">
       <c r="A673" s="3" t="n"/>
@@ -48575,6 +49272,7 @@
       <c r="F673" s="3" t="n"/>
       <c r="G673" s="3" t="n"/>
       <c r="H673" s="3" t="n"/>
+      <c r="I673" s="3" t="n"/>
     </row>
     <row r="674">
       <c r="A674" s="3" t="n"/>
@@ -48585,6 +49283,7 @@
       <c r="F674" s="3" t="n"/>
       <c r="G674" s="3" t="n"/>
       <c r="H674" s="3" t="n"/>
+      <c r="I674" s="3" t="n"/>
     </row>
     <row r="675">
       <c r="A675" s="3" t="n"/>
@@ -48595,6 +49294,7 @@
       <c r="F675" s="3" t="n"/>
       <c r="G675" s="3" t="n"/>
       <c r="H675" s="3" t="n"/>
+      <c r="I675" s="3" t="n"/>
     </row>
     <row r="676">
       <c r="A676" s="3" t="n"/>
@@ -48605,6 +49305,7 @@
       <c r="F676" s="3" t="n"/>
       <c r="G676" s="3" t="n"/>
       <c r="H676" s="3" t="n"/>
+      <c r="I676" s="3" t="n"/>
     </row>
     <row r="677">
       <c r="A677" s="3" t="n"/>
@@ -48615,6 +49316,7 @@
       <c r="F677" s="3" t="n"/>
       <c r="G677" s="3" t="n"/>
       <c r="H677" s="3" t="n"/>
+      <c r="I677" s="3" t="n"/>
     </row>
     <row r="678">
       <c r="A678" s="3" t="n"/>
@@ -48625,6 +49327,7 @@
       <c r="F678" s="3" t="n"/>
       <c r="G678" s="3" t="n"/>
       <c r="H678" s="3" t="n"/>
+      <c r="I678" s="3" t="n"/>
     </row>
     <row r="679">
       <c r="A679" s="3" t="n"/>
@@ -48635,6 +49338,7 @@
       <c r="F679" s="3" t="n"/>
       <c r="G679" s="3" t="n"/>
       <c r="H679" s="3" t="n"/>
+      <c r="I679" s="3" t="n"/>
     </row>
     <row r="680">
       <c r="A680" s="3" t="n"/>
@@ -48645,6 +49349,7 @@
       <c r="F680" s="3" t="n"/>
       <c r="G680" s="3" t="n"/>
       <c r="H680" s="3" t="n"/>
+      <c r="I680" s="3" t="n"/>
     </row>
     <row r="681">
       <c r="A681" s="3" t="n"/>
@@ -48655,6 +49360,7 @@
       <c r="F681" s="3" t="n"/>
       <c r="G681" s="3" t="n"/>
       <c r="H681" s="3" t="n"/>
+      <c r="I681" s="3" t="n"/>
     </row>
     <row r="682">
       <c r="A682" s="3" t="n"/>
@@ -48665,6 +49371,7 @@
       <c r="F682" s="3" t="n"/>
       <c r="G682" s="3" t="n"/>
       <c r="H682" s="3" t="n"/>
+      <c r="I682" s="3" t="n"/>
     </row>
     <row r="683">
       <c r="A683" s="3" t="n"/>
@@ -48675,6 +49382,7 @@
       <c r="F683" s="3" t="n"/>
       <c r="G683" s="3" t="n"/>
       <c r="H683" s="3" t="n"/>
+      <c r="I683" s="3" t="n"/>
     </row>
     <row r="684">
       <c r="A684" s="3" t="n"/>
@@ -48685,6 +49393,7 @@
       <c r="F684" s="3" t="n"/>
       <c r="G684" s="3" t="n"/>
       <c r="H684" s="3" t="n"/>
+      <c r="I684" s="3" t="n"/>
     </row>
     <row r="685">
       <c r="A685" s="3" t="n"/>
@@ -48695,6 +49404,7 @@
       <c r="F685" s="3" t="n"/>
       <c r="G685" s="3" t="n"/>
       <c r="H685" s="3" t="n"/>
+      <c r="I685" s="3" t="n"/>
     </row>
     <row r="686">
       <c r="A686" s="3" t="n"/>
@@ -48705,6 +49415,7 @@
       <c r="F686" s="3" t="n"/>
       <c r="G686" s="3" t="n"/>
       <c r="H686" s="3" t="n"/>
+      <c r="I686" s="3" t="n"/>
     </row>
     <row r="687">
       <c r="A687" s="3" t="n"/>
@@ -48715,6 +49426,7 @@
       <c r="F687" s="3" t="n"/>
       <c r="G687" s="3" t="n"/>
       <c r="H687" s="3" t="n"/>
+      <c r="I687" s="3" t="n"/>
     </row>
     <row r="688">
       <c r="A688" s="3" t="n"/>
@@ -48725,6 +49437,7 @@
       <c r="F688" s="3" t="n"/>
       <c r="G688" s="3" t="n"/>
       <c r="H688" s="3" t="n"/>
+      <c r="I688" s="3" t="n"/>
     </row>
     <row r="689">
       <c r="A689" s="3" t="n"/>
@@ -48735,6 +49448,7 @@
       <c r="F689" s="3" t="n"/>
       <c r="G689" s="3" t="n"/>
       <c r="H689" s="3" t="n"/>
+      <c r="I689" s="3" t="n"/>
     </row>
     <row r="690">
       <c r="A690" s="3" t="n"/>
@@ -48745,6 +49459,7 @@
       <c r="F690" s="3" t="n"/>
       <c r="G690" s="3" t="n"/>
       <c r="H690" s="3" t="n"/>
+      <c r="I690" s="3" t="n"/>
     </row>
     <row r="691">
       <c r="A691" s="3" t="n"/>
@@ -48755,6 +49470,7 @@
       <c r="F691" s="3" t="n"/>
       <c r="G691" s="3" t="n"/>
       <c r="H691" s="3" t="n"/>
+      <c r="I691" s="3" t="n"/>
     </row>
     <row r="692">
       <c r="A692" s="3" t="n"/>
@@ -48765,6 +49481,7 @@
       <c r="F692" s="3" t="n"/>
       <c r="G692" s="3" t="n"/>
       <c r="H692" s="3" t="n"/>
+      <c r="I692" s="3" t="n"/>
     </row>
     <row r="693">
       <c r="A693" s="3" t="n"/>
@@ -48775,6 +49492,7 @@
       <c r="F693" s="3" t="n"/>
       <c r="G693" s="3" t="n"/>
       <c r="H693" s="3" t="n"/>
+      <c r="I693" s="3" t="n"/>
     </row>
     <row r="694">
       <c r="A694" s="3" t="n"/>
@@ -48785,6 +49503,7 @@
       <c r="F694" s="3" t="n"/>
       <c r="G694" s="3" t="n"/>
       <c r="H694" s="3" t="n"/>
+      <c r="I694" s="3" t="n"/>
     </row>
     <row r="695">
       <c r="A695" s="3" t="n"/>
@@ -48795,6 +49514,7 @@
       <c r="F695" s="3" t="n"/>
       <c r="G695" s="3" t="n"/>
       <c r="H695" s="3" t="n"/>
+      <c r="I695" s="3" t="n"/>
     </row>
     <row r="696">
       <c r="A696" s="3" t="n"/>
@@ -48805,6 +49525,7 @@
       <c r="F696" s="3" t="n"/>
       <c r="G696" s="3" t="n"/>
       <c r="H696" s="3" t="n"/>
+      <c r="I696" s="3" t="n"/>
     </row>
     <row r="697">
       <c r="A697" s="3" t="n"/>
@@ -48815,6 +49536,7 @@
       <c r="F697" s="3" t="n"/>
       <c r="G697" s="3" t="n"/>
       <c r="H697" s="3" t="n"/>
+      <c r="I697" s="3" t="n"/>
     </row>
     <row r="698">
       <c r="A698" s="3" t="n"/>
@@ -48825,6 +49547,7 @@
       <c r="F698" s="3" t="n"/>
       <c r="G698" s="3" t="n"/>
       <c r="H698" s="3" t="n"/>
+      <c r="I698" s="3" t="n"/>
     </row>
     <row r="699">
       <c r="A699" s="3" t="n"/>
@@ -48835,6 +49558,7 @@
       <c r="F699" s="3" t="n"/>
       <c r="G699" s="3" t="n"/>
       <c r="H699" s="3" t="n"/>
+      <c r="I699" s="3" t="n"/>
     </row>
     <row r="700">
       <c r="A700" s="3" t="n"/>
@@ -48845,6 +49569,7 @@
       <c r="F700" s="3" t="n"/>
       <c r="G700" s="3" t="n"/>
       <c r="H700" s="3" t="n"/>
+      <c r="I700" s="3" t="n"/>
     </row>
     <row r="701">
       <c r="A701" s="3" t="n"/>
@@ -48855,6 +49580,7 @@
       <c r="F701" s="3" t="n"/>
       <c r="G701" s="3" t="n"/>
       <c r="H701" s="3" t="n"/>
+      <c r="I701" s="3" t="n"/>
     </row>
     <row r="702">
       <c r="A702" s="3" t="n"/>
@@ -48865,6 +49591,7 @@
       <c r="F702" s="3" t="n"/>
       <c r="G702" s="3" t="n"/>
       <c r="H702" s="3" t="n"/>
+      <c r="I702" s="3" t="n"/>
     </row>
     <row r="703">
       <c r="A703" s="3" t="n"/>
@@ -48875,6 +49602,7 @@
       <c r="F703" s="3" t="n"/>
       <c r="G703" s="3" t="n"/>
       <c r="H703" s="3" t="n"/>
+      <c r="I703" s="3" t="n"/>
     </row>
     <row r="704">
       <c r="A704" s="3" t="n"/>
@@ -48885,6 +49613,7 @@
       <c r="F704" s="3" t="n"/>
       <c r="G704" s="3" t="n"/>
       <c r="H704" s="3" t="n"/>
+      <c r="I704" s="3" t="n"/>
     </row>
     <row r="705">
       <c r="A705" s="3" t="n"/>
@@ -48895,6 +49624,7 @@
       <c r="F705" s="3" t="n"/>
       <c r="G705" s="3" t="n"/>
       <c r="H705" s="3" t="n"/>
+      <c r="I705" s="3" t="n"/>
     </row>
     <row r="706">
       <c r="A706" s="3" t="n"/>
@@ -48905,6 +49635,7 @@
       <c r="F706" s="3" t="n"/>
       <c r="G706" s="3" t="n"/>
       <c r="H706" s="3" t="n"/>
+      <c r="I706" s="3" t="n"/>
     </row>
     <row r="707">
       <c r="A707" s="3" t="n"/>
@@ -48915,6 +49646,7 @@
       <c r="F707" s="3" t="n"/>
       <c r="G707" s="3" t="n"/>
       <c r="H707" s="3" t="n"/>
+      <c r="I707" s="3" t="n"/>
     </row>
     <row r="708">
       <c r="A708" s="3" t="n"/>
@@ -48925,6 +49657,7 @@
       <c r="F708" s="3" t="n"/>
       <c r="G708" s="3" t="n"/>
       <c r="H708" s="3" t="n"/>
+      <c r="I708" s="3" t="n"/>
     </row>
     <row r="709">
       <c r="A709" s="3" t="n"/>
@@ -48935,6 +49668,7 @@
       <c r="F709" s="3" t="n"/>
       <c r="G709" s="3" t="n"/>
       <c r="H709" s="3" t="n"/>
+      <c r="I709" s="3" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="3" t="n"/>
@@ -48945,6 +49679,7 @@
       <c r="F710" s="3" t="n"/>
       <c r="G710" s="3" t="n"/>
       <c r="H710" s="3" t="n"/>
+      <c r="I710" s="3" t="n"/>
     </row>
     <row r="711">
       <c r="A711" s="3" t="n"/>
@@ -48955,6 +49690,7 @@
       <c r="F711" s="3" t="n"/>
       <c r="G711" s="3" t="n"/>
       <c r="H711" s="3" t="n"/>
+      <c r="I711" s="3" t="n"/>
     </row>
     <row r="712">
       <c r="A712" s="3" t="n"/>
@@ -48965,6 +49701,7 @@
       <c r="F712" s="3" t="n"/>
       <c r="G712" s="3" t="n"/>
       <c r="H712" s="3" t="n"/>
+      <c r="I712" s="3" t="n"/>
     </row>
     <row r="713">
       <c r="A713" s="3" t="n"/>
@@ -48975,6 +49712,7 @@
       <c r="F713" s="3" t="n"/>
       <c r="G713" s="3" t="n"/>
       <c r="H713" s="3" t="n"/>
+      <c r="I713" s="3" t="n"/>
     </row>
     <row r="714">
       <c r="A714" s="3" t="n"/>
@@ -48985,6 +49723,7 @@
       <c r="F714" s="3" t="n"/>
       <c r="G714" s="3" t="n"/>
       <c r="H714" s="3" t="n"/>
+      <c r="I714" s="3" t="n"/>
     </row>
     <row r="715">
       <c r="A715" s="3" t="n"/>
@@ -48995,6 +49734,7 @@
       <c r="F715" s="3" t="n"/>
       <c r="G715" s="3" t="n"/>
       <c r="H715" s="3" t="n"/>
+      <c r="I715" s="3" t="n"/>
     </row>
     <row r="716">
       <c r="A716" s="3" t="n"/>
@@ -49005,6 +49745,7 @@
       <c r="F716" s="3" t="n"/>
       <c r="G716" s="3" t="n"/>
       <c r="H716" s="3" t="n"/>
+      <c r="I716" s="3" t="n"/>
     </row>
     <row r="717">
       <c r="A717" s="3" t="n"/>
@@ -49015,6 +49756,7 @@
       <c r="F717" s="3" t="n"/>
       <c r="G717" s="3" t="n"/>
       <c r="H717" s="3" t="n"/>
+      <c r="I717" s="3" t="n"/>
     </row>
     <row r="718">
       <c r="A718" s="3" t="n"/>
@@ -49025,6 +49767,7 @@
       <c r="F718" s="3" t="n"/>
       <c r="G718" s="3" t="n"/>
       <c r="H718" s="3" t="n"/>
+      <c r="I718" s="3" t="n"/>
     </row>
     <row r="719">
       <c r="A719" s="3" t="n"/>
@@ -49035,6 +49778,7 @@
       <c r="F719" s="3" t="n"/>
       <c r="G719" s="3" t="n"/>
       <c r="H719" s="3" t="n"/>
+      <c r="I719" s="3" t="n"/>
     </row>
     <row r="720">
       <c r="A720" s="3" t="n"/>
@@ -49045,6 +49789,7 @@
       <c r="F720" s="3" t="n"/>
       <c r="G720" s="3" t="n"/>
       <c r="H720" s="3" t="n"/>
+      <c r="I720" s="3" t="n"/>
     </row>
     <row r="721">
       <c r="A721" s="3" t="n"/>
@@ -49055,6 +49800,7 @@
       <c r="F721" s="3" t="n"/>
       <c r="G721" s="3" t="n"/>
       <c r="H721" s="3" t="n"/>
+      <c r="I721" s="3" t="n"/>
     </row>
     <row r="722">
       <c r="A722" s="3" t="n"/>
@@ -49065,6 +49811,7 @@
       <c r="F722" s="3" t="n"/>
       <c r="G722" s="3" t="n"/>
       <c r="H722" s="3" t="n"/>
+      <c r="I722" s="3" t="n"/>
     </row>
     <row r="723">
       <c r="A723" s="3" t="n"/>
@@ -49075,6 +49822,7 @@
       <c r="F723" s="3" t="n"/>
       <c r="G723" s="3" t="n"/>
       <c r="H723" s="3" t="n"/>
+      <c r="I723" s="3" t="n"/>
     </row>
     <row r="724">
       <c r="A724" s="3" t="n"/>
@@ -49085,6 +49833,7 @@
       <c r="F724" s="3" t="n"/>
       <c r="G724" s="3" t="n"/>
       <c r="H724" s="3" t="n"/>
+      <c r="I724" s="3" t="n"/>
     </row>
     <row r="725">
       <c r="A725" s="3" t="n"/>
@@ -49095,6 +49844,7 @@
       <c r="F725" s="3" t="n"/>
       <c r="G725" s="3" t="n"/>
       <c r="H725" s="3" t="n"/>
+      <c r="I725" s="3" t="n"/>
     </row>
     <row r="726">
       <c r="A726" s="3" t="n"/>
@@ -49105,6 +49855,7 @@
       <c r="F726" s="3" t="n"/>
       <c r="G726" s="3" t="n"/>
       <c r="H726" s="3" t="n"/>
+      <c r="I726" s="3" t="n"/>
     </row>
     <row r="727">
       <c r="A727" s="3" t="n"/>
@@ -49115,6 +49866,7 @@
       <c r="F727" s="3" t="n"/>
       <c r="G727" s="3" t="n"/>
       <c r="H727" s="3" t="n"/>
+      <c r="I727" s="3" t="n"/>
     </row>
     <row r="728">
       <c r="A728" s="3" t="n"/>
@@ -49125,6 +49877,7 @@
       <c r="F728" s="3" t="n"/>
       <c r="G728" s="3" t="n"/>
       <c r="H728" s="3" t="n"/>
+      <c r="I728" s="3" t="n"/>
     </row>
     <row r="729">
       <c r="A729" s="3" t="n"/>
@@ -49135,6 +49888,7 @@
       <c r="F729" s="3" t="n"/>
       <c r="G729" s="3" t="n"/>
       <c r="H729" s="3" t="n"/>
+      <c r="I729" s="3" t="n"/>
     </row>
     <row r="730">
       <c r="A730" s="3" t="n"/>
@@ -49145,6 +49899,7 @@
       <c r="F730" s="3" t="n"/>
       <c r="G730" s="3" t="n"/>
       <c r="H730" s="3" t="n"/>
+      <c r="I730" s="3" t="n"/>
     </row>
     <row r="731">
       <c r="A731" s="3" t="n"/>
@@ -49155,6 +49910,7 @@
       <c r="F731" s="3" t="n"/>
       <c r="G731" s="3" t="n"/>
       <c r="H731" s="3" t="n"/>
+      <c r="I731" s="3" t="n"/>
     </row>
     <row r="732">
       <c r="A732" s="3" t="n"/>
@@ -49165,6 +49921,7 @@
       <c r="F732" s="3" t="n"/>
       <c r="G732" s="3" t="n"/>
       <c r="H732" s="3" t="n"/>
+      <c r="I732" s="3" t="n"/>
     </row>
     <row r="733">
       <c r="A733" s="3" t="n"/>
@@ -49175,6 +49932,7 @@
       <c r="F733" s="3" t="n"/>
       <c r="G733" s="3" t="n"/>
       <c r="H733" s="3" t="n"/>
+      <c r="I733" s="3" t="n"/>
     </row>
     <row r="734">
       <c r="A734" s="3" t="n"/>
@@ -49185,6 +49943,7 @@
       <c r="F734" s="3" t="n"/>
       <c r="G734" s="3" t="n"/>
       <c r="H734" s="3" t="n"/>
+      <c r="I734" s="3" t="n"/>
     </row>
     <row r="735">
       <c r="A735" s="3" t="n"/>
@@ -49195,6 +49954,7 @@
       <c r="F735" s="3" t="n"/>
       <c r="G735" s="3" t="n"/>
       <c r="H735" s="3" t="n"/>
+      <c r="I735" s="3" t="n"/>
     </row>
     <row r="736">
       <c r="A736" s="3" t="n"/>
@@ -49205,6 +49965,7 @@
       <c r="F736" s="3" t="n"/>
       <c r="G736" s="3" t="n"/>
       <c r="H736" s="3" t="n"/>
+      <c r="I736" s="3" t="n"/>
     </row>
     <row r="737">
       <c r="A737" s="3" t="n"/>
@@ -49215,6 +49976,7 @@
       <c r="F737" s="3" t="n"/>
       <c r="G737" s="3" t="n"/>
       <c r="H737" s="3" t="n"/>
+      <c r="I737" s="3" t="n"/>
     </row>
     <row r="738">
       <c r="A738" s="3" t="n"/>
@@ -49225,6 +49987,7 @@
       <c r="F738" s="3" t="n"/>
       <c r="G738" s="3" t="n"/>
       <c r="H738" s="3" t="n"/>
+      <c r="I738" s="3" t="n"/>
     </row>
     <row r="739">
       <c r="A739" s="3" t="n"/>
@@ -49235,6 +49998,7 @@
       <c r="F739" s="3" t="n"/>
       <c r="G739" s="3" t="n"/>
       <c r="H739" s="3" t="n"/>
+      <c r="I739" s="3" t="n"/>
     </row>
     <row r="740">
       <c r="A740" s="3" t="n"/>
@@ -49245,6 +50009,7 @@
       <c r="F740" s="3" t="n"/>
       <c r="G740" s="3" t="n"/>
       <c r="H740" s="3" t="n"/>
+      <c r="I740" s="3" t="n"/>
     </row>
     <row r="741">
       <c r="A741" s="3" t="n"/>
@@ -49255,6 +50020,7 @@
       <c r="F741" s="3" t="n"/>
       <c r="G741" s="3" t="n"/>
       <c r="H741" s="3" t="n"/>
+      <c r="I741" s="3" t="n"/>
     </row>
     <row r="742">
       <c r="A742" s="3" t="n"/>
@@ -49265,6 +50031,7 @@
       <c r="F742" s="3" t="n"/>
       <c r="G742" s="3" t="n"/>
       <c r="H742" s="3" t="n"/>
+      <c r="I742" s="3" t="n"/>
     </row>
     <row r="743">
       <c r="A743" s="3" t="n"/>
@@ -49275,6 +50042,7 @@
       <c r="F743" s="3" t="n"/>
       <c r="G743" s="3" t="n"/>
       <c r="H743" s="3" t="n"/>
+      <c r="I743" s="3" t="n"/>
     </row>
     <row r="744">
       <c r="A744" s="3" t="n"/>
@@ -49285,6 +50053,7 @@
       <c r="F744" s="3" t="n"/>
       <c r="G744" s="3" t="n"/>
       <c r="H744" s="3" t="n"/>
+      <c r="I744" s="3" t="n"/>
     </row>
     <row r="745">
       <c r="A745" s="3" t="n"/>
@@ -49295,6 +50064,7 @@
       <c r="F745" s="3" t="n"/>
       <c r="G745" s="3" t="n"/>
       <c r="H745" s="3" t="n"/>
+      <c r="I745" s="3" t="n"/>
     </row>
     <row r="746">
       <c r="A746" s="3" t="n"/>
@@ -49305,6 +50075,7 @@
       <c r="F746" s="3" t="n"/>
       <c r="G746" s="3" t="n"/>
       <c r="H746" s="3" t="n"/>
+      <c r="I746" s="3" t="n"/>
     </row>
     <row r="747">
       <c r="A747" s="3" t="n"/>
@@ -49315,6 +50086,7 @@
       <c r="F747" s="3" t="n"/>
       <c r="G747" s="3" t="n"/>
       <c r="H747" s="3" t="n"/>
+      <c r="I747" s="3" t="n"/>
     </row>
     <row r="748">
       <c r="A748" s="3" t="n"/>
@@ -49325,6 +50097,7 @@
       <c r="F748" s="3" t="n"/>
       <c r="G748" s="3" t="n"/>
       <c r="H748" s="3" t="n"/>
+      <c r="I748" s="3" t="n"/>
     </row>
     <row r="749">
       <c r="A749" s="3" t="n"/>
@@ -49335,6 +50108,7 @@
       <c r="F749" s="3" t="n"/>
       <c r="G749" s="3" t="n"/>
       <c r="H749" s="3" t="n"/>
+      <c r="I749" s="3" t="n"/>
     </row>
     <row r="750">
       <c r="A750" s="3" t="n"/>
@@ -49345,6 +50119,7 @@
       <c r="F750" s="3" t="n"/>
       <c r="G750" s="3" t="n"/>
       <c r="H750" s="3" t="n"/>
+      <c r="I750" s="3" t="n"/>
     </row>
     <row r="751">
       <c r="A751" s="3" t="n"/>
@@ -49355,6 +50130,7 @@
       <c r="F751" s="3" t="n"/>
       <c r="G751" s="3" t="n"/>
       <c r="H751" s="3" t="n"/>
+      <c r="I751" s="3" t="n"/>
     </row>
     <row r="752">
       <c r="A752" s="3" t="n"/>
@@ -49365,6 +50141,7 @@
       <c r="F752" s="3" t="n"/>
       <c r="G752" s="3" t="n"/>
       <c r="H752" s="3" t="n"/>
+      <c r="I752" s="3" t="n"/>
     </row>
     <row r="753">
       <c r="A753" s="3" t="n"/>
@@ -49375,6 +50152,7 @@
       <c r="F753" s="3" t="n"/>
       <c r="G753" s="3" t="n"/>
       <c r="H753" s="3" t="n"/>
+      <c r="I753" s="3" t="n"/>
     </row>
     <row r="754">
       <c r="A754" s="3" t="n"/>
@@ -49385,6 +50163,7 @@
       <c r="F754" s="3" t="n"/>
       <c r="G754" s="3" t="n"/>
       <c r="H754" s="3" t="n"/>
+      <c r="I754" s="3" t="n"/>
     </row>
     <row r="755">
       <c r="A755" s="3" t="n"/>
@@ -49395,6 +50174,7 @@
       <c r="F755" s="3" t="n"/>
       <c r="G755" s="3" t="n"/>
       <c r="H755" s="3" t="n"/>
+      <c r="I755" s="3" t="n"/>
     </row>
     <row r="756">
       <c r="A756" s="3" t="n"/>
@@ -49405,6 +50185,7 @@
       <c r="F756" s="3" t="n"/>
       <c r="G756" s="3" t="n"/>
       <c r="H756" s="3" t="n"/>
+      <c r="I756" s="3" t="n"/>
     </row>
     <row r="757">
       <c r="A757" s="3" t="n"/>
@@ -49415,6 +50196,7 @@
       <c r="F757" s="3" t="n"/>
       <c r="G757" s="3" t="n"/>
       <c r="H757" s="3" t="n"/>
+      <c r="I757" s="3" t="n"/>
     </row>
     <row r="758">
       <c r="A758" s="3" t="n"/>
@@ -49425,6 +50207,7 @@
       <c r="F758" s="3" t="n"/>
       <c r="G758" s="3" t="n"/>
       <c r="H758" s="3" t="n"/>
+      <c r="I758" s="3" t="n"/>
     </row>
     <row r="759">
       <c r="A759" s="3" t="n"/>
@@ -49435,6 +50218,7 @@
       <c r="F759" s="3" t="n"/>
       <c r="G759" s="3" t="n"/>
       <c r="H759" s="3" t="n"/>
+      <c r="I759" s="3" t="n"/>
     </row>
     <row r="760">
       <c r="A760" s="3" t="n"/>
@@ -49445,6 +50229,7 @@
       <c r="F760" s="3" t="n"/>
       <c r="G760" s="3" t="n"/>
       <c r="H760" s="3" t="n"/>
+      <c r="I760" s="3" t="n"/>
     </row>
     <row r="761">
       <c r="A761" s="3" t="n"/>
@@ -49455,6 +50240,7 @@
       <c r="F761" s="3" t="n"/>
       <c r="G761" s="3" t="n"/>
       <c r="H761" s="3" t="n"/>
+      <c r="I761" s="3" t="n"/>
     </row>
     <row r="762">
       <c r="A762" s="3" t="n"/>
@@ -49465,6 +50251,7 @@
       <c r="F762" s="3" t="n"/>
       <c r="G762" s="3" t="n"/>
       <c r="H762" s="3" t="n"/>
+      <c r="I762" s="3" t="n"/>
     </row>
     <row r="763">
       <c r="A763" s="3" t="n"/>
@@ -49475,6 +50262,7 @@
       <c r="F763" s="3" t="n"/>
       <c r="G763" s="3" t="n"/>
       <c r="H763" s="3" t="n"/>
+      <c r="I763" s="3" t="n"/>
     </row>
     <row r="764">
       <c r="A764" s="3" t="n"/>
@@ -49485,6 +50273,7 @@
       <c r="F764" s="3" t="n"/>
       <c r="G764" s="3" t="n"/>
       <c r="H764" s="3" t="n"/>
+      <c r="I764" s="3" t="n"/>
     </row>
     <row r="765">
       <c r="A765" s="3" t="n"/>
@@ -49495,6 +50284,7 @@
       <c r="F765" s="3" t="n"/>
       <c r="G765" s="3" t="n"/>
       <c r="H765" s="3" t="n"/>
+      <c r="I765" s="3" t="n"/>
     </row>
     <row r="766">
       <c r="A766" s="3" t="n"/>
@@ -49505,6 +50295,7 @@
       <c r="F766" s="3" t="n"/>
       <c r="G766" s="3" t="n"/>
       <c r="H766" s="3" t="n"/>
+      <c r="I766" s="3" t="n"/>
     </row>
     <row r="767">
       <c r="A767" s="3" t="n"/>
@@ -49515,6 +50306,7 @@
       <c r="F767" s="3" t="n"/>
       <c r="G767" s="3" t="n"/>
       <c r="H767" s="3" t="n"/>
+      <c r="I767" s="3" t="n"/>
     </row>
     <row r="768">
       <c r="A768" s="3" t="n"/>
@@ -49525,6 +50317,7 @@
       <c r="F768" s="3" t="n"/>
       <c r="G768" s="3" t="n"/>
       <c r="H768" s="3" t="n"/>
+      <c r="I768" s="3" t="n"/>
     </row>
     <row r="769">
       <c r="A769" s="3" t="n"/>
@@ -49535,6 +50328,7 @@
       <c r="F769" s="3" t="n"/>
       <c r="G769" s="3" t="n"/>
       <c r="H769" s="3" t="n"/>
+      <c r="I769" s="3" t="n"/>
     </row>
     <row r="770">
       <c r="A770" s="3" t="n"/>
@@ -49545,6 +50339,7 @@
       <c r="F770" s="3" t="n"/>
       <c r="G770" s="3" t="n"/>
       <c r="H770" s="3" t="n"/>
+      <c r="I770" s="3" t="n"/>
     </row>
     <row r="771">
       <c r="A771" s="3" t="n"/>
@@ -49555,6 +50350,7 @@
       <c r="F771" s="3" t="n"/>
       <c r="G771" s="3" t="n"/>
       <c r="H771" s="3" t="n"/>
+      <c r="I771" s="3" t="n"/>
     </row>
     <row r="772">
       <c r="A772" s="3" t="n"/>
@@ -49565,6 +50361,7 @@
       <c r="F772" s="3" t="n"/>
       <c r="G772" s="3" t="n"/>
       <c r="H772" s="3" t="n"/>
+      <c r="I772" s="3" t="n"/>
     </row>
     <row r="773">
       <c r="A773" s="3" t="n"/>
@@ -49575,6 +50372,7 @@
       <c r="F773" s="3" t="n"/>
       <c r="G773" s="3" t="n"/>
       <c r="H773" s="3" t="n"/>
+      <c r="I773" s="3" t="n"/>
     </row>
     <row r="774">
       <c r="A774" s="3" t="n"/>
@@ -49585,6 +50383,7 @@
       <c r="F774" s="3" t="n"/>
       <c r="G774" s="3" t="n"/>
       <c r="H774" s="3" t="n"/>
+      <c r="I774" s="3" t="n"/>
     </row>
     <row r="775">
       <c r="A775" s="3" t="n"/>
@@ -49595,6 +50394,7 @@
       <c r="F775" s="3" t="n"/>
       <c r="G775" s="3" t="n"/>
       <c r="H775" s="3" t="n"/>
+      <c r="I775" s="3" t="n"/>
     </row>
     <row r="776">
       <c r="A776" s="3" t="n"/>
@@ -49605,6 +50405,7 @@
       <c r="F776" s="3" t="n"/>
       <c r="G776" s="3" t="n"/>
       <c r="H776" s="3" t="n"/>
+      <c r="I776" s="3" t="n"/>
     </row>
     <row r="777">
       <c r="A777" s="3" t="n"/>
@@ -49615,6 +50416,7 @@
       <c r="F777" s="3" t="n"/>
       <c r="G777" s="3" t="n"/>
       <c r="H777" s="3" t="n"/>
+      <c r="I777" s="3" t="n"/>
     </row>
     <row r="778">
       <c r="A778" s="3" t="n"/>
@@ -49625,6 +50427,7 @@
       <c r="F778" s="3" t="n"/>
       <c r="G778" s="3" t="n"/>
       <c r="H778" s="3" t="n"/>
+      <c r="I778" s="3" t="n"/>
     </row>
     <row r="779">
       <c r="A779" s="3" t="n"/>
@@ -49635,6 +50438,7 @@
       <c r="F779" s="3" t="n"/>
       <c r="G779" s="3" t="n"/>
       <c r="H779" s="3" t="n"/>
+      <c r="I779" s="3" t="n"/>
     </row>
     <row r="780">
       <c r="A780" s="3" t="n"/>
@@ -49645,6 +50449,7 @@
       <c r="F780" s="3" t="n"/>
       <c r="G780" s="3" t="n"/>
       <c r="H780" s="3" t="n"/>
+      <c r="I780" s="3" t="n"/>
     </row>
     <row r="781">
       <c r="A781" s="3" t="n"/>
@@ -49655,6 +50460,7 @@
       <c r="F781" s="3" t="n"/>
       <c r="G781" s="3" t="n"/>
       <c r="H781" s="3" t="n"/>
+      <c r="I781" s="3" t="n"/>
     </row>
     <row r="782">
       <c r="A782" s="3" t="n"/>
@@ -49665,6 +50471,7 @@
       <c r="F782" s="3" t="n"/>
       <c r="G782" s="3" t="n"/>
       <c r="H782" s="3" t="n"/>
+      <c r="I782" s="3" t="n"/>
     </row>
     <row r="783">
       <c r="A783" s="3" t="n"/>
@@ -49675,6 +50482,7 @@
       <c r="F783" s="3" t="n"/>
       <c r="G783" s="3" t="n"/>
       <c r="H783" s="3" t="n"/>
+      <c r="I783" s="3" t="n"/>
     </row>
     <row r="784">
       <c r="A784" s="3" t="n"/>
@@ -49685,6 +50493,7 @@
       <c r="F784" s="3" t="n"/>
       <c r="G784" s="3" t="n"/>
       <c r="H784" s="3" t="n"/>
+      <c r="I784" s="3" t="n"/>
     </row>
     <row r="785">
       <c r="A785" s="3" t="n"/>
@@ -49695,6 +50504,7 @@
       <c r="F785" s="3" t="n"/>
       <c r="G785" s="3" t="n"/>
       <c r="H785" s="3" t="n"/>
+      <c r="I785" s="3" t="n"/>
     </row>
     <row r="786">
       <c r="A786" s="3" t="n"/>
@@ -49705,6 +50515,7 @@
       <c r="F786" s="3" t="n"/>
       <c r="G786" s="3" t="n"/>
       <c r="H786" s="3" t="n"/>
+      <c r="I786" s="3" t="n"/>
     </row>
     <row r="787">
       <c r="A787" s="3" t="n"/>
@@ -49715,6 +50526,7 @@
       <c r="F787" s="3" t="n"/>
       <c r="G787" s="3" t="n"/>
       <c r="H787" s="3" t="n"/>
+      <c r="I787" s="3" t="n"/>
     </row>
     <row r="788">
       <c r="A788" s="3" t="n"/>
@@ -49725,6 +50537,7 @@
       <c r="F788" s="3" t="n"/>
       <c r="G788" s="3" t="n"/>
       <c r="H788" s="3" t="n"/>
+      <c r="I788" s="3" t="n"/>
     </row>
     <row r="789">
       <c r="A789" s="3" t="n"/>
@@ -49735,6 +50548,7 @@
       <c r="F789" s="3" t="n"/>
       <c r="G789" s="3" t="n"/>
       <c r="H789" s="3" t="n"/>
+      <c r="I789" s="3" t="n"/>
     </row>
     <row r="790">
       <c r="A790" s="3" t="n"/>
@@ -49745,6 +50559,7 @@
       <c r="F790" s="3" t="n"/>
       <c r="G790" s="3" t="n"/>
       <c r="H790" s="3" t="n"/>
+      <c r="I790" s="3" t="n"/>
     </row>
     <row r="791">
       <c r="A791" s="3" t="n"/>
@@ -49755,6 +50570,7 @@
       <c r="F791" s="3" t="n"/>
       <c r="G791" s="3" t="n"/>
       <c r="H791" s="3" t="n"/>
+      <c r="I791" s="3" t="n"/>
     </row>
     <row r="792">
       <c r="A792" s="3" t="n"/>
@@ -49765,6 +50581,7 @@
       <c r="F792" s="3" t="n"/>
       <c r="G792" s="3" t="n"/>
       <c r="H792" s="3" t="n"/>
+      <c r="I792" s="3" t="n"/>
     </row>
     <row r="793">
       <c r="A793" s="3" t="n"/>
@@ -49775,6 +50592,7 @@
       <c r="F793" s="3" t="n"/>
       <c r="G793" s="3" t="n"/>
       <c r="H793" s="3" t="n"/>
+      <c r="I793" s="3" t="n"/>
     </row>
     <row r="794">
       <c r="A794" s="3" t="n"/>
@@ -49785,6 +50603,7 @@
       <c r="F794" s="3" t="n"/>
       <c r="G794" s="3" t="n"/>
       <c r="H794" s="3" t="n"/>
+      <c r="I794" s="3" t="n"/>
     </row>
     <row r="795">
       <c r="A795" s="3" t="n"/>
@@ -49795,6 +50614,7 @@
       <c r="F795" s="3" t="n"/>
       <c r="G795" s="3" t="n"/>
       <c r="H795" s="3" t="n"/>
+      <c r="I795" s="3" t="n"/>
     </row>
     <row r="796">
       <c r="A796" s="3" t="n"/>
@@ -49805,6 +50625,7 @@
       <c r="F796" s="3" t="n"/>
       <c r="G796" s="3" t="n"/>
       <c r="H796" s="3" t="n"/>
+      <c r="I796" s="3" t="n"/>
     </row>
     <row r="797">
       <c r="A797" s="3" t="n"/>
@@ -49815,6 +50636,7 @@
       <c r="F797" s="3" t="n"/>
       <c r="G797" s="3" t="n"/>
       <c r="H797" s="3" t="n"/>
+      <c r="I797" s="3" t="n"/>
     </row>
     <row r="798">
       <c r="A798" s="3" t="n"/>
@@ -49825,6 +50647,7 @@
       <c r="F798" s="3" t="n"/>
       <c r="G798" s="3" t="n"/>
       <c r="H798" s="3" t="n"/>
+      <c r="I798" s="3" t="n"/>
     </row>
     <row r="799">
       <c r="A799" s="3" t="n"/>
@@ -49835,6 +50658,7 @@
       <c r="F799" s="3" t="n"/>
       <c r="G799" s="3" t="n"/>
       <c r="H799" s="3" t="n"/>
+      <c r="I799" s="3" t="n"/>
     </row>
     <row r="800">
       <c r="A800" s="3" t="n"/>
@@ -49845,6 +50669,7 @@
       <c r="F800" s="3" t="n"/>
       <c r="G800" s="3" t="n"/>
       <c r="H800" s="3" t="n"/>
+      <c r="I800" s="3" t="n"/>
     </row>
     <row r="801">
       <c r="A801" s="3" t="n"/>
@@ -49855,6 +50680,7 @@
       <c r="F801" s="3" t="n"/>
       <c r="G801" s="3" t="n"/>
       <c r="H801" s="3" t="n"/>
+      <c r="I801" s="3" t="n"/>
     </row>
     <row r="802">
       <c r="A802" s="3" t="n"/>
@@ -49865,6 +50691,7 @@
       <c r="F802" s="3" t="n"/>
       <c r="G802" s="3" t="n"/>
       <c r="H802" s="3" t="n"/>
+      <c r="I802" s="3" t="n"/>
     </row>
     <row r="803">
       <c r="A803" s="3" t="n"/>
@@ -49875,6 +50702,7 @@
       <c r="F803" s="3" t="n"/>
       <c r="G803" s="3" t="n"/>
       <c r="H803" s="3" t="n"/>
+      <c r="I803" s="3" t="n"/>
     </row>
     <row r="804">
       <c r="A804" s="3" t="n"/>
@@ -49885,6 +50713,7 @@
       <c r="F804" s="3" t="n"/>
       <c r="G804" s="3" t="n"/>
       <c r="H804" s="3" t="n"/>
+      <c r="I804" s="3" t="n"/>
     </row>
     <row r="805">
       <c r="A805" s="3" t="n"/>
@@ -49895,6 +50724,7 @@
       <c r="F805" s="3" t="n"/>
       <c r="G805" s="3" t="n"/>
       <c r="H805" s="3" t="n"/>
+      <c r="I805" s="3" t="n"/>
     </row>
     <row r="806">
       <c r="A806" s="3" t="n"/>
@@ -49905,6 +50735,7 @@
       <c r="F806" s="3" t="n"/>
       <c r="G806" s="3" t="n"/>
       <c r="H806" s="3" t="n"/>
+      <c r="I806" s="3" t="n"/>
     </row>
     <row r="807">
       <c r="A807" s="3" t="n"/>
@@ -49915,6 +50746,7 @@
       <c r="F807" s="3" t="n"/>
       <c r="G807" s="3" t="n"/>
       <c r="H807" s="3" t="n"/>
+      <c r="I807" s="3" t="n"/>
     </row>
     <row r="808">
       <c r="A808" s="3" t="n"/>
@@ -49925,6 +50757,7 @@
       <c r="F808" s="3" t="n"/>
       <c r="G808" s="3" t="n"/>
       <c r="H808" s="3" t="n"/>
+      <c r="I808" s="3" t="n"/>
     </row>
     <row r="809">
       <c r="A809" s="3" t="n"/>
@@ -49935,6 +50768,7 @@
       <c r="F809" s="3" t="n"/>
       <c r="G809" s="3" t="n"/>
       <c r="H809" s="3" t="n"/>
+      <c r="I809" s="3" t="n"/>
     </row>
     <row r="810">
       <c r="A810" s="3" t="n"/>
@@ -49945,6 +50779,7 @@
       <c r="F810" s="3" t="n"/>
       <c r="G810" s="3" t="n"/>
       <c r="H810" s="3" t="n"/>
+      <c r="I810" s="3" t="n"/>
     </row>
     <row r="811">
       <c r="A811" s="3" t="n"/>
@@ -49955,6 +50790,7 @@
       <c r="F811" s="3" t="n"/>
       <c r="G811" s="3" t="n"/>
       <c r="H811" s="3" t="n"/>
+      <c r="I811" s="3" t="n"/>
     </row>
     <row r="812">
       <c r="A812" s="3" t="n"/>
@@ -49965,6 +50801,7 @@
       <c r="F812" s="3" t="n"/>
       <c r="G812" s="3" t="n"/>
       <c r="H812" s="3" t="n"/>
+      <c r="I812" s="3" t="n"/>
     </row>
     <row r="813">
       <c r="A813" s="3" t="n"/>
@@ -49975,6 +50812,7 @@
       <c r="F813" s="3" t="n"/>
       <c r="G813" s="3" t="n"/>
       <c r="H813" s="3" t="n"/>
+      <c r="I813" s="3" t="n"/>
     </row>
     <row r="814">
       <c r="A814" s="3" t="n"/>
@@ -49985,6 +50823,7 @@
       <c r="F814" s="3" t="n"/>
       <c r="G814" s="3" t="n"/>
       <c r="H814" s="3" t="n"/>
+      <c r="I814" s="3" t="n"/>
     </row>
     <row r="815">
       <c r="A815" s="3" t="n"/>
@@ -49995,6 +50834,7 @@
       <c r="F815" s="3" t="n"/>
       <c r="G815" s="3" t="n"/>
       <c r="H815" s="3" t="n"/>
+      <c r="I815" s="3" t="n"/>
     </row>
     <row r="816">
       <c r="A816" s="3" t="n"/>
@@ -50005,6 +50845,7 @@
       <c r="F816" s="3" t="n"/>
       <c r="G816" s="3" t="n"/>
       <c r="H816" s="3" t="n"/>
+      <c r="I816" s="3" t="n"/>
     </row>
     <row r="817">
       <c r="A817" s="3" t="n"/>
@@ -50015,6 +50856,7 @@
       <c r="F817" s="3" t="n"/>
       <c r="G817" s="3" t="n"/>
       <c r="H817" s="3" t="n"/>
+      <c r="I817" s="3" t="n"/>
     </row>
     <row r="818">
       <c r="A818" s="3" t="n"/>
@@ -50025,6 +50867,7 @@
       <c r="F818" s="3" t="n"/>
       <c r="G818" s="3" t="n"/>
       <c r="H818" s="3" t="n"/>
+      <c r="I818" s="3" t="n"/>
     </row>
     <row r="819">
       <c r="A819" s="3" t="n"/>
@@ -50035,6 +50878,7 @@
       <c r="F819" s="3" t="n"/>
       <c r="G819" s="3" t="n"/>
       <c r="H819" s="3" t="n"/>
+      <c r="I819" s="3" t="n"/>
     </row>
     <row r="820">
       <c r="A820" s="3" t="n"/>
@@ -50045,6 +50889,7 @@
       <c r="F820" s="3" t="n"/>
       <c r="G820" s="3" t="n"/>
       <c r="H820" s="3" t="n"/>
+      <c r="I820" s="3" t="n"/>
     </row>
     <row r="821">
       <c r="A821" s="3" t="n"/>
@@ -50055,6 +50900,7 @@
       <c r="F821" s="3" t="n"/>
       <c r="G821" s="3" t="n"/>
       <c r="H821" s="3" t="n"/>
+      <c r="I821" s="3" t="n"/>
     </row>
     <row r="822">
       <c r="A822" s="3" t="n"/>
@@ -50065,6 +50911,7 @@
       <c r="F822" s="3" t="n"/>
       <c r="G822" s="3" t="n"/>
       <c r="H822" s="3" t="n"/>
+      <c r="I822" s="3" t="n"/>
     </row>
     <row r="823">
       <c r="A823" s="3" t="n"/>
@@ -50075,6 +50922,7 @@
       <c r="F823" s="3" t="n"/>
       <c r="G823" s="3" t="n"/>
       <c r="H823" s="3" t="n"/>
+      <c r="I823" s="3" t="n"/>
     </row>
     <row r="824">
       <c r="A824" s="3" t="n"/>
@@ -50085,6 +50933,7 @@
       <c r="F824" s="3" t="n"/>
       <c r="G824" s="3" t="n"/>
       <c r="H824" s="3" t="n"/>
+      <c r="I824" s="3" t="n"/>
     </row>
     <row r="825">
       <c r="A825" s="3" t="n"/>
@@ -50095,6 +50944,7 @@
       <c r="F825" s="3" t="n"/>
       <c r="G825" s="3" t="n"/>
       <c r="H825" s="3" t="n"/>
+      <c r="I825" s="3" t="n"/>
     </row>
     <row r="826">
       <c r="A826" s="3" t="n"/>
@@ -50105,6 +50955,7 @@
       <c r="F826" s="3" t="n"/>
       <c r="G826" s="3" t="n"/>
       <c r="H826" s="3" t="n"/>
+      <c r="I826" s="3" t="n"/>
     </row>
     <row r="827">
       <c r="A827" s="3" t="n"/>
@@ -50115,6 +50966,7 @@
       <c r="F827" s="3" t="n"/>
       <c r="G827" s="3" t="n"/>
       <c r="H827" s="3" t="n"/>
+      <c r="I827" s="3" t="n"/>
     </row>
     <row r="828">
       <c r="A828" s="3" t="n"/>
@@ -50125,6 +50977,7 @@
       <c r="F828" s="3" t="n"/>
       <c r="G828" s="3" t="n"/>
       <c r="H828" s="3" t="n"/>
+      <c r="I828" s="3" t="n"/>
     </row>
     <row r="829">
       <c r="A829" s="3" t="n"/>
@@ -50135,6 +50988,7 @@
       <c r="F829" s="3" t="n"/>
       <c r="G829" s="3" t="n"/>
       <c r="H829" s="3" t="n"/>
+      <c r="I829" s="3" t="n"/>
     </row>
     <row r="830">
       <c r="A830" s="3" t="n"/>
@@ -50145,6 +50999,7 @@
       <c r="F830" s="3" t="n"/>
       <c r="G830" s="3" t="n"/>
       <c r="H830" s="3" t="n"/>
+      <c r="I830" s="3" t="n"/>
     </row>
     <row r="831">
       <c r="A831" s="3" t="n"/>
@@ -50155,6 +51010,7 @@
       <c r="F831" s="3" t="n"/>
       <c r="G831" s="3" t="n"/>
       <c r="H831" s="3" t="n"/>
+      <c r="I831" s="3" t="n"/>
     </row>
     <row r="832">
       <c r="A832" s="3" t="n"/>
@@ -50165,6 +51021,7 @@
       <c r="F832" s="3" t="n"/>
       <c r="G832" s="3" t="n"/>
       <c r="H832" s="3" t="n"/>
+      <c r="I832" s="3" t="n"/>
     </row>
     <row r="833">
       <c r="A833" s="3" t="n"/>
@@ -50175,6 +51032,7 @@
       <c r="F833" s="3" t="n"/>
       <c r="G833" s="3" t="n"/>
       <c r="H833" s="3" t="n"/>
+      <c r="I833" s="3" t="n"/>
     </row>
     <row r="834">
       <c r="A834" s="3" t="n"/>
@@ -50185,6 +51043,7 @@
       <c r="F834" s="3" t="n"/>
       <c r="G834" s="3" t="n"/>
       <c r="H834" s="3" t="n"/>
+      <c r="I834" s="3" t="n"/>
     </row>
     <row r="835">
       <c r="A835" s="3" t="n"/>
@@ -50195,6 +51054,7 @@
       <c r="F835" s="3" t="n"/>
       <c r="G835" s="3" t="n"/>
       <c r="H835" s="3" t="n"/>
+      <c r="I835" s="3" t="n"/>
     </row>
     <row r="836">
       <c r="A836" s="3" t="n"/>
@@ -50205,6 +51065,7 @@
       <c r="F836" s="3" t="n"/>
       <c r="G836" s="3" t="n"/>
       <c r="H836" s="3" t="n"/>
+      <c r="I836" s="3" t="n"/>
     </row>
     <row r="837">
       <c r="A837" s="3" t="n"/>
@@ -50215,6 +51076,7 @@
       <c r="F837" s="3" t="n"/>
       <c r="G837" s="3" t="n"/>
       <c r="H837" s="3" t="n"/>
+      <c r="I837" s="3" t="n"/>
     </row>
     <row r="838">
       <c r="A838" s="3" t="n"/>
@@ -50225,6 +51087,7 @@
       <c r="F838" s="3" t="n"/>
       <c r="G838" s="3" t="n"/>
       <c r="H838" s="3" t="n"/>
+      <c r="I838" s="3" t="n"/>
     </row>
     <row r="839">
       <c r="A839" s="3" t="n"/>
@@ -50235,6 +51098,7 @@
       <c r="F839" s="3" t="n"/>
       <c r="G839" s="3" t="n"/>
       <c r="H839" s="3" t="n"/>
+      <c r="I839" s="3" t="n"/>
     </row>
     <row r="840">
       <c r="A840" s="3" t="n"/>
@@ -50245,6 +51109,7 @@
       <c r="F840" s="3" t="n"/>
       <c r="G840" s="3" t="n"/>
       <c r="H840" s="3" t="n"/>
+      <c r="I840" s="3" t="n"/>
     </row>
     <row r="841">
       <c r="A841" s="3" t="n"/>
@@ -50255,6 +51120,7 @@
       <c r="F841" s="3" t="n"/>
       <c r="G841" s="3" t="n"/>
       <c r="H841" s="3" t="n"/>
+      <c r="I841" s="3" t="n"/>
     </row>
     <row r="842">
       <c r="A842" s="3" t="n"/>
@@ -50265,6 +51131,7 @@
       <c r="F842" s="3" t="n"/>
       <c r="G842" s="3" t="n"/>
       <c r="H842" s="3" t="n"/>
+      <c r="I842" s="3" t="n"/>
     </row>
     <row r="843">
       <c r="A843" s="3" t="n"/>
@@ -50275,6 +51142,7 @@
       <c r="F843" s="3" t="n"/>
       <c r="G843" s="3" t="n"/>
       <c r="H843" s="3" t="n"/>
+      <c r="I843" s="3" t="n"/>
     </row>
     <row r="844">
       <c r="A844" s="3" t="n"/>
@@ -50285,6 +51153,7 @@
       <c r="F844" s="3" t="n"/>
       <c r="G844" s="3" t="n"/>
       <c r="H844" s="3" t="n"/>
+      <c r="I844" s="3" t="n"/>
     </row>
     <row r="845">
       <c r="A845" s="3" t="n"/>
@@ -50295,6 +51164,7 @@
       <c r="F845" s="3" t="n"/>
       <c r="G845" s="3" t="n"/>
       <c r="H845" s="3" t="n"/>
+      <c r="I845" s="3" t="n"/>
     </row>
     <row r="846">
       <c r="A846" s="3" t="n"/>
@@ -50305,6 +51175,7 @@
       <c r="F846" s="3" t="n"/>
       <c r="G846" s="3" t="n"/>
       <c r="H846" s="3" t="n"/>
+      <c r="I846" s="3" t="n"/>
     </row>
     <row r="847">
       <c r="A847" s="3" t="n"/>
@@ -50315,6 +51186,7 @@
       <c r="F847" s="3" t="n"/>
       <c r="G847" s="3" t="n"/>
       <c r="H847" s="3" t="n"/>
+      <c r="I847" s="3" t="n"/>
     </row>
     <row r="848">
       <c r="A848" s="3" t="n"/>
@@ -50325,6 +51197,7 @@
       <c r="F848" s="3" t="n"/>
       <c r="G848" s="3" t="n"/>
       <c r="H848" s="3" t="n"/>
+      <c r="I848" s="3" t="n"/>
     </row>
     <row r="849">
       <c r="A849" s="3" t="n"/>
@@ -50335,6 +51208,7 @@
       <c r="F849" s="3" t="n"/>
       <c r="G849" s="3" t="n"/>
       <c r="H849" s="3" t="n"/>
+      <c r="I849" s="3" t="n"/>
     </row>
     <row r="850">
       <c r="A850" s="3" t="n"/>
@@ -50345,6 +51219,7 @@
       <c r="F850" s="3" t="n"/>
       <c r="G850" s="3" t="n"/>
       <c r="H850" s="3" t="n"/>
+      <c r="I850" s="3" t="n"/>
     </row>
     <row r="851">
       <c r="A851" s="3" t="n"/>
@@ -50355,6 +51230,7 @@
       <c r="F851" s="3" t="n"/>
       <c r="G851" s="3" t="n"/>
       <c r="H851" s="3" t="n"/>
+      <c r="I851" s="3" t="n"/>
     </row>
     <row r="852">
       <c r="A852" s="3" t="n"/>
@@ -50365,6 +51241,7 @@
       <c r="F852" s="3" t="n"/>
       <c r="G852" s="3" t="n"/>
       <c r="H852" s="3" t="n"/>
+      <c r="I852" s="3" t="n"/>
     </row>
     <row r="853">
       <c r="A853" s="3" t="n"/>
@@ -50375,6 +51252,7 @@
       <c r="F853" s="3" t="n"/>
       <c r="G853" s="3" t="n"/>
       <c r="H853" s="3" t="n"/>
+      <c r="I853" s="3" t="n"/>
     </row>
     <row r="854">
       <c r="A854" s="3" t="n"/>
@@ -50385,6 +51263,7 @@
       <c r="F854" s="3" t="n"/>
       <c r="G854" s="3" t="n"/>
       <c r="H854" s="3" t="n"/>
+      <c r="I854" s="3" t="n"/>
     </row>
     <row r="855">
       <c r="A855" s="3" t="n"/>
@@ -50395,6 +51274,7 @@
       <c r="F855" s="3" t="n"/>
       <c r="G855" s="3" t="n"/>
       <c r="H855" s="3" t="n"/>
+      <c r="I855" s="3" t="n"/>
     </row>
     <row r="856">
       <c r="A856" s="3" t="n"/>
@@ -50405,6 +51285,7 @@
       <c r="F856" s="3" t="n"/>
       <c r="G856" s="3" t="n"/>
       <c r="H856" s="3" t="n"/>
+      <c r="I856" s="3" t="n"/>
     </row>
     <row r="857">
       <c r="A857" s="3" t="n"/>
@@ -50415,6 +51296,7 @@
       <c r="F857" s="3" t="n"/>
       <c r="G857" s="3" t="n"/>
       <c r="H857" s="3" t="n"/>
+      <c r="I857" s="3" t="n"/>
     </row>
     <row r="858">
       <c r="A858" s="3" t="n"/>
@@ -50425,6 +51307,7 @@
       <c r="F858" s="3" t="n"/>
       <c r="G858" s="3" t="n"/>
       <c r="H858" s="3" t="n"/>
+      <c r="I858" s="3" t="n"/>
     </row>
     <row r="859">
       <c r="A859" s="3" t="n"/>
@@ -50435,6 +51318,7 @@
       <c r="F859" s="3" t="n"/>
       <c r="G859" s="3" t="n"/>
       <c r="H859" s="3" t="n"/>
+      <c r="I859" s="3" t="n"/>
     </row>
     <row r="860">
       <c r="A860" s="3" t="n"/>
@@ -50445,6 +51329,7 @@
       <c r="F860" s="3" t="n"/>
       <c r="G860" s="3" t="n"/>
       <c r="H860" s="3" t="n"/>
+      <c r="I860" s="3" t="n"/>
     </row>
     <row r="861">
       <c r="A861" s="3" t="n"/>
@@ -50455,6 +51340,7 @@
       <c r="F861" s="3" t="n"/>
       <c r="G861" s="3" t="n"/>
       <c r="H861" s="3" t="n"/>
+      <c r="I861" s="3" t="n"/>
     </row>
     <row r="862">
       <c r="A862" s="3" t="n"/>
@@ -50465,6 +51351,7 @@
       <c r="F862" s="3" t="n"/>
       <c r="G862" s="3" t="n"/>
       <c r="H862" s="3" t="n"/>
+      <c r="I862" s="3" t="n"/>
     </row>
     <row r="863">
       <c r="A863" s="3" t="n"/>
@@ -50475,6 +51362,7 @@
       <c r="F863" s="3" t="n"/>
       <c r="G863" s="3" t="n"/>
       <c r="H863" s="3" t="n"/>
+      <c r="I863" s="3" t="n"/>
     </row>
     <row r="864">
       <c r="A864" s="3" t="n"/>
@@ -50485,6 +51373,7 @@
       <c r="F864" s="3" t="n"/>
       <c r="G864" s="3" t="n"/>
       <c r="H864" s="3" t="n"/>
+      <c r="I864" s="3" t="n"/>
     </row>
     <row r="865">
       <c r="A865" s="3" t="n"/>
@@ -50495,6 +51384,7 @@
       <c r="F865" s="3" t="n"/>
       <c r="G865" s="3" t="n"/>
       <c r="H865" s="3" t="n"/>
+      <c r="I865" s="3" t="n"/>
     </row>
     <row r="866">
       <c r="A866" s="3" t="n"/>
@@ -50505,6 +51395,7 @@
       <c r="F866" s="3" t="n"/>
       <c r="G866" s="3" t="n"/>
       <c r="H866" s="3" t="n"/>
+      <c r="I866" s="3" t="n"/>
     </row>
     <row r="867">
       <c r="A867" s="3" t="n"/>
@@ -50515,6 +51406,7 @@
       <c r="F867" s="3" t="n"/>
       <c r="G867" s="3" t="n"/>
       <c r="H867" s="3" t="n"/>
+      <c r="I867" s="3" t="n"/>
     </row>
     <row r="868">
       <c r="A868" s="3" t="n"/>
@@ -50525,6 +51417,7 @@
       <c r="F868" s="3" t="n"/>
       <c r="G868" s="3" t="n"/>
       <c r="H868" s="3" t="n"/>
+      <c r="I868" s="3" t="n"/>
     </row>
     <row r="869">
       <c r="A869" s="3" t="n"/>
@@ -50535,6 +51428,7 @@
       <c r="F869" s="3" t="n"/>
       <c r="G869" s="3" t="n"/>
       <c r="H869" s="3" t="n"/>
+      <c r="I869" s="3" t="n"/>
     </row>
     <row r="870">
       <c r="A870" s="3" t="n"/>
@@ -50545,6 +51439,7 @@
       <c r="F870" s="3" t="n"/>
       <c r="G870" s="3" t="n"/>
       <c r="H870" s="3" t="n"/>
+      <c r="I870" s="3" t="n"/>
     </row>
     <row r="871">
       <c r="A871" s="3" t="n"/>
@@ -50555,6 +51450,7 @@
       <c r="F871" s="3" t="n"/>
       <c r="G871" s="3" t="n"/>
       <c r="H871" s="3" t="n"/>
+      <c r="I871" s="3" t="n"/>
     </row>
     <row r="872">
       <c r="A872" s="3" t="n"/>
@@ -50565,6 +51461,7 @@
       <c r="F872" s="3" t="n"/>
       <c r="G872" s="3" t="n"/>
       <c r="H872" s="3" t="n"/>
+      <c r="I872" s="3" t="n"/>
     </row>
     <row r="873">
       <c r="A873" s="3" t="n"/>
@@ -50575,6 +51472,7 @@
       <c r="F873" s="3" t="n"/>
       <c r="G873" s="3" t="n"/>
       <c r="H873" s="3" t="n"/>
+      <c r="I873" s="3" t="n"/>
     </row>
     <row r="874">
       <c r="A874" s="3" t="n"/>
@@ -50585,6 +51483,7 @@
       <c r="F874" s="3" t="n"/>
       <c r="G874" s="3" t="n"/>
       <c r="H874" s="3" t="n"/>
+      <c r="I874" s="3" t="n"/>
     </row>
     <row r="875">
       <c r="A875" s="3" t="n"/>
@@ -50595,6 +51494,7 @@
       <c r="F875" s="3" t="n"/>
       <c r="G875" s="3" t="n"/>
       <c r="H875" s="3" t="n"/>
+      <c r="I875" s="3" t="n"/>
     </row>
     <row r="876">
       <c r="A876" s="3" t="n"/>
@@ -50605,6 +51505,7 @@
       <c r="F876" s="3" t="n"/>
       <c r="G876" s="3" t="n"/>
       <c r="H876" s="3" t="n"/>
+      <c r="I876" s="3" t="n"/>
     </row>
     <row r="877">
       <c r="A877" s="3" t="n"/>
@@ -50615,6 +51516,7 @@
       <c r="F877" s="3" t="n"/>
       <c r="G877" s="3" t="n"/>
       <c r="H877" s="3" t="n"/>
+      <c r="I877" s="3" t="n"/>
     </row>
     <row r="878">
       <c r="A878" s="3" t="n"/>
@@ -50625,6 +51527,7 @@
       <c r="F878" s="3" t="n"/>
       <c r="G878" s="3" t="n"/>
       <c r="H878" s="3" t="n"/>
+      <c r="I878" s="3" t="n"/>
     </row>
     <row r="879">
       <c r="A879" s="3" t="n"/>
@@ -50635,6 +51538,7 @@
       <c r="F879" s="3" t="n"/>
       <c r="G879" s="3" t="n"/>
       <c r="H879" s="3" t="n"/>
+      <c r="I879" s="3" t="n"/>
     </row>
     <row r="880">
       <c r="A880" s="3" t="n"/>
@@ -50645,6 +51549,7 @@
       <c r="F880" s="3" t="n"/>
       <c r="G880" s="3" t="n"/>
       <c r="H880" s="3" t="n"/>
+      <c r="I880" s="3" t="n"/>
     </row>
     <row r="881">
       <c r="A881" s="3" t="n"/>
@@ -50655,6 +51560,7 @@
       <c r="F881" s="3" t="n"/>
       <c r="G881" s="3" t="n"/>
       <c r="H881" s="3" t="n"/>
+      <c r="I881" s="3" t="n"/>
     </row>
     <row r="882">
       <c r="A882" s="3" t="n"/>
@@ -50665,6 +51571,7 @@
       <c r="F882" s="3" t="n"/>
       <c r="G882" s="3" t="n"/>
       <c r="H882" s="3" t="n"/>
+      <c r="I882" s="3" t="n"/>
     </row>
     <row r="883">
       <c r="A883" s="3" t="n"/>
@@ -50675,6 +51582,7 @@
       <c r="F883" s="3" t="n"/>
       <c r="G883" s="3" t="n"/>
       <c r="H883" s="3" t="n"/>
+      <c r="I883" s="3" t="n"/>
     </row>
     <row r="884">
       <c r="A884" s="3" t="n"/>
@@ -50685,6 +51593,7 @@
       <c r="F884" s="3" t="n"/>
       <c r="G884" s="3" t="n"/>
       <c r="H884" s="3" t="n"/>
+      <c r="I884" s="3" t="n"/>
     </row>
     <row r="885">
       <c r="A885" s="3" t="n"/>
@@ -50695,6 +51604,7 @@
       <c r="F885" s="3" t="n"/>
       <c r="G885" s="3" t="n"/>
       <c r="H885" s="3" t="n"/>
+      <c r="I885" s="3" t="n"/>
     </row>
     <row r="886">
       <c r="A886" s="3" t="n"/>
@@ -50705,6 +51615,7 @@
       <c r="F886" s="3" t="n"/>
       <c r="G886" s="3" t="n"/>
       <c r="H886" s="3" t="n"/>
+      <c r="I886" s="3" t="n"/>
     </row>
     <row r="887">
       <c r="A887" s="3" t="n"/>
@@ -50715,6 +51626,7 @@
       <c r="F887" s="3" t="n"/>
       <c r="G887" s="3" t="n"/>
       <c r="H887" s="3" t="n"/>
+      <c r="I887" s="3" t="n"/>
     </row>
     <row r="888">
       <c r="A888" s="3" t="n"/>
@@ -50725,6 +51637,7 @@
       <c r="F888" s="3" t="n"/>
       <c r="G888" s="3" t="n"/>
       <c r="H888" s="3" t="n"/>
+      <c r="I888" s="3" t="n"/>
     </row>
     <row r="889">
       <c r="A889" s="3" t="n"/>
@@ -50735,6 +51648,7 @@
       <c r="F889" s="3" t="n"/>
       <c r="G889" s="3" t="n"/>
       <c r="H889" s="3" t="n"/>
+      <c r="I889" s="3" t="n"/>
     </row>
     <row r="890">
       <c r="A890" s="3" t="n"/>
@@ -50745,6 +51659,7 @@
       <c r="F890" s="3" t="n"/>
       <c r="G890" s="3" t="n"/>
       <c r="H890" s="3" t="n"/>
+      <c r="I890" s="3" t="n"/>
     </row>
     <row r="891">
       <c r="A891" s="3" t="n"/>
@@ -50755,6 +51670,7 @@
       <c r="F891" s="3" t="n"/>
       <c r="G891" s="3" t="n"/>
       <c r="H891" s="3" t="n"/>
+      <c r="I891" s="3" t="n"/>
     </row>
     <row r="892">
       <c r="A892" s="3" t="n"/>
@@ -50765,6 +51681,7 @@
       <c r="F892" s="3" t="n"/>
       <c r="G892" s="3" t="n"/>
       <c r="H892" s="3" t="n"/>
+      <c r="I892" s="3" t="n"/>
     </row>
     <row r="893">
       <c r="A893" s="3" t="n"/>
@@ -50775,6 +51692,7 @@
       <c r="F893" s="3" t="n"/>
       <c r="G893" s="3" t="n"/>
       <c r="H893" s="3" t="n"/>
+      <c r="I893" s="3" t="n"/>
     </row>
     <row r="894">
       <c r="A894" s="3" t="n"/>
@@ -50785,6 +51703,7 @@
       <c r="F894" s="3" t="n"/>
       <c r="G894" s="3" t="n"/>
       <c r="H894" s="3" t="n"/>
+      <c r="I894" s="3" t="n"/>
     </row>
     <row r="895">
       <c r="A895" s="3" t="n"/>
@@ -50795,6 +51714,7 @@
       <c r="F895" s="3" t="n"/>
       <c r="G895" s="3" t="n"/>
       <c r="H895" s="3" t="n"/>
+      <c r="I895" s="3" t="n"/>
     </row>
     <row r="896">
       <c r="A896" s="3" t="n"/>
@@ -50805,6 +51725,7 @@
       <c r="F896" s="3" t="n"/>
       <c r="G896" s="3" t="n"/>
       <c r="H896" s="3" t="n"/>
+      <c r="I896" s="3" t="n"/>
     </row>
     <row r="897">
       <c r="A897" s="3" t="n"/>
@@ -50815,6 +51736,7 @@
       <c r="F897" s="3" t="n"/>
       <c r="G897" s="3" t="n"/>
       <c r="H897" s="3" t="n"/>
+      <c r="I897" s="3" t="n"/>
     </row>
     <row r="898">
       <c r="A898" s="3" t="n"/>
@@ -50825,6 +51747,7 @@
       <c r="F898" s="3" t="n"/>
       <c r="G898" s="3" t="n"/>
       <c r="H898" s="3" t="n"/>
+      <c r="I898" s="3" t="n"/>
     </row>
     <row r="899">
       <c r="A899" s="3" t="n"/>
@@ -50835,6 +51758,7 @@
       <c r="F899" s="3" t="n"/>
       <c r="G899" s="3" t="n"/>
       <c r="H899" s="3" t="n"/>
+      <c r="I899" s="3" t="n"/>
     </row>
     <row r="900">
       <c r="A900" s="3" t="n"/>
@@ -50845,6 +51769,7 @@
       <c r="F900" s="3" t="n"/>
       <c r="G900" s="3" t="n"/>
       <c r="H900" s="3" t="n"/>
+      <c r="I900" s="3" t="n"/>
     </row>
     <row r="901">
       <c r="A901" s="3" t="n"/>
@@ -50855,6 +51780,7 @@
       <c r="F901" s="3" t="n"/>
       <c r="G901" s="3" t="n"/>
       <c r="H901" s="3" t="n"/>
+      <c r="I901" s="3" t="n"/>
     </row>
     <row r="902">
       <c r="A902" s="3" t="n"/>
@@ -50865,6 +51791,7 @@
       <c r="F902" s="3" t="n"/>
       <c r="G902" s="3" t="n"/>
       <c r="H902" s="3" t="n"/>
+      <c r="I902" s="3" t="n"/>
     </row>
     <row r="903">
       <c r="A903" s="3" t="n"/>
@@ -50875,6 +51802,7 @@
       <c r="F903" s="3" t="n"/>
       <c r="G903" s="3" t="n"/>
       <c r="H903" s="3" t="n"/>
+      <c r="I903" s="3" t="n"/>
     </row>
     <row r="904">
       <c r="A904" s="3" t="n"/>
@@ -50885,6 +51813,7 @@
       <c r="F904" s="3" t="n"/>
       <c r="G904" s="3" t="n"/>
       <c r="H904" s="3" t="n"/>
+      <c r="I904" s="3" t="n"/>
     </row>
     <row r="905">
       <c r="A905" s="3" t="n"/>
@@ -50895,6 +51824,7 @@
       <c r="F905" s="3" t="n"/>
       <c r="G905" s="3" t="n"/>
       <c r="H905" s="3" t="n"/>
+      <c r="I905" s="3" t="n"/>
     </row>
     <row r="906">
       <c r="A906" s="3" t="n"/>
@@ -50905,6 +51835,7 @@
       <c r="F906" s="3" t="n"/>
       <c r="G906" s="3" t="n"/>
       <c r="H906" s="3" t="n"/>
+      <c r="I906" s="3" t="n"/>
     </row>
     <row r="907">
       <c r="A907" s="3" t="n"/>
@@ -50915,6 +51846,7 @@
       <c r="F907" s="3" t="n"/>
       <c r="G907" s="3" t="n"/>
       <c r="H907" s="3" t="n"/>
+      <c r="I907" s="3" t="n"/>
     </row>
     <row r="908">
       <c r="A908" s="3" t="n"/>
@@ -50925,6 +51857,7 @@
       <c r="F908" s="3" t="n"/>
       <c r="G908" s="3" t="n"/>
       <c r="H908" s="3" t="n"/>
+      <c r="I908" s="3" t="n"/>
     </row>
     <row r="909">
       <c r="A909" s="3" t="n"/>
@@ -50935,6 +51868,7 @@
       <c r="F909" s="3" t="n"/>
       <c r="G909" s="3" t="n"/>
       <c r="H909" s="3" t="n"/>
+      <c r="I909" s="3" t="n"/>
     </row>
     <row r="910">
       <c r="A910" s="3" t="n"/>
@@ -50945,6 +51879,7 @@
       <c r="F910" s="3" t="n"/>
       <c r="G910" s="3" t="n"/>
       <c r="H910" s="3" t="n"/>
+      <c r="I910" s="3" t="n"/>
     </row>
     <row r="911">
       <c r="A911" s="3" t="n"/>
@@ -50955,6 +51890,7 @@
       <c r="F911" s="3" t="n"/>
       <c r="G911" s="3" t="n"/>
       <c r="H911" s="3" t="n"/>
+      <c r="I911" s="3" t="n"/>
     </row>
     <row r="912">
       <c r="A912" s="3" t="n"/>
@@ -50965,6 +51901,7 @@
       <c r="F912" s="3" t="n"/>
       <c r="G912" s="3" t="n"/>
       <c r="H912" s="3" t="n"/>
+      <c r="I912" s="3" t="n"/>
     </row>
     <row r="913">
       <c r="A913" s="3" t="n"/>
@@ -50975,6 +51912,7 @@
       <c r="F913" s="3" t="n"/>
       <c r="G913" s="3" t="n"/>
       <c r="H913" s="3" t="n"/>
+      <c r="I913" s="3" t="n"/>
     </row>
     <row r="914">
       <c r="A914" s="3" t="n"/>
@@ -50985,6 +51923,7 @@
       <c r="F914" s="3" t="n"/>
       <c r="G914" s="3" t="n"/>
       <c r="H914" s="3" t="n"/>
+      <c r="I914" s="3" t="n"/>
     </row>
     <row r="915">
       <c r="A915" s="3" t="n"/>
@@ -50995,6 +51934,7 @@
       <c r="F915" s="3" t="n"/>
       <c r="G915" s="3" t="n"/>
       <c r="H915" s="3" t="n"/>
+      <c r="I915" s="3" t="n"/>
     </row>
     <row r="916">
       <c r="A916" s="3" t="n"/>
@@ -51005,6 +51945,7 @@
       <c r="F916" s="3" t="n"/>
       <c r="G916" s="3" t="n"/>
       <c r="H916" s="3" t="n"/>
+      <c r="I916" s="3" t="n"/>
     </row>
     <row r="917">
       <c r="A917" s="3" t="n"/>
@@ -51015,6 +51956,7 @@
       <c r="F917" s="3" t="n"/>
       <c r="G917" s="3" t="n"/>
       <c r="H917" s="3" t="n"/>
+      <c r="I917" s="3" t="n"/>
     </row>
     <row r="918">
       <c r="A918" s="3" t="n"/>
@@ -51025,6 +51967,7 @@
       <c r="F918" s="3" t="n"/>
       <c r="G918" s="3" t="n"/>
       <c r="H918" s="3" t="n"/>
+      <c r="I918" s="3" t="n"/>
     </row>
     <row r="919">
       <c r="A919" s="3" t="n"/>
@@ -51035,6 +51978,7 @@
       <c r="F919" s="3" t="n"/>
       <c r="G919" s="3" t="n"/>
       <c r="H919" s="3" t="n"/>
+      <c r="I919" s="3" t="n"/>
     </row>
     <row r="920">
       <c r="A920" s="3" t="n"/>
@@ -51045,6 +51989,7 @@
       <c r="F920" s="3" t="n"/>
       <c r="G920" s="3" t="n"/>
       <c r="H920" s="3" t="n"/>
+      <c r="I920" s="3" t="n"/>
     </row>
     <row r="921">
       <c r="A921" s="3" t="n"/>
@@ -51055,6 +52000,7 @@
       <c r="F921" s="3" t="n"/>
       <c r="G921" s="3" t="n"/>
       <c r="H921" s="3" t="n"/>
+      <c r="I921" s="3" t="n"/>
     </row>
     <row r="922">
       <c r="A922" s="3" t="n"/>
@@ -51065,6 +52011,7 @@
       <c r="F922" s="3" t="n"/>
       <c r="G922" s="3" t="n"/>
       <c r="H922" s="3" t="n"/>
+      <c r="I922" s="3" t="n"/>
     </row>
     <row r="923">
       <c r="A923" s="3" t="n"/>
@@ -51075,6 +52022,7 @@
       <c r="F923" s="3" t="n"/>
       <c r="G923" s="3" t="n"/>
       <c r="H923" s="3" t="n"/>
+      <c r="I923" s="3" t="n"/>
     </row>
     <row r="924">
       <c r="A924" s="3" t="n"/>
@@ -51085,6 +52033,7 @@
       <c r="F924" s="3" t="n"/>
       <c r="G924" s="3" t="n"/>
       <c r="H924" s="3" t="n"/>
+      <c r="I924" s="3" t="n"/>
     </row>
     <row r="925">
       <c r="A925" s="3" t="n"/>
@@ -51095,6 +52044,7 @@
       <c r="F925" s="3" t="n"/>
       <c r="G925" s="3" t="n"/>
       <c r="H925" s="3" t="n"/>
+      <c r="I925" s="3" t="n"/>
     </row>
     <row r="926">
       <c r="A926" s="3" t="n"/>
@@ -51105,6 +52055,7 @@
       <c r="F926" s="3" t="n"/>
       <c r="G926" s="3" t="n"/>
       <c r="H926" s="3" t="n"/>
+      <c r="I926" s="3" t="n"/>
     </row>
     <row r="927">
       <c r="A927" s="3" t="n"/>
@@ -51115,6 +52066,7 @@
       <c r="F927" s="3" t="n"/>
       <c r="G927" s="3" t="n"/>
       <c r="H927" s="3" t="n"/>
+      <c r="I927" s="3" t="n"/>
     </row>
     <row r="928">
       <c r="A928" s="3" t="n"/>
@@ -51125,6 +52077,7 @@
       <c r="F928" s="3" t="n"/>
       <c r="G928" s="3" t="n"/>
       <c r="H928" s="3" t="n"/>
+      <c r="I928" s="3" t="n"/>
     </row>
     <row r="929">
       <c r="A929" s="3" t="n"/>
@@ -51135,6 +52088,7 @@
       <c r="F929" s="3" t="n"/>
       <c r="G929" s="3" t="n"/>
       <c r="H929" s="3" t="n"/>
+      <c r="I929" s="3" t="n"/>
     </row>
     <row r="930">
       <c r="A930" s="3" t="n"/>
@@ -51145,6 +52099,7 @@
       <c r="F930" s="3" t="n"/>
       <c r="G930" s="3" t="n"/>
       <c r="H930" s="3" t="n"/>
+      <c r="I930" s="3" t="n"/>
     </row>
     <row r="931">
       <c r="A931" s="3" t="n"/>
@@ -51155,6 +52110,7 @@
       <c r="F931" s="3" t="n"/>
       <c r="G931" s="3" t="n"/>
       <c r="H931" s="3" t="n"/>
+      <c r="I931" s="3" t="n"/>
     </row>
     <row r="932">
       <c r="A932" s="3" t="n"/>
@@ -51165,6 +52121,7 @@
       <c r="F932" s="3" t="n"/>
       <c r="G932" s="3" t="n"/>
       <c r="H932" s="3" t="n"/>
+      <c r="I932" s="3" t="n"/>
     </row>
     <row r="933">
       <c r="A933" s="3" t="n"/>
@@ -51175,6 +52132,7 @@
       <c r="F933" s="3" t="n"/>
       <c r="G933" s="3" t="n"/>
       <c r="H933" s="3" t="n"/>
+      <c r="I933" s="3" t="n"/>
     </row>
     <row r="934">
       <c r="A934" s="3" t="n"/>
@@ -51185,6 +52143,7 @@
       <c r="F934" s="3" t="n"/>
       <c r="G934" s="3" t="n"/>
       <c r="H934" s="3" t="n"/>
+      <c r="I934" s="3" t="n"/>
     </row>
     <row r="935">
       <c r="A935" s="3" t="n"/>
@@ -51195,6 +52154,7 @@
       <c r="F935" s="3" t="n"/>
       <c r="G935" s="3" t="n"/>
       <c r="H935" s="3" t="n"/>
+      <c r="I935" s="3" t="n"/>
     </row>
     <row r="936">
       <c r="A936" s="3" t="n"/>
@@ -51205,6 +52165,7 @@
       <c r="F936" s="3" t="n"/>
       <c r="G936" s="3" t="n"/>
       <c r="H936" s="3" t="n"/>
+      <c r="I936" s="3" t="n"/>
     </row>
     <row r="937">
       <c r="A937" s="3" t="n"/>
@@ -51215,6 +52176,7 @@
       <c r="F937" s="3" t="n"/>
       <c r="G937" s="3" t="n"/>
       <c r="H937" s="3" t="n"/>
+      <c r="I937" s="3" t="n"/>
     </row>
     <row r="938">
       <c r="A938" s="3" t="n"/>
@@ -51225,6 +52187,7 @@
       <c r="F938" s="3" t="n"/>
       <c r="G938" s="3" t="n"/>
       <c r="H938" s="3" t="n"/>
+      <c r="I938" s="3" t="n"/>
     </row>
     <row r="939">
       <c r="A939" s="3" t="n"/>
@@ -51235,6 +52198,7 @@
       <c r="F939" s="3" t="n"/>
       <c r="G939" s="3" t="n"/>
       <c r="H939" s="3" t="n"/>
+      <c r="I939" s="3" t="n"/>
     </row>
     <row r="940">
       <c r="A940" s="3" t="n"/>
@@ -51245,6 +52209,7 @@
       <c r="F940" s="3" t="n"/>
       <c r="G940" s="3" t="n"/>
       <c r="H940" s="3" t="n"/>
+      <c r="I940" s="3" t="n"/>
     </row>
     <row r="941">
       <c r="A941" s="3" t="n"/>
@@ -51255,6 +52220,7 @@
       <c r="F941" s="3" t="n"/>
       <c r="G941" s="3" t="n"/>
       <c r="H941" s="3" t="n"/>
+      <c r="I941" s="3" t="n"/>
     </row>
     <row r="942">
       <c r="A942" s="3" t="n"/>
@@ -51265,6 +52231,7 @@
       <c r="F942" s="3" t="n"/>
       <c r="G942" s="3" t="n"/>
       <c r="H942" s="3" t="n"/>
+      <c r="I942" s="3" t="n"/>
     </row>
     <row r="943">
       <c r="A943" s="3" t="n"/>
@@ -51275,6 +52242,7 @@
       <c r="F943" s="3" t="n"/>
       <c r="G943" s="3" t="n"/>
       <c r="H943" s="3" t="n"/>
+      <c r="I943" s="3" t="n"/>
     </row>
     <row r="944">
       <c r="A944" s="3" t="n"/>
@@ -51285,6 +52253,7 @@
       <c r="F944" s="3" t="n"/>
       <c r="G944" s="3" t="n"/>
       <c r="H944" s="3" t="n"/>
+      <c r="I944" s="3" t="n"/>
     </row>
     <row r="945">
       <c r="A945" s="3" t="n"/>
@@ -51295,6 +52264,7 @@
       <c r="F945" s="3" t="n"/>
       <c r="G945" s="3" t="n"/>
       <c r="H945" s="3" t="n"/>
+      <c r="I945" s="3" t="n"/>
     </row>
     <row r="946">
       <c r="A946" s="3" t="n"/>
@@ -51305,6 +52275,7 @@
       <c r="F946" s="3" t="n"/>
       <c r="G946" s="3" t="n"/>
       <c r="H946" s="3" t="n"/>
+      <c r="I946" s="3" t="n"/>
     </row>
     <row r="947">
       <c r="A947" s="3" t="n"/>
@@ -51315,6 +52286,7 @@
       <c r="F947" s="3" t="n"/>
       <c r="G947" s="3" t="n"/>
       <c r="H947" s="3" t="n"/>
+      <c r="I947" s="3" t="n"/>
     </row>
     <row r="948">
       <c r="A948" s="3" t="n"/>
@@ -51325,6 +52297,7 @@
       <c r="F948" s="3" t="n"/>
       <c r="G948" s="3" t="n"/>
       <c r="H948" s="3" t="n"/>
+      <c r="I948" s="3" t="n"/>
     </row>
     <row r="949">
       <c r="A949" s="3" t="n"/>
@@ -51335,6 +52308,7 @@
       <c r="F949" s="3" t="n"/>
       <c r="G949" s="3" t="n"/>
       <c r="H949" s="3" t="n"/>
+      <c r="I949" s="3" t="n"/>
     </row>
     <row r="950">
       <c r="A950" s="3" t="n"/>
@@ -51345,6 +52319,7 @@
       <c r="F950" s="3" t="n"/>
       <c r="G950" s="3" t="n"/>
       <c r="H950" s="3" t="n"/>
+      <c r="I950" s="3" t="n"/>
     </row>
     <row r="951">
       <c r="A951" s="3" t="n"/>
@@ -51355,6 +52330,7 @@
       <c r="F951" s="3" t="n"/>
       <c r="G951" s="3" t="n"/>
       <c r="H951" s="3" t="n"/>
+      <c r="I951" s="3" t="n"/>
     </row>
     <row r="952">
       <c r="A952" s="3" t="n"/>
@@ -51365,6 +52341,7 @@
       <c r="F952" s="3" t="n"/>
       <c r="G952" s="3" t="n"/>
       <c r="H952" s="3" t="n"/>
+      <c r="I952" s="3" t="n"/>
     </row>
     <row r="953">
       <c r="A953" s="3" t="n"/>
@@ -51375,6 +52352,7 @@
       <c r="F953" s="3" t="n"/>
       <c r="G953" s="3" t="n"/>
       <c r="H953" s="3" t="n"/>
+      <c r="I953" s="3" t="n"/>
     </row>
     <row r="954">
       <c r="A954" s="3" t="n"/>
@@ -51385,6 +52363,7 @@
       <c r="F954" s="3" t="n"/>
       <c r="G954" s="3" t="n"/>
       <c r="H954" s="3" t="n"/>
+      <c r="I954" s="3" t="n"/>
     </row>
     <row r="955">
       <c r="A955" s="3" t="n"/>
@@ -51395,6 +52374,7 @@
       <c r="F955" s="3" t="n"/>
       <c r="G955" s="3" t="n"/>
       <c r="H955" s="3" t="n"/>
+      <c r="I955" s="3" t="n"/>
     </row>
     <row r="956">
       <c r="A956" s="3" t="n"/>
@@ -51405,6 +52385,7 @@
       <c r="F956" s="3" t="n"/>
       <c r="G956" s="3" t="n"/>
       <c r="H956" s="3" t="n"/>
+      <c r="I956" s="3" t="n"/>
     </row>
     <row r="957">
       <c r="A957" s="3" t="n"/>
@@ -51415,6 +52396,7 @@
       <c r="F957" s="3" t="n"/>
       <c r="G957" s="3" t="n"/>
       <c r="H957" s="3" t="n"/>
+      <c r="I957" s="3" t="n"/>
     </row>
     <row r="958">
       <c r="A958" s="3" t="n"/>
@@ -51425,6 +52407,7 @@
       <c r="F958" s="3" t="n"/>
       <c r="G958" s="3" t="n"/>
       <c r="H958" s="3" t="n"/>
+      <c r="I958" s="3" t="n"/>
     </row>
     <row r="959">
       <c r="A959" s="3" t="n"/>
@@ -51435,6 +52418,7 @@
       <c r="F959" s="3" t="n"/>
       <c r="G959" s="3" t="n"/>
       <c r="H959" s="3" t="n"/>
+      <c r="I959" s="3" t="n"/>
     </row>
     <row r="960">
       <c r="A960" s="3" t="n"/>
@@ -51445,6 +52429,7 @@
       <c r="F960" s="3" t="n"/>
       <c r="G960" s="3" t="n"/>
       <c r="H960" s="3" t="n"/>
+      <c r="I960" s="3" t="n"/>
     </row>
     <row r="961">
       <c r="A961" s="3" t="n"/>
@@ -51455,6 +52440,7 @@
       <c r="F961" s="3" t="n"/>
       <c r="G961" s="3" t="n"/>
       <c r="H961" s="3" t="n"/>
+      <c r="I961" s="3" t="n"/>
     </row>
     <row r="962">
       <c r="A962" s="3" t="n"/>
@@ -51465,6 +52451,7 @@
       <c r="F962" s="3" t="n"/>
       <c r="G962" s="3" t="n"/>
       <c r="H962" s="3" t="n"/>
+      <c r="I962" s="3" t="n"/>
     </row>
     <row r="963">
       <c r="A963" s="3" t="n"/>
@@ -51475,6 +52462,7 @@
       <c r="F963" s="3" t="n"/>
       <c r="G963" s="3" t="n"/>
       <c r="H963" s="3" t="n"/>
+      <c r="I963" s="3" t="n"/>
     </row>
     <row r="964">
       <c r="A964" s="3" t="n"/>
@@ -51485,6 +52473,7 @@
       <c r="F964" s="3" t="n"/>
       <c r="G964" s="3" t="n"/>
       <c r="H964" s="3" t="n"/>
+      <c r="I964" s="3" t="n"/>
     </row>
     <row r="965">
       <c r="A965" s="3" t="n"/>
@@ -51495,6 +52484,7 @@
       <c r="F965" s="3" t="n"/>
       <c r="G965" s="3" t="n"/>
       <c r="H965" s="3" t="n"/>
+      <c r="I965" s="3" t="n"/>
     </row>
     <row r="966">
       <c r="A966" s="3" t="n"/>
@@ -51505,6 +52495,7 @@
       <c r="F966" s="3" t="n"/>
       <c r="G966" s="3" t="n"/>
       <c r="H966" s="3" t="n"/>
+      <c r="I966" s="3" t="n"/>
     </row>
     <row r="967">
       <c r="A967" s="3" t="n"/>
@@ -51515,6 +52506,7 @@
       <c r="F967" s="3" t="n"/>
       <c r="G967" s="3" t="n"/>
       <c r="H967" s="3" t="n"/>
+      <c r="I967" s="3" t="n"/>
     </row>
     <row r="968">
       <c r="A968" s="3" t="n"/>
@@ -51525,6 +52517,7 @@
       <c r="F968" s="3" t="n"/>
       <c r="G968" s="3" t="n"/>
       <c r="H968" s="3" t="n"/>
+      <c r="I968" s="3" t="n"/>
     </row>
     <row r="969">
       <c r="A969" s="3" t="n"/>
@@ -51535,6 +52528,7 @@
       <c r="F969" s="3" t="n"/>
       <c r="G969" s="3" t="n"/>
       <c r="H969" s="3" t="n"/>
+      <c r="I969" s="3" t="n"/>
     </row>
     <row r="970">
       <c r="A970" s="3" t="n"/>
@@ -51545,6 +52539,7 @@
       <c r="F970" s="3" t="n"/>
       <c r="G970" s="3" t="n"/>
       <c r="H970" s="3" t="n"/>
+      <c r="I970" s="3" t="n"/>
     </row>
     <row r="971">
       <c r="A971" s="3" t="n"/>
@@ -51555,6 +52550,7 @@
       <c r="F971" s="3" t="n"/>
       <c r="G971" s="3" t="n"/>
       <c r="H971" s="3" t="n"/>
+      <c r="I971" s="3" t="n"/>
     </row>
     <row r="972">
       <c r="A972" s="3" t="n"/>
@@ -51565,6 +52561,7 @@
       <c r="F972" s="3" t="n"/>
       <c r="G972" s="3" t="n"/>
       <c r="H972" s="3" t="n"/>
+      <c r="I972" s="3" t="n"/>
     </row>
     <row r="973">
       <c r="A973" s="3" t="n"/>
@@ -51575,6 +52572,7 @@
       <c r="F973" s="3" t="n"/>
       <c r="G973" s="3" t="n"/>
       <c r="H973" s="3" t="n"/>
+      <c r="I973" s="3" t="n"/>
     </row>
     <row r="974">
       <c r="A974" s="3" t="n"/>
@@ -51585,6 +52583,7 @@
       <c r="F974" s="3" t="n"/>
       <c r="G974" s="3" t="n"/>
       <c r="H974" s="3" t="n"/>
+      <c r="I974" s="3" t="n"/>
     </row>
     <row r="975">
       <c r="A975" s="3" t="n"/>
@@ -51595,6 +52594,7 @@
       <c r="F975" s="3" t="n"/>
       <c r="G975" s="3" t="n"/>
       <c r="H975" s="3" t="n"/>
+      <c r="I975" s="3" t="n"/>
     </row>
     <row r="976">
       <c r="A976" s="3" t="n"/>
@@ -51605,6 +52605,7 @@
       <c r="F976" s="3" t="n"/>
       <c r="G976" s="3" t="n"/>
       <c r="H976" s="3" t="n"/>
+      <c r="I976" s="3" t="n"/>
     </row>
     <row r="977">
       <c r="A977" s="3" t="n"/>
@@ -51615,6 +52616,7 @@
       <c r="F977" s="3" t="n"/>
       <c r="G977" s="3" t="n"/>
       <c r="H977" s="3" t="n"/>
+      <c r="I977" s="3" t="n"/>
     </row>
     <row r="978">
       <c r="A978" s="3" t="n"/>
@@ -51625,6 +52627,7 @@
       <c r="F978" s="3" t="n"/>
       <c r="G978" s="3" t="n"/>
       <c r="H978" s="3" t="n"/>
+      <c r="I978" s="3" t="n"/>
     </row>
     <row r="979">
       <c r="A979" s="3" t="n"/>
@@ -51635,6 +52638,7 @@
       <c r="F979" s="3" t="n"/>
       <c r="G979" s="3" t="n"/>
       <c r="H979" s="3" t="n"/>
+      <c r="I979" s="3" t="n"/>
     </row>
     <row r="980">
       <c r="A980" s="3" t="n"/>
@@ -51645,6 +52649,7 @@
       <c r="F980" s="3" t="n"/>
       <c r="G980" s="3" t="n"/>
       <c r="H980" s="3" t="n"/>
+      <c r="I980" s="3" t="n"/>
     </row>
     <row r="981">
       <c r="A981" s="3" t="n"/>
@@ -51655,6 +52660,7 @@
       <c r="F981" s="3" t="n"/>
       <c r="G981" s="3" t="n"/>
       <c r="H981" s="3" t="n"/>
+      <c r="I981" s="3" t="n"/>
     </row>
     <row r="982">
       <c r="A982" s="3" t="n"/>
@@ -51665,6 +52671,7 @@
       <c r="F982" s="3" t="n"/>
       <c r="G982" s="3" t="n"/>
       <c r="H982" s="3" t="n"/>
+      <c r="I982" s="3" t="n"/>
     </row>
     <row r="983">
       <c r="A983" s="3" t="n"/>
@@ -51675,6 +52682,7 @@
       <c r="F983" s="3" t="n"/>
       <c r="G983" s="3" t="n"/>
       <c r="H983" s="3" t="n"/>
+      <c r="I983" s="3" t="n"/>
     </row>
     <row r="984">
       <c r="A984" s="3" t="n"/>
@@ -51685,6 +52693,7 @@
       <c r="F984" s="3" t="n"/>
       <c r="G984" s="3" t="n"/>
       <c r="H984" s="3" t="n"/>
+      <c r="I984" s="3" t="n"/>
     </row>
     <row r="985">
       <c r="A985" s="3" t="n"/>
@@ -51695,6 +52704,7 @@
       <c r="F985" s="3" t="n"/>
       <c r="G985" s="3" t="n"/>
       <c r="H985" s="3" t="n"/>
+      <c r="I985" s="3" t="n"/>
     </row>
     <row r="986">
       <c r="A986" s="3" t="n"/>
@@ -51705,6 +52715,7 @@
       <c r="F986" s="3" t="n"/>
       <c r="G986" s="3" t="n"/>
       <c r="H986" s="3" t="n"/>
+      <c r="I986" s="3" t="n"/>
     </row>
     <row r="987">
       <c r="A987" s="3" t="n"/>
@@ -51715,6 +52726,7 @@
       <c r="F987" s="3" t="n"/>
       <c r="G987" s="3" t="n"/>
       <c r="H987" s="3" t="n"/>
+      <c r="I987" s="3" t="n"/>
     </row>
     <row r="988">
       <c r="A988" s="3" t="n"/>
@@ -51725,6 +52737,7 @@
       <c r="F988" s="3" t="n"/>
       <c r="G988" s="3" t="n"/>
       <c r="H988" s="3" t="n"/>
+      <c r="I988" s="3" t="n"/>
     </row>
     <row r="989">
       <c r="A989" s="3" t="n"/>
@@ -51735,6 +52748,7 @@
       <c r="F989" s="3" t="n"/>
       <c r="G989" s="3" t="n"/>
       <c r="H989" s="3" t="n"/>
+      <c r="I989" s="3" t="n"/>
     </row>
     <row r="990">
       <c r="A990" s="3" t="n"/>
@@ -51745,6 +52759,7 @@
       <c r="F990" s="3" t="n"/>
       <c r="G990" s="3" t="n"/>
       <c r="H990" s="3" t="n"/>
+      <c r="I990" s="3" t="n"/>
     </row>
     <row r="991">
       <c r="A991" s="3" t="n"/>
@@ -51755,6 +52770,7 @@
       <c r="F991" s="3" t="n"/>
       <c r="G991" s="3" t="n"/>
       <c r="H991" s="3" t="n"/>
+      <c r="I991" s="3" t="n"/>
     </row>
     <row r="992">
       <c r="A992" s="3" t="n"/>
@@ -51765,6 +52781,7 @@
       <c r="F992" s="3" t="n"/>
       <c r="G992" s="3" t="n"/>
       <c r="H992" s="3" t="n"/>
+      <c r="I992" s="3" t="n"/>
     </row>
     <row r="993">
       <c r="A993" s="3" t="n"/>
@@ -51775,6 +52792,7 @@
       <c r="F993" s="3" t="n"/>
       <c r="G993" s="3" t="n"/>
       <c r="H993" s="3" t="n"/>
+      <c r="I993" s="3" t="n"/>
     </row>
     <row r="994">
       <c r="A994" s="3" t="n"/>
@@ -51785,6 +52803,7 @@
       <c r="F994" s="3" t="n"/>
       <c r="G994" s="3" t="n"/>
       <c r="H994" s="3" t="n"/>
+      <c r="I994" s="3" t="n"/>
     </row>
     <row r="995">
       <c r="A995" s="3" t="n"/>
@@ -51795,6 +52814,7 @@
       <c r="F995" s="3" t="n"/>
       <c r="G995" s="3" t="n"/>
       <c r="H995" s="3" t="n"/>
+      <c r="I995" s="3" t="n"/>
     </row>
     <row r="996">
       <c r="A996" s="3" t="n"/>
@@ -51805,6 +52825,7 @@
       <c r="F996" s="3" t="n"/>
       <c r="G996" s="3" t="n"/>
       <c r="H996" s="3" t="n"/>
+      <c r="I996" s="3" t="n"/>
     </row>
     <row r="997">
       <c r="A997" s="3" t="n"/>
@@ -51815,6 +52836,7 @@
       <c r="F997" s="3" t="n"/>
       <c r="G997" s="3" t="n"/>
       <c r="H997" s="3" t="n"/>
+      <c r="I997" s="3" t="n"/>
     </row>
     <row r="998">
       <c r="A998" s="3" t="n"/>
@@ -51825,6 +52847,7 @@
       <c r="F998" s="3" t="n"/>
       <c r="G998" s="3" t="n"/>
       <c r="H998" s="3" t="n"/>
+      <c r="I998" s="3" t="n"/>
     </row>
     <row r="999">
       <c r="A999" s="3" t="n"/>
@@ -51835,6 +52858,7 @@
       <c r="F999" s="3" t="n"/>
       <c r="G999" s="3" t="n"/>
       <c r="H999" s="3" t="n"/>
+      <c r="I999" s="3" t="n"/>
     </row>
     <row r="1000">
       <c r="A1000" s="3" t="n"/>
@@ -51845,6 +52869,7 @@
       <c r="F1000" s="3" t="n"/>
       <c r="G1000" s="3" t="n"/>
       <c r="H1000" s="3" t="n"/>
+      <c r="I1000" s="3" t="n"/>
     </row>
     <row r="1001">
       <c r="A1001" s="3" t="n"/>
@@ -51855,6 +52880,7 @@
       <c r="F1001" s="3" t="n"/>
       <c r="G1001" s="3" t="n"/>
       <c r="H1001" s="3" t="n"/>
+      <c r="I1001" s="3" t="n"/>
     </row>
     <row r="1002">
       <c r="A1002" s="3" t="n"/>
@@ -51865,6 +52891,7 @@
       <c r="F1002" s="3" t="n"/>
       <c r="G1002" s="3" t="n"/>
       <c r="H1002" s="3" t="n"/>
+      <c r="I1002" s="3" t="n"/>
     </row>
     <row r="1003">
       <c r="A1003" s="3" t="n"/>
@@ -51875,6 +52902,7 @@
       <c r="F1003" s="3" t="n"/>
       <c r="G1003" s="3" t="n"/>
       <c r="H1003" s="3" t="n"/>
+      <c r="I1003" s="3" t="n"/>
     </row>
     <row r="1004">
       <c r="A1004" s="3" t="n"/>
@@ -51885,6 +52913,7 @@
       <c r="F1004" s="3" t="n"/>
       <c r="G1004" s="3" t="n"/>
       <c r="H1004" s="3" t="n"/>
+      <c r="I1004" s="3" t="n"/>
     </row>
     <row r="1005">
       <c r="A1005" s="3" t="n"/>
@@ -51895,6 +52924,7 @@
       <c r="F1005" s="3" t="n"/>
       <c r="G1005" s="3" t="n"/>
       <c r="H1005" s="3" t="n"/>
+      <c r="I1005" s="3" t="n"/>
     </row>
     <row r="1006">
       <c r="A1006" s="3" t="n"/>
@@ -51905,6 +52935,7 @@
       <c r="F1006" s="3" t="n"/>
       <c r="G1006" s="3" t="n"/>
       <c r="H1006" s="3" t="n"/>
+      <c r="I1006" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -8756,7 +8756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1006"/>
+  <dimension ref="A1:I1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8772,6 +8772,7 @@
     <col width="35" customWidth="1" min="6" max="6"/>
     <col width="35" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="8" max="8"/>
+    <col width="35" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8807,10 +8808,15 @@
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
+          <t>forward_or_reverse</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
           <t>checksum_type</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -8849,10 +8855,15 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
+          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing. The number that identifies each read direction in a paired-end nucleotide sequencing reaction.</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
           <t>The type of algorithm used to generate the checksum of a file.</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>The Dataset associated with an entity.</t>
         </is>
@@ -8899,6 +8910,11 @@
           <t>type: string</t>
         </is>
       </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>type: string</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -8941,6 +8957,11 @@
           <t>single value</t>
         </is>
       </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>single value</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -8975,10 +8996,15 @@
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
+          <t>controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
           <t>unrestricted</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>restriction: value from Dataset.alias</t>
         </is>
@@ -9017,10 +9043,15 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
           <t>required</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>required</t>
         </is>
@@ -9035,6 +9066,7 @@
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
@@ -9045,6 +9077,7 @@
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
       <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
@@ -9055,6 +9088,7 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
       <c r="H9" s="6" t="n"/>
+      <c r="I9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
@@ -9065,6 +9099,7 @@
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
+      <c r="I10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
@@ -9075,6 +9110,7 @@
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="6" t="n"/>
+      <c r="I11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
@@ -9085,6 +9121,7 @@
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="6" t="n"/>
+      <c r="I12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
@@ -9095,6 +9132,7 @@
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
+      <c r="I13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
@@ -9105,6 +9143,7 @@
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
+      <c r="I14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n"/>
@@ -9115,6 +9154,7 @@
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
+      <c r="I15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
@@ -9125,6 +9165,7 @@
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
+      <c r="I16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
@@ -9135,6 +9176,7 @@
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
+      <c r="I17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
@@ -9145,6 +9187,7 @@
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
+      <c r="I18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
@@ -9155,6 +9198,7 @@
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
+      <c r="I19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
@@ -9165,6 +9209,7 @@
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
+      <c r="I20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
@@ -9175,6 +9220,7 @@
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
+      <c r="I21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
@@ -9185,6 +9231,7 @@
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
+      <c r="I22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
@@ -9195,6 +9242,7 @@
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
+      <c r="I23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
@@ -9205,6 +9253,7 @@
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
+      <c r="I24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="n"/>
@@ -9215,6 +9264,7 @@
       <c r="F25" s="6" t="n"/>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
+      <c r="I25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n"/>
@@ -9225,6 +9275,7 @@
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
+      <c r="I26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>
@@ -9235,6 +9286,7 @@
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
+      <c r="I27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="n"/>
@@ -9245,6 +9297,7 @@
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>
+      <c r="I28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="n"/>
@@ -9255,6 +9308,7 @@
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="6" t="n"/>
       <c r="H29" s="6" t="n"/>
+      <c r="I29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="n"/>
@@ -9265,6 +9319,7 @@
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="6" t="n"/>
       <c r="H30" s="6" t="n"/>
+      <c r="I30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="n"/>
@@ -9275,6 +9330,7 @@
       <c r="F31" s="6" t="n"/>
       <c r="G31" s="6" t="n"/>
       <c r="H31" s="6" t="n"/>
+      <c r="I31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="n"/>
@@ -9285,6 +9341,7 @@
       <c r="F32" s="6" t="n"/>
       <c r="G32" s="6" t="n"/>
       <c r="H32" s="6" t="n"/>
+      <c r="I32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
@@ -9295,6 +9352,7 @@
       <c r="F33" s="6" t="n"/>
       <c r="G33" s="6" t="n"/>
       <c r="H33" s="6" t="n"/>
+      <c r="I33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
@@ -9305,6 +9363,7 @@
       <c r="F34" s="6" t="n"/>
       <c r="G34" s="6" t="n"/>
       <c r="H34" s="6" t="n"/>
+      <c r="I34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
@@ -9315,6 +9374,7 @@
       <c r="F35" s="6" t="n"/>
       <c r="G35" s="6" t="n"/>
       <c r="H35" s="6" t="n"/>
+      <c r="I35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
@@ -9325,6 +9385,7 @@
       <c r="F36" s="6" t="n"/>
       <c r="G36" s="6" t="n"/>
       <c r="H36" s="6" t="n"/>
+      <c r="I36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
@@ -9335,6 +9396,7 @@
       <c r="F37" s="6" t="n"/>
       <c r="G37" s="6" t="n"/>
       <c r="H37" s="6" t="n"/>
+      <c r="I37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
@@ -9345,6 +9407,7 @@
       <c r="F38" s="6" t="n"/>
       <c r="G38" s="6" t="n"/>
       <c r="H38" s="6" t="n"/>
+      <c r="I38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
@@ -9355,6 +9418,7 @@
       <c r="F39" s="6" t="n"/>
       <c r="G39" s="6" t="n"/>
       <c r="H39" s="6" t="n"/>
+      <c r="I39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
@@ -9365,6 +9429,7 @@
       <c r="F40" s="6" t="n"/>
       <c r="G40" s="6" t="n"/>
       <c r="H40" s="6" t="n"/>
+      <c r="I40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
@@ -9375,6 +9440,7 @@
       <c r="F41" s="6" t="n"/>
       <c r="G41" s="6" t="n"/>
       <c r="H41" s="6" t="n"/>
+      <c r="I41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
@@ -9385,6 +9451,7 @@
       <c r="F42" s="6" t="n"/>
       <c r="G42" s="6" t="n"/>
       <c r="H42" s="6" t="n"/>
+      <c r="I42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
@@ -9395,6 +9462,7 @@
       <c r="F43" s="6" t="n"/>
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
+      <c r="I43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
@@ -9405,6 +9473,7 @@
       <c r="F44" s="6" t="n"/>
       <c r="G44" s="6" t="n"/>
       <c r="H44" s="6" t="n"/>
+      <c r="I44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
@@ -9415,6 +9484,7 @@
       <c r="F45" s="6" t="n"/>
       <c r="G45" s="6" t="n"/>
       <c r="H45" s="6" t="n"/>
+      <c r="I45" s="6" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
@@ -9425,6 +9495,7 @@
       <c r="F46" s="6" t="n"/>
       <c r="G46" s="6" t="n"/>
       <c r="H46" s="6" t="n"/>
+      <c r="I46" s="6" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
@@ -9435,6 +9506,7 @@
       <c r="F47" s="6" t="n"/>
       <c r="G47" s="6" t="n"/>
       <c r="H47" s="6" t="n"/>
+      <c r="I47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
@@ -9445,6 +9517,7 @@
       <c r="F48" s="6" t="n"/>
       <c r="G48" s="6" t="n"/>
       <c r="H48" s="6" t="n"/>
+      <c r="I48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
@@ -9455,6 +9528,7 @@
       <c r="F49" s="6" t="n"/>
       <c r="G49" s="6" t="n"/>
       <c r="H49" s="6" t="n"/>
+      <c r="I49" s="6" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
@@ -9465,6 +9539,7 @@
       <c r="F50" s="6" t="n"/>
       <c r="G50" s="6" t="n"/>
       <c r="H50" s="6" t="n"/>
+      <c r="I50" s="6" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
@@ -9475,6 +9550,7 @@
       <c r="F51" s="6" t="n"/>
       <c r="G51" s="6" t="n"/>
       <c r="H51" s="6" t="n"/>
+      <c r="I51" s="6" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
@@ -9485,6 +9561,7 @@
       <c r="F52" s="6" t="n"/>
       <c r="G52" s="6" t="n"/>
       <c r="H52" s="6" t="n"/>
+      <c r="I52" s="6" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="6" t="n"/>
@@ -9495,6 +9572,7 @@
       <c r="F53" s="6" t="n"/>
       <c r="G53" s="6" t="n"/>
       <c r="H53" s="6" t="n"/>
+      <c r="I53" s="6" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n"/>
@@ -9505,6 +9583,7 @@
       <c r="F54" s="6" t="n"/>
       <c r="G54" s="6" t="n"/>
       <c r="H54" s="6" t="n"/>
+      <c r="I54" s="6" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n"/>
@@ -9515,6 +9594,7 @@
       <c r="F55" s="6" t="n"/>
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
+      <c r="I55" s="6" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n"/>
@@ -9525,6 +9605,7 @@
       <c r="F56" s="6" t="n"/>
       <c r="G56" s="6" t="n"/>
       <c r="H56" s="6" t="n"/>
+      <c r="I56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n"/>
@@ -9535,6 +9616,7 @@
       <c r="F57" s="6" t="n"/>
       <c r="G57" s="6" t="n"/>
       <c r="H57" s="6" t="n"/>
+      <c r="I57" s="6" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n"/>
@@ -9545,6 +9627,7 @@
       <c r="F58" s="6" t="n"/>
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
+      <c r="I58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n"/>
@@ -9555,6 +9638,7 @@
       <c r="F59" s="6" t="n"/>
       <c r="G59" s="6" t="n"/>
       <c r="H59" s="6" t="n"/>
+      <c r="I59" s="6" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n"/>
@@ -9565,6 +9649,7 @@
       <c r="F60" s="6" t="n"/>
       <c r="G60" s="6" t="n"/>
       <c r="H60" s="6" t="n"/>
+      <c r="I60" s="6" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n"/>
@@ -9575,6 +9660,7 @@
       <c r="F61" s="6" t="n"/>
       <c r="G61" s="6" t="n"/>
       <c r="H61" s="6" t="n"/>
+      <c r="I61" s="6" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="6" t="n"/>
@@ -9585,6 +9671,7 @@
       <c r="F62" s="6" t="n"/>
       <c r="G62" s="6" t="n"/>
       <c r="H62" s="6" t="n"/>
+      <c r="I62" s="6" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="6" t="n"/>
@@ -9595,6 +9682,7 @@
       <c r="F63" s="6" t="n"/>
       <c r="G63" s="6" t="n"/>
       <c r="H63" s="6" t="n"/>
+      <c r="I63" s="6" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="n"/>
@@ -9605,6 +9693,7 @@
       <c r="F64" s="6" t="n"/>
       <c r="G64" s="6" t="n"/>
       <c r="H64" s="6" t="n"/>
+      <c r="I64" s="6" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="6" t="n"/>
@@ -9615,6 +9704,7 @@
       <c r="F65" s="6" t="n"/>
       <c r="G65" s="6" t="n"/>
       <c r="H65" s="6" t="n"/>
+      <c r="I65" s="6" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="6" t="n"/>
@@ -9625,6 +9715,7 @@
       <c r="F66" s="6" t="n"/>
       <c r="G66" s="6" t="n"/>
       <c r="H66" s="6" t="n"/>
+      <c r="I66" s="6" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="n"/>
@@ -9635,6 +9726,7 @@
       <c r="F67" s="6" t="n"/>
       <c r="G67" s="6" t="n"/>
       <c r="H67" s="6" t="n"/>
+      <c r="I67" s="6" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="6" t="n"/>
@@ -9645,6 +9737,7 @@
       <c r="F68" s="6" t="n"/>
       <c r="G68" s="6" t="n"/>
       <c r="H68" s="6" t="n"/>
+      <c r="I68" s="6" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="6" t="n"/>
@@ -9655,6 +9748,7 @@
       <c r="F69" s="6" t="n"/>
       <c r="G69" s="6" t="n"/>
       <c r="H69" s="6" t="n"/>
+      <c r="I69" s="6" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="6" t="n"/>
@@ -9665,6 +9759,7 @@
       <c r="F70" s="6" t="n"/>
       <c r="G70" s="6" t="n"/>
       <c r="H70" s="6" t="n"/>
+      <c r="I70" s="6" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="6" t="n"/>
@@ -9675,6 +9770,7 @@
       <c r="F71" s="6" t="n"/>
       <c r="G71" s="6" t="n"/>
       <c r="H71" s="6" t="n"/>
+      <c r="I71" s="6" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="6" t="n"/>
@@ -9685,6 +9781,7 @@
       <c r="F72" s="6" t="n"/>
       <c r="G72" s="6" t="n"/>
       <c r="H72" s="6" t="n"/>
+      <c r="I72" s="6" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="6" t="n"/>
@@ -9695,6 +9792,7 @@
       <c r="F73" s="6" t="n"/>
       <c r="G73" s="6" t="n"/>
       <c r="H73" s="6" t="n"/>
+      <c r="I73" s="6" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="6" t="n"/>
@@ -9705,6 +9803,7 @@
       <c r="F74" s="6" t="n"/>
       <c r="G74" s="6" t="n"/>
       <c r="H74" s="6" t="n"/>
+      <c r="I74" s="6" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="6" t="n"/>
@@ -9715,6 +9814,7 @@
       <c r="F75" s="6" t="n"/>
       <c r="G75" s="6" t="n"/>
       <c r="H75" s="6" t="n"/>
+      <c r="I75" s="6" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="6" t="n"/>
@@ -9725,6 +9825,7 @@
       <c r="F76" s="6" t="n"/>
       <c r="G76" s="6" t="n"/>
       <c r="H76" s="6" t="n"/>
+      <c r="I76" s="6" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="6" t="n"/>
@@ -9735,6 +9836,7 @@
       <c r="F77" s="6" t="n"/>
       <c r="G77" s="6" t="n"/>
       <c r="H77" s="6" t="n"/>
+      <c r="I77" s="6" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="6" t="n"/>
@@ -9745,6 +9847,7 @@
       <c r="F78" s="6" t="n"/>
       <c r="G78" s="6" t="n"/>
       <c r="H78" s="6" t="n"/>
+      <c r="I78" s="6" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="6" t="n"/>
@@ -9755,6 +9858,7 @@
       <c r="F79" s="6" t="n"/>
       <c r="G79" s="6" t="n"/>
       <c r="H79" s="6" t="n"/>
+      <c r="I79" s="6" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="6" t="n"/>
@@ -9765,6 +9869,7 @@
       <c r="F80" s="6" t="n"/>
       <c r="G80" s="6" t="n"/>
       <c r="H80" s="6" t="n"/>
+      <c r="I80" s="6" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="6" t="n"/>
@@ -9775,6 +9880,7 @@
       <c r="F81" s="6" t="n"/>
       <c r="G81" s="6" t="n"/>
       <c r="H81" s="6" t="n"/>
+      <c r="I81" s="6" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="6" t="n"/>
@@ -9785,6 +9891,7 @@
       <c r="F82" s="6" t="n"/>
       <c r="G82" s="6" t="n"/>
       <c r="H82" s="6" t="n"/>
+      <c r="I82" s="6" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="6" t="n"/>
@@ -9795,6 +9902,7 @@
       <c r="F83" s="6" t="n"/>
       <c r="G83" s="6" t="n"/>
       <c r="H83" s="6" t="n"/>
+      <c r="I83" s="6" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="6" t="n"/>
@@ -9805,6 +9913,7 @@
       <c r="F84" s="6" t="n"/>
       <c r="G84" s="6" t="n"/>
       <c r="H84" s="6" t="n"/>
+      <c r="I84" s="6" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="6" t="n"/>
@@ -9815,6 +9924,7 @@
       <c r="F85" s="6" t="n"/>
       <c r="G85" s="6" t="n"/>
       <c r="H85" s="6" t="n"/>
+      <c r="I85" s="6" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="6" t="n"/>
@@ -9825,6 +9935,7 @@
       <c r="F86" s="6" t="n"/>
       <c r="G86" s="6" t="n"/>
       <c r="H86" s="6" t="n"/>
+      <c r="I86" s="6" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="6" t="n"/>
@@ -9835,6 +9946,7 @@
       <c r="F87" s="6" t="n"/>
       <c r="G87" s="6" t="n"/>
       <c r="H87" s="6" t="n"/>
+      <c r="I87" s="6" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="6" t="n"/>
@@ -9845,6 +9957,7 @@
       <c r="F88" s="6" t="n"/>
       <c r="G88" s="6" t="n"/>
       <c r="H88" s="6" t="n"/>
+      <c r="I88" s="6" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="6" t="n"/>
@@ -9855,6 +9968,7 @@
       <c r="F89" s="6" t="n"/>
       <c r="G89" s="6" t="n"/>
       <c r="H89" s="6" t="n"/>
+      <c r="I89" s="6" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="6" t="n"/>
@@ -9865,6 +9979,7 @@
       <c r="F90" s="6" t="n"/>
       <c r="G90" s="6" t="n"/>
       <c r="H90" s="6" t="n"/>
+      <c r="I90" s="6" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="6" t="n"/>
@@ -9875,6 +9990,7 @@
       <c r="F91" s="6" t="n"/>
       <c r="G91" s="6" t="n"/>
       <c r="H91" s="6" t="n"/>
+      <c r="I91" s="6" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="6" t="n"/>
@@ -9885,6 +10001,7 @@
       <c r="F92" s="6" t="n"/>
       <c r="G92" s="6" t="n"/>
       <c r="H92" s="6" t="n"/>
+      <c r="I92" s="6" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="6" t="n"/>
@@ -9895,6 +10012,7 @@
       <c r="F93" s="6" t="n"/>
       <c r="G93" s="6" t="n"/>
       <c r="H93" s="6" t="n"/>
+      <c r="I93" s="6" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="n"/>
@@ -9905,6 +10023,7 @@
       <c r="F94" s="6" t="n"/>
       <c r="G94" s="6" t="n"/>
       <c r="H94" s="6" t="n"/>
+      <c r="I94" s="6" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="6" t="n"/>
@@ -9915,6 +10034,7 @@
       <c r="F95" s="6" t="n"/>
       <c r="G95" s="6" t="n"/>
       <c r="H95" s="6" t="n"/>
+      <c r="I95" s="6" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="6" t="n"/>
@@ -9925,6 +10045,7 @@
       <c r="F96" s="6" t="n"/>
       <c r="G96" s="6" t="n"/>
       <c r="H96" s="6" t="n"/>
+      <c r="I96" s="6" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="6" t="n"/>
@@ -9935,6 +10056,7 @@
       <c r="F97" s="6" t="n"/>
       <c r="G97" s="6" t="n"/>
       <c r="H97" s="6" t="n"/>
+      <c r="I97" s="6" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="6" t="n"/>
@@ -9945,6 +10067,7 @@
       <c r="F98" s="6" t="n"/>
       <c r="G98" s="6" t="n"/>
       <c r="H98" s="6" t="n"/>
+      <c r="I98" s="6" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="6" t="n"/>
@@ -9955,6 +10078,7 @@
       <c r="F99" s="6" t="n"/>
       <c r="G99" s="6" t="n"/>
       <c r="H99" s="6" t="n"/>
+      <c r="I99" s="6" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="6" t="n"/>
@@ -9965,6 +10089,7 @@
       <c r="F100" s="6" t="n"/>
       <c r="G100" s="6" t="n"/>
       <c r="H100" s="6" t="n"/>
+      <c r="I100" s="6" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="n"/>
@@ -9975,6 +10100,7 @@
       <c r="F101" s="6" t="n"/>
       <c r="G101" s="6" t="n"/>
       <c r="H101" s="6" t="n"/>
+      <c r="I101" s="6" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="6" t="n"/>
@@ -9985,6 +10111,7 @@
       <c r="F102" s="6" t="n"/>
       <c r="G102" s="6" t="n"/>
       <c r="H102" s="6" t="n"/>
+      <c r="I102" s="6" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="6" t="n"/>
@@ -9995,6 +10122,7 @@
       <c r="F103" s="6" t="n"/>
       <c r="G103" s="6" t="n"/>
       <c r="H103" s="6" t="n"/>
+      <c r="I103" s="6" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="6" t="n"/>
@@ -10005,6 +10133,7 @@
       <c r="F104" s="6" t="n"/>
       <c r="G104" s="6" t="n"/>
       <c r="H104" s="6" t="n"/>
+      <c r="I104" s="6" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="6" t="n"/>
@@ -10015,6 +10144,7 @@
       <c r="F105" s="6" t="n"/>
       <c r="G105" s="6" t="n"/>
       <c r="H105" s="6" t="n"/>
+      <c r="I105" s="6" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="6" t="n"/>
@@ -10025,6 +10155,7 @@
       <c r="F106" s="6" t="n"/>
       <c r="G106" s="6" t="n"/>
       <c r="H106" s="6" t="n"/>
+      <c r="I106" s="6" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="6" t="n"/>
@@ -10035,6 +10166,7 @@
       <c r="F107" s="6" t="n"/>
       <c r="G107" s="6" t="n"/>
       <c r="H107" s="6" t="n"/>
+      <c r="I107" s="6" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="6" t="n"/>
@@ -10045,6 +10177,7 @@
       <c r="F108" s="6" t="n"/>
       <c r="G108" s="6" t="n"/>
       <c r="H108" s="6" t="n"/>
+      <c r="I108" s="6" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="6" t="n"/>
@@ -10055,6 +10188,7 @@
       <c r="F109" s="6" t="n"/>
       <c r="G109" s="6" t="n"/>
       <c r="H109" s="6" t="n"/>
+      <c r="I109" s="6" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="6" t="n"/>
@@ -10065,6 +10199,7 @@
       <c r="F110" s="6" t="n"/>
       <c r="G110" s="6" t="n"/>
       <c r="H110" s="6" t="n"/>
+      <c r="I110" s="6" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="6" t="n"/>
@@ -10075,6 +10210,7 @@
       <c r="F111" s="6" t="n"/>
       <c r="G111" s="6" t="n"/>
       <c r="H111" s="6" t="n"/>
+      <c r="I111" s="6" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="6" t="n"/>
@@ -10085,6 +10221,7 @@
       <c r="F112" s="6" t="n"/>
       <c r="G112" s="6" t="n"/>
       <c r="H112" s="6" t="n"/>
+      <c r="I112" s="6" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="6" t="n"/>
@@ -10095,6 +10232,7 @@
       <c r="F113" s="6" t="n"/>
       <c r="G113" s="6" t="n"/>
       <c r="H113" s="6" t="n"/>
+      <c r="I113" s="6" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="6" t="n"/>
@@ -10105,6 +10243,7 @@
       <c r="F114" s="6" t="n"/>
       <c r="G114" s="6" t="n"/>
       <c r="H114" s="6" t="n"/>
+      <c r="I114" s="6" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="6" t="n"/>
@@ -10115,6 +10254,7 @@
       <c r="F115" s="6" t="n"/>
       <c r="G115" s="6" t="n"/>
       <c r="H115" s="6" t="n"/>
+      <c r="I115" s="6" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="6" t="n"/>
@@ -10125,6 +10265,7 @@
       <c r="F116" s="6" t="n"/>
       <c r="G116" s="6" t="n"/>
       <c r="H116" s="6" t="n"/>
+      <c r="I116" s="6" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="6" t="n"/>
@@ -10135,6 +10276,7 @@
       <c r="F117" s="6" t="n"/>
       <c r="G117" s="6" t="n"/>
       <c r="H117" s="6" t="n"/>
+      <c r="I117" s="6" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="6" t="n"/>
@@ -10145,6 +10287,7 @@
       <c r="F118" s="6" t="n"/>
       <c r="G118" s="6" t="n"/>
       <c r="H118" s="6" t="n"/>
+      <c r="I118" s="6" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="6" t="n"/>
@@ -10155,6 +10298,7 @@
       <c r="F119" s="6" t="n"/>
       <c r="G119" s="6" t="n"/>
       <c r="H119" s="6" t="n"/>
+      <c r="I119" s="6" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="6" t="n"/>
@@ -10165,6 +10309,7 @@
       <c r="F120" s="6" t="n"/>
       <c r="G120" s="6" t="n"/>
       <c r="H120" s="6" t="n"/>
+      <c r="I120" s="6" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="6" t="n"/>
@@ -10175,6 +10320,7 @@
       <c r="F121" s="6" t="n"/>
       <c r="G121" s="6" t="n"/>
       <c r="H121" s="6" t="n"/>
+      <c r="I121" s="6" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="6" t="n"/>
@@ -10185,6 +10331,7 @@
       <c r="F122" s="6" t="n"/>
       <c r="G122" s="6" t="n"/>
       <c r="H122" s="6" t="n"/>
+      <c r="I122" s="6" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="6" t="n"/>
@@ -10195,6 +10342,7 @@
       <c r="F123" s="6" t="n"/>
       <c r="G123" s="6" t="n"/>
       <c r="H123" s="6" t="n"/>
+      <c r="I123" s="6" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="6" t="n"/>
@@ -10205,6 +10353,7 @@
       <c r="F124" s="6" t="n"/>
       <c r="G124" s="6" t="n"/>
       <c r="H124" s="6" t="n"/>
+      <c r="I124" s="6" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="6" t="n"/>
@@ -10215,6 +10364,7 @@
       <c r="F125" s="6" t="n"/>
       <c r="G125" s="6" t="n"/>
       <c r="H125" s="6" t="n"/>
+      <c r="I125" s="6" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="6" t="n"/>
@@ -10225,6 +10375,7 @@
       <c r="F126" s="6" t="n"/>
       <c r="G126" s="6" t="n"/>
       <c r="H126" s="6" t="n"/>
+      <c r="I126" s="6" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="6" t="n"/>
@@ -10235,6 +10386,7 @@
       <c r="F127" s="6" t="n"/>
       <c r="G127" s="6" t="n"/>
       <c r="H127" s="6" t="n"/>
+      <c r="I127" s="6" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="6" t="n"/>
@@ -10245,6 +10397,7 @@
       <c r="F128" s="6" t="n"/>
       <c r="G128" s="6" t="n"/>
       <c r="H128" s="6" t="n"/>
+      <c r="I128" s="6" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="6" t="n"/>
@@ -10255,6 +10408,7 @@
       <c r="F129" s="6" t="n"/>
       <c r="G129" s="6" t="n"/>
       <c r="H129" s="6" t="n"/>
+      <c r="I129" s="6" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="6" t="n"/>
@@ -10265,6 +10419,7 @@
       <c r="F130" s="6" t="n"/>
       <c r="G130" s="6" t="n"/>
       <c r="H130" s="6" t="n"/>
+      <c r="I130" s="6" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="6" t="n"/>
@@ -10275,6 +10430,7 @@
       <c r="F131" s="6" t="n"/>
       <c r="G131" s="6" t="n"/>
       <c r="H131" s="6" t="n"/>
+      <c r="I131" s="6" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="6" t="n"/>
@@ -10285,6 +10441,7 @@
       <c r="F132" s="6" t="n"/>
       <c r="G132" s="6" t="n"/>
       <c r="H132" s="6" t="n"/>
+      <c r="I132" s="6" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="6" t="n"/>
@@ -10295,6 +10452,7 @@
       <c r="F133" s="6" t="n"/>
       <c r="G133" s="6" t="n"/>
       <c r="H133" s="6" t="n"/>
+      <c r="I133" s="6" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="6" t="n"/>
@@ -10305,6 +10463,7 @@
       <c r="F134" s="6" t="n"/>
       <c r="G134" s="6" t="n"/>
       <c r="H134" s="6" t="n"/>
+      <c r="I134" s="6" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="6" t="n"/>
@@ -10315,6 +10474,7 @@
       <c r="F135" s="6" t="n"/>
       <c r="G135" s="6" t="n"/>
       <c r="H135" s="6" t="n"/>
+      <c r="I135" s="6" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="6" t="n"/>
@@ -10325,6 +10485,7 @@
       <c r="F136" s="6" t="n"/>
       <c r="G136" s="6" t="n"/>
       <c r="H136" s="6" t="n"/>
+      <c r="I136" s="6" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="6" t="n"/>
@@ -10335,6 +10496,7 @@
       <c r="F137" s="6" t="n"/>
       <c r="G137" s="6" t="n"/>
       <c r="H137" s="6" t="n"/>
+      <c r="I137" s="6" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="6" t="n"/>
@@ -10345,6 +10507,7 @@
       <c r="F138" s="6" t="n"/>
       <c r="G138" s="6" t="n"/>
       <c r="H138" s="6" t="n"/>
+      <c r="I138" s="6" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="6" t="n"/>
@@ -10355,6 +10518,7 @@
       <c r="F139" s="6" t="n"/>
       <c r="G139" s="6" t="n"/>
       <c r="H139" s="6" t="n"/>
+      <c r="I139" s="6" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="6" t="n"/>
@@ -10365,6 +10529,7 @@
       <c r="F140" s="6" t="n"/>
       <c r="G140" s="6" t="n"/>
       <c r="H140" s="6" t="n"/>
+      <c r="I140" s="6" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="6" t="n"/>
@@ -10375,6 +10540,7 @@
       <c r="F141" s="6" t="n"/>
       <c r="G141" s="6" t="n"/>
       <c r="H141" s="6" t="n"/>
+      <c r="I141" s="6" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="6" t="n"/>
@@ -10385,6 +10551,7 @@
       <c r="F142" s="6" t="n"/>
       <c r="G142" s="6" t="n"/>
       <c r="H142" s="6" t="n"/>
+      <c r="I142" s="6" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="6" t="n"/>
@@ -10395,6 +10562,7 @@
       <c r="F143" s="6" t="n"/>
       <c r="G143" s="6" t="n"/>
       <c r="H143" s="6" t="n"/>
+      <c r="I143" s="6" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="6" t="n"/>
@@ -10405,6 +10573,7 @@
       <c r="F144" s="6" t="n"/>
       <c r="G144" s="6" t="n"/>
       <c r="H144" s="6" t="n"/>
+      <c r="I144" s="6" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="6" t="n"/>
@@ -10415,6 +10584,7 @@
       <c r="F145" s="6" t="n"/>
       <c r="G145" s="6" t="n"/>
       <c r="H145" s="6" t="n"/>
+      <c r="I145" s="6" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="6" t="n"/>
@@ -10425,6 +10595,7 @@
       <c r="F146" s="6" t="n"/>
       <c r="G146" s="6" t="n"/>
       <c r="H146" s="6" t="n"/>
+      <c r="I146" s="6" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="6" t="n"/>
@@ -10435,6 +10606,7 @@
       <c r="F147" s="6" t="n"/>
       <c r="G147" s="6" t="n"/>
       <c r="H147" s="6" t="n"/>
+      <c r="I147" s="6" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="6" t="n"/>
@@ -10445,6 +10617,7 @@
       <c r="F148" s="6" t="n"/>
       <c r="G148" s="6" t="n"/>
       <c r="H148" s="6" t="n"/>
+      <c r="I148" s="6" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="6" t="n"/>
@@ -10455,6 +10628,7 @@
       <c r="F149" s="6" t="n"/>
       <c r="G149" s="6" t="n"/>
       <c r="H149" s="6" t="n"/>
+      <c r="I149" s="6" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="6" t="n"/>
@@ -10465,6 +10639,7 @@
       <c r="F150" s="6" t="n"/>
       <c r="G150" s="6" t="n"/>
       <c r="H150" s="6" t="n"/>
+      <c r="I150" s="6" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="6" t="n"/>
@@ -10475,6 +10650,7 @@
       <c r="F151" s="6" t="n"/>
       <c r="G151" s="6" t="n"/>
       <c r="H151" s="6" t="n"/>
+      <c r="I151" s="6" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="6" t="n"/>
@@ -10485,6 +10661,7 @@
       <c r="F152" s="6" t="n"/>
       <c r="G152" s="6" t="n"/>
       <c r="H152" s="6" t="n"/>
+      <c r="I152" s="6" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="6" t="n"/>
@@ -10495,6 +10672,7 @@
       <c r="F153" s="6" t="n"/>
       <c r="G153" s="6" t="n"/>
       <c r="H153" s="6" t="n"/>
+      <c r="I153" s="6" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="6" t="n"/>
@@ -10505,6 +10683,7 @@
       <c r="F154" s="6" t="n"/>
       <c r="G154" s="6" t="n"/>
       <c r="H154" s="6" t="n"/>
+      <c r="I154" s="6" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="6" t="n"/>
@@ -10515,6 +10694,7 @@
       <c r="F155" s="6" t="n"/>
       <c r="G155" s="6" t="n"/>
       <c r="H155" s="6" t="n"/>
+      <c r="I155" s="6" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="6" t="n"/>
@@ -10525,6 +10705,7 @@
       <c r="F156" s="6" t="n"/>
       <c r="G156" s="6" t="n"/>
       <c r="H156" s="6" t="n"/>
+      <c r="I156" s="6" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="6" t="n"/>
@@ -10535,6 +10716,7 @@
       <c r="F157" s="6" t="n"/>
       <c r="G157" s="6" t="n"/>
       <c r="H157" s="6" t="n"/>
+      <c r="I157" s="6" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="6" t="n"/>
@@ -10545,6 +10727,7 @@
       <c r="F158" s="6" t="n"/>
       <c r="G158" s="6" t="n"/>
       <c r="H158" s="6" t="n"/>
+      <c r="I158" s="6" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="6" t="n"/>
@@ -10555,6 +10738,7 @@
       <c r="F159" s="6" t="n"/>
       <c r="G159" s="6" t="n"/>
       <c r="H159" s="6" t="n"/>
+      <c r="I159" s="6" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="6" t="n"/>
@@ -10565,6 +10749,7 @@
       <c r="F160" s="6" t="n"/>
       <c r="G160" s="6" t="n"/>
       <c r="H160" s="6" t="n"/>
+      <c r="I160" s="6" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="6" t="n"/>
@@ -10575,6 +10760,7 @@
       <c r="F161" s="6" t="n"/>
       <c r="G161" s="6" t="n"/>
       <c r="H161" s="6" t="n"/>
+      <c r="I161" s="6" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="6" t="n"/>
@@ -10585,6 +10771,7 @@
       <c r="F162" s="6" t="n"/>
       <c r="G162" s="6" t="n"/>
       <c r="H162" s="6" t="n"/>
+      <c r="I162" s="6" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="6" t="n"/>
@@ -10595,6 +10782,7 @@
       <c r="F163" s="6" t="n"/>
       <c r="G163" s="6" t="n"/>
       <c r="H163" s="6" t="n"/>
+      <c r="I163" s="6" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="6" t="n"/>
@@ -10605,6 +10793,7 @@
       <c r="F164" s="6" t="n"/>
       <c r="G164" s="6" t="n"/>
       <c r="H164" s="6" t="n"/>
+      <c r="I164" s="6" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="6" t="n"/>
@@ -10615,6 +10804,7 @@
       <c r="F165" s="6" t="n"/>
       <c r="G165" s="6" t="n"/>
       <c r="H165" s="6" t="n"/>
+      <c r="I165" s="6" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="6" t="n"/>
@@ -10625,6 +10815,7 @@
       <c r="F166" s="6" t="n"/>
       <c r="G166" s="6" t="n"/>
       <c r="H166" s="6" t="n"/>
+      <c r="I166" s="6" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="6" t="n"/>
@@ -10635,6 +10826,7 @@
       <c r="F167" s="6" t="n"/>
       <c r="G167" s="6" t="n"/>
       <c r="H167" s="6" t="n"/>
+      <c r="I167" s="6" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="6" t="n"/>
@@ -10645,6 +10837,7 @@
       <c r="F168" s="6" t="n"/>
       <c r="G168" s="6" t="n"/>
       <c r="H168" s="6" t="n"/>
+      <c r="I168" s="6" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="6" t="n"/>
@@ -10655,6 +10848,7 @@
       <c r="F169" s="6" t="n"/>
       <c r="G169" s="6" t="n"/>
       <c r="H169" s="6" t="n"/>
+      <c r="I169" s="6" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="6" t="n"/>
@@ -10665,6 +10859,7 @@
       <c r="F170" s="6" t="n"/>
       <c r="G170" s="6" t="n"/>
       <c r="H170" s="6" t="n"/>
+      <c r="I170" s="6" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="6" t="n"/>
@@ -10675,6 +10870,7 @@
       <c r="F171" s="6" t="n"/>
       <c r="G171" s="6" t="n"/>
       <c r="H171" s="6" t="n"/>
+      <c r="I171" s="6" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="6" t="n"/>
@@ -10685,6 +10881,7 @@
       <c r="F172" s="6" t="n"/>
       <c r="G172" s="6" t="n"/>
       <c r="H172" s="6" t="n"/>
+      <c r="I172" s="6" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="6" t="n"/>
@@ -10695,6 +10892,7 @@
       <c r="F173" s="6" t="n"/>
       <c r="G173" s="6" t="n"/>
       <c r="H173" s="6" t="n"/>
+      <c r="I173" s="6" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="6" t="n"/>
@@ -10705,6 +10903,7 @@
       <c r="F174" s="6" t="n"/>
       <c r="G174" s="6" t="n"/>
       <c r="H174" s="6" t="n"/>
+      <c r="I174" s="6" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="6" t="n"/>
@@ -10715,6 +10914,7 @@
       <c r="F175" s="6" t="n"/>
       <c r="G175" s="6" t="n"/>
       <c r="H175" s="6" t="n"/>
+      <c r="I175" s="6" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="6" t="n"/>
@@ -10725,6 +10925,7 @@
       <c r="F176" s="6" t="n"/>
       <c r="G176" s="6" t="n"/>
       <c r="H176" s="6" t="n"/>
+      <c r="I176" s="6" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="6" t="n"/>
@@ -10735,6 +10936,7 @@
       <c r="F177" s="6" t="n"/>
       <c r="G177" s="6" t="n"/>
       <c r="H177" s="6" t="n"/>
+      <c r="I177" s="6" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="6" t="n"/>
@@ -10745,6 +10947,7 @@
       <c r="F178" s="6" t="n"/>
       <c r="G178" s="6" t="n"/>
       <c r="H178" s="6" t="n"/>
+      <c r="I178" s="6" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="6" t="n"/>
@@ -10755,6 +10958,7 @@
       <c r="F179" s="6" t="n"/>
       <c r="G179" s="6" t="n"/>
       <c r="H179" s="6" t="n"/>
+      <c r="I179" s="6" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="6" t="n"/>
@@ -10765,6 +10969,7 @@
       <c r="F180" s="6" t="n"/>
       <c r="G180" s="6" t="n"/>
       <c r="H180" s="6" t="n"/>
+      <c r="I180" s="6" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="6" t="n"/>
@@ -10775,6 +10980,7 @@
       <c r="F181" s="6" t="n"/>
       <c r="G181" s="6" t="n"/>
       <c r="H181" s="6" t="n"/>
+      <c r="I181" s="6" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="6" t="n"/>
@@ -10785,6 +10991,7 @@
       <c r="F182" s="6" t="n"/>
       <c r="G182" s="6" t="n"/>
       <c r="H182" s="6" t="n"/>
+      <c r="I182" s="6" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="6" t="n"/>
@@ -10795,6 +11002,7 @@
       <c r="F183" s="6" t="n"/>
       <c r="G183" s="6" t="n"/>
       <c r="H183" s="6" t="n"/>
+      <c r="I183" s="6" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="6" t="n"/>
@@ -10805,6 +11013,7 @@
       <c r="F184" s="6" t="n"/>
       <c r="G184" s="6" t="n"/>
       <c r="H184" s="6" t="n"/>
+      <c r="I184" s="6" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="6" t="n"/>
@@ -10815,6 +11024,7 @@
       <c r="F185" s="6" t="n"/>
       <c r="G185" s="6" t="n"/>
       <c r="H185" s="6" t="n"/>
+      <c r="I185" s="6" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="6" t="n"/>
@@ -10825,6 +11035,7 @@
       <c r="F186" s="6" t="n"/>
       <c r="G186" s="6" t="n"/>
       <c r="H186" s="6" t="n"/>
+      <c r="I186" s="6" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="6" t="n"/>
@@ -10835,6 +11046,7 @@
       <c r="F187" s="6" t="n"/>
       <c r="G187" s="6" t="n"/>
       <c r="H187" s="6" t="n"/>
+      <c r="I187" s="6" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="6" t="n"/>
@@ -10845,6 +11057,7 @@
       <c r="F188" s="6" t="n"/>
       <c r="G188" s="6" t="n"/>
       <c r="H188" s="6" t="n"/>
+      <c r="I188" s="6" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="6" t="n"/>
@@ -10855,6 +11068,7 @@
       <c r="F189" s="6" t="n"/>
       <c r="G189" s="6" t="n"/>
       <c r="H189" s="6" t="n"/>
+      <c r="I189" s="6" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="6" t="n"/>
@@ -10865,6 +11079,7 @@
       <c r="F190" s="6" t="n"/>
       <c r="G190" s="6" t="n"/>
       <c r="H190" s="6" t="n"/>
+      <c r="I190" s="6" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="6" t="n"/>
@@ -10875,6 +11090,7 @@
       <c r="F191" s="6" t="n"/>
       <c r="G191" s="6" t="n"/>
       <c r="H191" s="6" t="n"/>
+      <c r="I191" s="6" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="6" t="n"/>
@@ -10885,6 +11101,7 @@
       <c r="F192" s="6" t="n"/>
       <c r="G192" s="6" t="n"/>
       <c r="H192" s="6" t="n"/>
+      <c r="I192" s="6" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="6" t="n"/>
@@ -10895,6 +11112,7 @@
       <c r="F193" s="6" t="n"/>
       <c r="G193" s="6" t="n"/>
       <c r="H193" s="6" t="n"/>
+      <c r="I193" s="6" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="6" t="n"/>
@@ -10905,6 +11123,7 @@
       <c r="F194" s="6" t="n"/>
       <c r="G194" s="6" t="n"/>
       <c r="H194" s="6" t="n"/>
+      <c r="I194" s="6" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="6" t="n"/>
@@ -10915,6 +11134,7 @@
       <c r="F195" s="6" t="n"/>
       <c r="G195" s="6" t="n"/>
       <c r="H195" s="6" t="n"/>
+      <c r="I195" s="6" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="6" t="n"/>
@@ -10925,6 +11145,7 @@
       <c r="F196" s="6" t="n"/>
       <c r="G196" s="6" t="n"/>
       <c r="H196" s="6" t="n"/>
+      <c r="I196" s="6" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="6" t="n"/>
@@ -10935,6 +11156,7 @@
       <c r="F197" s="6" t="n"/>
       <c r="G197" s="6" t="n"/>
       <c r="H197" s="6" t="n"/>
+      <c r="I197" s="6" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="6" t="n"/>
@@ -10945,6 +11167,7 @@
       <c r="F198" s="6" t="n"/>
       <c r="G198" s="6" t="n"/>
       <c r="H198" s="6" t="n"/>
+      <c r="I198" s="6" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="6" t="n"/>
@@ -10955,6 +11178,7 @@
       <c r="F199" s="6" t="n"/>
       <c r="G199" s="6" t="n"/>
       <c r="H199" s="6" t="n"/>
+      <c r="I199" s="6" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="6" t="n"/>
@@ -10965,6 +11189,7 @@
       <c r="F200" s="6" t="n"/>
       <c r="G200" s="6" t="n"/>
       <c r="H200" s="6" t="n"/>
+      <c r="I200" s="6" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="6" t="n"/>
@@ -10975,6 +11200,7 @@
       <c r="F201" s="6" t="n"/>
       <c r="G201" s="6" t="n"/>
       <c r="H201" s="6" t="n"/>
+      <c r="I201" s="6" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="6" t="n"/>
@@ -10985,6 +11211,7 @@
       <c r="F202" s="6" t="n"/>
       <c r="G202" s="6" t="n"/>
       <c r="H202" s="6" t="n"/>
+      <c r="I202" s="6" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="6" t="n"/>
@@ -10995,6 +11222,7 @@
       <c r="F203" s="6" t="n"/>
       <c r="G203" s="6" t="n"/>
       <c r="H203" s="6" t="n"/>
+      <c r="I203" s="6" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="6" t="n"/>
@@ -11005,6 +11233,7 @@
       <c r="F204" s="6" t="n"/>
       <c r="G204" s="6" t="n"/>
       <c r="H204" s="6" t="n"/>
+      <c r="I204" s="6" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="6" t="n"/>
@@ -11015,6 +11244,7 @@
       <c r="F205" s="6" t="n"/>
       <c r="G205" s="6" t="n"/>
       <c r="H205" s="6" t="n"/>
+      <c r="I205" s="6" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="6" t="n"/>
@@ -11025,6 +11255,7 @@
       <c r="F206" s="6" t="n"/>
       <c r="G206" s="6" t="n"/>
       <c r="H206" s="6" t="n"/>
+      <c r="I206" s="6" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="6" t="n"/>
@@ -11035,6 +11266,7 @@
       <c r="F207" s="6" t="n"/>
       <c r="G207" s="6" t="n"/>
       <c r="H207" s="6" t="n"/>
+      <c r="I207" s="6" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="6" t="n"/>
@@ -11045,6 +11277,7 @@
       <c r="F208" s="6" t="n"/>
       <c r="G208" s="6" t="n"/>
       <c r="H208" s="6" t="n"/>
+      <c r="I208" s="6" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="6" t="n"/>
@@ -11055,6 +11288,7 @@
       <c r="F209" s="6" t="n"/>
       <c r="G209" s="6" t="n"/>
       <c r="H209" s="6" t="n"/>
+      <c r="I209" s="6" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="6" t="n"/>
@@ -11065,6 +11299,7 @@
       <c r="F210" s="6" t="n"/>
       <c r="G210" s="6" t="n"/>
       <c r="H210" s="6" t="n"/>
+      <c r="I210" s="6" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="6" t="n"/>
@@ -11075,6 +11310,7 @@
       <c r="F211" s="6" t="n"/>
       <c r="G211" s="6" t="n"/>
       <c r="H211" s="6" t="n"/>
+      <c r="I211" s="6" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="6" t="n"/>
@@ -11085,6 +11321,7 @@
       <c r="F212" s="6" t="n"/>
       <c r="G212" s="6" t="n"/>
       <c r="H212" s="6" t="n"/>
+      <c r="I212" s="6" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="6" t="n"/>
@@ -11095,6 +11332,7 @@
       <c r="F213" s="6" t="n"/>
       <c r="G213" s="6" t="n"/>
       <c r="H213" s="6" t="n"/>
+      <c r="I213" s="6" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="6" t="n"/>
@@ -11105,6 +11343,7 @@
       <c r="F214" s="6" t="n"/>
       <c r="G214" s="6" t="n"/>
       <c r="H214" s="6" t="n"/>
+      <c r="I214" s="6" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="6" t="n"/>
@@ -11115,6 +11354,7 @@
       <c r="F215" s="6" t="n"/>
       <c r="G215" s="6" t="n"/>
       <c r="H215" s="6" t="n"/>
+      <c r="I215" s="6" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="6" t="n"/>
@@ -11125,6 +11365,7 @@
       <c r="F216" s="6" t="n"/>
       <c r="G216" s="6" t="n"/>
       <c r="H216" s="6" t="n"/>
+      <c r="I216" s="6" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="6" t="n"/>
@@ -11135,6 +11376,7 @@
       <c r="F217" s="6" t="n"/>
       <c r="G217" s="6" t="n"/>
       <c r="H217" s="6" t="n"/>
+      <c r="I217" s="6" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="6" t="n"/>
@@ -11145,6 +11387,7 @@
       <c r="F218" s="6" t="n"/>
       <c r="G218" s="6" t="n"/>
       <c r="H218" s="6" t="n"/>
+      <c r="I218" s="6" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="6" t="n"/>
@@ -11155,6 +11398,7 @@
       <c r="F219" s="6" t="n"/>
       <c r="G219" s="6" t="n"/>
       <c r="H219" s="6" t="n"/>
+      <c r="I219" s="6" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="6" t="n"/>
@@ -11165,6 +11409,7 @@
       <c r="F220" s="6" t="n"/>
       <c r="G220" s="6" t="n"/>
       <c r="H220" s="6" t="n"/>
+      <c r="I220" s="6" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="6" t="n"/>
@@ -11175,6 +11420,7 @@
       <c r="F221" s="6" t="n"/>
       <c r="G221" s="6" t="n"/>
       <c r="H221" s="6" t="n"/>
+      <c r="I221" s="6" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="6" t="n"/>
@@ -11185,6 +11431,7 @@
       <c r="F222" s="6" t="n"/>
       <c r="G222" s="6" t="n"/>
       <c r="H222" s="6" t="n"/>
+      <c r="I222" s="6" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="6" t="n"/>
@@ -11195,6 +11442,7 @@
       <c r="F223" s="6" t="n"/>
       <c r="G223" s="6" t="n"/>
       <c r="H223" s="6" t="n"/>
+      <c r="I223" s="6" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="6" t="n"/>
@@ -11205,6 +11453,7 @@
       <c r="F224" s="6" t="n"/>
       <c r="G224" s="6" t="n"/>
       <c r="H224" s="6" t="n"/>
+      <c r="I224" s="6" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="6" t="n"/>
@@ -11215,6 +11464,7 @@
       <c r="F225" s="6" t="n"/>
       <c r="G225" s="6" t="n"/>
       <c r="H225" s="6" t="n"/>
+      <c r="I225" s="6" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="6" t="n"/>
@@ -11225,6 +11475,7 @@
       <c r="F226" s="6" t="n"/>
       <c r="G226" s="6" t="n"/>
       <c r="H226" s="6" t="n"/>
+      <c r="I226" s="6" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="6" t="n"/>
@@ -11235,6 +11486,7 @@
       <c r="F227" s="6" t="n"/>
       <c r="G227" s="6" t="n"/>
       <c r="H227" s="6" t="n"/>
+      <c r="I227" s="6" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="6" t="n"/>
@@ -11245,6 +11497,7 @@
       <c r="F228" s="6" t="n"/>
       <c r="G228" s="6" t="n"/>
       <c r="H228" s="6" t="n"/>
+      <c r="I228" s="6" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="6" t="n"/>
@@ -11255,6 +11508,7 @@
       <c r="F229" s="6" t="n"/>
       <c r="G229" s="6" t="n"/>
       <c r="H229" s="6" t="n"/>
+      <c r="I229" s="6" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="6" t="n"/>
@@ -11265,6 +11519,7 @@
       <c r="F230" s="6" t="n"/>
       <c r="G230" s="6" t="n"/>
       <c r="H230" s="6" t="n"/>
+      <c r="I230" s="6" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="6" t="n"/>
@@ -11275,6 +11530,7 @@
       <c r="F231" s="6" t="n"/>
       <c r="G231" s="6" t="n"/>
       <c r="H231" s="6" t="n"/>
+      <c r="I231" s="6" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="6" t="n"/>
@@ -11285,6 +11541,7 @@
       <c r="F232" s="6" t="n"/>
       <c r="G232" s="6" t="n"/>
       <c r="H232" s="6" t="n"/>
+      <c r="I232" s="6" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="6" t="n"/>
@@ -11295,6 +11552,7 @@
       <c r="F233" s="6" t="n"/>
       <c r="G233" s="6" t="n"/>
       <c r="H233" s="6" t="n"/>
+      <c r="I233" s="6" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="6" t="n"/>
@@ -11305,6 +11563,7 @@
       <c r="F234" s="6" t="n"/>
       <c r="G234" s="6" t="n"/>
       <c r="H234" s="6" t="n"/>
+      <c r="I234" s="6" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="6" t="n"/>
@@ -11315,6 +11574,7 @@
       <c r="F235" s="6" t="n"/>
       <c r="G235" s="6" t="n"/>
       <c r="H235" s="6" t="n"/>
+      <c r="I235" s="6" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="6" t="n"/>
@@ -11325,6 +11585,7 @@
       <c r="F236" s="6" t="n"/>
       <c r="G236" s="6" t="n"/>
       <c r="H236" s="6" t="n"/>
+      <c r="I236" s="6" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="6" t="n"/>
@@ -11335,6 +11596,7 @@
       <c r="F237" s="6" t="n"/>
       <c r="G237" s="6" t="n"/>
       <c r="H237" s="6" t="n"/>
+      <c r="I237" s="6" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="6" t="n"/>
@@ -11345,6 +11607,7 @@
       <c r="F238" s="6" t="n"/>
       <c r="G238" s="6" t="n"/>
       <c r="H238" s="6" t="n"/>
+      <c r="I238" s="6" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="6" t="n"/>
@@ -11355,6 +11618,7 @@
       <c r="F239" s="6" t="n"/>
       <c r="G239" s="6" t="n"/>
       <c r="H239" s="6" t="n"/>
+      <c r="I239" s="6" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="6" t="n"/>
@@ -11365,6 +11629,7 @@
       <c r="F240" s="6" t="n"/>
       <c r="G240" s="6" t="n"/>
       <c r="H240" s="6" t="n"/>
+      <c r="I240" s="6" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="6" t="n"/>
@@ -11375,6 +11640,7 @@
       <c r="F241" s="6" t="n"/>
       <c r="G241" s="6" t="n"/>
       <c r="H241" s="6" t="n"/>
+      <c r="I241" s="6" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="6" t="n"/>
@@ -11385,6 +11651,7 @@
       <c r="F242" s="6" t="n"/>
       <c r="G242" s="6" t="n"/>
       <c r="H242" s="6" t="n"/>
+      <c r="I242" s="6" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="6" t="n"/>
@@ -11395,6 +11662,7 @@
       <c r="F243" s="6" t="n"/>
       <c r="G243" s="6" t="n"/>
       <c r="H243" s="6" t="n"/>
+      <c r="I243" s="6" t="n"/>
     </row>
     <row r="244">
       <c r="A244" s="6" t="n"/>
@@ -11405,6 +11673,7 @@
       <c r="F244" s="6" t="n"/>
       <c r="G244" s="6" t="n"/>
       <c r="H244" s="6" t="n"/>
+      <c r="I244" s="6" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="6" t="n"/>
@@ -11415,6 +11684,7 @@
       <c r="F245" s="6" t="n"/>
       <c r="G245" s="6" t="n"/>
       <c r="H245" s="6" t="n"/>
+      <c r="I245" s="6" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="6" t="n"/>
@@ -11425,6 +11695,7 @@
       <c r="F246" s="6" t="n"/>
       <c r="G246" s="6" t="n"/>
       <c r="H246" s="6" t="n"/>
+      <c r="I246" s="6" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="6" t="n"/>
@@ -11435,6 +11706,7 @@
       <c r="F247" s="6" t="n"/>
       <c r="G247" s="6" t="n"/>
       <c r="H247" s="6" t="n"/>
+      <c r="I247" s="6" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="6" t="n"/>
@@ -11445,6 +11717,7 @@
       <c r="F248" s="6" t="n"/>
       <c r="G248" s="6" t="n"/>
       <c r="H248" s="6" t="n"/>
+      <c r="I248" s="6" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="6" t="n"/>
@@ -11455,6 +11728,7 @@
       <c r="F249" s="6" t="n"/>
       <c r="G249" s="6" t="n"/>
       <c r="H249" s="6" t="n"/>
+      <c r="I249" s="6" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="6" t="n"/>
@@ -11465,6 +11739,7 @@
       <c r="F250" s="6" t="n"/>
       <c r="G250" s="6" t="n"/>
       <c r="H250" s="6" t="n"/>
+      <c r="I250" s="6" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="6" t="n"/>
@@ -11475,6 +11750,7 @@
       <c r="F251" s="6" t="n"/>
       <c r="G251" s="6" t="n"/>
       <c r="H251" s="6" t="n"/>
+      <c r="I251" s="6" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="6" t="n"/>
@@ -11485,6 +11761,7 @@
       <c r="F252" s="6" t="n"/>
       <c r="G252" s="6" t="n"/>
       <c r="H252" s="6" t="n"/>
+      <c r="I252" s="6" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="6" t="n"/>
@@ -11495,6 +11772,7 @@
       <c r="F253" s="6" t="n"/>
       <c r="G253" s="6" t="n"/>
       <c r="H253" s="6" t="n"/>
+      <c r="I253" s="6" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="6" t="n"/>
@@ -11505,6 +11783,7 @@
       <c r="F254" s="6" t="n"/>
       <c r="G254" s="6" t="n"/>
       <c r="H254" s="6" t="n"/>
+      <c r="I254" s="6" t="n"/>
     </row>
     <row r="255">
       <c r="A255" s="6" t="n"/>
@@ -11515,6 +11794,7 @@
       <c r="F255" s="6" t="n"/>
       <c r="G255" s="6" t="n"/>
       <c r="H255" s="6" t="n"/>
+      <c r="I255" s="6" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="6" t="n"/>
@@ -11525,6 +11805,7 @@
       <c r="F256" s="6" t="n"/>
       <c r="G256" s="6" t="n"/>
       <c r="H256" s="6" t="n"/>
+      <c r="I256" s="6" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="6" t="n"/>
@@ -11535,6 +11816,7 @@
       <c r="F257" s="6" t="n"/>
       <c r="G257" s="6" t="n"/>
       <c r="H257" s="6" t="n"/>
+      <c r="I257" s="6" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="6" t="n"/>
@@ -11545,6 +11827,7 @@
       <c r="F258" s="6" t="n"/>
       <c r="G258" s="6" t="n"/>
       <c r="H258" s="6" t="n"/>
+      <c r="I258" s="6" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="6" t="n"/>
@@ -11555,6 +11838,7 @@
       <c r="F259" s="6" t="n"/>
       <c r="G259" s="6" t="n"/>
       <c r="H259" s="6" t="n"/>
+      <c r="I259" s="6" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="6" t="n"/>
@@ -11565,6 +11849,7 @@
       <c r="F260" s="6" t="n"/>
       <c r="G260" s="6" t="n"/>
       <c r="H260" s="6" t="n"/>
+      <c r="I260" s="6" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="6" t="n"/>
@@ -11575,6 +11860,7 @@
       <c r="F261" s="6" t="n"/>
       <c r="G261" s="6" t="n"/>
       <c r="H261" s="6" t="n"/>
+      <c r="I261" s="6" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="6" t="n"/>
@@ -11585,6 +11871,7 @@
       <c r="F262" s="6" t="n"/>
       <c r="G262" s="6" t="n"/>
       <c r="H262" s="6" t="n"/>
+      <c r="I262" s="6" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="6" t="n"/>
@@ -11595,6 +11882,7 @@
       <c r="F263" s="6" t="n"/>
       <c r="G263" s="6" t="n"/>
       <c r="H263" s="6" t="n"/>
+      <c r="I263" s="6" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="6" t="n"/>
@@ -11605,6 +11893,7 @@
       <c r="F264" s="6" t="n"/>
       <c r="G264" s="6" t="n"/>
       <c r="H264" s="6" t="n"/>
+      <c r="I264" s="6" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="6" t="n"/>
@@ -11615,6 +11904,7 @@
       <c r="F265" s="6" t="n"/>
       <c r="G265" s="6" t="n"/>
       <c r="H265" s="6" t="n"/>
+      <c r="I265" s="6" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="6" t="n"/>
@@ -11625,6 +11915,7 @@
       <c r="F266" s="6" t="n"/>
       <c r="G266" s="6" t="n"/>
       <c r="H266" s="6" t="n"/>
+      <c r="I266" s="6" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="6" t="n"/>
@@ -11635,6 +11926,7 @@
       <c r="F267" s="6" t="n"/>
       <c r="G267" s="6" t="n"/>
       <c r="H267" s="6" t="n"/>
+      <c r="I267" s="6" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="6" t="n"/>
@@ -11645,6 +11937,7 @@
       <c r="F268" s="6" t="n"/>
       <c r="G268" s="6" t="n"/>
       <c r="H268" s="6" t="n"/>
+      <c r="I268" s="6" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="6" t="n"/>
@@ -11655,6 +11948,7 @@
       <c r="F269" s="6" t="n"/>
       <c r="G269" s="6" t="n"/>
       <c r="H269" s="6" t="n"/>
+      <c r="I269" s="6" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="6" t="n"/>
@@ -11665,6 +11959,7 @@
       <c r="F270" s="6" t="n"/>
       <c r="G270" s="6" t="n"/>
       <c r="H270" s="6" t="n"/>
+      <c r="I270" s="6" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="6" t="n"/>
@@ -11675,6 +11970,7 @@
       <c r="F271" s="6" t="n"/>
       <c r="G271" s="6" t="n"/>
       <c r="H271" s="6" t="n"/>
+      <c r="I271" s="6" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="6" t="n"/>
@@ -11685,6 +11981,7 @@
       <c r="F272" s="6" t="n"/>
       <c r="G272" s="6" t="n"/>
       <c r="H272" s="6" t="n"/>
+      <c r="I272" s="6" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="6" t="n"/>
@@ -11695,6 +11992,7 @@
       <c r="F273" s="6" t="n"/>
       <c r="G273" s="6" t="n"/>
       <c r="H273" s="6" t="n"/>
+      <c r="I273" s="6" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="6" t="n"/>
@@ -11705,6 +12003,7 @@
       <c r="F274" s="6" t="n"/>
       <c r="G274" s="6" t="n"/>
       <c r="H274" s="6" t="n"/>
+      <c r="I274" s="6" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="6" t="n"/>
@@ -11715,6 +12014,7 @@
       <c r="F275" s="6" t="n"/>
       <c r="G275" s="6" t="n"/>
       <c r="H275" s="6" t="n"/>
+      <c r="I275" s="6" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="6" t="n"/>
@@ -11725,6 +12025,7 @@
       <c r="F276" s="6" t="n"/>
       <c r="G276" s="6" t="n"/>
       <c r="H276" s="6" t="n"/>
+      <c r="I276" s="6" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="6" t="n"/>
@@ -11735,6 +12036,7 @@
       <c r="F277" s="6" t="n"/>
       <c r="G277" s="6" t="n"/>
       <c r="H277" s="6" t="n"/>
+      <c r="I277" s="6" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="6" t="n"/>
@@ -11745,6 +12047,7 @@
       <c r="F278" s="6" t="n"/>
       <c r="G278" s="6" t="n"/>
       <c r="H278" s="6" t="n"/>
+      <c r="I278" s="6" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="6" t="n"/>
@@ -11755,6 +12058,7 @@
       <c r="F279" s="6" t="n"/>
       <c r="G279" s="6" t="n"/>
       <c r="H279" s="6" t="n"/>
+      <c r="I279" s="6" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="6" t="n"/>
@@ -11765,6 +12069,7 @@
       <c r="F280" s="6" t="n"/>
       <c r="G280" s="6" t="n"/>
       <c r="H280" s="6" t="n"/>
+      <c r="I280" s="6" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="6" t="n"/>
@@ -11775,6 +12080,7 @@
       <c r="F281" s="6" t="n"/>
       <c r="G281" s="6" t="n"/>
       <c r="H281" s="6" t="n"/>
+      <c r="I281" s="6" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="6" t="n"/>
@@ -11785,6 +12091,7 @@
       <c r="F282" s="6" t="n"/>
       <c r="G282" s="6" t="n"/>
       <c r="H282" s="6" t="n"/>
+      <c r="I282" s="6" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="6" t="n"/>
@@ -11795,6 +12102,7 @@
       <c r="F283" s="6" t="n"/>
       <c r="G283" s="6" t="n"/>
       <c r="H283" s="6" t="n"/>
+      <c r="I283" s="6" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="6" t="n"/>
@@ -11805,6 +12113,7 @@
       <c r="F284" s="6" t="n"/>
       <c r="G284" s="6" t="n"/>
       <c r="H284" s="6" t="n"/>
+      <c r="I284" s="6" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="6" t="n"/>
@@ -11815,6 +12124,7 @@
       <c r="F285" s="6" t="n"/>
       <c r="G285" s="6" t="n"/>
       <c r="H285" s="6" t="n"/>
+      <c r="I285" s="6" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="6" t="n"/>
@@ -11825,6 +12135,7 @@
       <c r="F286" s="6" t="n"/>
       <c r="G286" s="6" t="n"/>
       <c r="H286" s="6" t="n"/>
+      <c r="I286" s="6" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="6" t="n"/>
@@ -11835,6 +12146,7 @@
       <c r="F287" s="6" t="n"/>
       <c r="G287" s="6" t="n"/>
       <c r="H287" s="6" t="n"/>
+      <c r="I287" s="6" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="6" t="n"/>
@@ -11845,6 +12157,7 @@
       <c r="F288" s="6" t="n"/>
       <c r="G288" s="6" t="n"/>
       <c r="H288" s="6" t="n"/>
+      <c r="I288" s="6" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="6" t="n"/>
@@ -11855,6 +12168,7 @@
       <c r="F289" s="6" t="n"/>
       <c r="G289" s="6" t="n"/>
       <c r="H289" s="6" t="n"/>
+      <c r="I289" s="6" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="6" t="n"/>
@@ -11865,6 +12179,7 @@
       <c r="F290" s="6" t="n"/>
       <c r="G290" s="6" t="n"/>
       <c r="H290" s="6" t="n"/>
+      <c r="I290" s="6" t="n"/>
     </row>
     <row r="291">
       <c r="A291" s="6" t="n"/>
@@ -11875,6 +12190,7 @@
       <c r="F291" s="6" t="n"/>
       <c r="G291" s="6" t="n"/>
       <c r="H291" s="6" t="n"/>
+      <c r="I291" s="6" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="6" t="n"/>
@@ -11885,6 +12201,7 @@
       <c r="F292" s="6" t="n"/>
       <c r="G292" s="6" t="n"/>
       <c r="H292" s="6" t="n"/>
+      <c r="I292" s="6" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="6" t="n"/>
@@ -11895,6 +12212,7 @@
       <c r="F293" s="6" t="n"/>
       <c r="G293" s="6" t="n"/>
       <c r="H293" s="6" t="n"/>
+      <c r="I293" s="6" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="6" t="n"/>
@@ -11905,6 +12223,7 @@
       <c r="F294" s="6" t="n"/>
       <c r="G294" s="6" t="n"/>
       <c r="H294" s="6" t="n"/>
+      <c r="I294" s="6" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="6" t="n"/>
@@ -11915,6 +12234,7 @@
       <c r="F295" s="6" t="n"/>
       <c r="G295" s="6" t="n"/>
       <c r="H295" s="6" t="n"/>
+      <c r="I295" s="6" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="6" t="n"/>
@@ -11925,6 +12245,7 @@
       <c r="F296" s="6" t="n"/>
       <c r="G296" s="6" t="n"/>
       <c r="H296" s="6" t="n"/>
+      <c r="I296" s="6" t="n"/>
     </row>
     <row r="297">
       <c r="A297" s="6" t="n"/>
@@ -11935,6 +12256,7 @@
       <c r="F297" s="6" t="n"/>
       <c r="G297" s="6" t="n"/>
       <c r="H297" s="6" t="n"/>
+      <c r="I297" s="6" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="6" t="n"/>
@@ -11945,6 +12267,7 @@
       <c r="F298" s="6" t="n"/>
       <c r="G298" s="6" t="n"/>
       <c r="H298" s="6" t="n"/>
+      <c r="I298" s="6" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="6" t="n"/>
@@ -11955,6 +12278,7 @@
       <c r="F299" s="6" t="n"/>
       <c r="G299" s="6" t="n"/>
       <c r="H299" s="6" t="n"/>
+      <c r="I299" s="6" t="n"/>
     </row>
     <row r="300">
       <c r="A300" s="6" t="n"/>
@@ -11965,6 +12289,7 @@
       <c r="F300" s="6" t="n"/>
       <c r="G300" s="6" t="n"/>
       <c r="H300" s="6" t="n"/>
+      <c r="I300" s="6" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="6" t="n"/>
@@ -11975,6 +12300,7 @@
       <c r="F301" s="6" t="n"/>
       <c r="G301" s="6" t="n"/>
       <c r="H301" s="6" t="n"/>
+      <c r="I301" s="6" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="6" t="n"/>
@@ -11985,6 +12311,7 @@
       <c r="F302" s="6" t="n"/>
       <c r="G302" s="6" t="n"/>
       <c r="H302" s="6" t="n"/>
+      <c r="I302" s="6" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="6" t="n"/>
@@ -11995,6 +12322,7 @@
       <c r="F303" s="6" t="n"/>
       <c r="G303" s="6" t="n"/>
       <c r="H303" s="6" t="n"/>
+      <c r="I303" s="6" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="6" t="n"/>
@@ -12005,6 +12333,7 @@
       <c r="F304" s="6" t="n"/>
       <c r="G304" s="6" t="n"/>
       <c r="H304" s="6" t="n"/>
+      <c r="I304" s="6" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="6" t="n"/>
@@ -12015,6 +12344,7 @@
       <c r="F305" s="6" t="n"/>
       <c r="G305" s="6" t="n"/>
       <c r="H305" s="6" t="n"/>
+      <c r="I305" s="6" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="6" t="n"/>
@@ -12025,6 +12355,7 @@
       <c r="F306" s="6" t="n"/>
       <c r="G306" s="6" t="n"/>
       <c r="H306" s="6" t="n"/>
+      <c r="I306" s="6" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="6" t="n"/>
@@ -12035,6 +12366,7 @@
       <c r="F307" s="6" t="n"/>
       <c r="G307" s="6" t="n"/>
       <c r="H307" s="6" t="n"/>
+      <c r="I307" s="6" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="6" t="n"/>
@@ -12045,6 +12377,7 @@
       <c r="F308" s="6" t="n"/>
       <c r="G308" s="6" t="n"/>
       <c r="H308" s="6" t="n"/>
+      <c r="I308" s="6" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="6" t="n"/>
@@ -12055,6 +12388,7 @@
       <c r="F309" s="6" t="n"/>
       <c r="G309" s="6" t="n"/>
       <c r="H309" s="6" t="n"/>
+      <c r="I309" s="6" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="6" t="n"/>
@@ -12065,6 +12399,7 @@
       <c r="F310" s="6" t="n"/>
       <c r="G310" s="6" t="n"/>
       <c r="H310" s="6" t="n"/>
+      <c r="I310" s="6" t="n"/>
     </row>
     <row r="311">
       <c r="A311" s="6" t="n"/>
@@ -12075,6 +12410,7 @@
       <c r="F311" s="6" t="n"/>
       <c r="G311" s="6" t="n"/>
       <c r="H311" s="6" t="n"/>
+      <c r="I311" s="6" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="6" t="n"/>
@@ -12085,6 +12421,7 @@
       <c r="F312" s="6" t="n"/>
       <c r="G312" s="6" t="n"/>
       <c r="H312" s="6" t="n"/>
+      <c r="I312" s="6" t="n"/>
     </row>
     <row r="313">
       <c r="A313" s="6" t="n"/>
@@ -12095,6 +12432,7 @@
       <c r="F313" s="6" t="n"/>
       <c r="G313" s="6" t="n"/>
       <c r="H313" s="6" t="n"/>
+      <c r="I313" s="6" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="6" t="n"/>
@@ -12105,6 +12443,7 @@
       <c r="F314" s="6" t="n"/>
       <c r="G314" s="6" t="n"/>
       <c r="H314" s="6" t="n"/>
+      <c r="I314" s="6" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="6" t="n"/>
@@ -12115,6 +12454,7 @@
       <c r="F315" s="6" t="n"/>
       <c r="G315" s="6" t="n"/>
       <c r="H315" s="6" t="n"/>
+      <c r="I315" s="6" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="6" t="n"/>
@@ -12125,6 +12465,7 @@
       <c r="F316" s="6" t="n"/>
       <c r="G316" s="6" t="n"/>
       <c r="H316" s="6" t="n"/>
+      <c r="I316" s="6" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="6" t="n"/>
@@ -12135,6 +12476,7 @@
       <c r="F317" s="6" t="n"/>
       <c r="G317" s="6" t="n"/>
       <c r="H317" s="6" t="n"/>
+      <c r="I317" s="6" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="6" t="n"/>
@@ -12145,6 +12487,7 @@
       <c r="F318" s="6" t="n"/>
       <c r="G318" s="6" t="n"/>
       <c r="H318" s="6" t="n"/>
+      <c r="I318" s="6" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="6" t="n"/>
@@ -12155,6 +12498,7 @@
       <c r="F319" s="6" t="n"/>
       <c r="G319" s="6" t="n"/>
       <c r="H319" s="6" t="n"/>
+      <c r="I319" s="6" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="6" t="n"/>
@@ -12165,6 +12509,7 @@
       <c r="F320" s="6" t="n"/>
       <c r="G320" s="6" t="n"/>
       <c r="H320" s="6" t="n"/>
+      <c r="I320" s="6" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="6" t="n"/>
@@ -12175,6 +12520,7 @@
       <c r="F321" s="6" t="n"/>
       <c r="G321" s="6" t="n"/>
       <c r="H321" s="6" t="n"/>
+      <c r="I321" s="6" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="6" t="n"/>
@@ -12185,6 +12531,7 @@
       <c r="F322" s="6" t="n"/>
       <c r="G322" s="6" t="n"/>
       <c r="H322" s="6" t="n"/>
+      <c r="I322" s="6" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="6" t="n"/>
@@ -12195,6 +12542,7 @@
       <c r="F323" s="6" t="n"/>
       <c r="G323" s="6" t="n"/>
       <c r="H323" s="6" t="n"/>
+      <c r="I323" s="6" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="6" t="n"/>
@@ -12205,6 +12553,7 @@
       <c r="F324" s="6" t="n"/>
       <c r="G324" s="6" t="n"/>
       <c r="H324" s="6" t="n"/>
+      <c r="I324" s="6" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="6" t="n"/>
@@ -12215,6 +12564,7 @@
       <c r="F325" s="6" t="n"/>
       <c r="G325" s="6" t="n"/>
       <c r="H325" s="6" t="n"/>
+      <c r="I325" s="6" t="n"/>
     </row>
     <row r="326">
       <c r="A326" s="6" t="n"/>
@@ -12225,6 +12575,7 @@
       <c r="F326" s="6" t="n"/>
       <c r="G326" s="6" t="n"/>
       <c r="H326" s="6" t="n"/>
+      <c r="I326" s="6" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="6" t="n"/>
@@ -12235,6 +12586,7 @@
       <c r="F327" s="6" t="n"/>
       <c r="G327" s="6" t="n"/>
       <c r="H327" s="6" t="n"/>
+      <c r="I327" s="6" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="6" t="n"/>
@@ -12245,6 +12597,7 @@
       <c r="F328" s="6" t="n"/>
       <c r="G328" s="6" t="n"/>
       <c r="H328" s="6" t="n"/>
+      <c r="I328" s="6" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="6" t="n"/>
@@ -12255,6 +12608,7 @@
       <c r="F329" s="6" t="n"/>
       <c r="G329" s="6" t="n"/>
       <c r="H329" s="6" t="n"/>
+      <c r="I329" s="6" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="6" t="n"/>
@@ -12265,6 +12619,7 @@
       <c r="F330" s="6" t="n"/>
       <c r="G330" s="6" t="n"/>
       <c r="H330" s="6" t="n"/>
+      <c r="I330" s="6" t="n"/>
     </row>
     <row r="331">
       <c r="A331" s="6" t="n"/>
@@ -12275,6 +12630,7 @@
       <c r="F331" s="6" t="n"/>
       <c r="G331" s="6" t="n"/>
       <c r="H331" s="6" t="n"/>
+      <c r="I331" s="6" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="6" t="n"/>
@@ -12285,6 +12641,7 @@
       <c r="F332" s="6" t="n"/>
       <c r="G332" s="6" t="n"/>
       <c r="H332" s="6" t="n"/>
+      <c r="I332" s="6" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="6" t="n"/>
@@ -12295,6 +12652,7 @@
       <c r="F333" s="6" t="n"/>
       <c r="G333" s="6" t="n"/>
       <c r="H333" s="6" t="n"/>
+      <c r="I333" s="6" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="6" t="n"/>
@@ -12305,6 +12663,7 @@
       <c r="F334" s="6" t="n"/>
       <c r="G334" s="6" t="n"/>
       <c r="H334" s="6" t="n"/>
+      <c r="I334" s="6" t="n"/>
     </row>
     <row r="335">
       <c r="A335" s="6" t="n"/>
@@ -12315,6 +12674,7 @@
       <c r="F335" s="6" t="n"/>
       <c r="G335" s="6" t="n"/>
       <c r="H335" s="6" t="n"/>
+      <c r="I335" s="6" t="n"/>
     </row>
     <row r="336">
       <c r="A336" s="6" t="n"/>
@@ -12325,6 +12685,7 @@
       <c r="F336" s="6" t="n"/>
       <c r="G336" s="6" t="n"/>
       <c r="H336" s="6" t="n"/>
+      <c r="I336" s="6" t="n"/>
     </row>
     <row r="337">
       <c r="A337" s="6" t="n"/>
@@ -12335,6 +12696,7 @@
       <c r="F337" s="6" t="n"/>
       <c r="G337" s="6" t="n"/>
       <c r="H337" s="6" t="n"/>
+      <c r="I337" s="6" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="6" t="n"/>
@@ -12345,6 +12707,7 @@
       <c r="F338" s="6" t="n"/>
       <c r="G338" s="6" t="n"/>
       <c r="H338" s="6" t="n"/>
+      <c r="I338" s="6" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="6" t="n"/>
@@ -12355,6 +12718,7 @@
       <c r="F339" s="6" t="n"/>
       <c r="G339" s="6" t="n"/>
       <c r="H339" s="6" t="n"/>
+      <c r="I339" s="6" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="6" t="n"/>
@@ -12365,6 +12729,7 @@
       <c r="F340" s="6" t="n"/>
       <c r="G340" s="6" t="n"/>
       <c r="H340" s="6" t="n"/>
+      <c r="I340" s="6" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="6" t="n"/>
@@ -12375,6 +12740,7 @@
       <c r="F341" s="6" t="n"/>
       <c r="G341" s="6" t="n"/>
       <c r="H341" s="6" t="n"/>
+      <c r="I341" s="6" t="n"/>
     </row>
     <row r="342">
       <c r="A342" s="6" t="n"/>
@@ -12385,6 +12751,7 @@
       <c r="F342" s="6" t="n"/>
       <c r="G342" s="6" t="n"/>
       <c r="H342" s="6" t="n"/>
+      <c r="I342" s="6" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="6" t="n"/>
@@ -12395,6 +12762,7 @@
       <c r="F343" s="6" t="n"/>
       <c r="G343" s="6" t="n"/>
       <c r="H343" s="6" t="n"/>
+      <c r="I343" s="6" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="6" t="n"/>
@@ -12405,6 +12773,7 @@
       <c r="F344" s="6" t="n"/>
       <c r="G344" s="6" t="n"/>
       <c r="H344" s="6" t="n"/>
+      <c r="I344" s="6" t="n"/>
     </row>
     <row r="345">
       <c r="A345" s="6" t="n"/>
@@ -12415,6 +12784,7 @@
       <c r="F345" s="6" t="n"/>
       <c r="G345" s="6" t="n"/>
       <c r="H345" s="6" t="n"/>
+      <c r="I345" s="6" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="6" t="n"/>
@@ -12425,6 +12795,7 @@
       <c r="F346" s="6" t="n"/>
       <c r="G346" s="6" t="n"/>
       <c r="H346" s="6" t="n"/>
+      <c r="I346" s="6" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="6" t="n"/>
@@ -12435,6 +12806,7 @@
       <c r="F347" s="6" t="n"/>
       <c r="G347" s="6" t="n"/>
       <c r="H347" s="6" t="n"/>
+      <c r="I347" s="6" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="6" t="n"/>
@@ -12445,6 +12817,7 @@
       <c r="F348" s="6" t="n"/>
       <c r="G348" s="6" t="n"/>
       <c r="H348" s="6" t="n"/>
+      <c r="I348" s="6" t="n"/>
     </row>
     <row r="349">
       <c r="A349" s="6" t="n"/>
@@ -12455,6 +12828,7 @@
       <c r="F349" s="6" t="n"/>
       <c r="G349" s="6" t="n"/>
       <c r="H349" s="6" t="n"/>
+      <c r="I349" s="6" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="6" t="n"/>
@@ -12465,6 +12839,7 @@
       <c r="F350" s="6" t="n"/>
       <c r="G350" s="6" t="n"/>
       <c r="H350" s="6" t="n"/>
+      <c r="I350" s="6" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="6" t="n"/>
@@ -12475,6 +12850,7 @@
       <c r="F351" s="6" t="n"/>
       <c r="G351" s="6" t="n"/>
       <c r="H351" s="6" t="n"/>
+      <c r="I351" s="6" t="n"/>
     </row>
     <row r="352">
       <c r="A352" s="6" t="n"/>
@@ -12485,6 +12861,7 @@
       <c r="F352" s="6" t="n"/>
       <c r="G352" s="6" t="n"/>
       <c r="H352" s="6" t="n"/>
+      <c r="I352" s="6" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="6" t="n"/>
@@ -12495,6 +12872,7 @@
       <c r="F353" s="6" t="n"/>
       <c r="G353" s="6" t="n"/>
       <c r="H353" s="6" t="n"/>
+      <c r="I353" s="6" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="6" t="n"/>
@@ -12505,6 +12883,7 @@
       <c r="F354" s="6" t="n"/>
       <c r="G354" s="6" t="n"/>
       <c r="H354" s="6" t="n"/>
+      <c r="I354" s="6" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="6" t="n"/>
@@ -12515,6 +12894,7 @@
       <c r="F355" s="6" t="n"/>
       <c r="G355" s="6" t="n"/>
       <c r="H355" s="6" t="n"/>
+      <c r="I355" s="6" t="n"/>
     </row>
     <row r="356">
       <c r="A356" s="6" t="n"/>
@@ -12525,6 +12905,7 @@
       <c r="F356" s="6" t="n"/>
       <c r="G356" s="6" t="n"/>
       <c r="H356" s="6" t="n"/>
+      <c r="I356" s="6" t="n"/>
     </row>
     <row r="357">
       <c r="A357" s="6" t="n"/>
@@ -12535,6 +12916,7 @@
       <c r="F357" s="6" t="n"/>
       <c r="G357" s="6" t="n"/>
       <c r="H357" s="6" t="n"/>
+      <c r="I357" s="6" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="6" t="n"/>
@@ -12545,6 +12927,7 @@
       <c r="F358" s="6" t="n"/>
       <c r="G358" s="6" t="n"/>
       <c r="H358" s="6" t="n"/>
+      <c r="I358" s="6" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="6" t="n"/>
@@ -12555,6 +12938,7 @@
       <c r="F359" s="6" t="n"/>
       <c r="G359" s="6" t="n"/>
       <c r="H359" s="6" t="n"/>
+      <c r="I359" s="6" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="6" t="n"/>
@@ -12565,6 +12949,7 @@
       <c r="F360" s="6" t="n"/>
       <c r="G360" s="6" t="n"/>
       <c r="H360" s="6" t="n"/>
+      <c r="I360" s="6" t="n"/>
     </row>
     <row r="361">
       <c r="A361" s="6" t="n"/>
@@ -12575,6 +12960,7 @@
       <c r="F361" s="6" t="n"/>
       <c r="G361" s="6" t="n"/>
       <c r="H361" s="6" t="n"/>
+      <c r="I361" s="6" t="n"/>
     </row>
     <row r="362">
       <c r="A362" s="6" t="n"/>
@@ -12585,6 +12971,7 @@
       <c r="F362" s="6" t="n"/>
       <c r="G362" s="6" t="n"/>
       <c r="H362" s="6" t="n"/>
+      <c r="I362" s="6" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="6" t="n"/>
@@ -12595,6 +12982,7 @@
       <c r="F363" s="6" t="n"/>
       <c r="G363" s="6" t="n"/>
       <c r="H363" s="6" t="n"/>
+      <c r="I363" s="6" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="6" t="n"/>
@@ -12605,6 +12993,7 @@
       <c r="F364" s="6" t="n"/>
       <c r="G364" s="6" t="n"/>
       <c r="H364" s="6" t="n"/>
+      <c r="I364" s="6" t="n"/>
     </row>
     <row r="365">
       <c r="A365" s="6" t="n"/>
@@ -12615,6 +13004,7 @@
       <c r="F365" s="6" t="n"/>
       <c r="G365" s="6" t="n"/>
       <c r="H365" s="6" t="n"/>
+      <c r="I365" s="6" t="n"/>
     </row>
     <row r="366">
       <c r="A366" s="6" t="n"/>
@@ -12625,6 +13015,7 @@
       <c r="F366" s="6" t="n"/>
       <c r="G366" s="6" t="n"/>
       <c r="H366" s="6" t="n"/>
+      <c r="I366" s="6" t="n"/>
     </row>
     <row r="367">
       <c r="A367" s="6" t="n"/>
@@ -12635,6 +13026,7 @@
       <c r="F367" s="6" t="n"/>
       <c r="G367" s="6" t="n"/>
       <c r="H367" s="6" t="n"/>
+      <c r="I367" s="6" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="6" t="n"/>
@@ -12645,6 +13037,7 @@
       <c r="F368" s="6" t="n"/>
       <c r="G368" s="6" t="n"/>
       <c r="H368" s="6" t="n"/>
+      <c r="I368" s="6" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="6" t="n"/>
@@ -12655,6 +13048,7 @@
       <c r="F369" s="6" t="n"/>
       <c r="G369" s="6" t="n"/>
       <c r="H369" s="6" t="n"/>
+      <c r="I369" s="6" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="6" t="n"/>
@@ -12665,6 +13059,7 @@
       <c r="F370" s="6" t="n"/>
       <c r="G370" s="6" t="n"/>
       <c r="H370" s="6" t="n"/>
+      <c r="I370" s="6" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="6" t="n"/>
@@ -12675,6 +13070,7 @@
       <c r="F371" s="6" t="n"/>
       <c r="G371" s="6" t="n"/>
       <c r="H371" s="6" t="n"/>
+      <c r="I371" s="6" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="6" t="n"/>
@@ -12685,6 +13081,7 @@
       <c r="F372" s="6" t="n"/>
       <c r="G372" s="6" t="n"/>
       <c r="H372" s="6" t="n"/>
+      <c r="I372" s="6" t="n"/>
     </row>
     <row r="373">
       <c r="A373" s="6" t="n"/>
@@ -12695,6 +13092,7 @@
       <c r="F373" s="6" t="n"/>
       <c r="G373" s="6" t="n"/>
       <c r="H373" s="6" t="n"/>
+      <c r="I373" s="6" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="6" t="n"/>
@@ -12705,6 +13103,7 @@
       <c r="F374" s="6" t="n"/>
       <c r="G374" s="6" t="n"/>
       <c r="H374" s="6" t="n"/>
+      <c r="I374" s="6" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="6" t="n"/>
@@ -12715,6 +13114,7 @@
       <c r="F375" s="6" t="n"/>
       <c r="G375" s="6" t="n"/>
       <c r="H375" s="6" t="n"/>
+      <c r="I375" s="6" t="n"/>
     </row>
     <row r="376">
       <c r="A376" s="6" t="n"/>
@@ -12725,6 +13125,7 @@
       <c r="F376" s="6" t="n"/>
       <c r="G376" s="6" t="n"/>
       <c r="H376" s="6" t="n"/>
+      <c r="I376" s="6" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="6" t="n"/>
@@ -12735,6 +13136,7 @@
       <c r="F377" s="6" t="n"/>
       <c r="G377" s="6" t="n"/>
       <c r="H377" s="6" t="n"/>
+      <c r="I377" s="6" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="6" t="n"/>
@@ -12745,6 +13147,7 @@
       <c r="F378" s="6" t="n"/>
       <c r="G378" s="6" t="n"/>
       <c r="H378" s="6" t="n"/>
+      <c r="I378" s="6" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="6" t="n"/>
@@ -12755,6 +13158,7 @@
       <c r="F379" s="6" t="n"/>
       <c r="G379" s="6" t="n"/>
       <c r="H379" s="6" t="n"/>
+      <c r="I379" s="6" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="6" t="n"/>
@@ -12765,6 +13169,7 @@
       <c r="F380" s="6" t="n"/>
       <c r="G380" s="6" t="n"/>
       <c r="H380" s="6" t="n"/>
+      <c r="I380" s="6" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="6" t="n"/>
@@ -12775,6 +13180,7 @@
       <c r="F381" s="6" t="n"/>
       <c r="G381" s="6" t="n"/>
       <c r="H381" s="6" t="n"/>
+      <c r="I381" s="6" t="n"/>
     </row>
     <row r="382">
       <c r="A382" s="6" t="n"/>
@@ -12785,6 +13191,7 @@
       <c r="F382" s="6" t="n"/>
       <c r="G382" s="6" t="n"/>
       <c r="H382" s="6" t="n"/>
+      <c r="I382" s="6" t="n"/>
     </row>
     <row r="383">
       <c r="A383" s="6" t="n"/>
@@ -12795,6 +13202,7 @@
       <c r="F383" s="6" t="n"/>
       <c r="G383" s="6" t="n"/>
       <c r="H383" s="6" t="n"/>
+      <c r="I383" s="6" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="6" t="n"/>
@@ -12805,6 +13213,7 @@
       <c r="F384" s="6" t="n"/>
       <c r="G384" s="6" t="n"/>
       <c r="H384" s="6" t="n"/>
+      <c r="I384" s="6" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="6" t="n"/>
@@ -12815,6 +13224,7 @@
       <c r="F385" s="6" t="n"/>
       <c r="G385" s="6" t="n"/>
       <c r="H385" s="6" t="n"/>
+      <c r="I385" s="6" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="6" t="n"/>
@@ -12825,6 +13235,7 @@
       <c r="F386" s="6" t="n"/>
       <c r="G386" s="6" t="n"/>
       <c r="H386" s="6" t="n"/>
+      <c r="I386" s="6" t="n"/>
     </row>
     <row r="387">
       <c r="A387" s="6" t="n"/>
@@ -12835,6 +13246,7 @@
       <c r="F387" s="6" t="n"/>
       <c r="G387" s="6" t="n"/>
       <c r="H387" s="6" t="n"/>
+      <c r="I387" s="6" t="n"/>
     </row>
     <row r="388">
       <c r="A388" s="6" t="n"/>
@@ -12845,6 +13257,7 @@
       <c r="F388" s="6" t="n"/>
       <c r="G388" s="6" t="n"/>
       <c r="H388" s="6" t="n"/>
+      <c r="I388" s="6" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="6" t="n"/>
@@ -12855,6 +13268,7 @@
       <c r="F389" s="6" t="n"/>
       <c r="G389" s="6" t="n"/>
       <c r="H389" s="6" t="n"/>
+      <c r="I389" s="6" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="6" t="n"/>
@@ -12865,6 +13279,7 @@
       <c r="F390" s="6" t="n"/>
       <c r="G390" s="6" t="n"/>
       <c r="H390" s="6" t="n"/>
+      <c r="I390" s="6" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="6" t="n"/>
@@ -12875,6 +13290,7 @@
       <c r="F391" s="6" t="n"/>
       <c r="G391" s="6" t="n"/>
       <c r="H391" s="6" t="n"/>
+      <c r="I391" s="6" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="6" t="n"/>
@@ -12885,6 +13301,7 @@
       <c r="F392" s="6" t="n"/>
       <c r="G392" s="6" t="n"/>
       <c r="H392" s="6" t="n"/>
+      <c r="I392" s="6" t="n"/>
     </row>
     <row r="393">
       <c r="A393" s="6" t="n"/>
@@ -12895,6 +13312,7 @@
       <c r="F393" s="6" t="n"/>
       <c r="G393" s="6" t="n"/>
       <c r="H393" s="6" t="n"/>
+      <c r="I393" s="6" t="n"/>
     </row>
     <row r="394">
       <c r="A394" s="6" t="n"/>
@@ -12905,6 +13323,7 @@
       <c r="F394" s="6" t="n"/>
       <c r="G394" s="6" t="n"/>
       <c r="H394" s="6" t="n"/>
+      <c r="I394" s="6" t="n"/>
     </row>
     <row r="395">
       <c r="A395" s="6" t="n"/>
@@ -12915,6 +13334,7 @@
       <c r="F395" s="6" t="n"/>
       <c r="G395" s="6" t="n"/>
       <c r="H395" s="6" t="n"/>
+      <c r="I395" s="6" t="n"/>
     </row>
     <row r="396">
       <c r="A396" s="6" t="n"/>
@@ -12925,6 +13345,7 @@
       <c r="F396" s="6" t="n"/>
       <c r="G396" s="6" t="n"/>
       <c r="H396" s="6" t="n"/>
+      <c r="I396" s="6" t="n"/>
     </row>
     <row r="397">
       <c r="A397" s="6" t="n"/>
@@ -12935,6 +13356,7 @@
       <c r="F397" s="6" t="n"/>
       <c r="G397" s="6" t="n"/>
       <c r="H397" s="6" t="n"/>
+      <c r="I397" s="6" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="6" t="n"/>
@@ -12945,6 +13367,7 @@
       <c r="F398" s="6" t="n"/>
       <c r="G398" s="6" t="n"/>
       <c r="H398" s="6" t="n"/>
+      <c r="I398" s="6" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="6" t="n"/>
@@ -12955,6 +13378,7 @@
       <c r="F399" s="6" t="n"/>
       <c r="G399" s="6" t="n"/>
       <c r="H399" s="6" t="n"/>
+      <c r="I399" s="6" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="6" t="n"/>
@@ -12965,6 +13389,7 @@
       <c r="F400" s="6" t="n"/>
       <c r="G400" s="6" t="n"/>
       <c r="H400" s="6" t="n"/>
+      <c r="I400" s="6" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="6" t="n"/>
@@ -12975,6 +13400,7 @@
       <c r="F401" s="6" t="n"/>
       <c r="G401" s="6" t="n"/>
       <c r="H401" s="6" t="n"/>
+      <c r="I401" s="6" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="6" t="n"/>
@@ -12985,6 +13411,7 @@
       <c r="F402" s="6" t="n"/>
       <c r="G402" s="6" t="n"/>
       <c r="H402" s="6" t="n"/>
+      <c r="I402" s="6" t="n"/>
     </row>
     <row r="403">
       <c r="A403" s="6" t="n"/>
@@ -12995,6 +13422,7 @@
       <c r="F403" s="6" t="n"/>
       <c r="G403" s="6" t="n"/>
       <c r="H403" s="6" t="n"/>
+      <c r="I403" s="6" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="6" t="n"/>
@@ -13005,6 +13433,7 @@
       <c r="F404" s="6" t="n"/>
       <c r="G404" s="6" t="n"/>
       <c r="H404" s="6" t="n"/>
+      <c r="I404" s="6" t="n"/>
     </row>
     <row r="405">
       <c r="A405" s="6" t="n"/>
@@ -13015,6 +13444,7 @@
       <c r="F405" s="6" t="n"/>
       <c r="G405" s="6" t="n"/>
       <c r="H405" s="6" t="n"/>
+      <c r="I405" s="6" t="n"/>
     </row>
     <row r="406">
       <c r="A406" s="6" t="n"/>
@@ -13025,6 +13455,7 @@
       <c r="F406" s="6" t="n"/>
       <c r="G406" s="6" t="n"/>
       <c r="H406" s="6" t="n"/>
+      <c r="I406" s="6" t="n"/>
     </row>
     <row r="407">
       <c r="A407" s="6" t="n"/>
@@ -13035,6 +13466,7 @@
       <c r="F407" s="6" t="n"/>
       <c r="G407" s="6" t="n"/>
       <c r="H407" s="6" t="n"/>
+      <c r="I407" s="6" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="6" t="n"/>
@@ -13045,6 +13477,7 @@
       <c r="F408" s="6" t="n"/>
       <c r="G408" s="6" t="n"/>
       <c r="H408" s="6" t="n"/>
+      <c r="I408" s="6" t="n"/>
     </row>
     <row r="409">
       <c r="A409" s="6" t="n"/>
@@ -13055,6 +13488,7 @@
       <c r="F409" s="6" t="n"/>
       <c r="G409" s="6" t="n"/>
       <c r="H409" s="6" t="n"/>
+      <c r="I409" s="6" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="6" t="n"/>
@@ -13065,6 +13499,7 @@
       <c r="F410" s="6" t="n"/>
       <c r="G410" s="6" t="n"/>
       <c r="H410" s="6" t="n"/>
+      <c r="I410" s="6" t="n"/>
     </row>
     <row r="411">
       <c r="A411" s="6" t="n"/>
@@ -13075,6 +13510,7 @@
       <c r="F411" s="6" t="n"/>
       <c r="G411" s="6" t="n"/>
       <c r="H411" s="6" t="n"/>
+      <c r="I411" s="6" t="n"/>
     </row>
     <row r="412">
       <c r="A412" s="6" t="n"/>
@@ -13085,6 +13521,7 @@
       <c r="F412" s="6" t="n"/>
       <c r="G412" s="6" t="n"/>
       <c r="H412" s="6" t="n"/>
+      <c r="I412" s="6" t="n"/>
     </row>
     <row r="413">
       <c r="A413" s="6" t="n"/>
@@ -13095,6 +13532,7 @@
       <c r="F413" s="6" t="n"/>
       <c r="G413" s="6" t="n"/>
       <c r="H413" s="6" t="n"/>
+      <c r="I413" s="6" t="n"/>
     </row>
     <row r="414">
       <c r="A414" s="6" t="n"/>
@@ -13105,6 +13543,7 @@
       <c r="F414" s="6" t="n"/>
       <c r="G414" s="6" t="n"/>
       <c r="H414" s="6" t="n"/>
+      <c r="I414" s="6" t="n"/>
     </row>
     <row r="415">
       <c r="A415" s="6" t="n"/>
@@ -13115,6 +13554,7 @@
       <c r="F415" s="6" t="n"/>
       <c r="G415" s="6" t="n"/>
       <c r="H415" s="6" t="n"/>
+      <c r="I415" s="6" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="6" t="n"/>
@@ -13125,6 +13565,7 @@
       <c r="F416" s="6" t="n"/>
       <c r="G416" s="6" t="n"/>
       <c r="H416" s="6" t="n"/>
+      <c r="I416" s="6" t="n"/>
     </row>
     <row r="417">
       <c r="A417" s="6" t="n"/>
@@ -13135,6 +13576,7 @@
       <c r="F417" s="6" t="n"/>
       <c r="G417" s="6" t="n"/>
       <c r="H417" s="6" t="n"/>
+      <c r="I417" s="6" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="6" t="n"/>
@@ -13145,6 +13587,7 @@
       <c r="F418" s="6" t="n"/>
       <c r="G418" s="6" t="n"/>
       <c r="H418" s="6" t="n"/>
+      <c r="I418" s="6" t="n"/>
     </row>
     <row r="419">
       <c r="A419" s="6" t="n"/>
@@ -13155,6 +13598,7 @@
       <c r="F419" s="6" t="n"/>
       <c r="G419" s="6" t="n"/>
       <c r="H419" s="6" t="n"/>
+      <c r="I419" s="6" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="6" t="n"/>
@@ -13165,6 +13609,7 @@
       <c r="F420" s="6" t="n"/>
       <c r="G420" s="6" t="n"/>
       <c r="H420" s="6" t="n"/>
+      <c r="I420" s="6" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="6" t="n"/>
@@ -13175,6 +13620,7 @@
       <c r="F421" s="6" t="n"/>
       <c r="G421" s="6" t="n"/>
       <c r="H421" s="6" t="n"/>
+      <c r="I421" s="6" t="n"/>
     </row>
     <row r="422">
       <c r="A422" s="6" t="n"/>
@@ -13185,6 +13631,7 @@
       <c r="F422" s="6" t="n"/>
       <c r="G422" s="6" t="n"/>
       <c r="H422" s="6" t="n"/>
+      <c r="I422" s="6" t="n"/>
     </row>
     <row r="423">
       <c r="A423" s="6" t="n"/>
@@ -13195,6 +13642,7 @@
       <c r="F423" s="6" t="n"/>
       <c r="G423" s="6" t="n"/>
       <c r="H423" s="6" t="n"/>
+      <c r="I423" s="6" t="n"/>
     </row>
     <row r="424">
       <c r="A424" s="6" t="n"/>
@@ -13205,6 +13653,7 @@
       <c r="F424" s="6" t="n"/>
       <c r="G424" s="6" t="n"/>
       <c r="H424" s="6" t="n"/>
+      <c r="I424" s="6" t="n"/>
     </row>
     <row r="425">
       <c r="A425" s="6" t="n"/>
@@ -13215,6 +13664,7 @@
       <c r="F425" s="6" t="n"/>
       <c r="G425" s="6" t="n"/>
       <c r="H425" s="6" t="n"/>
+      <c r="I425" s="6" t="n"/>
     </row>
     <row r="426">
       <c r="A426" s="6" t="n"/>
@@ -13225,6 +13675,7 @@
       <c r="F426" s="6" t="n"/>
       <c r="G426" s="6" t="n"/>
       <c r="H426" s="6" t="n"/>
+      <c r="I426" s="6" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="6" t="n"/>
@@ -13235,6 +13686,7 @@
       <c r="F427" s="6" t="n"/>
       <c r="G427" s="6" t="n"/>
       <c r="H427" s="6" t="n"/>
+      <c r="I427" s="6" t="n"/>
     </row>
     <row r="428">
       <c r="A428" s="6" t="n"/>
@@ -13245,6 +13697,7 @@
       <c r="F428" s="6" t="n"/>
       <c r="G428" s="6" t="n"/>
       <c r="H428" s="6" t="n"/>
+      <c r="I428" s="6" t="n"/>
     </row>
     <row r="429">
       <c r="A429" s="6" t="n"/>
@@ -13255,6 +13708,7 @@
       <c r="F429" s="6" t="n"/>
       <c r="G429" s="6" t="n"/>
       <c r="H429" s="6" t="n"/>
+      <c r="I429" s="6" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="6" t="n"/>
@@ -13265,6 +13719,7 @@
       <c r="F430" s="6" t="n"/>
       <c r="G430" s="6" t="n"/>
       <c r="H430" s="6" t="n"/>
+      <c r="I430" s="6" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="6" t="n"/>
@@ -13275,6 +13730,7 @@
       <c r="F431" s="6" t="n"/>
       <c r="G431" s="6" t="n"/>
       <c r="H431" s="6" t="n"/>
+      <c r="I431" s="6" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="6" t="n"/>
@@ -13285,6 +13741,7 @@
       <c r="F432" s="6" t="n"/>
       <c r="G432" s="6" t="n"/>
       <c r="H432" s="6" t="n"/>
+      <c r="I432" s="6" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="6" t="n"/>
@@ -13295,6 +13752,7 @@
       <c r="F433" s="6" t="n"/>
       <c r="G433" s="6" t="n"/>
       <c r="H433" s="6" t="n"/>
+      <c r="I433" s="6" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="6" t="n"/>
@@ -13305,6 +13763,7 @@
       <c r="F434" s="6" t="n"/>
       <c r="G434" s="6" t="n"/>
       <c r="H434" s="6" t="n"/>
+      <c r="I434" s="6" t="n"/>
     </row>
     <row r="435">
       <c r="A435" s="6" t="n"/>
@@ -13315,6 +13774,7 @@
       <c r="F435" s="6" t="n"/>
       <c r="G435" s="6" t="n"/>
       <c r="H435" s="6" t="n"/>
+      <c r="I435" s="6" t="n"/>
     </row>
     <row r="436">
       <c r="A436" s="6" t="n"/>
@@ -13325,6 +13785,7 @@
       <c r="F436" s="6" t="n"/>
       <c r="G436" s="6" t="n"/>
       <c r="H436" s="6" t="n"/>
+      <c r="I436" s="6" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="6" t="n"/>
@@ -13335,6 +13796,7 @@
       <c r="F437" s="6" t="n"/>
       <c r="G437" s="6" t="n"/>
       <c r="H437" s="6" t="n"/>
+      <c r="I437" s="6" t="n"/>
     </row>
     <row r="438">
       <c r="A438" s="6" t="n"/>
@@ -13345,6 +13807,7 @@
       <c r="F438" s="6" t="n"/>
       <c r="G438" s="6" t="n"/>
       <c r="H438" s="6" t="n"/>
+      <c r="I438" s="6" t="n"/>
     </row>
     <row r="439">
       <c r="A439" s="6" t="n"/>
@@ -13355,6 +13818,7 @@
       <c r="F439" s="6" t="n"/>
       <c r="G439" s="6" t="n"/>
       <c r="H439" s="6" t="n"/>
+      <c r="I439" s="6" t="n"/>
     </row>
     <row r="440">
       <c r="A440" s="6" t="n"/>
@@ -13365,6 +13829,7 @@
       <c r="F440" s="6" t="n"/>
       <c r="G440" s="6" t="n"/>
       <c r="H440" s="6" t="n"/>
+      <c r="I440" s="6" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="6" t="n"/>
@@ -13375,6 +13840,7 @@
       <c r="F441" s="6" t="n"/>
       <c r="G441" s="6" t="n"/>
       <c r="H441" s="6" t="n"/>
+      <c r="I441" s="6" t="n"/>
     </row>
     <row r="442">
       <c r="A442" s="6" t="n"/>
@@ -13385,6 +13851,7 @@
       <c r="F442" s="6" t="n"/>
       <c r="G442" s="6" t="n"/>
       <c r="H442" s="6" t="n"/>
+      <c r="I442" s="6" t="n"/>
     </row>
     <row r="443">
       <c r="A443" s="6" t="n"/>
@@ -13395,6 +13862,7 @@
       <c r="F443" s="6" t="n"/>
       <c r="G443" s="6" t="n"/>
       <c r="H443" s="6" t="n"/>
+      <c r="I443" s="6" t="n"/>
     </row>
     <row r="444">
       <c r="A444" s="6" t="n"/>
@@ -13405,6 +13873,7 @@
       <c r="F444" s="6" t="n"/>
       <c r="G444" s="6" t="n"/>
       <c r="H444" s="6" t="n"/>
+      <c r="I444" s="6" t="n"/>
     </row>
     <row r="445">
       <c r="A445" s="6" t="n"/>
@@ -13415,6 +13884,7 @@
       <c r="F445" s="6" t="n"/>
       <c r="G445" s="6" t="n"/>
       <c r="H445" s="6" t="n"/>
+      <c r="I445" s="6" t="n"/>
     </row>
     <row r="446">
       <c r="A446" s="6" t="n"/>
@@ -13425,6 +13895,7 @@
       <c r="F446" s="6" t="n"/>
       <c r="G446" s="6" t="n"/>
       <c r="H446" s="6" t="n"/>
+      <c r="I446" s="6" t="n"/>
     </row>
     <row r="447">
       <c r="A447" s="6" t="n"/>
@@ -13435,6 +13906,7 @@
       <c r="F447" s="6" t="n"/>
       <c r="G447" s="6" t="n"/>
       <c r="H447" s="6" t="n"/>
+      <c r="I447" s="6" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="6" t="n"/>
@@ -13445,6 +13917,7 @@
       <c r="F448" s="6" t="n"/>
       <c r="G448" s="6" t="n"/>
       <c r="H448" s="6" t="n"/>
+      <c r="I448" s="6" t="n"/>
     </row>
     <row r="449">
       <c r="A449" s="6" t="n"/>
@@ -13455,6 +13928,7 @@
       <c r="F449" s="6" t="n"/>
       <c r="G449" s="6" t="n"/>
       <c r="H449" s="6" t="n"/>
+      <c r="I449" s="6" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="6" t="n"/>
@@ -13465,6 +13939,7 @@
       <c r="F450" s="6" t="n"/>
       <c r="G450" s="6" t="n"/>
       <c r="H450" s="6" t="n"/>
+      <c r="I450" s="6" t="n"/>
     </row>
     <row r="451">
       <c r="A451" s="6" t="n"/>
@@ -13475,6 +13950,7 @@
       <c r="F451" s="6" t="n"/>
       <c r="G451" s="6" t="n"/>
       <c r="H451" s="6" t="n"/>
+      <c r="I451" s="6" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="6" t="n"/>
@@ -13485,6 +13961,7 @@
       <c r="F452" s="6" t="n"/>
       <c r="G452" s="6" t="n"/>
       <c r="H452" s="6" t="n"/>
+      <c r="I452" s="6" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="6" t="n"/>
@@ -13495,6 +13972,7 @@
       <c r="F453" s="6" t="n"/>
       <c r="G453" s="6" t="n"/>
       <c r="H453" s="6" t="n"/>
+      <c r="I453" s="6" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="6" t="n"/>
@@ -13505,6 +13983,7 @@
       <c r="F454" s="6" t="n"/>
       <c r="G454" s="6" t="n"/>
       <c r="H454" s="6" t="n"/>
+      <c r="I454" s="6" t="n"/>
     </row>
     <row r="455">
       <c r="A455" s="6" t="n"/>
@@ -13515,6 +13994,7 @@
       <c r="F455" s="6" t="n"/>
       <c r="G455" s="6" t="n"/>
       <c r="H455" s="6" t="n"/>
+      <c r="I455" s="6" t="n"/>
     </row>
     <row r="456">
       <c r="A456" s="6" t="n"/>
@@ -13525,6 +14005,7 @@
       <c r="F456" s="6" t="n"/>
       <c r="G456" s="6" t="n"/>
       <c r="H456" s="6" t="n"/>
+      <c r="I456" s="6" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="6" t="n"/>
@@ -13535,6 +14016,7 @@
       <c r="F457" s="6" t="n"/>
       <c r="G457" s="6" t="n"/>
       <c r="H457" s="6" t="n"/>
+      <c r="I457" s="6" t="n"/>
     </row>
     <row r="458">
       <c r="A458" s="6" t="n"/>
@@ -13545,6 +14027,7 @@
       <c r="F458" s="6" t="n"/>
       <c r="G458" s="6" t="n"/>
       <c r="H458" s="6" t="n"/>
+      <c r="I458" s="6" t="n"/>
     </row>
     <row r="459">
       <c r="A459" s="6" t="n"/>
@@ -13555,6 +14038,7 @@
       <c r="F459" s="6" t="n"/>
       <c r="G459" s="6" t="n"/>
       <c r="H459" s="6" t="n"/>
+      <c r="I459" s="6" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="6" t="n"/>
@@ -13565,6 +14049,7 @@
       <c r="F460" s="6" t="n"/>
       <c r="G460" s="6" t="n"/>
       <c r="H460" s="6" t="n"/>
+      <c r="I460" s="6" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="6" t="n"/>
@@ -13575,6 +14060,7 @@
       <c r="F461" s="6" t="n"/>
       <c r="G461" s="6" t="n"/>
       <c r="H461" s="6" t="n"/>
+      <c r="I461" s="6" t="n"/>
     </row>
     <row r="462">
       <c r="A462" s="6" t="n"/>
@@ -13585,6 +14071,7 @@
       <c r="F462" s="6" t="n"/>
       <c r="G462" s="6" t="n"/>
       <c r="H462" s="6" t="n"/>
+      <c r="I462" s="6" t="n"/>
     </row>
     <row r="463">
       <c r="A463" s="6" t="n"/>
@@ -13595,6 +14082,7 @@
       <c r="F463" s="6" t="n"/>
       <c r="G463" s="6" t="n"/>
       <c r="H463" s="6" t="n"/>
+      <c r="I463" s="6" t="n"/>
     </row>
     <row r="464">
       <c r="A464" s="6" t="n"/>
@@ -13605,6 +14093,7 @@
       <c r="F464" s="6" t="n"/>
       <c r="G464" s="6" t="n"/>
       <c r="H464" s="6" t="n"/>
+      <c r="I464" s="6" t="n"/>
     </row>
     <row r="465">
       <c r="A465" s="6" t="n"/>
@@ -13615,6 +14104,7 @@
       <c r="F465" s="6" t="n"/>
       <c r="G465" s="6" t="n"/>
       <c r="H465" s="6" t="n"/>
+      <c r="I465" s="6" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="6" t="n"/>
@@ -13625,6 +14115,7 @@
       <c r="F466" s="6" t="n"/>
       <c r="G466" s="6" t="n"/>
       <c r="H466" s="6" t="n"/>
+      <c r="I466" s="6" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="6" t="n"/>
@@ -13635,6 +14126,7 @@
       <c r="F467" s="6" t="n"/>
       <c r="G467" s="6" t="n"/>
       <c r="H467" s="6" t="n"/>
+      <c r="I467" s="6" t="n"/>
     </row>
     <row r="468">
       <c r="A468" s="6" t="n"/>
@@ -13645,6 +14137,7 @@
       <c r="F468" s="6" t="n"/>
       <c r="G468" s="6" t="n"/>
       <c r="H468" s="6" t="n"/>
+      <c r="I468" s="6" t="n"/>
     </row>
     <row r="469">
       <c r="A469" s="6" t="n"/>
@@ -13655,6 +14148,7 @@
       <c r="F469" s="6" t="n"/>
       <c r="G469" s="6" t="n"/>
       <c r="H469" s="6" t="n"/>
+      <c r="I469" s="6" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="6" t="n"/>
@@ -13665,6 +14159,7 @@
       <c r="F470" s="6" t="n"/>
       <c r="G470" s="6" t="n"/>
       <c r="H470" s="6" t="n"/>
+      <c r="I470" s="6" t="n"/>
     </row>
     <row r="471">
       <c r="A471" s="6" t="n"/>
@@ -13675,6 +14170,7 @@
       <c r="F471" s="6" t="n"/>
       <c r="G471" s="6" t="n"/>
       <c r="H471" s="6" t="n"/>
+      <c r="I471" s="6" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="6" t="n"/>
@@ -13685,6 +14181,7 @@
       <c r="F472" s="6" t="n"/>
       <c r="G472" s="6" t="n"/>
       <c r="H472" s="6" t="n"/>
+      <c r="I472" s="6" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="6" t="n"/>
@@ -13695,6 +14192,7 @@
       <c r="F473" s="6" t="n"/>
       <c r="G473" s="6" t="n"/>
       <c r="H473" s="6" t="n"/>
+      <c r="I473" s="6" t="n"/>
     </row>
     <row r="474">
       <c r="A474" s="6" t="n"/>
@@ -13705,6 +14203,7 @@
       <c r="F474" s="6" t="n"/>
       <c r="G474" s="6" t="n"/>
       <c r="H474" s="6" t="n"/>
+      <c r="I474" s="6" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="6" t="n"/>
@@ -13715,6 +14214,7 @@
       <c r="F475" s="6" t="n"/>
       <c r="G475" s="6" t="n"/>
       <c r="H475" s="6" t="n"/>
+      <c r="I475" s="6" t="n"/>
     </row>
     <row r="476">
       <c r="A476" s="6" t="n"/>
@@ -13725,6 +14225,7 @@
       <c r="F476" s="6" t="n"/>
       <c r="G476" s="6" t="n"/>
       <c r="H476" s="6" t="n"/>
+      <c r="I476" s="6" t="n"/>
     </row>
     <row r="477">
       <c r="A477" s="6" t="n"/>
@@ -13735,6 +14236,7 @@
       <c r="F477" s="6" t="n"/>
       <c r="G477" s="6" t="n"/>
       <c r="H477" s="6" t="n"/>
+      <c r="I477" s="6" t="n"/>
     </row>
     <row r="478">
       <c r="A478" s="6" t="n"/>
@@ -13745,6 +14247,7 @@
       <c r="F478" s="6" t="n"/>
       <c r="G478" s="6" t="n"/>
       <c r="H478" s="6" t="n"/>
+      <c r="I478" s="6" t="n"/>
     </row>
     <row r="479">
       <c r="A479" s="6" t="n"/>
@@ -13755,6 +14258,7 @@
       <c r="F479" s="6" t="n"/>
       <c r="G479" s="6" t="n"/>
       <c r="H479" s="6" t="n"/>
+      <c r="I479" s="6" t="n"/>
     </row>
     <row r="480">
       <c r="A480" s="6" t="n"/>
@@ -13765,6 +14269,7 @@
       <c r="F480" s="6" t="n"/>
       <c r="G480" s="6" t="n"/>
       <c r="H480" s="6" t="n"/>
+      <c r="I480" s="6" t="n"/>
     </row>
     <row r="481">
       <c r="A481" s="6" t="n"/>
@@ -13775,6 +14280,7 @@
       <c r="F481" s="6" t="n"/>
       <c r="G481" s="6" t="n"/>
       <c r="H481" s="6" t="n"/>
+      <c r="I481" s="6" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="6" t="n"/>
@@ -13785,6 +14291,7 @@
       <c r="F482" s="6" t="n"/>
       <c r="G482" s="6" t="n"/>
       <c r="H482" s="6" t="n"/>
+      <c r="I482" s="6" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="6" t="n"/>
@@ -13795,6 +14302,7 @@
       <c r="F483" s="6" t="n"/>
       <c r="G483" s="6" t="n"/>
       <c r="H483" s="6" t="n"/>
+      <c r="I483" s="6" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="6" t="n"/>
@@ -13805,6 +14313,7 @@
       <c r="F484" s="6" t="n"/>
       <c r="G484" s="6" t="n"/>
       <c r="H484" s="6" t="n"/>
+      <c r="I484" s="6" t="n"/>
     </row>
     <row r="485">
       <c r="A485" s="6" t="n"/>
@@ -13815,6 +14324,7 @@
       <c r="F485" s="6" t="n"/>
       <c r="G485" s="6" t="n"/>
       <c r="H485" s="6" t="n"/>
+      <c r="I485" s="6" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="6" t="n"/>
@@ -13825,6 +14335,7 @@
       <c r="F486" s="6" t="n"/>
       <c r="G486" s="6" t="n"/>
       <c r="H486" s="6" t="n"/>
+      <c r="I486" s="6" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="6" t="n"/>
@@ -13835,6 +14346,7 @@
       <c r="F487" s="6" t="n"/>
       <c r="G487" s="6" t="n"/>
       <c r="H487" s="6" t="n"/>
+      <c r="I487" s="6" t="n"/>
     </row>
     <row r="488">
       <c r="A488" s="6" t="n"/>
@@ -13845,6 +14357,7 @@
       <c r="F488" s="6" t="n"/>
       <c r="G488" s="6" t="n"/>
       <c r="H488" s="6" t="n"/>
+      <c r="I488" s="6" t="n"/>
     </row>
     <row r="489">
       <c r="A489" s="6" t="n"/>
@@ -13855,6 +14368,7 @@
       <c r="F489" s="6" t="n"/>
       <c r="G489" s="6" t="n"/>
       <c r="H489" s="6" t="n"/>
+      <c r="I489" s="6" t="n"/>
     </row>
     <row r="490">
       <c r="A490" s="6" t="n"/>
@@ -13865,6 +14379,7 @@
       <c r="F490" s="6" t="n"/>
       <c r="G490" s="6" t="n"/>
       <c r="H490" s="6" t="n"/>
+      <c r="I490" s="6" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="6" t="n"/>
@@ -13875,6 +14390,7 @@
       <c r="F491" s="6" t="n"/>
       <c r="G491" s="6" t="n"/>
       <c r="H491" s="6" t="n"/>
+      <c r="I491" s="6" t="n"/>
     </row>
     <row r="492">
       <c r="A492" s="6" t="n"/>
@@ -13885,6 +14401,7 @@
       <c r="F492" s="6" t="n"/>
       <c r="G492" s="6" t="n"/>
       <c r="H492" s="6" t="n"/>
+      <c r="I492" s="6" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="6" t="n"/>
@@ -13895,6 +14412,7 @@
       <c r="F493" s="6" t="n"/>
       <c r="G493" s="6" t="n"/>
       <c r="H493" s="6" t="n"/>
+      <c r="I493" s="6" t="n"/>
     </row>
     <row r="494">
       <c r="A494" s="6" t="n"/>
@@ -13905,6 +14423,7 @@
       <c r="F494" s="6" t="n"/>
       <c r="G494" s="6" t="n"/>
       <c r="H494" s="6" t="n"/>
+      <c r="I494" s="6" t="n"/>
     </row>
     <row r="495">
       <c r="A495" s="6" t="n"/>
@@ -13915,6 +14434,7 @@
       <c r="F495" s="6" t="n"/>
       <c r="G495" s="6" t="n"/>
       <c r="H495" s="6" t="n"/>
+      <c r="I495" s="6" t="n"/>
     </row>
     <row r="496">
       <c r="A496" s="6" t="n"/>
@@ -13925,6 +14445,7 @@
       <c r="F496" s="6" t="n"/>
       <c r="G496" s="6" t="n"/>
       <c r="H496" s="6" t="n"/>
+      <c r="I496" s="6" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="6" t="n"/>
@@ -13935,6 +14456,7 @@
       <c r="F497" s="6" t="n"/>
       <c r="G497" s="6" t="n"/>
       <c r="H497" s="6" t="n"/>
+      <c r="I497" s="6" t="n"/>
     </row>
     <row r="498">
       <c r="A498" s="6" t="n"/>
@@ -13945,6 +14467,7 @@
       <c r="F498" s="6" t="n"/>
       <c r="G498" s="6" t="n"/>
       <c r="H498" s="6" t="n"/>
+      <c r="I498" s="6" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="6" t="n"/>
@@ -13955,6 +14478,7 @@
       <c r="F499" s="6" t="n"/>
       <c r="G499" s="6" t="n"/>
       <c r="H499" s="6" t="n"/>
+      <c r="I499" s="6" t="n"/>
     </row>
     <row r="500">
       <c r="A500" s="6" t="n"/>
@@ -13965,6 +14489,7 @@
       <c r="F500" s="6" t="n"/>
       <c r="G500" s="6" t="n"/>
       <c r="H500" s="6" t="n"/>
+      <c r="I500" s="6" t="n"/>
     </row>
     <row r="501">
       <c r="A501" s="6" t="n"/>
@@ -13975,6 +14500,7 @@
       <c r="F501" s="6" t="n"/>
       <c r="G501" s="6" t="n"/>
       <c r="H501" s="6" t="n"/>
+      <c r="I501" s="6" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="6" t="n"/>
@@ -13985,6 +14511,7 @@
       <c r="F502" s="6" t="n"/>
       <c r="G502" s="6" t="n"/>
       <c r="H502" s="6" t="n"/>
+      <c r="I502" s="6" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="6" t="n"/>
@@ -13995,6 +14522,7 @@
       <c r="F503" s="6" t="n"/>
       <c r="G503" s="6" t="n"/>
       <c r="H503" s="6" t="n"/>
+      <c r="I503" s="6" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="6" t="n"/>
@@ -14005,6 +14533,7 @@
       <c r="F504" s="6" t="n"/>
       <c r="G504" s="6" t="n"/>
       <c r="H504" s="6" t="n"/>
+      <c r="I504" s="6" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="6" t="n"/>
@@ -14015,6 +14544,7 @@
       <c r="F505" s="6" t="n"/>
       <c r="G505" s="6" t="n"/>
       <c r="H505" s="6" t="n"/>
+      <c r="I505" s="6" t="n"/>
     </row>
     <row r="506">
       <c r="A506" s="6" t="n"/>
@@ -14025,6 +14555,7 @@
       <c r="F506" s="6" t="n"/>
       <c r="G506" s="6" t="n"/>
       <c r="H506" s="6" t="n"/>
+      <c r="I506" s="6" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="6" t="n"/>
@@ -14035,6 +14566,7 @@
       <c r="F507" s="6" t="n"/>
       <c r="G507" s="6" t="n"/>
       <c r="H507" s="6" t="n"/>
+      <c r="I507" s="6" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="6" t="n"/>
@@ -14045,6 +14577,7 @@
       <c r="F508" s="6" t="n"/>
       <c r="G508" s="6" t="n"/>
       <c r="H508" s="6" t="n"/>
+      <c r="I508" s="6" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="6" t="n"/>
@@ -14055,6 +14588,7 @@
       <c r="F509" s="6" t="n"/>
       <c r="G509" s="6" t="n"/>
       <c r="H509" s="6" t="n"/>
+      <c r="I509" s="6" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="6" t="n"/>
@@ -14065,6 +14599,7 @@
       <c r="F510" s="6" t="n"/>
       <c r="G510" s="6" t="n"/>
       <c r="H510" s="6" t="n"/>
+      <c r="I510" s="6" t="n"/>
     </row>
     <row r="511">
       <c r="A511" s="6" t="n"/>
@@ -14075,6 +14610,7 @@
       <c r="F511" s="6" t="n"/>
       <c r="G511" s="6" t="n"/>
       <c r="H511" s="6" t="n"/>
+      <c r="I511" s="6" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="6" t="n"/>
@@ -14085,6 +14621,7 @@
       <c r="F512" s="6" t="n"/>
       <c r="G512" s="6" t="n"/>
       <c r="H512" s="6" t="n"/>
+      <c r="I512" s="6" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="6" t="n"/>
@@ -14095,6 +14632,7 @@
       <c r="F513" s="6" t="n"/>
       <c r="G513" s="6" t="n"/>
       <c r="H513" s="6" t="n"/>
+      <c r="I513" s="6" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="6" t="n"/>
@@ -14105,6 +14643,7 @@
       <c r="F514" s="6" t="n"/>
       <c r="G514" s="6" t="n"/>
       <c r="H514" s="6" t="n"/>
+      <c r="I514" s="6" t="n"/>
     </row>
     <row r="515">
       <c r="A515" s="6" t="n"/>
@@ -14115,6 +14654,7 @@
       <c r="F515" s="6" t="n"/>
       <c r="G515" s="6" t="n"/>
       <c r="H515" s="6" t="n"/>
+      <c r="I515" s="6" t="n"/>
     </row>
     <row r="516">
       <c r="A516" s="6" t="n"/>
@@ -14125,6 +14665,7 @@
       <c r="F516" s="6" t="n"/>
       <c r="G516" s="6" t="n"/>
       <c r="H516" s="6" t="n"/>
+      <c r="I516" s="6" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="6" t="n"/>
@@ -14135,6 +14676,7 @@
       <c r="F517" s="6" t="n"/>
       <c r="G517" s="6" t="n"/>
       <c r="H517" s="6" t="n"/>
+      <c r="I517" s="6" t="n"/>
     </row>
     <row r="518">
       <c r="A518" s="6" t="n"/>
@@ -14145,6 +14687,7 @@
       <c r="F518" s="6" t="n"/>
       <c r="G518" s="6" t="n"/>
       <c r="H518" s="6" t="n"/>
+      <c r="I518" s="6" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="6" t="n"/>
@@ -14155,6 +14698,7 @@
       <c r="F519" s="6" t="n"/>
       <c r="G519" s="6" t="n"/>
       <c r="H519" s="6" t="n"/>
+      <c r="I519" s="6" t="n"/>
     </row>
     <row r="520">
       <c r="A520" s="6" t="n"/>
@@ -14165,6 +14709,7 @@
       <c r="F520" s="6" t="n"/>
       <c r="G520" s="6" t="n"/>
       <c r="H520" s="6" t="n"/>
+      <c r="I520" s="6" t="n"/>
     </row>
     <row r="521">
       <c r="A521" s="6" t="n"/>
@@ -14175,6 +14720,7 @@
       <c r="F521" s="6" t="n"/>
       <c r="G521" s="6" t="n"/>
       <c r="H521" s="6" t="n"/>
+      <c r="I521" s="6" t="n"/>
     </row>
     <row r="522">
       <c r="A522" s="6" t="n"/>
@@ -14185,6 +14731,7 @@
       <c r="F522" s="6" t="n"/>
       <c r="G522" s="6" t="n"/>
       <c r="H522" s="6" t="n"/>
+      <c r="I522" s="6" t="n"/>
     </row>
     <row r="523">
       <c r="A523" s="6" t="n"/>
@@ -14195,6 +14742,7 @@
       <c r="F523" s="6" t="n"/>
       <c r="G523" s="6" t="n"/>
       <c r="H523" s="6" t="n"/>
+      <c r="I523" s="6" t="n"/>
     </row>
     <row r="524">
       <c r="A524" s="6" t="n"/>
@@ -14205,6 +14753,7 @@
       <c r="F524" s="6" t="n"/>
       <c r="G524" s="6" t="n"/>
       <c r="H524" s="6" t="n"/>
+      <c r="I524" s="6" t="n"/>
     </row>
     <row r="525">
       <c r="A525" s="6" t="n"/>
@@ -14215,6 +14764,7 @@
       <c r="F525" s="6" t="n"/>
       <c r="G525" s="6" t="n"/>
       <c r="H525" s="6" t="n"/>
+      <c r="I525" s="6" t="n"/>
     </row>
     <row r="526">
       <c r="A526" s="6" t="n"/>
@@ -14225,6 +14775,7 @@
       <c r="F526" s="6" t="n"/>
       <c r="G526" s="6" t="n"/>
       <c r="H526" s="6" t="n"/>
+      <c r="I526" s="6" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="6" t="n"/>
@@ -14235,6 +14786,7 @@
       <c r="F527" s="6" t="n"/>
       <c r="G527" s="6" t="n"/>
       <c r="H527" s="6" t="n"/>
+      <c r="I527" s="6" t="n"/>
     </row>
     <row r="528">
       <c r="A528" s="6" t="n"/>
@@ -14245,6 +14797,7 @@
       <c r="F528" s="6" t="n"/>
       <c r="G528" s="6" t="n"/>
       <c r="H528" s="6" t="n"/>
+      <c r="I528" s="6" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="6" t="n"/>
@@ -14255,6 +14808,7 @@
       <c r="F529" s="6" t="n"/>
       <c r="G529" s="6" t="n"/>
       <c r="H529" s="6" t="n"/>
+      <c r="I529" s="6" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="6" t="n"/>
@@ -14265,6 +14819,7 @@
       <c r="F530" s="6" t="n"/>
       <c r="G530" s="6" t="n"/>
       <c r="H530" s="6" t="n"/>
+      <c r="I530" s="6" t="n"/>
     </row>
     <row r="531">
       <c r="A531" s="6" t="n"/>
@@ -14275,6 +14830,7 @@
       <c r="F531" s="6" t="n"/>
       <c r="G531" s="6" t="n"/>
       <c r="H531" s="6" t="n"/>
+      <c r="I531" s="6" t="n"/>
     </row>
     <row r="532">
       <c r="A532" s="6" t="n"/>
@@ -14285,6 +14841,7 @@
       <c r="F532" s="6" t="n"/>
       <c r="G532" s="6" t="n"/>
       <c r="H532" s="6" t="n"/>
+      <c r="I532" s="6" t="n"/>
     </row>
     <row r="533">
       <c r="A533" s="6" t="n"/>
@@ -14295,6 +14852,7 @@
       <c r="F533" s="6" t="n"/>
       <c r="G533" s="6" t="n"/>
       <c r="H533" s="6" t="n"/>
+      <c r="I533" s="6" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="6" t="n"/>
@@ -14305,6 +14863,7 @@
       <c r="F534" s="6" t="n"/>
       <c r="G534" s="6" t="n"/>
       <c r="H534" s="6" t="n"/>
+      <c r="I534" s="6" t="n"/>
     </row>
     <row r="535">
       <c r="A535" s="6" t="n"/>
@@ -14315,6 +14874,7 @@
       <c r="F535" s="6" t="n"/>
       <c r="G535" s="6" t="n"/>
       <c r="H535" s="6" t="n"/>
+      <c r="I535" s="6" t="n"/>
     </row>
     <row r="536">
       <c r="A536" s="6" t="n"/>
@@ -14325,6 +14885,7 @@
       <c r="F536" s="6" t="n"/>
       <c r="G536" s="6" t="n"/>
       <c r="H536" s="6" t="n"/>
+      <c r="I536" s="6" t="n"/>
     </row>
     <row r="537">
       <c r="A537" s="6" t="n"/>
@@ -14335,6 +14896,7 @@
       <c r="F537" s="6" t="n"/>
       <c r="G537" s="6" t="n"/>
       <c r="H537" s="6" t="n"/>
+      <c r="I537" s="6" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="6" t="n"/>
@@ -14345,6 +14907,7 @@
       <c r="F538" s="6" t="n"/>
       <c r="G538" s="6" t="n"/>
       <c r="H538" s="6" t="n"/>
+      <c r="I538" s="6" t="n"/>
     </row>
     <row r="539">
       <c r="A539" s="6" t="n"/>
@@ -14355,6 +14918,7 @@
       <c r="F539" s="6" t="n"/>
       <c r="G539" s="6" t="n"/>
       <c r="H539" s="6" t="n"/>
+      <c r="I539" s="6" t="n"/>
     </row>
     <row r="540">
       <c r="A540" s="6" t="n"/>
@@ -14365,6 +14929,7 @@
       <c r="F540" s="6" t="n"/>
       <c r="G540" s="6" t="n"/>
       <c r="H540" s="6" t="n"/>
+      <c r="I540" s="6" t="n"/>
     </row>
     <row r="541">
       <c r="A541" s="6" t="n"/>
@@ -14375,6 +14940,7 @@
       <c r="F541" s="6" t="n"/>
       <c r="G541" s="6" t="n"/>
       <c r="H541" s="6" t="n"/>
+      <c r="I541" s="6" t="n"/>
     </row>
     <row r="542">
       <c r="A542" s="6" t="n"/>
@@ -14385,6 +14951,7 @@
       <c r="F542" s="6" t="n"/>
       <c r="G542" s="6" t="n"/>
       <c r="H542" s="6" t="n"/>
+      <c r="I542" s="6" t="n"/>
     </row>
     <row r="543">
       <c r="A543" s="6" t="n"/>
@@ -14395,6 +14962,7 @@
       <c r="F543" s="6" t="n"/>
       <c r="G543" s="6" t="n"/>
       <c r="H543" s="6" t="n"/>
+      <c r="I543" s="6" t="n"/>
     </row>
     <row r="544">
       <c r="A544" s="6" t="n"/>
@@ -14405,6 +14973,7 @@
       <c r="F544" s="6" t="n"/>
       <c r="G544" s="6" t="n"/>
       <c r="H544" s="6" t="n"/>
+      <c r="I544" s="6" t="n"/>
     </row>
     <row r="545">
       <c r="A545" s="6" t="n"/>
@@ -14415,6 +14984,7 @@
       <c r="F545" s="6" t="n"/>
       <c r="G545" s="6" t="n"/>
       <c r="H545" s="6" t="n"/>
+      <c r="I545" s="6" t="n"/>
     </row>
     <row r="546">
       <c r="A546" s="6" t="n"/>
@@ -14425,6 +14995,7 @@
       <c r="F546" s="6" t="n"/>
       <c r="G546" s="6" t="n"/>
       <c r="H546" s="6" t="n"/>
+      <c r="I546" s="6" t="n"/>
     </row>
     <row r="547">
       <c r="A547" s="6" t="n"/>
@@ -14435,6 +15006,7 @@
       <c r="F547" s="6" t="n"/>
       <c r="G547" s="6" t="n"/>
       <c r="H547" s="6" t="n"/>
+      <c r="I547" s="6" t="n"/>
     </row>
     <row r="548">
       <c r="A548" s="6" t="n"/>
@@ -14445,6 +15017,7 @@
       <c r="F548" s="6" t="n"/>
       <c r="G548" s="6" t="n"/>
       <c r="H548" s="6" t="n"/>
+      <c r="I548" s="6" t="n"/>
     </row>
     <row r="549">
       <c r="A549" s="6" t="n"/>
@@ -14455,6 +15028,7 @@
       <c r="F549" s="6" t="n"/>
       <c r="G549" s="6" t="n"/>
       <c r="H549" s="6" t="n"/>
+      <c r="I549" s="6" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="6" t="n"/>
@@ -14465,6 +15039,7 @@
       <c r="F550" s="6" t="n"/>
       <c r="G550" s="6" t="n"/>
       <c r="H550" s="6" t="n"/>
+      <c r="I550" s="6" t="n"/>
     </row>
     <row r="551">
       <c r="A551" s="6" t="n"/>
@@ -14475,6 +15050,7 @@
       <c r="F551" s="6" t="n"/>
       <c r="G551" s="6" t="n"/>
       <c r="H551" s="6" t="n"/>
+      <c r="I551" s="6" t="n"/>
     </row>
     <row r="552">
       <c r="A552" s="6" t="n"/>
@@ -14485,6 +15061,7 @@
       <c r="F552" s="6" t="n"/>
       <c r="G552" s="6" t="n"/>
       <c r="H552" s="6" t="n"/>
+      <c r="I552" s="6" t="n"/>
     </row>
     <row r="553">
       <c r="A553" s="6" t="n"/>
@@ -14495,6 +15072,7 @@
       <c r="F553" s="6" t="n"/>
       <c r="G553" s="6" t="n"/>
       <c r="H553" s="6" t="n"/>
+      <c r="I553" s="6" t="n"/>
     </row>
     <row r="554">
       <c r="A554" s="6" t="n"/>
@@ -14505,6 +15083,7 @@
       <c r="F554" s="6" t="n"/>
       <c r="G554" s="6" t="n"/>
       <c r="H554" s="6" t="n"/>
+      <c r="I554" s="6" t="n"/>
     </row>
     <row r="555">
       <c r="A555" s="6" t="n"/>
@@ -14515,6 +15094,7 @@
       <c r="F555" s="6" t="n"/>
       <c r="G555" s="6" t="n"/>
       <c r="H555" s="6" t="n"/>
+      <c r="I555" s="6" t="n"/>
     </row>
     <row r="556">
       <c r="A556" s="6" t="n"/>
@@ -14525,6 +15105,7 @@
       <c r="F556" s="6" t="n"/>
       <c r="G556" s="6" t="n"/>
       <c r="H556" s="6" t="n"/>
+      <c r="I556" s="6" t="n"/>
     </row>
     <row r="557">
       <c r="A557" s="6" t="n"/>
@@ -14535,6 +15116,7 @@
       <c r="F557" s="6" t="n"/>
       <c r="G557" s="6" t="n"/>
       <c r="H557" s="6" t="n"/>
+      <c r="I557" s="6" t="n"/>
     </row>
     <row r="558">
       <c r="A558" s="6" t="n"/>
@@ -14545,6 +15127,7 @@
       <c r="F558" s="6" t="n"/>
       <c r="G558" s="6" t="n"/>
       <c r="H558" s="6" t="n"/>
+      <c r="I558" s="6" t="n"/>
     </row>
     <row r="559">
       <c r="A559" s="6" t="n"/>
@@ -14555,6 +15138,7 @@
       <c r="F559" s="6" t="n"/>
       <c r="G559" s="6" t="n"/>
       <c r="H559" s="6" t="n"/>
+      <c r="I559" s="6" t="n"/>
     </row>
     <row r="560">
       <c r="A560" s="6" t="n"/>
@@ -14565,6 +15149,7 @@
       <c r="F560" s="6" t="n"/>
       <c r="G560" s="6" t="n"/>
       <c r="H560" s="6" t="n"/>
+      <c r="I560" s="6" t="n"/>
     </row>
     <row r="561">
       <c r="A561" s="6" t="n"/>
@@ -14575,6 +15160,7 @@
       <c r="F561" s="6" t="n"/>
       <c r="G561" s="6" t="n"/>
       <c r="H561" s="6" t="n"/>
+      <c r="I561" s="6" t="n"/>
     </row>
     <row r="562">
       <c r="A562" s="6" t="n"/>
@@ -14585,6 +15171,7 @@
       <c r="F562" s="6" t="n"/>
       <c r="G562" s="6" t="n"/>
       <c r="H562" s="6" t="n"/>
+      <c r="I562" s="6" t="n"/>
     </row>
     <row r="563">
       <c r="A563" s="6" t="n"/>
@@ -14595,6 +15182,7 @@
       <c r="F563" s="6" t="n"/>
       <c r="G563" s="6" t="n"/>
       <c r="H563" s="6" t="n"/>
+      <c r="I563" s="6" t="n"/>
     </row>
     <row r="564">
       <c r="A564" s="6" t="n"/>
@@ -14605,6 +15193,7 @@
       <c r="F564" s="6" t="n"/>
       <c r="G564" s="6" t="n"/>
       <c r="H564" s="6" t="n"/>
+      <c r="I564" s="6" t="n"/>
     </row>
     <row r="565">
       <c r="A565" s="6" t="n"/>
@@ -14615,6 +15204,7 @@
       <c r="F565" s="6" t="n"/>
       <c r="G565" s="6" t="n"/>
       <c r="H565" s="6" t="n"/>
+      <c r="I565" s="6" t="n"/>
     </row>
     <row r="566">
       <c r="A566" s="6" t="n"/>
@@ -14625,6 +15215,7 @@
       <c r="F566" s="6" t="n"/>
       <c r="G566" s="6" t="n"/>
       <c r="H566" s="6" t="n"/>
+      <c r="I566" s="6" t="n"/>
     </row>
     <row r="567">
       <c r="A567" s="6" t="n"/>
@@ -14635,6 +15226,7 @@
       <c r="F567" s="6" t="n"/>
       <c r="G567" s="6" t="n"/>
       <c r="H567" s="6" t="n"/>
+      <c r="I567" s="6" t="n"/>
     </row>
     <row r="568">
       <c r="A568" s="6" t="n"/>
@@ -14645,6 +15237,7 @@
       <c r="F568" s="6" t="n"/>
       <c r="G568" s="6" t="n"/>
       <c r="H568" s="6" t="n"/>
+      <c r="I568" s="6" t="n"/>
     </row>
     <row r="569">
       <c r="A569" s="6" t="n"/>
@@ -14655,6 +15248,7 @@
       <c r="F569" s="6" t="n"/>
       <c r="G569" s="6" t="n"/>
       <c r="H569" s="6" t="n"/>
+      <c r="I569" s="6" t="n"/>
     </row>
     <row r="570">
       <c r="A570" s="6" t="n"/>
@@ -14665,6 +15259,7 @@
       <c r="F570" s="6" t="n"/>
       <c r="G570" s="6" t="n"/>
       <c r="H570" s="6" t="n"/>
+      <c r="I570" s="6" t="n"/>
     </row>
     <row r="571">
       <c r="A571" s="6" t="n"/>
@@ -14675,6 +15270,7 @@
       <c r="F571" s="6" t="n"/>
       <c r="G571" s="6" t="n"/>
       <c r="H571" s="6" t="n"/>
+      <c r="I571" s="6" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="6" t="n"/>
@@ -14685,6 +15281,7 @@
       <c r="F572" s="6" t="n"/>
       <c r="G572" s="6" t="n"/>
       <c r="H572" s="6" t="n"/>
+      <c r="I572" s="6" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="6" t="n"/>
@@ -14695,6 +15292,7 @@
       <c r="F573" s="6" t="n"/>
       <c r="G573" s="6" t="n"/>
       <c r="H573" s="6" t="n"/>
+      <c r="I573" s="6" t="n"/>
     </row>
     <row r="574">
       <c r="A574" s="6" t="n"/>
@@ -14705,6 +15303,7 @@
       <c r="F574" s="6" t="n"/>
       <c r="G574" s="6" t="n"/>
       <c r="H574" s="6" t="n"/>
+      <c r="I574" s="6" t="n"/>
     </row>
     <row r="575">
       <c r="A575" s="6" t="n"/>
@@ -14715,6 +15314,7 @@
       <c r="F575" s="6" t="n"/>
       <c r="G575" s="6" t="n"/>
       <c r="H575" s="6" t="n"/>
+      <c r="I575" s="6" t="n"/>
     </row>
     <row r="576">
       <c r="A576" s="6" t="n"/>
@@ -14725,6 +15325,7 @@
       <c r="F576" s="6" t="n"/>
       <c r="G576" s="6" t="n"/>
       <c r="H576" s="6" t="n"/>
+      <c r="I576" s="6" t="n"/>
     </row>
     <row r="577">
       <c r="A577" s="6" t="n"/>
@@ -14735,6 +15336,7 @@
       <c r="F577" s="6" t="n"/>
       <c r="G577" s="6" t="n"/>
       <c r="H577" s="6" t="n"/>
+      <c r="I577" s="6" t="n"/>
     </row>
     <row r="578">
       <c r="A578" s="6" t="n"/>
@@ -14745,6 +15347,7 @@
       <c r="F578" s="6" t="n"/>
       <c r="G578" s="6" t="n"/>
       <c r="H578" s="6" t="n"/>
+      <c r="I578" s="6" t="n"/>
     </row>
     <row r="579">
       <c r="A579" s="6" t="n"/>
@@ -14755,6 +15358,7 @@
       <c r="F579" s="6" t="n"/>
       <c r="G579" s="6" t="n"/>
       <c r="H579" s="6" t="n"/>
+      <c r="I579" s="6" t="n"/>
     </row>
     <row r="580">
       <c r="A580" s="6" t="n"/>
@@ -14765,6 +15369,7 @@
       <c r="F580" s="6" t="n"/>
       <c r="G580" s="6" t="n"/>
       <c r="H580" s="6" t="n"/>
+      <c r="I580" s="6" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="6" t="n"/>
@@ -14775,6 +15380,7 @@
       <c r="F581" s="6" t="n"/>
       <c r="G581" s="6" t="n"/>
       <c r="H581" s="6" t="n"/>
+      <c r="I581" s="6" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="6" t="n"/>
@@ -14785,6 +15391,7 @@
       <c r="F582" s="6" t="n"/>
       <c r="G582" s="6" t="n"/>
       <c r="H582" s="6" t="n"/>
+      <c r="I582" s="6" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="6" t="n"/>
@@ -14795,6 +15402,7 @@
       <c r="F583" s="6" t="n"/>
       <c r="G583" s="6" t="n"/>
       <c r="H583" s="6" t="n"/>
+      <c r="I583" s="6" t="n"/>
     </row>
     <row r="584">
       <c r="A584" s="6" t="n"/>
@@ -14805,6 +15413,7 @@
       <c r="F584" s="6" t="n"/>
       <c r="G584" s="6" t="n"/>
       <c r="H584" s="6" t="n"/>
+      <c r="I584" s="6" t="n"/>
     </row>
     <row r="585">
       <c r="A585" s="6" t="n"/>
@@ -14815,6 +15424,7 @@
       <c r="F585" s="6" t="n"/>
       <c r="G585" s="6" t="n"/>
       <c r="H585" s="6" t="n"/>
+      <c r="I585" s="6" t="n"/>
     </row>
     <row r="586">
       <c r="A586" s="6" t="n"/>
@@ -14825,6 +15435,7 @@
       <c r="F586" s="6" t="n"/>
       <c r="G586" s="6" t="n"/>
       <c r="H586" s="6" t="n"/>
+      <c r="I586" s="6" t="n"/>
     </row>
     <row r="587">
       <c r="A587" s="6" t="n"/>
@@ -14835,6 +15446,7 @@
       <c r="F587" s="6" t="n"/>
       <c r="G587" s="6" t="n"/>
       <c r="H587" s="6" t="n"/>
+      <c r="I587" s="6" t="n"/>
     </row>
     <row r="588">
       <c r="A588" s="6" t="n"/>
@@ -14845,6 +15457,7 @@
       <c r="F588" s="6" t="n"/>
       <c r="G588" s="6" t="n"/>
       <c r="H588" s="6" t="n"/>
+      <c r="I588" s="6" t="n"/>
     </row>
     <row r="589">
       <c r="A589" s="6" t="n"/>
@@ -14855,6 +15468,7 @@
       <c r="F589" s="6" t="n"/>
       <c r="G589" s="6" t="n"/>
       <c r="H589" s="6" t="n"/>
+      <c r="I589" s="6" t="n"/>
     </row>
     <row r="590">
       <c r="A590" s="6" t="n"/>
@@ -14865,6 +15479,7 @@
       <c r="F590" s="6" t="n"/>
       <c r="G590" s="6" t="n"/>
       <c r="H590" s="6" t="n"/>
+      <c r="I590" s="6" t="n"/>
     </row>
     <row r="591">
       <c r="A591" s="6" t="n"/>
@@ -14875,6 +15490,7 @@
       <c r="F591" s="6" t="n"/>
       <c r="G591" s="6" t="n"/>
       <c r="H591" s="6" t="n"/>
+      <c r="I591" s="6" t="n"/>
     </row>
     <row r="592">
       <c r="A592" s="6" t="n"/>
@@ -14885,6 +15501,7 @@
       <c r="F592" s="6" t="n"/>
       <c r="G592" s="6" t="n"/>
       <c r="H592" s="6" t="n"/>
+      <c r="I592" s="6" t="n"/>
     </row>
     <row r="593">
       <c r="A593" s="6" t="n"/>
@@ -14895,6 +15512,7 @@
       <c r="F593" s="6" t="n"/>
       <c r="G593" s="6" t="n"/>
       <c r="H593" s="6" t="n"/>
+      <c r="I593" s="6" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="6" t="n"/>
@@ -14905,6 +15523,7 @@
       <c r="F594" s="6" t="n"/>
       <c r="G594" s="6" t="n"/>
       <c r="H594" s="6" t="n"/>
+      <c r="I594" s="6" t="n"/>
     </row>
     <row r="595">
       <c r="A595" s="6" t="n"/>
@@ -14915,6 +15534,7 @@
       <c r="F595" s="6" t="n"/>
       <c r="G595" s="6" t="n"/>
       <c r="H595" s="6" t="n"/>
+      <c r="I595" s="6" t="n"/>
     </row>
     <row r="596">
       <c r="A596" s="6" t="n"/>
@@ -14925,6 +15545,7 @@
       <c r="F596" s="6" t="n"/>
       <c r="G596" s="6" t="n"/>
       <c r="H596" s="6" t="n"/>
+      <c r="I596" s="6" t="n"/>
     </row>
     <row r="597">
       <c r="A597" s="6" t="n"/>
@@ -14935,6 +15556,7 @@
       <c r="F597" s="6" t="n"/>
       <c r="G597" s="6" t="n"/>
       <c r="H597" s="6" t="n"/>
+      <c r="I597" s="6" t="n"/>
     </row>
     <row r="598">
       <c r="A598" s="6" t="n"/>
@@ -14945,6 +15567,7 @@
       <c r="F598" s="6" t="n"/>
       <c r="G598" s="6" t="n"/>
       <c r="H598" s="6" t="n"/>
+      <c r="I598" s="6" t="n"/>
     </row>
     <row r="599">
       <c r="A599" s="6" t="n"/>
@@ -14955,6 +15578,7 @@
       <c r="F599" s="6" t="n"/>
       <c r="G599" s="6" t="n"/>
       <c r="H599" s="6" t="n"/>
+      <c r="I599" s="6" t="n"/>
     </row>
     <row r="600">
       <c r="A600" s="6" t="n"/>
@@ -14965,6 +15589,7 @@
       <c r="F600" s="6" t="n"/>
       <c r="G600" s="6" t="n"/>
       <c r="H600" s="6" t="n"/>
+      <c r="I600" s="6" t="n"/>
     </row>
     <row r="601">
       <c r="A601" s="6" t="n"/>
@@ -14975,6 +15600,7 @@
       <c r="F601" s="6" t="n"/>
       <c r="G601" s="6" t="n"/>
       <c r="H601" s="6" t="n"/>
+      <c r="I601" s="6" t="n"/>
     </row>
     <row r="602">
       <c r="A602" s="6" t="n"/>
@@ -14985,6 +15611,7 @@
       <c r="F602" s="6" t="n"/>
       <c r="G602" s="6" t="n"/>
       <c r="H602" s="6" t="n"/>
+      <c r="I602" s="6" t="n"/>
     </row>
     <row r="603">
       <c r="A603" s="6" t="n"/>
@@ -14995,6 +15622,7 @@
       <c r="F603" s="6" t="n"/>
       <c r="G603" s="6" t="n"/>
       <c r="H603" s="6" t="n"/>
+      <c r="I603" s="6" t="n"/>
     </row>
     <row r="604">
       <c r="A604" s="6" t="n"/>
@@ -15005,6 +15633,7 @@
       <c r="F604" s="6" t="n"/>
       <c r="G604" s="6" t="n"/>
       <c r="H604" s="6" t="n"/>
+      <c r="I604" s="6" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="6" t="n"/>
@@ -15015,6 +15644,7 @@
       <c r="F605" s="6" t="n"/>
       <c r="G605" s="6" t="n"/>
       <c r="H605" s="6" t="n"/>
+      <c r="I605" s="6" t="n"/>
     </row>
     <row r="606">
       <c r="A606" s="6" t="n"/>
@@ -15025,6 +15655,7 @@
       <c r="F606" s="6" t="n"/>
       <c r="G606" s="6" t="n"/>
       <c r="H606" s="6" t="n"/>
+      <c r="I606" s="6" t="n"/>
     </row>
     <row r="607">
       <c r="A607" s="6" t="n"/>
@@ -15035,6 +15666,7 @@
       <c r="F607" s="6" t="n"/>
       <c r="G607" s="6" t="n"/>
       <c r="H607" s="6" t="n"/>
+      <c r="I607" s="6" t="n"/>
     </row>
     <row r="608">
       <c r="A608" s="6" t="n"/>
@@ -15045,6 +15677,7 @@
       <c r="F608" s="6" t="n"/>
       <c r="G608" s="6" t="n"/>
       <c r="H608" s="6" t="n"/>
+      <c r="I608" s="6" t="n"/>
     </row>
     <row r="609">
       <c r="A609" s="6" t="n"/>
@@ -15055,6 +15688,7 @@
       <c r="F609" s="6" t="n"/>
       <c r="G609" s="6" t="n"/>
       <c r="H609" s="6" t="n"/>
+      <c r="I609" s="6" t="n"/>
     </row>
     <row r="610">
       <c r="A610" s="6" t="n"/>
@@ -15065,6 +15699,7 @@
       <c r="F610" s="6" t="n"/>
       <c r="G610" s="6" t="n"/>
       <c r="H610" s="6" t="n"/>
+      <c r="I610" s="6" t="n"/>
     </row>
     <row r="611">
       <c r="A611" s="6" t="n"/>
@@ -15075,6 +15710,7 @@
       <c r="F611" s="6" t="n"/>
       <c r="G611" s="6" t="n"/>
       <c r="H611" s="6" t="n"/>
+      <c r="I611" s="6" t="n"/>
     </row>
     <row r="612">
       <c r="A612" s="6" t="n"/>
@@ -15085,6 +15721,7 @@
       <c r="F612" s="6" t="n"/>
       <c r="G612" s="6" t="n"/>
       <c r="H612" s="6" t="n"/>
+      <c r="I612" s="6" t="n"/>
     </row>
     <row r="613">
       <c r="A613" s="6" t="n"/>
@@ -15095,6 +15732,7 @@
       <c r="F613" s="6" t="n"/>
       <c r="G613" s="6" t="n"/>
       <c r="H613" s="6" t="n"/>
+      <c r="I613" s="6" t="n"/>
     </row>
     <row r="614">
       <c r="A614" s="6" t="n"/>
@@ -15105,6 +15743,7 @@
       <c r="F614" s="6" t="n"/>
       <c r="G614" s="6" t="n"/>
       <c r="H614" s="6" t="n"/>
+      <c r="I614" s="6" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="6" t="n"/>
@@ -15115,6 +15754,7 @@
       <c r="F615" s="6" t="n"/>
       <c r="G615" s="6" t="n"/>
       <c r="H615" s="6" t="n"/>
+      <c r="I615" s="6" t="n"/>
     </row>
     <row r="616">
       <c r="A616" s="6" t="n"/>
@@ -15125,6 +15765,7 @@
       <c r="F616" s="6" t="n"/>
       <c r="G616" s="6" t="n"/>
       <c r="H616" s="6" t="n"/>
+      <c r="I616" s="6" t="n"/>
     </row>
     <row r="617">
       <c r="A617" s="6" t="n"/>
@@ -15135,6 +15776,7 @@
       <c r="F617" s="6" t="n"/>
       <c r="G617" s="6" t="n"/>
       <c r="H617" s="6" t="n"/>
+      <c r="I617" s="6" t="n"/>
     </row>
     <row r="618">
       <c r="A618" s="6" t="n"/>
@@ -15145,6 +15787,7 @@
       <c r="F618" s="6" t="n"/>
       <c r="G618" s="6" t="n"/>
       <c r="H618" s="6" t="n"/>
+      <c r="I618" s="6" t="n"/>
     </row>
     <row r="619">
       <c r="A619" s="6" t="n"/>
@@ -15155,6 +15798,7 @@
       <c r="F619" s="6" t="n"/>
       <c r="G619" s="6" t="n"/>
       <c r="H619" s="6" t="n"/>
+      <c r="I619" s="6" t="n"/>
     </row>
     <row r="620">
       <c r="A620" s="6" t="n"/>
@@ -15165,6 +15809,7 @@
       <c r="F620" s="6" t="n"/>
       <c r="G620" s="6" t="n"/>
       <c r="H620" s="6" t="n"/>
+      <c r="I620" s="6" t="n"/>
     </row>
     <row r="621">
       <c r="A621" s="6" t="n"/>
@@ -15175,6 +15820,7 @@
       <c r="F621" s="6" t="n"/>
       <c r="G621" s="6" t="n"/>
       <c r="H621" s="6" t="n"/>
+      <c r="I621" s="6" t="n"/>
     </row>
     <row r="622">
       <c r="A622" s="6" t="n"/>
@@ -15185,6 +15831,7 @@
       <c r="F622" s="6" t="n"/>
       <c r="G622" s="6" t="n"/>
       <c r="H622" s="6" t="n"/>
+      <c r="I622" s="6" t="n"/>
     </row>
     <row r="623">
       <c r="A623" s="6" t="n"/>
@@ -15195,6 +15842,7 @@
       <c r="F623" s="6" t="n"/>
       <c r="G623" s="6" t="n"/>
       <c r="H623" s="6" t="n"/>
+      <c r="I623" s="6" t="n"/>
     </row>
     <row r="624">
       <c r="A624" s="6" t="n"/>
@@ -15205,6 +15853,7 @@
       <c r="F624" s="6" t="n"/>
       <c r="G624" s="6" t="n"/>
       <c r="H624" s="6" t="n"/>
+      <c r="I624" s="6" t="n"/>
     </row>
     <row r="625">
       <c r="A625" s="6" t="n"/>
@@ -15215,6 +15864,7 @@
       <c r="F625" s="6" t="n"/>
       <c r="G625" s="6" t="n"/>
       <c r="H625" s="6" t="n"/>
+      <c r="I625" s="6" t="n"/>
     </row>
     <row r="626">
       <c r="A626" s="6" t="n"/>
@@ -15225,6 +15875,7 @@
       <c r="F626" s="6" t="n"/>
       <c r="G626" s="6" t="n"/>
       <c r="H626" s="6" t="n"/>
+      <c r="I626" s="6" t="n"/>
     </row>
     <row r="627">
       <c r="A627" s="6" t="n"/>
@@ -15235,6 +15886,7 @@
       <c r="F627" s="6" t="n"/>
       <c r="G627" s="6" t="n"/>
       <c r="H627" s="6" t="n"/>
+      <c r="I627" s="6" t="n"/>
     </row>
     <row r="628">
       <c r="A628" s="6" t="n"/>
@@ -15245,6 +15897,7 @@
       <c r="F628" s="6" t="n"/>
       <c r="G628" s="6" t="n"/>
       <c r="H628" s="6" t="n"/>
+      <c r="I628" s="6" t="n"/>
     </row>
     <row r="629">
       <c r="A629" s="6" t="n"/>
@@ -15255,6 +15908,7 @@
       <c r="F629" s="6" t="n"/>
       <c r="G629" s="6" t="n"/>
       <c r="H629" s="6" t="n"/>
+      <c r="I629" s="6" t="n"/>
     </row>
     <row r="630">
       <c r="A630" s="6" t="n"/>
@@ -15265,6 +15919,7 @@
       <c r="F630" s="6" t="n"/>
       <c r="G630" s="6" t="n"/>
       <c r="H630" s="6" t="n"/>
+      <c r="I630" s="6" t="n"/>
     </row>
     <row r="631">
       <c r="A631" s="6" t="n"/>
@@ -15275,6 +15930,7 @@
       <c r="F631" s="6" t="n"/>
       <c r="G631" s="6" t="n"/>
       <c r="H631" s="6" t="n"/>
+      <c r="I631" s="6" t="n"/>
     </row>
     <row r="632">
       <c r="A632" s="6" t="n"/>
@@ -15285,6 +15941,7 @@
       <c r="F632" s="6" t="n"/>
       <c r="G632" s="6" t="n"/>
       <c r="H632" s="6" t="n"/>
+      <c r="I632" s="6" t="n"/>
     </row>
     <row r="633">
       <c r="A633" s="6" t="n"/>
@@ -15295,6 +15952,7 @@
       <c r="F633" s="6" t="n"/>
       <c r="G633" s="6" t="n"/>
       <c r="H633" s="6" t="n"/>
+      <c r="I633" s="6" t="n"/>
     </row>
     <row r="634">
       <c r="A634" s="6" t="n"/>
@@ -15305,6 +15963,7 @@
       <c r="F634" s="6" t="n"/>
       <c r="G634" s="6" t="n"/>
       <c r="H634" s="6" t="n"/>
+      <c r="I634" s="6" t="n"/>
     </row>
     <row r="635">
       <c r="A635" s="6" t="n"/>
@@ -15315,6 +15974,7 @@
       <c r="F635" s="6" t="n"/>
       <c r="G635" s="6" t="n"/>
       <c r="H635" s="6" t="n"/>
+      <c r="I635" s="6" t="n"/>
     </row>
     <row r="636">
       <c r="A636" s="6" t="n"/>
@@ -15325,6 +15985,7 @@
       <c r="F636" s="6" t="n"/>
       <c r="G636" s="6" t="n"/>
       <c r="H636" s="6" t="n"/>
+      <c r="I636" s="6" t="n"/>
     </row>
     <row r="637">
       <c r="A637" s="6" t="n"/>
@@ -15335,6 +15996,7 @@
       <c r="F637" s="6" t="n"/>
       <c r="G637" s="6" t="n"/>
       <c r="H637" s="6" t="n"/>
+      <c r="I637" s="6" t="n"/>
     </row>
     <row r="638">
       <c r="A638" s="6" t="n"/>
@@ -15345,6 +16007,7 @@
       <c r="F638" s="6" t="n"/>
       <c r="G638" s="6" t="n"/>
       <c r="H638" s="6" t="n"/>
+      <c r="I638" s="6" t="n"/>
     </row>
     <row r="639">
       <c r="A639" s="6" t="n"/>
@@ -15355,6 +16018,7 @@
       <c r="F639" s="6" t="n"/>
       <c r="G639" s="6" t="n"/>
       <c r="H639" s="6" t="n"/>
+      <c r="I639" s="6" t="n"/>
     </row>
     <row r="640">
       <c r="A640" s="6" t="n"/>
@@ -15365,6 +16029,7 @@
       <c r="F640" s="6" t="n"/>
       <c r="G640" s="6" t="n"/>
       <c r="H640" s="6" t="n"/>
+      <c r="I640" s="6" t="n"/>
     </row>
     <row r="641">
       <c r="A641" s="6" t="n"/>
@@ -15375,6 +16040,7 @@
       <c r="F641" s="6" t="n"/>
       <c r="G641" s="6" t="n"/>
       <c r="H641" s="6" t="n"/>
+      <c r="I641" s="6" t="n"/>
     </row>
     <row r="642">
       <c r="A642" s="6" t="n"/>
@@ -15385,6 +16051,7 @@
       <c r="F642" s="6" t="n"/>
       <c r="G642" s="6" t="n"/>
       <c r="H642" s="6" t="n"/>
+      <c r="I642" s="6" t="n"/>
     </row>
     <row r="643">
       <c r="A643" s="6" t="n"/>
@@ -15395,6 +16062,7 @@
       <c r="F643" s="6" t="n"/>
       <c r="G643" s="6" t="n"/>
       <c r="H643" s="6" t="n"/>
+      <c r="I643" s="6" t="n"/>
     </row>
     <row r="644">
       <c r="A644" s="6" t="n"/>
@@ -15405,6 +16073,7 @@
       <c r="F644" s="6" t="n"/>
       <c r="G644" s="6" t="n"/>
       <c r="H644" s="6" t="n"/>
+      <c r="I644" s="6" t="n"/>
     </row>
     <row r="645">
       <c r="A645" s="6" t="n"/>
@@ -15415,6 +16084,7 @@
       <c r="F645" s="6" t="n"/>
       <c r="G645" s="6" t="n"/>
       <c r="H645" s="6" t="n"/>
+      <c r="I645" s="6" t="n"/>
     </row>
     <row r="646">
       <c r="A646" s="6" t="n"/>
@@ -15425,6 +16095,7 @@
       <c r="F646" s="6" t="n"/>
       <c r="G646" s="6" t="n"/>
       <c r="H646" s="6" t="n"/>
+      <c r="I646" s="6" t="n"/>
     </row>
     <row r="647">
       <c r="A647" s="6" t="n"/>
@@ -15435,6 +16106,7 @@
       <c r="F647" s="6" t="n"/>
       <c r="G647" s="6" t="n"/>
       <c r="H647" s="6" t="n"/>
+      <c r="I647" s="6" t="n"/>
     </row>
     <row r="648">
       <c r="A648" s="6" t="n"/>
@@ -15445,6 +16117,7 @@
       <c r="F648" s="6" t="n"/>
       <c r="G648" s="6" t="n"/>
       <c r="H648" s="6" t="n"/>
+      <c r="I648" s="6" t="n"/>
     </row>
     <row r="649">
       <c r="A649" s="6" t="n"/>
@@ -15455,6 +16128,7 @@
       <c r="F649" s="6" t="n"/>
       <c r="G649" s="6" t="n"/>
       <c r="H649" s="6" t="n"/>
+      <c r="I649" s="6" t="n"/>
     </row>
     <row r="650">
       <c r="A650" s="6" t="n"/>
@@ -15465,6 +16139,7 @@
       <c r="F650" s="6" t="n"/>
       <c r="G650" s="6" t="n"/>
       <c r="H650" s="6" t="n"/>
+      <c r="I650" s="6" t="n"/>
     </row>
     <row r="651">
       <c r="A651" s="6" t="n"/>
@@ -15475,6 +16150,7 @@
       <c r="F651" s="6" t="n"/>
       <c r="G651" s="6" t="n"/>
       <c r="H651" s="6" t="n"/>
+      <c r="I651" s="6" t="n"/>
     </row>
     <row r="652">
       <c r="A652" s="6" t="n"/>
@@ -15485,6 +16161,7 @@
       <c r="F652" s="6" t="n"/>
       <c r="G652" s="6" t="n"/>
       <c r="H652" s="6" t="n"/>
+      <c r="I652" s="6" t="n"/>
     </row>
     <row r="653">
       <c r="A653" s="6" t="n"/>
@@ -15495,6 +16172,7 @@
       <c r="F653" s="6" t="n"/>
       <c r="G653" s="6" t="n"/>
       <c r="H653" s="6" t="n"/>
+      <c r="I653" s="6" t="n"/>
     </row>
     <row r="654">
       <c r="A654" s="6" t="n"/>
@@ -15505,6 +16183,7 @@
       <c r="F654" s="6" t="n"/>
       <c r="G654" s="6" t="n"/>
       <c r="H654" s="6" t="n"/>
+      <c r="I654" s="6" t="n"/>
     </row>
     <row r="655">
       <c r="A655" s="6" t="n"/>
@@ -15515,6 +16194,7 @@
       <c r="F655" s="6" t="n"/>
       <c r="G655" s="6" t="n"/>
       <c r="H655" s="6" t="n"/>
+      <c r="I655" s="6" t="n"/>
     </row>
     <row r="656">
       <c r="A656" s="6" t="n"/>
@@ -15525,6 +16205,7 @@
       <c r="F656" s="6" t="n"/>
       <c r="G656" s="6" t="n"/>
       <c r="H656" s="6" t="n"/>
+      <c r="I656" s="6" t="n"/>
     </row>
     <row r="657">
       <c r="A657" s="6" t="n"/>
@@ -15535,6 +16216,7 @@
       <c r="F657" s="6" t="n"/>
       <c r="G657" s="6" t="n"/>
       <c r="H657" s="6" t="n"/>
+      <c r="I657" s="6" t="n"/>
     </row>
     <row r="658">
       <c r="A658" s="6" t="n"/>
@@ -15545,6 +16227,7 @@
       <c r="F658" s="6" t="n"/>
       <c r="G658" s="6" t="n"/>
       <c r="H658" s="6" t="n"/>
+      <c r="I658" s="6" t="n"/>
     </row>
     <row r="659">
       <c r="A659" s="6" t="n"/>
@@ -15555,6 +16238,7 @@
       <c r="F659" s="6" t="n"/>
       <c r="G659" s="6" t="n"/>
       <c r="H659" s="6" t="n"/>
+      <c r="I659" s="6" t="n"/>
     </row>
     <row r="660">
       <c r="A660" s="6" t="n"/>
@@ -15565,6 +16249,7 @@
       <c r="F660" s="6" t="n"/>
       <c r="G660" s="6" t="n"/>
       <c r="H660" s="6" t="n"/>
+      <c r="I660" s="6" t="n"/>
     </row>
     <row r="661">
       <c r="A661" s="6" t="n"/>
@@ -15575,6 +16260,7 @@
       <c r="F661" s="6" t="n"/>
       <c r="G661" s="6" t="n"/>
       <c r="H661" s="6" t="n"/>
+      <c r="I661" s="6" t="n"/>
     </row>
     <row r="662">
       <c r="A662" s="6" t="n"/>
@@ -15585,6 +16271,7 @@
       <c r="F662" s="6" t="n"/>
       <c r="G662" s="6" t="n"/>
       <c r="H662" s="6" t="n"/>
+      <c r="I662" s="6" t="n"/>
     </row>
     <row r="663">
       <c r="A663" s="6" t="n"/>
@@ -15595,6 +16282,7 @@
       <c r="F663" s="6" t="n"/>
       <c r="G663" s="6" t="n"/>
       <c r="H663" s="6" t="n"/>
+      <c r="I663" s="6" t="n"/>
     </row>
     <row r="664">
       <c r="A664" s="6" t="n"/>
@@ -15605,6 +16293,7 @@
       <c r="F664" s="6" t="n"/>
       <c r="G664" s="6" t="n"/>
       <c r="H664" s="6" t="n"/>
+      <c r="I664" s="6" t="n"/>
     </row>
     <row r="665">
       <c r="A665" s="6" t="n"/>
@@ -15615,6 +16304,7 @@
       <c r="F665" s="6" t="n"/>
       <c r="G665" s="6" t="n"/>
       <c r="H665" s="6" t="n"/>
+      <c r="I665" s="6" t="n"/>
     </row>
     <row r="666">
       <c r="A666" s="6" t="n"/>
@@ -15625,6 +16315,7 @@
       <c r="F666" s="6" t="n"/>
       <c r="G666" s="6" t="n"/>
       <c r="H666" s="6" t="n"/>
+      <c r="I666" s="6" t="n"/>
     </row>
     <row r="667">
       <c r="A667" s="6" t="n"/>
@@ -15635,6 +16326,7 @@
       <c r="F667" s="6" t="n"/>
       <c r="G667" s="6" t="n"/>
       <c r="H667" s="6" t="n"/>
+      <c r="I667" s="6" t="n"/>
     </row>
     <row r="668">
       <c r="A668" s="6" t="n"/>
@@ -15645,6 +16337,7 @@
       <c r="F668" s="6" t="n"/>
       <c r="G668" s="6" t="n"/>
       <c r="H668" s="6" t="n"/>
+      <c r="I668" s="6" t="n"/>
     </row>
     <row r="669">
       <c r="A669" s="6" t="n"/>
@@ -15655,6 +16348,7 @@
       <c r="F669" s="6" t="n"/>
       <c r="G669" s="6" t="n"/>
       <c r="H669" s="6" t="n"/>
+      <c r="I669" s="6" t="n"/>
     </row>
     <row r="670">
       <c r="A670" s="6" t="n"/>
@@ -15665,6 +16359,7 @@
       <c r="F670" s="6" t="n"/>
       <c r="G670" s="6" t="n"/>
       <c r="H670" s="6" t="n"/>
+      <c r="I670" s="6" t="n"/>
     </row>
     <row r="671">
       <c r="A671" s="6" t="n"/>
@@ -15675,6 +16370,7 @@
       <c r="F671" s="6" t="n"/>
       <c r="G671" s="6" t="n"/>
       <c r="H671" s="6" t="n"/>
+      <c r="I671" s="6" t="n"/>
     </row>
     <row r="672">
       <c r="A672" s="6" t="n"/>
@@ -15685,6 +16381,7 @@
       <c r="F672" s="6" t="n"/>
       <c r="G672" s="6" t="n"/>
       <c r="H672" s="6" t="n"/>
+      <c r="I672" s="6" t="n"/>
     </row>
     <row r="673">
       <c r="A673" s="6" t="n"/>
@@ -15695,6 +16392,7 @@
       <c r="F673" s="6" t="n"/>
       <c r="G673" s="6" t="n"/>
       <c r="H673" s="6" t="n"/>
+      <c r="I673" s="6" t="n"/>
     </row>
     <row r="674">
       <c r="A674" s="6" t="n"/>
@@ -15705,6 +16403,7 @@
       <c r="F674" s="6" t="n"/>
       <c r="G674" s="6" t="n"/>
       <c r="H674" s="6" t="n"/>
+      <c r="I674" s="6" t="n"/>
     </row>
     <row r="675">
       <c r="A675" s="6" t="n"/>
@@ -15715,6 +16414,7 @@
       <c r="F675" s="6" t="n"/>
       <c r="G675" s="6" t="n"/>
       <c r="H675" s="6" t="n"/>
+      <c r="I675" s="6" t="n"/>
     </row>
     <row r="676">
       <c r="A676" s="6" t="n"/>
@@ -15725,6 +16425,7 @@
       <c r="F676" s="6" t="n"/>
       <c r="G676" s="6" t="n"/>
       <c r="H676" s="6" t="n"/>
+      <c r="I676" s="6" t="n"/>
     </row>
     <row r="677">
       <c r="A677" s="6" t="n"/>
@@ -15735,6 +16436,7 @@
       <c r="F677" s="6" t="n"/>
       <c r="G677" s="6" t="n"/>
       <c r="H677" s="6" t="n"/>
+      <c r="I677" s="6" t="n"/>
     </row>
     <row r="678">
       <c r="A678" s="6" t="n"/>
@@ -15745,6 +16447,7 @@
       <c r="F678" s="6" t="n"/>
       <c r="G678" s="6" t="n"/>
       <c r="H678" s="6" t="n"/>
+      <c r="I678" s="6" t="n"/>
     </row>
     <row r="679">
       <c r="A679" s="6" t="n"/>
@@ -15755,6 +16458,7 @@
       <c r="F679" s="6" t="n"/>
       <c r="G679" s="6" t="n"/>
       <c r="H679" s="6" t="n"/>
+      <c r="I679" s="6" t="n"/>
     </row>
     <row r="680">
       <c r="A680" s="6" t="n"/>
@@ -15765,6 +16469,7 @@
       <c r="F680" s="6" t="n"/>
       <c r="G680" s="6" t="n"/>
       <c r="H680" s="6" t="n"/>
+      <c r="I680" s="6" t="n"/>
     </row>
     <row r="681">
       <c r="A681" s="6" t="n"/>
@@ -15775,6 +16480,7 @@
       <c r="F681" s="6" t="n"/>
       <c r="G681" s="6" t="n"/>
       <c r="H681" s="6" t="n"/>
+      <c r="I681" s="6" t="n"/>
     </row>
     <row r="682">
       <c r="A682" s="6" t="n"/>
@@ -15785,6 +16491,7 @@
       <c r="F682" s="6" t="n"/>
       <c r="G682" s="6" t="n"/>
       <c r="H682" s="6" t="n"/>
+      <c r="I682" s="6" t="n"/>
     </row>
     <row r="683">
       <c r="A683" s="6" t="n"/>
@@ -15795,6 +16502,7 @@
       <c r="F683" s="6" t="n"/>
       <c r="G683" s="6" t="n"/>
       <c r="H683" s="6" t="n"/>
+      <c r="I683" s="6" t="n"/>
     </row>
     <row r="684">
       <c r="A684" s="6" t="n"/>
@@ -15805,6 +16513,7 @@
       <c r="F684" s="6" t="n"/>
       <c r="G684" s="6" t="n"/>
       <c r="H684" s="6" t="n"/>
+      <c r="I684" s="6" t="n"/>
     </row>
     <row r="685">
       <c r="A685" s="6" t="n"/>
@@ -15815,6 +16524,7 @@
       <c r="F685" s="6" t="n"/>
       <c r="G685" s="6" t="n"/>
       <c r="H685" s="6" t="n"/>
+      <c r="I685" s="6" t="n"/>
     </row>
     <row r="686">
       <c r="A686" s="6" t="n"/>
@@ -15825,6 +16535,7 @@
       <c r="F686" s="6" t="n"/>
       <c r="G686" s="6" t="n"/>
       <c r="H686" s="6" t="n"/>
+      <c r="I686" s="6" t="n"/>
     </row>
     <row r="687">
       <c r="A687" s="6" t="n"/>
@@ -15835,6 +16546,7 @@
       <c r="F687" s="6" t="n"/>
       <c r="G687" s="6" t="n"/>
       <c r="H687" s="6" t="n"/>
+      <c r="I687" s="6" t="n"/>
     </row>
     <row r="688">
       <c r="A688" s="6" t="n"/>
@@ -15845,6 +16557,7 @@
       <c r="F688" s="6" t="n"/>
       <c r="G688" s="6" t="n"/>
       <c r="H688" s="6" t="n"/>
+      <c r="I688" s="6" t="n"/>
     </row>
     <row r="689">
       <c r="A689" s="6" t="n"/>
@@ -15855,6 +16568,7 @@
       <c r="F689" s="6" t="n"/>
       <c r="G689" s="6" t="n"/>
       <c r="H689" s="6" t="n"/>
+      <c r="I689" s="6" t="n"/>
     </row>
     <row r="690">
       <c r="A690" s="6" t="n"/>
@@ -15865,6 +16579,7 @@
       <c r="F690" s="6" t="n"/>
       <c r="G690" s="6" t="n"/>
       <c r="H690" s="6" t="n"/>
+      <c r="I690" s="6" t="n"/>
     </row>
     <row r="691">
       <c r="A691" s="6" t="n"/>
@@ -15875,6 +16590,7 @@
       <c r="F691" s="6" t="n"/>
       <c r="G691" s="6" t="n"/>
       <c r="H691" s="6" t="n"/>
+      <c r="I691" s="6" t="n"/>
     </row>
     <row r="692">
       <c r="A692" s="6" t="n"/>
@@ -15885,6 +16601,7 @@
       <c r="F692" s="6" t="n"/>
       <c r="G692" s="6" t="n"/>
       <c r="H692" s="6" t="n"/>
+      <c r="I692" s="6" t="n"/>
     </row>
     <row r="693">
       <c r="A693" s="6" t="n"/>
@@ -15895,6 +16612,7 @@
       <c r="F693" s="6" t="n"/>
       <c r="G693" s="6" t="n"/>
       <c r="H693" s="6" t="n"/>
+      <c r="I693" s="6" t="n"/>
     </row>
     <row r="694">
       <c r="A694" s="6" t="n"/>
@@ -15905,6 +16623,7 @@
       <c r="F694" s="6" t="n"/>
       <c r="G694" s="6" t="n"/>
       <c r="H694" s="6" t="n"/>
+      <c r="I694" s="6" t="n"/>
     </row>
     <row r="695">
       <c r="A695" s="6" t="n"/>
@@ -15915,6 +16634,7 @@
       <c r="F695" s="6" t="n"/>
       <c r="G695" s="6" t="n"/>
       <c r="H695" s="6" t="n"/>
+      <c r="I695" s="6" t="n"/>
     </row>
     <row r="696">
       <c r="A696" s="6" t="n"/>
@@ -15925,6 +16645,7 @@
       <c r="F696" s="6" t="n"/>
       <c r="G696" s="6" t="n"/>
       <c r="H696" s="6" t="n"/>
+      <c r="I696" s="6" t="n"/>
     </row>
     <row r="697">
       <c r="A697" s="6" t="n"/>
@@ -15935,6 +16656,7 @@
       <c r="F697" s="6" t="n"/>
       <c r="G697" s="6" t="n"/>
       <c r="H697" s="6" t="n"/>
+      <c r="I697" s="6" t="n"/>
     </row>
     <row r="698">
       <c r="A698" s="6" t="n"/>
@@ -15945,6 +16667,7 @@
       <c r="F698" s="6" t="n"/>
       <c r="G698" s="6" t="n"/>
       <c r="H698" s="6" t="n"/>
+      <c r="I698" s="6" t="n"/>
     </row>
     <row r="699">
       <c r="A699" s="6" t="n"/>
@@ -15955,6 +16678,7 @@
       <c r="F699" s="6" t="n"/>
       <c r="G699" s="6" t="n"/>
       <c r="H699" s="6" t="n"/>
+      <c r="I699" s="6" t="n"/>
     </row>
     <row r="700">
       <c r="A700" s="6" t="n"/>
@@ -15965,6 +16689,7 @@
       <c r="F700" s="6" t="n"/>
       <c r="G700" s="6" t="n"/>
       <c r="H700" s="6" t="n"/>
+      <c r="I700" s="6" t="n"/>
     </row>
     <row r="701">
       <c r="A701" s="6" t="n"/>
@@ -15975,6 +16700,7 @@
       <c r="F701" s="6" t="n"/>
       <c r="G701" s="6" t="n"/>
       <c r="H701" s="6" t="n"/>
+      <c r="I701" s="6" t="n"/>
     </row>
     <row r="702">
       <c r="A702" s="6" t="n"/>
@@ -15985,6 +16711,7 @@
       <c r="F702" s="6" t="n"/>
       <c r="G702" s="6" t="n"/>
       <c r="H702" s="6" t="n"/>
+      <c r="I702" s="6" t="n"/>
     </row>
     <row r="703">
       <c r="A703" s="6" t="n"/>
@@ -15995,6 +16722,7 @@
       <c r="F703" s="6" t="n"/>
       <c r="G703" s="6" t="n"/>
       <c r="H703" s="6" t="n"/>
+      <c r="I703" s="6" t="n"/>
     </row>
     <row r="704">
       <c r="A704" s="6" t="n"/>
@@ -16005,6 +16733,7 @@
       <c r="F704" s="6" t="n"/>
       <c r="G704" s="6" t="n"/>
       <c r="H704" s="6" t="n"/>
+      <c r="I704" s="6" t="n"/>
     </row>
     <row r="705">
       <c r="A705" s="6" t="n"/>
@@ -16015,6 +16744,7 @@
       <c r="F705" s="6" t="n"/>
       <c r="G705" s="6" t="n"/>
       <c r="H705" s="6" t="n"/>
+      <c r="I705" s="6" t="n"/>
     </row>
     <row r="706">
       <c r="A706" s="6" t="n"/>
@@ -16025,6 +16755,7 @@
       <c r="F706" s="6" t="n"/>
       <c r="G706" s="6" t="n"/>
       <c r="H706" s="6" t="n"/>
+      <c r="I706" s="6" t="n"/>
     </row>
     <row r="707">
       <c r="A707" s="6" t="n"/>
@@ -16035,6 +16766,7 @@
       <c r="F707" s="6" t="n"/>
       <c r="G707" s="6" t="n"/>
       <c r="H707" s="6" t="n"/>
+      <c r="I707" s="6" t="n"/>
     </row>
     <row r="708">
       <c r="A708" s="6" t="n"/>
@@ -16045,6 +16777,7 @@
       <c r="F708" s="6" t="n"/>
       <c r="G708" s="6" t="n"/>
       <c r="H708" s="6" t="n"/>
+      <c r="I708" s="6" t="n"/>
     </row>
     <row r="709">
       <c r="A709" s="6" t="n"/>
@@ -16055,6 +16788,7 @@
       <c r="F709" s="6" t="n"/>
       <c r="G709" s="6" t="n"/>
       <c r="H709" s="6" t="n"/>
+      <c r="I709" s="6" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="6" t="n"/>
@@ -16065,6 +16799,7 @@
       <c r="F710" s="6" t="n"/>
       <c r="G710" s="6" t="n"/>
       <c r="H710" s="6" t="n"/>
+      <c r="I710" s="6" t="n"/>
     </row>
     <row r="711">
       <c r="A711" s="6" t="n"/>
@@ -16075,6 +16810,7 @@
       <c r="F711" s="6" t="n"/>
       <c r="G711" s="6" t="n"/>
       <c r="H711" s="6" t="n"/>
+      <c r="I711" s="6" t="n"/>
     </row>
     <row r="712">
       <c r="A712" s="6" t="n"/>
@@ -16085,6 +16821,7 @@
       <c r="F712" s="6" t="n"/>
       <c r="G712" s="6" t="n"/>
       <c r="H712" s="6" t="n"/>
+      <c r="I712" s="6" t="n"/>
     </row>
     <row r="713">
       <c r="A713" s="6" t="n"/>
@@ -16095,6 +16832,7 @@
       <c r="F713" s="6" t="n"/>
       <c r="G713" s="6" t="n"/>
       <c r="H713" s="6" t="n"/>
+      <c r="I713" s="6" t="n"/>
     </row>
     <row r="714">
       <c r="A714" s="6" t="n"/>
@@ -16105,6 +16843,7 @@
       <c r="F714" s="6" t="n"/>
       <c r="G714" s="6" t="n"/>
       <c r="H714" s="6" t="n"/>
+      <c r="I714" s="6" t="n"/>
     </row>
     <row r="715">
       <c r="A715" s="6" t="n"/>
@@ -16115,6 +16854,7 @@
       <c r="F715" s="6" t="n"/>
       <c r="G715" s="6" t="n"/>
       <c r="H715" s="6" t="n"/>
+      <c r="I715" s="6" t="n"/>
     </row>
     <row r="716">
       <c r="A716" s="6" t="n"/>
@@ -16125,6 +16865,7 @@
       <c r="F716" s="6" t="n"/>
       <c r="G716" s="6" t="n"/>
       <c r="H716" s="6" t="n"/>
+      <c r="I716" s="6" t="n"/>
     </row>
     <row r="717">
       <c r="A717" s="6" t="n"/>
@@ -16135,6 +16876,7 @@
       <c r="F717" s="6" t="n"/>
       <c r="G717" s="6" t="n"/>
       <c r="H717" s="6" t="n"/>
+      <c r="I717" s="6" t="n"/>
     </row>
     <row r="718">
       <c r="A718" s="6" t="n"/>
@@ -16145,6 +16887,7 @@
       <c r="F718" s="6" t="n"/>
       <c r="G718" s="6" t="n"/>
       <c r="H718" s="6" t="n"/>
+      <c r="I718" s="6" t="n"/>
     </row>
     <row r="719">
       <c r="A719" s="6" t="n"/>
@@ -16155,6 +16898,7 @@
       <c r="F719" s="6" t="n"/>
       <c r="G719" s="6" t="n"/>
       <c r="H719" s="6" t="n"/>
+      <c r="I719" s="6" t="n"/>
     </row>
     <row r="720">
       <c r="A720" s="6" t="n"/>
@@ -16165,6 +16909,7 @@
       <c r="F720" s="6" t="n"/>
       <c r="G720" s="6" t="n"/>
       <c r="H720" s="6" t="n"/>
+      <c r="I720" s="6" t="n"/>
     </row>
     <row r="721">
       <c r="A721" s="6" t="n"/>
@@ -16175,6 +16920,7 @@
       <c r="F721" s="6" t="n"/>
       <c r="G721" s="6" t="n"/>
       <c r="H721" s="6" t="n"/>
+      <c r="I721" s="6" t="n"/>
     </row>
     <row r="722">
       <c r="A722" s="6" t="n"/>
@@ -16185,6 +16931,7 @@
       <c r="F722" s="6" t="n"/>
       <c r="G722" s="6" t="n"/>
       <c r="H722" s="6" t="n"/>
+      <c r="I722" s="6" t="n"/>
     </row>
     <row r="723">
       <c r="A723" s="6" t="n"/>
@@ -16195,6 +16942,7 @@
       <c r="F723" s="6" t="n"/>
       <c r="G723" s="6" t="n"/>
       <c r="H723" s="6" t="n"/>
+      <c r="I723" s="6" t="n"/>
     </row>
     <row r="724">
       <c r="A724" s="6" t="n"/>
@@ -16205,6 +16953,7 @@
       <c r="F724" s="6" t="n"/>
       <c r="G724" s="6" t="n"/>
       <c r="H724" s="6" t="n"/>
+      <c r="I724" s="6" t="n"/>
     </row>
     <row r="725">
       <c r="A725" s="6" t="n"/>
@@ -16215,6 +16964,7 @@
       <c r="F725" s="6" t="n"/>
       <c r="G725" s="6" t="n"/>
       <c r="H725" s="6" t="n"/>
+      <c r="I725" s="6" t="n"/>
     </row>
     <row r="726">
       <c r="A726" s="6" t="n"/>
@@ -16225,6 +16975,7 @@
       <c r="F726" s="6" t="n"/>
       <c r="G726" s="6" t="n"/>
       <c r="H726" s="6" t="n"/>
+      <c r="I726" s="6" t="n"/>
     </row>
     <row r="727">
       <c r="A727" s="6" t="n"/>
@@ -16235,6 +16986,7 @@
       <c r="F727" s="6" t="n"/>
       <c r="G727" s="6" t="n"/>
       <c r="H727" s="6" t="n"/>
+      <c r="I727" s="6" t="n"/>
     </row>
     <row r="728">
       <c r="A728" s="6" t="n"/>
@@ -16245,6 +16997,7 @@
       <c r="F728" s="6" t="n"/>
       <c r="G728" s="6" t="n"/>
       <c r="H728" s="6" t="n"/>
+      <c r="I728" s="6" t="n"/>
     </row>
     <row r="729">
       <c r="A729" s="6" t="n"/>
@@ -16255,6 +17008,7 @@
       <c r="F729" s="6" t="n"/>
       <c r="G729" s="6" t="n"/>
       <c r="H729" s="6" t="n"/>
+      <c r="I729" s="6" t="n"/>
     </row>
     <row r="730">
       <c r="A730" s="6" t="n"/>
@@ -16265,6 +17019,7 @@
       <c r="F730" s="6" t="n"/>
       <c r="G730" s="6" t="n"/>
       <c r="H730" s="6" t="n"/>
+      <c r="I730" s="6" t="n"/>
     </row>
     <row r="731">
       <c r="A731" s="6" t="n"/>
@@ -16275,6 +17030,7 @@
       <c r="F731" s="6" t="n"/>
       <c r="G731" s="6" t="n"/>
       <c r="H731" s="6" t="n"/>
+      <c r="I731" s="6" t="n"/>
     </row>
     <row r="732">
       <c r="A732" s="6" t="n"/>
@@ -16285,6 +17041,7 @@
       <c r="F732" s="6" t="n"/>
       <c r="G732" s="6" t="n"/>
       <c r="H732" s="6" t="n"/>
+      <c r="I732" s="6" t="n"/>
     </row>
     <row r="733">
       <c r="A733" s="6" t="n"/>
@@ -16295,6 +17052,7 @@
       <c r="F733" s="6" t="n"/>
       <c r="G733" s="6" t="n"/>
       <c r="H733" s="6" t="n"/>
+      <c r="I733" s="6" t="n"/>
     </row>
     <row r="734">
       <c r="A734" s="6" t="n"/>
@@ -16305,6 +17063,7 @@
       <c r="F734" s="6" t="n"/>
       <c r="G734" s="6" t="n"/>
       <c r="H734" s="6" t="n"/>
+      <c r="I734" s="6" t="n"/>
     </row>
     <row r="735">
       <c r="A735" s="6" t="n"/>
@@ -16315,6 +17074,7 @@
       <c r="F735" s="6" t="n"/>
       <c r="G735" s="6" t="n"/>
       <c r="H735" s="6" t="n"/>
+      <c r="I735" s="6" t="n"/>
     </row>
     <row r="736">
       <c r="A736" s="6" t="n"/>
@@ -16325,6 +17085,7 @@
       <c r="F736" s="6" t="n"/>
       <c r="G736" s="6" t="n"/>
       <c r="H736" s="6" t="n"/>
+      <c r="I736" s="6" t="n"/>
     </row>
     <row r="737">
       <c r="A737" s="6" t="n"/>
@@ -16335,6 +17096,7 @@
       <c r="F737" s="6" t="n"/>
       <c r="G737" s="6" t="n"/>
       <c r="H737" s="6" t="n"/>
+      <c r="I737" s="6" t="n"/>
     </row>
     <row r="738">
       <c r="A738" s="6" t="n"/>
@@ -16345,6 +17107,7 @@
       <c r="F738" s="6" t="n"/>
       <c r="G738" s="6" t="n"/>
       <c r="H738" s="6" t="n"/>
+      <c r="I738" s="6" t="n"/>
     </row>
     <row r="739">
       <c r="A739" s="6" t="n"/>
@@ -16355,6 +17118,7 @@
       <c r="F739" s="6" t="n"/>
       <c r="G739" s="6" t="n"/>
       <c r="H739" s="6" t="n"/>
+      <c r="I739" s="6" t="n"/>
     </row>
     <row r="740">
       <c r="A740" s="6" t="n"/>
@@ -16365,6 +17129,7 @@
       <c r="F740" s="6" t="n"/>
       <c r="G740" s="6" t="n"/>
       <c r="H740" s="6" t="n"/>
+      <c r="I740" s="6" t="n"/>
     </row>
     <row r="741">
       <c r="A741" s="6" t="n"/>
@@ -16375,6 +17140,7 @@
       <c r="F741" s="6" t="n"/>
       <c r="G741" s="6" t="n"/>
       <c r="H741" s="6" t="n"/>
+      <c r="I741" s="6" t="n"/>
     </row>
     <row r="742">
       <c r="A742" s="6" t="n"/>
@@ -16385,6 +17151,7 @@
       <c r="F742" s="6" t="n"/>
       <c r="G742" s="6" t="n"/>
       <c r="H742" s="6" t="n"/>
+      <c r="I742" s="6" t="n"/>
     </row>
     <row r="743">
       <c r="A743" s="6" t="n"/>
@@ -16395,6 +17162,7 @@
       <c r="F743" s="6" t="n"/>
       <c r="G743" s="6" t="n"/>
       <c r="H743" s="6" t="n"/>
+      <c r="I743" s="6" t="n"/>
     </row>
     <row r="744">
       <c r="A744" s="6" t="n"/>
@@ -16405,6 +17173,7 @@
       <c r="F744" s="6" t="n"/>
       <c r="G744" s="6" t="n"/>
       <c r="H744" s="6" t="n"/>
+      <c r="I744" s="6" t="n"/>
     </row>
     <row r="745">
       <c r="A745" s="6" t="n"/>
@@ -16415,6 +17184,7 @@
       <c r="F745" s="6" t="n"/>
       <c r="G745" s="6" t="n"/>
       <c r="H745" s="6" t="n"/>
+      <c r="I745" s="6" t="n"/>
     </row>
     <row r="746">
       <c r="A746" s="6" t="n"/>
@@ -16425,6 +17195,7 @@
       <c r="F746" s="6" t="n"/>
       <c r="G746" s="6" t="n"/>
       <c r="H746" s="6" t="n"/>
+      <c r="I746" s="6" t="n"/>
     </row>
     <row r="747">
       <c r="A747" s="6" t="n"/>
@@ -16435,6 +17206,7 @@
       <c r="F747" s="6" t="n"/>
       <c r="G747" s="6" t="n"/>
       <c r="H747" s="6" t="n"/>
+      <c r="I747" s="6" t="n"/>
     </row>
     <row r="748">
       <c r="A748" s="6" t="n"/>
@@ -16445,6 +17217,7 @@
       <c r="F748" s="6" t="n"/>
       <c r="G748" s="6" t="n"/>
       <c r="H748" s="6" t="n"/>
+      <c r="I748" s="6" t="n"/>
     </row>
     <row r="749">
       <c r="A749" s="6" t="n"/>
@@ -16455,6 +17228,7 @@
       <c r="F749" s="6" t="n"/>
       <c r="G749" s="6" t="n"/>
       <c r="H749" s="6" t="n"/>
+      <c r="I749" s="6" t="n"/>
     </row>
     <row r="750">
       <c r="A750" s="6" t="n"/>
@@ -16465,6 +17239,7 @@
       <c r="F750" s="6" t="n"/>
       <c r="G750" s="6" t="n"/>
       <c r="H750" s="6" t="n"/>
+      <c r="I750" s="6" t="n"/>
     </row>
     <row r="751">
       <c r="A751" s="6" t="n"/>
@@ -16475,6 +17250,7 @@
       <c r="F751" s="6" t="n"/>
       <c r="G751" s="6" t="n"/>
       <c r="H751" s="6" t="n"/>
+      <c r="I751" s="6" t="n"/>
     </row>
     <row r="752">
       <c r="A752" s="6" t="n"/>
@@ -16485,6 +17261,7 @@
       <c r="F752" s="6" t="n"/>
       <c r="G752" s="6" t="n"/>
       <c r="H752" s="6" t="n"/>
+      <c r="I752" s="6" t="n"/>
     </row>
     <row r="753">
       <c r="A753" s="6" t="n"/>
@@ -16495,6 +17272,7 @@
       <c r="F753" s="6" t="n"/>
       <c r="G753" s="6" t="n"/>
       <c r="H753" s="6" t="n"/>
+      <c r="I753" s="6" t="n"/>
     </row>
     <row r="754">
       <c r="A754" s="6" t="n"/>
@@ -16505,6 +17283,7 @@
       <c r="F754" s="6" t="n"/>
       <c r="G754" s="6" t="n"/>
       <c r="H754" s="6" t="n"/>
+      <c r="I754" s="6" t="n"/>
     </row>
     <row r="755">
       <c r="A755" s="6" t="n"/>
@@ -16515,6 +17294,7 @@
       <c r="F755" s="6" t="n"/>
       <c r="G755" s="6" t="n"/>
       <c r="H755" s="6" t="n"/>
+      <c r="I755" s="6" t="n"/>
     </row>
     <row r="756">
       <c r="A756" s="6" t="n"/>
@@ -16525,6 +17305,7 @@
       <c r="F756" s="6" t="n"/>
       <c r="G756" s="6" t="n"/>
       <c r="H756" s="6" t="n"/>
+      <c r="I756" s="6" t="n"/>
     </row>
     <row r="757">
       <c r="A757" s="6" t="n"/>
@@ -16535,6 +17316,7 @@
       <c r="F757" s="6" t="n"/>
       <c r="G757" s="6" t="n"/>
       <c r="H757" s="6" t="n"/>
+      <c r="I757" s="6" t="n"/>
     </row>
     <row r="758">
       <c r="A758" s="6" t="n"/>
@@ -16545,6 +17327,7 @@
       <c r="F758" s="6" t="n"/>
       <c r="G758" s="6" t="n"/>
       <c r="H758" s="6" t="n"/>
+      <c r="I758" s="6" t="n"/>
     </row>
     <row r="759">
       <c r="A759" s="6" t="n"/>
@@ -16555,6 +17338,7 @@
       <c r="F759" s="6" t="n"/>
       <c r="G759" s="6" t="n"/>
       <c r="H759" s="6" t="n"/>
+      <c r="I759" s="6" t="n"/>
     </row>
     <row r="760">
       <c r="A760" s="6" t="n"/>
@@ -16565,6 +17349,7 @@
       <c r="F760" s="6" t="n"/>
       <c r="G760" s="6" t="n"/>
       <c r="H760" s="6" t="n"/>
+      <c r="I760" s="6" t="n"/>
     </row>
     <row r="761">
       <c r="A761" s="6" t="n"/>
@@ -16575,6 +17360,7 @@
       <c r="F761" s="6" t="n"/>
       <c r="G761" s="6" t="n"/>
       <c r="H761" s="6" t="n"/>
+      <c r="I761" s="6" t="n"/>
     </row>
     <row r="762">
       <c r="A762" s="6" t="n"/>
@@ -16585,6 +17371,7 @@
       <c r="F762" s="6" t="n"/>
       <c r="G762" s="6" t="n"/>
       <c r="H762" s="6" t="n"/>
+      <c r="I762" s="6" t="n"/>
     </row>
     <row r="763">
       <c r="A763" s="6" t="n"/>
@@ -16595,6 +17382,7 @@
       <c r="F763" s="6" t="n"/>
       <c r="G763" s="6" t="n"/>
       <c r="H763" s="6" t="n"/>
+      <c r="I763" s="6" t="n"/>
     </row>
     <row r="764">
       <c r="A764" s="6" t="n"/>
@@ -16605,6 +17393,7 @@
       <c r="F764" s="6" t="n"/>
       <c r="G764" s="6" t="n"/>
       <c r="H764" s="6" t="n"/>
+      <c r="I764" s="6" t="n"/>
     </row>
     <row r="765">
       <c r="A765" s="6" t="n"/>
@@ -16615,6 +17404,7 @@
       <c r="F765" s="6" t="n"/>
       <c r="G765" s="6" t="n"/>
       <c r="H765" s="6" t="n"/>
+      <c r="I765" s="6" t="n"/>
     </row>
     <row r="766">
       <c r="A766" s="6" t="n"/>
@@ -16625,6 +17415,7 @@
       <c r="F766" s="6" t="n"/>
       <c r="G766" s="6" t="n"/>
       <c r="H766" s="6" t="n"/>
+      <c r="I766" s="6" t="n"/>
     </row>
     <row r="767">
       <c r="A767" s="6" t="n"/>
@@ -16635,6 +17426,7 @@
       <c r="F767" s="6" t="n"/>
       <c r="G767" s="6" t="n"/>
       <c r="H767" s="6" t="n"/>
+      <c r="I767" s="6" t="n"/>
     </row>
     <row r="768">
       <c r="A768" s="6" t="n"/>
@@ -16645,6 +17437,7 @@
       <c r="F768" s="6" t="n"/>
       <c r="G768" s="6" t="n"/>
       <c r="H768" s="6" t="n"/>
+      <c r="I768" s="6" t="n"/>
     </row>
     <row r="769">
       <c r="A769" s="6" t="n"/>
@@ -16655,6 +17448,7 @@
       <c r="F769" s="6" t="n"/>
       <c r="G769" s="6" t="n"/>
       <c r="H769" s="6" t="n"/>
+      <c r="I769" s="6" t="n"/>
     </row>
     <row r="770">
       <c r="A770" s="6" t="n"/>
@@ -16665,6 +17459,7 @@
       <c r="F770" s="6" t="n"/>
       <c r="G770" s="6" t="n"/>
       <c r="H770" s="6" t="n"/>
+      <c r="I770" s="6" t="n"/>
     </row>
     <row r="771">
       <c r="A771" s="6" t="n"/>
@@ -16675,6 +17470,7 @@
       <c r="F771" s="6" t="n"/>
       <c r="G771" s="6" t="n"/>
       <c r="H771" s="6" t="n"/>
+      <c r="I771" s="6" t="n"/>
     </row>
     <row r="772">
       <c r="A772" s="6" t="n"/>
@@ -16685,6 +17481,7 @@
       <c r="F772" s="6" t="n"/>
       <c r="G772" s="6" t="n"/>
       <c r="H772" s="6" t="n"/>
+      <c r="I772" s="6" t="n"/>
     </row>
     <row r="773">
       <c r="A773" s="6" t="n"/>
@@ -16695,6 +17492,7 @@
       <c r="F773" s="6" t="n"/>
       <c r="G773" s="6" t="n"/>
       <c r="H773" s="6" t="n"/>
+      <c r="I773" s="6" t="n"/>
     </row>
     <row r="774">
       <c r="A774" s="6" t="n"/>
@@ -16705,6 +17503,7 @@
       <c r="F774" s="6" t="n"/>
       <c r="G774" s="6" t="n"/>
       <c r="H774" s="6" t="n"/>
+      <c r="I774" s="6" t="n"/>
     </row>
     <row r="775">
       <c r="A775" s="6" t="n"/>
@@ -16715,6 +17514,7 @@
       <c r="F775" s="6" t="n"/>
       <c r="G775" s="6" t="n"/>
       <c r="H775" s="6" t="n"/>
+      <c r="I775" s="6" t="n"/>
     </row>
     <row r="776">
       <c r="A776" s="6" t="n"/>
@@ -16725,6 +17525,7 @@
       <c r="F776" s="6" t="n"/>
       <c r="G776" s="6" t="n"/>
       <c r="H776" s="6" t="n"/>
+      <c r="I776" s="6" t="n"/>
     </row>
     <row r="777">
       <c r="A777" s="6" t="n"/>
@@ -16735,6 +17536,7 @@
       <c r="F777" s="6" t="n"/>
       <c r="G777" s="6" t="n"/>
       <c r="H777" s="6" t="n"/>
+      <c r="I777" s="6" t="n"/>
     </row>
     <row r="778">
       <c r="A778" s="6" t="n"/>
@@ -16745,6 +17547,7 @@
       <c r="F778" s="6" t="n"/>
       <c r="G778" s="6" t="n"/>
       <c r="H778" s="6" t="n"/>
+      <c r="I778" s="6" t="n"/>
     </row>
     <row r="779">
       <c r="A779" s="6" t="n"/>
@@ -16755,6 +17558,7 @@
       <c r="F779" s="6" t="n"/>
       <c r="G779" s="6" t="n"/>
       <c r="H779" s="6" t="n"/>
+      <c r="I779" s="6" t="n"/>
     </row>
     <row r="780">
       <c r="A780" s="6" t="n"/>
@@ -16765,6 +17569,7 @@
       <c r="F780" s="6" t="n"/>
       <c r="G780" s="6" t="n"/>
       <c r="H780" s="6" t="n"/>
+      <c r="I780" s="6" t="n"/>
     </row>
     <row r="781">
       <c r="A781" s="6" t="n"/>
@@ -16775,6 +17580,7 @@
       <c r="F781" s="6" t="n"/>
       <c r="G781" s="6" t="n"/>
       <c r="H781" s="6" t="n"/>
+      <c r="I781" s="6" t="n"/>
     </row>
     <row r="782">
       <c r="A782" s="6" t="n"/>
@@ -16785,6 +17591,7 @@
       <c r="F782" s="6" t="n"/>
       <c r="G782" s="6" t="n"/>
       <c r="H782" s="6" t="n"/>
+      <c r="I782" s="6" t="n"/>
     </row>
     <row r="783">
       <c r="A783" s="6" t="n"/>
@@ -16795,6 +17602,7 @@
       <c r="F783" s="6" t="n"/>
       <c r="G783" s="6" t="n"/>
       <c r="H783" s="6" t="n"/>
+      <c r="I783" s="6" t="n"/>
     </row>
     <row r="784">
       <c r="A784" s="6" t="n"/>
@@ -16805,6 +17613,7 @@
       <c r="F784" s="6" t="n"/>
       <c r="G784" s="6" t="n"/>
       <c r="H784" s="6" t="n"/>
+      <c r="I784" s="6" t="n"/>
     </row>
     <row r="785">
       <c r="A785" s="6" t="n"/>
@@ -16815,6 +17624,7 @@
       <c r="F785" s="6" t="n"/>
       <c r="G785" s="6" t="n"/>
       <c r="H785" s="6" t="n"/>
+      <c r="I785" s="6" t="n"/>
     </row>
     <row r="786">
       <c r="A786" s="6" t="n"/>
@@ -16825,6 +17635,7 @@
       <c r="F786" s="6" t="n"/>
       <c r="G786" s="6" t="n"/>
       <c r="H786" s="6" t="n"/>
+      <c r="I786" s="6" t="n"/>
     </row>
     <row r="787">
       <c r="A787" s="6" t="n"/>
@@ -16835,6 +17646,7 @@
       <c r="F787" s="6" t="n"/>
       <c r="G787" s="6" t="n"/>
       <c r="H787" s="6" t="n"/>
+      <c r="I787" s="6" t="n"/>
     </row>
     <row r="788">
       <c r="A788" s="6" t="n"/>
@@ -16845,6 +17657,7 @@
       <c r="F788" s="6" t="n"/>
       <c r="G788" s="6" t="n"/>
       <c r="H788" s="6" t="n"/>
+      <c r="I788" s="6" t="n"/>
     </row>
     <row r="789">
       <c r="A789" s="6" t="n"/>
@@ -16855,6 +17668,7 @@
       <c r="F789" s="6" t="n"/>
       <c r="G789" s="6" t="n"/>
       <c r="H789" s="6" t="n"/>
+      <c r="I789" s="6" t="n"/>
     </row>
     <row r="790">
       <c r="A790" s="6" t="n"/>
@@ -16865,6 +17679,7 @@
       <c r="F790" s="6" t="n"/>
       <c r="G790" s="6" t="n"/>
       <c r="H790" s="6" t="n"/>
+      <c r="I790" s="6" t="n"/>
     </row>
     <row r="791">
       <c r="A791" s="6" t="n"/>
@@ -16875,6 +17690,7 @@
       <c r="F791" s="6" t="n"/>
       <c r="G791" s="6" t="n"/>
       <c r="H791" s="6" t="n"/>
+      <c r="I791" s="6" t="n"/>
     </row>
     <row r="792">
       <c r="A792" s="6" t="n"/>
@@ -16885,6 +17701,7 @@
       <c r="F792" s="6" t="n"/>
       <c r="G792" s="6" t="n"/>
       <c r="H792" s="6" t="n"/>
+      <c r="I792" s="6" t="n"/>
     </row>
     <row r="793">
       <c r="A793" s="6" t="n"/>
@@ -16895,6 +17712,7 @@
       <c r="F793" s="6" t="n"/>
       <c r="G793" s="6" t="n"/>
       <c r="H793" s="6" t="n"/>
+      <c r="I793" s="6" t="n"/>
     </row>
     <row r="794">
       <c r="A794" s="6" t="n"/>
@@ -16905,6 +17723,7 @@
       <c r="F794" s="6" t="n"/>
       <c r="G794" s="6" t="n"/>
       <c r="H794" s="6" t="n"/>
+      <c r="I794" s="6" t="n"/>
     </row>
     <row r="795">
       <c r="A795" s="6" t="n"/>
@@ -16915,6 +17734,7 @@
       <c r="F795" s="6" t="n"/>
       <c r="G795" s="6" t="n"/>
       <c r="H795" s="6" t="n"/>
+      <c r="I795" s="6" t="n"/>
     </row>
     <row r="796">
       <c r="A796" s="6" t="n"/>
@@ -16925,6 +17745,7 @@
       <c r="F796" s="6" t="n"/>
       <c r="G796" s="6" t="n"/>
       <c r="H796" s="6" t="n"/>
+      <c r="I796" s="6" t="n"/>
     </row>
     <row r="797">
       <c r="A797" s="6" t="n"/>
@@ -16935,6 +17756,7 @@
       <c r="F797" s="6" t="n"/>
       <c r="G797" s="6" t="n"/>
       <c r="H797" s="6" t="n"/>
+      <c r="I797" s="6" t="n"/>
     </row>
     <row r="798">
       <c r="A798" s="6" t="n"/>
@@ -16945,6 +17767,7 @@
       <c r="F798" s="6" t="n"/>
       <c r="G798" s="6" t="n"/>
       <c r="H798" s="6" t="n"/>
+      <c r="I798" s="6" t="n"/>
     </row>
     <row r="799">
       <c r="A799" s="6" t="n"/>
@@ -16955,6 +17778,7 @@
       <c r="F799" s="6" t="n"/>
       <c r="G799" s="6" t="n"/>
       <c r="H799" s="6" t="n"/>
+      <c r="I799" s="6" t="n"/>
     </row>
     <row r="800">
       <c r="A800" s="6" t="n"/>
@@ -16965,6 +17789,7 @@
       <c r="F800" s="6" t="n"/>
       <c r="G800" s="6" t="n"/>
       <c r="H800" s="6" t="n"/>
+      <c r="I800" s="6" t="n"/>
     </row>
     <row r="801">
       <c r="A801" s="6" t="n"/>
@@ -16975,6 +17800,7 @@
       <c r="F801" s="6" t="n"/>
       <c r="G801" s="6" t="n"/>
       <c r="H801" s="6" t="n"/>
+      <c r="I801" s="6" t="n"/>
     </row>
     <row r="802">
       <c r="A802" s="6" t="n"/>
@@ -16985,6 +17811,7 @@
       <c r="F802" s="6" t="n"/>
       <c r="G802" s="6" t="n"/>
       <c r="H802" s="6" t="n"/>
+      <c r="I802" s="6" t="n"/>
     </row>
     <row r="803">
       <c r="A803" s="6" t="n"/>
@@ -16995,6 +17822,7 @@
       <c r="F803" s="6" t="n"/>
       <c r="G803" s="6" t="n"/>
       <c r="H803" s="6" t="n"/>
+      <c r="I803" s="6" t="n"/>
     </row>
     <row r="804">
       <c r="A804" s="6" t="n"/>
@@ -17005,6 +17833,7 @@
       <c r="F804" s="6" t="n"/>
       <c r="G804" s="6" t="n"/>
       <c r="H804" s="6" t="n"/>
+      <c r="I804" s="6" t="n"/>
     </row>
     <row r="805">
       <c r="A805" s="6" t="n"/>
@@ -17015,6 +17844,7 @@
       <c r="F805" s="6" t="n"/>
       <c r="G805" s="6" t="n"/>
       <c r="H805" s="6" t="n"/>
+      <c r="I805" s="6" t="n"/>
     </row>
     <row r="806">
       <c r="A806" s="6" t="n"/>
@@ -17025,6 +17855,7 @@
       <c r="F806" s="6" t="n"/>
       <c r="G806" s="6" t="n"/>
       <c r="H806" s="6" t="n"/>
+      <c r="I806" s="6" t="n"/>
     </row>
     <row r="807">
       <c r="A807" s="6" t="n"/>
@@ -17035,6 +17866,7 @@
       <c r="F807" s="6" t="n"/>
       <c r="G807" s="6" t="n"/>
       <c r="H807" s="6" t="n"/>
+      <c r="I807" s="6" t="n"/>
     </row>
     <row r="808">
       <c r="A808" s="6" t="n"/>
@@ -17045,6 +17877,7 @@
       <c r="F808" s="6" t="n"/>
       <c r="G808" s="6" t="n"/>
       <c r="H808" s="6" t="n"/>
+      <c r="I808" s="6" t="n"/>
     </row>
     <row r="809">
       <c r="A809" s="6" t="n"/>
@@ -17055,6 +17888,7 @@
       <c r="F809" s="6" t="n"/>
       <c r="G809" s="6" t="n"/>
       <c r="H809" s="6" t="n"/>
+      <c r="I809" s="6" t="n"/>
     </row>
     <row r="810">
       <c r="A810" s="6" t="n"/>
@@ -17065,6 +17899,7 @@
       <c r="F810" s="6" t="n"/>
       <c r="G810" s="6" t="n"/>
       <c r="H810" s="6" t="n"/>
+      <c r="I810" s="6" t="n"/>
     </row>
     <row r="811">
       <c r="A811" s="6" t="n"/>
@@ -17075,6 +17910,7 @@
       <c r="F811" s="6" t="n"/>
       <c r="G811" s="6" t="n"/>
       <c r="H811" s="6" t="n"/>
+      <c r="I811" s="6" t="n"/>
     </row>
     <row r="812">
       <c r="A812" s="6" t="n"/>
@@ -17085,6 +17921,7 @@
       <c r="F812" s="6" t="n"/>
       <c r="G812" s="6" t="n"/>
       <c r="H812" s="6" t="n"/>
+      <c r="I812" s="6" t="n"/>
     </row>
     <row r="813">
       <c r="A813" s="6" t="n"/>
@@ -17095,6 +17932,7 @@
       <c r="F813" s="6" t="n"/>
       <c r="G813" s="6" t="n"/>
       <c r="H813" s="6" t="n"/>
+      <c r="I813" s="6" t="n"/>
     </row>
     <row r="814">
       <c r="A814" s="6" t="n"/>
@@ -17105,6 +17943,7 @@
       <c r="F814" s="6" t="n"/>
       <c r="G814" s="6" t="n"/>
       <c r="H814" s="6" t="n"/>
+      <c r="I814" s="6" t="n"/>
     </row>
     <row r="815">
       <c r="A815" s="6" t="n"/>
@@ -17115,6 +17954,7 @@
       <c r="F815" s="6" t="n"/>
       <c r="G815" s="6" t="n"/>
       <c r="H815" s="6" t="n"/>
+      <c r="I815" s="6" t="n"/>
     </row>
     <row r="816">
       <c r="A816" s="6" t="n"/>
@@ -17125,6 +17965,7 @@
       <c r="F816" s="6" t="n"/>
       <c r="G816" s="6" t="n"/>
       <c r="H816" s="6" t="n"/>
+      <c r="I816" s="6" t="n"/>
     </row>
     <row r="817">
       <c r="A817" s="6" t="n"/>
@@ -17135,6 +17976,7 @@
       <c r="F817" s="6" t="n"/>
       <c r="G817" s="6" t="n"/>
       <c r="H817" s="6" t="n"/>
+      <c r="I817" s="6" t="n"/>
     </row>
     <row r="818">
       <c r="A818" s="6" t="n"/>
@@ -17145,6 +17987,7 @@
       <c r="F818" s="6" t="n"/>
       <c r="G818" s="6" t="n"/>
       <c r="H818" s="6" t="n"/>
+      <c r="I818" s="6" t="n"/>
     </row>
     <row r="819">
       <c r="A819" s="6" t="n"/>
@@ -17155,6 +17998,7 @@
       <c r="F819" s="6" t="n"/>
       <c r="G819" s="6" t="n"/>
       <c r="H819" s="6" t="n"/>
+      <c r="I819" s="6" t="n"/>
     </row>
     <row r="820">
       <c r="A820" s="6" t="n"/>
@@ -17165,6 +18009,7 @@
       <c r="F820" s="6" t="n"/>
       <c r="G820" s="6" t="n"/>
       <c r="H820" s="6" t="n"/>
+      <c r="I820" s="6" t="n"/>
     </row>
     <row r="821">
       <c r="A821" s="6" t="n"/>
@@ -17175,6 +18020,7 @@
       <c r="F821" s="6" t="n"/>
       <c r="G821" s="6" t="n"/>
       <c r="H821" s="6" t="n"/>
+      <c r="I821" s="6" t="n"/>
     </row>
     <row r="822">
       <c r="A822" s="6" t="n"/>
@@ -17185,6 +18031,7 @@
       <c r="F822" s="6" t="n"/>
       <c r="G822" s="6" t="n"/>
       <c r="H822" s="6" t="n"/>
+      <c r="I822" s="6" t="n"/>
     </row>
     <row r="823">
       <c r="A823" s="6" t="n"/>
@@ -17195,6 +18042,7 @@
       <c r="F823" s="6" t="n"/>
       <c r="G823" s="6" t="n"/>
       <c r="H823" s="6" t="n"/>
+      <c r="I823" s="6" t="n"/>
     </row>
     <row r="824">
       <c r="A824" s="6" t="n"/>
@@ -17205,6 +18053,7 @@
       <c r="F824" s="6" t="n"/>
       <c r="G824" s="6" t="n"/>
       <c r="H824" s="6" t="n"/>
+      <c r="I824" s="6" t="n"/>
     </row>
     <row r="825">
       <c r="A825" s="6" t="n"/>
@@ -17215,6 +18064,7 @@
       <c r="F825" s="6" t="n"/>
       <c r="G825" s="6" t="n"/>
       <c r="H825" s="6" t="n"/>
+      <c r="I825" s="6" t="n"/>
     </row>
     <row r="826">
       <c r="A826" s="6" t="n"/>
@@ -17225,6 +18075,7 @@
       <c r="F826" s="6" t="n"/>
       <c r="G826" s="6" t="n"/>
       <c r="H826" s="6" t="n"/>
+      <c r="I826" s="6" t="n"/>
     </row>
     <row r="827">
       <c r="A827" s="6" t="n"/>
@@ -17235,6 +18086,7 @@
       <c r="F827" s="6" t="n"/>
       <c r="G827" s="6" t="n"/>
       <c r="H827" s="6" t="n"/>
+      <c r="I827" s="6" t="n"/>
     </row>
     <row r="828">
       <c r="A828" s="6" t="n"/>
@@ -17245,6 +18097,7 @@
       <c r="F828" s="6" t="n"/>
       <c r="G828" s="6" t="n"/>
       <c r="H828" s="6" t="n"/>
+      <c r="I828" s="6" t="n"/>
     </row>
     <row r="829">
       <c r="A829" s="6" t="n"/>
@@ -17255,6 +18108,7 @@
       <c r="F829" s="6" t="n"/>
       <c r="G829" s="6" t="n"/>
       <c r="H829" s="6" t="n"/>
+      <c r="I829" s="6" t="n"/>
     </row>
     <row r="830">
       <c r="A830" s="6" t="n"/>
@@ -17265,6 +18119,7 @@
       <c r="F830" s="6" t="n"/>
       <c r="G830" s="6" t="n"/>
       <c r="H830" s="6" t="n"/>
+      <c r="I830" s="6" t="n"/>
     </row>
     <row r="831">
       <c r="A831" s="6" t="n"/>
@@ -17275,6 +18130,7 @@
       <c r="F831" s="6" t="n"/>
       <c r="G831" s="6" t="n"/>
       <c r="H831" s="6" t="n"/>
+      <c r="I831" s="6" t="n"/>
     </row>
     <row r="832">
       <c r="A832" s="6" t="n"/>
@@ -17285,6 +18141,7 @@
       <c r="F832" s="6" t="n"/>
       <c r="G832" s="6" t="n"/>
       <c r="H832" s="6" t="n"/>
+      <c r="I832" s="6" t="n"/>
     </row>
     <row r="833">
       <c r="A833" s="6" t="n"/>
@@ -17295,6 +18152,7 @@
       <c r="F833" s="6" t="n"/>
       <c r="G833" s="6" t="n"/>
       <c r="H833" s="6" t="n"/>
+      <c r="I833" s="6" t="n"/>
     </row>
     <row r="834">
       <c r="A834" s="6" t="n"/>
@@ -17305,6 +18163,7 @@
       <c r="F834" s="6" t="n"/>
       <c r="G834" s="6" t="n"/>
       <c r="H834" s="6" t="n"/>
+      <c r="I834" s="6" t="n"/>
     </row>
     <row r="835">
       <c r="A835" s="6" t="n"/>
@@ -17315,6 +18174,7 @@
       <c r="F835" s="6" t="n"/>
       <c r="G835" s="6" t="n"/>
       <c r="H835" s="6" t="n"/>
+      <c r="I835" s="6" t="n"/>
     </row>
     <row r="836">
       <c r="A836" s="6" t="n"/>
@@ -17325,6 +18185,7 @@
       <c r="F836" s="6" t="n"/>
       <c r="G836" s="6" t="n"/>
       <c r="H836" s="6" t="n"/>
+      <c r="I836" s="6" t="n"/>
     </row>
     <row r="837">
       <c r="A837" s="6" t="n"/>
@@ -17335,6 +18196,7 @@
       <c r="F837" s="6" t="n"/>
       <c r="G837" s="6" t="n"/>
       <c r="H837" s="6" t="n"/>
+      <c r="I837" s="6" t="n"/>
     </row>
     <row r="838">
       <c r="A838" s="6" t="n"/>
@@ -17345,6 +18207,7 @@
       <c r="F838" s="6" t="n"/>
       <c r="G838" s="6" t="n"/>
       <c r="H838" s="6" t="n"/>
+      <c r="I838" s="6" t="n"/>
     </row>
     <row r="839">
       <c r="A839" s="6" t="n"/>
@@ -17355,6 +18218,7 @@
       <c r="F839" s="6" t="n"/>
       <c r="G839" s="6" t="n"/>
       <c r="H839" s="6" t="n"/>
+      <c r="I839" s="6" t="n"/>
     </row>
     <row r="840">
       <c r="A840" s="6" t="n"/>
@@ -17365,6 +18229,7 @@
       <c r="F840" s="6" t="n"/>
       <c r="G840" s="6" t="n"/>
       <c r="H840" s="6" t="n"/>
+      <c r="I840" s="6" t="n"/>
     </row>
     <row r="841">
       <c r="A841" s="6" t="n"/>
@@ -17375,6 +18240,7 @@
       <c r="F841" s="6" t="n"/>
       <c r="G841" s="6" t="n"/>
       <c r="H841" s="6" t="n"/>
+      <c r="I841" s="6" t="n"/>
     </row>
     <row r="842">
       <c r="A842" s="6" t="n"/>
@@ -17385,6 +18251,7 @@
       <c r="F842" s="6" t="n"/>
       <c r="G842" s="6" t="n"/>
       <c r="H842" s="6" t="n"/>
+      <c r="I842" s="6" t="n"/>
     </row>
     <row r="843">
       <c r="A843" s="6" t="n"/>
@@ -17395,6 +18262,7 @@
       <c r="F843" s="6" t="n"/>
       <c r="G843" s="6" t="n"/>
       <c r="H843" s="6" t="n"/>
+      <c r="I843" s="6" t="n"/>
     </row>
     <row r="844">
       <c r="A844" s="6" t="n"/>
@@ -17405,6 +18273,7 @@
       <c r="F844" s="6" t="n"/>
       <c r="G844" s="6" t="n"/>
       <c r="H844" s="6" t="n"/>
+      <c r="I844" s="6" t="n"/>
     </row>
     <row r="845">
       <c r="A845" s="6" t="n"/>
@@ -17415,6 +18284,7 @@
       <c r="F845" s="6" t="n"/>
       <c r="G845" s="6" t="n"/>
       <c r="H845" s="6" t="n"/>
+      <c r="I845" s="6" t="n"/>
     </row>
     <row r="846">
       <c r="A846" s="6" t="n"/>
@@ -17425,6 +18295,7 @@
       <c r="F846" s="6" t="n"/>
       <c r="G846" s="6" t="n"/>
       <c r="H846" s="6" t="n"/>
+      <c r="I846" s="6" t="n"/>
     </row>
     <row r="847">
       <c r="A847" s="6" t="n"/>
@@ -17435,6 +18306,7 @@
       <c r="F847" s="6" t="n"/>
       <c r="G847" s="6" t="n"/>
       <c r="H847" s="6" t="n"/>
+      <c r="I847" s="6" t="n"/>
     </row>
     <row r="848">
       <c r="A848" s="6" t="n"/>
@@ -17445,6 +18317,7 @@
       <c r="F848" s="6" t="n"/>
       <c r="G848" s="6" t="n"/>
       <c r="H848" s="6" t="n"/>
+      <c r="I848" s="6" t="n"/>
     </row>
     <row r="849">
       <c r="A849" s="6" t="n"/>
@@ -17455,6 +18328,7 @@
       <c r="F849" s="6" t="n"/>
       <c r="G849" s="6" t="n"/>
       <c r="H849" s="6" t="n"/>
+      <c r="I849" s="6" t="n"/>
     </row>
     <row r="850">
       <c r="A850" s="6" t="n"/>
@@ -17465,6 +18339,7 @@
       <c r="F850" s="6" t="n"/>
       <c r="G850" s="6" t="n"/>
       <c r="H850" s="6" t="n"/>
+      <c r="I850" s="6" t="n"/>
     </row>
     <row r="851">
       <c r="A851" s="6" t="n"/>
@@ -17475,6 +18350,7 @@
       <c r="F851" s="6" t="n"/>
       <c r="G851" s="6" t="n"/>
       <c r="H851" s="6" t="n"/>
+      <c r="I851" s="6" t="n"/>
     </row>
     <row r="852">
       <c r="A852" s="6" t="n"/>
@@ -17485,6 +18361,7 @@
       <c r="F852" s="6" t="n"/>
       <c r="G852" s="6" t="n"/>
       <c r="H852" s="6" t="n"/>
+      <c r="I852" s="6" t="n"/>
     </row>
     <row r="853">
       <c r="A853" s="6" t="n"/>
@@ -17495,6 +18372,7 @@
       <c r="F853" s="6" t="n"/>
       <c r="G853" s="6" t="n"/>
       <c r="H853" s="6" t="n"/>
+      <c r="I853" s="6" t="n"/>
     </row>
     <row r="854">
       <c r="A854" s="6" t="n"/>
@@ -17505,6 +18383,7 @@
       <c r="F854" s="6" t="n"/>
       <c r="G854" s="6" t="n"/>
       <c r="H854" s="6" t="n"/>
+      <c r="I854" s="6" t="n"/>
     </row>
     <row r="855">
       <c r="A855" s="6" t="n"/>
@@ -17515,6 +18394,7 @@
       <c r="F855" s="6" t="n"/>
       <c r="G855" s="6" t="n"/>
       <c r="H855" s="6" t="n"/>
+      <c r="I855" s="6" t="n"/>
     </row>
     <row r="856">
       <c r="A856" s="6" t="n"/>
@@ -17525,6 +18405,7 @@
       <c r="F856" s="6" t="n"/>
       <c r="G856" s="6" t="n"/>
       <c r="H856" s="6" t="n"/>
+      <c r="I856" s="6" t="n"/>
     </row>
     <row r="857">
       <c r="A857" s="6" t="n"/>
@@ -17535,6 +18416,7 @@
       <c r="F857" s="6" t="n"/>
       <c r="G857" s="6" t="n"/>
       <c r="H857" s="6" t="n"/>
+      <c r="I857" s="6" t="n"/>
     </row>
     <row r="858">
       <c r="A858" s="6" t="n"/>
@@ -17545,6 +18427,7 @@
       <c r="F858" s="6" t="n"/>
       <c r="G858" s="6" t="n"/>
       <c r="H858" s="6" t="n"/>
+      <c r="I858" s="6" t="n"/>
     </row>
     <row r="859">
       <c r="A859" s="6" t="n"/>
@@ -17555,6 +18438,7 @@
       <c r="F859" s="6" t="n"/>
       <c r="G859" s="6" t="n"/>
       <c r="H859" s="6" t="n"/>
+      <c r="I859" s="6" t="n"/>
     </row>
     <row r="860">
       <c r="A860" s="6" t="n"/>
@@ -17565,6 +18449,7 @@
       <c r="F860" s="6" t="n"/>
       <c r="G860" s="6" t="n"/>
       <c r="H860" s="6" t="n"/>
+      <c r="I860" s="6" t="n"/>
     </row>
     <row r="861">
       <c r="A861" s="6" t="n"/>
@@ -17575,6 +18460,7 @@
       <c r="F861" s="6" t="n"/>
       <c r="G861" s="6" t="n"/>
       <c r="H861" s="6" t="n"/>
+      <c r="I861" s="6" t="n"/>
     </row>
     <row r="862">
       <c r="A862" s="6" t="n"/>
@@ -17585,6 +18471,7 @@
       <c r="F862" s="6" t="n"/>
       <c r="G862" s="6" t="n"/>
       <c r="H862" s="6" t="n"/>
+      <c r="I862" s="6" t="n"/>
     </row>
     <row r="863">
       <c r="A863" s="6" t="n"/>
@@ -17595,6 +18482,7 @@
       <c r="F863" s="6" t="n"/>
       <c r="G863" s="6" t="n"/>
       <c r="H863" s="6" t="n"/>
+      <c r="I863" s="6" t="n"/>
     </row>
     <row r="864">
       <c r="A864" s="6" t="n"/>
@@ -17605,6 +18493,7 @@
       <c r="F864" s="6" t="n"/>
       <c r="G864" s="6" t="n"/>
       <c r="H864" s="6" t="n"/>
+      <c r="I864" s="6" t="n"/>
     </row>
     <row r="865">
       <c r="A865" s="6" t="n"/>
@@ -17615,6 +18504,7 @@
       <c r="F865" s="6" t="n"/>
       <c r="G865" s="6" t="n"/>
       <c r="H865" s="6" t="n"/>
+      <c r="I865" s="6" t="n"/>
     </row>
     <row r="866">
       <c r="A866" s="6" t="n"/>
@@ -17625,6 +18515,7 @@
       <c r="F866" s="6" t="n"/>
       <c r="G866" s="6" t="n"/>
       <c r="H866" s="6" t="n"/>
+      <c r="I866" s="6" t="n"/>
     </row>
     <row r="867">
       <c r="A867" s="6" t="n"/>
@@ -17635,6 +18526,7 @@
       <c r="F867" s="6" t="n"/>
       <c r="G867" s="6" t="n"/>
       <c r="H867" s="6" t="n"/>
+      <c r="I867" s="6" t="n"/>
     </row>
     <row r="868">
       <c r="A868" s="6" t="n"/>
@@ -17645,6 +18537,7 @@
       <c r="F868" s="6" t="n"/>
       <c r="G868" s="6" t="n"/>
       <c r="H868" s="6" t="n"/>
+      <c r="I868" s="6" t="n"/>
     </row>
     <row r="869">
       <c r="A869" s="6" t="n"/>
@@ -17655,6 +18548,7 @@
       <c r="F869" s="6" t="n"/>
       <c r="G869" s="6" t="n"/>
       <c r="H869" s="6" t="n"/>
+      <c r="I869" s="6" t="n"/>
     </row>
     <row r="870">
       <c r="A870" s="6" t="n"/>
@@ -17665,6 +18559,7 @@
       <c r="F870" s="6" t="n"/>
       <c r="G870" s="6" t="n"/>
       <c r="H870" s="6" t="n"/>
+      <c r="I870" s="6" t="n"/>
     </row>
     <row r="871">
       <c r="A871" s="6" t="n"/>
@@ -17675,6 +18570,7 @@
       <c r="F871" s="6" t="n"/>
       <c r="G871" s="6" t="n"/>
       <c r="H871" s="6" t="n"/>
+      <c r="I871" s="6" t="n"/>
     </row>
     <row r="872">
       <c r="A872" s="6" t="n"/>
@@ -17685,6 +18581,7 @@
       <c r="F872" s="6" t="n"/>
       <c r="G872" s="6" t="n"/>
       <c r="H872" s="6" t="n"/>
+      <c r="I872" s="6" t="n"/>
     </row>
     <row r="873">
       <c r="A873" s="6" t="n"/>
@@ -17695,6 +18592,7 @@
       <c r="F873" s="6" t="n"/>
       <c r="G873" s="6" t="n"/>
       <c r="H873" s="6" t="n"/>
+      <c r="I873" s="6" t="n"/>
     </row>
     <row r="874">
       <c r="A874" s="6" t="n"/>
@@ -17705,6 +18603,7 @@
       <c r="F874" s="6" t="n"/>
       <c r="G874" s="6" t="n"/>
       <c r="H874" s="6" t="n"/>
+      <c r="I874" s="6" t="n"/>
     </row>
     <row r="875">
       <c r="A875" s="6" t="n"/>
@@ -17715,6 +18614,7 @@
       <c r="F875" s="6" t="n"/>
       <c r="G875" s="6" t="n"/>
       <c r="H875" s="6" t="n"/>
+      <c r="I875" s="6" t="n"/>
     </row>
     <row r="876">
       <c r="A876" s="6" t="n"/>
@@ -17725,6 +18625,7 @@
       <c r="F876" s="6" t="n"/>
       <c r="G876" s="6" t="n"/>
       <c r="H876" s="6" t="n"/>
+      <c r="I876" s="6" t="n"/>
     </row>
     <row r="877">
       <c r="A877" s="6" t="n"/>
@@ -17735,6 +18636,7 @@
       <c r="F877" s="6" t="n"/>
       <c r="G877" s="6" t="n"/>
       <c r="H877" s="6" t="n"/>
+      <c r="I877" s="6" t="n"/>
     </row>
     <row r="878">
       <c r="A878" s="6" t="n"/>
@@ -17745,6 +18647,7 @@
       <c r="F878" s="6" t="n"/>
       <c r="G878" s="6" t="n"/>
       <c r="H878" s="6" t="n"/>
+      <c r="I878" s="6" t="n"/>
     </row>
     <row r="879">
       <c r="A879" s="6" t="n"/>
@@ -17755,6 +18658,7 @@
       <c r="F879" s="6" t="n"/>
       <c r="G879" s="6" t="n"/>
       <c r="H879" s="6" t="n"/>
+      <c r="I879" s="6" t="n"/>
     </row>
     <row r="880">
       <c r="A880" s="6" t="n"/>
@@ -17765,6 +18669,7 @@
       <c r="F880" s="6" t="n"/>
       <c r="G880" s="6" t="n"/>
       <c r="H880" s="6" t="n"/>
+      <c r="I880" s="6" t="n"/>
     </row>
     <row r="881">
       <c r="A881" s="6" t="n"/>
@@ -17775,6 +18680,7 @@
       <c r="F881" s="6" t="n"/>
       <c r="G881" s="6" t="n"/>
       <c r="H881" s="6" t="n"/>
+      <c r="I881" s="6" t="n"/>
     </row>
     <row r="882">
       <c r="A882" s="6" t="n"/>
@@ -17785,6 +18691,7 @@
       <c r="F882" s="6" t="n"/>
       <c r="G882" s="6" t="n"/>
       <c r="H882" s="6" t="n"/>
+      <c r="I882" s="6" t="n"/>
     </row>
     <row r="883">
       <c r="A883" s="6" t="n"/>
@@ -17795,6 +18702,7 @@
       <c r="F883" s="6" t="n"/>
       <c r="G883" s="6" t="n"/>
       <c r="H883" s="6" t="n"/>
+      <c r="I883" s="6" t="n"/>
     </row>
     <row r="884">
       <c r="A884" s="6" t="n"/>
@@ -17805,6 +18713,7 @@
       <c r="F884" s="6" t="n"/>
       <c r="G884" s="6" t="n"/>
       <c r="H884" s="6" t="n"/>
+      <c r="I884" s="6" t="n"/>
     </row>
     <row r="885">
       <c r="A885" s="6" t="n"/>
@@ -17815,6 +18724,7 @@
       <c r="F885" s="6" t="n"/>
       <c r="G885" s="6" t="n"/>
       <c r="H885" s="6" t="n"/>
+      <c r="I885" s="6" t="n"/>
     </row>
     <row r="886">
       <c r="A886" s="6" t="n"/>
@@ -17825,6 +18735,7 @@
       <c r="F886" s="6" t="n"/>
       <c r="G886" s="6" t="n"/>
       <c r="H886" s="6" t="n"/>
+      <c r="I886" s="6" t="n"/>
     </row>
     <row r="887">
       <c r="A887" s="6" t="n"/>
@@ -17835,6 +18746,7 @@
       <c r="F887" s="6" t="n"/>
       <c r="G887" s="6" t="n"/>
       <c r="H887" s="6" t="n"/>
+      <c r="I887" s="6" t="n"/>
     </row>
     <row r="888">
       <c r="A888" s="6" t="n"/>
@@ -17845,6 +18757,7 @@
       <c r="F888" s="6" t="n"/>
       <c r="G888" s="6" t="n"/>
       <c r="H888" s="6" t="n"/>
+      <c r="I888" s="6" t="n"/>
     </row>
     <row r="889">
       <c r="A889" s="6" t="n"/>
@@ -17855,6 +18768,7 @@
       <c r="F889" s="6" t="n"/>
       <c r="G889" s="6" t="n"/>
       <c r="H889" s="6" t="n"/>
+      <c r="I889" s="6" t="n"/>
     </row>
     <row r="890">
       <c r="A890" s="6" t="n"/>
@@ -17865,6 +18779,7 @@
       <c r="F890" s="6" t="n"/>
       <c r="G890" s="6" t="n"/>
       <c r="H890" s="6" t="n"/>
+      <c r="I890" s="6" t="n"/>
     </row>
     <row r="891">
       <c r="A891" s="6" t="n"/>
@@ -17875,6 +18790,7 @@
       <c r="F891" s="6" t="n"/>
       <c r="G891" s="6" t="n"/>
       <c r="H891" s="6" t="n"/>
+      <c r="I891" s="6" t="n"/>
     </row>
     <row r="892">
       <c r="A892" s="6" t="n"/>
@@ -17885,6 +18801,7 @@
       <c r="F892" s="6" t="n"/>
       <c r="G892" s="6" t="n"/>
       <c r="H892" s="6" t="n"/>
+      <c r="I892" s="6" t="n"/>
     </row>
     <row r="893">
       <c r="A893" s="6" t="n"/>
@@ -17895,6 +18812,7 @@
       <c r="F893" s="6" t="n"/>
       <c r="G893" s="6" t="n"/>
       <c r="H893" s="6" t="n"/>
+      <c r="I893" s="6" t="n"/>
     </row>
     <row r="894">
       <c r="A894" s="6" t="n"/>
@@ -17905,6 +18823,7 @@
       <c r="F894" s="6" t="n"/>
       <c r="G894" s="6" t="n"/>
       <c r="H894" s="6" t="n"/>
+      <c r="I894" s="6" t="n"/>
     </row>
     <row r="895">
       <c r="A895" s="6" t="n"/>
@@ -17915,6 +18834,7 @@
       <c r="F895" s="6" t="n"/>
       <c r="G895" s="6" t="n"/>
       <c r="H895" s="6" t="n"/>
+      <c r="I895" s="6" t="n"/>
     </row>
     <row r="896">
       <c r="A896" s="6" t="n"/>
@@ -17925,6 +18845,7 @@
       <c r="F896" s="6" t="n"/>
       <c r="G896" s="6" t="n"/>
       <c r="H896" s="6" t="n"/>
+      <c r="I896" s="6" t="n"/>
     </row>
     <row r="897">
       <c r="A897" s="6" t="n"/>
@@ -17935,6 +18856,7 @@
       <c r="F897" s="6" t="n"/>
       <c r="G897" s="6" t="n"/>
       <c r="H897" s="6" t="n"/>
+      <c r="I897" s="6" t="n"/>
     </row>
     <row r="898">
       <c r="A898" s="6" t="n"/>
@@ -17945,6 +18867,7 @@
       <c r="F898" s="6" t="n"/>
       <c r="G898" s="6" t="n"/>
       <c r="H898" s="6" t="n"/>
+      <c r="I898" s="6" t="n"/>
     </row>
     <row r="899">
       <c r="A899" s="6" t="n"/>
@@ -17955,6 +18878,7 @@
       <c r="F899" s="6" t="n"/>
       <c r="G899" s="6" t="n"/>
       <c r="H899" s="6" t="n"/>
+      <c r="I899" s="6" t="n"/>
     </row>
     <row r="900">
       <c r="A900" s="6" t="n"/>
@@ -17965,6 +18889,7 @@
       <c r="F900" s="6" t="n"/>
       <c r="G900" s="6" t="n"/>
       <c r="H900" s="6" t="n"/>
+      <c r="I900" s="6" t="n"/>
     </row>
     <row r="901">
       <c r="A901" s="6" t="n"/>
@@ -17975,6 +18900,7 @@
       <c r="F901" s="6" t="n"/>
       <c r="G901" s="6" t="n"/>
       <c r="H901" s="6" t="n"/>
+      <c r="I901" s="6" t="n"/>
     </row>
     <row r="902">
       <c r="A902" s="6" t="n"/>
@@ -17985,6 +18911,7 @@
       <c r="F902" s="6" t="n"/>
       <c r="G902" s="6" t="n"/>
       <c r="H902" s="6" t="n"/>
+      <c r="I902" s="6" t="n"/>
     </row>
     <row r="903">
       <c r="A903" s="6" t="n"/>
@@ -17995,6 +18922,7 @@
       <c r="F903" s="6" t="n"/>
       <c r="G903" s="6" t="n"/>
       <c r="H903" s="6" t="n"/>
+      <c r="I903" s="6" t="n"/>
     </row>
     <row r="904">
       <c r="A904" s="6" t="n"/>
@@ -18005,6 +18933,7 @@
       <c r="F904" s="6" t="n"/>
       <c r="G904" s="6" t="n"/>
       <c r="H904" s="6" t="n"/>
+      <c r="I904" s="6" t="n"/>
     </row>
     <row r="905">
       <c r="A905" s="6" t="n"/>
@@ -18015,6 +18944,7 @@
       <c r="F905" s="6" t="n"/>
       <c r="G905" s="6" t="n"/>
       <c r="H905" s="6" t="n"/>
+      <c r="I905" s="6" t="n"/>
     </row>
     <row r="906">
       <c r="A906" s="6" t="n"/>
@@ -18025,6 +18955,7 @@
       <c r="F906" s="6" t="n"/>
       <c r="G906" s="6" t="n"/>
       <c r="H906" s="6" t="n"/>
+      <c r="I906" s="6" t="n"/>
     </row>
     <row r="907">
       <c r="A907" s="6" t="n"/>
@@ -18035,6 +18966,7 @@
       <c r="F907" s="6" t="n"/>
       <c r="G907" s="6" t="n"/>
       <c r="H907" s="6" t="n"/>
+      <c r="I907" s="6" t="n"/>
     </row>
     <row r="908">
       <c r="A908" s="6" t="n"/>
@@ -18045,6 +18977,7 @@
       <c r="F908" s="6" t="n"/>
       <c r="G908" s="6" t="n"/>
       <c r="H908" s="6" t="n"/>
+      <c r="I908" s="6" t="n"/>
     </row>
     <row r="909">
       <c r="A909" s="6" t="n"/>
@@ -18055,6 +18988,7 @@
       <c r="F909" s="6" t="n"/>
       <c r="G909" s="6" t="n"/>
       <c r="H909" s="6" t="n"/>
+      <c r="I909" s="6" t="n"/>
     </row>
     <row r="910">
       <c r="A910" s="6" t="n"/>
@@ -18065,6 +18999,7 @@
       <c r="F910" s="6" t="n"/>
       <c r="G910" s="6" t="n"/>
       <c r="H910" s="6" t="n"/>
+      <c r="I910" s="6" t="n"/>
     </row>
     <row r="911">
       <c r="A911" s="6" t="n"/>
@@ -18075,6 +19010,7 @@
       <c r="F911" s="6" t="n"/>
       <c r="G911" s="6" t="n"/>
       <c r="H911" s="6" t="n"/>
+      <c r="I911" s="6" t="n"/>
     </row>
     <row r="912">
       <c r="A912" s="6" t="n"/>
@@ -18085,6 +19021,7 @@
       <c r="F912" s="6" t="n"/>
       <c r="G912" s="6" t="n"/>
       <c r="H912" s="6" t="n"/>
+      <c r="I912" s="6" t="n"/>
     </row>
     <row r="913">
       <c r="A913" s="6" t="n"/>
@@ -18095,6 +19032,7 @@
       <c r="F913" s="6" t="n"/>
       <c r="G913" s="6" t="n"/>
       <c r="H913" s="6" t="n"/>
+      <c r="I913" s="6" t="n"/>
     </row>
     <row r="914">
       <c r="A914" s="6" t="n"/>
@@ -18105,6 +19043,7 @@
       <c r="F914" s="6" t="n"/>
       <c r="G914" s="6" t="n"/>
       <c r="H914" s="6" t="n"/>
+      <c r="I914" s="6" t="n"/>
     </row>
     <row r="915">
       <c r="A915" s="6" t="n"/>
@@ -18115,6 +19054,7 @@
       <c r="F915" s="6" t="n"/>
       <c r="G915" s="6" t="n"/>
       <c r="H915" s="6" t="n"/>
+      <c r="I915" s="6" t="n"/>
     </row>
     <row r="916">
       <c r="A916" s="6" t="n"/>
@@ -18125,6 +19065,7 @@
       <c r="F916" s="6" t="n"/>
       <c r="G916" s="6" t="n"/>
       <c r="H916" s="6" t="n"/>
+      <c r="I916" s="6" t="n"/>
     </row>
     <row r="917">
       <c r="A917" s="6" t="n"/>
@@ -18135,6 +19076,7 @@
       <c r="F917" s="6" t="n"/>
       <c r="G917" s="6" t="n"/>
       <c r="H917" s="6" t="n"/>
+      <c r="I917" s="6" t="n"/>
     </row>
     <row r="918">
       <c r="A918" s="6" t="n"/>
@@ -18145,6 +19087,7 @@
       <c r="F918" s="6" t="n"/>
       <c r="G918" s="6" t="n"/>
       <c r="H918" s="6" t="n"/>
+      <c r="I918" s="6" t="n"/>
     </row>
     <row r="919">
       <c r="A919" s="6" t="n"/>
@@ -18155,6 +19098,7 @@
       <c r="F919" s="6" t="n"/>
       <c r="G919" s="6" t="n"/>
       <c r="H919" s="6" t="n"/>
+      <c r="I919" s="6" t="n"/>
     </row>
     <row r="920">
       <c r="A920" s="6" t="n"/>
@@ -18165,6 +19109,7 @@
       <c r="F920" s="6" t="n"/>
       <c r="G920" s="6" t="n"/>
       <c r="H920" s="6" t="n"/>
+      <c r="I920" s="6" t="n"/>
     </row>
     <row r="921">
       <c r="A921" s="6" t="n"/>
@@ -18175,6 +19120,7 @@
       <c r="F921" s="6" t="n"/>
       <c r="G921" s="6" t="n"/>
       <c r="H921" s="6" t="n"/>
+      <c r="I921" s="6" t="n"/>
     </row>
     <row r="922">
       <c r="A922" s="6" t="n"/>
@@ -18185,6 +19131,7 @@
       <c r="F922" s="6" t="n"/>
       <c r="G922" s="6" t="n"/>
       <c r="H922" s="6" t="n"/>
+      <c r="I922" s="6" t="n"/>
     </row>
     <row r="923">
       <c r="A923" s="6" t="n"/>
@@ -18195,6 +19142,7 @@
       <c r="F923" s="6" t="n"/>
       <c r="G923" s="6" t="n"/>
       <c r="H923" s="6" t="n"/>
+      <c r="I923" s="6" t="n"/>
     </row>
     <row r="924">
       <c r="A924" s="6" t="n"/>
@@ -18205,6 +19153,7 @@
       <c r="F924" s="6" t="n"/>
       <c r="G924" s="6" t="n"/>
       <c r="H924" s="6" t="n"/>
+      <c r="I924" s="6" t="n"/>
     </row>
     <row r="925">
       <c r="A925" s="6" t="n"/>
@@ -18215,6 +19164,7 @@
       <c r="F925" s="6" t="n"/>
       <c r="G925" s="6" t="n"/>
       <c r="H925" s="6" t="n"/>
+      <c r="I925" s="6" t="n"/>
     </row>
     <row r="926">
       <c r="A926" s="6" t="n"/>
@@ -18225,6 +19175,7 @@
       <c r="F926" s="6" t="n"/>
       <c r="G926" s="6" t="n"/>
       <c r="H926" s="6" t="n"/>
+      <c r="I926" s="6" t="n"/>
     </row>
     <row r="927">
       <c r="A927" s="6" t="n"/>
@@ -18235,6 +19186,7 @@
       <c r="F927" s="6" t="n"/>
       <c r="G927" s="6" t="n"/>
       <c r="H927" s="6" t="n"/>
+      <c r="I927" s="6" t="n"/>
     </row>
     <row r="928">
       <c r="A928" s="6" t="n"/>
@@ -18245,6 +19197,7 @@
       <c r="F928" s="6" t="n"/>
       <c r="G928" s="6" t="n"/>
       <c r="H928" s="6" t="n"/>
+      <c r="I928" s="6" t="n"/>
     </row>
     <row r="929">
       <c r="A929" s="6" t="n"/>
@@ -18255,6 +19208,7 @@
       <c r="F929" s="6" t="n"/>
       <c r="G929" s="6" t="n"/>
       <c r="H929" s="6" t="n"/>
+      <c r="I929" s="6" t="n"/>
     </row>
     <row r="930">
       <c r="A930" s="6" t="n"/>
@@ -18265,6 +19219,7 @@
       <c r="F930" s="6" t="n"/>
       <c r="G930" s="6" t="n"/>
       <c r="H930" s="6" t="n"/>
+      <c r="I930" s="6" t="n"/>
     </row>
     <row r="931">
       <c r="A931" s="6" t="n"/>
@@ -18275,6 +19230,7 @@
       <c r="F931" s="6" t="n"/>
       <c r="G931" s="6" t="n"/>
       <c r="H931" s="6" t="n"/>
+      <c r="I931" s="6" t="n"/>
     </row>
     <row r="932">
       <c r="A932" s="6" t="n"/>
@@ -18285,6 +19241,7 @@
       <c r="F932" s="6" t="n"/>
       <c r="G932" s="6" t="n"/>
       <c r="H932" s="6" t="n"/>
+      <c r="I932" s="6" t="n"/>
     </row>
     <row r="933">
       <c r="A933" s="6" t="n"/>
@@ -18295,6 +19252,7 @@
       <c r="F933" s="6" t="n"/>
       <c r="G933" s="6" t="n"/>
       <c r="H933" s="6" t="n"/>
+      <c r="I933" s="6" t="n"/>
     </row>
     <row r="934">
       <c r="A934" s="6" t="n"/>
@@ -18305,6 +19263,7 @@
       <c r="F934" s="6" t="n"/>
       <c r="G934" s="6" t="n"/>
       <c r="H934" s="6" t="n"/>
+      <c r="I934" s="6" t="n"/>
     </row>
     <row r="935">
       <c r="A935" s="6" t="n"/>
@@ -18315,6 +19274,7 @@
       <c r="F935" s="6" t="n"/>
       <c r="G935" s="6" t="n"/>
       <c r="H935" s="6" t="n"/>
+      <c r="I935" s="6" t="n"/>
     </row>
     <row r="936">
       <c r="A936" s="6" t="n"/>
@@ -18325,6 +19285,7 @@
       <c r="F936" s="6" t="n"/>
       <c r="G936" s="6" t="n"/>
       <c r="H936" s="6" t="n"/>
+      <c r="I936" s="6" t="n"/>
     </row>
     <row r="937">
       <c r="A937" s="6" t="n"/>
@@ -18335,6 +19296,7 @@
       <c r="F937" s="6" t="n"/>
       <c r="G937" s="6" t="n"/>
       <c r="H937" s="6" t="n"/>
+      <c r="I937" s="6" t="n"/>
     </row>
     <row r="938">
       <c r="A938" s="6" t="n"/>
@@ -18345,6 +19307,7 @@
       <c r="F938" s="6" t="n"/>
       <c r="G938" s="6" t="n"/>
       <c r="H938" s="6" t="n"/>
+      <c r="I938" s="6" t="n"/>
     </row>
     <row r="939">
       <c r="A939" s="6" t="n"/>
@@ -18355,6 +19318,7 @@
       <c r="F939" s="6" t="n"/>
       <c r="G939" s="6" t="n"/>
       <c r="H939" s="6" t="n"/>
+      <c r="I939" s="6" t="n"/>
     </row>
     <row r="940">
       <c r="A940" s="6" t="n"/>
@@ -18365,6 +19329,7 @@
       <c r="F940" s="6" t="n"/>
       <c r="G940" s="6" t="n"/>
       <c r="H940" s="6" t="n"/>
+      <c r="I940" s="6" t="n"/>
     </row>
     <row r="941">
       <c r="A941" s="6" t="n"/>
@@ -18375,6 +19340,7 @@
       <c r="F941" s="6" t="n"/>
       <c r="G941" s="6" t="n"/>
       <c r="H941" s="6" t="n"/>
+      <c r="I941" s="6" t="n"/>
     </row>
     <row r="942">
       <c r="A942" s="6" t="n"/>
@@ -18385,6 +19351,7 @@
       <c r="F942" s="6" t="n"/>
       <c r="G942" s="6" t="n"/>
       <c r="H942" s="6" t="n"/>
+      <c r="I942" s="6" t="n"/>
     </row>
     <row r="943">
       <c r="A943" s="6" t="n"/>
@@ -18395,6 +19362,7 @@
       <c r="F943" s="6" t="n"/>
       <c r="G943" s="6" t="n"/>
       <c r="H943" s="6" t="n"/>
+      <c r="I943" s="6" t="n"/>
     </row>
     <row r="944">
       <c r="A944" s="6" t="n"/>
@@ -18405,6 +19373,7 @@
       <c r="F944" s="6" t="n"/>
       <c r="G944" s="6" t="n"/>
       <c r="H944" s="6" t="n"/>
+      <c r="I944" s="6" t="n"/>
     </row>
     <row r="945">
       <c r="A945" s="6" t="n"/>
@@ -18415,6 +19384,7 @@
       <c r="F945" s="6" t="n"/>
       <c r="G945" s="6" t="n"/>
       <c r="H945" s="6" t="n"/>
+      <c r="I945" s="6" t="n"/>
     </row>
     <row r="946">
       <c r="A946" s="6" t="n"/>
@@ -18425,6 +19395,7 @@
       <c r="F946" s="6" t="n"/>
       <c r="G946" s="6" t="n"/>
       <c r="H946" s="6" t="n"/>
+      <c r="I946" s="6" t="n"/>
     </row>
     <row r="947">
       <c r="A947" s="6" t="n"/>
@@ -18435,6 +19406,7 @@
       <c r="F947" s="6" t="n"/>
       <c r="G947" s="6" t="n"/>
       <c r="H947" s="6" t="n"/>
+      <c r="I947" s="6" t="n"/>
     </row>
     <row r="948">
       <c r="A948" s="6" t="n"/>
@@ -18445,6 +19417,7 @@
       <c r="F948" s="6" t="n"/>
       <c r="G948" s="6" t="n"/>
       <c r="H948" s="6" t="n"/>
+      <c r="I948" s="6" t="n"/>
     </row>
     <row r="949">
       <c r="A949" s="6" t="n"/>
@@ -18455,6 +19428,7 @@
       <c r="F949" s="6" t="n"/>
       <c r="G949" s="6" t="n"/>
       <c r="H949" s="6" t="n"/>
+      <c r="I949" s="6" t="n"/>
     </row>
     <row r="950">
       <c r="A950" s="6" t="n"/>
@@ -18465,6 +19439,7 @@
       <c r="F950" s="6" t="n"/>
       <c r="G950" s="6" t="n"/>
       <c r="H950" s="6" t="n"/>
+      <c r="I950" s="6" t="n"/>
     </row>
     <row r="951">
       <c r="A951" s="6" t="n"/>
@@ -18475,6 +19450,7 @@
       <c r="F951" s="6" t="n"/>
       <c r="G951" s="6" t="n"/>
       <c r="H951" s="6" t="n"/>
+      <c r="I951" s="6" t="n"/>
     </row>
     <row r="952">
       <c r="A952" s="6" t="n"/>
@@ -18485,6 +19461,7 @@
       <c r="F952" s="6" t="n"/>
       <c r="G952" s="6" t="n"/>
       <c r="H952" s="6" t="n"/>
+      <c r="I952" s="6" t="n"/>
     </row>
     <row r="953">
       <c r="A953" s="6" t="n"/>
@@ -18495,6 +19472,7 @@
       <c r="F953" s="6" t="n"/>
       <c r="G953" s="6" t="n"/>
       <c r="H953" s="6" t="n"/>
+      <c r="I953" s="6" t="n"/>
     </row>
     <row r="954">
       <c r="A954" s="6" t="n"/>
@@ -18505,6 +19483,7 @@
       <c r="F954" s="6" t="n"/>
       <c r="G954" s="6" t="n"/>
       <c r="H954" s="6" t="n"/>
+      <c r="I954" s="6" t="n"/>
     </row>
     <row r="955">
       <c r="A955" s="6" t="n"/>
@@ -18515,6 +19494,7 @@
       <c r="F955" s="6" t="n"/>
       <c r="G955" s="6" t="n"/>
       <c r="H955" s="6" t="n"/>
+      <c r="I955" s="6" t="n"/>
     </row>
     <row r="956">
       <c r="A956" s="6" t="n"/>
@@ -18525,6 +19505,7 @@
       <c r="F956" s="6" t="n"/>
       <c r="G956" s="6" t="n"/>
       <c r="H956" s="6" t="n"/>
+      <c r="I956" s="6" t="n"/>
     </row>
     <row r="957">
       <c r="A957" s="6" t="n"/>
@@ -18535,6 +19516,7 @@
       <c r="F957" s="6" t="n"/>
       <c r="G957" s="6" t="n"/>
       <c r="H957" s="6" t="n"/>
+      <c r="I957" s="6" t="n"/>
     </row>
     <row r="958">
       <c r="A958" s="6" t="n"/>
@@ -18545,6 +19527,7 @@
       <c r="F958" s="6" t="n"/>
       <c r="G958" s="6" t="n"/>
       <c r="H958" s="6" t="n"/>
+      <c r="I958" s="6" t="n"/>
     </row>
     <row r="959">
       <c r="A959" s="6" t="n"/>
@@ -18555,6 +19538,7 @@
       <c r="F959" s="6" t="n"/>
       <c r="G959" s="6" t="n"/>
       <c r="H959" s="6" t="n"/>
+      <c r="I959" s="6" t="n"/>
     </row>
     <row r="960">
       <c r="A960" s="6" t="n"/>
@@ -18565,6 +19549,7 @@
       <c r="F960" s="6" t="n"/>
       <c r="G960" s="6" t="n"/>
       <c r="H960" s="6" t="n"/>
+      <c r="I960" s="6" t="n"/>
     </row>
     <row r="961">
       <c r="A961" s="6" t="n"/>
@@ -18575,6 +19560,7 @@
       <c r="F961" s="6" t="n"/>
       <c r="G961" s="6" t="n"/>
       <c r="H961" s="6" t="n"/>
+      <c r="I961" s="6" t="n"/>
     </row>
     <row r="962">
       <c r="A962" s="6" t="n"/>
@@ -18585,6 +19571,7 @@
       <c r="F962" s="6" t="n"/>
       <c r="G962" s="6" t="n"/>
       <c r="H962" s="6" t="n"/>
+      <c r="I962" s="6" t="n"/>
     </row>
     <row r="963">
       <c r="A963" s="6" t="n"/>
@@ -18595,6 +19582,7 @@
       <c r="F963" s="6" t="n"/>
       <c r="G963" s="6" t="n"/>
       <c r="H963" s="6" t="n"/>
+      <c r="I963" s="6" t="n"/>
     </row>
     <row r="964">
       <c r="A964" s="6" t="n"/>
@@ -18605,6 +19593,7 @@
       <c r="F964" s="6" t="n"/>
       <c r="G964" s="6" t="n"/>
       <c r="H964" s="6" t="n"/>
+      <c r="I964" s="6" t="n"/>
     </row>
     <row r="965">
       <c r="A965" s="6" t="n"/>
@@ -18615,6 +19604,7 @@
       <c r="F965" s="6" t="n"/>
       <c r="G965" s="6" t="n"/>
       <c r="H965" s="6" t="n"/>
+      <c r="I965" s="6" t="n"/>
     </row>
     <row r="966">
       <c r="A966" s="6" t="n"/>
@@ -18625,6 +19615,7 @@
       <c r="F966" s="6" t="n"/>
       <c r="G966" s="6" t="n"/>
       <c r="H966" s="6" t="n"/>
+      <c r="I966" s="6" t="n"/>
     </row>
     <row r="967">
       <c r="A967" s="6" t="n"/>
@@ -18635,6 +19626,7 @@
       <c r="F967" s="6" t="n"/>
       <c r="G967" s="6" t="n"/>
       <c r="H967" s="6" t="n"/>
+      <c r="I967" s="6" t="n"/>
     </row>
     <row r="968">
       <c r="A968" s="6" t="n"/>
@@ -18645,6 +19637,7 @@
       <c r="F968" s="6" t="n"/>
       <c r="G968" s="6" t="n"/>
       <c r="H968" s="6" t="n"/>
+      <c r="I968" s="6" t="n"/>
     </row>
     <row r="969">
       <c r="A969" s="6" t="n"/>
@@ -18655,6 +19648,7 @@
       <c r="F969" s="6" t="n"/>
       <c r="G969" s="6" t="n"/>
       <c r="H969" s="6" t="n"/>
+      <c r="I969" s="6" t="n"/>
     </row>
     <row r="970">
       <c r="A970" s="6" t="n"/>
@@ -18665,6 +19659,7 @@
       <c r="F970" s="6" t="n"/>
       <c r="G970" s="6" t="n"/>
       <c r="H970" s="6" t="n"/>
+      <c r="I970" s="6" t="n"/>
     </row>
     <row r="971">
       <c r="A971" s="6" t="n"/>
@@ -18675,6 +19670,7 @@
       <c r="F971" s="6" t="n"/>
       <c r="G971" s="6" t="n"/>
       <c r="H971" s="6" t="n"/>
+      <c r="I971" s="6" t="n"/>
     </row>
     <row r="972">
       <c r="A972" s="6" t="n"/>
@@ -18685,6 +19681,7 @@
       <c r="F972" s="6" t="n"/>
       <c r="G972" s="6" t="n"/>
       <c r="H972" s="6" t="n"/>
+      <c r="I972" s="6" t="n"/>
     </row>
     <row r="973">
       <c r="A973" s="6" t="n"/>
@@ -18695,6 +19692,7 @@
       <c r="F973" s="6" t="n"/>
       <c r="G973" s="6" t="n"/>
       <c r="H973" s="6" t="n"/>
+      <c r="I973" s="6" t="n"/>
     </row>
     <row r="974">
       <c r="A974" s="6" t="n"/>
@@ -18705,6 +19703,7 @@
       <c r="F974" s="6" t="n"/>
       <c r="G974" s="6" t="n"/>
       <c r="H974" s="6" t="n"/>
+      <c r="I974" s="6" t="n"/>
     </row>
     <row r="975">
       <c r="A975" s="6" t="n"/>
@@ -18715,6 +19714,7 @@
       <c r="F975" s="6" t="n"/>
       <c r="G975" s="6" t="n"/>
       <c r="H975" s="6" t="n"/>
+      <c r="I975" s="6" t="n"/>
     </row>
     <row r="976">
       <c r="A976" s="6" t="n"/>
@@ -18725,6 +19725,7 @@
       <c r="F976" s="6" t="n"/>
       <c r="G976" s="6" t="n"/>
       <c r="H976" s="6" t="n"/>
+      <c r="I976" s="6" t="n"/>
     </row>
     <row r="977">
       <c r="A977" s="6" t="n"/>
@@ -18735,6 +19736,7 @@
       <c r="F977" s="6" t="n"/>
       <c r="G977" s="6" t="n"/>
       <c r="H977" s="6" t="n"/>
+      <c r="I977" s="6" t="n"/>
     </row>
     <row r="978">
       <c r="A978" s="6" t="n"/>
@@ -18745,6 +19747,7 @@
       <c r="F978" s="6" t="n"/>
       <c r="G978" s="6" t="n"/>
       <c r="H978" s="6" t="n"/>
+      <c r="I978" s="6" t="n"/>
     </row>
     <row r="979">
       <c r="A979" s="6" t="n"/>
@@ -18755,6 +19758,7 @@
       <c r="F979" s="6" t="n"/>
       <c r="G979" s="6" t="n"/>
       <c r="H979" s="6" t="n"/>
+      <c r="I979" s="6" t="n"/>
     </row>
     <row r="980">
       <c r="A980" s="6" t="n"/>
@@ -18765,6 +19769,7 @@
       <c r="F980" s="6" t="n"/>
       <c r="G980" s="6" t="n"/>
       <c r="H980" s="6" t="n"/>
+      <c r="I980" s="6" t="n"/>
     </row>
     <row r="981">
       <c r="A981" s="6" t="n"/>
@@ -18775,6 +19780,7 @@
       <c r="F981" s="6" t="n"/>
       <c r="G981" s="6" t="n"/>
       <c r="H981" s="6" t="n"/>
+      <c r="I981" s="6" t="n"/>
     </row>
     <row r="982">
       <c r="A982" s="6" t="n"/>
@@ -18785,6 +19791,7 @@
       <c r="F982" s="6" t="n"/>
       <c r="G982" s="6" t="n"/>
       <c r="H982" s="6" t="n"/>
+      <c r="I982" s="6" t="n"/>
     </row>
     <row r="983">
       <c r="A983" s="6" t="n"/>
@@ -18795,6 +19802,7 @@
       <c r="F983" s="6" t="n"/>
       <c r="G983" s="6" t="n"/>
       <c r="H983" s="6" t="n"/>
+      <c r="I983" s="6" t="n"/>
     </row>
     <row r="984">
       <c r="A984" s="6" t="n"/>
@@ -18805,6 +19813,7 @@
       <c r="F984" s="6" t="n"/>
       <c r="G984" s="6" t="n"/>
       <c r="H984" s="6" t="n"/>
+      <c r="I984" s="6" t="n"/>
     </row>
     <row r="985">
       <c r="A985" s="6" t="n"/>
@@ -18815,6 +19824,7 @@
       <c r="F985" s="6" t="n"/>
       <c r="G985" s="6" t="n"/>
       <c r="H985" s="6" t="n"/>
+      <c r="I985" s="6" t="n"/>
     </row>
     <row r="986">
       <c r="A986" s="6" t="n"/>
@@ -18825,6 +19835,7 @@
       <c r="F986" s="6" t="n"/>
       <c r="G986" s="6" t="n"/>
       <c r="H986" s="6" t="n"/>
+      <c r="I986" s="6" t="n"/>
     </row>
     <row r="987">
       <c r="A987" s="6" t="n"/>
@@ -18835,6 +19846,7 @@
       <c r="F987" s="6" t="n"/>
       <c r="G987" s="6" t="n"/>
       <c r="H987" s="6" t="n"/>
+      <c r="I987" s="6" t="n"/>
     </row>
     <row r="988">
       <c r="A988" s="6" t="n"/>
@@ -18845,6 +19857,7 @@
       <c r="F988" s="6" t="n"/>
       <c r="G988" s="6" t="n"/>
       <c r="H988" s="6" t="n"/>
+      <c r="I988" s="6" t="n"/>
     </row>
     <row r="989">
       <c r="A989" s="6" t="n"/>
@@ -18855,6 +19868,7 @@
       <c r="F989" s="6" t="n"/>
       <c r="G989" s="6" t="n"/>
       <c r="H989" s="6" t="n"/>
+      <c r="I989" s="6" t="n"/>
     </row>
     <row r="990">
       <c r="A990" s="6" t="n"/>
@@ -18865,6 +19879,7 @@
       <c r="F990" s="6" t="n"/>
       <c r="G990" s="6" t="n"/>
       <c r="H990" s="6" t="n"/>
+      <c r="I990" s="6" t="n"/>
     </row>
     <row r="991">
       <c r="A991" s="6" t="n"/>
@@ -18875,6 +19890,7 @@
       <c r="F991" s="6" t="n"/>
       <c r="G991" s="6" t="n"/>
       <c r="H991" s="6" t="n"/>
+      <c r="I991" s="6" t="n"/>
     </row>
     <row r="992">
       <c r="A992" s="6" t="n"/>
@@ -18885,6 +19901,7 @@
       <c r="F992" s="6" t="n"/>
       <c r="G992" s="6" t="n"/>
       <c r="H992" s="6" t="n"/>
+      <c r="I992" s="6" t="n"/>
     </row>
     <row r="993">
       <c r="A993" s="6" t="n"/>
@@ -18895,6 +19912,7 @@
       <c r="F993" s="6" t="n"/>
       <c r="G993" s="6" t="n"/>
       <c r="H993" s="6" t="n"/>
+      <c r="I993" s="6" t="n"/>
     </row>
     <row r="994">
       <c r="A994" s="6" t="n"/>
@@ -18905,6 +19923,7 @@
       <c r="F994" s="6" t="n"/>
       <c r="G994" s="6" t="n"/>
       <c r="H994" s="6" t="n"/>
+      <c r="I994" s="6" t="n"/>
     </row>
     <row r="995">
       <c r="A995" s="6" t="n"/>
@@ -18915,6 +19934,7 @@
       <c r="F995" s="6" t="n"/>
       <c r="G995" s="6" t="n"/>
       <c r="H995" s="6" t="n"/>
+      <c r="I995" s="6" t="n"/>
     </row>
     <row r="996">
       <c r="A996" s="6" t="n"/>
@@ -18925,6 +19945,7 @@
       <c r="F996" s="6" t="n"/>
       <c r="G996" s="6" t="n"/>
       <c r="H996" s="6" t="n"/>
+      <c r="I996" s="6" t="n"/>
     </row>
     <row r="997">
       <c r="A997" s="6" t="n"/>
@@ -18935,6 +19956,7 @@
       <c r="F997" s="6" t="n"/>
       <c r="G997" s="6" t="n"/>
       <c r="H997" s="6" t="n"/>
+      <c r="I997" s="6" t="n"/>
     </row>
     <row r="998">
       <c r="A998" s="6" t="n"/>
@@ -18945,6 +19967,7 @@
       <c r="F998" s="6" t="n"/>
       <c r="G998" s="6" t="n"/>
       <c r="H998" s="6" t="n"/>
+      <c r="I998" s="6" t="n"/>
     </row>
     <row r="999">
       <c r="A999" s="6" t="n"/>
@@ -18955,6 +19978,7 @@
       <c r="F999" s="6" t="n"/>
       <c r="G999" s="6" t="n"/>
       <c r="H999" s="6" t="n"/>
+      <c r="I999" s="6" t="n"/>
     </row>
     <row r="1000">
       <c r="A1000" s="6" t="n"/>
@@ -18965,6 +19989,7 @@
       <c r="F1000" s="6" t="n"/>
       <c r="G1000" s="6" t="n"/>
       <c r="H1000" s="6" t="n"/>
+      <c r="I1000" s="6" t="n"/>
     </row>
     <row r="1001">
       <c r="A1001" s="6" t="n"/>
@@ -18975,6 +20000,7 @@
       <c r="F1001" s="6" t="n"/>
       <c r="G1001" s="6" t="n"/>
       <c r="H1001" s="6" t="n"/>
+      <c r="I1001" s="6" t="n"/>
     </row>
     <row r="1002">
       <c r="A1002" s="6" t="n"/>
@@ -18985,6 +20011,7 @@
       <c r="F1002" s="6" t="n"/>
       <c r="G1002" s="6" t="n"/>
       <c r="H1002" s="6" t="n"/>
+      <c r="I1002" s="6" t="n"/>
     </row>
     <row r="1003">
       <c r="A1003" s="6" t="n"/>
@@ -18995,6 +20022,7 @@
       <c r="F1003" s="6" t="n"/>
       <c r="G1003" s="6" t="n"/>
       <c r="H1003" s="6" t="n"/>
+      <c r="I1003" s="6" t="n"/>
     </row>
     <row r="1004">
       <c r="A1004" s="6" t="n"/>
@@ -19005,6 +20033,7 @@
       <c r="F1004" s="6" t="n"/>
       <c r="G1004" s="6" t="n"/>
       <c r="H1004" s="6" t="n"/>
+      <c r="I1004" s="6" t="n"/>
     </row>
     <row r="1005">
       <c r="A1005" s="6" t="n"/>
@@ -19015,6 +20044,7 @@
       <c r="F1005" s="6" t="n"/>
       <c r="G1005" s="6" t="n"/>
       <c r="H1005" s="6" t="n"/>
+      <c r="I1005" s="6" t="n"/>
     </row>
     <row r="1006">
       <c r="A1006" s="6" t="n"/>
@@ -19025,6 +20055,7 @@
       <c r="F1006" s="6" t="n"/>
       <c r="G1006" s="6" t="n"/>
       <c r="H1006" s="6" t="n"/>
+      <c r="I1006" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -53990,7 +53990,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0.10.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
     </row>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -53990,7 +53990,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1.0.1</t>
+          <t>1.1.0</t>
         </is>
       </c>
     </row>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -8808,12 +8808,12 @@
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>forward_or_reverse</t>
+          <t>checksum_type</t>
         </is>
       </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>checksum_type</t>
+          <t>forward_or_reverse</t>
         </is>
       </c>
       <c r="I1" s="4" t="inlineStr">
@@ -8855,12 +8855,12 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing. The number that identifies each read direction in a paired-end nucleotide sequencing reaction.</t>
+          <t>The type of algorithm used to generate the checksum of a file.</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>The type of algorithm used to generate the checksum of a file.</t>
+          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing. The number that identifies each read direction in a paired-end nucleotide sequencing reaction.</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -8996,12 +8996,12 @@
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>controlled vocabulary</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>controlled vocabulary</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -9043,12 +9043,12 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>required</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -27304,17 +27304,17 @@
       </c>
       <c r="F1" s="10" t="inlineStr">
         <is>
-          <t>data_access_committee</t>
+          <t>data_use_permission</t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
         <is>
-          <t>data_use_permission</t>
+          <t>data_use_modifiers</t>
         </is>
       </c>
       <c r="H1" s="10" t="inlineStr">
         <is>
-          <t>data_use_modifiers</t>
+          <t>data_access_committee</t>
         </is>
       </c>
     </row>
@@ -27346,17 +27346,17 @@
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>The Data Access Committee linked to this policy.</t>
+          <t>Data use permission associated with a policy. Typically one or more terms from DUO and should be descendants of 'DUO:0000001 data use permission'. Please use 'DUO:0000026' if no other permission applies.</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>Data use permission associated with a policy. Typically one or more terms from DUO and should be descendants of 'DUO:0000001 data use permission'.</t>
+          <t>Modifier for Data use permission associated with a policy. Should be descendants of 'DUO:0000017 data use modifier'</t>
         </is>
       </c>
       <c r="H2" s="11" t="inlineStr">
         <is>
-          <t>Modifier for Data use permission associated with a policy. Should be descendants of 'DUO:0000017 data use modifier'</t>
+          <t>The Data Access Committee linked to this policy.</t>
         </is>
       </c>
     </row>
@@ -27435,12 +27435,12 @@
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
-          <t>single value</t>
+          <t>multiple values</t>
         </is>
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>multiple values</t>
+          <t>single value</t>
         </is>
       </c>
     </row>
@@ -27472,7 +27472,7 @@
       </c>
       <c r="F5" s="11" t="inlineStr">
         <is>
-          <t>restriction: value from DataAccessCommittee.alias</t>
+          <t>controlled vocabulary</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>controlled vocabulary</t>
+          <t>restriction: value from DataAccessCommittee.alias</t>
         </is>
       </c>
     </row>
@@ -27519,12 +27519,12 @@
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>required</t>
         </is>
       </c>
     </row>
@@ -42724,12 +42724,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>xref</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>xref</t>
+          <t>study</t>
         </is>
       </c>
     </row>
@@ -42771,12 +42771,12 @@
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>The Study entity associated with this Publication.</t>
+          <t>One or more cross-references for this Publication.</t>
         </is>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>One or more cross-references for this Publication.</t>
+          <t>The Study entity associated with this Publication.</t>
         </is>
       </c>
     </row>
@@ -42865,12 +42865,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>single value</t>
+          <t>multiple values</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>multiple values</t>
+          <t>single value</t>
         </is>
       </c>
     </row>
@@ -42912,12 +42912,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>restriction: value from Study.alias</t>
+          <t>unrestricted</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>unrestricted</t>
+          <t>restriction: value from Study.alias</t>
         </is>
       </c>
     </row>
@@ -42959,12 +42959,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>required</t>
+          <t>optional</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>optional</t>
+          <t>required</t>
         </is>
       </c>
     </row>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -53990,7 +53990,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1.1.0</t>
+          <t>1.1.1</t>
         </is>
       </c>
     </row>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>A comprehensive title for the study.</t>
+          <t>A comprehensive title for the Study.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The type of Study. For example, 'Cancer Genomics', 'Epigenetics', 'Exome Sequencing'.</t>
+          <t>The type of Study, e.g. 'Cancer Genomics', 'Epigenetics', 'Exome Sequencing'.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Custom key/value pairs that further characterizes the Study. (e.g.: approaches - single-cell,_bulk_etc)</t>
+          <t>One or more attributes that further characterize this Study.</t>
         </is>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>The format of the file: BAM, SAM, CRAM, BAI, etc.</t>
+          <t>The format of the file, e.g. BAM, SAM, CRAM, BAI.</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
@@ -20119,7 +20119,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>A title for the submitted Dataset.</t>
+          <t>A title for the Dataset.</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -20129,7 +20129,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>The type of a dataset.</t>
+          <t>The type of the Dataset.</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -27336,22 +27336,22 @@
       </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
-          <t>The terms of data use and policy verbiage should be captured here.</t>
+          <t>The complete text for the Data Access Policy.</t>
         </is>
       </c>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>URL for the policy, if available. This is useful if the terms of the policy is made available online at a resolvable URL.</t>
+          <t>An alternative to pasting the Data Access Policy text is to provide the URL for the policy, if available. This is useful if the terms of the policy is made available online at a resolvable URL.</t>
         </is>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>Data use permission associated with a policy. Typically one or more terms from DUO and should be descendants of 'DUO:0000001 data use permission'. Please use 'DUO:0000026' if no other permission applies.</t>
+          <t>Data use permission associated with an entity. Typically one or more terms from DUO. Should be descendants of 'DUO:0000001 data use permission'.  Please use 'DUO:0000026' if no other permission applies.</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>Modifier for Data use permission associated with a policy. Should be descendants of 'DUO:0000017 data use modifier'</t>
+          <t>Modifier for Data use permission associated with an entity. Should be descendants of 'DUO:0000017 data use modifier'</t>
         </is>
       </c>
       <c r="H2" s="11" t="inlineStr">
@@ -42766,7 +42766,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>DOI identifier of the Publication.</t>
+          <t>DOI identifier of a publication.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -607,7 +607,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>The Institution(s) associated with an entity.</t>
+          <t>The affiliations associated with this Study.</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>The study associated with an entity.</t>
+          <t>The Study that is associated with this StudyFile.</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -8860,12 +8860,12 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing. The number that identifies each read direction in a paired-end nucleotide sequencing reaction.</t>
+          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing.</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>The Dataset associated with an entity.</t>
+          <t>The Dataset associated with this File.</t>
         </is>
       </c>
     </row>
@@ -20124,7 +20124,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Description of an entity.</t>
+          <t>A description summarizing this Dataset.</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
@@ -27346,12 +27346,12 @@
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>Data use permission associated with a policy. Typically one or more terms from DUO and should be descendants of 'DUO:0000001 data use permission'. Please use 'DUO:0000026' if no other permission applies.</t>
+          <t>Data use permission associated with a Data Use Policy. Typically one or more terms from DUO and should be descendants of 'DUO:0000001 data use permission'. Please use 'DUO:0000006' if no other permission applies.</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>Modifier for Data use permission associated with an entity. Should be descendants of 'DUO:0000017 data use modifier'</t>
+          <t>Modifier for the Data Use Permission associated with a Data Use Policy. Should be descendants of 'DUO:0000017 data use modifier'. Please use 'DUO:0000026' if no other modifier applies.</t>
         </is>
       </c>
       <c r="H2" s="11" t="inlineStr">
@@ -37578,7 +37578,7 @@
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Email of a person.</t>
+          <t>The email of the Data Access Committee. Please do not enter personal email addresses!</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
@@ -42751,7 +42751,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The individual who is responsible for the content of a document version.</t>
+          <t>Author(s) of the associated Publication.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>A comprehensive title for the Study.</t>
+          <t>A comprehensive title for this Study.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The type of Study, e.g. 'Cancer Genomics', 'Epigenetics', 'Exome Sequencing'.</t>
+          <t>The type of this Study (e.g., Cancer Genomics, Epigenetics, Exome Sequencing).</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>The Study that is associated with this StudyFile.</t>
+          <t>The Study that is associated with this Study File.</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -8840,22 +8840,22 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>The format of the file, e.g. BAM, SAM, CRAM, BAI.</t>
+          <t>The format of the File (e.g., BAM, SAM, CRAM, BAI).</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>The size of a file in bytes.</t>
+          <t>The size of the File in bytes.</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>A computed value which depends on the contents of a block of data and which is transmitted or stored along with the data in order to detect corruption of the data. The receiving system recomputes the checksum based upon the received data and compares this value with the one sent with the data. If the two values are the same, the receiver has some confidence that the data was received correctly.</t>
+          <t>The checksum of the File.</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>The type of algorithm used to generate the checksum of a file.</t>
+          <t>The type of algorithm used to generate the checksum of the File.</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
@@ -20119,7 +20119,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>A title for the Dataset.</t>
+          <t>A title for this Dataset.</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -20129,7 +20129,7 @@
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>The type of the Dataset.</t>
+          <t>The type of this Dataset.</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -27326,12 +27326,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>A name for the Data Access Policy.</t>
+          <t>A name for this Data Access Policy.</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>A short description for the Data Access Policy.</t>
+          <t>A short description for this Data Access Policy.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -27341,22 +27341,22 @@
       </c>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>An alternative to pasting the Data Access Policy text is to provide the URL for the policy, if available. This is useful if the terms of the policy is made available online at a resolvable URL.</t>
+          <t>An alternative to the Data Access Policy text is to provide the URL for the policy. This is useful if the terms of the policy are available online at a resolvable URL.</t>
         </is>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>Data use permission associated with a Data Use Policy. Typically one or more terms from DUO and should be descendants of 'DUO:0000001 data use permission'. Please use 'DUO:0000006' if no other permission applies.</t>
+          <t>The Data Use Permission associated with this Data Use Policy. The used term should be a descendant of 'DUO:0000001: data use permission'.</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>Modifier for the Data Use Permission associated with a Data Use Policy. Should be descendants of 'DUO:0000017 data use modifier'. Please use 'DUO:0000026' if no other modifier applies.</t>
+          <t>One or more Data Use Modifiers for the Data Use Permission associated with this Data Use Policy. The used terms should be descendants of 'DUO:0000017: data use modifier'. Please use 'user specific restriction' if no other modifier applies.</t>
         </is>
       </c>
       <c r="H2" s="11" t="inlineStr">
         <is>
-          <t>The Data Access Committee linked to this policy.</t>
+          <t>The Data Access Committee linked to this Data Use Policy.</t>
         </is>
       </c>
     </row>
@@ -37578,12 +37578,12 @@
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>The email of the Data Access Committee. Please do not enter personal email addresses!</t>
+          <t>The email of the Data Access Committee (e.g., DAC[at]email.com). This property must not include any personally identifiable data.</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>The institute a person is affiliated with.</t>
+          <t>The Institute a person is affiliated with.</t>
         </is>
       </c>
     </row>
@@ -42741,27 +42741,27 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>The title for the Publication.</t>
+          <t>The title for this Publication.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>The study abstract that describes the goals. Can also hold abstract from a publication related to this study.</t>
+          <t>The study abstract that describes the goals. Can also hold abstract from a Publication related to this Study.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Author(s) of the associated Publication.</t>
+          <t>Author(s) of this Publication.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Year in which the paper was published.</t>
+          <t>The year in which the paper was published.</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Name of the journal.</t>
+          <t>The name of the journal.</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -592,7 +592,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>A comprehensive title for the study.</t>
+          <t>A comprehensive title for this Study.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -602,17 +602,17 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The type of Study. For example, 'Cancer Genomics', 'Epigenetics', 'Exome Sequencing'.</t>
+          <t>The type of this Study (e.g., Cancer Genomics, Epigenetics, Exome Sequencing).</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>The Institution(s) associated with an entity.</t>
+          <t>The affiliations associated with this Study.</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Custom key/value pairs that further characterizes the Study. (e.g.: approaches - single-cell,_bulk_etc)</t>
+          <t>One or more attributes that further characterize this Study.</t>
         </is>
       </c>
     </row>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>The study associated with an entity.</t>
+          <t>The Study that is associated with this Study File.</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -8840,32 +8840,32 @@
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>The format of the file: BAM, SAM, CRAM, BAI, etc.</t>
+          <t>The format of the File (e.g., BAM, SAM, CRAM, BAI).</t>
         </is>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>The size of a file in bytes.</t>
+          <t>The size of the File in bytes.</t>
         </is>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>A computed value which depends on the contents of a block of data and which is transmitted or stored along with the data in order to detect corruption of the data. The receiving system recomputes the checksum based upon the received data and compares this value with the one sent with the data. If the two values are the same, the receiver has some confidence that the data was received correctly.</t>
+          <t>The checksum of the File.</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>The type of algorithm used to generate the checksum of a file.</t>
+          <t>The type of algorithm used to generate the checksum of the File.</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing. The number that identifies each read direction in a paired-end nucleotide sequencing reaction.</t>
+          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing.</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>The Dataset associated with an entity.</t>
+          <t>The Dataset associated with this File.</t>
         </is>
       </c>
     </row>
@@ -20119,17 +20119,17 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>A title for the submitted Dataset.</t>
+          <t>A title for this Dataset.</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Description of an entity.</t>
+          <t>A description summarizing this Dataset.</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>The type of a dataset.</t>
+          <t>The type of this Dataset.</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
@@ -27326,37 +27326,37 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>A name for the Data Access Policy.</t>
+          <t>A name for this Data Access Policy.</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>A short description for the Data Access Policy.</t>
+          <t>A short description for this Data Access Policy.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
-          <t>The terms of data use and policy verbiage should be captured here.</t>
+          <t>The complete text for the Data Access Policy.</t>
         </is>
       </c>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>URL for the policy, if available. This is useful if the terms of the policy is made available online at a resolvable URL.</t>
+          <t>An alternative to the Data Access Policy text is to provide the URL for the policy. This is useful if the terms of the policy are available online at a resolvable URL.</t>
         </is>
       </c>
       <c r="F2" s="11" t="inlineStr">
         <is>
-          <t>Data use permission associated with a policy. Typically one or more terms from DUO and should be descendants of 'DUO:0000001 data use permission'. Please use 'DUO:0000026' if no other permission applies.</t>
+          <t>The Data Use Permission associated with this Data Use Policy. The used term should be a descendant of 'DUO:0000001: data use permission'.</t>
         </is>
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>Modifier for Data use permission associated with a policy. Should be descendants of 'DUO:0000017 data use modifier'</t>
+          <t>One or more Data Use Modifiers for the Data Use Permission associated with this Data Use Policy. The used terms should be descendants of 'DUO:0000017: data use modifier'. Please use 'user specific restriction' if no other modifier applies.</t>
         </is>
       </c>
       <c r="H2" s="11" t="inlineStr">
         <is>
-          <t>The Data Access Committee linked to this policy.</t>
+          <t>The Data Access Committee linked to this Data Use Policy.</t>
         </is>
       </c>
     </row>
@@ -37578,12 +37578,12 @@
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Email of a person.</t>
+          <t>The email of the Data Access Committee (e.g., DAC[at]email.com). This property must not include any personally identifiable data.</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>The institute a person is affiliated with.</t>
+          <t>The Institute a person is affiliated with.</t>
         </is>
       </c>
     </row>
@@ -42741,32 +42741,32 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>The title for the Publication.</t>
+          <t>The title for this Publication.</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>The study abstract that describes the goals. Can also hold abstract from a publication related to this study.</t>
+          <t>The study abstract that describes the goals. Can also hold abstract from a Publication related to this Study.</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The individual who is responsible for the content of a document version.</t>
+          <t>Author(s) of this Publication.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Year in which the paper was published.</t>
+          <t>The year in which the paper was published.</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>Name of the journal.</t>
+          <t>The name of the journal.</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>DOI identifier of the Publication.</t>
+          <t>DOI identifier of a publication.</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -27351,7 +27351,7 @@
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>One or more Data Use Modifiers for the Data Use Permission associated with this Data Use Policy. The used terms should be descendants of 'DUO:0000017: data use modifier'. Please use 'user specific restriction' if no other modifier applies.</t>
+          <t>One or more Data Use Modifiers for the Data Use Permission associated with this Data Use Policy. The used terms should be descendants of 'DUO:0000017: data use modifier'. Please use 'USER_SPECIFIC_RESTRICTION' if no other modifier applies.</t>
         </is>
       </c>
       <c r="H2" s="11" t="inlineStr">

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>single value</t>
+          <t>multiple values</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -8756,7 +8756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1006"/>
+  <dimension ref="A1:H1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8772,7 +8772,6 @@
     <col width="35" customWidth="1" min="6" max="6"/>
     <col width="35" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="8" max="8"/>
-    <col width="35" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8813,11 +8812,6 @@
       </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>forward_or_reverse</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
           <t>dataset</t>
         </is>
       </c>
@@ -8859,11 +8853,6 @@
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing.</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>The Dataset associated with this File.</t>
         </is>
@@ -8910,11 +8899,6 @@
           <t>type: string</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>type: string</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -8957,11 +8941,6 @@
           <t>single value</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>single value</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -9001,11 +8980,6 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>controlled vocabulary</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
           <t>restriction: value from Dataset.alias</t>
         </is>
       </c>
@@ -9048,11 +9022,6 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
           <t>required</t>
         </is>
       </c>
@@ -9066,7 +9035,6 @@
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
-      <c r="I7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
@@ -9077,7 +9045,6 @@
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
       <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
@@ -9088,7 +9055,6 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
       <c r="H9" s="6" t="n"/>
-      <c r="I9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
@@ -9099,7 +9065,6 @@
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
-      <c r="I10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
@@ -9110,7 +9075,6 @@
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="6" t="n"/>
-      <c r="I11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
@@ -9121,7 +9085,6 @@
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
@@ -9132,7 +9095,6 @@
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
@@ -9143,7 +9105,6 @@
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
-      <c r="I14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n"/>
@@ -9154,7 +9115,6 @@
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
-      <c r="I15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
@@ -9165,7 +9125,6 @@
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
-      <c r="I16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
@@ -9176,7 +9135,6 @@
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
-      <c r="I17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
@@ -9187,7 +9145,6 @@
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
-      <c r="I18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
@@ -9198,7 +9155,6 @@
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
-      <c r="I19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
@@ -9209,7 +9165,6 @@
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
-      <c r="I20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
@@ -9220,7 +9175,6 @@
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
-      <c r="I21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
@@ -9231,7 +9185,6 @@
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
-      <c r="I22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
@@ -9242,7 +9195,6 @@
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
-      <c r="I23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
@@ -9253,7 +9205,6 @@
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
-      <c r="I24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="n"/>
@@ -9264,7 +9215,6 @@
       <c r="F25" s="6" t="n"/>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
-      <c r="I25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n"/>
@@ -9275,7 +9225,6 @@
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
-      <c r="I26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>
@@ -9286,7 +9235,6 @@
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
-      <c r="I27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="n"/>
@@ -9297,7 +9245,6 @@
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>
-      <c r="I28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="n"/>
@@ -9308,7 +9255,6 @@
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="6" t="n"/>
       <c r="H29" s="6" t="n"/>
-      <c r="I29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="n"/>
@@ -9319,7 +9265,6 @@
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="6" t="n"/>
       <c r="H30" s="6" t="n"/>
-      <c r="I30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="n"/>
@@ -9330,7 +9275,6 @@
       <c r="F31" s="6" t="n"/>
       <c r="G31" s="6" t="n"/>
       <c r="H31" s="6" t="n"/>
-      <c r="I31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="n"/>
@@ -9341,7 +9285,6 @@
       <c r="F32" s="6" t="n"/>
       <c r="G32" s="6" t="n"/>
       <c r="H32" s="6" t="n"/>
-      <c r="I32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
@@ -9352,7 +9295,6 @@
       <c r="F33" s="6" t="n"/>
       <c r="G33" s="6" t="n"/>
       <c r="H33" s="6" t="n"/>
-      <c r="I33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
@@ -9363,7 +9305,6 @@
       <c r="F34" s="6" t="n"/>
       <c r="G34" s="6" t="n"/>
       <c r="H34" s="6" t="n"/>
-      <c r="I34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
@@ -9374,7 +9315,6 @@
       <c r="F35" s="6" t="n"/>
       <c r="G35" s="6" t="n"/>
       <c r="H35" s="6" t="n"/>
-      <c r="I35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
@@ -9385,7 +9325,6 @@
       <c r="F36" s="6" t="n"/>
       <c r="G36" s="6" t="n"/>
       <c r="H36" s="6" t="n"/>
-      <c r="I36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
@@ -9396,7 +9335,6 @@
       <c r="F37" s="6" t="n"/>
       <c r="G37" s="6" t="n"/>
       <c r="H37" s="6" t="n"/>
-      <c r="I37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
@@ -9407,7 +9345,6 @@
       <c r="F38" s="6" t="n"/>
       <c r="G38" s="6" t="n"/>
       <c r="H38" s="6" t="n"/>
-      <c r="I38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
@@ -9418,7 +9355,6 @@
       <c r="F39" s="6" t="n"/>
       <c r="G39" s="6" t="n"/>
       <c r="H39" s="6" t="n"/>
-      <c r="I39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
@@ -9429,7 +9365,6 @@
       <c r="F40" s="6" t="n"/>
       <c r="G40" s="6" t="n"/>
       <c r="H40" s="6" t="n"/>
-      <c r="I40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
@@ -9440,7 +9375,6 @@
       <c r="F41" s="6" t="n"/>
       <c r="G41" s="6" t="n"/>
       <c r="H41" s="6" t="n"/>
-      <c r="I41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
@@ -9451,7 +9385,6 @@
       <c r="F42" s="6" t="n"/>
       <c r="G42" s="6" t="n"/>
       <c r="H42" s="6" t="n"/>
-      <c r="I42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
@@ -9462,7 +9395,6 @@
       <c r="F43" s="6" t="n"/>
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
-      <c r="I43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
@@ -9473,7 +9405,6 @@
       <c r="F44" s="6" t="n"/>
       <c r="G44" s="6" t="n"/>
       <c r="H44" s="6" t="n"/>
-      <c r="I44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
@@ -9484,7 +9415,6 @@
       <c r="F45" s="6" t="n"/>
       <c r="G45" s="6" t="n"/>
       <c r="H45" s="6" t="n"/>
-      <c r="I45" s="6" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
@@ -9495,7 +9425,6 @@
       <c r="F46" s="6" t="n"/>
       <c r="G46" s="6" t="n"/>
       <c r="H46" s="6" t="n"/>
-      <c r="I46" s="6" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
@@ -9506,7 +9435,6 @@
       <c r="F47" s="6" t="n"/>
       <c r="G47" s="6" t="n"/>
       <c r="H47" s="6" t="n"/>
-      <c r="I47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
@@ -9517,7 +9445,6 @@
       <c r="F48" s="6" t="n"/>
       <c r="G48" s="6" t="n"/>
       <c r="H48" s="6" t="n"/>
-      <c r="I48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
@@ -9528,7 +9455,6 @@
       <c r="F49" s="6" t="n"/>
       <c r="G49" s="6" t="n"/>
       <c r="H49" s="6" t="n"/>
-      <c r="I49" s="6" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
@@ -9539,7 +9465,6 @@
       <c r="F50" s="6" t="n"/>
       <c r="G50" s="6" t="n"/>
       <c r="H50" s="6" t="n"/>
-      <c r="I50" s="6" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
@@ -9550,7 +9475,6 @@
       <c r="F51" s="6" t="n"/>
       <c r="G51" s="6" t="n"/>
       <c r="H51" s="6" t="n"/>
-      <c r="I51" s="6" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
@@ -9561,7 +9485,6 @@
       <c r="F52" s="6" t="n"/>
       <c r="G52" s="6" t="n"/>
       <c r="H52" s="6" t="n"/>
-      <c r="I52" s="6" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="6" t="n"/>
@@ -9572,7 +9495,6 @@
       <c r="F53" s="6" t="n"/>
       <c r="G53" s="6" t="n"/>
       <c r="H53" s="6" t="n"/>
-      <c r="I53" s="6" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n"/>
@@ -9583,7 +9505,6 @@
       <c r="F54" s="6" t="n"/>
       <c r="G54" s="6" t="n"/>
       <c r="H54" s="6" t="n"/>
-      <c r="I54" s="6" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n"/>
@@ -9594,7 +9515,6 @@
       <c r="F55" s="6" t="n"/>
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
-      <c r="I55" s="6" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n"/>
@@ -9605,7 +9525,6 @@
       <c r="F56" s="6" t="n"/>
       <c r="G56" s="6" t="n"/>
       <c r="H56" s="6" t="n"/>
-      <c r="I56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n"/>
@@ -9616,7 +9535,6 @@
       <c r="F57" s="6" t="n"/>
       <c r="G57" s="6" t="n"/>
       <c r="H57" s="6" t="n"/>
-      <c r="I57" s="6" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n"/>
@@ -9627,7 +9545,6 @@
       <c r="F58" s="6" t="n"/>
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
-      <c r="I58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n"/>
@@ -9638,7 +9555,6 @@
       <c r="F59" s="6" t="n"/>
       <c r="G59" s="6" t="n"/>
       <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n"/>
@@ -9649,7 +9565,6 @@
       <c r="F60" s="6" t="n"/>
       <c r="G60" s="6" t="n"/>
       <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n"/>
@@ -9660,7 +9575,6 @@
       <c r="F61" s="6" t="n"/>
       <c r="G61" s="6" t="n"/>
       <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="6" t="n"/>
@@ -9671,7 +9585,6 @@
       <c r="F62" s="6" t="n"/>
       <c r="G62" s="6" t="n"/>
       <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="6" t="n"/>
@@ -9682,7 +9595,6 @@
       <c r="F63" s="6" t="n"/>
       <c r="G63" s="6" t="n"/>
       <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="n"/>
@@ -9693,7 +9605,6 @@
       <c r="F64" s="6" t="n"/>
       <c r="G64" s="6" t="n"/>
       <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="6" t="n"/>
@@ -9704,7 +9615,6 @@
       <c r="F65" s="6" t="n"/>
       <c r="G65" s="6" t="n"/>
       <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="6" t="n"/>
@@ -9715,7 +9625,6 @@
       <c r="F66" s="6" t="n"/>
       <c r="G66" s="6" t="n"/>
       <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="n"/>
@@ -9726,7 +9635,6 @@
       <c r="F67" s="6" t="n"/>
       <c r="G67" s="6" t="n"/>
       <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="6" t="n"/>
@@ -9737,7 +9645,6 @@
       <c r="F68" s="6" t="n"/>
       <c r="G68" s="6" t="n"/>
       <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="6" t="n"/>
@@ -9748,7 +9655,6 @@
       <c r="F69" s="6" t="n"/>
       <c r="G69" s="6" t="n"/>
       <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="6" t="n"/>
@@ -9759,7 +9665,6 @@
       <c r="F70" s="6" t="n"/>
       <c r="G70" s="6" t="n"/>
       <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="6" t="n"/>
@@ -9770,7 +9675,6 @@
       <c r="F71" s="6" t="n"/>
       <c r="G71" s="6" t="n"/>
       <c r="H71" s="6" t="n"/>
-      <c r="I71" s="6" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="6" t="n"/>
@@ -9781,7 +9685,6 @@
       <c r="F72" s="6" t="n"/>
       <c r="G72" s="6" t="n"/>
       <c r="H72" s="6" t="n"/>
-      <c r="I72" s="6" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="6" t="n"/>
@@ -9792,7 +9695,6 @@
       <c r="F73" s="6" t="n"/>
       <c r="G73" s="6" t="n"/>
       <c r="H73" s="6" t="n"/>
-      <c r="I73" s="6" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="6" t="n"/>
@@ -9803,7 +9705,6 @@
       <c r="F74" s="6" t="n"/>
       <c r="G74" s="6" t="n"/>
       <c r="H74" s="6" t="n"/>
-      <c r="I74" s="6" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="6" t="n"/>
@@ -9814,7 +9715,6 @@
       <c r="F75" s="6" t="n"/>
       <c r="G75" s="6" t="n"/>
       <c r="H75" s="6" t="n"/>
-      <c r="I75" s="6" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="6" t="n"/>
@@ -9825,7 +9725,6 @@
       <c r="F76" s="6" t="n"/>
       <c r="G76" s="6" t="n"/>
       <c r="H76" s="6" t="n"/>
-      <c r="I76" s="6" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="6" t="n"/>
@@ -9836,7 +9735,6 @@
       <c r="F77" s="6" t="n"/>
       <c r="G77" s="6" t="n"/>
       <c r="H77" s="6" t="n"/>
-      <c r="I77" s="6" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="6" t="n"/>
@@ -9847,7 +9745,6 @@
       <c r="F78" s="6" t="n"/>
       <c r="G78" s="6" t="n"/>
       <c r="H78" s="6" t="n"/>
-      <c r="I78" s="6" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="6" t="n"/>
@@ -9858,7 +9755,6 @@
       <c r="F79" s="6" t="n"/>
       <c r="G79" s="6" t="n"/>
       <c r="H79" s="6" t="n"/>
-      <c r="I79" s="6" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="6" t="n"/>
@@ -9869,7 +9765,6 @@
       <c r="F80" s="6" t="n"/>
       <c r="G80" s="6" t="n"/>
       <c r="H80" s="6" t="n"/>
-      <c r="I80" s="6" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="6" t="n"/>
@@ -9880,7 +9775,6 @@
       <c r="F81" s="6" t="n"/>
       <c r="G81" s="6" t="n"/>
       <c r="H81" s="6" t="n"/>
-      <c r="I81" s="6" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="6" t="n"/>
@@ -9891,7 +9785,6 @@
       <c r="F82" s="6" t="n"/>
       <c r="G82" s="6" t="n"/>
       <c r="H82" s="6" t="n"/>
-      <c r="I82" s="6" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="6" t="n"/>
@@ -9902,7 +9795,6 @@
       <c r="F83" s="6" t="n"/>
       <c r="G83" s="6" t="n"/>
       <c r="H83" s="6" t="n"/>
-      <c r="I83" s="6" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="6" t="n"/>
@@ -9913,7 +9805,6 @@
       <c r="F84" s="6" t="n"/>
       <c r="G84" s="6" t="n"/>
       <c r="H84" s="6" t="n"/>
-      <c r="I84" s="6" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="6" t="n"/>
@@ -9924,7 +9815,6 @@
       <c r="F85" s="6" t="n"/>
       <c r="G85" s="6" t="n"/>
       <c r="H85" s="6" t="n"/>
-      <c r="I85" s="6" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="6" t="n"/>
@@ -9935,7 +9825,6 @@
       <c r="F86" s="6" t="n"/>
       <c r="G86" s="6" t="n"/>
       <c r="H86" s="6" t="n"/>
-      <c r="I86" s="6" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="6" t="n"/>
@@ -9946,7 +9835,6 @@
       <c r="F87" s="6" t="n"/>
       <c r="G87" s="6" t="n"/>
       <c r="H87" s="6" t="n"/>
-      <c r="I87" s="6" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="6" t="n"/>
@@ -9957,7 +9845,6 @@
       <c r="F88" s="6" t="n"/>
       <c r="G88" s="6" t="n"/>
       <c r="H88" s="6" t="n"/>
-      <c r="I88" s="6" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="6" t="n"/>
@@ -9968,7 +9855,6 @@
       <c r="F89" s="6" t="n"/>
       <c r="G89" s="6" t="n"/>
       <c r="H89" s="6" t="n"/>
-      <c r="I89" s="6" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="6" t="n"/>
@@ -9979,7 +9865,6 @@
       <c r="F90" s="6" t="n"/>
       <c r="G90" s="6" t="n"/>
       <c r="H90" s="6" t="n"/>
-      <c r="I90" s="6" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="6" t="n"/>
@@ -9990,7 +9875,6 @@
       <c r="F91" s="6" t="n"/>
       <c r="G91" s="6" t="n"/>
       <c r="H91" s="6" t="n"/>
-      <c r="I91" s="6" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="6" t="n"/>
@@ -10001,7 +9885,6 @@
       <c r="F92" s="6" t="n"/>
       <c r="G92" s="6" t="n"/>
       <c r="H92" s="6" t="n"/>
-      <c r="I92" s="6" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="6" t="n"/>
@@ -10012,7 +9895,6 @@
       <c r="F93" s="6" t="n"/>
       <c r="G93" s="6" t="n"/>
       <c r="H93" s="6" t="n"/>
-      <c r="I93" s="6" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="n"/>
@@ -10023,7 +9905,6 @@
       <c r="F94" s="6" t="n"/>
       <c r="G94" s="6" t="n"/>
       <c r="H94" s="6" t="n"/>
-      <c r="I94" s="6" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="6" t="n"/>
@@ -10034,7 +9915,6 @@
       <c r="F95" s="6" t="n"/>
       <c r="G95" s="6" t="n"/>
       <c r="H95" s="6" t="n"/>
-      <c r="I95" s="6" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="6" t="n"/>
@@ -10045,7 +9925,6 @@
       <c r="F96" s="6" t="n"/>
       <c r="G96" s="6" t="n"/>
       <c r="H96" s="6" t="n"/>
-      <c r="I96" s="6" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="6" t="n"/>
@@ -10056,7 +9935,6 @@
       <c r="F97" s="6" t="n"/>
       <c r="G97" s="6" t="n"/>
       <c r="H97" s="6" t="n"/>
-      <c r="I97" s="6" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="6" t="n"/>
@@ -10067,7 +9945,6 @@
       <c r="F98" s="6" t="n"/>
       <c r="G98" s="6" t="n"/>
       <c r="H98" s="6" t="n"/>
-      <c r="I98" s="6" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="6" t="n"/>
@@ -10078,7 +9955,6 @@
       <c r="F99" s="6" t="n"/>
       <c r="G99" s="6" t="n"/>
       <c r="H99" s="6" t="n"/>
-      <c r="I99" s="6" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="6" t="n"/>
@@ -10089,7 +9965,6 @@
       <c r="F100" s="6" t="n"/>
       <c r="G100" s="6" t="n"/>
       <c r="H100" s="6" t="n"/>
-      <c r="I100" s="6" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="n"/>
@@ -10100,7 +9975,6 @@
       <c r="F101" s="6" t="n"/>
       <c r="G101" s="6" t="n"/>
       <c r="H101" s="6" t="n"/>
-      <c r="I101" s="6" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="6" t="n"/>
@@ -10111,7 +9985,6 @@
       <c r="F102" s="6" t="n"/>
       <c r="G102" s="6" t="n"/>
       <c r="H102" s="6" t="n"/>
-      <c r="I102" s="6" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="6" t="n"/>
@@ -10122,7 +9995,6 @@
       <c r="F103" s="6" t="n"/>
       <c r="G103" s="6" t="n"/>
       <c r="H103" s="6" t="n"/>
-      <c r="I103" s="6" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="6" t="n"/>
@@ -10133,7 +10005,6 @@
       <c r="F104" s="6" t="n"/>
       <c r="G104" s="6" t="n"/>
       <c r="H104" s="6" t="n"/>
-      <c r="I104" s="6" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="6" t="n"/>
@@ -10144,7 +10015,6 @@
       <c r="F105" s="6" t="n"/>
       <c r="G105" s="6" t="n"/>
       <c r="H105" s="6" t="n"/>
-      <c r="I105" s="6" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="6" t="n"/>
@@ -10155,7 +10025,6 @@
       <c r="F106" s="6" t="n"/>
       <c r="G106" s="6" t="n"/>
       <c r="H106" s="6" t="n"/>
-      <c r="I106" s="6" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="6" t="n"/>
@@ -10166,7 +10035,6 @@
       <c r="F107" s="6" t="n"/>
       <c r="G107" s="6" t="n"/>
       <c r="H107" s="6" t="n"/>
-      <c r="I107" s="6" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="6" t="n"/>
@@ -10177,7 +10045,6 @@
       <c r="F108" s="6" t="n"/>
       <c r="G108" s="6" t="n"/>
       <c r="H108" s="6" t="n"/>
-      <c r="I108" s="6" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="6" t="n"/>
@@ -10188,7 +10055,6 @@
       <c r="F109" s="6" t="n"/>
       <c r="G109" s="6" t="n"/>
       <c r="H109" s="6" t="n"/>
-      <c r="I109" s="6" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="6" t="n"/>
@@ -10199,7 +10065,6 @@
       <c r="F110" s="6" t="n"/>
       <c r="G110" s="6" t="n"/>
       <c r="H110" s="6" t="n"/>
-      <c r="I110" s="6" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="6" t="n"/>
@@ -10210,7 +10075,6 @@
       <c r="F111" s="6" t="n"/>
       <c r="G111" s="6" t="n"/>
       <c r="H111" s="6" t="n"/>
-      <c r="I111" s="6" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="6" t="n"/>
@@ -10221,7 +10085,6 @@
       <c r="F112" s="6" t="n"/>
       <c r="G112" s="6" t="n"/>
       <c r="H112" s="6" t="n"/>
-      <c r="I112" s="6" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="6" t="n"/>
@@ -10232,7 +10095,6 @@
       <c r="F113" s="6" t="n"/>
       <c r="G113" s="6" t="n"/>
       <c r="H113" s="6" t="n"/>
-      <c r="I113" s="6" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="6" t="n"/>
@@ -10243,7 +10105,6 @@
       <c r="F114" s="6" t="n"/>
       <c r="G114" s="6" t="n"/>
       <c r="H114" s="6" t="n"/>
-      <c r="I114" s="6" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="6" t="n"/>
@@ -10254,7 +10115,6 @@
       <c r="F115" s="6" t="n"/>
       <c r="G115" s="6" t="n"/>
       <c r="H115" s="6" t="n"/>
-      <c r="I115" s="6" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="6" t="n"/>
@@ -10265,7 +10125,6 @@
       <c r="F116" s="6" t="n"/>
       <c r="G116" s="6" t="n"/>
       <c r="H116" s="6" t="n"/>
-      <c r="I116" s="6" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="6" t="n"/>
@@ -10276,7 +10135,6 @@
       <c r="F117" s="6" t="n"/>
       <c r="G117" s="6" t="n"/>
       <c r="H117" s="6" t="n"/>
-      <c r="I117" s="6" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="6" t="n"/>
@@ -10287,7 +10145,6 @@
       <c r="F118" s="6" t="n"/>
       <c r="G118" s="6" t="n"/>
       <c r="H118" s="6" t="n"/>
-      <c r="I118" s="6" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="6" t="n"/>
@@ -10298,7 +10155,6 @@
       <c r="F119" s="6" t="n"/>
       <c r="G119" s="6" t="n"/>
       <c r="H119" s="6" t="n"/>
-      <c r="I119" s="6" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="6" t="n"/>
@@ -10309,7 +10165,6 @@
       <c r="F120" s="6" t="n"/>
       <c r="G120" s="6" t="n"/>
       <c r="H120" s="6" t="n"/>
-      <c r="I120" s="6" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="6" t="n"/>
@@ -10320,7 +10175,6 @@
       <c r="F121" s="6" t="n"/>
       <c r="G121" s="6" t="n"/>
       <c r="H121" s="6" t="n"/>
-      <c r="I121" s="6" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="6" t="n"/>
@@ -10331,7 +10185,6 @@
       <c r="F122" s="6" t="n"/>
       <c r="G122" s="6" t="n"/>
       <c r="H122" s="6" t="n"/>
-      <c r="I122" s="6" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="6" t="n"/>
@@ -10342,7 +10195,6 @@
       <c r="F123" s="6" t="n"/>
       <c r="G123" s="6" t="n"/>
       <c r="H123" s="6" t="n"/>
-      <c r="I123" s="6" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="6" t="n"/>
@@ -10353,7 +10205,6 @@
       <c r="F124" s="6" t="n"/>
       <c r="G124" s="6" t="n"/>
       <c r="H124" s="6" t="n"/>
-      <c r="I124" s="6" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="6" t="n"/>
@@ -10364,7 +10215,6 @@
       <c r="F125" s="6" t="n"/>
       <c r="G125" s="6" t="n"/>
       <c r="H125" s="6" t="n"/>
-      <c r="I125" s="6" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="6" t="n"/>
@@ -10375,7 +10225,6 @@
       <c r="F126" s="6" t="n"/>
       <c r="G126" s="6" t="n"/>
       <c r="H126" s="6" t="n"/>
-      <c r="I126" s="6" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="6" t="n"/>
@@ -10386,7 +10235,6 @@
       <c r="F127" s="6" t="n"/>
       <c r="G127" s="6" t="n"/>
       <c r="H127" s="6" t="n"/>
-      <c r="I127" s="6" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="6" t="n"/>
@@ -10397,7 +10245,6 @@
       <c r="F128" s="6" t="n"/>
       <c r="G128" s="6" t="n"/>
       <c r="H128" s="6" t="n"/>
-      <c r="I128" s="6" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="6" t="n"/>
@@ -10408,7 +10255,6 @@
       <c r="F129" s="6" t="n"/>
       <c r="G129" s="6" t="n"/>
       <c r="H129" s="6" t="n"/>
-      <c r="I129" s="6" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="6" t="n"/>
@@ -10419,7 +10265,6 @@
       <c r="F130" s="6" t="n"/>
       <c r="G130" s="6" t="n"/>
       <c r="H130" s="6" t="n"/>
-      <c r="I130" s="6" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="6" t="n"/>
@@ -10430,7 +10275,6 @@
       <c r="F131" s="6" t="n"/>
       <c r="G131" s="6" t="n"/>
       <c r="H131" s="6" t="n"/>
-      <c r="I131" s="6" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="6" t="n"/>
@@ -10441,7 +10285,6 @@
       <c r="F132" s="6" t="n"/>
       <c r="G132" s="6" t="n"/>
       <c r="H132" s="6" t="n"/>
-      <c r="I132" s="6" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="6" t="n"/>
@@ -10452,7 +10295,6 @@
       <c r="F133" s="6" t="n"/>
       <c r="G133" s="6" t="n"/>
       <c r="H133" s="6" t="n"/>
-      <c r="I133" s="6" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="6" t="n"/>
@@ -10463,7 +10305,6 @@
       <c r="F134" s="6" t="n"/>
       <c r="G134" s="6" t="n"/>
       <c r="H134" s="6" t="n"/>
-      <c r="I134" s="6" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="6" t="n"/>
@@ -10474,7 +10315,6 @@
       <c r="F135" s="6" t="n"/>
       <c r="G135" s="6" t="n"/>
       <c r="H135" s="6" t="n"/>
-      <c r="I135" s="6" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="6" t="n"/>
@@ -10485,7 +10325,6 @@
       <c r="F136" s="6" t="n"/>
       <c r="G136" s="6" t="n"/>
       <c r="H136" s="6" t="n"/>
-      <c r="I136" s="6" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="6" t="n"/>
@@ -10496,7 +10335,6 @@
       <c r="F137" s="6" t="n"/>
       <c r="G137" s="6" t="n"/>
       <c r="H137" s="6" t="n"/>
-      <c r="I137" s="6" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="6" t="n"/>
@@ -10507,7 +10345,6 @@
       <c r="F138" s="6" t="n"/>
       <c r="G138" s="6" t="n"/>
       <c r="H138" s="6" t="n"/>
-      <c r="I138" s="6" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="6" t="n"/>
@@ -10518,7 +10355,6 @@
       <c r="F139" s="6" t="n"/>
       <c r="G139" s="6" t="n"/>
       <c r="H139" s="6" t="n"/>
-      <c r="I139" s="6" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="6" t="n"/>
@@ -10529,7 +10365,6 @@
       <c r="F140" s="6" t="n"/>
       <c r="G140" s="6" t="n"/>
       <c r="H140" s="6" t="n"/>
-      <c r="I140" s="6" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="6" t="n"/>
@@ -10540,7 +10375,6 @@
       <c r="F141" s="6" t="n"/>
       <c r="G141" s="6" t="n"/>
       <c r="H141" s="6" t="n"/>
-      <c r="I141" s="6" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="6" t="n"/>
@@ -10551,7 +10385,6 @@
       <c r="F142" s="6" t="n"/>
       <c r="G142" s="6" t="n"/>
       <c r="H142" s="6" t="n"/>
-      <c r="I142" s="6" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="6" t="n"/>
@@ -10562,7 +10395,6 @@
       <c r="F143" s="6" t="n"/>
       <c r="G143" s="6" t="n"/>
       <c r="H143" s="6" t="n"/>
-      <c r="I143" s="6" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="6" t="n"/>
@@ -10573,7 +10405,6 @@
       <c r="F144" s="6" t="n"/>
       <c r="G144" s="6" t="n"/>
       <c r="H144" s="6" t="n"/>
-      <c r="I144" s="6" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="6" t="n"/>
@@ -10584,7 +10415,6 @@
       <c r="F145" s="6" t="n"/>
       <c r="G145" s="6" t="n"/>
       <c r="H145" s="6" t="n"/>
-      <c r="I145" s="6" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="6" t="n"/>
@@ -10595,7 +10425,6 @@
       <c r="F146" s="6" t="n"/>
       <c r="G146" s="6" t="n"/>
       <c r="H146" s="6" t="n"/>
-      <c r="I146" s="6" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="6" t="n"/>
@@ -10606,7 +10435,6 @@
       <c r="F147" s="6" t="n"/>
       <c r="G147" s="6" t="n"/>
       <c r="H147" s="6" t="n"/>
-      <c r="I147" s="6" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="6" t="n"/>
@@ -10617,7 +10445,6 @@
       <c r="F148" s="6" t="n"/>
       <c r="G148" s="6" t="n"/>
       <c r="H148" s="6" t="n"/>
-      <c r="I148" s="6" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="6" t="n"/>
@@ -10628,7 +10455,6 @@
       <c r="F149" s="6" t="n"/>
       <c r="G149" s="6" t="n"/>
       <c r="H149" s="6" t="n"/>
-      <c r="I149" s="6" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="6" t="n"/>
@@ -10639,7 +10465,6 @@
       <c r="F150" s="6" t="n"/>
       <c r="G150" s="6" t="n"/>
       <c r="H150" s="6" t="n"/>
-      <c r="I150" s="6" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="6" t="n"/>
@@ -10650,7 +10475,6 @@
       <c r="F151" s="6" t="n"/>
       <c r="G151" s="6" t="n"/>
       <c r="H151" s="6" t="n"/>
-      <c r="I151" s="6" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="6" t="n"/>
@@ -10661,7 +10485,6 @@
       <c r="F152" s="6" t="n"/>
       <c r="G152" s="6" t="n"/>
       <c r="H152" s="6" t="n"/>
-      <c r="I152" s="6" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="6" t="n"/>
@@ -10672,7 +10495,6 @@
       <c r="F153" s="6" t="n"/>
       <c r="G153" s="6" t="n"/>
       <c r="H153" s="6" t="n"/>
-      <c r="I153" s="6" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="6" t="n"/>
@@ -10683,7 +10505,6 @@
       <c r="F154" s="6" t="n"/>
       <c r="G154" s="6" t="n"/>
       <c r="H154" s="6" t="n"/>
-      <c r="I154" s="6" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="6" t="n"/>
@@ -10694,7 +10515,6 @@
       <c r="F155" s="6" t="n"/>
       <c r="G155" s="6" t="n"/>
       <c r="H155" s="6" t="n"/>
-      <c r="I155" s="6" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="6" t="n"/>
@@ -10705,7 +10525,6 @@
       <c r="F156" s="6" t="n"/>
       <c r="G156" s="6" t="n"/>
       <c r="H156" s="6" t="n"/>
-      <c r="I156" s="6" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="6" t="n"/>
@@ -10716,7 +10535,6 @@
       <c r="F157" s="6" t="n"/>
       <c r="G157" s="6" t="n"/>
       <c r="H157" s="6" t="n"/>
-      <c r="I157" s="6" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="6" t="n"/>
@@ -10727,7 +10545,6 @@
       <c r="F158" s="6" t="n"/>
       <c r="G158" s="6" t="n"/>
       <c r="H158" s="6" t="n"/>
-      <c r="I158" s="6" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="6" t="n"/>
@@ -10738,7 +10555,6 @@
       <c r="F159" s="6" t="n"/>
       <c r="G159" s="6" t="n"/>
       <c r="H159" s="6" t="n"/>
-      <c r="I159" s="6" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="6" t="n"/>
@@ -10749,7 +10565,6 @@
       <c r="F160" s="6" t="n"/>
       <c r="G160" s="6" t="n"/>
       <c r="H160" s="6" t="n"/>
-      <c r="I160" s="6" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="6" t="n"/>
@@ -10760,7 +10575,6 @@
       <c r="F161" s="6" t="n"/>
       <c r="G161" s="6" t="n"/>
       <c r="H161" s="6" t="n"/>
-      <c r="I161" s="6" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="6" t="n"/>
@@ -10771,7 +10585,6 @@
       <c r="F162" s="6" t="n"/>
       <c r="G162" s="6" t="n"/>
       <c r="H162" s="6" t="n"/>
-      <c r="I162" s="6" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="6" t="n"/>
@@ -10782,7 +10595,6 @@
       <c r="F163" s="6" t="n"/>
       <c r="G163" s="6" t="n"/>
       <c r="H163" s="6" t="n"/>
-      <c r="I163" s="6" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="6" t="n"/>
@@ -10793,7 +10605,6 @@
       <c r="F164" s="6" t="n"/>
       <c r="G164" s="6" t="n"/>
       <c r="H164" s="6" t="n"/>
-      <c r="I164" s="6" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="6" t="n"/>
@@ -10804,7 +10615,6 @@
       <c r="F165" s="6" t="n"/>
       <c r="G165" s="6" t="n"/>
       <c r="H165" s="6" t="n"/>
-      <c r="I165" s="6" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="6" t="n"/>
@@ -10815,7 +10625,6 @@
       <c r="F166" s="6" t="n"/>
       <c r="G166" s="6" t="n"/>
       <c r="H166" s="6" t="n"/>
-      <c r="I166" s="6" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="6" t="n"/>
@@ -10826,7 +10635,6 @@
       <c r="F167" s="6" t="n"/>
       <c r="G167" s="6" t="n"/>
       <c r="H167" s="6" t="n"/>
-      <c r="I167" s="6" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="6" t="n"/>
@@ -10837,7 +10645,6 @@
       <c r="F168" s="6" t="n"/>
       <c r="G168" s="6" t="n"/>
       <c r="H168" s="6" t="n"/>
-      <c r="I168" s="6" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="6" t="n"/>
@@ -10848,7 +10655,6 @@
       <c r="F169" s="6" t="n"/>
       <c r="G169" s="6" t="n"/>
       <c r="H169" s="6" t="n"/>
-      <c r="I169" s="6" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="6" t="n"/>
@@ -10859,7 +10665,6 @@
       <c r="F170" s="6" t="n"/>
       <c r="G170" s="6" t="n"/>
       <c r="H170" s="6" t="n"/>
-      <c r="I170" s="6" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="6" t="n"/>
@@ -10870,7 +10675,6 @@
       <c r="F171" s="6" t="n"/>
       <c r="G171" s="6" t="n"/>
       <c r="H171" s="6" t="n"/>
-      <c r="I171" s="6" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="6" t="n"/>
@@ -10881,7 +10685,6 @@
       <c r="F172" s="6" t="n"/>
       <c r="G172" s="6" t="n"/>
       <c r="H172" s="6" t="n"/>
-      <c r="I172" s="6" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="6" t="n"/>
@@ -10892,7 +10695,6 @@
       <c r="F173" s="6" t="n"/>
       <c r="G173" s="6" t="n"/>
       <c r="H173" s="6" t="n"/>
-      <c r="I173" s="6" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="6" t="n"/>
@@ -10903,7 +10705,6 @@
       <c r="F174" s="6" t="n"/>
       <c r="G174" s="6" t="n"/>
       <c r="H174" s="6" t="n"/>
-      <c r="I174" s="6" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="6" t="n"/>
@@ -10914,7 +10715,6 @@
       <c r="F175" s="6" t="n"/>
       <c r="G175" s="6" t="n"/>
       <c r="H175" s="6" t="n"/>
-      <c r="I175" s="6" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="6" t="n"/>
@@ -10925,7 +10725,6 @@
       <c r="F176" s="6" t="n"/>
       <c r="G176" s="6" t="n"/>
       <c r="H176" s="6" t="n"/>
-      <c r="I176" s="6" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="6" t="n"/>
@@ -10936,7 +10735,6 @@
       <c r="F177" s="6" t="n"/>
       <c r="G177" s="6" t="n"/>
       <c r="H177" s="6" t="n"/>
-      <c r="I177" s="6" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="6" t="n"/>
@@ -10947,7 +10745,6 @@
       <c r="F178" s="6" t="n"/>
       <c r="G178" s="6" t="n"/>
       <c r="H178" s="6" t="n"/>
-      <c r="I178" s="6" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="6" t="n"/>
@@ -10958,7 +10755,6 @@
       <c r="F179" s="6" t="n"/>
       <c r="G179" s="6" t="n"/>
       <c r="H179" s="6" t="n"/>
-      <c r="I179" s="6" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="6" t="n"/>
@@ -10969,7 +10765,6 @@
       <c r="F180" s="6" t="n"/>
       <c r="G180" s="6" t="n"/>
       <c r="H180" s="6" t="n"/>
-      <c r="I180" s="6" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="6" t="n"/>
@@ -10980,7 +10775,6 @@
       <c r="F181" s="6" t="n"/>
       <c r="G181" s="6" t="n"/>
       <c r="H181" s="6" t="n"/>
-      <c r="I181" s="6" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="6" t="n"/>
@@ -10991,7 +10785,6 @@
       <c r="F182" s="6" t="n"/>
       <c r="G182" s="6" t="n"/>
       <c r="H182" s="6" t="n"/>
-      <c r="I182" s="6" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="6" t="n"/>
@@ -11002,7 +10795,6 @@
       <c r="F183" s="6" t="n"/>
       <c r="G183" s="6" t="n"/>
       <c r="H183" s="6" t="n"/>
-      <c r="I183" s="6" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="6" t="n"/>
@@ -11013,7 +10805,6 @@
       <c r="F184" s="6" t="n"/>
       <c r="G184" s="6" t="n"/>
       <c r="H184" s="6" t="n"/>
-      <c r="I184" s="6" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="6" t="n"/>
@@ -11024,7 +10815,6 @@
       <c r="F185" s="6" t="n"/>
       <c r="G185" s="6" t="n"/>
       <c r="H185" s="6" t="n"/>
-      <c r="I185" s="6" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="6" t="n"/>
@@ -11035,7 +10825,6 @@
       <c r="F186" s="6" t="n"/>
       <c r="G186" s="6" t="n"/>
       <c r="H186" s="6" t="n"/>
-      <c r="I186" s="6" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="6" t="n"/>
@@ -11046,7 +10835,6 @@
       <c r="F187" s="6" t="n"/>
       <c r="G187" s="6" t="n"/>
       <c r="H187" s="6" t="n"/>
-      <c r="I187" s="6" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="6" t="n"/>
@@ -11057,7 +10845,6 @@
       <c r="F188" s="6" t="n"/>
       <c r="G188" s="6" t="n"/>
       <c r="H188" s="6" t="n"/>
-      <c r="I188" s="6" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="6" t="n"/>
@@ -11068,7 +10855,6 @@
       <c r="F189" s="6" t="n"/>
       <c r="G189" s="6" t="n"/>
       <c r="H189" s="6" t="n"/>
-      <c r="I189" s="6" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="6" t="n"/>
@@ -11079,7 +10865,6 @@
       <c r="F190" s="6" t="n"/>
       <c r="G190" s="6" t="n"/>
       <c r="H190" s="6" t="n"/>
-      <c r="I190" s="6" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="6" t="n"/>
@@ -11090,7 +10875,6 @@
       <c r="F191" s="6" t="n"/>
       <c r="G191" s="6" t="n"/>
       <c r="H191" s="6" t="n"/>
-      <c r="I191" s="6" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="6" t="n"/>
@@ -11101,7 +10885,6 @@
       <c r="F192" s="6" t="n"/>
       <c r="G192" s="6" t="n"/>
       <c r="H192" s="6" t="n"/>
-      <c r="I192" s="6" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="6" t="n"/>
@@ -11112,7 +10895,6 @@
       <c r="F193" s="6" t="n"/>
       <c r="G193" s="6" t="n"/>
       <c r="H193" s="6" t="n"/>
-      <c r="I193" s="6" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="6" t="n"/>
@@ -11123,7 +10905,6 @@
       <c r="F194" s="6" t="n"/>
       <c r="G194" s="6" t="n"/>
       <c r="H194" s="6" t="n"/>
-      <c r="I194" s="6" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="6" t="n"/>
@@ -11134,7 +10915,6 @@
       <c r="F195" s="6" t="n"/>
       <c r="G195" s="6" t="n"/>
       <c r="H195" s="6" t="n"/>
-      <c r="I195" s="6" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="6" t="n"/>
@@ -11145,7 +10925,6 @@
       <c r="F196" s="6" t="n"/>
       <c r="G196" s="6" t="n"/>
       <c r="H196" s="6" t="n"/>
-      <c r="I196" s="6" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="6" t="n"/>
@@ -11156,7 +10935,6 @@
       <c r="F197" s="6" t="n"/>
       <c r="G197" s="6" t="n"/>
       <c r="H197" s="6" t="n"/>
-      <c r="I197" s="6" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="6" t="n"/>
@@ -11167,7 +10945,6 @@
       <c r="F198" s="6" t="n"/>
       <c r="G198" s="6" t="n"/>
       <c r="H198" s="6" t="n"/>
-      <c r="I198" s="6" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="6" t="n"/>
@@ -11178,7 +10955,6 @@
       <c r="F199" s="6" t="n"/>
       <c r="G199" s="6" t="n"/>
       <c r="H199" s="6" t="n"/>
-      <c r="I199" s="6" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="6" t="n"/>
@@ -11189,7 +10965,6 @@
       <c r="F200" s="6" t="n"/>
       <c r="G200" s="6" t="n"/>
       <c r="H200" s="6" t="n"/>
-      <c r="I200" s="6" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="6" t="n"/>
@@ -11200,7 +10975,6 @@
       <c r="F201" s="6" t="n"/>
       <c r="G201" s="6" t="n"/>
       <c r="H201" s="6" t="n"/>
-      <c r="I201" s="6" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="6" t="n"/>
@@ -11211,7 +10985,6 @@
       <c r="F202" s="6" t="n"/>
       <c r="G202" s="6" t="n"/>
       <c r="H202" s="6" t="n"/>
-      <c r="I202" s="6" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="6" t="n"/>
@@ -11222,7 +10995,6 @@
       <c r="F203" s="6" t="n"/>
       <c r="G203" s="6" t="n"/>
       <c r="H203" s="6" t="n"/>
-      <c r="I203" s="6" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="6" t="n"/>
@@ -11233,7 +11005,6 @@
       <c r="F204" s="6" t="n"/>
       <c r="G204" s="6" t="n"/>
       <c r="H204" s="6" t="n"/>
-      <c r="I204" s="6" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="6" t="n"/>
@@ -11244,7 +11015,6 @@
       <c r="F205" s="6" t="n"/>
       <c r="G205" s="6" t="n"/>
       <c r="H205" s="6" t="n"/>
-      <c r="I205" s="6" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="6" t="n"/>
@@ -11255,7 +11025,6 @@
       <c r="F206" s="6" t="n"/>
       <c r="G206" s="6" t="n"/>
       <c r="H206" s="6" t="n"/>
-      <c r="I206" s="6" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="6" t="n"/>
@@ -11266,7 +11035,6 @@
       <c r="F207" s="6" t="n"/>
       <c r="G207" s="6" t="n"/>
       <c r="H207" s="6" t="n"/>
-      <c r="I207" s="6" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="6" t="n"/>
@@ -11277,7 +11045,6 @@
       <c r="F208" s="6" t="n"/>
       <c r="G208" s="6" t="n"/>
       <c r="H208" s="6" t="n"/>
-      <c r="I208" s="6" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="6" t="n"/>
@@ -11288,7 +11055,6 @@
       <c r="F209" s="6" t="n"/>
       <c r="G209" s="6" t="n"/>
       <c r="H209" s="6" t="n"/>
-      <c r="I209" s="6" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="6" t="n"/>
@@ -11299,7 +11065,6 @@
       <c r="F210" s="6" t="n"/>
       <c r="G210" s="6" t="n"/>
       <c r="H210" s="6" t="n"/>
-      <c r="I210" s="6" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="6" t="n"/>
@@ -11310,7 +11075,6 @@
       <c r="F211" s="6" t="n"/>
       <c r="G211" s="6" t="n"/>
       <c r="H211" s="6" t="n"/>
-      <c r="I211" s="6" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="6" t="n"/>
@@ -11321,7 +11085,6 @@
       <c r="F212" s="6" t="n"/>
       <c r="G212" s="6" t="n"/>
       <c r="H212" s="6" t="n"/>
-      <c r="I212" s="6" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="6" t="n"/>
@@ -11332,7 +11095,6 @@
       <c r="F213" s="6" t="n"/>
       <c r="G213" s="6" t="n"/>
       <c r="H213" s="6" t="n"/>
-      <c r="I213" s="6" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="6" t="n"/>
@@ -11343,7 +11105,6 @@
       <c r="F214" s="6" t="n"/>
       <c r="G214" s="6" t="n"/>
       <c r="H214" s="6" t="n"/>
-      <c r="I214" s="6" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="6" t="n"/>
@@ -11354,7 +11115,6 @@
       <c r="F215" s="6" t="n"/>
       <c r="G215" s="6" t="n"/>
       <c r="H215" s="6" t="n"/>
-      <c r="I215" s="6" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="6" t="n"/>
@@ -11365,7 +11125,6 @@
       <c r="F216" s="6" t="n"/>
       <c r="G216" s="6" t="n"/>
       <c r="H216" s="6" t="n"/>
-      <c r="I216" s="6" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="6" t="n"/>
@@ -11376,7 +11135,6 @@
       <c r="F217" s="6" t="n"/>
       <c r="G217" s="6" t="n"/>
       <c r="H217" s="6" t="n"/>
-      <c r="I217" s="6" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="6" t="n"/>
@@ -11387,7 +11145,6 @@
       <c r="F218" s="6" t="n"/>
       <c r="G218" s="6" t="n"/>
       <c r="H218" s="6" t="n"/>
-      <c r="I218" s="6" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="6" t="n"/>
@@ -11398,7 +11155,6 @@
       <c r="F219" s="6" t="n"/>
       <c r="G219" s="6" t="n"/>
       <c r="H219" s="6" t="n"/>
-      <c r="I219" s="6" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="6" t="n"/>
@@ -11409,7 +11165,6 @@
       <c r="F220" s="6" t="n"/>
       <c r="G220" s="6" t="n"/>
       <c r="H220" s="6" t="n"/>
-      <c r="I220" s="6" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="6" t="n"/>
@@ -11420,7 +11175,6 @@
       <c r="F221" s="6" t="n"/>
       <c r="G221" s="6" t="n"/>
       <c r="H221" s="6" t="n"/>
-      <c r="I221" s="6" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="6" t="n"/>
@@ -11431,7 +11185,6 @@
       <c r="F222" s="6" t="n"/>
       <c r="G222" s="6" t="n"/>
       <c r="H222" s="6" t="n"/>
-      <c r="I222" s="6" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="6" t="n"/>
@@ -11442,7 +11195,6 @@
       <c r="F223" s="6" t="n"/>
       <c r="G223" s="6" t="n"/>
       <c r="H223" s="6" t="n"/>
-      <c r="I223" s="6" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="6" t="n"/>
@@ -11453,7 +11205,6 @@
       <c r="F224" s="6" t="n"/>
       <c r="G224" s="6" t="n"/>
       <c r="H224" s="6" t="n"/>
-      <c r="I224" s="6" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="6" t="n"/>
@@ -11464,7 +11215,6 @@
       <c r="F225" s="6" t="n"/>
       <c r="G225" s="6" t="n"/>
       <c r="H225" s="6" t="n"/>
-      <c r="I225" s="6" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="6" t="n"/>
@@ -11475,7 +11225,6 @@
       <c r="F226" s="6" t="n"/>
       <c r="G226" s="6" t="n"/>
       <c r="H226" s="6" t="n"/>
-      <c r="I226" s="6" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="6" t="n"/>
@@ -11486,7 +11235,6 @@
       <c r="F227" s="6" t="n"/>
       <c r="G227" s="6" t="n"/>
       <c r="H227" s="6" t="n"/>
-      <c r="I227" s="6" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="6" t="n"/>
@@ -11497,7 +11245,6 @@
       <c r="F228" s="6" t="n"/>
       <c r="G228" s="6" t="n"/>
       <c r="H228" s="6" t="n"/>
-      <c r="I228" s="6" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="6" t="n"/>
@@ -11508,7 +11255,6 @@
       <c r="F229" s="6" t="n"/>
       <c r="G229" s="6" t="n"/>
       <c r="H229" s="6" t="n"/>
-      <c r="I229" s="6" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="6" t="n"/>
@@ -11519,7 +11265,6 @@
       <c r="F230" s="6" t="n"/>
       <c r="G230" s="6" t="n"/>
       <c r="H230" s="6" t="n"/>
-      <c r="I230" s="6" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="6" t="n"/>
@@ -11530,7 +11275,6 @@
       <c r="F231" s="6" t="n"/>
       <c r="G231" s="6" t="n"/>
       <c r="H231" s="6" t="n"/>
-      <c r="I231" s="6" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="6" t="n"/>
@@ -11541,7 +11285,6 @@
       <c r="F232" s="6" t="n"/>
       <c r="G232" s="6" t="n"/>
       <c r="H232" s="6" t="n"/>
-      <c r="I232" s="6" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="6" t="n"/>
@@ -11552,7 +11295,6 @@
       <c r="F233" s="6" t="n"/>
       <c r="G233" s="6" t="n"/>
       <c r="H233" s="6" t="n"/>
-      <c r="I233" s="6" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="6" t="n"/>
@@ -11563,7 +11305,6 @@
       <c r="F234" s="6" t="n"/>
       <c r="G234" s="6" t="n"/>
       <c r="H234" s="6" t="n"/>
-      <c r="I234" s="6" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="6" t="n"/>
@@ -11574,7 +11315,6 @@
       <c r="F235" s="6" t="n"/>
       <c r="G235" s="6" t="n"/>
       <c r="H235" s="6" t="n"/>
-      <c r="I235" s="6" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="6" t="n"/>
@@ -11585,7 +11325,6 @@
       <c r="F236" s="6" t="n"/>
       <c r="G236" s="6" t="n"/>
       <c r="H236" s="6" t="n"/>
-      <c r="I236" s="6" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="6" t="n"/>
@@ -11596,7 +11335,6 @@
       <c r="F237" s="6" t="n"/>
       <c r="G237" s="6" t="n"/>
       <c r="H237" s="6" t="n"/>
-      <c r="I237" s="6" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="6" t="n"/>
@@ -11607,7 +11345,6 @@
       <c r="F238" s="6" t="n"/>
       <c r="G238" s="6" t="n"/>
       <c r="H238" s="6" t="n"/>
-      <c r="I238" s="6" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="6" t="n"/>
@@ -11618,7 +11355,6 @@
       <c r="F239" s="6" t="n"/>
       <c r="G239" s="6" t="n"/>
       <c r="H239" s="6" t="n"/>
-      <c r="I239" s="6" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="6" t="n"/>
@@ -11629,7 +11365,6 @@
       <c r="F240" s="6" t="n"/>
       <c r="G240" s="6" t="n"/>
       <c r="H240" s="6" t="n"/>
-      <c r="I240" s="6" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="6" t="n"/>
@@ -11640,7 +11375,6 @@
       <c r="F241" s="6" t="n"/>
       <c r="G241" s="6" t="n"/>
       <c r="H241" s="6" t="n"/>
-      <c r="I241" s="6" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="6" t="n"/>
@@ -11651,7 +11385,6 @@
       <c r="F242" s="6" t="n"/>
       <c r="G242" s="6" t="n"/>
       <c r="H242" s="6" t="n"/>
-      <c r="I242" s="6" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="6" t="n"/>
@@ -11662,7 +11395,6 @@
       <c r="F243" s="6" t="n"/>
       <c r="G243" s="6" t="n"/>
       <c r="H243" s="6" t="n"/>
-      <c r="I243" s="6" t="n"/>
     </row>
     <row r="244">
       <c r="A244" s="6" t="n"/>
@@ -11673,7 +11405,6 @@
       <c r="F244" s="6" t="n"/>
       <c r="G244" s="6" t="n"/>
       <c r="H244" s="6" t="n"/>
-      <c r="I244" s="6" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="6" t="n"/>
@@ -11684,7 +11415,6 @@
       <c r="F245" s="6" t="n"/>
       <c r="G245" s="6" t="n"/>
       <c r="H245" s="6" t="n"/>
-      <c r="I245" s="6" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="6" t="n"/>
@@ -11695,7 +11425,6 @@
       <c r="F246" s="6" t="n"/>
       <c r="G246" s="6" t="n"/>
       <c r="H246" s="6" t="n"/>
-      <c r="I246" s="6" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="6" t="n"/>
@@ -11706,7 +11435,6 @@
       <c r="F247" s="6" t="n"/>
       <c r="G247" s="6" t="n"/>
       <c r="H247" s="6" t="n"/>
-      <c r="I247" s="6" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="6" t="n"/>
@@ -11717,7 +11445,6 @@
       <c r="F248" s="6" t="n"/>
       <c r="G248" s="6" t="n"/>
       <c r="H248" s="6" t="n"/>
-      <c r="I248" s="6" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="6" t="n"/>
@@ -11728,7 +11455,6 @@
       <c r="F249" s="6" t="n"/>
       <c r="G249" s="6" t="n"/>
       <c r="H249" s="6" t="n"/>
-      <c r="I249" s="6" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="6" t="n"/>
@@ -11739,7 +11465,6 @@
       <c r="F250" s="6" t="n"/>
       <c r="G250" s="6" t="n"/>
       <c r="H250" s="6" t="n"/>
-      <c r="I250" s="6" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="6" t="n"/>
@@ -11750,7 +11475,6 @@
       <c r="F251" s="6" t="n"/>
       <c r="G251" s="6" t="n"/>
       <c r="H251" s="6" t="n"/>
-      <c r="I251" s="6" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="6" t="n"/>
@@ -11761,7 +11485,6 @@
       <c r="F252" s="6" t="n"/>
       <c r="G252" s="6" t="n"/>
       <c r="H252" s="6" t="n"/>
-      <c r="I252" s="6" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="6" t="n"/>
@@ -11772,7 +11495,6 @@
       <c r="F253" s="6" t="n"/>
       <c r="G253" s="6" t="n"/>
       <c r="H253" s="6" t="n"/>
-      <c r="I253" s="6" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="6" t="n"/>
@@ -11783,7 +11505,6 @@
       <c r="F254" s="6" t="n"/>
       <c r="G254" s="6" t="n"/>
       <c r="H254" s="6" t="n"/>
-      <c r="I254" s="6" t="n"/>
     </row>
     <row r="255">
       <c r="A255" s="6" t="n"/>
@@ -11794,7 +11515,6 @@
       <c r="F255" s="6" t="n"/>
       <c r="G255" s="6" t="n"/>
       <c r="H255" s="6" t="n"/>
-      <c r="I255" s="6" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="6" t="n"/>
@@ -11805,7 +11525,6 @@
       <c r="F256" s="6" t="n"/>
       <c r="G256" s="6" t="n"/>
       <c r="H256" s="6" t="n"/>
-      <c r="I256" s="6" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="6" t="n"/>
@@ -11816,7 +11535,6 @@
       <c r="F257" s="6" t="n"/>
       <c r="G257" s="6" t="n"/>
       <c r="H257" s="6" t="n"/>
-      <c r="I257" s="6" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="6" t="n"/>
@@ -11827,7 +11545,6 @@
       <c r="F258" s="6" t="n"/>
       <c r="G258" s="6" t="n"/>
       <c r="H258" s="6" t="n"/>
-      <c r="I258" s="6" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="6" t="n"/>
@@ -11838,7 +11555,6 @@
       <c r="F259" s="6" t="n"/>
       <c r="G259" s="6" t="n"/>
       <c r="H259" s="6" t="n"/>
-      <c r="I259" s="6" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="6" t="n"/>
@@ -11849,7 +11565,6 @@
       <c r="F260" s="6" t="n"/>
       <c r="G260" s="6" t="n"/>
       <c r="H260" s="6" t="n"/>
-      <c r="I260" s="6" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="6" t="n"/>
@@ -11860,7 +11575,6 @@
       <c r="F261" s="6" t="n"/>
       <c r="G261" s="6" t="n"/>
       <c r="H261" s="6" t="n"/>
-      <c r="I261" s="6" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="6" t="n"/>
@@ -11871,7 +11585,6 @@
       <c r="F262" s="6" t="n"/>
       <c r="G262" s="6" t="n"/>
       <c r="H262" s="6" t="n"/>
-      <c r="I262" s="6" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="6" t="n"/>
@@ -11882,7 +11595,6 @@
       <c r="F263" s="6" t="n"/>
       <c r="G263" s="6" t="n"/>
       <c r="H263" s="6" t="n"/>
-      <c r="I263" s="6" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="6" t="n"/>
@@ -11893,7 +11605,6 @@
       <c r="F264" s="6" t="n"/>
       <c r="G264" s="6" t="n"/>
       <c r="H264" s="6" t="n"/>
-      <c r="I264" s="6" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="6" t="n"/>
@@ -11904,7 +11615,6 @@
       <c r="F265" s="6" t="n"/>
       <c r="G265" s="6" t="n"/>
       <c r="H265" s="6" t="n"/>
-      <c r="I265" s="6" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="6" t="n"/>
@@ -11915,7 +11625,6 @@
       <c r="F266" s="6" t="n"/>
       <c r="G266" s="6" t="n"/>
       <c r="H266" s="6" t="n"/>
-      <c r="I266" s="6" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="6" t="n"/>
@@ -11926,7 +11635,6 @@
       <c r="F267" s="6" t="n"/>
       <c r="G267" s="6" t="n"/>
       <c r="H267" s="6" t="n"/>
-      <c r="I267" s="6" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="6" t="n"/>
@@ -11937,7 +11645,6 @@
       <c r="F268" s="6" t="n"/>
       <c r="G268" s="6" t="n"/>
       <c r="H268" s="6" t="n"/>
-      <c r="I268" s="6" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="6" t="n"/>
@@ -11948,7 +11655,6 @@
       <c r="F269" s="6" t="n"/>
       <c r="G269" s="6" t="n"/>
       <c r="H269" s="6" t="n"/>
-      <c r="I269" s="6" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="6" t="n"/>
@@ -11959,7 +11665,6 @@
       <c r="F270" s="6" t="n"/>
       <c r="G270" s="6" t="n"/>
       <c r="H270" s="6" t="n"/>
-      <c r="I270" s="6" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="6" t="n"/>
@@ -11970,7 +11675,6 @@
       <c r="F271" s="6" t="n"/>
       <c r="G271" s="6" t="n"/>
       <c r="H271" s="6" t="n"/>
-      <c r="I271" s="6" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="6" t="n"/>
@@ -11981,7 +11685,6 @@
       <c r="F272" s="6" t="n"/>
       <c r="G272" s="6" t="n"/>
       <c r="H272" s="6" t="n"/>
-      <c r="I272" s="6" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="6" t="n"/>
@@ -11992,7 +11695,6 @@
       <c r="F273" s="6" t="n"/>
       <c r="G273" s="6" t="n"/>
       <c r="H273" s="6" t="n"/>
-      <c r="I273" s="6" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="6" t="n"/>
@@ -12003,7 +11705,6 @@
       <c r="F274" s="6" t="n"/>
       <c r="G274" s="6" t="n"/>
       <c r="H274" s="6" t="n"/>
-      <c r="I274" s="6" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="6" t="n"/>
@@ -12014,7 +11715,6 @@
       <c r="F275" s="6" t="n"/>
       <c r="G275" s="6" t="n"/>
       <c r="H275" s="6" t="n"/>
-      <c r="I275" s="6" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="6" t="n"/>
@@ -12025,7 +11725,6 @@
       <c r="F276" s="6" t="n"/>
       <c r="G276" s="6" t="n"/>
       <c r="H276" s="6" t="n"/>
-      <c r="I276" s="6" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="6" t="n"/>
@@ -12036,7 +11735,6 @@
       <c r="F277" s="6" t="n"/>
       <c r="G277" s="6" t="n"/>
       <c r="H277" s="6" t="n"/>
-      <c r="I277" s="6" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="6" t="n"/>
@@ -12047,7 +11745,6 @@
       <c r="F278" s="6" t="n"/>
       <c r="G278" s="6" t="n"/>
       <c r="H278" s="6" t="n"/>
-      <c r="I278" s="6" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="6" t="n"/>
@@ -12058,7 +11755,6 @@
       <c r="F279" s="6" t="n"/>
       <c r="G279" s="6" t="n"/>
       <c r="H279" s="6" t="n"/>
-      <c r="I279" s="6" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="6" t="n"/>
@@ -12069,7 +11765,6 @@
       <c r="F280" s="6" t="n"/>
       <c r="G280" s="6" t="n"/>
       <c r="H280" s="6" t="n"/>
-      <c r="I280" s="6" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="6" t="n"/>
@@ -12080,7 +11775,6 @@
       <c r="F281" s="6" t="n"/>
       <c r="G281" s="6" t="n"/>
       <c r="H281" s="6" t="n"/>
-      <c r="I281" s="6" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="6" t="n"/>
@@ -12091,7 +11785,6 @@
       <c r="F282" s="6" t="n"/>
       <c r="G282" s="6" t="n"/>
       <c r="H282" s="6" t="n"/>
-      <c r="I282" s="6" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="6" t="n"/>
@@ -12102,7 +11795,6 @@
       <c r="F283" s="6" t="n"/>
       <c r="G283" s="6" t="n"/>
       <c r="H283" s="6" t="n"/>
-      <c r="I283" s="6" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="6" t="n"/>
@@ -12113,7 +11805,6 @@
       <c r="F284" s="6" t="n"/>
       <c r="G284" s="6" t="n"/>
       <c r="H284" s="6" t="n"/>
-      <c r="I284" s="6" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="6" t="n"/>
@@ -12124,7 +11815,6 @@
       <c r="F285" s="6" t="n"/>
       <c r="G285" s="6" t="n"/>
       <c r="H285" s="6" t="n"/>
-      <c r="I285" s="6" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="6" t="n"/>
@@ -12135,7 +11825,6 @@
       <c r="F286" s="6" t="n"/>
       <c r="G286" s="6" t="n"/>
       <c r="H286" s="6" t="n"/>
-      <c r="I286" s="6" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="6" t="n"/>
@@ -12146,7 +11835,6 @@
       <c r="F287" s="6" t="n"/>
       <c r="G287" s="6" t="n"/>
       <c r="H287" s="6" t="n"/>
-      <c r="I287" s="6" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="6" t="n"/>
@@ -12157,7 +11845,6 @@
       <c r="F288" s="6" t="n"/>
       <c r="G288" s="6" t="n"/>
       <c r="H288" s="6" t="n"/>
-      <c r="I288" s="6" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="6" t="n"/>
@@ -12168,7 +11855,6 @@
       <c r="F289" s="6" t="n"/>
       <c r="G289" s="6" t="n"/>
       <c r="H289" s="6" t="n"/>
-      <c r="I289" s="6" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="6" t="n"/>
@@ -12179,7 +11865,6 @@
       <c r="F290" s="6" t="n"/>
       <c r="G290" s="6" t="n"/>
       <c r="H290" s="6" t="n"/>
-      <c r="I290" s="6" t="n"/>
     </row>
     <row r="291">
       <c r="A291" s="6" t="n"/>
@@ -12190,7 +11875,6 @@
       <c r="F291" s="6" t="n"/>
       <c r="G291" s="6" t="n"/>
       <c r="H291" s="6" t="n"/>
-      <c r="I291" s="6" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="6" t="n"/>
@@ -12201,7 +11885,6 @@
       <c r="F292" s="6" t="n"/>
       <c r="G292" s="6" t="n"/>
       <c r="H292" s="6" t="n"/>
-      <c r="I292" s="6" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="6" t="n"/>
@@ -12212,7 +11895,6 @@
       <c r="F293" s="6" t="n"/>
       <c r="G293" s="6" t="n"/>
       <c r="H293" s="6" t="n"/>
-      <c r="I293" s="6" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="6" t="n"/>
@@ -12223,7 +11905,6 @@
       <c r="F294" s="6" t="n"/>
       <c r="G294" s="6" t="n"/>
       <c r="H294" s="6" t="n"/>
-      <c r="I294" s="6" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="6" t="n"/>
@@ -12234,7 +11915,6 @@
       <c r="F295" s="6" t="n"/>
       <c r="G295" s="6" t="n"/>
       <c r="H295" s="6" t="n"/>
-      <c r="I295" s="6" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="6" t="n"/>
@@ -12245,7 +11925,6 @@
       <c r="F296" s="6" t="n"/>
       <c r="G296" s="6" t="n"/>
       <c r="H296" s="6" t="n"/>
-      <c r="I296" s="6" t="n"/>
     </row>
     <row r="297">
       <c r="A297" s="6" t="n"/>
@@ -12256,7 +11935,6 @@
       <c r="F297" s="6" t="n"/>
       <c r="G297" s="6" t="n"/>
       <c r="H297" s="6" t="n"/>
-      <c r="I297" s="6" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="6" t="n"/>
@@ -12267,7 +11945,6 @@
       <c r="F298" s="6" t="n"/>
       <c r="G298" s="6" t="n"/>
       <c r="H298" s="6" t="n"/>
-      <c r="I298" s="6" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="6" t="n"/>
@@ -12278,7 +11955,6 @@
       <c r="F299" s="6" t="n"/>
       <c r="G299" s="6" t="n"/>
       <c r="H299" s="6" t="n"/>
-      <c r="I299" s="6" t="n"/>
     </row>
     <row r="300">
       <c r="A300" s="6" t="n"/>
@@ -12289,7 +11965,6 @@
       <c r="F300" s="6" t="n"/>
       <c r="G300" s="6" t="n"/>
       <c r="H300" s="6" t="n"/>
-      <c r="I300" s="6" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="6" t="n"/>
@@ -12300,7 +11975,6 @@
       <c r="F301" s="6" t="n"/>
       <c r="G301" s="6" t="n"/>
       <c r="H301" s="6" t="n"/>
-      <c r="I301" s="6" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="6" t="n"/>
@@ -12311,7 +11985,6 @@
       <c r="F302" s="6" t="n"/>
       <c r="G302" s="6" t="n"/>
       <c r="H302" s="6" t="n"/>
-      <c r="I302" s="6" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="6" t="n"/>
@@ -12322,7 +11995,6 @@
       <c r="F303" s="6" t="n"/>
       <c r="G303" s="6" t="n"/>
       <c r="H303" s="6" t="n"/>
-      <c r="I303" s="6" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="6" t="n"/>
@@ -12333,7 +12005,6 @@
       <c r="F304" s="6" t="n"/>
       <c r="G304" s="6" t="n"/>
       <c r="H304" s="6" t="n"/>
-      <c r="I304" s="6" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="6" t="n"/>
@@ -12344,7 +12015,6 @@
       <c r="F305" s="6" t="n"/>
       <c r="G305" s="6" t="n"/>
       <c r="H305" s="6" t="n"/>
-      <c r="I305" s="6" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="6" t="n"/>
@@ -12355,7 +12025,6 @@
       <c r="F306" s="6" t="n"/>
       <c r="G306" s="6" t="n"/>
       <c r="H306" s="6" t="n"/>
-      <c r="I306" s="6" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="6" t="n"/>
@@ -12366,7 +12035,6 @@
       <c r="F307" s="6" t="n"/>
       <c r="G307" s="6" t="n"/>
       <c r="H307" s="6" t="n"/>
-      <c r="I307" s="6" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="6" t="n"/>
@@ -12377,7 +12045,6 @@
       <c r="F308" s="6" t="n"/>
       <c r="G308" s="6" t="n"/>
       <c r="H308" s="6" t="n"/>
-      <c r="I308" s="6" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="6" t="n"/>
@@ -12388,7 +12055,6 @@
       <c r="F309" s="6" t="n"/>
       <c r="G309" s="6" t="n"/>
       <c r="H309" s="6" t="n"/>
-      <c r="I309" s="6" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="6" t="n"/>
@@ -12399,7 +12065,6 @@
       <c r="F310" s="6" t="n"/>
       <c r="G310" s="6" t="n"/>
       <c r="H310" s="6" t="n"/>
-      <c r="I310" s="6" t="n"/>
     </row>
     <row r="311">
       <c r="A311" s="6" t="n"/>
@@ -12410,7 +12075,6 @@
       <c r="F311" s="6" t="n"/>
       <c r="G311" s="6" t="n"/>
       <c r="H311" s="6" t="n"/>
-      <c r="I311" s="6" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="6" t="n"/>
@@ -12421,7 +12085,6 @@
       <c r="F312" s="6" t="n"/>
       <c r="G312" s="6" t="n"/>
       <c r="H312" s="6" t="n"/>
-      <c r="I312" s="6" t="n"/>
     </row>
     <row r="313">
       <c r="A313" s="6" t="n"/>
@@ -12432,7 +12095,6 @@
       <c r="F313" s="6" t="n"/>
       <c r="G313" s="6" t="n"/>
       <c r="H313" s="6" t="n"/>
-      <c r="I313" s="6" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="6" t="n"/>
@@ -12443,7 +12105,6 @@
       <c r="F314" s="6" t="n"/>
       <c r="G314" s="6" t="n"/>
       <c r="H314" s="6" t="n"/>
-      <c r="I314" s="6" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="6" t="n"/>
@@ -12454,7 +12115,6 @@
       <c r="F315" s="6" t="n"/>
       <c r="G315" s="6" t="n"/>
       <c r="H315" s="6" t="n"/>
-      <c r="I315" s="6" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="6" t="n"/>
@@ -12465,7 +12125,6 @@
       <c r="F316" s="6" t="n"/>
       <c r="G316" s="6" t="n"/>
       <c r="H316" s="6" t="n"/>
-      <c r="I316" s="6" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="6" t="n"/>
@@ -12476,7 +12135,6 @@
       <c r="F317" s="6" t="n"/>
       <c r="G317" s="6" t="n"/>
       <c r="H317" s="6" t="n"/>
-      <c r="I317" s="6" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="6" t="n"/>
@@ -12487,7 +12145,6 @@
       <c r="F318" s="6" t="n"/>
       <c r="G318" s="6" t="n"/>
       <c r="H318" s="6" t="n"/>
-      <c r="I318" s="6" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="6" t="n"/>
@@ -12498,7 +12155,6 @@
       <c r="F319" s="6" t="n"/>
       <c r="G319" s="6" t="n"/>
       <c r="H319" s="6" t="n"/>
-      <c r="I319" s="6" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="6" t="n"/>
@@ -12509,7 +12165,6 @@
       <c r="F320" s="6" t="n"/>
       <c r="G320" s="6" t="n"/>
       <c r="H320" s="6" t="n"/>
-      <c r="I320" s="6" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="6" t="n"/>
@@ -12520,7 +12175,6 @@
       <c r="F321" s="6" t="n"/>
       <c r="G321" s="6" t="n"/>
       <c r="H321" s="6" t="n"/>
-      <c r="I321" s="6" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="6" t="n"/>
@@ -12531,7 +12185,6 @@
       <c r="F322" s="6" t="n"/>
       <c r="G322" s="6" t="n"/>
       <c r="H322" s="6" t="n"/>
-      <c r="I322" s="6" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="6" t="n"/>
@@ -12542,7 +12195,6 @@
       <c r="F323" s="6" t="n"/>
       <c r="G323" s="6" t="n"/>
       <c r="H323" s="6" t="n"/>
-      <c r="I323" s="6" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="6" t="n"/>
@@ -12553,7 +12205,6 @@
       <c r="F324" s="6" t="n"/>
       <c r="G324" s="6" t="n"/>
       <c r="H324" s="6" t="n"/>
-      <c r="I324" s="6" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="6" t="n"/>
@@ -12564,7 +12215,6 @@
       <c r="F325" s="6" t="n"/>
       <c r="G325" s="6" t="n"/>
       <c r="H325" s="6" t="n"/>
-      <c r="I325" s="6" t="n"/>
     </row>
     <row r="326">
       <c r="A326" s="6" t="n"/>
@@ -12575,7 +12225,6 @@
       <c r="F326" s="6" t="n"/>
       <c r="G326" s="6" t="n"/>
       <c r="H326" s="6" t="n"/>
-      <c r="I326" s="6" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="6" t="n"/>
@@ -12586,7 +12235,6 @@
       <c r="F327" s="6" t="n"/>
       <c r="G327" s="6" t="n"/>
       <c r="H327" s="6" t="n"/>
-      <c r="I327" s="6" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="6" t="n"/>
@@ -12597,7 +12245,6 @@
       <c r="F328" s="6" t="n"/>
       <c r="G328" s="6" t="n"/>
       <c r="H328" s="6" t="n"/>
-      <c r="I328" s="6" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="6" t="n"/>
@@ -12608,7 +12255,6 @@
       <c r="F329" s="6" t="n"/>
       <c r="G329" s="6" t="n"/>
       <c r="H329" s="6" t="n"/>
-      <c r="I329" s="6" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="6" t="n"/>
@@ -12619,7 +12265,6 @@
       <c r="F330" s="6" t="n"/>
       <c r="G330" s="6" t="n"/>
       <c r="H330" s="6" t="n"/>
-      <c r="I330" s="6" t="n"/>
     </row>
     <row r="331">
       <c r="A331" s="6" t="n"/>
@@ -12630,7 +12275,6 @@
       <c r="F331" s="6" t="n"/>
       <c r="G331" s="6" t="n"/>
       <c r="H331" s="6" t="n"/>
-      <c r="I331" s="6" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="6" t="n"/>
@@ -12641,7 +12285,6 @@
       <c r="F332" s="6" t="n"/>
       <c r="G332" s="6" t="n"/>
       <c r="H332" s="6" t="n"/>
-      <c r="I332" s="6" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="6" t="n"/>
@@ -12652,7 +12295,6 @@
       <c r="F333" s="6" t="n"/>
       <c r="G333" s="6" t="n"/>
       <c r="H333" s="6" t="n"/>
-      <c r="I333" s="6" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="6" t="n"/>
@@ -12663,7 +12305,6 @@
       <c r="F334" s="6" t="n"/>
       <c r="G334" s="6" t="n"/>
       <c r="H334" s="6" t="n"/>
-      <c r="I334" s="6" t="n"/>
     </row>
     <row r="335">
       <c r="A335" s="6" t="n"/>
@@ -12674,7 +12315,6 @@
       <c r="F335" s="6" t="n"/>
       <c r="G335" s="6" t="n"/>
       <c r="H335" s="6" t="n"/>
-      <c r="I335" s="6" t="n"/>
     </row>
     <row r="336">
       <c r="A336" s="6" t="n"/>
@@ -12685,7 +12325,6 @@
       <c r="F336" s="6" t="n"/>
       <c r="G336" s="6" t="n"/>
       <c r="H336" s="6" t="n"/>
-      <c r="I336" s="6" t="n"/>
     </row>
     <row r="337">
       <c r="A337" s="6" t="n"/>
@@ -12696,7 +12335,6 @@
       <c r="F337" s="6" t="n"/>
       <c r="G337" s="6" t="n"/>
       <c r="H337" s="6" t="n"/>
-      <c r="I337" s="6" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="6" t="n"/>
@@ -12707,7 +12345,6 @@
       <c r="F338" s="6" t="n"/>
       <c r="G338" s="6" t="n"/>
       <c r="H338" s="6" t="n"/>
-      <c r="I338" s="6" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="6" t="n"/>
@@ -12718,7 +12355,6 @@
       <c r="F339" s="6" t="n"/>
       <c r="G339" s="6" t="n"/>
       <c r="H339" s="6" t="n"/>
-      <c r="I339" s="6" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="6" t="n"/>
@@ -12729,7 +12365,6 @@
       <c r="F340" s="6" t="n"/>
       <c r="G340" s="6" t="n"/>
       <c r="H340" s="6" t="n"/>
-      <c r="I340" s="6" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="6" t="n"/>
@@ -12740,7 +12375,6 @@
       <c r="F341" s="6" t="n"/>
       <c r="G341" s="6" t="n"/>
       <c r="H341" s="6" t="n"/>
-      <c r="I341" s="6" t="n"/>
     </row>
     <row r="342">
       <c r="A342" s="6" t="n"/>
@@ -12751,7 +12385,6 @@
       <c r="F342" s="6" t="n"/>
       <c r="G342" s="6" t="n"/>
       <c r="H342" s="6" t="n"/>
-      <c r="I342" s="6" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="6" t="n"/>
@@ -12762,7 +12395,6 @@
       <c r="F343" s="6" t="n"/>
       <c r="G343" s="6" t="n"/>
       <c r="H343" s="6" t="n"/>
-      <c r="I343" s="6" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="6" t="n"/>
@@ -12773,7 +12405,6 @@
       <c r="F344" s="6" t="n"/>
       <c r="G344" s="6" t="n"/>
       <c r="H344" s="6" t="n"/>
-      <c r="I344" s="6" t="n"/>
     </row>
     <row r="345">
       <c r="A345" s="6" t="n"/>
@@ -12784,7 +12415,6 @@
       <c r="F345" s="6" t="n"/>
       <c r="G345" s="6" t="n"/>
       <c r="H345" s="6" t="n"/>
-      <c r="I345" s="6" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="6" t="n"/>
@@ -12795,7 +12425,6 @@
       <c r="F346" s="6" t="n"/>
       <c r="G346" s="6" t="n"/>
       <c r="H346" s="6" t="n"/>
-      <c r="I346" s="6" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="6" t="n"/>
@@ -12806,7 +12435,6 @@
       <c r="F347" s="6" t="n"/>
       <c r="G347" s="6" t="n"/>
       <c r="H347" s="6" t="n"/>
-      <c r="I347" s="6" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="6" t="n"/>
@@ -12817,7 +12445,6 @@
       <c r="F348" s="6" t="n"/>
       <c r="G348" s="6" t="n"/>
       <c r="H348" s="6" t="n"/>
-      <c r="I348" s="6" t="n"/>
     </row>
     <row r="349">
       <c r="A349" s="6" t="n"/>
@@ -12828,7 +12455,6 @@
       <c r="F349" s="6" t="n"/>
       <c r="G349" s="6" t="n"/>
       <c r="H349" s="6" t="n"/>
-      <c r="I349" s="6" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="6" t="n"/>
@@ -12839,7 +12465,6 @@
       <c r="F350" s="6" t="n"/>
       <c r="G350" s="6" t="n"/>
       <c r="H350" s="6" t="n"/>
-      <c r="I350" s="6" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="6" t="n"/>
@@ -12850,7 +12475,6 @@
       <c r="F351" s="6" t="n"/>
       <c r="G351" s="6" t="n"/>
       <c r="H351" s="6" t="n"/>
-      <c r="I351" s="6" t="n"/>
     </row>
     <row r="352">
       <c r="A352" s="6" t="n"/>
@@ -12861,7 +12485,6 @@
       <c r="F352" s="6" t="n"/>
       <c r="G352" s="6" t="n"/>
       <c r="H352" s="6" t="n"/>
-      <c r="I352" s="6" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="6" t="n"/>
@@ -12872,7 +12495,6 @@
       <c r="F353" s="6" t="n"/>
       <c r="G353" s="6" t="n"/>
       <c r="H353" s="6" t="n"/>
-      <c r="I353" s="6" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="6" t="n"/>
@@ -12883,7 +12505,6 @@
       <c r="F354" s="6" t="n"/>
       <c r="G354" s="6" t="n"/>
       <c r="H354" s="6" t="n"/>
-      <c r="I354" s="6" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="6" t="n"/>
@@ -12894,7 +12515,6 @@
       <c r="F355" s="6" t="n"/>
       <c r="G355" s="6" t="n"/>
       <c r="H355" s="6" t="n"/>
-      <c r="I355" s="6" t="n"/>
     </row>
     <row r="356">
       <c r="A356" s="6" t="n"/>
@@ -12905,7 +12525,6 @@
       <c r="F356" s="6" t="n"/>
       <c r="G356" s="6" t="n"/>
       <c r="H356" s="6" t="n"/>
-      <c r="I356" s="6" t="n"/>
     </row>
     <row r="357">
       <c r="A357" s="6" t="n"/>
@@ -12916,7 +12535,6 @@
       <c r="F357" s="6" t="n"/>
       <c r="G357" s="6" t="n"/>
       <c r="H357" s="6" t="n"/>
-      <c r="I357" s="6" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="6" t="n"/>
@@ -12927,7 +12545,6 @@
       <c r="F358" s="6" t="n"/>
       <c r="G358" s="6" t="n"/>
       <c r="H358" s="6" t="n"/>
-      <c r="I358" s="6" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="6" t="n"/>
@@ -12938,7 +12555,6 @@
       <c r="F359" s="6" t="n"/>
       <c r="G359" s="6" t="n"/>
       <c r="H359" s="6" t="n"/>
-      <c r="I359" s="6" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="6" t="n"/>
@@ -12949,7 +12565,6 @@
       <c r="F360" s="6" t="n"/>
       <c r="G360" s="6" t="n"/>
       <c r="H360" s="6" t="n"/>
-      <c r="I360" s="6" t="n"/>
     </row>
     <row r="361">
       <c r="A361" s="6" t="n"/>
@@ -12960,7 +12575,6 @@
       <c r="F361" s="6" t="n"/>
       <c r="G361" s="6" t="n"/>
       <c r="H361" s="6" t="n"/>
-      <c r="I361" s="6" t="n"/>
     </row>
     <row r="362">
       <c r="A362" s="6" t="n"/>
@@ -12971,7 +12585,6 @@
       <c r="F362" s="6" t="n"/>
       <c r="G362" s="6" t="n"/>
       <c r="H362" s="6" t="n"/>
-      <c r="I362" s="6" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="6" t="n"/>
@@ -12982,7 +12595,6 @@
       <c r="F363" s="6" t="n"/>
       <c r="G363" s="6" t="n"/>
       <c r="H363" s="6" t="n"/>
-      <c r="I363" s="6" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="6" t="n"/>
@@ -12993,7 +12605,6 @@
       <c r="F364" s="6" t="n"/>
       <c r="G364" s="6" t="n"/>
       <c r="H364" s="6" t="n"/>
-      <c r="I364" s="6" t="n"/>
     </row>
     <row r="365">
       <c r="A365" s="6" t="n"/>
@@ -13004,7 +12615,6 @@
       <c r="F365" s="6" t="n"/>
       <c r="G365" s="6" t="n"/>
       <c r="H365" s="6" t="n"/>
-      <c r="I365" s="6" t="n"/>
     </row>
     <row r="366">
       <c r="A366" s="6" t="n"/>
@@ -13015,7 +12625,6 @@
       <c r="F366" s="6" t="n"/>
       <c r="G366" s="6" t="n"/>
       <c r="H366" s="6" t="n"/>
-      <c r="I366" s="6" t="n"/>
     </row>
     <row r="367">
       <c r="A367" s="6" t="n"/>
@@ -13026,7 +12635,6 @@
       <c r="F367" s="6" t="n"/>
       <c r="G367" s="6" t="n"/>
       <c r="H367" s="6" t="n"/>
-      <c r="I367" s="6" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="6" t="n"/>
@@ -13037,7 +12645,6 @@
       <c r="F368" s="6" t="n"/>
       <c r="G368" s="6" t="n"/>
       <c r="H368" s="6" t="n"/>
-      <c r="I368" s="6" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="6" t="n"/>
@@ -13048,7 +12655,6 @@
       <c r="F369" s="6" t="n"/>
       <c r="G369" s="6" t="n"/>
       <c r="H369" s="6" t="n"/>
-      <c r="I369" s="6" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="6" t="n"/>
@@ -13059,7 +12665,6 @@
       <c r="F370" s="6" t="n"/>
       <c r="G370" s="6" t="n"/>
       <c r="H370" s="6" t="n"/>
-      <c r="I370" s="6" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="6" t="n"/>
@@ -13070,7 +12675,6 @@
       <c r="F371" s="6" t="n"/>
       <c r="G371" s="6" t="n"/>
       <c r="H371" s="6" t="n"/>
-      <c r="I371" s="6" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="6" t="n"/>
@@ -13081,7 +12685,6 @@
       <c r="F372" s="6" t="n"/>
       <c r="G372" s="6" t="n"/>
       <c r="H372" s="6" t="n"/>
-      <c r="I372" s="6" t="n"/>
     </row>
     <row r="373">
       <c r="A373" s="6" t="n"/>
@@ -13092,7 +12695,6 @@
       <c r="F373" s="6" t="n"/>
       <c r="G373" s="6" t="n"/>
       <c r="H373" s="6" t="n"/>
-      <c r="I373" s="6" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="6" t="n"/>
@@ -13103,7 +12705,6 @@
       <c r="F374" s="6" t="n"/>
       <c r="G374" s="6" t="n"/>
       <c r="H374" s="6" t="n"/>
-      <c r="I374" s="6" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="6" t="n"/>
@@ -13114,7 +12715,6 @@
       <c r="F375" s="6" t="n"/>
       <c r="G375" s="6" t="n"/>
       <c r="H375" s="6" t="n"/>
-      <c r="I375" s="6" t="n"/>
     </row>
     <row r="376">
       <c r="A376" s="6" t="n"/>
@@ -13125,7 +12725,6 @@
       <c r="F376" s="6" t="n"/>
       <c r="G376" s="6" t="n"/>
       <c r="H376" s="6" t="n"/>
-      <c r="I376" s="6" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="6" t="n"/>
@@ -13136,7 +12735,6 @@
       <c r="F377" s="6" t="n"/>
       <c r="G377" s="6" t="n"/>
       <c r="H377" s="6" t="n"/>
-      <c r="I377" s="6" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="6" t="n"/>
@@ -13147,7 +12745,6 @@
       <c r="F378" s="6" t="n"/>
       <c r="G378" s="6" t="n"/>
       <c r="H378" s="6" t="n"/>
-      <c r="I378" s="6" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="6" t="n"/>
@@ -13158,7 +12755,6 @@
       <c r="F379" s="6" t="n"/>
       <c r="G379" s="6" t="n"/>
       <c r="H379" s="6" t="n"/>
-      <c r="I379" s="6" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="6" t="n"/>
@@ -13169,7 +12765,6 @@
       <c r="F380" s="6" t="n"/>
       <c r="G380" s="6" t="n"/>
       <c r="H380" s="6" t="n"/>
-      <c r="I380" s="6" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="6" t="n"/>
@@ -13180,7 +12775,6 @@
       <c r="F381" s="6" t="n"/>
       <c r="G381" s="6" t="n"/>
       <c r="H381" s="6" t="n"/>
-      <c r="I381" s="6" t="n"/>
     </row>
     <row r="382">
       <c r="A382" s="6" t="n"/>
@@ -13191,7 +12785,6 @@
       <c r="F382" s="6" t="n"/>
       <c r="G382" s="6" t="n"/>
       <c r="H382" s="6" t="n"/>
-      <c r="I382" s="6" t="n"/>
     </row>
     <row r="383">
       <c r="A383" s="6" t="n"/>
@@ -13202,7 +12795,6 @@
       <c r="F383" s="6" t="n"/>
       <c r="G383" s="6" t="n"/>
       <c r="H383" s="6" t="n"/>
-      <c r="I383" s="6" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="6" t="n"/>
@@ -13213,7 +12805,6 @@
       <c r="F384" s="6" t="n"/>
       <c r="G384" s="6" t="n"/>
       <c r="H384" s="6" t="n"/>
-      <c r="I384" s="6" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="6" t="n"/>
@@ -13224,7 +12815,6 @@
       <c r="F385" s="6" t="n"/>
       <c r="G385" s="6" t="n"/>
       <c r="H385" s="6" t="n"/>
-      <c r="I385" s="6" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="6" t="n"/>
@@ -13235,7 +12825,6 @@
       <c r="F386" s="6" t="n"/>
       <c r="G386" s="6" t="n"/>
       <c r="H386" s="6" t="n"/>
-      <c r="I386" s="6" t="n"/>
     </row>
     <row r="387">
       <c r="A387" s="6" t="n"/>
@@ -13246,7 +12835,6 @@
       <c r="F387" s="6" t="n"/>
       <c r="G387" s="6" t="n"/>
       <c r="H387" s="6" t="n"/>
-      <c r="I387" s="6" t="n"/>
     </row>
     <row r="388">
       <c r="A388" s="6" t="n"/>
@@ -13257,7 +12845,6 @@
       <c r="F388" s="6" t="n"/>
       <c r="G388" s="6" t="n"/>
       <c r="H388" s="6" t="n"/>
-      <c r="I388" s="6" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="6" t="n"/>
@@ -13268,7 +12855,6 @@
       <c r="F389" s="6" t="n"/>
       <c r="G389" s="6" t="n"/>
       <c r="H389" s="6" t="n"/>
-      <c r="I389" s="6" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="6" t="n"/>
@@ -13279,7 +12865,6 @@
       <c r="F390" s="6" t="n"/>
       <c r="G390" s="6" t="n"/>
       <c r="H390" s="6" t="n"/>
-      <c r="I390" s="6" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="6" t="n"/>
@@ -13290,7 +12875,6 @@
       <c r="F391" s="6" t="n"/>
       <c r="G391" s="6" t="n"/>
       <c r="H391" s="6" t="n"/>
-      <c r="I391" s="6" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="6" t="n"/>
@@ -13301,7 +12885,6 @@
       <c r="F392" s="6" t="n"/>
       <c r="G392" s="6" t="n"/>
       <c r="H392" s="6" t="n"/>
-      <c r="I392" s="6" t="n"/>
     </row>
     <row r="393">
       <c r="A393" s="6" t="n"/>
@@ -13312,7 +12895,6 @@
       <c r="F393" s="6" t="n"/>
       <c r="G393" s="6" t="n"/>
       <c r="H393" s="6" t="n"/>
-      <c r="I393" s="6" t="n"/>
     </row>
     <row r="394">
       <c r="A394" s="6" t="n"/>
@@ -13323,7 +12905,6 @@
       <c r="F394" s="6" t="n"/>
       <c r="G394" s="6" t="n"/>
       <c r="H394" s="6" t="n"/>
-      <c r="I394" s="6" t="n"/>
     </row>
     <row r="395">
       <c r="A395" s="6" t="n"/>
@@ -13334,7 +12915,6 @@
       <c r="F395" s="6" t="n"/>
       <c r="G395" s="6" t="n"/>
       <c r="H395" s="6" t="n"/>
-      <c r="I395" s="6" t="n"/>
     </row>
     <row r="396">
       <c r="A396" s="6" t="n"/>
@@ -13345,7 +12925,6 @@
       <c r="F396" s="6" t="n"/>
       <c r="G396" s="6" t="n"/>
       <c r="H396" s="6" t="n"/>
-      <c r="I396" s="6" t="n"/>
     </row>
     <row r="397">
       <c r="A397" s="6" t="n"/>
@@ -13356,7 +12935,6 @@
       <c r="F397" s="6" t="n"/>
       <c r="G397" s="6" t="n"/>
       <c r="H397" s="6" t="n"/>
-      <c r="I397" s="6" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="6" t="n"/>
@@ -13367,7 +12945,6 @@
       <c r="F398" s="6" t="n"/>
       <c r="G398" s="6" t="n"/>
       <c r="H398" s="6" t="n"/>
-      <c r="I398" s="6" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="6" t="n"/>
@@ -13378,7 +12955,6 @@
       <c r="F399" s="6" t="n"/>
       <c r="G399" s="6" t="n"/>
       <c r="H399" s="6" t="n"/>
-      <c r="I399" s="6" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="6" t="n"/>
@@ -13389,7 +12965,6 @@
       <c r="F400" s="6" t="n"/>
       <c r="G400" s="6" t="n"/>
       <c r="H400" s="6" t="n"/>
-      <c r="I400" s="6" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="6" t="n"/>
@@ -13400,7 +12975,6 @@
       <c r="F401" s="6" t="n"/>
       <c r="G401" s="6" t="n"/>
       <c r="H401" s="6" t="n"/>
-      <c r="I401" s="6" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="6" t="n"/>
@@ -13411,7 +12985,6 @@
       <c r="F402" s="6" t="n"/>
       <c r="G402" s="6" t="n"/>
       <c r="H402" s="6" t="n"/>
-      <c r="I402" s="6" t="n"/>
     </row>
     <row r="403">
       <c r="A403" s="6" t="n"/>
@@ -13422,7 +12995,6 @@
       <c r="F403" s="6" t="n"/>
       <c r="G403" s="6" t="n"/>
       <c r="H403" s="6" t="n"/>
-      <c r="I403" s="6" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="6" t="n"/>
@@ -13433,7 +13005,6 @@
       <c r="F404" s="6" t="n"/>
       <c r="G404" s="6" t="n"/>
       <c r="H404" s="6" t="n"/>
-      <c r="I404" s="6" t="n"/>
     </row>
     <row r="405">
       <c r="A405" s="6" t="n"/>
@@ -13444,7 +13015,6 @@
       <c r="F405" s="6" t="n"/>
       <c r="G405" s="6" t="n"/>
       <c r="H405" s="6" t="n"/>
-      <c r="I405" s="6" t="n"/>
     </row>
     <row r="406">
       <c r="A406" s="6" t="n"/>
@@ -13455,7 +13025,6 @@
       <c r="F406" s="6" t="n"/>
       <c r="G406" s="6" t="n"/>
       <c r="H406" s="6" t="n"/>
-      <c r="I406" s="6" t="n"/>
     </row>
     <row r="407">
       <c r="A407" s="6" t="n"/>
@@ -13466,7 +13035,6 @@
       <c r="F407" s="6" t="n"/>
       <c r="G407" s="6" t="n"/>
       <c r="H407" s="6" t="n"/>
-      <c r="I407" s="6" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="6" t="n"/>
@@ -13477,7 +13045,6 @@
       <c r="F408" s="6" t="n"/>
       <c r="G408" s="6" t="n"/>
       <c r="H408" s="6" t="n"/>
-      <c r="I408" s="6" t="n"/>
     </row>
     <row r="409">
       <c r="A409" s="6" t="n"/>
@@ -13488,7 +13055,6 @@
       <c r="F409" s="6" t="n"/>
       <c r="G409" s="6" t="n"/>
       <c r="H409" s="6" t="n"/>
-      <c r="I409" s="6" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="6" t="n"/>
@@ -13499,7 +13065,6 @@
       <c r="F410" s="6" t="n"/>
       <c r="G410" s="6" t="n"/>
       <c r="H410" s="6" t="n"/>
-      <c r="I410" s="6" t="n"/>
     </row>
     <row r="411">
       <c r="A411" s="6" t="n"/>
@@ -13510,7 +13075,6 @@
       <c r="F411" s="6" t="n"/>
       <c r="G411" s="6" t="n"/>
       <c r="H411" s="6" t="n"/>
-      <c r="I411" s="6" t="n"/>
     </row>
     <row r="412">
       <c r="A412" s="6" t="n"/>
@@ -13521,7 +13085,6 @@
       <c r="F412" s="6" t="n"/>
       <c r="G412" s="6" t="n"/>
       <c r="H412" s="6" t="n"/>
-      <c r="I412" s="6" t="n"/>
     </row>
     <row r="413">
       <c r="A413" s="6" t="n"/>
@@ -13532,7 +13095,6 @@
       <c r="F413" s="6" t="n"/>
       <c r="G413" s="6" t="n"/>
       <c r="H413" s="6" t="n"/>
-      <c r="I413" s="6" t="n"/>
     </row>
     <row r="414">
       <c r="A414" s="6" t="n"/>
@@ -13543,7 +13105,6 @@
       <c r="F414" s="6" t="n"/>
       <c r="G414" s="6" t="n"/>
       <c r="H414" s="6" t="n"/>
-      <c r="I414" s="6" t="n"/>
     </row>
     <row r="415">
       <c r="A415" s="6" t="n"/>
@@ -13554,7 +13115,6 @@
       <c r="F415" s="6" t="n"/>
       <c r="G415" s="6" t="n"/>
       <c r="H415" s="6" t="n"/>
-      <c r="I415" s="6" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="6" t="n"/>
@@ -13565,7 +13125,6 @@
       <c r="F416" s="6" t="n"/>
       <c r="G416" s="6" t="n"/>
       <c r="H416" s="6" t="n"/>
-      <c r="I416" s="6" t="n"/>
     </row>
     <row r="417">
       <c r="A417" s="6" t="n"/>
@@ -13576,7 +13135,6 @@
       <c r="F417" s="6" t="n"/>
       <c r="G417" s="6" t="n"/>
       <c r="H417" s="6" t="n"/>
-      <c r="I417" s="6" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="6" t="n"/>
@@ -13587,7 +13145,6 @@
       <c r="F418" s="6" t="n"/>
       <c r="G418" s="6" t="n"/>
       <c r="H418" s="6" t="n"/>
-      <c r="I418" s="6" t="n"/>
     </row>
     <row r="419">
       <c r="A419" s="6" t="n"/>
@@ -13598,7 +13155,6 @@
       <c r="F419" s="6" t="n"/>
       <c r="G419" s="6" t="n"/>
       <c r="H419" s="6" t="n"/>
-      <c r="I419" s="6" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="6" t="n"/>
@@ -13609,7 +13165,6 @@
       <c r="F420" s="6" t="n"/>
       <c r="G420" s="6" t="n"/>
       <c r="H420" s="6" t="n"/>
-      <c r="I420" s="6" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="6" t="n"/>
@@ -13620,7 +13175,6 @@
       <c r="F421" s="6" t="n"/>
       <c r="G421" s="6" t="n"/>
       <c r="H421" s="6" t="n"/>
-      <c r="I421" s="6" t="n"/>
     </row>
     <row r="422">
       <c r="A422" s="6" t="n"/>
@@ -13631,7 +13185,6 @@
       <c r="F422" s="6" t="n"/>
       <c r="G422" s="6" t="n"/>
       <c r="H422" s="6" t="n"/>
-      <c r="I422" s="6" t="n"/>
     </row>
     <row r="423">
       <c r="A423" s="6" t="n"/>
@@ -13642,7 +13195,6 @@
       <c r="F423" s="6" t="n"/>
       <c r="G423" s="6" t="n"/>
       <c r="H423" s="6" t="n"/>
-      <c r="I423" s="6" t="n"/>
     </row>
     <row r="424">
       <c r="A424" s="6" t="n"/>
@@ -13653,7 +13205,6 @@
       <c r="F424" s="6" t="n"/>
       <c r="G424" s="6" t="n"/>
       <c r="H424" s="6" t="n"/>
-      <c r="I424" s="6" t="n"/>
     </row>
     <row r="425">
       <c r="A425" s="6" t="n"/>
@@ -13664,7 +13215,6 @@
       <c r="F425" s="6" t="n"/>
       <c r="G425" s="6" t="n"/>
       <c r="H425" s="6" t="n"/>
-      <c r="I425" s="6" t="n"/>
     </row>
     <row r="426">
       <c r="A426" s="6" t="n"/>
@@ -13675,7 +13225,6 @@
       <c r="F426" s="6" t="n"/>
       <c r="G426" s="6" t="n"/>
       <c r="H426" s="6" t="n"/>
-      <c r="I426" s="6" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="6" t="n"/>
@@ -13686,7 +13235,6 @@
       <c r="F427" s="6" t="n"/>
       <c r="G427" s="6" t="n"/>
       <c r="H427" s="6" t="n"/>
-      <c r="I427" s="6" t="n"/>
     </row>
     <row r="428">
       <c r="A428" s="6" t="n"/>
@@ -13697,7 +13245,6 @@
       <c r="F428" s="6" t="n"/>
       <c r="G428" s="6" t="n"/>
       <c r="H428" s="6" t="n"/>
-      <c r="I428" s="6" t="n"/>
     </row>
     <row r="429">
       <c r="A429" s="6" t="n"/>
@@ -13708,7 +13255,6 @@
       <c r="F429" s="6" t="n"/>
       <c r="G429" s="6" t="n"/>
       <c r="H429" s="6" t="n"/>
-      <c r="I429" s="6" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="6" t="n"/>
@@ -13719,7 +13265,6 @@
       <c r="F430" s="6" t="n"/>
       <c r="G430" s="6" t="n"/>
       <c r="H430" s="6" t="n"/>
-      <c r="I430" s="6" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="6" t="n"/>
@@ -13730,7 +13275,6 @@
       <c r="F431" s="6" t="n"/>
       <c r="G431" s="6" t="n"/>
       <c r="H431" s="6" t="n"/>
-      <c r="I431" s="6" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="6" t="n"/>
@@ -13741,7 +13285,6 @@
       <c r="F432" s="6" t="n"/>
       <c r="G432" s="6" t="n"/>
       <c r="H432" s="6" t="n"/>
-      <c r="I432" s="6" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="6" t="n"/>
@@ -13752,7 +13295,6 @@
       <c r="F433" s="6" t="n"/>
       <c r="G433" s="6" t="n"/>
       <c r="H433" s="6" t="n"/>
-      <c r="I433" s="6" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="6" t="n"/>
@@ -13763,7 +13305,6 @@
       <c r="F434" s="6" t="n"/>
       <c r="G434" s="6" t="n"/>
       <c r="H434" s="6" t="n"/>
-      <c r="I434" s="6" t="n"/>
     </row>
     <row r="435">
       <c r="A435" s="6" t="n"/>
@@ -13774,7 +13315,6 @@
       <c r="F435" s="6" t="n"/>
       <c r="G435" s="6" t="n"/>
       <c r="H435" s="6" t="n"/>
-      <c r="I435" s="6" t="n"/>
     </row>
     <row r="436">
       <c r="A436" s="6" t="n"/>
@@ -13785,7 +13325,6 @@
       <c r="F436" s="6" t="n"/>
       <c r="G436" s="6" t="n"/>
       <c r="H436" s="6" t="n"/>
-      <c r="I436" s="6" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="6" t="n"/>
@@ -13796,7 +13335,6 @@
       <c r="F437" s="6" t="n"/>
       <c r="G437" s="6" t="n"/>
       <c r="H437" s="6" t="n"/>
-      <c r="I437" s="6" t="n"/>
     </row>
     <row r="438">
       <c r="A438" s="6" t="n"/>
@@ -13807,7 +13345,6 @@
       <c r="F438" s="6" t="n"/>
       <c r="G438" s="6" t="n"/>
       <c r="H438" s="6" t="n"/>
-      <c r="I438" s="6" t="n"/>
     </row>
     <row r="439">
       <c r="A439" s="6" t="n"/>
@@ -13818,7 +13355,6 @@
       <c r="F439" s="6" t="n"/>
       <c r="G439" s="6" t="n"/>
       <c r="H439" s="6" t="n"/>
-      <c r="I439" s="6" t="n"/>
     </row>
     <row r="440">
       <c r="A440" s="6" t="n"/>
@@ -13829,7 +13365,6 @@
       <c r="F440" s="6" t="n"/>
       <c r="G440" s="6" t="n"/>
       <c r="H440" s="6" t="n"/>
-      <c r="I440" s="6" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="6" t="n"/>
@@ -13840,7 +13375,6 @@
       <c r="F441" s="6" t="n"/>
       <c r="G441" s="6" t="n"/>
       <c r="H441" s="6" t="n"/>
-      <c r="I441" s="6" t="n"/>
     </row>
     <row r="442">
       <c r="A442" s="6" t="n"/>
@@ -13851,7 +13385,6 @@
       <c r="F442" s="6" t="n"/>
       <c r="G442" s="6" t="n"/>
       <c r="H442" s="6" t="n"/>
-      <c r="I442" s="6" t="n"/>
     </row>
     <row r="443">
       <c r="A443" s="6" t="n"/>
@@ -13862,7 +13395,6 @@
       <c r="F443" s="6" t="n"/>
       <c r="G443" s="6" t="n"/>
       <c r="H443" s="6" t="n"/>
-      <c r="I443" s="6" t="n"/>
     </row>
     <row r="444">
       <c r="A444" s="6" t="n"/>
@@ -13873,7 +13405,6 @@
       <c r="F444" s="6" t="n"/>
       <c r="G444" s="6" t="n"/>
       <c r="H444" s="6" t="n"/>
-      <c r="I444" s="6" t="n"/>
     </row>
     <row r="445">
       <c r="A445" s="6" t="n"/>
@@ -13884,7 +13415,6 @@
       <c r="F445" s="6" t="n"/>
       <c r="G445" s="6" t="n"/>
       <c r="H445" s="6" t="n"/>
-      <c r="I445" s="6" t="n"/>
     </row>
     <row r="446">
       <c r="A446" s="6" t="n"/>
@@ -13895,7 +13425,6 @@
       <c r="F446" s="6" t="n"/>
       <c r="G446" s="6" t="n"/>
       <c r="H446" s="6" t="n"/>
-      <c r="I446" s="6" t="n"/>
     </row>
     <row r="447">
       <c r="A447" s="6" t="n"/>
@@ -13906,7 +13435,6 @@
       <c r="F447" s="6" t="n"/>
       <c r="G447" s="6" t="n"/>
       <c r="H447" s="6" t="n"/>
-      <c r="I447" s="6" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="6" t="n"/>
@@ -13917,7 +13445,6 @@
       <c r="F448" s="6" t="n"/>
       <c r="G448" s="6" t="n"/>
       <c r="H448" s="6" t="n"/>
-      <c r="I448" s="6" t="n"/>
     </row>
     <row r="449">
       <c r="A449" s="6" t="n"/>
@@ -13928,7 +13455,6 @@
       <c r="F449" s="6" t="n"/>
       <c r="G449" s="6" t="n"/>
       <c r="H449" s="6" t="n"/>
-      <c r="I449" s="6" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="6" t="n"/>
@@ -13939,7 +13465,6 @@
       <c r="F450" s="6" t="n"/>
       <c r="G450" s="6" t="n"/>
       <c r="H450" s="6" t="n"/>
-      <c r="I450" s="6" t="n"/>
     </row>
     <row r="451">
       <c r="A451" s="6" t="n"/>
@@ -13950,7 +13475,6 @@
       <c r="F451" s="6" t="n"/>
       <c r="G451" s="6" t="n"/>
       <c r="H451" s="6" t="n"/>
-      <c r="I451" s="6" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="6" t="n"/>
@@ -13961,7 +13485,6 @@
       <c r="F452" s="6" t="n"/>
       <c r="G452" s="6" t="n"/>
       <c r="H452" s="6" t="n"/>
-      <c r="I452" s="6" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="6" t="n"/>
@@ -13972,7 +13495,6 @@
       <c r="F453" s="6" t="n"/>
       <c r="G453" s="6" t="n"/>
       <c r="H453" s="6" t="n"/>
-      <c r="I453" s="6" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="6" t="n"/>
@@ -13983,7 +13505,6 @@
       <c r="F454" s="6" t="n"/>
       <c r="G454" s="6" t="n"/>
       <c r="H454" s="6" t="n"/>
-      <c r="I454" s="6" t="n"/>
     </row>
     <row r="455">
       <c r="A455" s="6" t="n"/>
@@ -13994,7 +13515,6 @@
       <c r="F455" s="6" t="n"/>
       <c r="G455" s="6" t="n"/>
       <c r="H455" s="6" t="n"/>
-      <c r="I455" s="6" t="n"/>
     </row>
     <row r="456">
       <c r="A456" s="6" t="n"/>
@@ -14005,7 +13525,6 @@
       <c r="F456" s="6" t="n"/>
       <c r="G456" s="6" t="n"/>
       <c r="H456" s="6" t="n"/>
-      <c r="I456" s="6" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="6" t="n"/>
@@ -14016,7 +13535,6 @@
       <c r="F457" s="6" t="n"/>
       <c r="G457" s="6" t="n"/>
       <c r="H457" s="6" t="n"/>
-      <c r="I457" s="6" t="n"/>
     </row>
     <row r="458">
       <c r="A458" s="6" t="n"/>
@@ -14027,7 +13545,6 @@
       <c r="F458" s="6" t="n"/>
       <c r="G458" s="6" t="n"/>
       <c r="H458" s="6" t="n"/>
-      <c r="I458" s="6" t="n"/>
     </row>
     <row r="459">
       <c r="A459" s="6" t="n"/>
@@ -14038,7 +13555,6 @@
       <c r="F459" s="6" t="n"/>
       <c r="G459" s="6" t="n"/>
       <c r="H459" s="6" t="n"/>
-      <c r="I459" s="6" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="6" t="n"/>
@@ -14049,7 +13565,6 @@
       <c r="F460" s="6" t="n"/>
       <c r="G460" s="6" t="n"/>
       <c r="H460" s="6" t="n"/>
-      <c r="I460" s="6" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="6" t="n"/>
@@ -14060,7 +13575,6 @@
       <c r="F461" s="6" t="n"/>
       <c r="G461" s="6" t="n"/>
       <c r="H461" s="6" t="n"/>
-      <c r="I461" s="6" t="n"/>
     </row>
     <row r="462">
       <c r="A462" s="6" t="n"/>
@@ -14071,7 +13585,6 @@
       <c r="F462" s="6" t="n"/>
       <c r="G462" s="6" t="n"/>
       <c r="H462" s="6" t="n"/>
-      <c r="I462" s="6" t="n"/>
     </row>
     <row r="463">
       <c r="A463" s="6" t="n"/>
@@ -14082,7 +13595,6 @@
       <c r="F463" s="6" t="n"/>
       <c r="G463" s="6" t="n"/>
       <c r="H463" s="6" t="n"/>
-      <c r="I463" s="6" t="n"/>
     </row>
     <row r="464">
       <c r="A464" s="6" t="n"/>
@@ -14093,7 +13605,6 @@
       <c r="F464" s="6" t="n"/>
       <c r="G464" s="6" t="n"/>
       <c r="H464" s="6" t="n"/>
-      <c r="I464" s="6" t="n"/>
     </row>
     <row r="465">
       <c r="A465" s="6" t="n"/>
@@ -14104,7 +13615,6 @@
       <c r="F465" s="6" t="n"/>
       <c r="G465" s="6" t="n"/>
       <c r="H465" s="6" t="n"/>
-      <c r="I465" s="6" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="6" t="n"/>
@@ -14115,7 +13625,6 @@
       <c r="F466" s="6" t="n"/>
       <c r="G466" s="6" t="n"/>
       <c r="H466" s="6" t="n"/>
-      <c r="I466" s="6" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="6" t="n"/>
@@ -14126,7 +13635,6 @@
       <c r="F467" s="6" t="n"/>
       <c r="G467" s="6" t="n"/>
       <c r="H467" s="6" t="n"/>
-      <c r="I467" s="6" t="n"/>
     </row>
     <row r="468">
       <c r="A468" s="6" t="n"/>
@@ -14137,7 +13645,6 @@
       <c r="F468" s="6" t="n"/>
       <c r="G468" s="6" t="n"/>
       <c r="H468" s="6" t="n"/>
-      <c r="I468" s="6" t="n"/>
     </row>
     <row r="469">
       <c r="A469" s="6" t="n"/>
@@ -14148,7 +13655,6 @@
       <c r="F469" s="6" t="n"/>
       <c r="G469" s="6" t="n"/>
       <c r="H469" s="6" t="n"/>
-      <c r="I469" s="6" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="6" t="n"/>
@@ -14159,7 +13665,6 @@
       <c r="F470" s="6" t="n"/>
       <c r="G470" s="6" t="n"/>
       <c r="H470" s="6" t="n"/>
-      <c r="I470" s="6" t="n"/>
     </row>
     <row r="471">
       <c r="A471" s="6" t="n"/>
@@ -14170,7 +13675,6 @@
       <c r="F471" s="6" t="n"/>
       <c r="G471" s="6" t="n"/>
       <c r="H471" s="6" t="n"/>
-      <c r="I471" s="6" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="6" t="n"/>
@@ -14181,7 +13685,6 @@
       <c r="F472" s="6" t="n"/>
       <c r="G472" s="6" t="n"/>
       <c r="H472" s="6" t="n"/>
-      <c r="I472" s="6" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="6" t="n"/>
@@ -14192,7 +13695,6 @@
       <c r="F473" s="6" t="n"/>
       <c r="G473" s="6" t="n"/>
       <c r="H473" s="6" t="n"/>
-      <c r="I473" s="6" t="n"/>
     </row>
     <row r="474">
       <c r="A474" s="6" t="n"/>
@@ -14203,7 +13705,6 @@
       <c r="F474" s="6" t="n"/>
       <c r="G474" s="6" t="n"/>
       <c r="H474" s="6" t="n"/>
-      <c r="I474" s="6" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="6" t="n"/>
@@ -14214,7 +13715,6 @@
       <c r="F475" s="6" t="n"/>
       <c r="G475" s="6" t="n"/>
       <c r="H475" s="6" t="n"/>
-      <c r="I475" s="6" t="n"/>
     </row>
     <row r="476">
       <c r="A476" s="6" t="n"/>
@@ -14225,7 +13725,6 @@
       <c r="F476" s="6" t="n"/>
       <c r="G476" s="6" t="n"/>
       <c r="H476" s="6" t="n"/>
-      <c r="I476" s="6" t="n"/>
     </row>
     <row r="477">
       <c r="A477" s="6" t="n"/>
@@ -14236,7 +13735,6 @@
       <c r="F477" s="6" t="n"/>
       <c r="G477" s="6" t="n"/>
       <c r="H477" s="6" t="n"/>
-      <c r="I477" s="6" t="n"/>
     </row>
     <row r="478">
       <c r="A478" s="6" t="n"/>
@@ -14247,7 +13745,6 @@
       <c r="F478" s="6" t="n"/>
       <c r="G478" s="6" t="n"/>
       <c r="H478" s="6" t="n"/>
-      <c r="I478" s="6" t="n"/>
     </row>
     <row r="479">
       <c r="A479" s="6" t="n"/>
@@ -14258,7 +13755,6 @@
       <c r="F479" s="6" t="n"/>
       <c r="G479" s="6" t="n"/>
       <c r="H479" s="6" t="n"/>
-      <c r="I479" s="6" t="n"/>
     </row>
     <row r="480">
       <c r="A480" s="6" t="n"/>
@@ -14269,7 +13765,6 @@
       <c r="F480" s="6" t="n"/>
       <c r="G480" s="6" t="n"/>
       <c r="H480" s="6" t="n"/>
-      <c r="I480" s="6" t="n"/>
     </row>
     <row r="481">
       <c r="A481" s="6" t="n"/>
@@ -14280,7 +13775,6 @@
       <c r="F481" s="6" t="n"/>
       <c r="G481" s="6" t="n"/>
       <c r="H481" s="6" t="n"/>
-      <c r="I481" s="6" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="6" t="n"/>
@@ -14291,7 +13785,6 @@
       <c r="F482" s="6" t="n"/>
       <c r="G482" s="6" t="n"/>
       <c r="H482" s="6" t="n"/>
-      <c r="I482" s="6" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="6" t="n"/>
@@ -14302,7 +13795,6 @@
       <c r="F483" s="6" t="n"/>
       <c r="G483" s="6" t="n"/>
       <c r="H483" s="6" t="n"/>
-      <c r="I483" s="6" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="6" t="n"/>
@@ -14313,7 +13805,6 @@
       <c r="F484" s="6" t="n"/>
       <c r="G484" s="6" t="n"/>
       <c r="H484" s="6" t="n"/>
-      <c r="I484" s="6" t="n"/>
     </row>
     <row r="485">
       <c r="A485" s="6" t="n"/>
@@ -14324,7 +13815,6 @@
       <c r="F485" s="6" t="n"/>
       <c r="G485" s="6" t="n"/>
       <c r="H485" s="6" t="n"/>
-      <c r="I485" s="6" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="6" t="n"/>
@@ -14335,7 +13825,6 @@
       <c r="F486" s="6" t="n"/>
       <c r="G486" s="6" t="n"/>
       <c r="H486" s="6" t="n"/>
-      <c r="I486" s="6" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="6" t="n"/>
@@ -14346,7 +13835,6 @@
       <c r="F487" s="6" t="n"/>
       <c r="G487" s="6" t="n"/>
       <c r="H487" s="6" t="n"/>
-      <c r="I487" s="6" t="n"/>
     </row>
     <row r="488">
       <c r="A488" s="6" t="n"/>
@@ -14357,7 +13845,6 @@
       <c r="F488" s="6" t="n"/>
       <c r="G488" s="6" t="n"/>
       <c r="H488" s="6" t="n"/>
-      <c r="I488" s="6" t="n"/>
     </row>
     <row r="489">
       <c r="A489" s="6" t="n"/>
@@ -14368,7 +13855,6 @@
       <c r="F489" s="6" t="n"/>
       <c r="G489" s="6" t="n"/>
       <c r="H489" s="6" t="n"/>
-      <c r="I489" s="6" t="n"/>
     </row>
     <row r="490">
       <c r="A490" s="6" t="n"/>
@@ -14379,7 +13865,6 @@
       <c r="F490" s="6" t="n"/>
       <c r="G490" s="6" t="n"/>
       <c r="H490" s="6" t="n"/>
-      <c r="I490" s="6" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="6" t="n"/>
@@ -14390,7 +13875,6 @@
       <c r="F491" s="6" t="n"/>
       <c r="G491" s="6" t="n"/>
       <c r="H491" s="6" t="n"/>
-      <c r="I491" s="6" t="n"/>
     </row>
     <row r="492">
       <c r="A492" s="6" t="n"/>
@@ -14401,7 +13885,6 @@
       <c r="F492" s="6" t="n"/>
       <c r="G492" s="6" t="n"/>
       <c r="H492" s="6" t="n"/>
-      <c r="I492" s="6" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="6" t="n"/>
@@ -14412,7 +13895,6 @@
       <c r="F493" s="6" t="n"/>
       <c r="G493" s="6" t="n"/>
       <c r="H493" s="6" t="n"/>
-      <c r="I493" s="6" t="n"/>
     </row>
     <row r="494">
       <c r="A494" s="6" t="n"/>
@@ -14423,7 +13905,6 @@
       <c r="F494" s="6" t="n"/>
       <c r="G494" s="6" t="n"/>
       <c r="H494" s="6" t="n"/>
-      <c r="I494" s="6" t="n"/>
     </row>
     <row r="495">
       <c r="A495" s="6" t="n"/>
@@ -14434,7 +13915,6 @@
       <c r="F495" s="6" t="n"/>
       <c r="G495" s="6" t="n"/>
       <c r="H495" s="6" t="n"/>
-      <c r="I495" s="6" t="n"/>
     </row>
     <row r="496">
       <c r="A496" s="6" t="n"/>
@@ -14445,7 +13925,6 @@
       <c r="F496" s="6" t="n"/>
       <c r="G496" s="6" t="n"/>
       <c r="H496" s="6" t="n"/>
-      <c r="I496" s="6" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="6" t="n"/>
@@ -14456,7 +13935,6 @@
       <c r="F497" s="6" t="n"/>
       <c r="G497" s="6" t="n"/>
       <c r="H497" s="6" t="n"/>
-      <c r="I497" s="6" t="n"/>
     </row>
     <row r="498">
       <c r="A498" s="6" t="n"/>
@@ -14467,7 +13945,6 @@
       <c r="F498" s="6" t="n"/>
       <c r="G498" s="6" t="n"/>
       <c r="H498" s="6" t="n"/>
-      <c r="I498" s="6" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="6" t="n"/>
@@ -14478,7 +13955,6 @@
       <c r="F499" s="6" t="n"/>
       <c r="G499" s="6" t="n"/>
       <c r="H499" s="6" t="n"/>
-      <c r="I499" s="6" t="n"/>
     </row>
     <row r="500">
       <c r="A500" s="6" t="n"/>
@@ -14489,7 +13965,6 @@
       <c r="F500" s="6" t="n"/>
       <c r="G500" s="6" t="n"/>
       <c r="H500" s="6" t="n"/>
-      <c r="I500" s="6" t="n"/>
     </row>
     <row r="501">
       <c r="A501" s="6" t="n"/>
@@ -14500,7 +13975,6 @@
       <c r="F501" s="6" t="n"/>
       <c r="G501" s="6" t="n"/>
       <c r="H501" s="6" t="n"/>
-      <c r="I501" s="6" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="6" t="n"/>
@@ -14511,7 +13985,6 @@
       <c r="F502" s="6" t="n"/>
       <c r="G502" s="6" t="n"/>
       <c r="H502" s="6" t="n"/>
-      <c r="I502" s="6" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="6" t="n"/>
@@ -14522,7 +13995,6 @@
       <c r="F503" s="6" t="n"/>
       <c r="G503" s="6" t="n"/>
       <c r="H503" s="6" t="n"/>
-      <c r="I503" s="6" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="6" t="n"/>
@@ -14533,7 +14005,6 @@
       <c r="F504" s="6" t="n"/>
       <c r="G504" s="6" t="n"/>
       <c r="H504" s="6" t="n"/>
-      <c r="I504" s="6" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="6" t="n"/>
@@ -14544,7 +14015,6 @@
       <c r="F505" s="6" t="n"/>
       <c r="G505" s="6" t="n"/>
       <c r="H505" s="6" t="n"/>
-      <c r="I505" s="6" t="n"/>
     </row>
     <row r="506">
       <c r="A506" s="6" t="n"/>
@@ -14555,7 +14025,6 @@
       <c r="F506" s="6" t="n"/>
       <c r="G506" s="6" t="n"/>
       <c r="H506" s="6" t="n"/>
-      <c r="I506" s="6" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="6" t="n"/>
@@ -14566,7 +14035,6 @@
       <c r="F507" s="6" t="n"/>
       <c r="G507" s="6" t="n"/>
       <c r="H507" s="6" t="n"/>
-      <c r="I507" s="6" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="6" t="n"/>
@@ -14577,7 +14045,6 @@
       <c r="F508" s="6" t="n"/>
       <c r="G508" s="6" t="n"/>
       <c r="H508" s="6" t="n"/>
-      <c r="I508" s="6" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="6" t="n"/>
@@ -14588,7 +14055,6 @@
       <c r="F509" s="6" t="n"/>
       <c r="G509" s="6" t="n"/>
       <c r="H509" s="6" t="n"/>
-      <c r="I509" s="6" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="6" t="n"/>
@@ -14599,7 +14065,6 @@
       <c r="F510" s="6" t="n"/>
       <c r="G510" s="6" t="n"/>
       <c r="H510" s="6" t="n"/>
-      <c r="I510" s="6" t="n"/>
     </row>
     <row r="511">
       <c r="A511" s="6" t="n"/>
@@ -14610,7 +14075,6 @@
       <c r="F511" s="6" t="n"/>
       <c r="G511" s="6" t="n"/>
       <c r="H511" s="6" t="n"/>
-      <c r="I511" s="6" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="6" t="n"/>
@@ -14621,7 +14085,6 @@
       <c r="F512" s="6" t="n"/>
       <c r="G512" s="6" t="n"/>
       <c r="H512" s="6" t="n"/>
-      <c r="I512" s="6" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="6" t="n"/>
@@ -14632,7 +14095,6 @@
       <c r="F513" s="6" t="n"/>
       <c r="G513" s="6" t="n"/>
       <c r="H513" s="6" t="n"/>
-      <c r="I513" s="6" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="6" t="n"/>
@@ -14643,7 +14105,6 @@
       <c r="F514" s="6" t="n"/>
       <c r="G514" s="6" t="n"/>
       <c r="H514" s="6" t="n"/>
-      <c r="I514" s="6" t="n"/>
     </row>
     <row r="515">
       <c r="A515" s="6" t="n"/>
@@ -14654,7 +14115,6 @@
       <c r="F515" s="6" t="n"/>
       <c r="G515" s="6" t="n"/>
       <c r="H515" s="6" t="n"/>
-      <c r="I515" s="6" t="n"/>
     </row>
     <row r="516">
       <c r="A516" s="6" t="n"/>
@@ -14665,7 +14125,6 @@
       <c r="F516" s="6" t="n"/>
       <c r="G516" s="6" t="n"/>
       <c r="H516" s="6" t="n"/>
-      <c r="I516" s="6" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="6" t="n"/>
@@ -14676,7 +14135,6 @@
       <c r="F517" s="6" t="n"/>
       <c r="G517" s="6" t="n"/>
       <c r="H517" s="6" t="n"/>
-      <c r="I517" s="6" t="n"/>
     </row>
     <row r="518">
       <c r="A518" s="6" t="n"/>
@@ -14687,7 +14145,6 @@
       <c r="F518" s="6" t="n"/>
       <c r="G518" s="6" t="n"/>
       <c r="H518" s="6" t="n"/>
-      <c r="I518" s="6" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="6" t="n"/>
@@ -14698,7 +14155,6 @@
       <c r="F519" s="6" t="n"/>
       <c r="G519" s="6" t="n"/>
       <c r="H519" s="6" t="n"/>
-      <c r="I519" s="6" t="n"/>
     </row>
     <row r="520">
       <c r="A520" s="6" t="n"/>
@@ -14709,7 +14165,6 @@
       <c r="F520" s="6" t="n"/>
       <c r="G520" s="6" t="n"/>
       <c r="H520" s="6" t="n"/>
-      <c r="I520" s="6" t="n"/>
     </row>
     <row r="521">
       <c r="A521" s="6" t="n"/>
@@ -14720,7 +14175,6 @@
       <c r="F521" s="6" t="n"/>
       <c r="G521" s="6" t="n"/>
       <c r="H521" s="6" t="n"/>
-      <c r="I521" s="6" t="n"/>
     </row>
     <row r="522">
       <c r="A522" s="6" t="n"/>
@@ -14731,7 +14185,6 @@
       <c r="F522" s="6" t="n"/>
       <c r="G522" s="6" t="n"/>
       <c r="H522" s="6" t="n"/>
-      <c r="I522" s="6" t="n"/>
     </row>
     <row r="523">
       <c r="A523" s="6" t="n"/>
@@ -14742,7 +14195,6 @@
       <c r="F523" s="6" t="n"/>
       <c r="G523" s="6" t="n"/>
       <c r="H523" s="6" t="n"/>
-      <c r="I523" s="6" t="n"/>
     </row>
     <row r="524">
       <c r="A524" s="6" t="n"/>
@@ -14753,7 +14205,6 @@
       <c r="F524" s="6" t="n"/>
       <c r="G524" s="6" t="n"/>
       <c r="H524" s="6" t="n"/>
-      <c r="I524" s="6" t="n"/>
     </row>
     <row r="525">
       <c r="A525" s="6" t="n"/>
@@ -14764,7 +14215,6 @@
       <c r="F525" s="6" t="n"/>
       <c r="G525" s="6" t="n"/>
       <c r="H525" s="6" t="n"/>
-      <c r="I525" s="6" t="n"/>
     </row>
     <row r="526">
       <c r="A526" s="6" t="n"/>
@@ -14775,7 +14225,6 @@
       <c r="F526" s="6" t="n"/>
       <c r="G526" s="6" t="n"/>
       <c r="H526" s="6" t="n"/>
-      <c r="I526" s="6" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="6" t="n"/>
@@ -14786,7 +14235,6 @@
       <c r="F527" s="6" t="n"/>
       <c r="G527" s="6" t="n"/>
       <c r="H527" s="6" t="n"/>
-      <c r="I527" s="6" t="n"/>
     </row>
     <row r="528">
       <c r="A528" s="6" t="n"/>
@@ -14797,7 +14245,6 @@
       <c r="F528" s="6" t="n"/>
       <c r="G528" s="6" t="n"/>
       <c r="H528" s="6" t="n"/>
-      <c r="I528" s="6" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="6" t="n"/>
@@ -14808,7 +14255,6 @@
       <c r="F529" s="6" t="n"/>
       <c r="G529" s="6" t="n"/>
       <c r="H529" s="6" t="n"/>
-      <c r="I529" s="6" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="6" t="n"/>
@@ -14819,7 +14265,6 @@
       <c r="F530" s="6" t="n"/>
       <c r="G530" s="6" t="n"/>
       <c r="H530" s="6" t="n"/>
-      <c r="I530" s="6" t="n"/>
     </row>
     <row r="531">
       <c r="A531" s="6" t="n"/>
@@ -14830,7 +14275,6 @@
       <c r="F531" s="6" t="n"/>
       <c r="G531" s="6" t="n"/>
       <c r="H531" s="6" t="n"/>
-      <c r="I531" s="6" t="n"/>
     </row>
     <row r="532">
       <c r="A532" s="6" t="n"/>
@@ -14841,7 +14285,6 @@
       <c r="F532" s="6" t="n"/>
       <c r="G532" s="6" t="n"/>
       <c r="H532" s="6" t="n"/>
-      <c r="I532" s="6" t="n"/>
     </row>
     <row r="533">
       <c r="A533" s="6" t="n"/>
@@ -14852,7 +14295,6 @@
       <c r="F533" s="6" t="n"/>
       <c r="G533" s="6" t="n"/>
       <c r="H533" s="6" t="n"/>
-      <c r="I533" s="6" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="6" t="n"/>
@@ -14863,7 +14305,6 @@
       <c r="F534" s="6" t="n"/>
       <c r="G534" s="6" t="n"/>
       <c r="H534" s="6" t="n"/>
-      <c r="I534" s="6" t="n"/>
     </row>
     <row r="535">
       <c r="A535" s="6" t="n"/>
@@ -14874,7 +14315,6 @@
       <c r="F535" s="6" t="n"/>
       <c r="G535" s="6" t="n"/>
       <c r="H535" s="6" t="n"/>
-      <c r="I535" s="6" t="n"/>
     </row>
     <row r="536">
       <c r="A536" s="6" t="n"/>
@@ -14885,7 +14325,6 @@
       <c r="F536" s="6" t="n"/>
       <c r="G536" s="6" t="n"/>
       <c r="H536" s="6" t="n"/>
-      <c r="I536" s="6" t="n"/>
     </row>
     <row r="537">
       <c r="A537" s="6" t="n"/>
@@ -14896,7 +14335,6 @@
       <c r="F537" s="6" t="n"/>
       <c r="G537" s="6" t="n"/>
       <c r="H537" s="6" t="n"/>
-      <c r="I537" s="6" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="6" t="n"/>
@@ -14907,7 +14345,6 @@
       <c r="F538" s="6" t="n"/>
       <c r="G538" s="6" t="n"/>
       <c r="H538" s="6" t="n"/>
-      <c r="I538" s="6" t="n"/>
     </row>
     <row r="539">
       <c r="A539" s="6" t="n"/>
@@ -14918,7 +14355,6 @@
       <c r="F539" s="6" t="n"/>
       <c r="G539" s="6" t="n"/>
       <c r="H539" s="6" t="n"/>
-      <c r="I539" s="6" t="n"/>
     </row>
     <row r="540">
       <c r="A540" s="6" t="n"/>
@@ -14929,7 +14365,6 @@
       <c r="F540" s="6" t="n"/>
       <c r="G540" s="6" t="n"/>
       <c r="H540" s="6" t="n"/>
-      <c r="I540" s="6" t="n"/>
     </row>
     <row r="541">
       <c r="A541" s="6" t="n"/>
@@ -14940,7 +14375,6 @@
       <c r="F541" s="6" t="n"/>
       <c r="G541" s="6" t="n"/>
       <c r="H541" s="6" t="n"/>
-      <c r="I541" s="6" t="n"/>
     </row>
     <row r="542">
       <c r="A542" s="6" t="n"/>
@@ -14951,7 +14385,6 @@
       <c r="F542" s="6" t="n"/>
       <c r="G542" s="6" t="n"/>
       <c r="H542" s="6" t="n"/>
-      <c r="I542" s="6" t="n"/>
     </row>
     <row r="543">
       <c r="A543" s="6" t="n"/>
@@ -14962,7 +14395,6 @@
       <c r="F543" s="6" t="n"/>
       <c r="G543" s="6" t="n"/>
       <c r="H543" s="6" t="n"/>
-      <c r="I543" s="6" t="n"/>
     </row>
     <row r="544">
       <c r="A544" s="6" t="n"/>
@@ -14973,7 +14405,6 @@
       <c r="F544" s="6" t="n"/>
       <c r="G544" s="6" t="n"/>
       <c r="H544" s="6" t="n"/>
-      <c r="I544" s="6" t="n"/>
     </row>
     <row r="545">
       <c r="A545" s="6" t="n"/>
@@ -14984,7 +14415,6 @@
       <c r="F545" s="6" t="n"/>
       <c r="G545" s="6" t="n"/>
       <c r="H545" s="6" t="n"/>
-      <c r="I545" s="6" t="n"/>
     </row>
     <row r="546">
       <c r="A546" s="6" t="n"/>
@@ -14995,7 +14425,6 @@
       <c r="F546" s="6" t="n"/>
       <c r="G546" s="6" t="n"/>
       <c r="H546" s="6" t="n"/>
-      <c r="I546" s="6" t="n"/>
     </row>
     <row r="547">
       <c r="A547" s="6" t="n"/>
@@ -15006,7 +14435,6 @@
       <c r="F547" s="6" t="n"/>
       <c r="G547" s="6" t="n"/>
       <c r="H547" s="6" t="n"/>
-      <c r="I547" s="6" t="n"/>
     </row>
     <row r="548">
       <c r="A548" s="6" t="n"/>
@@ -15017,7 +14445,6 @@
       <c r="F548" s="6" t="n"/>
       <c r="G548" s="6" t="n"/>
       <c r="H548" s="6" t="n"/>
-      <c r="I548" s="6" t="n"/>
     </row>
     <row r="549">
       <c r="A549" s="6" t="n"/>
@@ -15028,7 +14455,6 @@
       <c r="F549" s="6" t="n"/>
       <c r="G549" s="6" t="n"/>
       <c r="H549" s="6" t="n"/>
-      <c r="I549" s="6" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="6" t="n"/>
@@ -15039,7 +14465,6 @@
       <c r="F550" s="6" t="n"/>
       <c r="G550" s="6" t="n"/>
       <c r="H550" s="6" t="n"/>
-      <c r="I550" s="6" t="n"/>
     </row>
     <row r="551">
       <c r="A551" s="6" t="n"/>
@@ -15050,7 +14475,6 @@
       <c r="F551" s="6" t="n"/>
       <c r="G551" s="6" t="n"/>
       <c r="H551" s="6" t="n"/>
-      <c r="I551" s="6" t="n"/>
     </row>
     <row r="552">
       <c r="A552" s="6" t="n"/>
@@ -15061,7 +14485,6 @@
       <c r="F552" s="6" t="n"/>
       <c r="G552" s="6" t="n"/>
       <c r="H552" s="6" t="n"/>
-      <c r="I552" s="6" t="n"/>
     </row>
     <row r="553">
       <c r="A553" s="6" t="n"/>
@@ -15072,7 +14495,6 @@
       <c r="F553" s="6" t="n"/>
       <c r="G553" s="6" t="n"/>
       <c r="H553" s="6" t="n"/>
-      <c r="I553" s="6" t="n"/>
     </row>
     <row r="554">
       <c r="A554" s="6" t="n"/>
@@ -15083,7 +14505,6 @@
       <c r="F554" s="6" t="n"/>
       <c r="G554" s="6" t="n"/>
       <c r="H554" s="6" t="n"/>
-      <c r="I554" s="6" t="n"/>
     </row>
     <row r="555">
       <c r="A555" s="6" t="n"/>
@@ -15094,7 +14515,6 @@
       <c r="F555" s="6" t="n"/>
       <c r="G555" s="6" t="n"/>
       <c r="H555" s="6" t="n"/>
-      <c r="I555" s="6" t="n"/>
     </row>
     <row r="556">
       <c r="A556" s="6" t="n"/>
@@ -15105,7 +14525,6 @@
       <c r="F556" s="6" t="n"/>
       <c r="G556" s="6" t="n"/>
       <c r="H556" s="6" t="n"/>
-      <c r="I556" s="6" t="n"/>
     </row>
     <row r="557">
       <c r="A557" s="6" t="n"/>
@@ -15116,7 +14535,6 @@
       <c r="F557" s="6" t="n"/>
       <c r="G557" s="6" t="n"/>
       <c r="H557" s="6" t="n"/>
-      <c r="I557" s="6" t="n"/>
     </row>
     <row r="558">
       <c r="A558" s="6" t="n"/>
@@ -15127,7 +14545,6 @@
       <c r="F558" s="6" t="n"/>
       <c r="G558" s="6" t="n"/>
       <c r="H558" s="6" t="n"/>
-      <c r="I558" s="6" t="n"/>
     </row>
     <row r="559">
       <c r="A559" s="6" t="n"/>
@@ -15138,7 +14555,6 @@
       <c r="F559" s="6" t="n"/>
       <c r="G559" s="6" t="n"/>
       <c r="H559" s="6" t="n"/>
-      <c r="I559" s="6" t="n"/>
     </row>
     <row r="560">
       <c r="A560" s="6" t="n"/>
@@ -15149,7 +14565,6 @@
       <c r="F560" s="6" t="n"/>
       <c r="G560" s="6" t="n"/>
       <c r="H560" s="6" t="n"/>
-      <c r="I560" s="6" t="n"/>
     </row>
     <row r="561">
       <c r="A561" s="6" t="n"/>
@@ -15160,7 +14575,6 @@
       <c r="F561" s="6" t="n"/>
       <c r="G561" s="6" t="n"/>
       <c r="H561" s="6" t="n"/>
-      <c r="I561" s="6" t="n"/>
     </row>
     <row r="562">
       <c r="A562" s="6" t="n"/>
@@ -15171,7 +14585,6 @@
       <c r="F562" s="6" t="n"/>
       <c r="G562" s="6" t="n"/>
       <c r="H562" s="6" t="n"/>
-      <c r="I562" s="6" t="n"/>
     </row>
     <row r="563">
       <c r="A563" s="6" t="n"/>
@@ -15182,7 +14595,6 @@
       <c r="F563" s="6" t="n"/>
       <c r="G563" s="6" t="n"/>
       <c r="H563" s="6" t="n"/>
-      <c r="I563" s="6" t="n"/>
     </row>
     <row r="564">
       <c r="A564" s="6" t="n"/>
@@ -15193,7 +14605,6 @@
       <c r="F564" s="6" t="n"/>
       <c r="G564" s="6" t="n"/>
       <c r="H564" s="6" t="n"/>
-      <c r="I564" s="6" t="n"/>
     </row>
     <row r="565">
       <c r="A565" s="6" t="n"/>
@@ -15204,7 +14615,6 @@
       <c r="F565" s="6" t="n"/>
       <c r="G565" s="6" t="n"/>
       <c r="H565" s="6" t="n"/>
-      <c r="I565" s="6" t="n"/>
     </row>
     <row r="566">
       <c r="A566" s="6" t="n"/>
@@ -15215,7 +14625,6 @@
       <c r="F566" s="6" t="n"/>
       <c r="G566" s="6" t="n"/>
       <c r="H566" s="6" t="n"/>
-      <c r="I566" s="6" t="n"/>
     </row>
     <row r="567">
       <c r="A567" s="6" t="n"/>
@@ -15226,7 +14635,6 @@
       <c r="F567" s="6" t="n"/>
       <c r="G567" s="6" t="n"/>
       <c r="H567" s="6" t="n"/>
-      <c r="I567" s="6" t="n"/>
     </row>
     <row r="568">
       <c r="A568" s="6" t="n"/>
@@ -15237,7 +14645,6 @@
       <c r="F568" s="6" t="n"/>
       <c r="G568" s="6" t="n"/>
       <c r="H568" s="6" t="n"/>
-      <c r="I568" s="6" t="n"/>
     </row>
     <row r="569">
       <c r="A569" s="6" t="n"/>
@@ -15248,7 +14655,6 @@
       <c r="F569" s="6" t="n"/>
       <c r="G569" s="6" t="n"/>
       <c r="H569" s="6" t="n"/>
-      <c r="I569" s="6" t="n"/>
     </row>
     <row r="570">
       <c r="A570" s="6" t="n"/>
@@ -15259,7 +14665,6 @@
       <c r="F570" s="6" t="n"/>
       <c r="G570" s="6" t="n"/>
       <c r="H570" s="6" t="n"/>
-      <c r="I570" s="6" t="n"/>
     </row>
     <row r="571">
       <c r="A571" s="6" t="n"/>
@@ -15270,7 +14675,6 @@
       <c r="F571" s="6" t="n"/>
       <c r="G571" s="6" t="n"/>
       <c r="H571" s="6" t="n"/>
-      <c r="I571" s="6" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="6" t="n"/>
@@ -15281,7 +14685,6 @@
       <c r="F572" s="6" t="n"/>
       <c r="G572" s="6" t="n"/>
       <c r="H572" s="6" t="n"/>
-      <c r="I572" s="6" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="6" t="n"/>
@@ -15292,7 +14695,6 @@
       <c r="F573" s="6" t="n"/>
       <c r="G573" s="6" t="n"/>
       <c r="H573" s="6" t="n"/>
-      <c r="I573" s="6" t="n"/>
     </row>
     <row r="574">
       <c r="A574" s="6" t="n"/>
@@ -15303,7 +14705,6 @@
       <c r="F574" s="6" t="n"/>
       <c r="G574" s="6" t="n"/>
       <c r="H574" s="6" t="n"/>
-      <c r="I574" s="6" t="n"/>
     </row>
     <row r="575">
       <c r="A575" s="6" t="n"/>
@@ -15314,7 +14715,6 @@
       <c r="F575" s="6" t="n"/>
       <c r="G575" s="6" t="n"/>
       <c r="H575" s="6" t="n"/>
-      <c r="I575" s="6" t="n"/>
     </row>
     <row r="576">
       <c r="A576" s="6" t="n"/>
@@ -15325,7 +14725,6 @@
       <c r="F576" s="6" t="n"/>
       <c r="G576" s="6" t="n"/>
       <c r="H576" s="6" t="n"/>
-      <c r="I576" s="6" t="n"/>
     </row>
     <row r="577">
       <c r="A577" s="6" t="n"/>
@@ -15336,7 +14735,6 @@
       <c r="F577" s="6" t="n"/>
       <c r="G577" s="6" t="n"/>
       <c r="H577" s="6" t="n"/>
-      <c r="I577" s="6" t="n"/>
     </row>
     <row r="578">
       <c r="A578" s="6" t="n"/>
@@ -15347,7 +14745,6 @@
       <c r="F578" s="6" t="n"/>
       <c r="G578" s="6" t="n"/>
       <c r="H578" s="6" t="n"/>
-      <c r="I578" s="6" t="n"/>
     </row>
     <row r="579">
       <c r="A579" s="6" t="n"/>
@@ -15358,7 +14755,6 @@
       <c r="F579" s="6" t="n"/>
       <c r="G579" s="6" t="n"/>
       <c r="H579" s="6" t="n"/>
-      <c r="I579" s="6" t="n"/>
     </row>
     <row r="580">
       <c r="A580" s="6" t="n"/>
@@ -15369,7 +14765,6 @@
       <c r="F580" s="6" t="n"/>
       <c r="G580" s="6" t="n"/>
       <c r="H580" s="6" t="n"/>
-      <c r="I580" s="6" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="6" t="n"/>
@@ -15380,7 +14775,6 @@
       <c r="F581" s="6" t="n"/>
       <c r="G581" s="6" t="n"/>
       <c r="H581" s="6" t="n"/>
-      <c r="I581" s="6" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="6" t="n"/>
@@ -15391,7 +14785,6 @@
       <c r="F582" s="6" t="n"/>
       <c r="G582" s="6" t="n"/>
       <c r="H582" s="6" t="n"/>
-      <c r="I582" s="6" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="6" t="n"/>
@@ -15402,7 +14795,6 @@
       <c r="F583" s="6" t="n"/>
       <c r="G583" s="6" t="n"/>
       <c r="H583" s="6" t="n"/>
-      <c r="I583" s="6" t="n"/>
     </row>
     <row r="584">
       <c r="A584" s="6" t="n"/>
@@ -15413,7 +14805,6 @@
       <c r="F584" s="6" t="n"/>
       <c r="G584" s="6" t="n"/>
       <c r="H584" s="6" t="n"/>
-      <c r="I584" s="6" t="n"/>
     </row>
     <row r="585">
       <c r="A585" s="6" t="n"/>
@@ -15424,7 +14815,6 @@
       <c r="F585" s="6" t="n"/>
       <c r="G585" s="6" t="n"/>
       <c r="H585" s="6" t="n"/>
-      <c r="I585" s="6" t="n"/>
     </row>
     <row r="586">
       <c r="A586" s="6" t="n"/>
@@ -15435,7 +14825,6 @@
       <c r="F586" s="6" t="n"/>
       <c r="G586" s="6" t="n"/>
       <c r="H586" s="6" t="n"/>
-      <c r="I586" s="6" t="n"/>
     </row>
     <row r="587">
       <c r="A587" s="6" t="n"/>
@@ -15446,7 +14835,6 @@
       <c r="F587" s="6" t="n"/>
       <c r="G587" s="6" t="n"/>
       <c r="H587" s="6" t="n"/>
-      <c r="I587" s="6" t="n"/>
     </row>
     <row r="588">
       <c r="A588" s="6" t="n"/>
@@ -15457,7 +14845,6 @@
       <c r="F588" s="6" t="n"/>
       <c r="G588" s="6" t="n"/>
       <c r="H588" s="6" t="n"/>
-      <c r="I588" s="6" t="n"/>
     </row>
     <row r="589">
       <c r="A589" s="6" t="n"/>
@@ -15468,7 +14855,6 @@
       <c r="F589" s="6" t="n"/>
       <c r="G589" s="6" t="n"/>
       <c r="H589" s="6" t="n"/>
-      <c r="I589" s="6" t="n"/>
     </row>
     <row r="590">
       <c r="A590" s="6" t="n"/>
@@ -15479,7 +14865,6 @@
       <c r="F590" s="6" t="n"/>
       <c r="G590" s="6" t="n"/>
       <c r="H590" s="6" t="n"/>
-      <c r="I590" s="6" t="n"/>
     </row>
     <row r="591">
       <c r="A591" s="6" t="n"/>
@@ -15490,7 +14875,6 @@
       <c r="F591" s="6" t="n"/>
       <c r="G591" s="6" t="n"/>
       <c r="H591" s="6" t="n"/>
-      <c r="I591" s="6" t="n"/>
     </row>
     <row r="592">
       <c r="A592" s="6" t="n"/>
@@ -15501,7 +14885,6 @@
       <c r="F592" s="6" t="n"/>
       <c r="G592" s="6" t="n"/>
       <c r="H592" s="6" t="n"/>
-      <c r="I592" s="6" t="n"/>
     </row>
     <row r="593">
       <c r="A593" s="6" t="n"/>
@@ -15512,7 +14895,6 @@
       <c r="F593" s="6" t="n"/>
       <c r="G593" s="6" t="n"/>
       <c r="H593" s="6" t="n"/>
-      <c r="I593" s="6" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="6" t="n"/>
@@ -15523,7 +14905,6 @@
       <c r="F594" s="6" t="n"/>
       <c r="G594" s="6" t="n"/>
       <c r="H594" s="6" t="n"/>
-      <c r="I594" s="6" t="n"/>
     </row>
     <row r="595">
       <c r="A595" s="6" t="n"/>
@@ -15534,7 +14915,6 @@
       <c r="F595" s="6" t="n"/>
       <c r="G595" s="6" t="n"/>
       <c r="H595" s="6" t="n"/>
-      <c r="I595" s="6" t="n"/>
     </row>
     <row r="596">
       <c r="A596" s="6" t="n"/>
@@ -15545,7 +14925,6 @@
       <c r="F596" s="6" t="n"/>
       <c r="G596" s="6" t="n"/>
       <c r="H596" s="6" t="n"/>
-      <c r="I596" s="6" t="n"/>
     </row>
     <row r="597">
       <c r="A597" s="6" t="n"/>
@@ -15556,7 +14935,6 @@
       <c r="F597" s="6" t="n"/>
       <c r="G597" s="6" t="n"/>
       <c r="H597" s="6" t="n"/>
-      <c r="I597" s="6" t="n"/>
     </row>
     <row r="598">
       <c r="A598" s="6" t="n"/>
@@ -15567,7 +14945,6 @@
       <c r="F598" s="6" t="n"/>
       <c r="G598" s="6" t="n"/>
       <c r="H598" s="6" t="n"/>
-      <c r="I598" s="6" t="n"/>
     </row>
     <row r="599">
       <c r="A599" s="6" t="n"/>
@@ -15578,7 +14955,6 @@
       <c r="F599" s="6" t="n"/>
       <c r="G599" s="6" t="n"/>
       <c r="H599" s="6" t="n"/>
-      <c r="I599" s="6" t="n"/>
     </row>
     <row r="600">
       <c r="A600" s="6" t="n"/>
@@ -15589,7 +14965,6 @@
       <c r="F600" s="6" t="n"/>
       <c r="G600" s="6" t="n"/>
       <c r="H600" s="6" t="n"/>
-      <c r="I600" s="6" t="n"/>
     </row>
     <row r="601">
       <c r="A601" s="6" t="n"/>
@@ -15600,7 +14975,6 @@
       <c r="F601" s="6" t="n"/>
       <c r="G601" s="6" t="n"/>
       <c r="H601" s="6" t="n"/>
-      <c r="I601" s="6" t="n"/>
     </row>
     <row r="602">
       <c r="A602" s="6" t="n"/>
@@ -15611,7 +14985,6 @@
       <c r="F602" s="6" t="n"/>
       <c r="G602" s="6" t="n"/>
       <c r="H602" s="6" t="n"/>
-      <c r="I602" s="6" t="n"/>
     </row>
     <row r="603">
       <c r="A603" s="6" t="n"/>
@@ -15622,7 +14995,6 @@
       <c r="F603" s="6" t="n"/>
       <c r="G603" s="6" t="n"/>
       <c r="H603" s="6" t="n"/>
-      <c r="I603" s="6" t="n"/>
     </row>
     <row r="604">
       <c r="A604" s="6" t="n"/>
@@ -15633,7 +15005,6 @@
       <c r="F604" s="6" t="n"/>
       <c r="G604" s="6" t="n"/>
       <c r="H604" s="6" t="n"/>
-      <c r="I604" s="6" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="6" t="n"/>
@@ -15644,7 +15015,6 @@
       <c r="F605" s="6" t="n"/>
       <c r="G605" s="6" t="n"/>
       <c r="H605" s="6" t="n"/>
-      <c r="I605" s="6" t="n"/>
     </row>
     <row r="606">
       <c r="A606" s="6" t="n"/>
@@ -15655,7 +15025,6 @@
       <c r="F606" s="6" t="n"/>
       <c r="G606" s="6" t="n"/>
       <c r="H606" s="6" t="n"/>
-      <c r="I606" s="6" t="n"/>
     </row>
     <row r="607">
       <c r="A607" s="6" t="n"/>
@@ -15666,7 +15035,6 @@
       <c r="F607" s="6" t="n"/>
       <c r="G607" s="6" t="n"/>
       <c r="H607" s="6" t="n"/>
-      <c r="I607" s="6" t="n"/>
     </row>
     <row r="608">
       <c r="A608" s="6" t="n"/>
@@ -15677,7 +15045,6 @@
       <c r="F608" s="6" t="n"/>
       <c r="G608" s="6" t="n"/>
       <c r="H608" s="6" t="n"/>
-      <c r="I608" s="6" t="n"/>
     </row>
     <row r="609">
       <c r="A609" s="6" t="n"/>
@@ -15688,7 +15055,6 @@
       <c r="F609" s="6" t="n"/>
       <c r="G609" s="6" t="n"/>
       <c r="H609" s="6" t="n"/>
-      <c r="I609" s="6" t="n"/>
     </row>
     <row r="610">
       <c r="A610" s="6" t="n"/>
@@ -15699,7 +15065,6 @@
       <c r="F610" s="6" t="n"/>
       <c r="G610" s="6" t="n"/>
       <c r="H610" s="6" t="n"/>
-      <c r="I610" s="6" t="n"/>
     </row>
     <row r="611">
       <c r="A611" s="6" t="n"/>
@@ -15710,7 +15075,6 @@
       <c r="F611" s="6" t="n"/>
       <c r="G611" s="6" t="n"/>
       <c r="H611" s="6" t="n"/>
-      <c r="I611" s="6" t="n"/>
     </row>
     <row r="612">
       <c r="A612" s="6" t="n"/>
@@ -15721,7 +15085,6 @@
       <c r="F612" s="6" t="n"/>
       <c r="G612" s="6" t="n"/>
       <c r="H612" s="6" t="n"/>
-      <c r="I612" s="6" t="n"/>
     </row>
     <row r="613">
       <c r="A613" s="6" t="n"/>
@@ -15732,7 +15095,6 @@
       <c r="F613" s="6" t="n"/>
       <c r="G613" s="6" t="n"/>
       <c r="H613" s="6" t="n"/>
-      <c r="I613" s="6" t="n"/>
     </row>
     <row r="614">
       <c r="A614" s="6" t="n"/>
@@ -15743,7 +15105,6 @@
       <c r="F614" s="6" t="n"/>
       <c r="G614" s="6" t="n"/>
       <c r="H614" s="6" t="n"/>
-      <c r="I614" s="6" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="6" t="n"/>
@@ -15754,7 +15115,6 @@
       <c r="F615" s="6" t="n"/>
       <c r="G615" s="6" t="n"/>
       <c r="H615" s="6" t="n"/>
-      <c r="I615" s="6" t="n"/>
     </row>
     <row r="616">
       <c r="A616" s="6" t="n"/>
@@ -15765,7 +15125,6 @@
       <c r="F616" s="6" t="n"/>
       <c r="G616" s="6" t="n"/>
       <c r="H616" s="6" t="n"/>
-      <c r="I616" s="6" t="n"/>
     </row>
     <row r="617">
       <c r="A617" s="6" t="n"/>
@@ -15776,7 +15135,6 @@
       <c r="F617" s="6" t="n"/>
       <c r="G617" s="6" t="n"/>
       <c r="H617" s="6" t="n"/>
-      <c r="I617" s="6" t="n"/>
     </row>
     <row r="618">
       <c r="A618" s="6" t="n"/>
@@ -15787,7 +15145,6 @@
       <c r="F618" s="6" t="n"/>
       <c r="G618" s="6" t="n"/>
       <c r="H618" s="6" t="n"/>
-      <c r="I618" s="6" t="n"/>
     </row>
     <row r="619">
       <c r="A619" s="6" t="n"/>
@@ -15798,7 +15155,6 @@
       <c r="F619" s="6" t="n"/>
       <c r="G619" s="6" t="n"/>
       <c r="H619" s="6" t="n"/>
-      <c r="I619" s="6" t="n"/>
     </row>
     <row r="620">
       <c r="A620" s="6" t="n"/>
@@ -15809,7 +15165,6 @@
       <c r="F620" s="6" t="n"/>
       <c r="G620" s="6" t="n"/>
       <c r="H620" s="6" t="n"/>
-      <c r="I620" s="6" t="n"/>
     </row>
     <row r="621">
       <c r="A621" s="6" t="n"/>
@@ -15820,7 +15175,6 @@
       <c r="F621" s="6" t="n"/>
       <c r="G621" s="6" t="n"/>
       <c r="H621" s="6" t="n"/>
-      <c r="I621" s="6" t="n"/>
     </row>
     <row r="622">
       <c r="A622" s="6" t="n"/>
@@ -15831,7 +15185,6 @@
       <c r="F622" s="6" t="n"/>
       <c r="G622" s="6" t="n"/>
       <c r="H622" s="6" t="n"/>
-      <c r="I622" s="6" t="n"/>
     </row>
     <row r="623">
       <c r="A623" s="6" t="n"/>
@@ -15842,7 +15195,6 @@
       <c r="F623" s="6" t="n"/>
       <c r="G623" s="6" t="n"/>
       <c r="H623" s="6" t="n"/>
-      <c r="I623" s="6" t="n"/>
     </row>
     <row r="624">
       <c r="A624" s="6" t="n"/>
@@ -15853,7 +15205,6 @@
       <c r="F624" s="6" t="n"/>
       <c r="G624" s="6" t="n"/>
       <c r="H624" s="6" t="n"/>
-      <c r="I624" s="6" t="n"/>
     </row>
     <row r="625">
       <c r="A625" s="6" t="n"/>
@@ -15864,7 +15215,6 @@
       <c r="F625" s="6" t="n"/>
       <c r="G625" s="6" t="n"/>
       <c r="H625" s="6" t="n"/>
-      <c r="I625" s="6" t="n"/>
     </row>
     <row r="626">
       <c r="A626" s="6" t="n"/>
@@ -15875,7 +15225,6 @@
       <c r="F626" s="6" t="n"/>
       <c r="G626" s="6" t="n"/>
       <c r="H626" s="6" t="n"/>
-      <c r="I626" s="6" t="n"/>
     </row>
     <row r="627">
       <c r="A627" s="6" t="n"/>
@@ -15886,7 +15235,6 @@
       <c r="F627" s="6" t="n"/>
       <c r="G627" s="6" t="n"/>
       <c r="H627" s="6" t="n"/>
-      <c r="I627" s="6" t="n"/>
     </row>
     <row r="628">
       <c r="A628" s="6" t="n"/>
@@ -15897,7 +15245,6 @@
       <c r="F628" s="6" t="n"/>
       <c r="G628" s="6" t="n"/>
       <c r="H628" s="6" t="n"/>
-      <c r="I628" s="6" t="n"/>
     </row>
     <row r="629">
       <c r="A629" s="6" t="n"/>
@@ -15908,7 +15255,6 @@
       <c r="F629" s="6" t="n"/>
       <c r="G629" s="6" t="n"/>
       <c r="H629" s="6" t="n"/>
-      <c r="I629" s="6" t="n"/>
     </row>
     <row r="630">
       <c r="A630" s="6" t="n"/>
@@ -15919,7 +15265,6 @@
       <c r="F630" s="6" t="n"/>
       <c r="G630" s="6" t="n"/>
       <c r="H630" s="6" t="n"/>
-      <c r="I630" s="6" t="n"/>
     </row>
     <row r="631">
       <c r="A631" s="6" t="n"/>
@@ -15930,7 +15275,6 @@
       <c r="F631" s="6" t="n"/>
       <c r="G631" s="6" t="n"/>
       <c r="H631" s="6" t="n"/>
-      <c r="I631" s="6" t="n"/>
     </row>
     <row r="632">
       <c r="A632" s="6" t="n"/>
@@ -15941,7 +15285,6 @@
       <c r="F632" s="6" t="n"/>
       <c r="G632" s="6" t="n"/>
       <c r="H632" s="6" t="n"/>
-      <c r="I632" s="6" t="n"/>
     </row>
     <row r="633">
       <c r="A633" s="6" t="n"/>
@@ -15952,7 +15295,6 @@
       <c r="F633" s="6" t="n"/>
       <c r="G633" s="6" t="n"/>
       <c r="H633" s="6" t="n"/>
-      <c r="I633" s="6" t="n"/>
     </row>
     <row r="634">
       <c r="A634" s="6" t="n"/>
@@ -15963,7 +15305,6 @@
       <c r="F634" s="6" t="n"/>
       <c r="G634" s="6" t="n"/>
       <c r="H634" s="6" t="n"/>
-      <c r="I634" s="6" t="n"/>
     </row>
     <row r="635">
       <c r="A635" s="6" t="n"/>
@@ -15974,7 +15315,6 @@
       <c r="F635" s="6" t="n"/>
       <c r="G635" s="6" t="n"/>
       <c r="H635" s="6" t="n"/>
-      <c r="I635" s="6" t="n"/>
     </row>
     <row r="636">
       <c r="A636" s="6" t="n"/>
@@ -15985,7 +15325,6 @@
       <c r="F636" s="6" t="n"/>
       <c r="G636" s="6" t="n"/>
       <c r="H636" s="6" t="n"/>
-      <c r="I636" s="6" t="n"/>
     </row>
     <row r="637">
       <c r="A637" s="6" t="n"/>
@@ -15996,7 +15335,6 @@
       <c r="F637" s="6" t="n"/>
       <c r="G637" s="6" t="n"/>
       <c r="H637" s="6" t="n"/>
-      <c r="I637" s="6" t="n"/>
     </row>
     <row r="638">
       <c r="A638" s="6" t="n"/>
@@ -16007,7 +15345,6 @@
       <c r="F638" s="6" t="n"/>
       <c r="G638" s="6" t="n"/>
       <c r="H638" s="6" t="n"/>
-      <c r="I638" s="6" t="n"/>
     </row>
     <row r="639">
       <c r="A639" s="6" t="n"/>
@@ -16018,7 +15355,6 @@
       <c r="F639" s="6" t="n"/>
       <c r="G639" s="6" t="n"/>
       <c r="H639" s="6" t="n"/>
-      <c r="I639" s="6" t="n"/>
     </row>
     <row r="640">
       <c r="A640" s="6" t="n"/>
@@ -16029,7 +15365,6 @@
       <c r="F640" s="6" t="n"/>
       <c r="G640" s="6" t="n"/>
       <c r="H640" s="6" t="n"/>
-      <c r="I640" s="6" t="n"/>
     </row>
     <row r="641">
       <c r="A641" s="6" t="n"/>
@@ -16040,7 +15375,6 @@
       <c r="F641" s="6" t="n"/>
       <c r="G641" s="6" t="n"/>
       <c r="H641" s="6" t="n"/>
-      <c r="I641" s="6" t="n"/>
     </row>
     <row r="642">
       <c r="A642" s="6" t="n"/>
@@ -16051,7 +15385,6 @@
       <c r="F642" s="6" t="n"/>
       <c r="G642" s="6" t="n"/>
       <c r="H642" s="6" t="n"/>
-      <c r="I642" s="6" t="n"/>
     </row>
     <row r="643">
       <c r="A643" s="6" t="n"/>
@@ -16062,7 +15395,6 @@
       <c r="F643" s="6" t="n"/>
       <c r="G643" s="6" t="n"/>
       <c r="H643" s="6" t="n"/>
-      <c r="I643" s="6" t="n"/>
     </row>
     <row r="644">
       <c r="A644" s="6" t="n"/>
@@ -16073,7 +15405,6 @@
       <c r="F644" s="6" t="n"/>
       <c r="G644" s="6" t="n"/>
       <c r="H644" s="6" t="n"/>
-      <c r="I644" s="6" t="n"/>
     </row>
     <row r="645">
       <c r="A645" s="6" t="n"/>
@@ -16084,7 +15415,6 @@
       <c r="F645" s="6" t="n"/>
       <c r="G645" s="6" t="n"/>
       <c r="H645" s="6" t="n"/>
-      <c r="I645" s="6" t="n"/>
     </row>
     <row r="646">
       <c r="A646" s="6" t="n"/>
@@ -16095,7 +15425,6 @@
       <c r="F646" s="6" t="n"/>
       <c r="G646" s="6" t="n"/>
       <c r="H646" s="6" t="n"/>
-      <c r="I646" s="6" t="n"/>
     </row>
     <row r="647">
       <c r="A647" s="6" t="n"/>
@@ -16106,7 +15435,6 @@
       <c r="F647" s="6" t="n"/>
       <c r="G647" s="6" t="n"/>
       <c r="H647" s="6" t="n"/>
-      <c r="I647" s="6" t="n"/>
     </row>
     <row r="648">
       <c r="A648" s="6" t="n"/>
@@ -16117,7 +15445,6 @@
       <c r="F648" s="6" t="n"/>
       <c r="G648" s="6" t="n"/>
       <c r="H648" s="6" t="n"/>
-      <c r="I648" s="6" t="n"/>
     </row>
     <row r="649">
       <c r="A649" s="6" t="n"/>
@@ -16128,7 +15455,6 @@
       <c r="F649" s="6" t="n"/>
       <c r="G649" s="6" t="n"/>
       <c r="H649" s="6" t="n"/>
-      <c r="I649" s="6" t="n"/>
     </row>
     <row r="650">
       <c r="A650" s="6" t="n"/>
@@ -16139,7 +15465,6 @@
       <c r="F650" s="6" t="n"/>
       <c r="G650" s="6" t="n"/>
       <c r="H650" s="6" t="n"/>
-      <c r="I650" s="6" t="n"/>
     </row>
     <row r="651">
       <c r="A651" s="6" t="n"/>
@@ -16150,7 +15475,6 @@
       <c r="F651" s="6" t="n"/>
       <c r="G651" s="6" t="n"/>
       <c r="H651" s="6" t="n"/>
-      <c r="I651" s="6" t="n"/>
     </row>
     <row r="652">
       <c r="A652" s="6" t="n"/>
@@ -16161,7 +15485,6 @@
       <c r="F652" s="6" t="n"/>
       <c r="G652" s="6" t="n"/>
       <c r="H652" s="6" t="n"/>
-      <c r="I652" s="6" t="n"/>
     </row>
     <row r="653">
       <c r="A653" s="6" t="n"/>
@@ -16172,7 +15495,6 @@
       <c r="F653" s="6" t="n"/>
       <c r="G653" s="6" t="n"/>
       <c r="H653" s="6" t="n"/>
-      <c r="I653" s="6" t="n"/>
     </row>
     <row r="654">
       <c r="A654" s="6" t="n"/>
@@ -16183,7 +15505,6 @@
       <c r="F654" s="6" t="n"/>
       <c r="G654" s="6" t="n"/>
       <c r="H654" s="6" t="n"/>
-      <c r="I654" s="6" t="n"/>
     </row>
     <row r="655">
       <c r="A655" s="6" t="n"/>
@@ -16194,7 +15515,6 @@
       <c r="F655" s="6" t="n"/>
       <c r="G655" s="6" t="n"/>
       <c r="H655" s="6" t="n"/>
-      <c r="I655" s="6" t="n"/>
     </row>
     <row r="656">
       <c r="A656" s="6" t="n"/>
@@ -16205,7 +15525,6 @@
       <c r="F656" s="6" t="n"/>
       <c r="G656" s="6" t="n"/>
       <c r="H656" s="6" t="n"/>
-      <c r="I656" s="6" t="n"/>
     </row>
     <row r="657">
       <c r="A657" s="6" t="n"/>
@@ -16216,7 +15535,6 @@
       <c r="F657" s="6" t="n"/>
       <c r="G657" s="6" t="n"/>
       <c r="H657" s="6" t="n"/>
-      <c r="I657" s="6" t="n"/>
     </row>
     <row r="658">
       <c r="A658" s="6" t="n"/>
@@ -16227,7 +15545,6 @@
       <c r="F658" s="6" t="n"/>
       <c r="G658" s="6" t="n"/>
       <c r="H658" s="6" t="n"/>
-      <c r="I658" s="6" t="n"/>
     </row>
     <row r="659">
       <c r="A659" s="6" t="n"/>
@@ -16238,7 +15555,6 @@
       <c r="F659" s="6" t="n"/>
       <c r="G659" s="6" t="n"/>
       <c r="H659" s="6" t="n"/>
-      <c r="I659" s="6" t="n"/>
     </row>
     <row r="660">
       <c r="A660" s="6" t="n"/>
@@ -16249,7 +15565,6 @@
       <c r="F660" s="6" t="n"/>
       <c r="G660" s="6" t="n"/>
       <c r="H660" s="6" t="n"/>
-      <c r="I660" s="6" t="n"/>
     </row>
     <row r="661">
       <c r="A661" s="6" t="n"/>
@@ -16260,7 +15575,6 @@
       <c r="F661" s="6" t="n"/>
       <c r="G661" s="6" t="n"/>
       <c r="H661" s="6" t="n"/>
-      <c r="I661" s="6" t="n"/>
     </row>
     <row r="662">
       <c r="A662" s="6" t="n"/>
@@ -16271,7 +15585,6 @@
       <c r="F662" s="6" t="n"/>
       <c r="G662" s="6" t="n"/>
       <c r="H662" s="6" t="n"/>
-      <c r="I662" s="6" t="n"/>
     </row>
     <row r="663">
       <c r="A663" s="6" t="n"/>
@@ -16282,7 +15595,6 @@
       <c r="F663" s="6" t="n"/>
       <c r="G663" s="6" t="n"/>
       <c r="H663" s="6" t="n"/>
-      <c r="I663" s="6" t="n"/>
     </row>
     <row r="664">
       <c r="A664" s="6" t="n"/>
@@ -16293,7 +15605,6 @@
       <c r="F664" s="6" t="n"/>
       <c r="G664" s="6" t="n"/>
       <c r="H664" s="6" t="n"/>
-      <c r="I664" s="6" t="n"/>
     </row>
     <row r="665">
       <c r="A665" s="6" t="n"/>
@@ -16304,7 +15615,6 @@
       <c r="F665" s="6" t="n"/>
       <c r="G665" s="6" t="n"/>
       <c r="H665" s="6" t="n"/>
-      <c r="I665" s="6" t="n"/>
     </row>
     <row r="666">
       <c r="A666" s="6" t="n"/>
@@ -16315,7 +15625,6 @@
       <c r="F666" s="6" t="n"/>
       <c r="G666" s="6" t="n"/>
       <c r="H666" s="6" t="n"/>
-      <c r="I666" s="6" t="n"/>
     </row>
     <row r="667">
       <c r="A667" s="6" t="n"/>
@@ -16326,7 +15635,6 @@
       <c r="F667" s="6" t="n"/>
       <c r="G667" s="6" t="n"/>
       <c r="H667" s="6" t="n"/>
-      <c r="I667" s="6" t="n"/>
     </row>
     <row r="668">
       <c r="A668" s="6" t="n"/>
@@ -16337,7 +15645,6 @@
       <c r="F668" s="6" t="n"/>
       <c r="G668" s="6" t="n"/>
       <c r="H668" s="6" t="n"/>
-      <c r="I668" s="6" t="n"/>
     </row>
     <row r="669">
       <c r="A669" s="6" t="n"/>
@@ -16348,7 +15655,6 @@
       <c r="F669" s="6" t="n"/>
       <c r="G669" s="6" t="n"/>
       <c r="H669" s="6" t="n"/>
-      <c r="I669" s="6" t="n"/>
     </row>
     <row r="670">
       <c r="A670" s="6" t="n"/>
@@ -16359,7 +15665,6 @@
       <c r="F670" s="6" t="n"/>
       <c r="G670" s="6" t="n"/>
       <c r="H670" s="6" t="n"/>
-      <c r="I670" s="6" t="n"/>
     </row>
     <row r="671">
       <c r="A671" s="6" t="n"/>
@@ -16370,7 +15675,6 @@
       <c r="F671" s="6" t="n"/>
       <c r="G671" s="6" t="n"/>
       <c r="H671" s="6" t="n"/>
-      <c r="I671" s="6" t="n"/>
     </row>
     <row r="672">
       <c r="A672" s="6" t="n"/>
@@ -16381,7 +15685,6 @@
       <c r="F672" s="6" t="n"/>
       <c r="G672" s="6" t="n"/>
       <c r="H672" s="6" t="n"/>
-      <c r="I672" s="6" t="n"/>
     </row>
     <row r="673">
       <c r="A673" s="6" t="n"/>
@@ -16392,7 +15695,6 @@
       <c r="F673" s="6" t="n"/>
       <c r="G673" s="6" t="n"/>
       <c r="H673" s="6" t="n"/>
-      <c r="I673" s="6" t="n"/>
     </row>
     <row r="674">
       <c r="A674" s="6" t="n"/>
@@ -16403,7 +15705,6 @@
       <c r="F674" s="6" t="n"/>
       <c r="G674" s="6" t="n"/>
       <c r="H674" s="6" t="n"/>
-      <c r="I674" s="6" t="n"/>
     </row>
     <row r="675">
       <c r="A675" s="6" t="n"/>
@@ -16414,7 +15715,6 @@
       <c r="F675" s="6" t="n"/>
       <c r="G675" s="6" t="n"/>
       <c r="H675" s="6" t="n"/>
-      <c r="I675" s="6" t="n"/>
     </row>
     <row r="676">
       <c r="A676" s="6" t="n"/>
@@ -16425,7 +15725,6 @@
       <c r="F676" s="6" t="n"/>
       <c r="G676" s="6" t="n"/>
       <c r="H676" s="6" t="n"/>
-      <c r="I676" s="6" t="n"/>
     </row>
     <row r="677">
       <c r="A677" s="6" t="n"/>
@@ -16436,7 +15735,6 @@
       <c r="F677" s="6" t="n"/>
       <c r="G677" s="6" t="n"/>
       <c r="H677" s="6" t="n"/>
-      <c r="I677" s="6" t="n"/>
     </row>
     <row r="678">
       <c r="A678" s="6" t="n"/>
@@ -16447,7 +15745,6 @@
       <c r="F678" s="6" t="n"/>
       <c r="G678" s="6" t="n"/>
       <c r="H678" s="6" t="n"/>
-      <c r="I678" s="6" t="n"/>
     </row>
     <row r="679">
       <c r="A679" s="6" t="n"/>
@@ -16458,7 +15755,6 @@
       <c r="F679" s="6" t="n"/>
       <c r="G679" s="6" t="n"/>
       <c r="H679" s="6" t="n"/>
-      <c r="I679" s="6" t="n"/>
     </row>
     <row r="680">
       <c r="A680" s="6" t="n"/>
@@ -16469,7 +15765,6 @@
       <c r="F680" s="6" t="n"/>
       <c r="G680" s="6" t="n"/>
       <c r="H680" s="6" t="n"/>
-      <c r="I680" s="6" t="n"/>
     </row>
     <row r="681">
       <c r="A681" s="6" t="n"/>
@@ -16480,7 +15775,6 @@
       <c r="F681" s="6" t="n"/>
       <c r="G681" s="6" t="n"/>
       <c r="H681" s="6" t="n"/>
-      <c r="I681" s="6" t="n"/>
     </row>
     <row r="682">
       <c r="A682" s="6" t="n"/>
@@ -16491,7 +15785,6 @@
       <c r="F682" s="6" t="n"/>
       <c r="G682" s="6" t="n"/>
       <c r="H682" s="6" t="n"/>
-      <c r="I682" s="6" t="n"/>
     </row>
     <row r="683">
       <c r="A683" s="6" t="n"/>
@@ -16502,7 +15795,6 @@
       <c r="F683" s="6" t="n"/>
       <c r="G683" s="6" t="n"/>
       <c r="H683" s="6" t="n"/>
-      <c r="I683" s="6" t="n"/>
     </row>
     <row r="684">
       <c r="A684" s="6" t="n"/>
@@ -16513,7 +15805,6 @@
       <c r="F684" s="6" t="n"/>
       <c r="G684" s="6" t="n"/>
       <c r="H684" s="6" t="n"/>
-      <c r="I684" s="6" t="n"/>
     </row>
     <row r="685">
       <c r="A685" s="6" t="n"/>
@@ -16524,7 +15815,6 @@
       <c r="F685" s="6" t="n"/>
       <c r="G685" s="6" t="n"/>
       <c r="H685" s="6" t="n"/>
-      <c r="I685" s="6" t="n"/>
     </row>
     <row r="686">
       <c r="A686" s="6" t="n"/>
@@ -16535,7 +15825,6 @@
       <c r="F686" s="6" t="n"/>
       <c r="G686" s="6" t="n"/>
       <c r="H686" s="6" t="n"/>
-      <c r="I686" s="6" t="n"/>
     </row>
     <row r="687">
       <c r="A687" s="6" t="n"/>
@@ -16546,7 +15835,6 @@
       <c r="F687" s="6" t="n"/>
       <c r="G687" s="6" t="n"/>
       <c r="H687" s="6" t="n"/>
-      <c r="I687" s="6" t="n"/>
     </row>
     <row r="688">
       <c r="A688" s="6" t="n"/>
@@ -16557,7 +15845,6 @@
       <c r="F688" s="6" t="n"/>
       <c r="G688" s="6" t="n"/>
       <c r="H688" s="6" t="n"/>
-      <c r="I688" s="6" t="n"/>
     </row>
     <row r="689">
       <c r="A689" s="6" t="n"/>
@@ -16568,7 +15855,6 @@
       <c r="F689" s="6" t="n"/>
       <c r="G689" s="6" t="n"/>
       <c r="H689" s="6" t="n"/>
-      <c r="I689" s="6" t="n"/>
     </row>
     <row r="690">
       <c r="A690" s="6" t="n"/>
@@ -16579,7 +15865,6 @@
       <c r="F690" s="6" t="n"/>
       <c r="G690" s="6" t="n"/>
       <c r="H690" s="6" t="n"/>
-      <c r="I690" s="6" t="n"/>
     </row>
     <row r="691">
       <c r="A691" s="6" t="n"/>
@@ -16590,7 +15875,6 @@
       <c r="F691" s="6" t="n"/>
       <c r="G691" s="6" t="n"/>
       <c r="H691" s="6" t="n"/>
-      <c r="I691" s="6" t="n"/>
     </row>
     <row r="692">
       <c r="A692" s="6" t="n"/>
@@ -16601,7 +15885,6 @@
       <c r="F692" s="6" t="n"/>
       <c r="G692" s="6" t="n"/>
       <c r="H692" s="6" t="n"/>
-      <c r="I692" s="6" t="n"/>
     </row>
     <row r="693">
       <c r="A693" s="6" t="n"/>
@@ -16612,7 +15895,6 @@
       <c r="F693" s="6" t="n"/>
       <c r="G693" s="6" t="n"/>
       <c r="H693" s="6" t="n"/>
-      <c r="I693" s="6" t="n"/>
     </row>
     <row r="694">
       <c r="A694" s="6" t="n"/>
@@ -16623,7 +15905,6 @@
       <c r="F694" s="6" t="n"/>
       <c r="G694" s="6" t="n"/>
       <c r="H694" s="6" t="n"/>
-      <c r="I694" s="6" t="n"/>
     </row>
     <row r="695">
       <c r="A695" s="6" t="n"/>
@@ -16634,7 +15915,6 @@
       <c r="F695" s="6" t="n"/>
       <c r="G695" s="6" t="n"/>
       <c r="H695" s="6" t="n"/>
-      <c r="I695" s="6" t="n"/>
     </row>
     <row r="696">
       <c r="A696" s="6" t="n"/>
@@ -16645,7 +15925,6 @@
       <c r="F696" s="6" t="n"/>
       <c r="G696" s="6" t="n"/>
       <c r="H696" s="6" t="n"/>
-      <c r="I696" s="6" t="n"/>
     </row>
     <row r="697">
       <c r="A697" s="6" t="n"/>
@@ -16656,7 +15935,6 @@
       <c r="F697" s="6" t="n"/>
       <c r="G697" s="6" t="n"/>
       <c r="H697" s="6" t="n"/>
-      <c r="I697" s="6" t="n"/>
     </row>
     <row r="698">
       <c r="A698" s="6" t="n"/>
@@ -16667,7 +15945,6 @@
       <c r="F698" s="6" t="n"/>
       <c r="G698" s="6" t="n"/>
       <c r="H698" s="6" t="n"/>
-      <c r="I698" s="6" t="n"/>
     </row>
     <row r="699">
       <c r="A699" s="6" t="n"/>
@@ -16678,7 +15955,6 @@
       <c r="F699" s="6" t="n"/>
       <c r="G699" s="6" t="n"/>
       <c r="H699" s="6" t="n"/>
-      <c r="I699" s="6" t="n"/>
     </row>
     <row r="700">
       <c r="A700" s="6" t="n"/>
@@ -16689,7 +15965,6 @@
       <c r="F700" s="6" t="n"/>
       <c r="G700" s="6" t="n"/>
       <c r="H700" s="6" t="n"/>
-      <c r="I700" s="6" t="n"/>
     </row>
     <row r="701">
       <c r="A701" s="6" t="n"/>
@@ -16700,7 +15975,6 @@
       <c r="F701" s="6" t="n"/>
       <c r="G701" s="6" t="n"/>
       <c r="H701" s="6" t="n"/>
-      <c r="I701" s="6" t="n"/>
     </row>
     <row r="702">
       <c r="A702" s="6" t="n"/>
@@ -16711,7 +15985,6 @@
       <c r="F702" s="6" t="n"/>
       <c r="G702" s="6" t="n"/>
       <c r="H702" s="6" t="n"/>
-      <c r="I702" s="6" t="n"/>
     </row>
     <row r="703">
       <c r="A703" s="6" t="n"/>
@@ -16722,7 +15995,6 @@
       <c r="F703" s="6" t="n"/>
       <c r="G703" s="6" t="n"/>
       <c r="H703" s="6" t="n"/>
-      <c r="I703" s="6" t="n"/>
     </row>
     <row r="704">
       <c r="A704" s="6" t="n"/>
@@ -16733,7 +16005,6 @@
       <c r="F704" s="6" t="n"/>
       <c r="G704" s="6" t="n"/>
       <c r="H704" s="6" t="n"/>
-      <c r="I704" s="6" t="n"/>
     </row>
     <row r="705">
       <c r="A705" s="6" t="n"/>
@@ -16744,7 +16015,6 @@
       <c r="F705" s="6" t="n"/>
       <c r="G705" s="6" t="n"/>
       <c r="H705" s="6" t="n"/>
-      <c r="I705" s="6" t="n"/>
     </row>
     <row r="706">
       <c r="A706" s="6" t="n"/>
@@ -16755,7 +16025,6 @@
       <c r="F706" s="6" t="n"/>
       <c r="G706" s="6" t="n"/>
       <c r="H706" s="6" t="n"/>
-      <c r="I706" s="6" t="n"/>
     </row>
     <row r="707">
       <c r="A707" s="6" t="n"/>
@@ -16766,7 +16035,6 @@
       <c r="F707" s="6" t="n"/>
       <c r="G707" s="6" t="n"/>
       <c r="H707" s="6" t="n"/>
-      <c r="I707" s="6" t="n"/>
     </row>
     <row r="708">
       <c r="A708" s="6" t="n"/>
@@ -16777,7 +16045,6 @@
       <c r="F708" s="6" t="n"/>
       <c r="G708" s="6" t="n"/>
       <c r="H708" s="6" t="n"/>
-      <c r="I708" s="6" t="n"/>
     </row>
     <row r="709">
       <c r="A709" s="6" t="n"/>
@@ -16788,7 +16055,6 @@
       <c r="F709" s="6" t="n"/>
       <c r="G709" s="6" t="n"/>
       <c r="H709" s="6" t="n"/>
-      <c r="I709" s="6" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="6" t="n"/>
@@ -16799,7 +16065,6 @@
       <c r="F710" s="6" t="n"/>
       <c r="G710" s="6" t="n"/>
       <c r="H710" s="6" t="n"/>
-      <c r="I710" s="6" t="n"/>
     </row>
     <row r="711">
       <c r="A711" s="6" t="n"/>
@@ -16810,7 +16075,6 @@
       <c r="F711" s="6" t="n"/>
       <c r="G711" s="6" t="n"/>
       <c r="H711" s="6" t="n"/>
-      <c r="I711" s="6" t="n"/>
     </row>
     <row r="712">
       <c r="A712" s="6" t="n"/>
@@ -16821,7 +16085,6 @@
       <c r="F712" s="6" t="n"/>
       <c r="G712" s="6" t="n"/>
       <c r="H712" s="6" t="n"/>
-      <c r="I712" s="6" t="n"/>
     </row>
     <row r="713">
       <c r="A713" s="6" t="n"/>
@@ -16832,7 +16095,6 @@
       <c r="F713" s="6" t="n"/>
       <c r="G713" s="6" t="n"/>
       <c r="H713" s="6" t="n"/>
-      <c r="I713" s="6" t="n"/>
     </row>
     <row r="714">
       <c r="A714" s="6" t="n"/>
@@ -16843,7 +16105,6 @@
       <c r="F714" s="6" t="n"/>
       <c r="G714" s="6" t="n"/>
       <c r="H714" s="6" t="n"/>
-      <c r="I714" s="6" t="n"/>
     </row>
     <row r="715">
       <c r="A715" s="6" t="n"/>
@@ -16854,7 +16115,6 @@
       <c r="F715" s="6" t="n"/>
       <c r="G715" s="6" t="n"/>
       <c r="H715" s="6" t="n"/>
-      <c r="I715" s="6" t="n"/>
     </row>
     <row r="716">
       <c r="A716" s="6" t="n"/>
@@ -16865,7 +16125,6 @@
       <c r="F716" s="6" t="n"/>
       <c r="G716" s="6" t="n"/>
       <c r="H716" s="6" t="n"/>
-      <c r="I716" s="6" t="n"/>
     </row>
     <row r="717">
       <c r="A717" s="6" t="n"/>
@@ -16876,7 +16135,6 @@
       <c r="F717" s="6" t="n"/>
       <c r="G717" s="6" t="n"/>
       <c r="H717" s="6" t="n"/>
-      <c r="I717" s="6" t="n"/>
     </row>
     <row r="718">
       <c r="A718" s="6" t="n"/>
@@ -16887,7 +16145,6 @@
       <c r="F718" s="6" t="n"/>
       <c r="G718" s="6" t="n"/>
       <c r="H718" s="6" t="n"/>
-      <c r="I718" s="6" t="n"/>
     </row>
     <row r="719">
       <c r="A719" s="6" t="n"/>
@@ -16898,7 +16155,6 @@
       <c r="F719" s="6" t="n"/>
       <c r="G719" s="6" t="n"/>
       <c r="H719" s="6" t="n"/>
-      <c r="I719" s="6" t="n"/>
     </row>
     <row r="720">
       <c r="A720" s="6" t="n"/>
@@ -16909,7 +16165,6 @@
       <c r="F720" s="6" t="n"/>
       <c r="G720" s="6" t="n"/>
       <c r="H720" s="6" t="n"/>
-      <c r="I720" s="6" t="n"/>
     </row>
     <row r="721">
       <c r="A721" s="6" t="n"/>
@@ -16920,7 +16175,6 @@
       <c r="F721" s="6" t="n"/>
       <c r="G721" s="6" t="n"/>
       <c r="H721" s="6" t="n"/>
-      <c r="I721" s="6" t="n"/>
     </row>
     <row r="722">
       <c r="A722" s="6" t="n"/>
@@ -16931,7 +16185,6 @@
       <c r="F722" s="6" t="n"/>
       <c r="G722" s="6" t="n"/>
       <c r="H722" s="6" t="n"/>
-      <c r="I722" s="6" t="n"/>
     </row>
     <row r="723">
       <c r="A723" s="6" t="n"/>
@@ -16942,7 +16195,6 @@
       <c r="F723" s="6" t="n"/>
       <c r="G723" s="6" t="n"/>
       <c r="H723" s="6" t="n"/>
-      <c r="I723" s="6" t="n"/>
     </row>
     <row r="724">
       <c r="A724" s="6" t="n"/>
@@ -16953,7 +16205,6 @@
       <c r="F724" s="6" t="n"/>
       <c r="G724" s="6" t="n"/>
       <c r="H724" s="6" t="n"/>
-      <c r="I724" s="6" t="n"/>
     </row>
     <row r="725">
       <c r="A725" s="6" t="n"/>
@@ -16964,7 +16215,6 @@
       <c r="F725" s="6" t="n"/>
       <c r="G725" s="6" t="n"/>
       <c r="H725" s="6" t="n"/>
-      <c r="I725" s="6" t="n"/>
     </row>
     <row r="726">
       <c r="A726" s="6" t="n"/>
@@ -16975,7 +16225,6 @@
       <c r="F726" s="6" t="n"/>
       <c r="G726" s="6" t="n"/>
       <c r="H726" s="6" t="n"/>
-      <c r="I726" s="6" t="n"/>
     </row>
     <row r="727">
       <c r="A727" s="6" t="n"/>
@@ -16986,7 +16235,6 @@
       <c r="F727" s="6" t="n"/>
       <c r="G727" s="6" t="n"/>
       <c r="H727" s="6" t="n"/>
-      <c r="I727" s="6" t="n"/>
     </row>
     <row r="728">
       <c r="A728" s="6" t="n"/>
@@ -16997,7 +16245,6 @@
       <c r="F728" s="6" t="n"/>
       <c r="G728" s="6" t="n"/>
       <c r="H728" s="6" t="n"/>
-      <c r="I728" s="6" t="n"/>
     </row>
     <row r="729">
       <c r="A729" s="6" t="n"/>
@@ -17008,7 +16255,6 @@
       <c r="F729" s="6" t="n"/>
       <c r="G729" s="6" t="n"/>
       <c r="H729" s="6" t="n"/>
-      <c r="I729" s="6" t="n"/>
     </row>
     <row r="730">
       <c r="A730" s="6" t="n"/>
@@ -17019,7 +16265,6 @@
       <c r="F730" s="6" t="n"/>
       <c r="G730" s="6" t="n"/>
       <c r="H730" s="6" t="n"/>
-      <c r="I730" s="6" t="n"/>
     </row>
     <row r="731">
       <c r="A731" s="6" t="n"/>
@@ -17030,7 +16275,6 @@
       <c r="F731" s="6" t="n"/>
       <c r="G731" s="6" t="n"/>
       <c r="H731" s="6" t="n"/>
-      <c r="I731" s="6" t="n"/>
     </row>
     <row r="732">
       <c r="A732" s="6" t="n"/>
@@ -17041,7 +16285,6 @@
       <c r="F732" s="6" t="n"/>
       <c r="G732" s="6" t="n"/>
       <c r="H732" s="6" t="n"/>
-      <c r="I732" s="6" t="n"/>
     </row>
     <row r="733">
       <c r="A733" s="6" t="n"/>
@@ -17052,7 +16295,6 @@
       <c r="F733" s="6" t="n"/>
       <c r="G733" s="6" t="n"/>
       <c r="H733" s="6" t="n"/>
-      <c r="I733" s="6" t="n"/>
     </row>
     <row r="734">
       <c r="A734" s="6" t="n"/>
@@ -17063,7 +16305,6 @@
       <c r="F734" s="6" t="n"/>
       <c r="G734" s="6" t="n"/>
       <c r="H734" s="6" t="n"/>
-      <c r="I734" s="6" t="n"/>
     </row>
     <row r="735">
       <c r="A735" s="6" t="n"/>
@@ -17074,7 +16315,6 @@
       <c r="F735" s="6" t="n"/>
       <c r="G735" s="6" t="n"/>
       <c r="H735" s="6" t="n"/>
-      <c r="I735" s="6" t="n"/>
     </row>
     <row r="736">
       <c r="A736" s="6" t="n"/>
@@ -17085,7 +16325,6 @@
       <c r="F736" s="6" t="n"/>
       <c r="G736" s="6" t="n"/>
       <c r="H736" s="6" t="n"/>
-      <c r="I736" s="6" t="n"/>
     </row>
     <row r="737">
       <c r="A737" s="6" t="n"/>
@@ -17096,7 +16335,6 @@
       <c r="F737" s="6" t="n"/>
       <c r="G737" s="6" t="n"/>
       <c r="H737" s="6" t="n"/>
-      <c r="I737" s="6" t="n"/>
     </row>
     <row r="738">
       <c r="A738" s="6" t="n"/>
@@ -17107,7 +16345,6 @@
       <c r="F738" s="6" t="n"/>
       <c r="G738" s="6" t="n"/>
       <c r="H738" s="6" t="n"/>
-      <c r="I738" s="6" t="n"/>
     </row>
     <row r="739">
       <c r="A739" s="6" t="n"/>
@@ -17118,7 +16355,6 @@
       <c r="F739" s="6" t="n"/>
       <c r="G739" s="6" t="n"/>
       <c r="H739" s="6" t="n"/>
-      <c r="I739" s="6" t="n"/>
     </row>
     <row r="740">
       <c r="A740" s="6" t="n"/>
@@ -17129,7 +16365,6 @@
       <c r="F740" s="6" t="n"/>
       <c r="G740" s="6" t="n"/>
       <c r="H740" s="6" t="n"/>
-      <c r="I740" s="6" t="n"/>
     </row>
     <row r="741">
       <c r="A741" s="6" t="n"/>
@@ -17140,7 +16375,6 @@
       <c r="F741" s="6" t="n"/>
       <c r="G741" s="6" t="n"/>
       <c r="H741" s="6" t="n"/>
-      <c r="I741" s="6" t="n"/>
     </row>
     <row r="742">
       <c r="A742" s="6" t="n"/>
@@ -17151,7 +16385,6 @@
       <c r="F742" s="6" t="n"/>
       <c r="G742" s="6" t="n"/>
       <c r="H742" s="6" t="n"/>
-      <c r="I742" s="6" t="n"/>
     </row>
     <row r="743">
       <c r="A743" s="6" t="n"/>
@@ -17162,7 +16395,6 @@
       <c r="F743" s="6" t="n"/>
       <c r="G743" s="6" t="n"/>
       <c r="H743" s="6" t="n"/>
-      <c r="I743" s="6" t="n"/>
     </row>
     <row r="744">
       <c r="A744" s="6" t="n"/>
@@ -17173,7 +16405,6 @@
       <c r="F744" s="6" t="n"/>
       <c r="G744" s="6" t="n"/>
       <c r="H744" s="6" t="n"/>
-      <c r="I744" s="6" t="n"/>
     </row>
     <row r="745">
       <c r="A745" s="6" t="n"/>
@@ -17184,7 +16415,6 @@
       <c r="F745" s="6" t="n"/>
       <c r="G745" s="6" t="n"/>
       <c r="H745" s="6" t="n"/>
-      <c r="I745" s="6" t="n"/>
     </row>
     <row r="746">
       <c r="A746" s="6" t="n"/>
@@ -17195,7 +16425,6 @@
       <c r="F746" s="6" t="n"/>
       <c r="G746" s="6" t="n"/>
       <c r="H746" s="6" t="n"/>
-      <c r="I746" s="6" t="n"/>
     </row>
     <row r="747">
       <c r="A747" s="6" t="n"/>
@@ -17206,7 +16435,6 @@
       <c r="F747" s="6" t="n"/>
       <c r="G747" s="6" t="n"/>
       <c r="H747" s="6" t="n"/>
-      <c r="I747" s="6" t="n"/>
     </row>
     <row r="748">
       <c r="A748" s="6" t="n"/>
@@ -17217,7 +16445,6 @@
       <c r="F748" s="6" t="n"/>
       <c r="G748" s="6" t="n"/>
       <c r="H748" s="6" t="n"/>
-      <c r="I748" s="6" t="n"/>
     </row>
     <row r="749">
       <c r="A749" s="6" t="n"/>
@@ -17228,7 +16455,6 @@
       <c r="F749" s="6" t="n"/>
       <c r="G749" s="6" t="n"/>
       <c r="H749" s="6" t="n"/>
-      <c r="I749" s="6" t="n"/>
     </row>
     <row r="750">
       <c r="A750" s="6" t="n"/>
@@ -17239,7 +16465,6 @@
       <c r="F750" s="6" t="n"/>
       <c r="G750" s="6" t="n"/>
       <c r="H750" s="6" t="n"/>
-      <c r="I750" s="6" t="n"/>
     </row>
     <row r="751">
       <c r="A751" s="6" t="n"/>
@@ -17250,7 +16475,6 @@
       <c r="F751" s="6" t="n"/>
       <c r="G751" s="6" t="n"/>
       <c r="H751" s="6" t="n"/>
-      <c r="I751" s="6" t="n"/>
     </row>
     <row r="752">
       <c r="A752" s="6" t="n"/>
@@ -17261,7 +16485,6 @@
       <c r="F752" s="6" t="n"/>
       <c r="G752" s="6" t="n"/>
       <c r="H752" s="6" t="n"/>
-      <c r="I752" s="6" t="n"/>
     </row>
     <row r="753">
       <c r="A753" s="6" t="n"/>
@@ -17272,7 +16495,6 @@
       <c r="F753" s="6" t="n"/>
       <c r="G753" s="6" t="n"/>
       <c r="H753" s="6" t="n"/>
-      <c r="I753" s="6" t="n"/>
     </row>
     <row r="754">
       <c r="A754" s="6" t="n"/>
@@ -17283,7 +16505,6 @@
       <c r="F754" s="6" t="n"/>
       <c r="G754" s="6" t="n"/>
       <c r="H754" s="6" t="n"/>
-      <c r="I754" s="6" t="n"/>
     </row>
     <row r="755">
       <c r="A755" s="6" t="n"/>
@@ -17294,7 +16515,6 @@
       <c r="F755" s="6" t="n"/>
       <c r="G755" s="6" t="n"/>
       <c r="H755" s="6" t="n"/>
-      <c r="I755" s="6" t="n"/>
     </row>
     <row r="756">
       <c r="A756" s="6" t="n"/>
@@ -17305,7 +16525,6 @@
       <c r="F756" s="6" t="n"/>
       <c r="G756" s="6" t="n"/>
       <c r="H756" s="6" t="n"/>
-      <c r="I756" s="6" t="n"/>
     </row>
     <row r="757">
       <c r="A757" s="6" t="n"/>
@@ -17316,7 +16535,6 @@
       <c r="F757" s="6" t="n"/>
       <c r="G757" s="6" t="n"/>
       <c r="H757" s="6" t="n"/>
-      <c r="I757" s="6" t="n"/>
     </row>
     <row r="758">
       <c r="A758" s="6" t="n"/>
@@ -17327,7 +16545,6 @@
       <c r="F758" s="6" t="n"/>
       <c r="G758" s="6" t="n"/>
       <c r="H758" s="6" t="n"/>
-      <c r="I758" s="6" t="n"/>
     </row>
     <row r="759">
       <c r="A759" s="6" t="n"/>
@@ -17338,7 +16555,6 @@
       <c r="F759" s="6" t="n"/>
       <c r="G759" s="6" t="n"/>
       <c r="H759" s="6" t="n"/>
-      <c r="I759" s="6" t="n"/>
     </row>
     <row r="760">
       <c r="A760" s="6" t="n"/>
@@ -17349,7 +16565,6 @@
       <c r="F760" s="6" t="n"/>
       <c r="G760" s="6" t="n"/>
       <c r="H760" s="6" t="n"/>
-      <c r="I760" s="6" t="n"/>
     </row>
     <row r="761">
       <c r="A761" s="6" t="n"/>
@@ -17360,7 +16575,6 @@
       <c r="F761" s="6" t="n"/>
       <c r="G761" s="6" t="n"/>
       <c r="H761" s="6" t="n"/>
-      <c r="I761" s="6" t="n"/>
     </row>
     <row r="762">
       <c r="A762" s="6" t="n"/>
@@ -17371,7 +16585,6 @@
       <c r="F762" s="6" t="n"/>
       <c r="G762" s="6" t="n"/>
       <c r="H762" s="6" t="n"/>
-      <c r="I762" s="6" t="n"/>
     </row>
     <row r="763">
       <c r="A763" s="6" t="n"/>
@@ -17382,7 +16595,6 @@
       <c r="F763" s="6" t="n"/>
       <c r="G763" s="6" t="n"/>
       <c r="H763" s="6" t="n"/>
-      <c r="I763" s="6" t="n"/>
     </row>
     <row r="764">
       <c r="A764" s="6" t="n"/>
@@ -17393,7 +16605,6 @@
       <c r="F764" s="6" t="n"/>
       <c r="G764" s="6" t="n"/>
       <c r="H764" s="6" t="n"/>
-      <c r="I764" s="6" t="n"/>
     </row>
     <row r="765">
       <c r="A765" s="6" t="n"/>
@@ -17404,7 +16615,6 @@
       <c r="F765" s="6" t="n"/>
       <c r="G765" s="6" t="n"/>
       <c r="H765" s="6" t="n"/>
-      <c r="I765" s="6" t="n"/>
     </row>
     <row r="766">
       <c r="A766" s="6" t="n"/>
@@ -17415,7 +16625,6 @@
       <c r="F766" s="6" t="n"/>
       <c r="G766" s="6" t="n"/>
       <c r="H766" s="6" t="n"/>
-      <c r="I766" s="6" t="n"/>
     </row>
     <row r="767">
       <c r="A767" s="6" t="n"/>
@@ -17426,7 +16635,6 @@
       <c r="F767" s="6" t="n"/>
       <c r="G767" s="6" t="n"/>
       <c r="H767" s="6" t="n"/>
-      <c r="I767" s="6" t="n"/>
     </row>
     <row r="768">
       <c r="A768" s="6" t="n"/>
@@ -17437,7 +16645,6 @@
       <c r="F768" s="6" t="n"/>
       <c r="G768" s="6" t="n"/>
       <c r="H768" s="6" t="n"/>
-      <c r="I768" s="6" t="n"/>
     </row>
     <row r="769">
       <c r="A769" s="6" t="n"/>
@@ -17448,7 +16655,6 @@
       <c r="F769" s="6" t="n"/>
       <c r="G769" s="6" t="n"/>
       <c r="H769" s="6" t="n"/>
-      <c r="I769" s="6" t="n"/>
     </row>
     <row r="770">
       <c r="A770" s="6" t="n"/>
@@ -17459,7 +16665,6 @@
       <c r="F770" s="6" t="n"/>
       <c r="G770" s="6" t="n"/>
       <c r="H770" s="6" t="n"/>
-      <c r="I770" s="6" t="n"/>
     </row>
     <row r="771">
       <c r="A771" s="6" t="n"/>
@@ -17470,7 +16675,6 @@
       <c r="F771" s="6" t="n"/>
       <c r="G771" s="6" t="n"/>
       <c r="H771" s="6" t="n"/>
-      <c r="I771" s="6" t="n"/>
     </row>
     <row r="772">
       <c r="A772" s="6" t="n"/>
@@ -17481,7 +16685,6 @@
       <c r="F772" s="6" t="n"/>
       <c r="G772" s="6" t="n"/>
       <c r="H772" s="6" t="n"/>
-      <c r="I772" s="6" t="n"/>
     </row>
     <row r="773">
       <c r="A773" s="6" t="n"/>
@@ -17492,7 +16695,6 @@
       <c r="F773" s="6" t="n"/>
       <c r="G773" s="6" t="n"/>
       <c r="H773" s="6" t="n"/>
-      <c r="I773" s="6" t="n"/>
     </row>
     <row r="774">
       <c r="A774" s="6" t="n"/>
@@ -17503,7 +16705,6 @@
       <c r="F774" s="6" t="n"/>
       <c r="G774" s="6" t="n"/>
       <c r="H774" s="6" t="n"/>
-      <c r="I774" s="6" t="n"/>
     </row>
     <row r="775">
       <c r="A775" s="6" t="n"/>
@@ -17514,7 +16715,6 @@
       <c r="F775" s="6" t="n"/>
       <c r="G775" s="6" t="n"/>
       <c r="H775" s="6" t="n"/>
-      <c r="I775" s="6" t="n"/>
     </row>
     <row r="776">
       <c r="A776" s="6" t="n"/>
@@ -17525,7 +16725,6 @@
       <c r="F776" s="6" t="n"/>
       <c r="G776" s="6" t="n"/>
       <c r="H776" s="6" t="n"/>
-      <c r="I776" s="6" t="n"/>
     </row>
     <row r="777">
       <c r="A777" s="6" t="n"/>
@@ -17536,7 +16735,6 @@
       <c r="F777" s="6" t="n"/>
       <c r="G777" s="6" t="n"/>
       <c r="H777" s="6" t="n"/>
-      <c r="I777" s="6" t="n"/>
     </row>
     <row r="778">
       <c r="A778" s="6" t="n"/>
@@ -17547,7 +16745,6 @@
       <c r="F778" s="6" t="n"/>
       <c r="G778" s="6" t="n"/>
       <c r="H778" s="6" t="n"/>
-      <c r="I778" s="6" t="n"/>
     </row>
     <row r="779">
       <c r="A779" s="6" t="n"/>
@@ -17558,7 +16755,6 @@
       <c r="F779" s="6" t="n"/>
       <c r="G779" s="6" t="n"/>
       <c r="H779" s="6" t="n"/>
-      <c r="I779" s="6" t="n"/>
     </row>
     <row r="780">
       <c r="A780" s="6" t="n"/>
@@ -17569,7 +16765,6 @@
       <c r="F780" s="6" t="n"/>
       <c r="G780" s="6" t="n"/>
       <c r="H780" s="6" t="n"/>
-      <c r="I780" s="6" t="n"/>
     </row>
     <row r="781">
       <c r="A781" s="6" t="n"/>
@@ -17580,7 +16775,6 @@
       <c r="F781" s="6" t="n"/>
       <c r="G781" s="6" t="n"/>
       <c r="H781" s="6" t="n"/>
-      <c r="I781" s="6" t="n"/>
     </row>
     <row r="782">
       <c r="A782" s="6" t="n"/>
@@ -17591,7 +16785,6 @@
       <c r="F782" s="6" t="n"/>
       <c r="G782" s="6" t="n"/>
       <c r="H782" s="6" t="n"/>
-      <c r="I782" s="6" t="n"/>
     </row>
     <row r="783">
       <c r="A783" s="6" t="n"/>
@@ -17602,7 +16795,6 @@
       <c r="F783" s="6" t="n"/>
       <c r="G783" s="6" t="n"/>
       <c r="H783" s="6" t="n"/>
-      <c r="I783" s="6" t="n"/>
     </row>
     <row r="784">
       <c r="A784" s="6" t="n"/>
@@ -17613,7 +16805,6 @@
       <c r="F784" s="6" t="n"/>
       <c r="G784" s="6" t="n"/>
       <c r="H784" s="6" t="n"/>
-      <c r="I784" s="6" t="n"/>
     </row>
     <row r="785">
       <c r="A785" s="6" t="n"/>
@@ -17624,7 +16815,6 @@
       <c r="F785" s="6" t="n"/>
       <c r="G785" s="6" t="n"/>
       <c r="H785" s="6" t="n"/>
-      <c r="I785" s="6" t="n"/>
     </row>
     <row r="786">
       <c r="A786" s="6" t="n"/>
@@ -17635,7 +16825,6 @@
       <c r="F786" s="6" t="n"/>
       <c r="G786" s="6" t="n"/>
       <c r="H786" s="6" t="n"/>
-      <c r="I786" s="6" t="n"/>
     </row>
     <row r="787">
       <c r="A787" s="6" t="n"/>
@@ -17646,7 +16835,6 @@
       <c r="F787" s="6" t="n"/>
       <c r="G787" s="6" t="n"/>
       <c r="H787" s="6" t="n"/>
-      <c r="I787" s="6" t="n"/>
     </row>
     <row r="788">
       <c r="A788" s="6" t="n"/>
@@ -17657,7 +16845,6 @@
       <c r="F788" s="6" t="n"/>
       <c r="G788" s="6" t="n"/>
       <c r="H788" s="6" t="n"/>
-      <c r="I788" s="6" t="n"/>
     </row>
     <row r="789">
       <c r="A789" s="6" t="n"/>
@@ -17668,7 +16855,6 @@
       <c r="F789" s="6" t="n"/>
       <c r="G789" s="6" t="n"/>
       <c r="H789" s="6" t="n"/>
-      <c r="I789" s="6" t="n"/>
     </row>
     <row r="790">
       <c r="A790" s="6" t="n"/>
@@ -17679,7 +16865,6 @@
       <c r="F790" s="6" t="n"/>
       <c r="G790" s="6" t="n"/>
       <c r="H790" s="6" t="n"/>
-      <c r="I790" s="6" t="n"/>
     </row>
     <row r="791">
       <c r="A791" s="6" t="n"/>
@@ -17690,7 +16875,6 @@
       <c r="F791" s="6" t="n"/>
       <c r="G791" s="6" t="n"/>
       <c r="H791" s="6" t="n"/>
-      <c r="I791" s="6" t="n"/>
     </row>
     <row r="792">
       <c r="A792" s="6" t="n"/>
@@ -17701,7 +16885,6 @@
       <c r="F792" s="6" t="n"/>
       <c r="G792" s="6" t="n"/>
       <c r="H792" s="6" t="n"/>
-      <c r="I792" s="6" t="n"/>
     </row>
     <row r="793">
       <c r="A793" s="6" t="n"/>
@@ -17712,7 +16895,6 @@
       <c r="F793" s="6" t="n"/>
       <c r="G793" s="6" t="n"/>
       <c r="H793" s="6" t="n"/>
-      <c r="I793" s="6" t="n"/>
     </row>
     <row r="794">
       <c r="A794" s="6" t="n"/>
@@ -17723,7 +16905,6 @@
       <c r="F794" s="6" t="n"/>
       <c r="G794" s="6" t="n"/>
       <c r="H794" s="6" t="n"/>
-      <c r="I794" s="6" t="n"/>
     </row>
     <row r="795">
       <c r="A795" s="6" t="n"/>
@@ -17734,7 +16915,6 @@
       <c r="F795" s="6" t="n"/>
       <c r="G795" s="6" t="n"/>
       <c r="H795" s="6" t="n"/>
-      <c r="I795" s="6" t="n"/>
     </row>
     <row r="796">
       <c r="A796" s="6" t="n"/>
@@ -17745,7 +16925,6 @@
       <c r="F796" s="6" t="n"/>
       <c r="G796" s="6" t="n"/>
       <c r="H796" s="6" t="n"/>
-      <c r="I796" s="6" t="n"/>
     </row>
     <row r="797">
       <c r="A797" s="6" t="n"/>
@@ -17756,7 +16935,6 @@
       <c r="F797" s="6" t="n"/>
       <c r="G797" s="6" t="n"/>
       <c r="H797" s="6" t="n"/>
-      <c r="I797" s="6" t="n"/>
     </row>
     <row r="798">
       <c r="A798" s="6" t="n"/>
@@ -17767,7 +16945,6 @@
       <c r="F798" s="6" t="n"/>
       <c r="G798" s="6" t="n"/>
       <c r="H798" s="6" t="n"/>
-      <c r="I798" s="6" t="n"/>
     </row>
     <row r="799">
       <c r="A799" s="6" t="n"/>
@@ -17778,7 +16955,6 @@
       <c r="F799" s="6" t="n"/>
       <c r="G799" s="6" t="n"/>
       <c r="H799" s="6" t="n"/>
-      <c r="I799" s="6" t="n"/>
     </row>
     <row r="800">
       <c r="A800" s="6" t="n"/>
@@ -17789,7 +16965,6 @@
       <c r="F800" s="6" t="n"/>
       <c r="G800" s="6" t="n"/>
       <c r="H800" s="6" t="n"/>
-      <c r="I800" s="6" t="n"/>
     </row>
     <row r="801">
       <c r="A801" s="6" t="n"/>
@@ -17800,7 +16975,6 @@
       <c r="F801" s="6" t="n"/>
       <c r="G801" s="6" t="n"/>
       <c r="H801" s="6" t="n"/>
-      <c r="I801" s="6" t="n"/>
     </row>
     <row r="802">
       <c r="A802" s="6" t="n"/>
@@ -17811,7 +16985,6 @@
       <c r="F802" s="6" t="n"/>
       <c r="G802" s="6" t="n"/>
       <c r="H802" s="6" t="n"/>
-      <c r="I802" s="6" t="n"/>
     </row>
     <row r="803">
       <c r="A803" s="6" t="n"/>
@@ -17822,7 +16995,6 @@
       <c r="F803" s="6" t="n"/>
       <c r="G803" s="6" t="n"/>
       <c r="H803" s="6" t="n"/>
-      <c r="I803" s="6" t="n"/>
     </row>
     <row r="804">
       <c r="A804" s="6" t="n"/>
@@ -17833,7 +17005,6 @@
       <c r="F804" s="6" t="n"/>
       <c r="G804" s="6" t="n"/>
       <c r="H804" s="6" t="n"/>
-      <c r="I804" s="6" t="n"/>
     </row>
     <row r="805">
       <c r="A805" s="6" t="n"/>
@@ -17844,7 +17015,6 @@
       <c r="F805" s="6" t="n"/>
       <c r="G805" s="6" t="n"/>
       <c r="H805" s="6" t="n"/>
-      <c r="I805" s="6" t="n"/>
     </row>
     <row r="806">
       <c r="A806" s="6" t="n"/>
@@ -17855,7 +17025,6 @@
       <c r="F806" s="6" t="n"/>
       <c r="G806" s="6" t="n"/>
       <c r="H806" s="6" t="n"/>
-      <c r="I806" s="6" t="n"/>
     </row>
     <row r="807">
       <c r="A807" s="6" t="n"/>
@@ -17866,7 +17035,6 @@
       <c r="F807" s="6" t="n"/>
       <c r="G807" s="6" t="n"/>
       <c r="H807" s="6" t="n"/>
-      <c r="I807" s="6" t="n"/>
     </row>
     <row r="808">
       <c r="A808" s="6" t="n"/>
@@ -17877,7 +17045,6 @@
       <c r="F808" s="6" t="n"/>
       <c r="G808" s="6" t="n"/>
       <c r="H808" s="6" t="n"/>
-      <c r="I808" s="6" t="n"/>
     </row>
     <row r="809">
       <c r="A809" s="6" t="n"/>
@@ -17888,7 +17055,6 @@
       <c r="F809" s="6" t="n"/>
       <c r="G809" s="6" t="n"/>
       <c r="H809" s="6" t="n"/>
-      <c r="I809" s="6" t="n"/>
     </row>
     <row r="810">
       <c r="A810" s="6" t="n"/>
@@ -17899,7 +17065,6 @@
       <c r="F810" s="6" t="n"/>
       <c r="G810" s="6" t="n"/>
       <c r="H810" s="6" t="n"/>
-      <c r="I810" s="6" t="n"/>
     </row>
     <row r="811">
       <c r="A811" s="6" t="n"/>
@@ -17910,7 +17075,6 @@
       <c r="F811" s="6" t="n"/>
       <c r="G811" s="6" t="n"/>
       <c r="H811" s="6" t="n"/>
-      <c r="I811" s="6" t="n"/>
     </row>
     <row r="812">
       <c r="A812" s="6" t="n"/>
@@ -17921,7 +17085,6 @@
       <c r="F812" s="6" t="n"/>
       <c r="G812" s="6" t="n"/>
       <c r="H812" s="6" t="n"/>
-      <c r="I812" s="6" t="n"/>
     </row>
     <row r="813">
       <c r="A813" s="6" t="n"/>
@@ -17932,7 +17095,6 @@
       <c r="F813" s="6" t="n"/>
       <c r="G813" s="6" t="n"/>
       <c r="H813" s="6" t="n"/>
-      <c r="I813" s="6" t="n"/>
     </row>
     <row r="814">
       <c r="A814" s="6" t="n"/>
@@ -17943,7 +17105,6 @@
       <c r="F814" s="6" t="n"/>
       <c r="G814" s="6" t="n"/>
       <c r="H814" s="6" t="n"/>
-      <c r="I814" s="6" t="n"/>
     </row>
     <row r="815">
       <c r="A815" s="6" t="n"/>
@@ -17954,7 +17115,6 @@
       <c r="F815" s="6" t="n"/>
       <c r="G815" s="6" t="n"/>
       <c r="H815" s="6" t="n"/>
-      <c r="I815" s="6" t="n"/>
     </row>
     <row r="816">
       <c r="A816" s="6" t="n"/>
@@ -17965,7 +17125,6 @@
       <c r="F816" s="6" t="n"/>
       <c r="G816" s="6" t="n"/>
       <c r="H816" s="6" t="n"/>
-      <c r="I816" s="6" t="n"/>
     </row>
     <row r="817">
       <c r="A817" s="6" t="n"/>
@@ -17976,7 +17135,6 @@
       <c r="F817" s="6" t="n"/>
       <c r="G817" s="6" t="n"/>
       <c r="H817" s="6" t="n"/>
-      <c r="I817" s="6" t="n"/>
     </row>
     <row r="818">
       <c r="A818" s="6" t="n"/>
@@ -17987,7 +17145,6 @@
       <c r="F818" s="6" t="n"/>
       <c r="G818" s="6" t="n"/>
       <c r="H818" s="6" t="n"/>
-      <c r="I818" s="6" t="n"/>
     </row>
     <row r="819">
       <c r="A819" s="6" t="n"/>
@@ -17998,7 +17155,6 @@
       <c r="F819" s="6" t="n"/>
       <c r="G819" s="6" t="n"/>
       <c r="H819" s="6" t="n"/>
-      <c r="I819" s="6" t="n"/>
     </row>
     <row r="820">
       <c r="A820" s="6" t="n"/>
@@ -18009,7 +17165,6 @@
       <c r="F820" s="6" t="n"/>
       <c r="G820" s="6" t="n"/>
       <c r="H820" s="6" t="n"/>
-      <c r="I820" s="6" t="n"/>
     </row>
     <row r="821">
       <c r="A821" s="6" t="n"/>
@@ -18020,7 +17175,6 @@
       <c r="F821" s="6" t="n"/>
       <c r="G821" s="6" t="n"/>
       <c r="H821" s="6" t="n"/>
-      <c r="I821" s="6" t="n"/>
     </row>
     <row r="822">
       <c r="A822" s="6" t="n"/>
@@ -18031,7 +17185,6 @@
       <c r="F822" s="6" t="n"/>
       <c r="G822" s="6" t="n"/>
       <c r="H822" s="6" t="n"/>
-      <c r="I822" s="6" t="n"/>
     </row>
     <row r="823">
       <c r="A823" s="6" t="n"/>
@@ -18042,7 +17195,6 @@
       <c r="F823" s="6" t="n"/>
       <c r="G823" s="6" t="n"/>
       <c r="H823" s="6" t="n"/>
-      <c r="I823" s="6" t="n"/>
     </row>
     <row r="824">
       <c r="A824" s="6" t="n"/>
@@ -18053,7 +17205,6 @@
       <c r="F824" s="6" t="n"/>
       <c r="G824" s="6" t="n"/>
       <c r="H824" s="6" t="n"/>
-      <c r="I824" s="6" t="n"/>
     </row>
     <row r="825">
       <c r="A825" s="6" t="n"/>
@@ -18064,7 +17215,6 @@
       <c r="F825" s="6" t="n"/>
       <c r="G825" s="6" t="n"/>
       <c r="H825" s="6" t="n"/>
-      <c r="I825" s="6" t="n"/>
     </row>
     <row r="826">
       <c r="A826" s="6" t="n"/>
@@ -18075,7 +17225,6 @@
       <c r="F826" s="6" t="n"/>
       <c r="G826" s="6" t="n"/>
       <c r="H826" s="6" t="n"/>
-      <c r="I826" s="6" t="n"/>
     </row>
     <row r="827">
       <c r="A827" s="6" t="n"/>
@@ -18086,7 +17235,6 @@
       <c r="F827" s="6" t="n"/>
       <c r="G827" s="6" t="n"/>
       <c r="H827" s="6" t="n"/>
-      <c r="I827" s="6" t="n"/>
     </row>
     <row r="828">
       <c r="A828" s="6" t="n"/>
@@ -18097,7 +17245,6 @@
       <c r="F828" s="6" t="n"/>
       <c r="G828" s="6" t="n"/>
       <c r="H828" s="6" t="n"/>
-      <c r="I828" s="6" t="n"/>
     </row>
     <row r="829">
       <c r="A829" s="6" t="n"/>
@@ -18108,7 +17255,6 @@
       <c r="F829" s="6" t="n"/>
       <c r="G829" s="6" t="n"/>
       <c r="H829" s="6" t="n"/>
-      <c r="I829" s="6" t="n"/>
     </row>
     <row r="830">
       <c r="A830" s="6" t="n"/>
@@ -18119,7 +17265,6 @@
       <c r="F830" s="6" t="n"/>
       <c r="G830" s="6" t="n"/>
       <c r="H830" s="6" t="n"/>
-      <c r="I830" s="6" t="n"/>
     </row>
     <row r="831">
       <c r="A831" s="6" t="n"/>
@@ -18130,7 +17275,6 @@
       <c r="F831" s="6" t="n"/>
       <c r="G831" s="6" t="n"/>
       <c r="H831" s="6" t="n"/>
-      <c r="I831" s="6" t="n"/>
     </row>
     <row r="832">
       <c r="A832" s="6" t="n"/>
@@ -18141,7 +17285,6 @@
       <c r="F832" s="6" t="n"/>
       <c r="G832" s="6" t="n"/>
       <c r="H832" s="6" t="n"/>
-      <c r="I832" s="6" t="n"/>
     </row>
     <row r="833">
       <c r="A833" s="6" t="n"/>
@@ -18152,7 +17295,6 @@
       <c r="F833" s="6" t="n"/>
       <c r="G833" s="6" t="n"/>
       <c r="H833" s="6" t="n"/>
-      <c r="I833" s="6" t="n"/>
     </row>
     <row r="834">
       <c r="A834" s="6" t="n"/>
@@ -18163,7 +17305,6 @@
       <c r="F834" s="6" t="n"/>
       <c r="G834" s="6" t="n"/>
       <c r="H834" s="6" t="n"/>
-      <c r="I834" s="6" t="n"/>
     </row>
     <row r="835">
       <c r="A835" s="6" t="n"/>
@@ -18174,7 +17315,6 @@
       <c r="F835" s="6" t="n"/>
       <c r="G835" s="6" t="n"/>
       <c r="H835" s="6" t="n"/>
-      <c r="I835" s="6" t="n"/>
     </row>
     <row r="836">
       <c r="A836" s="6" t="n"/>
@@ -18185,7 +17325,6 @@
       <c r="F836" s="6" t="n"/>
       <c r="G836" s="6" t="n"/>
       <c r="H836" s="6" t="n"/>
-      <c r="I836" s="6" t="n"/>
     </row>
     <row r="837">
       <c r="A837" s="6" t="n"/>
@@ -18196,7 +17335,6 @@
       <c r="F837" s="6" t="n"/>
       <c r="G837" s="6" t="n"/>
       <c r="H837" s="6" t="n"/>
-      <c r="I837" s="6" t="n"/>
     </row>
     <row r="838">
       <c r="A838" s="6" t="n"/>
@@ -18207,7 +17345,6 @@
       <c r="F838" s="6" t="n"/>
       <c r="G838" s="6" t="n"/>
       <c r="H838" s="6" t="n"/>
-      <c r="I838" s="6" t="n"/>
     </row>
     <row r="839">
       <c r="A839" s="6" t="n"/>
@@ -18218,7 +17355,6 @@
       <c r="F839" s="6" t="n"/>
       <c r="G839" s="6" t="n"/>
       <c r="H839" s="6" t="n"/>
-      <c r="I839" s="6" t="n"/>
     </row>
     <row r="840">
       <c r="A840" s="6" t="n"/>
@@ -18229,7 +17365,6 @@
       <c r="F840" s="6" t="n"/>
       <c r="G840" s="6" t="n"/>
       <c r="H840" s="6" t="n"/>
-      <c r="I840" s="6" t="n"/>
     </row>
     <row r="841">
       <c r="A841" s="6" t="n"/>
@@ -18240,7 +17375,6 @@
       <c r="F841" s="6" t="n"/>
       <c r="G841" s="6" t="n"/>
       <c r="H841" s="6" t="n"/>
-      <c r="I841" s="6" t="n"/>
     </row>
     <row r="842">
       <c r="A842" s="6" t="n"/>
@@ -18251,7 +17385,6 @@
       <c r="F842" s="6" t="n"/>
       <c r="G842" s="6" t="n"/>
       <c r="H842" s="6" t="n"/>
-      <c r="I842" s="6" t="n"/>
     </row>
     <row r="843">
       <c r="A843" s="6" t="n"/>
@@ -18262,7 +17395,6 @@
       <c r="F843" s="6" t="n"/>
       <c r="G843" s="6" t="n"/>
       <c r="H843" s="6" t="n"/>
-      <c r="I843" s="6" t="n"/>
     </row>
     <row r="844">
       <c r="A844" s="6" t="n"/>
@@ -18273,7 +17405,6 @@
       <c r="F844" s="6" t="n"/>
       <c r="G844" s="6" t="n"/>
       <c r="H844" s="6" t="n"/>
-      <c r="I844" s="6" t="n"/>
     </row>
     <row r="845">
       <c r="A845" s="6" t="n"/>
@@ -18284,7 +17415,6 @@
       <c r="F845" s="6" t="n"/>
       <c r="G845" s="6" t="n"/>
       <c r="H845" s="6" t="n"/>
-      <c r="I845" s="6" t="n"/>
     </row>
     <row r="846">
       <c r="A846" s="6" t="n"/>
@@ -18295,7 +17425,6 @@
       <c r="F846" s="6" t="n"/>
       <c r="G846" s="6" t="n"/>
       <c r="H846" s="6" t="n"/>
-      <c r="I846" s="6" t="n"/>
     </row>
     <row r="847">
       <c r="A847" s="6" t="n"/>
@@ -18306,7 +17435,6 @@
       <c r="F847" s="6" t="n"/>
       <c r="G847" s="6" t="n"/>
       <c r="H847" s="6" t="n"/>
-      <c r="I847" s="6" t="n"/>
     </row>
     <row r="848">
       <c r="A848" s="6" t="n"/>
@@ -18317,7 +17445,6 @@
       <c r="F848" s="6" t="n"/>
       <c r="G848" s="6" t="n"/>
       <c r="H848" s="6" t="n"/>
-      <c r="I848" s="6" t="n"/>
     </row>
     <row r="849">
       <c r="A849" s="6" t="n"/>
@@ -18328,7 +17455,6 @@
       <c r="F849" s="6" t="n"/>
       <c r="G849" s="6" t="n"/>
       <c r="H849" s="6" t="n"/>
-      <c r="I849" s="6" t="n"/>
     </row>
     <row r="850">
       <c r="A850" s="6" t="n"/>
@@ -18339,7 +17465,6 @@
       <c r="F850" s="6" t="n"/>
       <c r="G850" s="6" t="n"/>
       <c r="H850" s="6" t="n"/>
-      <c r="I850" s="6" t="n"/>
     </row>
     <row r="851">
       <c r="A851" s="6" t="n"/>
@@ -18350,7 +17475,6 @@
       <c r="F851" s="6" t="n"/>
       <c r="G851" s="6" t="n"/>
       <c r="H851" s="6" t="n"/>
-      <c r="I851" s="6" t="n"/>
     </row>
     <row r="852">
       <c r="A852" s="6" t="n"/>
@@ -18361,7 +17485,6 @@
       <c r="F852" s="6" t="n"/>
       <c r="G852" s="6" t="n"/>
       <c r="H852" s="6" t="n"/>
-      <c r="I852" s="6" t="n"/>
     </row>
     <row r="853">
       <c r="A853" s="6" t="n"/>
@@ -18372,7 +17495,6 @@
       <c r="F853" s="6" t="n"/>
       <c r="G853" s="6" t="n"/>
       <c r="H853" s="6" t="n"/>
-      <c r="I853" s="6" t="n"/>
     </row>
     <row r="854">
       <c r="A854" s="6" t="n"/>
@@ -18383,7 +17505,6 @@
       <c r="F854" s="6" t="n"/>
       <c r="G854" s="6" t="n"/>
       <c r="H854" s="6" t="n"/>
-      <c r="I854" s="6" t="n"/>
     </row>
     <row r="855">
       <c r="A855" s="6" t="n"/>
@@ -18394,7 +17515,6 @@
       <c r="F855" s="6" t="n"/>
       <c r="G855" s="6" t="n"/>
       <c r="H855" s="6" t="n"/>
-      <c r="I855" s="6" t="n"/>
     </row>
     <row r="856">
       <c r="A856" s="6" t="n"/>
@@ -18405,7 +17525,6 @@
       <c r="F856" s="6" t="n"/>
       <c r="G856" s="6" t="n"/>
       <c r="H856" s="6" t="n"/>
-      <c r="I856" s="6" t="n"/>
     </row>
     <row r="857">
       <c r="A857" s="6" t="n"/>
@@ -18416,7 +17535,6 @@
       <c r="F857" s="6" t="n"/>
       <c r="G857" s="6" t="n"/>
       <c r="H857" s="6" t="n"/>
-      <c r="I857" s="6" t="n"/>
     </row>
     <row r="858">
       <c r="A858" s="6" t="n"/>
@@ -18427,7 +17545,6 @@
       <c r="F858" s="6" t="n"/>
       <c r="G858" s="6" t="n"/>
       <c r="H858" s="6" t="n"/>
-      <c r="I858" s="6" t="n"/>
     </row>
     <row r="859">
       <c r="A859" s="6" t="n"/>
@@ -18438,7 +17555,6 @@
       <c r="F859" s="6" t="n"/>
       <c r="G859" s="6" t="n"/>
       <c r="H859" s="6" t="n"/>
-      <c r="I859" s="6" t="n"/>
     </row>
     <row r="860">
       <c r="A860" s="6" t="n"/>
@@ -18449,7 +17565,6 @@
       <c r="F860" s="6" t="n"/>
       <c r="G860" s="6" t="n"/>
       <c r="H860" s="6" t="n"/>
-      <c r="I860" s="6" t="n"/>
     </row>
     <row r="861">
       <c r="A861" s="6" t="n"/>
@@ -18460,7 +17575,6 @@
       <c r="F861" s="6" t="n"/>
       <c r="G861" s="6" t="n"/>
       <c r="H861" s="6" t="n"/>
-      <c r="I861" s="6" t="n"/>
     </row>
     <row r="862">
       <c r="A862" s="6" t="n"/>
@@ -18471,7 +17585,6 @@
       <c r="F862" s="6" t="n"/>
       <c r="G862" s="6" t="n"/>
       <c r="H862" s="6" t="n"/>
-      <c r="I862" s="6" t="n"/>
     </row>
     <row r="863">
       <c r="A863" s="6" t="n"/>
@@ -18482,7 +17595,6 @@
       <c r="F863" s="6" t="n"/>
       <c r="G863" s="6" t="n"/>
       <c r="H863" s="6" t="n"/>
-      <c r="I863" s="6" t="n"/>
     </row>
     <row r="864">
       <c r="A864" s="6" t="n"/>
@@ -18493,7 +17605,6 @@
       <c r="F864" s="6" t="n"/>
       <c r="G864" s="6" t="n"/>
       <c r="H864" s="6" t="n"/>
-      <c r="I864" s="6" t="n"/>
     </row>
     <row r="865">
       <c r="A865" s="6" t="n"/>
@@ -18504,7 +17615,6 @@
       <c r="F865" s="6" t="n"/>
       <c r="G865" s="6" t="n"/>
       <c r="H865" s="6" t="n"/>
-      <c r="I865" s="6" t="n"/>
     </row>
     <row r="866">
       <c r="A866" s="6" t="n"/>
@@ -18515,7 +17625,6 @@
       <c r="F866" s="6" t="n"/>
       <c r="G866" s="6" t="n"/>
       <c r="H866" s="6" t="n"/>
-      <c r="I866" s="6" t="n"/>
     </row>
     <row r="867">
       <c r="A867" s="6" t="n"/>
@@ -18526,7 +17635,6 @@
       <c r="F867" s="6" t="n"/>
       <c r="G867" s="6" t="n"/>
       <c r="H867" s="6" t="n"/>
-      <c r="I867" s="6" t="n"/>
     </row>
     <row r="868">
       <c r="A868" s="6" t="n"/>
@@ -18537,7 +17645,6 @@
       <c r="F868" s="6" t="n"/>
       <c r="G868" s="6" t="n"/>
       <c r="H868" s="6" t="n"/>
-      <c r="I868" s="6" t="n"/>
     </row>
     <row r="869">
       <c r="A869" s="6" t="n"/>
@@ -18548,7 +17655,6 @@
       <c r="F869" s="6" t="n"/>
       <c r="G869" s="6" t="n"/>
       <c r="H869" s="6" t="n"/>
-      <c r="I869" s="6" t="n"/>
     </row>
     <row r="870">
       <c r="A870" s="6" t="n"/>
@@ -18559,7 +17665,6 @@
       <c r="F870" s="6" t="n"/>
       <c r="G870" s="6" t="n"/>
       <c r="H870" s="6" t="n"/>
-      <c r="I870" s="6" t="n"/>
     </row>
     <row r="871">
       <c r="A871" s="6" t="n"/>
@@ -18570,7 +17675,6 @@
       <c r="F871" s="6" t="n"/>
       <c r="G871" s="6" t="n"/>
       <c r="H871" s="6" t="n"/>
-      <c r="I871" s="6" t="n"/>
     </row>
     <row r="872">
       <c r="A872" s="6" t="n"/>
@@ -18581,7 +17685,6 @@
       <c r="F872" s="6" t="n"/>
       <c r="G872" s="6" t="n"/>
       <c r="H872" s="6" t="n"/>
-      <c r="I872" s="6" t="n"/>
     </row>
     <row r="873">
       <c r="A873" s="6" t="n"/>
@@ -18592,7 +17695,6 @@
       <c r="F873" s="6" t="n"/>
       <c r="G873" s="6" t="n"/>
       <c r="H873" s="6" t="n"/>
-      <c r="I873" s="6" t="n"/>
     </row>
     <row r="874">
       <c r="A874" s="6" t="n"/>
@@ -18603,7 +17705,6 @@
       <c r="F874" s="6" t="n"/>
       <c r="G874" s="6" t="n"/>
       <c r="H874" s="6" t="n"/>
-      <c r="I874" s="6" t="n"/>
     </row>
     <row r="875">
       <c r="A875" s="6" t="n"/>
@@ -18614,7 +17715,6 @@
       <c r="F875" s="6" t="n"/>
       <c r="G875" s="6" t="n"/>
       <c r="H875" s="6" t="n"/>
-      <c r="I875" s="6" t="n"/>
     </row>
     <row r="876">
       <c r="A876" s="6" t="n"/>
@@ -18625,7 +17725,6 @@
       <c r="F876" s="6" t="n"/>
       <c r="G876" s="6" t="n"/>
       <c r="H876" s="6" t="n"/>
-      <c r="I876" s="6" t="n"/>
     </row>
     <row r="877">
       <c r="A877" s="6" t="n"/>
@@ -18636,7 +17735,6 @@
       <c r="F877" s="6" t="n"/>
       <c r="G877" s="6" t="n"/>
       <c r="H877" s="6" t="n"/>
-      <c r="I877" s="6" t="n"/>
     </row>
     <row r="878">
       <c r="A878" s="6" t="n"/>
@@ -18647,7 +17745,6 @@
       <c r="F878" s="6" t="n"/>
       <c r="G878" s="6" t="n"/>
       <c r="H878" s="6" t="n"/>
-      <c r="I878" s="6" t="n"/>
     </row>
     <row r="879">
       <c r="A879" s="6" t="n"/>
@@ -18658,7 +17755,6 @@
       <c r="F879" s="6" t="n"/>
       <c r="G879" s="6" t="n"/>
       <c r="H879" s="6" t="n"/>
-      <c r="I879" s="6" t="n"/>
     </row>
     <row r="880">
       <c r="A880" s="6" t="n"/>
@@ -18669,7 +17765,6 @@
       <c r="F880" s="6" t="n"/>
       <c r="G880" s="6" t="n"/>
       <c r="H880" s="6" t="n"/>
-      <c r="I880" s="6" t="n"/>
     </row>
     <row r="881">
       <c r="A881" s="6" t="n"/>
@@ -18680,7 +17775,6 @@
       <c r="F881" s="6" t="n"/>
       <c r="G881" s="6" t="n"/>
       <c r="H881" s="6" t="n"/>
-      <c r="I881" s="6" t="n"/>
     </row>
     <row r="882">
       <c r="A882" s="6" t="n"/>
@@ -18691,7 +17785,6 @@
       <c r="F882" s="6" t="n"/>
       <c r="G882" s="6" t="n"/>
       <c r="H882" s="6" t="n"/>
-      <c r="I882" s="6" t="n"/>
     </row>
     <row r="883">
       <c r="A883" s="6" t="n"/>
@@ -18702,7 +17795,6 @@
       <c r="F883" s="6" t="n"/>
       <c r="G883" s="6" t="n"/>
       <c r="H883" s="6" t="n"/>
-      <c r="I883" s="6" t="n"/>
     </row>
     <row r="884">
       <c r="A884" s="6" t="n"/>
@@ -18713,7 +17805,6 @@
       <c r="F884" s="6" t="n"/>
       <c r="G884" s="6" t="n"/>
       <c r="H884" s="6" t="n"/>
-      <c r="I884" s="6" t="n"/>
     </row>
     <row r="885">
       <c r="A885" s="6" t="n"/>
@@ -18724,7 +17815,6 @@
       <c r="F885" s="6" t="n"/>
       <c r="G885" s="6" t="n"/>
       <c r="H885" s="6" t="n"/>
-      <c r="I885" s="6" t="n"/>
     </row>
     <row r="886">
       <c r="A886" s="6" t="n"/>
@@ -18735,7 +17825,6 @@
       <c r="F886" s="6" t="n"/>
       <c r="G886" s="6" t="n"/>
       <c r="H886" s="6" t="n"/>
-      <c r="I886" s="6" t="n"/>
     </row>
     <row r="887">
       <c r="A887" s="6" t="n"/>
@@ -18746,7 +17835,6 @@
       <c r="F887" s="6" t="n"/>
       <c r="G887" s="6" t="n"/>
       <c r="H887" s="6" t="n"/>
-      <c r="I887" s="6" t="n"/>
     </row>
     <row r="888">
       <c r="A888" s="6" t="n"/>
@@ -18757,7 +17845,6 @@
       <c r="F888" s="6" t="n"/>
       <c r="G888" s="6" t="n"/>
       <c r="H888" s="6" t="n"/>
-      <c r="I888" s="6" t="n"/>
     </row>
     <row r="889">
       <c r="A889" s="6" t="n"/>
@@ -18768,7 +17855,6 @@
       <c r="F889" s="6" t="n"/>
       <c r="G889" s="6" t="n"/>
       <c r="H889" s="6" t="n"/>
-      <c r="I889" s="6" t="n"/>
     </row>
     <row r="890">
       <c r="A890" s="6" t="n"/>
@@ -18779,7 +17865,6 @@
       <c r="F890" s="6" t="n"/>
       <c r="G890" s="6" t="n"/>
       <c r="H890" s="6" t="n"/>
-      <c r="I890" s="6" t="n"/>
     </row>
     <row r="891">
       <c r="A891" s="6" t="n"/>
@@ -18790,7 +17875,6 @@
       <c r="F891" s="6" t="n"/>
       <c r="G891" s="6" t="n"/>
       <c r="H891" s="6" t="n"/>
-      <c r="I891" s="6" t="n"/>
     </row>
     <row r="892">
       <c r="A892" s="6" t="n"/>
@@ -18801,7 +17885,6 @@
       <c r="F892" s="6" t="n"/>
       <c r="G892" s="6" t="n"/>
       <c r="H892" s="6" t="n"/>
-      <c r="I892" s="6" t="n"/>
     </row>
     <row r="893">
       <c r="A893" s="6" t="n"/>
@@ -18812,7 +17895,6 @@
       <c r="F893" s="6" t="n"/>
       <c r="G893" s="6" t="n"/>
       <c r="H893" s="6" t="n"/>
-      <c r="I893" s="6" t="n"/>
     </row>
     <row r="894">
       <c r="A894" s="6" t="n"/>
@@ -18823,7 +17905,6 @@
       <c r="F894" s="6" t="n"/>
       <c r="G894" s="6" t="n"/>
       <c r="H894" s="6" t="n"/>
-      <c r="I894" s="6" t="n"/>
     </row>
     <row r="895">
       <c r="A895" s="6" t="n"/>
@@ -18834,7 +17915,6 @@
       <c r="F895" s="6" t="n"/>
       <c r="G895" s="6" t="n"/>
       <c r="H895" s="6" t="n"/>
-      <c r="I895" s="6" t="n"/>
     </row>
     <row r="896">
       <c r="A896" s="6" t="n"/>
@@ -18845,7 +17925,6 @@
       <c r="F896" s="6" t="n"/>
       <c r="G896" s="6" t="n"/>
       <c r="H896" s="6" t="n"/>
-      <c r="I896" s="6" t="n"/>
     </row>
     <row r="897">
       <c r="A897" s="6" t="n"/>
@@ -18856,7 +17935,6 @@
       <c r="F897" s="6" t="n"/>
       <c r="G897" s="6" t="n"/>
       <c r="H897" s="6" t="n"/>
-      <c r="I897" s="6" t="n"/>
     </row>
     <row r="898">
       <c r="A898" s="6" t="n"/>
@@ -18867,7 +17945,6 @@
       <c r="F898" s="6" t="n"/>
       <c r="G898" s="6" t="n"/>
       <c r="H898" s="6" t="n"/>
-      <c r="I898" s="6" t="n"/>
     </row>
     <row r="899">
       <c r="A899" s="6" t="n"/>
@@ -18878,7 +17955,6 @@
       <c r="F899" s="6" t="n"/>
       <c r="G899" s="6" t="n"/>
       <c r="H899" s="6" t="n"/>
-      <c r="I899" s="6" t="n"/>
     </row>
     <row r="900">
       <c r="A900" s="6" t="n"/>
@@ -18889,7 +17965,6 @@
       <c r="F900" s="6" t="n"/>
       <c r="G900" s="6" t="n"/>
       <c r="H900" s="6" t="n"/>
-      <c r="I900" s="6" t="n"/>
     </row>
     <row r="901">
       <c r="A901" s="6" t="n"/>
@@ -18900,7 +17975,6 @@
       <c r="F901" s="6" t="n"/>
       <c r="G901" s="6" t="n"/>
       <c r="H901" s="6" t="n"/>
-      <c r="I901" s="6" t="n"/>
     </row>
     <row r="902">
       <c r="A902" s="6" t="n"/>
@@ -18911,7 +17985,6 @@
       <c r="F902" s="6" t="n"/>
       <c r="G902" s="6" t="n"/>
       <c r="H902" s="6" t="n"/>
-      <c r="I902" s="6" t="n"/>
     </row>
     <row r="903">
       <c r="A903" s="6" t="n"/>
@@ -18922,7 +17995,6 @@
       <c r="F903" s="6" t="n"/>
       <c r="G903" s="6" t="n"/>
       <c r="H903" s="6" t="n"/>
-      <c r="I903" s="6" t="n"/>
     </row>
     <row r="904">
       <c r="A904" s="6" t="n"/>
@@ -18933,7 +18005,6 @@
       <c r="F904" s="6" t="n"/>
       <c r="G904" s="6" t="n"/>
       <c r="H904" s="6" t="n"/>
-      <c r="I904" s="6" t="n"/>
     </row>
     <row r="905">
       <c r="A905" s="6" t="n"/>
@@ -18944,7 +18015,6 @@
       <c r="F905" s="6" t="n"/>
       <c r="G905" s="6" t="n"/>
       <c r="H905" s="6" t="n"/>
-      <c r="I905" s="6" t="n"/>
     </row>
     <row r="906">
       <c r="A906" s="6" t="n"/>
@@ -18955,7 +18025,6 @@
       <c r="F906" s="6" t="n"/>
       <c r="G906" s="6" t="n"/>
       <c r="H906" s="6" t="n"/>
-      <c r="I906" s="6" t="n"/>
     </row>
     <row r="907">
       <c r="A907" s="6" t="n"/>
@@ -18966,7 +18035,6 @@
       <c r="F907" s="6" t="n"/>
       <c r="G907" s="6" t="n"/>
       <c r="H907" s="6" t="n"/>
-      <c r="I907" s="6" t="n"/>
     </row>
     <row r="908">
       <c r="A908" s="6" t="n"/>
@@ -18977,7 +18045,6 @@
       <c r="F908" s="6" t="n"/>
       <c r="G908" s="6" t="n"/>
       <c r="H908" s="6" t="n"/>
-      <c r="I908" s="6" t="n"/>
     </row>
     <row r="909">
       <c r="A909" s="6" t="n"/>
@@ -18988,7 +18055,6 @@
       <c r="F909" s="6" t="n"/>
       <c r="G909" s="6" t="n"/>
       <c r="H909" s="6" t="n"/>
-      <c r="I909" s="6" t="n"/>
     </row>
     <row r="910">
       <c r="A910" s="6" t="n"/>
@@ -18999,7 +18065,6 @@
       <c r="F910" s="6" t="n"/>
       <c r="G910" s="6" t="n"/>
       <c r="H910" s="6" t="n"/>
-      <c r="I910" s="6" t="n"/>
     </row>
     <row r="911">
       <c r="A911" s="6" t="n"/>
@@ -19010,7 +18075,6 @@
       <c r="F911" s="6" t="n"/>
       <c r="G911" s="6" t="n"/>
       <c r="H911" s="6" t="n"/>
-      <c r="I911" s="6" t="n"/>
     </row>
     <row r="912">
       <c r="A912" s="6" t="n"/>
@@ -19021,7 +18085,6 @@
       <c r="F912" s="6" t="n"/>
       <c r="G912" s="6" t="n"/>
       <c r="H912" s="6" t="n"/>
-      <c r="I912" s="6" t="n"/>
     </row>
     <row r="913">
       <c r="A913" s="6" t="n"/>
@@ -19032,7 +18095,6 @@
       <c r="F913" s="6" t="n"/>
       <c r="G913" s="6" t="n"/>
       <c r="H913" s="6" t="n"/>
-      <c r="I913" s="6" t="n"/>
     </row>
     <row r="914">
       <c r="A914" s="6" t="n"/>
@@ -19043,7 +18105,6 @@
       <c r="F914" s="6" t="n"/>
       <c r="G914" s="6" t="n"/>
       <c r="H914" s="6" t="n"/>
-      <c r="I914" s="6" t="n"/>
     </row>
     <row r="915">
       <c r="A915" s="6" t="n"/>
@@ -19054,7 +18115,6 @@
       <c r="F915" s="6" t="n"/>
       <c r="G915" s="6" t="n"/>
       <c r="H915" s="6" t="n"/>
-      <c r="I915" s="6" t="n"/>
     </row>
     <row r="916">
       <c r="A916" s="6" t="n"/>
@@ -19065,7 +18125,6 @@
       <c r="F916" s="6" t="n"/>
       <c r="G916" s="6" t="n"/>
       <c r="H916" s="6" t="n"/>
-      <c r="I916" s="6" t="n"/>
     </row>
     <row r="917">
       <c r="A917" s="6" t="n"/>
@@ -19076,7 +18135,6 @@
       <c r="F917" s="6" t="n"/>
       <c r="G917" s="6" t="n"/>
       <c r="H917" s="6" t="n"/>
-      <c r="I917" s="6" t="n"/>
     </row>
     <row r="918">
       <c r="A918" s="6" t="n"/>
@@ -19087,7 +18145,6 @@
       <c r="F918" s="6" t="n"/>
       <c r="G918" s="6" t="n"/>
       <c r="H918" s="6" t="n"/>
-      <c r="I918" s="6" t="n"/>
     </row>
     <row r="919">
       <c r="A919" s="6" t="n"/>
@@ -19098,7 +18155,6 @@
       <c r="F919" s="6" t="n"/>
       <c r="G919" s="6" t="n"/>
       <c r="H919" s="6" t="n"/>
-      <c r="I919" s="6" t="n"/>
     </row>
     <row r="920">
       <c r="A920" s="6" t="n"/>
@@ -19109,7 +18165,6 @@
       <c r="F920" s="6" t="n"/>
       <c r="G920" s="6" t="n"/>
       <c r="H920" s="6" t="n"/>
-      <c r="I920" s="6" t="n"/>
     </row>
     <row r="921">
       <c r="A921" s="6" t="n"/>
@@ -19120,7 +18175,6 @@
       <c r="F921" s="6" t="n"/>
       <c r="G921" s="6" t="n"/>
       <c r="H921" s="6" t="n"/>
-      <c r="I921" s="6" t="n"/>
     </row>
     <row r="922">
       <c r="A922" s="6" t="n"/>
@@ -19131,7 +18185,6 @@
       <c r="F922" s="6" t="n"/>
       <c r="G922" s="6" t="n"/>
       <c r="H922" s="6" t="n"/>
-      <c r="I922" s="6" t="n"/>
     </row>
     <row r="923">
       <c r="A923" s="6" t="n"/>
@@ -19142,7 +18195,6 @@
       <c r="F923" s="6" t="n"/>
       <c r="G923" s="6" t="n"/>
       <c r="H923" s="6" t="n"/>
-      <c r="I923" s="6" t="n"/>
     </row>
     <row r="924">
       <c r="A924" s="6" t="n"/>
@@ -19153,7 +18205,6 @@
       <c r="F924" s="6" t="n"/>
       <c r="G924" s="6" t="n"/>
       <c r="H924" s="6" t="n"/>
-      <c r="I924" s="6" t="n"/>
     </row>
     <row r="925">
       <c r="A925" s="6" t="n"/>
@@ -19164,7 +18215,6 @@
       <c r="F925" s="6" t="n"/>
       <c r="G925" s="6" t="n"/>
       <c r="H925" s="6" t="n"/>
-      <c r="I925" s="6" t="n"/>
     </row>
     <row r="926">
       <c r="A926" s="6" t="n"/>
@@ -19175,7 +18225,6 @@
       <c r="F926" s="6" t="n"/>
       <c r="G926" s="6" t="n"/>
       <c r="H926" s="6" t="n"/>
-      <c r="I926" s="6" t="n"/>
     </row>
     <row r="927">
       <c r="A927" s="6" t="n"/>
@@ -19186,7 +18235,6 @@
       <c r="F927" s="6" t="n"/>
       <c r="G927" s="6" t="n"/>
       <c r="H927" s="6" t="n"/>
-      <c r="I927" s="6" t="n"/>
     </row>
     <row r="928">
       <c r="A928" s="6" t="n"/>
@@ -19197,7 +18245,6 @@
       <c r="F928" s="6" t="n"/>
       <c r="G928" s="6" t="n"/>
       <c r="H928" s="6" t="n"/>
-      <c r="I928" s="6" t="n"/>
     </row>
     <row r="929">
       <c r="A929" s="6" t="n"/>
@@ -19208,7 +18255,6 @@
       <c r="F929" s="6" t="n"/>
       <c r="G929" s="6" t="n"/>
       <c r="H929" s="6" t="n"/>
-      <c r="I929" s="6" t="n"/>
     </row>
     <row r="930">
       <c r="A930" s="6" t="n"/>
@@ -19219,7 +18265,6 @@
       <c r="F930" s="6" t="n"/>
       <c r="G930" s="6" t="n"/>
       <c r="H930" s="6" t="n"/>
-      <c r="I930" s="6" t="n"/>
     </row>
     <row r="931">
       <c r="A931" s="6" t="n"/>
@@ -19230,7 +18275,6 @@
       <c r="F931" s="6" t="n"/>
       <c r="G931" s="6" t="n"/>
       <c r="H931" s="6" t="n"/>
-      <c r="I931" s="6" t="n"/>
     </row>
     <row r="932">
       <c r="A932" s="6" t="n"/>
@@ -19241,7 +18285,6 @@
       <c r="F932" s="6" t="n"/>
       <c r="G932" s="6" t="n"/>
       <c r="H932" s="6" t="n"/>
-      <c r="I932" s="6" t="n"/>
     </row>
     <row r="933">
       <c r="A933" s="6" t="n"/>
@@ -19252,7 +18295,6 @@
       <c r="F933" s="6" t="n"/>
       <c r="G933" s="6" t="n"/>
       <c r="H933" s="6" t="n"/>
-      <c r="I933" s="6" t="n"/>
     </row>
     <row r="934">
       <c r="A934" s="6" t="n"/>
@@ -19263,7 +18305,6 @@
       <c r="F934" s="6" t="n"/>
       <c r="G934" s="6" t="n"/>
       <c r="H934" s="6" t="n"/>
-      <c r="I934" s="6" t="n"/>
     </row>
     <row r="935">
       <c r="A935" s="6" t="n"/>
@@ -19274,7 +18315,6 @@
       <c r="F935" s="6" t="n"/>
       <c r="G935" s="6" t="n"/>
       <c r="H935" s="6" t="n"/>
-      <c r="I935" s="6" t="n"/>
     </row>
     <row r="936">
       <c r="A936" s="6" t="n"/>
@@ -19285,7 +18325,6 @@
       <c r="F936" s="6" t="n"/>
       <c r="G936" s="6" t="n"/>
       <c r="H936" s="6" t="n"/>
-      <c r="I936" s="6" t="n"/>
     </row>
     <row r="937">
       <c r="A937" s="6" t="n"/>
@@ -19296,7 +18335,6 @@
       <c r="F937" s="6" t="n"/>
       <c r="G937" s="6" t="n"/>
       <c r="H937" s="6" t="n"/>
-      <c r="I937" s="6" t="n"/>
     </row>
     <row r="938">
       <c r="A938" s="6" t="n"/>
@@ -19307,7 +18345,6 @@
       <c r="F938" s="6" t="n"/>
       <c r="G938" s="6" t="n"/>
       <c r="H938" s="6" t="n"/>
-      <c r="I938" s="6" t="n"/>
     </row>
     <row r="939">
       <c r="A939" s="6" t="n"/>
@@ -19318,7 +18355,6 @@
       <c r="F939" s="6" t="n"/>
       <c r="G939" s="6" t="n"/>
       <c r="H939" s="6" t="n"/>
-      <c r="I939" s="6" t="n"/>
     </row>
     <row r="940">
       <c r="A940" s="6" t="n"/>
@@ -19329,7 +18365,6 @@
       <c r="F940" s="6" t="n"/>
       <c r="G940" s="6" t="n"/>
       <c r="H940" s="6" t="n"/>
-      <c r="I940" s="6" t="n"/>
     </row>
     <row r="941">
       <c r="A941" s="6" t="n"/>
@@ -19340,7 +18375,6 @@
       <c r="F941" s="6" t="n"/>
       <c r="G941" s="6" t="n"/>
       <c r="H941" s="6" t="n"/>
-      <c r="I941" s="6" t="n"/>
     </row>
     <row r="942">
       <c r="A942" s="6" t="n"/>
@@ -19351,7 +18385,6 @@
       <c r="F942" s="6" t="n"/>
       <c r="G942" s="6" t="n"/>
       <c r="H942" s="6" t="n"/>
-      <c r="I942" s="6" t="n"/>
     </row>
     <row r="943">
       <c r="A943" s="6" t="n"/>
@@ -19362,7 +18395,6 @@
       <c r="F943" s="6" t="n"/>
       <c r="G943" s="6" t="n"/>
       <c r="H943" s="6" t="n"/>
-      <c r="I943" s="6" t="n"/>
     </row>
     <row r="944">
       <c r="A944" s="6" t="n"/>
@@ -19373,7 +18405,6 @@
       <c r="F944" s="6" t="n"/>
       <c r="G944" s="6" t="n"/>
       <c r="H944" s="6" t="n"/>
-      <c r="I944" s="6" t="n"/>
     </row>
     <row r="945">
       <c r="A945" s="6" t="n"/>
@@ -19384,7 +18415,6 @@
       <c r="F945" s="6" t="n"/>
       <c r="G945" s="6" t="n"/>
       <c r="H945" s="6" t="n"/>
-      <c r="I945" s="6" t="n"/>
     </row>
     <row r="946">
       <c r="A946" s="6" t="n"/>
@@ -19395,7 +18425,6 @@
       <c r="F946" s="6" t="n"/>
       <c r="G946" s="6" t="n"/>
       <c r="H946" s="6" t="n"/>
-      <c r="I946" s="6" t="n"/>
     </row>
     <row r="947">
       <c r="A947" s="6" t="n"/>
@@ -19406,7 +18435,6 @@
       <c r="F947" s="6" t="n"/>
       <c r="G947" s="6" t="n"/>
       <c r="H947" s="6" t="n"/>
-      <c r="I947" s="6" t="n"/>
     </row>
     <row r="948">
       <c r="A948" s="6" t="n"/>
@@ -19417,7 +18445,6 @@
       <c r="F948" s="6" t="n"/>
       <c r="G948" s="6" t="n"/>
       <c r="H948" s="6" t="n"/>
-      <c r="I948" s="6" t="n"/>
     </row>
     <row r="949">
       <c r="A949" s="6" t="n"/>
@@ -19428,7 +18455,6 @@
       <c r="F949" s="6" t="n"/>
       <c r="G949" s="6" t="n"/>
       <c r="H949" s="6" t="n"/>
-      <c r="I949" s="6" t="n"/>
     </row>
     <row r="950">
       <c r="A950" s="6" t="n"/>
@@ -19439,7 +18465,6 @@
       <c r="F950" s="6" t="n"/>
       <c r="G950" s="6" t="n"/>
       <c r="H950" s="6" t="n"/>
-      <c r="I950" s="6" t="n"/>
     </row>
     <row r="951">
       <c r="A951" s="6" t="n"/>
@@ -19450,7 +18475,6 @@
       <c r="F951" s="6" t="n"/>
       <c r="G951" s="6" t="n"/>
       <c r="H951" s="6" t="n"/>
-      <c r="I951" s="6" t="n"/>
     </row>
     <row r="952">
       <c r="A952" s="6" t="n"/>
@@ -19461,7 +18485,6 @@
       <c r="F952" s="6" t="n"/>
       <c r="G952" s="6" t="n"/>
       <c r="H952" s="6" t="n"/>
-      <c r="I952" s="6" t="n"/>
     </row>
     <row r="953">
       <c r="A953" s="6" t="n"/>
@@ -19472,7 +18495,6 @@
       <c r="F953" s="6" t="n"/>
       <c r="G953" s="6" t="n"/>
       <c r="H953" s="6" t="n"/>
-      <c r="I953" s="6" t="n"/>
     </row>
     <row r="954">
       <c r="A954" s="6" t="n"/>
@@ -19483,7 +18505,6 @@
       <c r="F954" s="6" t="n"/>
       <c r="G954" s="6" t="n"/>
       <c r="H954" s="6" t="n"/>
-      <c r="I954" s="6" t="n"/>
     </row>
     <row r="955">
       <c r="A955" s="6" t="n"/>
@@ -19494,7 +18515,6 @@
       <c r="F955" s="6" t="n"/>
       <c r="G955" s="6" t="n"/>
       <c r="H955" s="6" t="n"/>
-      <c r="I955" s="6" t="n"/>
     </row>
     <row r="956">
       <c r="A956" s="6" t="n"/>
@@ -19505,7 +18525,6 @@
       <c r="F956" s="6" t="n"/>
       <c r="G956" s="6" t="n"/>
       <c r="H956" s="6" t="n"/>
-      <c r="I956" s="6" t="n"/>
     </row>
     <row r="957">
       <c r="A957" s="6" t="n"/>
@@ -19516,7 +18535,6 @@
       <c r="F957" s="6" t="n"/>
       <c r="G957" s="6" t="n"/>
       <c r="H957" s="6" t="n"/>
-      <c r="I957" s="6" t="n"/>
     </row>
     <row r="958">
       <c r="A958" s="6" t="n"/>
@@ -19527,7 +18545,6 @@
       <c r="F958" s="6" t="n"/>
       <c r="G958" s="6" t="n"/>
       <c r="H958" s="6" t="n"/>
-      <c r="I958" s="6" t="n"/>
     </row>
     <row r="959">
       <c r="A959" s="6" t="n"/>
@@ -19538,7 +18555,6 @@
       <c r="F959" s="6" t="n"/>
       <c r="G959" s="6" t="n"/>
       <c r="H959" s="6" t="n"/>
-      <c r="I959" s="6" t="n"/>
     </row>
     <row r="960">
       <c r="A960" s="6" t="n"/>
@@ -19549,7 +18565,6 @@
       <c r="F960" s="6" t="n"/>
       <c r="G960" s="6" t="n"/>
       <c r="H960" s="6" t="n"/>
-      <c r="I960" s="6" t="n"/>
     </row>
     <row r="961">
       <c r="A961" s="6" t="n"/>
@@ -19560,7 +18575,6 @@
       <c r="F961" s="6" t="n"/>
       <c r="G961" s="6" t="n"/>
       <c r="H961" s="6" t="n"/>
-      <c r="I961" s="6" t="n"/>
     </row>
     <row r="962">
       <c r="A962" s="6" t="n"/>
@@ -19571,7 +18585,6 @@
       <c r="F962" s="6" t="n"/>
       <c r="G962" s="6" t="n"/>
       <c r="H962" s="6" t="n"/>
-      <c r="I962" s="6" t="n"/>
     </row>
     <row r="963">
       <c r="A963" s="6" t="n"/>
@@ -19582,7 +18595,6 @@
       <c r="F963" s="6" t="n"/>
       <c r="G963" s="6" t="n"/>
       <c r="H963" s="6" t="n"/>
-      <c r="I963" s="6" t="n"/>
     </row>
     <row r="964">
       <c r="A964" s="6" t="n"/>
@@ -19593,7 +18605,6 @@
       <c r="F964" s="6" t="n"/>
       <c r="G964" s="6" t="n"/>
       <c r="H964" s="6" t="n"/>
-      <c r="I964" s="6" t="n"/>
     </row>
     <row r="965">
       <c r="A965" s="6" t="n"/>
@@ -19604,7 +18615,6 @@
       <c r="F965" s="6" t="n"/>
       <c r="G965" s="6" t="n"/>
       <c r="H965" s="6" t="n"/>
-      <c r="I965" s="6" t="n"/>
     </row>
     <row r="966">
       <c r="A966" s="6" t="n"/>
@@ -19615,7 +18625,6 @@
       <c r="F966" s="6" t="n"/>
       <c r="G966" s="6" t="n"/>
       <c r="H966" s="6" t="n"/>
-      <c r="I966" s="6" t="n"/>
     </row>
     <row r="967">
       <c r="A967" s="6" t="n"/>
@@ -19626,7 +18635,6 @@
       <c r="F967" s="6" t="n"/>
       <c r="G967" s="6" t="n"/>
       <c r="H967" s="6" t="n"/>
-      <c r="I967" s="6" t="n"/>
     </row>
     <row r="968">
       <c r="A968" s="6" t="n"/>
@@ -19637,7 +18645,6 @@
       <c r="F968" s="6" t="n"/>
       <c r="G968" s="6" t="n"/>
       <c r="H968" s="6" t="n"/>
-      <c r="I968" s="6" t="n"/>
     </row>
     <row r="969">
       <c r="A969" s="6" t="n"/>
@@ -19648,7 +18655,6 @@
       <c r="F969" s="6" t="n"/>
       <c r="G969" s="6" t="n"/>
       <c r="H969" s="6" t="n"/>
-      <c r="I969" s="6" t="n"/>
     </row>
     <row r="970">
       <c r="A970" s="6" t="n"/>
@@ -19659,7 +18665,6 @@
       <c r="F970" s="6" t="n"/>
       <c r="G970" s="6" t="n"/>
       <c r="H970" s="6" t="n"/>
-      <c r="I970" s="6" t="n"/>
     </row>
     <row r="971">
       <c r="A971" s="6" t="n"/>
@@ -19670,7 +18675,6 @@
       <c r="F971" s="6" t="n"/>
       <c r="G971" s="6" t="n"/>
       <c r="H971" s="6" t="n"/>
-      <c r="I971" s="6" t="n"/>
     </row>
     <row r="972">
       <c r="A972" s="6" t="n"/>
@@ -19681,7 +18685,6 @@
       <c r="F972" s="6" t="n"/>
       <c r="G972" s="6" t="n"/>
       <c r="H972" s="6" t="n"/>
-      <c r="I972" s="6" t="n"/>
     </row>
     <row r="973">
       <c r="A973" s="6" t="n"/>
@@ -19692,7 +18695,6 @@
       <c r="F973" s="6" t="n"/>
       <c r="G973" s="6" t="n"/>
       <c r="H973" s="6" t="n"/>
-      <c r="I973" s="6" t="n"/>
     </row>
     <row r="974">
       <c r="A974" s="6" t="n"/>
@@ -19703,7 +18705,6 @@
       <c r="F974" s="6" t="n"/>
       <c r="G974" s="6" t="n"/>
       <c r="H974" s="6" t="n"/>
-      <c r="I974" s="6" t="n"/>
     </row>
     <row r="975">
       <c r="A975" s="6" t="n"/>
@@ -19714,7 +18715,6 @@
       <c r="F975" s="6" t="n"/>
       <c r="G975" s="6" t="n"/>
       <c r="H975" s="6" t="n"/>
-      <c r="I975" s="6" t="n"/>
     </row>
     <row r="976">
       <c r="A976" s="6" t="n"/>
@@ -19725,7 +18725,6 @@
       <c r="F976" s="6" t="n"/>
       <c r="G976" s="6" t="n"/>
       <c r="H976" s="6" t="n"/>
-      <c r="I976" s="6" t="n"/>
     </row>
     <row r="977">
       <c r="A977" s="6" t="n"/>
@@ -19736,7 +18735,6 @@
       <c r="F977" s="6" t="n"/>
       <c r="G977" s="6" t="n"/>
       <c r="H977" s="6" t="n"/>
-      <c r="I977" s="6" t="n"/>
     </row>
     <row r="978">
       <c r="A978" s="6" t="n"/>
@@ -19747,7 +18745,6 @@
       <c r="F978" s="6" t="n"/>
       <c r="G978" s="6" t="n"/>
       <c r="H978" s="6" t="n"/>
-      <c r="I978" s="6" t="n"/>
     </row>
     <row r="979">
       <c r="A979" s="6" t="n"/>
@@ -19758,7 +18755,6 @@
       <c r="F979" s="6" t="n"/>
       <c r="G979" s="6" t="n"/>
       <c r="H979" s="6" t="n"/>
-      <c r="I979" s="6" t="n"/>
     </row>
     <row r="980">
       <c r="A980" s="6" t="n"/>
@@ -19769,7 +18765,6 @@
       <c r="F980" s="6" t="n"/>
       <c r="G980" s="6" t="n"/>
       <c r="H980" s="6" t="n"/>
-      <c r="I980" s="6" t="n"/>
     </row>
     <row r="981">
       <c r="A981" s="6" t="n"/>
@@ -19780,7 +18775,6 @@
       <c r="F981" s="6" t="n"/>
       <c r="G981" s="6" t="n"/>
       <c r="H981" s="6" t="n"/>
-      <c r="I981" s="6" t="n"/>
     </row>
     <row r="982">
       <c r="A982" s="6" t="n"/>
@@ -19791,7 +18785,6 @@
       <c r="F982" s="6" t="n"/>
       <c r="G982" s="6" t="n"/>
       <c r="H982" s="6" t="n"/>
-      <c r="I982" s="6" t="n"/>
     </row>
     <row r="983">
       <c r="A983" s="6" t="n"/>
@@ -19802,7 +18795,6 @@
       <c r="F983" s="6" t="n"/>
       <c r="G983" s="6" t="n"/>
       <c r="H983" s="6" t="n"/>
-      <c r="I983" s="6" t="n"/>
     </row>
     <row r="984">
       <c r="A984" s="6" t="n"/>
@@ -19813,7 +18805,6 @@
       <c r="F984" s="6" t="n"/>
       <c r="G984" s="6" t="n"/>
       <c r="H984" s="6" t="n"/>
-      <c r="I984" s="6" t="n"/>
     </row>
     <row r="985">
       <c r="A985" s="6" t="n"/>
@@ -19824,7 +18815,6 @@
       <c r="F985" s="6" t="n"/>
       <c r="G985" s="6" t="n"/>
       <c r="H985" s="6" t="n"/>
-      <c r="I985" s="6" t="n"/>
     </row>
     <row r="986">
       <c r="A986" s="6" t="n"/>
@@ -19835,7 +18825,6 @@
       <c r="F986" s="6" t="n"/>
       <c r="G986" s="6" t="n"/>
       <c r="H986" s="6" t="n"/>
-      <c r="I986" s="6" t="n"/>
     </row>
     <row r="987">
       <c r="A987" s="6" t="n"/>
@@ -19846,7 +18835,6 @@
       <c r="F987" s="6" t="n"/>
       <c r="G987" s="6" t="n"/>
       <c r="H987" s="6" t="n"/>
-      <c r="I987" s="6" t="n"/>
     </row>
     <row r="988">
       <c r="A988" s="6" t="n"/>
@@ -19857,7 +18845,6 @@
       <c r="F988" s="6" t="n"/>
       <c r="G988" s="6" t="n"/>
       <c r="H988" s="6" t="n"/>
-      <c r="I988" s="6" t="n"/>
     </row>
     <row r="989">
       <c r="A989" s="6" t="n"/>
@@ -19868,7 +18855,6 @@
       <c r="F989" s="6" t="n"/>
       <c r="G989" s="6" t="n"/>
       <c r="H989" s="6" t="n"/>
-      <c r="I989" s="6" t="n"/>
     </row>
     <row r="990">
       <c r="A990" s="6" t="n"/>
@@ -19879,7 +18865,6 @@
       <c r="F990" s="6" t="n"/>
       <c r="G990" s="6" t="n"/>
       <c r="H990" s="6" t="n"/>
-      <c r="I990" s="6" t="n"/>
     </row>
     <row r="991">
       <c r="A991" s="6" t="n"/>
@@ -19890,7 +18875,6 @@
       <c r="F991" s="6" t="n"/>
       <c r="G991" s="6" t="n"/>
       <c r="H991" s="6" t="n"/>
-      <c r="I991" s="6" t="n"/>
     </row>
     <row r="992">
       <c r="A992" s="6" t="n"/>
@@ -19901,7 +18885,6 @@
       <c r="F992" s="6" t="n"/>
       <c r="G992" s="6" t="n"/>
       <c r="H992" s="6" t="n"/>
-      <c r="I992" s="6" t="n"/>
     </row>
     <row r="993">
       <c r="A993" s="6" t="n"/>
@@ -19912,7 +18895,6 @@
       <c r="F993" s="6" t="n"/>
       <c r="G993" s="6" t="n"/>
       <c r="H993" s="6" t="n"/>
-      <c r="I993" s="6" t="n"/>
     </row>
     <row r="994">
       <c r="A994" s="6" t="n"/>
@@ -19923,7 +18905,6 @@
       <c r="F994" s="6" t="n"/>
       <c r="G994" s="6" t="n"/>
       <c r="H994" s="6" t="n"/>
-      <c r="I994" s="6" t="n"/>
     </row>
     <row r="995">
       <c r="A995" s="6" t="n"/>
@@ -19934,7 +18915,6 @@
       <c r="F995" s="6" t="n"/>
       <c r="G995" s="6" t="n"/>
       <c r="H995" s="6" t="n"/>
-      <c r="I995" s="6" t="n"/>
     </row>
     <row r="996">
       <c r="A996" s="6" t="n"/>
@@ -19945,7 +18925,6 @@
       <c r="F996" s="6" t="n"/>
       <c r="G996" s="6" t="n"/>
       <c r="H996" s="6" t="n"/>
-      <c r="I996" s="6" t="n"/>
     </row>
     <row r="997">
       <c r="A997" s="6" t="n"/>
@@ -19956,7 +18935,6 @@
       <c r="F997" s="6" t="n"/>
       <c r="G997" s="6" t="n"/>
       <c r="H997" s="6" t="n"/>
-      <c r="I997" s="6" t="n"/>
     </row>
     <row r="998">
       <c r="A998" s="6" t="n"/>
@@ -19967,7 +18945,6 @@
       <c r="F998" s="6" t="n"/>
       <c r="G998" s="6" t="n"/>
       <c r="H998" s="6" t="n"/>
-      <c r="I998" s="6" t="n"/>
     </row>
     <row r="999">
       <c r="A999" s="6" t="n"/>
@@ -19978,7 +18955,6 @@
       <c r="F999" s="6" t="n"/>
       <c r="G999" s="6" t="n"/>
       <c r="H999" s="6" t="n"/>
-      <c r="I999" s="6" t="n"/>
     </row>
     <row r="1000">
       <c r="A1000" s="6" t="n"/>
@@ -19989,7 +18965,6 @@
       <c r="F1000" s="6" t="n"/>
       <c r="G1000" s="6" t="n"/>
       <c r="H1000" s="6" t="n"/>
-      <c r="I1000" s="6" t="n"/>
     </row>
     <row r="1001">
       <c r="A1001" s="6" t="n"/>
@@ -20000,7 +18975,6 @@
       <c r="F1001" s="6" t="n"/>
       <c r="G1001" s="6" t="n"/>
       <c r="H1001" s="6" t="n"/>
-      <c r="I1001" s="6" t="n"/>
     </row>
     <row r="1002">
       <c r="A1002" s="6" t="n"/>
@@ -20011,7 +18985,6 @@
       <c r="F1002" s="6" t="n"/>
       <c r="G1002" s="6" t="n"/>
       <c r="H1002" s="6" t="n"/>
-      <c r="I1002" s="6" t="n"/>
     </row>
     <row r="1003">
       <c r="A1003" s="6" t="n"/>
@@ -20022,7 +18995,6 @@
       <c r="F1003" s="6" t="n"/>
       <c r="G1003" s="6" t="n"/>
       <c r="H1003" s="6" t="n"/>
-      <c r="I1003" s="6" t="n"/>
     </row>
     <row r="1004">
       <c r="A1004" s="6" t="n"/>
@@ -20033,7 +19005,6 @@
       <c r="F1004" s="6" t="n"/>
       <c r="G1004" s="6" t="n"/>
       <c r="H1004" s="6" t="n"/>
-      <c r="I1004" s="6" t="n"/>
     </row>
     <row r="1005">
       <c r="A1005" s="6" t="n"/>
@@ -20044,7 +19015,6 @@
       <c r="F1005" s="6" t="n"/>
       <c r="G1005" s="6" t="n"/>
       <c r="H1005" s="6" t="n"/>
-      <c r="I1005" s="6" t="n"/>
     </row>
     <row r="1006">
       <c r="A1006" s="6" t="n"/>
@@ -20055,7 +19025,6 @@
       <c r="F1006" s="6" t="n"/>
       <c r="G1006" s="6" t="n"/>
       <c r="H1006" s="6" t="n"/>
-      <c r="I1006" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>types</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The type of this Study (e.g., Cancer Genomics, Epigenetics, Exome Sequencing).</t>
+          <t>One or more types of this Study (e.g., Cancer Genomics, Epigenetics, Exome Sequencing).</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">

--- a/spreadsheets/ghga_submission_minimal.xlsx
+++ b/spreadsheets/ghga_submission_minimal.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>types</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>The type of this Study (e.g., Cancer Genomics, Epigenetics, Exome Sequencing).</t>
+          <t>One or more types of this Study (e.g., Cancer Genomics, Epigenetics, Exome Sequencing).</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>single value</t>
+          <t>multiple values</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -8756,7 +8756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1006"/>
+  <dimension ref="A1:H1006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8772,7 +8772,6 @@
     <col width="35" customWidth="1" min="6" max="6"/>
     <col width="35" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="8" max="8"/>
-    <col width="35" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8813,11 +8812,6 @@
       </c>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>forward_or_reverse</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
-        <is>
           <t>dataset</t>
         </is>
       </c>
@@ -8859,11 +8853,6 @@
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>Denotes whether a submitted FASTQ file contains forward (R1) or reverse (R2) reads for paired-end sequencing.</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>The Dataset associated with this File.</t>
         </is>
@@ -8910,11 +8899,6 @@
           <t>type: string</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>type: string</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -8957,11 +8941,6 @@
           <t>single value</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>single value</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
@@ -9001,11 +8980,6 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>controlled vocabulary</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
           <t>restriction: value from Dataset.alias</t>
         </is>
       </c>
@@ -9048,11 +9022,6 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
           <t>required</t>
         </is>
       </c>
@@ -9066,7 +9035,6 @@
       <c r="F7" s="6" t="n"/>
       <c r="G7" s="6" t="n"/>
       <c r="H7" s="6" t="n"/>
-      <c r="I7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
@@ -9077,7 +9045,6 @@
       <c r="F8" s="6" t="n"/>
       <c r="G8" s="6" t="n"/>
       <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
@@ -9088,7 +9055,6 @@
       <c r="F9" s="6" t="n"/>
       <c r="G9" s="6" t="n"/>
       <c r="H9" s="6" t="n"/>
-      <c r="I9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
@@ -9099,7 +9065,6 @@
       <c r="F10" s="6" t="n"/>
       <c r="G10" s="6" t="n"/>
       <c r="H10" s="6" t="n"/>
-      <c r="I10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
@@ -9110,7 +9075,6 @@
       <c r="F11" s="6" t="n"/>
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="6" t="n"/>
-      <c r="I11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
@@ -9121,7 +9085,6 @@
       <c r="F12" s="6" t="n"/>
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="6" t="n"/>
-      <c r="I12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
@@ -9132,7 +9095,6 @@
       <c r="F13" s="6" t="n"/>
       <c r="G13" s="6" t="n"/>
       <c r="H13" s="6" t="n"/>
-      <c r="I13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
@@ -9143,7 +9105,6 @@
       <c r="F14" s="6" t="n"/>
       <c r="G14" s="6" t="n"/>
       <c r="H14" s="6" t="n"/>
-      <c r="I14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="n"/>
@@ -9154,7 +9115,6 @@
       <c r="F15" s="6" t="n"/>
       <c r="G15" s="6" t="n"/>
       <c r="H15" s="6" t="n"/>
-      <c r="I15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
@@ -9165,7 +9125,6 @@
       <c r="F16" s="6" t="n"/>
       <c r="G16" s="6" t="n"/>
       <c r="H16" s="6" t="n"/>
-      <c r="I16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="n"/>
@@ -9176,7 +9135,6 @@
       <c r="F17" s="6" t="n"/>
       <c r="G17" s="6" t="n"/>
       <c r="H17" s="6" t="n"/>
-      <c r="I17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="n"/>
@@ -9187,7 +9145,6 @@
       <c r="F18" s="6" t="n"/>
       <c r="G18" s="6" t="n"/>
       <c r="H18" s="6" t="n"/>
-      <c r="I18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
@@ -9198,7 +9155,6 @@
       <c r="F19" s="6" t="n"/>
       <c r="G19" s="6" t="n"/>
       <c r="H19" s="6" t="n"/>
-      <c r="I19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
@@ -9209,7 +9165,6 @@
       <c r="F20" s="6" t="n"/>
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="6" t="n"/>
-      <c r="I20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
@@ -9220,7 +9175,6 @@
       <c r="F21" s="6" t="n"/>
       <c r="G21" s="6" t="n"/>
       <c r="H21" s="6" t="n"/>
-      <c r="I21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
@@ -9231,7 +9185,6 @@
       <c r="F22" s="6" t="n"/>
       <c r="G22" s="6" t="n"/>
       <c r="H22" s="6" t="n"/>
-      <c r="I22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
@@ -9242,7 +9195,6 @@
       <c r="F23" s="6" t="n"/>
       <c r="G23" s="6" t="n"/>
       <c r="H23" s="6" t="n"/>
-      <c r="I23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
@@ -9253,7 +9205,6 @@
       <c r="F24" s="6" t="n"/>
       <c r="G24" s="6" t="n"/>
       <c r="H24" s="6" t="n"/>
-      <c r="I24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="n"/>
@@ -9264,7 +9215,6 @@
       <c r="F25" s="6" t="n"/>
       <c r="G25" s="6" t="n"/>
       <c r="H25" s="6" t="n"/>
-      <c r="I25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n"/>
@@ -9275,7 +9225,6 @@
       <c r="F26" s="6" t="n"/>
       <c r="G26" s="6" t="n"/>
       <c r="H26" s="6" t="n"/>
-      <c r="I26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>
@@ -9286,7 +9235,6 @@
       <c r="F27" s="6" t="n"/>
       <c r="G27" s="6" t="n"/>
       <c r="H27" s="6" t="n"/>
-      <c r="I27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="n"/>
@@ -9297,7 +9245,6 @@
       <c r="F28" s="6" t="n"/>
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="6" t="n"/>
-      <c r="I28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="n"/>
@@ -9308,7 +9255,6 @@
       <c r="F29" s="6" t="n"/>
       <c r="G29" s="6" t="n"/>
       <c r="H29" s="6" t="n"/>
-      <c r="I29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="n"/>
@@ -9319,7 +9265,6 @@
       <c r="F30" s="6" t="n"/>
       <c r="G30" s="6" t="n"/>
       <c r="H30" s="6" t="n"/>
-      <c r="I30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="n"/>
@@ -9330,7 +9275,6 @@
       <c r="F31" s="6" t="n"/>
       <c r="G31" s="6" t="n"/>
       <c r="H31" s="6" t="n"/>
-      <c r="I31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="n"/>
@@ -9341,7 +9285,6 @@
       <c r="F32" s="6" t="n"/>
       <c r="G32" s="6" t="n"/>
       <c r="H32" s="6" t="n"/>
-      <c r="I32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
@@ -9352,7 +9295,6 @@
       <c r="F33" s="6" t="n"/>
       <c r="G33" s="6" t="n"/>
       <c r="H33" s="6" t="n"/>
-      <c r="I33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
@@ -9363,7 +9305,6 @@
       <c r="F34" s="6" t="n"/>
       <c r="G34" s="6" t="n"/>
       <c r="H34" s="6" t="n"/>
-      <c r="I34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
@@ -9374,7 +9315,6 @@
       <c r="F35" s="6" t="n"/>
       <c r="G35" s="6" t="n"/>
       <c r="H35" s="6" t="n"/>
-      <c r="I35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
@@ -9385,7 +9325,6 @@
       <c r="F36" s="6" t="n"/>
       <c r="G36" s="6" t="n"/>
       <c r="H36" s="6" t="n"/>
-      <c r="I36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
@@ -9396,7 +9335,6 @@
       <c r="F37" s="6" t="n"/>
       <c r="G37" s="6" t="n"/>
       <c r="H37" s="6" t="n"/>
-      <c r="I37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
@@ -9407,7 +9345,6 @@
       <c r="F38" s="6" t="n"/>
       <c r="G38" s="6" t="n"/>
       <c r="H38" s="6" t="n"/>
-      <c r="I38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="n"/>
@@ -9418,7 +9355,6 @@
       <c r="F39" s="6" t="n"/>
       <c r="G39" s="6" t="n"/>
       <c r="H39" s="6" t="n"/>
-      <c r="I39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
@@ -9429,7 +9365,6 @@
       <c r="F40" s="6" t="n"/>
       <c r="G40" s="6" t="n"/>
       <c r="H40" s="6" t="n"/>
-      <c r="I40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="6" t="n"/>
@@ -9440,7 +9375,6 @@
       <c r="F41" s="6" t="n"/>
       <c r="G41" s="6" t="n"/>
       <c r="H41" s="6" t="n"/>
-      <c r="I41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="n"/>
@@ -9451,7 +9385,6 @@
       <c r="F42" s="6" t="n"/>
       <c r="G42" s="6" t="n"/>
       <c r="H42" s="6" t="n"/>
-      <c r="I42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
@@ -9462,7 +9395,6 @@
       <c r="F43" s="6" t="n"/>
       <c r="G43" s="6" t="n"/>
       <c r="H43" s="6" t="n"/>
-      <c r="I43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
@@ -9473,7 +9405,6 @@
       <c r="F44" s="6" t="n"/>
       <c r="G44" s="6" t="n"/>
       <c r="H44" s="6" t="n"/>
-      <c r="I44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
@@ -9484,7 +9415,6 @@
       <c r="F45" s="6" t="n"/>
       <c r="G45" s="6" t="n"/>
       <c r="H45" s="6" t="n"/>
-      <c r="I45" s="6" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
@@ -9495,7 +9425,6 @@
       <c r="F46" s="6" t="n"/>
       <c r="G46" s="6" t="n"/>
       <c r="H46" s="6" t="n"/>
-      <c r="I46" s="6" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
@@ -9506,7 +9435,6 @@
       <c r="F47" s="6" t="n"/>
       <c r="G47" s="6" t="n"/>
       <c r="H47" s="6" t="n"/>
-      <c r="I47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
@@ -9517,7 +9445,6 @@
       <c r="F48" s="6" t="n"/>
       <c r="G48" s="6" t="n"/>
       <c r="H48" s="6" t="n"/>
-      <c r="I48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
@@ -9528,7 +9455,6 @@
       <c r="F49" s="6" t="n"/>
       <c r="G49" s="6" t="n"/>
       <c r="H49" s="6" t="n"/>
-      <c r="I49" s="6" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
@@ -9539,7 +9465,6 @@
       <c r="F50" s="6" t="n"/>
       <c r="G50" s="6" t="n"/>
       <c r="H50" s="6" t="n"/>
-      <c r="I50" s="6" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
@@ -9550,7 +9475,6 @@
       <c r="F51" s="6" t="n"/>
       <c r="G51" s="6" t="n"/>
       <c r="H51" s="6" t="n"/>
-      <c r="I51" s="6" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
@@ -9561,7 +9485,6 @@
       <c r="F52" s="6" t="n"/>
       <c r="G52" s="6" t="n"/>
       <c r="H52" s="6" t="n"/>
-      <c r="I52" s="6" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="6" t="n"/>
@@ -9572,7 +9495,6 @@
       <c r="F53" s="6" t="n"/>
       <c r="G53" s="6" t="n"/>
       <c r="H53" s="6" t="n"/>
-      <c r="I53" s="6" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n"/>
@@ -9583,7 +9505,6 @@
       <c r="F54" s="6" t="n"/>
       <c r="G54" s="6" t="n"/>
       <c r="H54" s="6" t="n"/>
-      <c r="I54" s="6" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n"/>
@@ -9594,7 +9515,6 @@
       <c r="F55" s="6" t="n"/>
       <c r="G55" s="6" t="n"/>
       <c r="H55" s="6" t="n"/>
-      <c r="I55" s="6" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n"/>
@@ -9605,7 +9525,6 @@
       <c r="F56" s="6" t="n"/>
       <c r="G56" s="6" t="n"/>
       <c r="H56" s="6" t="n"/>
-      <c r="I56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n"/>
@@ -9616,7 +9535,6 @@
       <c r="F57" s="6" t="n"/>
       <c r="G57" s="6" t="n"/>
       <c r="H57" s="6" t="n"/>
-      <c r="I57" s="6" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n"/>
@@ -9627,7 +9545,6 @@
       <c r="F58" s="6" t="n"/>
       <c r="G58" s="6" t="n"/>
       <c r="H58" s="6" t="n"/>
-      <c r="I58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n"/>
@@ -9638,7 +9555,6 @@
       <c r="F59" s="6" t="n"/>
       <c r="G59" s="6" t="n"/>
       <c r="H59" s="6" t="n"/>
-      <c r="I59" s="6" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n"/>
@@ -9649,7 +9565,6 @@
       <c r="F60" s="6" t="n"/>
       <c r="G60" s="6" t="n"/>
       <c r="H60" s="6" t="n"/>
-      <c r="I60" s="6" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n"/>
@@ -9660,7 +9575,6 @@
       <c r="F61" s="6" t="n"/>
       <c r="G61" s="6" t="n"/>
       <c r="H61" s="6" t="n"/>
-      <c r="I61" s="6" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="6" t="n"/>
@@ -9671,7 +9585,6 @@
       <c r="F62" s="6" t="n"/>
       <c r="G62" s="6" t="n"/>
       <c r="H62" s="6" t="n"/>
-      <c r="I62" s="6" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="6" t="n"/>
@@ -9682,7 +9595,6 @@
       <c r="F63" s="6" t="n"/>
       <c r="G63" s="6" t="n"/>
       <c r="H63" s="6" t="n"/>
-      <c r="I63" s="6" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="n"/>
@@ -9693,7 +9605,6 @@
       <c r="F64" s="6" t="n"/>
       <c r="G64" s="6" t="n"/>
       <c r="H64" s="6" t="n"/>
-      <c r="I64" s="6" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="6" t="n"/>
@@ -9704,7 +9615,6 @@
       <c r="F65" s="6" t="n"/>
       <c r="G65" s="6" t="n"/>
       <c r="H65" s="6" t="n"/>
-      <c r="I65" s="6" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="6" t="n"/>
@@ -9715,7 +9625,6 @@
       <c r="F66" s="6" t="n"/>
       <c r="G66" s="6" t="n"/>
       <c r="H66" s="6" t="n"/>
-      <c r="I66" s="6" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="n"/>
@@ -9726,7 +9635,6 @@
       <c r="F67" s="6" t="n"/>
       <c r="G67" s="6" t="n"/>
       <c r="H67" s="6" t="n"/>
-      <c r="I67" s="6" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="6" t="n"/>
@@ -9737,7 +9645,6 @@
       <c r="F68" s="6" t="n"/>
       <c r="G68" s="6" t="n"/>
       <c r="H68" s="6" t="n"/>
-      <c r="I68" s="6" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="6" t="n"/>
@@ -9748,7 +9655,6 @@
       <c r="F69" s="6" t="n"/>
       <c r="G69" s="6" t="n"/>
       <c r="H69" s="6" t="n"/>
-      <c r="I69" s="6" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="6" t="n"/>
@@ -9759,7 +9665,6 @@
       <c r="F70" s="6" t="n"/>
       <c r="G70" s="6" t="n"/>
       <c r="H70" s="6" t="n"/>
-      <c r="I70" s="6" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="6" t="n"/>
@@ -9770,7 +9675,6 @@
       <c r="F71" s="6" t="n"/>
       <c r="G71" s="6" t="n"/>
       <c r="H71" s="6" t="n"/>
-      <c r="I71" s="6" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="6" t="n"/>
@@ -9781,7 +9685,6 @@
       <c r="F72" s="6" t="n"/>
       <c r="G72" s="6" t="n"/>
       <c r="H72" s="6" t="n"/>
-      <c r="I72" s="6" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="6" t="n"/>
@@ -9792,7 +9695,6 @@
       <c r="F73" s="6" t="n"/>
       <c r="G73" s="6" t="n"/>
       <c r="H73" s="6" t="n"/>
-      <c r="I73" s="6" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="6" t="n"/>
@@ -9803,7 +9705,6 @@
       <c r="F74" s="6" t="n"/>
       <c r="G74" s="6" t="n"/>
       <c r="H74" s="6" t="n"/>
-      <c r="I74" s="6" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="6" t="n"/>
@@ -9814,7 +9715,6 @@
       <c r="F75" s="6" t="n"/>
       <c r="G75" s="6" t="n"/>
       <c r="H75" s="6" t="n"/>
-      <c r="I75" s="6" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="6" t="n"/>
@@ -9825,7 +9725,6 @@
       <c r="F76" s="6" t="n"/>
       <c r="G76" s="6" t="n"/>
       <c r="H76" s="6" t="n"/>
-      <c r="I76" s="6" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="6" t="n"/>
@@ -9836,7 +9735,6 @@
       <c r="F77" s="6" t="n"/>
       <c r="G77" s="6" t="n"/>
       <c r="H77" s="6" t="n"/>
-      <c r="I77" s="6" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="6" t="n"/>
@@ -9847,7 +9745,6 @@
       <c r="F78" s="6" t="n"/>
       <c r="G78" s="6" t="n"/>
       <c r="H78" s="6" t="n"/>
-      <c r="I78" s="6" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="6" t="n"/>
@@ -9858,7 +9755,6 @@
       <c r="F79" s="6" t="n"/>
       <c r="G79" s="6" t="n"/>
       <c r="H79" s="6" t="n"/>
-      <c r="I79" s="6" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="6" t="n"/>
@@ -9869,7 +9765,6 @@
       <c r="F80" s="6" t="n"/>
       <c r="G80" s="6" t="n"/>
       <c r="H80" s="6" t="n"/>
-      <c r="I80" s="6" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="6" t="n"/>
@@ -9880,7 +9775,6 @@
       <c r="F81" s="6" t="n"/>
       <c r="G81" s="6" t="n"/>
       <c r="H81" s="6" t="n"/>
-      <c r="I81" s="6" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="6" t="n"/>
@@ -9891,7 +9785,6 @@
       <c r="F82" s="6" t="n"/>
       <c r="G82" s="6" t="n"/>
       <c r="H82" s="6" t="n"/>
-      <c r="I82" s="6" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="6" t="n"/>
@@ -9902,7 +9795,6 @@
       <c r="F83" s="6" t="n"/>
       <c r="G83" s="6" t="n"/>
       <c r="H83" s="6" t="n"/>
-      <c r="I83" s="6" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="6" t="n"/>
@@ -9913,7 +9805,6 @@
       <c r="F84" s="6" t="n"/>
       <c r="G84" s="6" t="n"/>
       <c r="H84" s="6" t="n"/>
-      <c r="I84" s="6" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="6" t="n"/>
@@ -9924,7 +9815,6 @@
       <c r="F85" s="6" t="n"/>
       <c r="G85" s="6" t="n"/>
       <c r="H85" s="6" t="n"/>
-      <c r="I85" s="6" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="6" t="n"/>
@@ -9935,7 +9825,6 @@
       <c r="F86" s="6" t="n"/>
       <c r="G86" s="6" t="n"/>
       <c r="H86" s="6" t="n"/>
-      <c r="I86" s="6" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="6" t="n"/>
@@ -9946,7 +9835,6 @@
       <c r="F87" s="6" t="n"/>
       <c r="G87" s="6" t="n"/>
       <c r="H87" s="6" t="n"/>
-      <c r="I87" s="6" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="6" t="n"/>
@@ -9957,7 +9845,6 @@
       <c r="F88" s="6" t="n"/>
       <c r="G88" s="6" t="n"/>
       <c r="H88" s="6" t="n"/>
-      <c r="I88" s="6" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="6" t="n"/>
@@ -9968,7 +9855,6 @@
       <c r="F89" s="6" t="n"/>
       <c r="G89" s="6" t="n"/>
       <c r="H89" s="6" t="n"/>
-      <c r="I89" s="6" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="6" t="n"/>
@@ -9979,7 +9865,6 @@
       <c r="F90" s="6" t="n"/>
       <c r="G90" s="6" t="n"/>
       <c r="H90" s="6" t="n"/>
-      <c r="I90" s="6" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="6" t="n"/>
@@ -9990,7 +9875,6 @@
       <c r="F91" s="6" t="n"/>
       <c r="G91" s="6" t="n"/>
       <c r="H91" s="6" t="n"/>
-      <c r="I91" s="6" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="6" t="n"/>
@@ -10001,7 +9885,6 @@
       <c r="F92" s="6" t="n"/>
       <c r="G92" s="6" t="n"/>
       <c r="H92" s="6" t="n"/>
-      <c r="I92" s="6" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="6" t="n"/>
@@ -10012,7 +9895,6 @@
       <c r="F93" s="6" t="n"/>
       <c r="G93" s="6" t="n"/>
       <c r="H93" s="6" t="n"/>
-      <c r="I93" s="6" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="n"/>
@@ -10023,7 +9905,6 @@
       <c r="F94" s="6" t="n"/>
       <c r="G94" s="6" t="n"/>
       <c r="H94" s="6" t="n"/>
-      <c r="I94" s="6" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="6" t="n"/>
@@ -10034,7 +9915,6 @@
       <c r="F95" s="6" t="n"/>
       <c r="G95" s="6" t="n"/>
       <c r="H95" s="6" t="n"/>
-      <c r="I95" s="6" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="6" t="n"/>
@@ -10045,7 +9925,6 @@
       <c r="F96" s="6" t="n"/>
       <c r="G96" s="6" t="n"/>
       <c r="H96" s="6" t="n"/>
-      <c r="I96" s="6" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="6" t="n"/>
@@ -10056,7 +9935,6 @@
       <c r="F97" s="6" t="n"/>
       <c r="G97" s="6" t="n"/>
       <c r="H97" s="6" t="n"/>
-      <c r="I97" s="6" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="6" t="n"/>
@@ -10067,7 +9945,6 @@
       <c r="F98" s="6" t="n"/>
       <c r="G98" s="6" t="n"/>
       <c r="H98" s="6" t="n"/>
-      <c r="I98" s="6" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="6" t="n"/>
@@ -10078,7 +9955,6 @@
       <c r="F99" s="6" t="n"/>
       <c r="G99" s="6" t="n"/>
       <c r="H99" s="6" t="n"/>
-      <c r="I99" s="6" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="6" t="n"/>
@@ -10089,7 +9965,6 @@
       <c r="F100" s="6" t="n"/>
       <c r="G100" s="6" t="n"/>
       <c r="H100" s="6" t="n"/>
-      <c r="I100" s="6" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="n"/>
@@ -10100,7 +9975,6 @@
       <c r="F101" s="6" t="n"/>
       <c r="G101" s="6" t="n"/>
       <c r="H101" s="6" t="n"/>
-      <c r="I101" s="6" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="6" t="n"/>
@@ -10111,7 +9985,6 @@
       <c r="F102" s="6" t="n"/>
       <c r="G102" s="6" t="n"/>
       <c r="H102" s="6" t="n"/>
-      <c r="I102" s="6" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="6" t="n"/>
@@ -10122,7 +9995,6 @@
       <c r="F103" s="6" t="n"/>
       <c r="G103" s="6" t="n"/>
       <c r="H103" s="6" t="n"/>
-      <c r="I103" s="6" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="6" t="n"/>
@@ -10133,7 +10005,6 @@
       <c r="F104" s="6" t="n"/>
       <c r="G104" s="6" t="n"/>
       <c r="H104" s="6" t="n"/>
-      <c r="I104" s="6" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="6" t="n"/>
@@ -10144,7 +10015,6 @@
       <c r="F105" s="6" t="n"/>
       <c r="G105" s="6" t="n"/>
       <c r="H105" s="6" t="n"/>
-      <c r="I105" s="6" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="6" t="n"/>
@@ -10155,7 +10025,6 @@
       <c r="F106" s="6" t="n"/>
       <c r="G106" s="6" t="n"/>
       <c r="H106" s="6" t="n"/>
-      <c r="I106" s="6" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="6" t="n"/>
@@ -10166,7 +10035,6 @@
       <c r="F107" s="6" t="n"/>
       <c r="G107" s="6" t="n"/>
       <c r="H107" s="6" t="n"/>
-      <c r="I107" s="6" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="6" t="n"/>
@@ -10177,7 +10045,6 @@
       <c r="F108" s="6" t="n"/>
       <c r="G108" s="6" t="n"/>
       <c r="H108" s="6" t="n"/>
-      <c r="I108" s="6" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="6" t="n"/>
@@ -10188,7 +10055,6 @@
       <c r="F109" s="6" t="n"/>
       <c r="G109" s="6" t="n"/>
       <c r="H109" s="6" t="n"/>
-      <c r="I109" s="6" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="6" t="n"/>
@@ -10199,7 +10065,6 @@
       <c r="F110" s="6" t="n"/>
       <c r="G110" s="6" t="n"/>
       <c r="H110" s="6" t="n"/>
-      <c r="I110" s="6" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="6" t="n"/>
@@ -10210,7 +10075,6 @@
       <c r="F111" s="6" t="n"/>
       <c r="G111" s="6" t="n"/>
       <c r="H111" s="6" t="n"/>
-      <c r="I111" s="6" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="6" t="n"/>
@@ -10221,7 +10085,6 @@
       <c r="F112" s="6" t="n"/>
       <c r="G112" s="6" t="n"/>
       <c r="H112" s="6" t="n"/>
-      <c r="I112" s="6" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="6" t="n"/>
@@ -10232,7 +10095,6 @@
       <c r="F113" s="6" t="n"/>
       <c r="G113" s="6" t="n"/>
       <c r="H113" s="6" t="n"/>
-      <c r="I113" s="6" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="6" t="n"/>
@@ -10243,7 +10105,6 @@
       <c r="F114" s="6" t="n"/>
       <c r="G114" s="6" t="n"/>
       <c r="H114" s="6" t="n"/>
-      <c r="I114" s="6" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="6" t="n"/>
@@ -10254,7 +10115,6 @@
       <c r="F115" s="6" t="n"/>
       <c r="G115" s="6" t="n"/>
       <c r="H115" s="6" t="n"/>
-      <c r="I115" s="6" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="6" t="n"/>
@@ -10265,7 +10125,6 @@
       <c r="F116" s="6" t="n"/>
       <c r="G116" s="6" t="n"/>
       <c r="H116" s="6" t="n"/>
-      <c r="I116" s="6" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="6" t="n"/>
@@ -10276,7 +10135,6 @@
       <c r="F117" s="6" t="n"/>
       <c r="G117" s="6" t="n"/>
       <c r="H117" s="6" t="n"/>
-      <c r="I117" s="6" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="6" t="n"/>
@@ -10287,7 +10145,6 @@
       <c r="F118" s="6" t="n"/>
       <c r="G118" s="6" t="n"/>
       <c r="H118" s="6" t="n"/>
-      <c r="I118" s="6" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="6" t="n"/>
@@ -10298,7 +10155,6 @@
       <c r="F119" s="6" t="n"/>
       <c r="G119" s="6" t="n"/>
       <c r="H119" s="6" t="n"/>
-      <c r="I119" s="6" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="6" t="n"/>
@@ -10309,7 +10165,6 @@
       <c r="F120" s="6" t="n"/>
       <c r="G120" s="6" t="n"/>
       <c r="H120" s="6" t="n"/>
-      <c r="I120" s="6" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="6" t="n"/>
@@ -10320,7 +10175,6 @@
       <c r="F121" s="6" t="n"/>
       <c r="G121" s="6" t="n"/>
       <c r="H121" s="6" t="n"/>
-      <c r="I121" s="6" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="6" t="n"/>
@@ -10331,7 +10185,6 @@
       <c r="F122" s="6" t="n"/>
       <c r="G122" s="6" t="n"/>
       <c r="H122" s="6" t="n"/>
-      <c r="I122" s="6" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="6" t="n"/>
@@ -10342,7 +10195,6 @@
       <c r="F123" s="6" t="n"/>
       <c r="G123" s="6" t="n"/>
       <c r="H123" s="6" t="n"/>
-      <c r="I123" s="6" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="6" t="n"/>
@@ -10353,7 +10205,6 @@
       <c r="F124" s="6" t="n"/>
       <c r="G124" s="6" t="n"/>
       <c r="H124" s="6" t="n"/>
-      <c r="I124" s="6" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="6" t="n"/>
@@ -10364,7 +10215,6 @@
       <c r="F125" s="6" t="n"/>
       <c r="G125" s="6" t="n"/>
       <c r="H125" s="6" t="n"/>
-      <c r="I125" s="6" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="6" t="n"/>
@@ -10375,7 +10225,6 @@
       <c r="F126" s="6" t="n"/>
       <c r="G126" s="6" t="n"/>
       <c r="H126" s="6" t="n"/>
-      <c r="I126" s="6" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="6" t="n"/>
@@ -10386,7 +10235,6 @@
       <c r="F127" s="6" t="n"/>
       <c r="G127" s="6" t="n"/>
       <c r="H127" s="6" t="n"/>
-      <c r="I127" s="6" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="6" t="n"/>
@@ -10397,7 +10245,6 @@
       <c r="F128" s="6" t="n"/>
       <c r="G128" s="6" t="n"/>
       <c r="H128" s="6" t="n"/>
-      <c r="I128" s="6" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="6" t="n"/>
@@ -10408,7 +10255,6 @@
       <c r="F129" s="6" t="n"/>
       <c r="G129" s="6" t="n"/>
       <c r="H129" s="6" t="n"/>
-      <c r="I129" s="6" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="6" t="n"/>
@@ -10419,7 +10265,6 @@
       <c r="F130" s="6" t="n"/>
       <c r="G130" s="6" t="n"/>
       <c r="H130" s="6" t="n"/>
-      <c r="I130" s="6" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="6" t="n"/>
@@ -10430,7 +10275,6 @@
       <c r="F131" s="6" t="n"/>
       <c r="G131" s="6" t="n"/>
       <c r="H131" s="6" t="n"/>
-      <c r="I131" s="6" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="6" t="n"/>
@@ -10441,7 +10285,6 @@
       <c r="F132" s="6" t="n"/>
       <c r="G132" s="6" t="n"/>
       <c r="H132" s="6" t="n"/>
-      <c r="I132" s="6" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="6" t="n"/>
@@ -10452,7 +10295,6 @@
       <c r="F133" s="6" t="n"/>
       <c r="G133" s="6" t="n"/>
       <c r="H133" s="6" t="n"/>
-      <c r="I133" s="6" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="6" t="n"/>
@@ -10463,7 +10305,6 @@
       <c r="F134" s="6" t="n"/>
       <c r="G134" s="6" t="n"/>
       <c r="H134" s="6" t="n"/>
-      <c r="I134" s="6" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="6" t="n"/>
@@ -10474,7 +10315,6 @@
       <c r="F135" s="6" t="n"/>
       <c r="G135" s="6" t="n"/>
       <c r="H135" s="6" t="n"/>
-      <c r="I135" s="6" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="6" t="n"/>
@@ -10485,7 +10325,6 @@
       <c r="F136" s="6" t="n"/>
       <c r="G136" s="6" t="n"/>
       <c r="H136" s="6" t="n"/>
-      <c r="I136" s="6" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="6" t="n"/>
@@ -10496,7 +10335,6 @@
       <c r="F137" s="6" t="n"/>
       <c r="G137" s="6" t="n"/>
       <c r="H137" s="6" t="n"/>
-      <c r="I137" s="6" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="6" t="n"/>
@@ -10507,7 +10345,6 @@
       <c r="F138" s="6" t="n"/>
       <c r="G138" s="6" t="n"/>
       <c r="H138" s="6" t="n"/>
-      <c r="I138" s="6" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="6" t="n"/>
@@ -10518,7 +10355,6 @@
       <c r="F139" s="6" t="n"/>
       <c r="G139" s="6" t="n"/>
       <c r="H139" s="6" t="n"/>
-      <c r="I139" s="6" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="6" t="n"/>
@@ -10529,7 +10365,6 @@
       <c r="F140" s="6" t="n"/>
       <c r="G140" s="6" t="n"/>
       <c r="H140" s="6" t="n"/>
-      <c r="I140" s="6" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="6" t="n"/>
@@ -10540,7 +10375,6 @@
       <c r="F141" s="6" t="n"/>
       <c r="G141" s="6" t="n"/>
       <c r="H141" s="6" t="n"/>
-      <c r="I141" s="6" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="6" t="n"/>
@@ -10551,7 +10385,6 @@
       <c r="F142" s="6" t="n"/>
       <c r="G142" s="6" t="n"/>
       <c r="H142" s="6" t="n"/>
-      <c r="I142" s="6" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="6" t="n"/>
@@ -10562,7 +10395,6 @@
       <c r="F143" s="6" t="n"/>
       <c r="G143" s="6" t="n"/>
       <c r="H143" s="6" t="n"/>
-      <c r="I143" s="6" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="6" t="n"/>
@@ -10573,7 +10405,6 @@
       <c r="F144" s="6" t="n"/>
       <c r="G144" s="6" t="n"/>
       <c r="H144" s="6" t="n"/>
-      <c r="I144" s="6" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="6" t="n"/>
@@ -10584,7 +10415,6 @@
       <c r="F145" s="6" t="n"/>
       <c r="G145" s="6" t="n"/>
       <c r="H145" s="6" t="n"/>
-      <c r="I145" s="6" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="6" t="n"/>
@@ -10595,7 +10425,6 @@
       <c r="F146" s="6" t="n"/>
       <c r="G146" s="6" t="n"/>
       <c r="H146" s="6" t="n"/>
-      <c r="I146" s="6" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="6" t="n"/>
@@ -10606,7 +10435,6 @@
       <c r="F147" s="6" t="n"/>
       <c r="G147" s="6" t="n"/>
       <c r="H147" s="6" t="n"/>
-      <c r="I147" s="6" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="6" t="n"/>
@@ -10617,7 +10445,6 @@
       <c r="F148" s="6" t="n"/>
       <c r="G148" s="6" t="n"/>
       <c r="H148" s="6" t="n"/>
-      <c r="I148" s="6" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="6" t="n"/>
@@ -10628,7 +10455,6 @@
       <c r="F149" s="6" t="n"/>
       <c r="G149" s="6" t="n"/>
       <c r="H149" s="6" t="n"/>
-      <c r="I149" s="6" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="6" t="n"/>
@@ -10639,7 +10465,6 @@
       <c r="F150" s="6" t="n"/>
       <c r="G150" s="6" t="n"/>
       <c r="H150" s="6" t="n"/>
-      <c r="I150" s="6" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="6" t="n"/>
@@ -10650,7 +10475,6 @@
       <c r="F151" s="6" t="n"/>
       <c r="G151" s="6" t="n"/>
       <c r="H151" s="6" t="n"/>
-      <c r="I151" s="6" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="6" t="n"/>
@@ -10661,7 +10485,6 @@
       <c r="F152" s="6" t="n"/>
       <c r="G152" s="6" t="n"/>
       <c r="H152" s="6" t="n"/>
-      <c r="I152" s="6" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="6" t="n"/>
@@ -10672,7 +10495,6 @@
       <c r="F153" s="6" t="n"/>
       <c r="G153" s="6" t="n"/>
       <c r="H153" s="6" t="n"/>
-      <c r="I153" s="6" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="6" t="n"/>
@@ -10683,7 +10505,6 @@
       <c r="F154" s="6" t="n"/>
       <c r="G154" s="6" t="n"/>
       <c r="H154" s="6" t="n"/>
-      <c r="I154" s="6" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="6" t="n"/>
@@ -10694,7 +10515,6 @@
       <c r="F155" s="6" t="n"/>
       <c r="G155" s="6" t="n"/>
       <c r="H155" s="6" t="n"/>
-      <c r="I155" s="6" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="6" t="n"/>
@@ -10705,7 +10525,6 @@
       <c r="F156" s="6" t="n"/>
       <c r="G156" s="6" t="n"/>
       <c r="H156" s="6" t="n"/>
-      <c r="I156" s="6" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="6" t="n"/>
@@ -10716,7 +10535,6 @@
       <c r="F157" s="6" t="n"/>
       <c r="G157" s="6" t="n"/>
       <c r="H157" s="6" t="n"/>
-      <c r="I157" s="6" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="6" t="n"/>
@@ -10727,7 +10545,6 @@
       <c r="F158" s="6" t="n"/>
       <c r="G158" s="6" t="n"/>
       <c r="H158" s="6" t="n"/>
-      <c r="I158" s="6" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="6" t="n"/>
@@ -10738,7 +10555,6 @@
       <c r="F159" s="6" t="n"/>
       <c r="G159" s="6" t="n"/>
       <c r="H159" s="6" t="n"/>
-      <c r="I159" s="6" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="6" t="n"/>
@@ -10749,7 +10565,6 @@
       <c r="F160" s="6" t="n"/>
       <c r="G160" s="6" t="n"/>
       <c r="H160" s="6" t="n"/>
-      <c r="I160" s="6" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="6" t="n"/>
@@ -10760,7 +10575,6 @@
       <c r="F161" s="6" t="n"/>
       <c r="G161" s="6" t="n"/>
       <c r="H161" s="6" t="n"/>
-      <c r="I161" s="6" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="6" t="n"/>
@@ -10771,7 +10585,6 @@
       <c r="F162" s="6" t="n"/>
       <c r="G162" s="6" t="n"/>
       <c r="H162" s="6" t="n"/>
-      <c r="I162" s="6" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="6" t="n"/>
@@ -10782,7 +10595,6 @@
       <c r="F163" s="6" t="n"/>
       <c r="G163" s="6" t="n"/>
       <c r="H163" s="6" t="n"/>
-      <c r="I163" s="6" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="6" t="n"/>
@@ -10793,7 +10605,6 @@
       <c r="F164" s="6" t="n"/>
       <c r="G164" s="6" t="n"/>
       <c r="H164" s="6" t="n"/>
-      <c r="I164" s="6" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="6" t="n"/>
@@ -10804,7 +10615,6 @@
       <c r="F165" s="6" t="n"/>
       <c r="G165" s="6" t="n"/>
       <c r="H165" s="6" t="n"/>
-      <c r="I165" s="6" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="6" t="n"/>
@@ -10815,7 +10625,6 @@
       <c r="F166" s="6" t="n"/>
       <c r="G166" s="6" t="n"/>
       <c r="H166" s="6" t="n"/>
-      <c r="I166" s="6" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="6" t="n"/>
@@ -10826,7 +10635,6 @@
       <c r="F167" s="6" t="n"/>
       <c r="G167" s="6" t="n"/>
       <c r="H167" s="6" t="n"/>
-      <c r="I167" s="6" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="6" t="n"/>
@@ -10837,7 +10645,6 @@
       <c r="F168" s="6" t="n"/>
       <c r="G168" s="6" t="n"/>
       <c r="H168" s="6" t="n"/>
-      <c r="I168" s="6" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="6" t="n"/>
@@ -10848,7 +10655,6 @@
       <c r="F169" s="6" t="n"/>
       <c r="G169" s="6" t="n"/>
       <c r="H169" s="6" t="n"/>
-      <c r="I169" s="6" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="6" t="n"/>
@@ -10859,7 +10665,6 @@
       <c r="F170" s="6" t="n"/>
       <c r="G170" s="6" t="n"/>
       <c r="H170" s="6" t="n"/>
-      <c r="I170" s="6" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="6" t="n"/>
@@ -10870,7 +10675,6 @@
       <c r="F171" s="6" t="n"/>
       <c r="G171" s="6" t="n"/>
       <c r="H171" s="6" t="n"/>
-      <c r="I171" s="6" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="6" t="n"/>
@@ -10881,7 +10685,6 @@
       <c r="F172" s="6" t="n"/>
       <c r="G172" s="6" t="n"/>
       <c r="H172" s="6" t="n"/>
-      <c r="I172" s="6" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="6" t="n"/>
@@ -10892,7 +10695,6 @@
       <c r="F173" s="6" t="n"/>
       <c r="G173" s="6" t="n"/>
       <c r="H173" s="6" t="n"/>
-      <c r="I173" s="6" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="6" t="n"/>
@@ -10903,7 +10705,6 @@
       <c r="F174" s="6" t="n"/>
       <c r="G174" s="6" t="n"/>
       <c r="H174" s="6" t="n"/>
-      <c r="I174" s="6" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="6" t="n"/>
@@ -10914,7 +10715,6 @@
       <c r="F175" s="6" t="n"/>
       <c r="G175" s="6" t="n"/>
       <c r="H175" s="6" t="n"/>
-      <c r="I175" s="6" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="6" t="n"/>
@@ -10925,7 +10725,6 @@
       <c r="F176" s="6" t="n"/>
       <c r="G176" s="6" t="n"/>
       <c r="H176" s="6" t="n"/>
-      <c r="I176" s="6" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="6" t="n"/>
@@ -10936,7 +10735,6 @@
       <c r="F177" s="6" t="n"/>
       <c r="G177" s="6" t="n"/>
       <c r="H177" s="6" t="n"/>
-      <c r="I177" s="6" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="6" t="n"/>
@@ -10947,7 +10745,6 @@
       <c r="F178" s="6" t="n"/>
       <c r="G178" s="6" t="n"/>
       <c r="H178" s="6" t="n"/>
-      <c r="I178" s="6" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="6" t="n"/>
@@ -10958,7 +10755,6 @@
       <c r="F179" s="6" t="n"/>
       <c r="G179" s="6" t="n"/>
       <c r="H179" s="6" t="n"/>
-      <c r="I179" s="6" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="6" t="n"/>
@@ -10969,7 +10765,6 @@
       <c r="F180" s="6" t="n"/>
       <c r="G180" s="6" t="n"/>
       <c r="H180" s="6" t="n"/>
-      <c r="I180" s="6" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="6" t="n"/>
@@ -10980,7 +10775,6 @@
       <c r="F181" s="6" t="n"/>
       <c r="G181" s="6" t="n"/>
       <c r="H181" s="6" t="n"/>
-      <c r="I181" s="6" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="6" t="n"/>
@@ -10991,7 +10785,6 @@
       <c r="F182" s="6" t="n"/>
       <c r="G182" s="6" t="n"/>
       <c r="H182" s="6" t="n"/>
-      <c r="I182" s="6" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="6" t="n"/>
@@ -11002,7 +10795,6 @@
       <c r="F183" s="6" t="n"/>
       <c r="G183" s="6" t="n"/>
       <c r="H183" s="6" t="n"/>
-      <c r="I183" s="6" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="6" t="n"/>
@@ -11013,7 +10805,6 @@
       <c r="F184" s="6" t="n"/>
       <c r="G184" s="6" t="n"/>
       <c r="H184" s="6" t="n"/>
-      <c r="I184" s="6" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="6" t="n"/>
@@ -11024,7 +10815,6 @@
       <c r="F185" s="6" t="n"/>
       <c r="G185" s="6" t="n"/>
       <c r="H185" s="6" t="n"/>
-      <c r="I185" s="6" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="6" t="n"/>
@@ -11035,7 +10825,6 @@
       <c r="F186" s="6" t="n"/>
       <c r="G186" s="6" t="n"/>
       <c r="H186" s="6" t="n"/>
-      <c r="I186" s="6" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="6" t="n"/>
@@ -11046,7 +10835,6 @@
       <c r="F187" s="6" t="n"/>
       <c r="G187" s="6" t="n"/>
       <c r="H187" s="6" t="n"/>
-      <c r="I187" s="6" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="6" t="n"/>
@@ -11057,7 +10845,6 @@
       <c r="F188" s="6" t="n"/>
       <c r="G188" s="6" t="n"/>
       <c r="H188" s="6" t="n"/>
-      <c r="I188" s="6" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="6" t="n"/>
@@ -11068,7 +10855,6 @@
       <c r="F189" s="6" t="n"/>
       <c r="G189" s="6" t="n"/>
       <c r="H189" s="6" t="n"/>
-      <c r="I189" s="6" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="6" t="n"/>
@@ -11079,7 +10865,6 @@
       <c r="F190" s="6" t="n"/>
       <c r="G190" s="6" t="n"/>
       <c r="H190" s="6" t="n"/>
-      <c r="I190" s="6" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="6" t="n"/>
@@ -11090,7 +10875,6 @@
       <c r="F191" s="6" t="n"/>
       <c r="G191" s="6" t="n"/>
       <c r="H191" s="6" t="n"/>
-      <c r="I191" s="6" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="6" t="n"/>
@@ -11101,7 +10885,6 @@
       <c r="F192" s="6" t="n"/>
       <c r="G192" s="6" t="n"/>
       <c r="H192" s="6" t="n"/>
-      <c r="I192" s="6" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="6" t="n"/>
@@ -11112,7 +10895,6 @@
       <c r="F193" s="6" t="n"/>
       <c r="G193" s="6" t="n"/>
       <c r="H193" s="6" t="n"/>
-      <c r="I193" s="6" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="6" t="n"/>
@@ -11123,7 +10905,6 @@
       <c r="F194" s="6" t="n"/>
       <c r="G194" s="6" t="n"/>
       <c r="H194" s="6" t="n"/>
-      <c r="I194" s="6" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="6" t="n"/>
@@ -11134,7 +10915,6 @@
       <c r="F195" s="6" t="n"/>
       <c r="G195" s="6" t="n"/>
       <c r="H195" s="6" t="n"/>
-      <c r="I195" s="6" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="6" t="n"/>
@@ -11145,7 +10925,6 @@
       <c r="F196" s="6" t="n"/>
       <c r="G196" s="6" t="n"/>
       <c r="H196" s="6" t="n"/>
-      <c r="I196" s="6" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="6" t="n"/>
@@ -11156,7 +10935,6 @@
       <c r="F197" s="6" t="n"/>
       <c r="G197" s="6" t="n"/>
       <c r="H197" s="6" t="n"/>
-      <c r="I197" s="6" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="6" t="n"/>
@@ -11167,7 +10945,6 @@
       <c r="F198" s="6" t="n"/>
       <c r="G198" s="6" t="n"/>
       <c r="H198" s="6" t="n"/>
-      <c r="I198" s="6" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="6" t="n"/>
@@ -11178,7 +10955,6 @@
       <c r="F199" s="6" t="n"/>
       <c r="G199" s="6" t="n"/>
       <c r="H199" s="6" t="n"/>
-      <c r="I199" s="6" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="6" t="n"/>
@@ -11189,7 +10965,6 @@
       <c r="F200" s="6" t="n"/>
       <c r="G200" s="6" t="n"/>
       <c r="H200" s="6" t="n"/>
-      <c r="I200" s="6" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="6" t="n"/>
@@ -11200,7 +10975,6 @@
       <c r="F201" s="6" t="n"/>
       <c r="G201" s="6" t="n"/>
       <c r="H201" s="6" t="n"/>
-      <c r="I201" s="6" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="6" t="n"/>
@@ -11211,7 +10985,6 @@
       <c r="F202" s="6" t="n"/>
       <c r="G202" s="6" t="n"/>
       <c r="H202" s="6" t="n"/>
-      <c r="I202" s="6" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="6" t="n"/>
@@ -11222,7 +10995,6 @@
       <c r="F203" s="6" t="n"/>
       <c r="G203" s="6" t="n"/>
       <c r="H203" s="6" t="n"/>
-      <c r="I203" s="6" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="6" t="n"/>
@@ -11233,7 +11005,6 @@
       <c r="F204" s="6" t="n"/>
       <c r="G204" s="6" t="n"/>
       <c r="H204" s="6" t="n"/>
-      <c r="I204" s="6" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="6" t="n"/>
@@ -11244,7 +11015,6 @@
       <c r="F205" s="6" t="n"/>
       <c r="G205" s="6" t="n"/>
       <c r="H205" s="6" t="n"/>
-      <c r="I205" s="6" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="6" t="n"/>
@@ -11255,7 +11025,6 @@
       <c r="F206" s="6" t="n"/>
       <c r="G206" s="6" t="n"/>
       <c r="H206" s="6" t="n"/>
-      <c r="I206" s="6" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="6" t="n"/>
@@ -11266,7 +11035,6 @@
       <c r="F207" s="6" t="n"/>
       <c r="G207" s="6" t="n"/>
       <c r="H207" s="6" t="n"/>
-      <c r="I207" s="6" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="6" t="n"/>
@@ -11277,7 +11045,6 @@
       <c r="F208" s="6" t="n"/>
       <c r="G208" s="6" t="n"/>
       <c r="H208" s="6" t="n"/>
-      <c r="I208" s="6" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="6" t="n"/>
@@ -11288,7 +11055,6 @@
       <c r="F209" s="6" t="n"/>
       <c r="G209" s="6" t="n"/>
       <c r="H209" s="6" t="n"/>
-      <c r="I209" s="6" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="6" t="n"/>
@@ -11299,7 +11065,6 @@
       <c r="F210" s="6" t="n"/>
       <c r="G210" s="6" t="n"/>
       <c r="H210" s="6" t="n"/>
-      <c r="I210" s="6" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="6" t="n"/>
@@ -11310,7 +11075,6 @@
       <c r="F211" s="6" t="n"/>
       <c r="G211" s="6" t="n"/>
       <c r="H211" s="6" t="n"/>
-      <c r="I211" s="6" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="6" t="n"/>
@@ -11321,7 +11085,6 @@
       <c r="F212" s="6" t="n"/>
       <c r="G212" s="6" t="n"/>
       <c r="H212" s="6" t="n"/>
-      <c r="I212" s="6" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="6" t="n"/>
@@ -11332,7 +11095,6 @@
       <c r="F213" s="6" t="n"/>
       <c r="G213" s="6" t="n"/>
       <c r="H213" s="6" t="n"/>
-      <c r="I213" s="6" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="6" t="n"/>
@@ -11343,7 +11105,6 @@
       <c r="F214" s="6" t="n"/>
       <c r="G214" s="6" t="n"/>
       <c r="H214" s="6" t="n"/>
-      <c r="I214" s="6" t="n"/>
     </row>
     <row r="215">
       <c r="A215" s="6" t="n"/>
@@ -11354,7 +11115,6 @@
       <c r="F215" s="6" t="n"/>
       <c r="G215" s="6" t="n"/>
       <c r="H215" s="6" t="n"/>
-      <c r="I215" s="6" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="6" t="n"/>
@@ -11365,7 +11125,6 @@
       <c r="F216" s="6" t="n"/>
       <c r="G216" s="6" t="n"/>
       <c r="H216" s="6" t="n"/>
-      <c r="I216" s="6" t="n"/>
     </row>
     <row r="217">
       <c r="A217" s="6" t="n"/>
@@ -11376,7 +11135,6 @@
       <c r="F217" s="6" t="n"/>
       <c r="G217" s="6" t="n"/>
       <c r="H217" s="6" t="n"/>
-      <c r="I217" s="6" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="6" t="n"/>
@@ -11387,7 +11145,6 @@
       <c r="F218" s="6" t="n"/>
       <c r="G218" s="6" t="n"/>
       <c r="H218" s="6" t="n"/>
-      <c r="I218" s="6" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="6" t="n"/>
@@ -11398,7 +11155,6 @@
       <c r="F219" s="6" t="n"/>
       <c r="G219" s="6" t="n"/>
       <c r="H219" s="6" t="n"/>
-      <c r="I219" s="6" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="6" t="n"/>
@@ -11409,7 +11165,6 @@
       <c r="F220" s="6" t="n"/>
       <c r="G220" s="6" t="n"/>
       <c r="H220" s="6" t="n"/>
-      <c r="I220" s="6" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="6" t="n"/>
@@ -11420,7 +11175,6 @@
       <c r="F221" s="6" t="n"/>
       <c r="G221" s="6" t="n"/>
       <c r="H221" s="6" t="n"/>
-      <c r="I221" s="6" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="6" t="n"/>
@@ -11431,7 +11185,6 @@
       <c r="F222" s="6" t="n"/>
       <c r="G222" s="6" t="n"/>
       <c r="H222" s="6" t="n"/>
-      <c r="I222" s="6" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="6" t="n"/>
@@ -11442,7 +11195,6 @@
       <c r="F223" s="6" t="n"/>
       <c r="G223" s="6" t="n"/>
       <c r="H223" s="6" t="n"/>
-      <c r="I223" s="6" t="n"/>
     </row>
     <row r="224">
       <c r="A224" s="6" t="n"/>
@@ -11453,7 +11205,6 @@
       <c r="F224" s="6" t="n"/>
       <c r="G224" s="6" t="n"/>
       <c r="H224" s="6" t="n"/>
-      <c r="I224" s="6" t="n"/>
     </row>
     <row r="225">
       <c r="A225" s="6" t="n"/>
@@ -11464,7 +11215,6 @@
       <c r="F225" s="6" t="n"/>
       <c r="G225" s="6" t="n"/>
       <c r="H225" s="6" t="n"/>
-      <c r="I225" s="6" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="6" t="n"/>
@@ -11475,7 +11225,6 @@
       <c r="F226" s="6" t="n"/>
       <c r="G226" s="6" t="n"/>
       <c r="H226" s="6" t="n"/>
-      <c r="I226" s="6" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="6" t="n"/>
@@ -11486,7 +11235,6 @@
       <c r="F227" s="6" t="n"/>
       <c r="G227" s="6" t="n"/>
       <c r="H227" s="6" t="n"/>
-      <c r="I227" s="6" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="6" t="n"/>
@@ -11497,7 +11245,6 @@
       <c r="F228" s="6" t="n"/>
       <c r="G228" s="6" t="n"/>
       <c r="H228" s="6" t="n"/>
-      <c r="I228" s="6" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="6" t="n"/>
@@ -11508,7 +11255,6 @@
       <c r="F229" s="6" t="n"/>
       <c r="G229" s="6" t="n"/>
       <c r="H229" s="6" t="n"/>
-      <c r="I229" s="6" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="6" t="n"/>
@@ -11519,7 +11265,6 @@
       <c r="F230" s="6" t="n"/>
       <c r="G230" s="6" t="n"/>
       <c r="H230" s="6" t="n"/>
-      <c r="I230" s="6" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="6" t="n"/>
@@ -11530,7 +11275,6 @@
       <c r="F231" s="6" t="n"/>
       <c r="G231" s="6" t="n"/>
       <c r="H231" s="6" t="n"/>
-      <c r="I231" s="6" t="n"/>
     </row>
     <row r="232">
       <c r="A232" s="6" t="n"/>
@@ -11541,7 +11285,6 @@
       <c r="F232" s="6" t="n"/>
       <c r="G232" s="6" t="n"/>
       <c r="H232" s="6" t="n"/>
-      <c r="I232" s="6" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="6" t="n"/>
@@ -11552,7 +11295,6 @@
       <c r="F233" s="6" t="n"/>
       <c r="G233" s="6" t="n"/>
       <c r="H233" s="6" t="n"/>
-      <c r="I233" s="6" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="6" t="n"/>
@@ -11563,7 +11305,6 @@
       <c r="F234" s="6" t="n"/>
       <c r="G234" s="6" t="n"/>
       <c r="H234" s="6" t="n"/>
-      <c r="I234" s="6" t="n"/>
     </row>
     <row r="235">
       <c r="A235" s="6" t="n"/>
@@ -11574,7 +11315,6 @@
       <c r="F235" s="6" t="n"/>
       <c r="G235" s="6" t="n"/>
       <c r="H235" s="6" t="n"/>
-      <c r="I235" s="6" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="6" t="n"/>
@@ -11585,7 +11325,6 @@
       <c r="F236" s="6" t="n"/>
       <c r="G236" s="6" t="n"/>
       <c r="H236" s="6" t="n"/>
-      <c r="I236" s="6" t="n"/>
     </row>
     <row r="237">
       <c r="A237" s="6" t="n"/>
@@ -11596,7 +11335,6 @@
       <c r="F237" s="6" t="n"/>
       <c r="G237" s="6" t="n"/>
       <c r="H237" s="6" t="n"/>
-      <c r="I237" s="6" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="6" t="n"/>
@@ -11607,7 +11345,6 @@
       <c r="F238" s="6" t="n"/>
       <c r="G238" s="6" t="n"/>
       <c r="H238" s="6" t="n"/>
-      <c r="I238" s="6" t="n"/>
     </row>
     <row r="239">
       <c r="A239" s="6" t="n"/>
@@ -11618,7 +11355,6 @@
       <c r="F239" s="6" t="n"/>
       <c r="G239" s="6" t="n"/>
       <c r="H239" s="6" t="n"/>
-      <c r="I239" s="6" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="6" t="n"/>
@@ -11629,7 +11365,6 @@
       <c r="F240" s="6" t="n"/>
       <c r="G240" s="6" t="n"/>
       <c r="H240" s="6" t="n"/>
-      <c r="I240" s="6" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="6" t="n"/>
@@ -11640,7 +11375,6 @@
       <c r="F241" s="6" t="n"/>
       <c r="G241" s="6" t="n"/>
       <c r="H241" s="6" t="n"/>
-      <c r="I241" s="6" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="6" t="n"/>
@@ -11651,7 +11385,6 @@
       <c r="F242" s="6" t="n"/>
       <c r="G242" s="6" t="n"/>
       <c r="H242" s="6" t="n"/>
-      <c r="I242" s="6" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="6" t="n"/>
@@ -11662,7 +11395,6 @@
       <c r="F243" s="6" t="n"/>
       <c r="G243" s="6" t="n"/>
       <c r="H243" s="6" t="n"/>
-      <c r="I243" s="6" t="n"/>
     </row>
     <row r="244">
       <c r="A244" s="6" t="n"/>
@@ -11673,7 +11405,6 @@
       <c r="F244" s="6" t="n"/>
       <c r="G244" s="6" t="n"/>
       <c r="H244" s="6" t="n"/>
-      <c r="I244" s="6" t="n"/>
     </row>
     <row r="245">
       <c r="A245" s="6" t="n"/>
@@ -11684,7 +11415,6 @@
       <c r="F245" s="6" t="n"/>
       <c r="G245" s="6" t="n"/>
       <c r="H245" s="6" t="n"/>
-      <c r="I245" s="6" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="6" t="n"/>
@@ -11695,7 +11425,6 @@
       <c r="F246" s="6" t="n"/>
       <c r="G246" s="6" t="n"/>
       <c r="H246" s="6" t="n"/>
-      <c r="I246" s="6" t="n"/>
     </row>
     <row r="247">
       <c r="A247" s="6" t="n"/>
@@ -11706,7 +11435,6 @@
       <c r="F247" s="6" t="n"/>
       <c r="G247" s="6" t="n"/>
       <c r="H247" s="6" t="n"/>
-      <c r="I247" s="6" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="6" t="n"/>
@@ -11717,7 +11445,6 @@
       <c r="F248" s="6" t="n"/>
       <c r="G248" s="6" t="n"/>
       <c r="H248" s="6" t="n"/>
-      <c r="I248" s="6" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="6" t="n"/>
@@ -11728,7 +11455,6 @@
       <c r="F249" s="6" t="n"/>
       <c r="G249" s="6" t="n"/>
       <c r="H249" s="6" t="n"/>
-      <c r="I249" s="6" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="6" t="n"/>
@@ -11739,7 +11465,6 @@
       <c r="F250" s="6" t="n"/>
       <c r="G250" s="6" t="n"/>
       <c r="H250" s="6" t="n"/>
-      <c r="I250" s="6" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="6" t="n"/>
@@ -11750,7 +11475,6 @@
       <c r="F251" s="6" t="n"/>
       <c r="G251" s="6" t="n"/>
       <c r="H251" s="6" t="n"/>
-      <c r="I251" s="6" t="n"/>
     </row>
     <row r="252">
       <c r="A252" s="6" t="n"/>
@@ -11761,7 +11485,6 @@
       <c r="F252" s="6" t="n"/>
       <c r="G252" s="6" t="n"/>
       <c r="H252" s="6" t="n"/>
-      <c r="I252" s="6" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="6" t="n"/>
@@ -11772,7 +11495,6 @@
       <c r="F253" s="6" t="n"/>
       <c r="G253" s="6" t="n"/>
       <c r="H253" s="6" t="n"/>
-      <c r="I253" s="6" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="6" t="n"/>
@@ -11783,7 +11505,6 @@
       <c r="F254" s="6" t="n"/>
       <c r="G254" s="6" t="n"/>
       <c r="H254" s="6" t="n"/>
-      <c r="I254" s="6" t="n"/>
     </row>
     <row r="255">
       <c r="A255" s="6" t="n"/>
@@ -11794,7 +11515,6 @@
       <c r="F255" s="6" t="n"/>
       <c r="G255" s="6" t="n"/>
       <c r="H255" s="6" t="n"/>
-      <c r="I255" s="6" t="n"/>
     </row>
     <row r="256">
       <c r="A256" s="6" t="n"/>
@@ -11805,7 +11525,6 @@
       <c r="F256" s="6" t="n"/>
       <c r="G256" s="6" t="n"/>
       <c r="H256" s="6" t="n"/>
-      <c r="I256" s="6" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="6" t="n"/>
@@ -11816,7 +11535,6 @@
       <c r="F257" s="6" t="n"/>
       <c r="G257" s="6" t="n"/>
       <c r="H257" s="6" t="n"/>
-      <c r="I257" s="6" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="6" t="n"/>
@@ -11827,7 +11545,6 @@
       <c r="F258" s="6" t="n"/>
       <c r="G258" s="6" t="n"/>
       <c r="H258" s="6" t="n"/>
-      <c r="I258" s="6" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="6" t="n"/>
@@ -11838,7 +11555,6 @@
       <c r="F259" s="6" t="n"/>
       <c r="G259" s="6" t="n"/>
       <c r="H259" s="6" t="n"/>
-      <c r="I259" s="6" t="n"/>
     </row>
     <row r="260">
       <c r="A260" s="6" t="n"/>
@@ -11849,7 +11565,6 @@
       <c r="F260" s="6" t="n"/>
       <c r="G260" s="6" t="n"/>
       <c r="H260" s="6" t="n"/>
-      <c r="I260" s="6" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="6" t="n"/>
@@ -11860,7 +11575,6 @@
       <c r="F261" s="6" t="n"/>
       <c r="G261" s="6" t="n"/>
       <c r="H261" s="6" t="n"/>
-      <c r="I261" s="6" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="6" t="n"/>
@@ -11871,7 +11585,6 @@
       <c r="F262" s="6" t="n"/>
       <c r="G262" s="6" t="n"/>
       <c r="H262" s="6" t="n"/>
-      <c r="I262" s="6" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="6" t="n"/>
@@ -11882,7 +11595,6 @@
       <c r="F263" s="6" t="n"/>
       <c r="G263" s="6" t="n"/>
       <c r="H263" s="6" t="n"/>
-      <c r="I263" s="6" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="6" t="n"/>
@@ -11893,7 +11605,6 @@
       <c r="F264" s="6" t="n"/>
       <c r="G264" s="6" t="n"/>
       <c r="H264" s="6" t="n"/>
-      <c r="I264" s="6" t="n"/>
     </row>
     <row r="265">
       <c r="A265" s="6" t="n"/>
@@ -11904,7 +11615,6 @@
       <c r="F265" s="6" t="n"/>
       <c r="G265" s="6" t="n"/>
       <c r="H265" s="6" t="n"/>
-      <c r="I265" s="6" t="n"/>
     </row>
     <row r="266">
       <c r="A266" s="6" t="n"/>
@@ -11915,7 +11625,6 @@
       <c r="F266" s="6" t="n"/>
       <c r="G266" s="6" t="n"/>
       <c r="H266" s="6" t="n"/>
-      <c r="I266" s="6" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="6" t="n"/>
@@ -11926,7 +11635,6 @@
       <c r="F267" s="6" t="n"/>
       <c r="G267" s="6" t="n"/>
       <c r="H267" s="6" t="n"/>
-      <c r="I267" s="6" t="n"/>
     </row>
     <row r="268">
       <c r="A268" s="6" t="n"/>
@@ -11937,7 +11645,6 @@
       <c r="F268" s="6" t="n"/>
       <c r="G268" s="6" t="n"/>
       <c r="H268" s="6" t="n"/>
-      <c r="I268" s="6" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="6" t="n"/>
@@ -11948,7 +11655,6 @@
       <c r="F269" s="6" t="n"/>
       <c r="G269" s="6" t="n"/>
       <c r="H269" s="6" t="n"/>
-      <c r="I269" s="6" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="6" t="n"/>
@@ -11959,7 +11665,6 @@
       <c r="F270" s="6" t="n"/>
       <c r="G270" s="6" t="n"/>
       <c r="H270" s="6" t="n"/>
-      <c r="I270" s="6" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="6" t="n"/>
@@ -11970,7 +11675,6 @@
       <c r="F271" s="6" t="n"/>
       <c r="G271" s="6" t="n"/>
       <c r="H271" s="6" t="n"/>
-      <c r="I271" s="6" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="6" t="n"/>
@@ -11981,7 +11685,6 @@
       <c r="F272" s="6" t="n"/>
       <c r="G272" s="6" t="n"/>
       <c r="H272" s="6" t="n"/>
-      <c r="I272" s="6" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="6" t="n"/>
@@ -11992,7 +11695,6 @@
       <c r="F273" s="6" t="n"/>
       <c r="G273" s="6" t="n"/>
       <c r="H273" s="6" t="n"/>
-      <c r="I273" s="6" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="6" t="n"/>
@@ -12003,7 +11705,6 @@
       <c r="F274" s="6" t="n"/>
       <c r="G274" s="6" t="n"/>
       <c r="H274" s="6" t="n"/>
-      <c r="I274" s="6" t="n"/>
     </row>
     <row r="275">
       <c r="A275" s="6" t="n"/>
@@ -12014,7 +11715,6 @@
       <c r="F275" s="6" t="n"/>
       <c r="G275" s="6" t="n"/>
       <c r="H275" s="6" t="n"/>
-      <c r="I275" s="6" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="6" t="n"/>
@@ -12025,7 +11725,6 @@
       <c r="F276" s="6" t="n"/>
       <c r="G276" s="6" t="n"/>
       <c r="H276" s="6" t="n"/>
-      <c r="I276" s="6" t="n"/>
     </row>
     <row r="277">
       <c r="A277" s="6" t="n"/>
@@ -12036,7 +11735,6 @@
       <c r="F277" s="6" t="n"/>
       <c r="G277" s="6" t="n"/>
       <c r="H277" s="6" t="n"/>
-      <c r="I277" s="6" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="6" t="n"/>
@@ -12047,7 +11745,6 @@
       <c r="F278" s="6" t="n"/>
       <c r="G278" s="6" t="n"/>
       <c r="H278" s="6" t="n"/>
-      <c r="I278" s="6" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="6" t="n"/>
@@ -12058,7 +11755,6 @@
       <c r="F279" s="6" t="n"/>
       <c r="G279" s="6" t="n"/>
       <c r="H279" s="6" t="n"/>
-      <c r="I279" s="6" t="n"/>
     </row>
     <row r="280">
       <c r="A280" s="6" t="n"/>
@@ -12069,7 +11765,6 @@
       <c r="F280" s="6" t="n"/>
       <c r="G280" s="6" t="n"/>
       <c r="H280" s="6" t="n"/>
-      <c r="I280" s="6" t="n"/>
     </row>
     <row r="281">
       <c r="A281" s="6" t="n"/>
@@ -12080,7 +11775,6 @@
       <c r="F281" s="6" t="n"/>
       <c r="G281" s="6" t="n"/>
       <c r="H281" s="6" t="n"/>
-      <c r="I281" s="6" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="6" t="n"/>
@@ -12091,7 +11785,6 @@
       <c r="F282" s="6" t="n"/>
       <c r="G282" s="6" t="n"/>
       <c r="H282" s="6" t="n"/>
-      <c r="I282" s="6" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="6" t="n"/>
@@ -12102,7 +11795,6 @@
       <c r="F283" s="6" t="n"/>
       <c r="G283" s="6" t="n"/>
       <c r="H283" s="6" t="n"/>
-      <c r="I283" s="6" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="6" t="n"/>
@@ -12113,7 +11805,6 @@
       <c r="F284" s="6" t="n"/>
       <c r="G284" s="6" t="n"/>
       <c r="H284" s="6" t="n"/>
-      <c r="I284" s="6" t="n"/>
     </row>
     <row r="285">
       <c r="A285" s="6" t="n"/>
@@ -12124,7 +11815,6 @@
       <c r="F285" s="6" t="n"/>
       <c r="G285" s="6" t="n"/>
       <c r="H285" s="6" t="n"/>
-      <c r="I285" s="6" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="6" t="n"/>
@@ -12135,7 +11825,6 @@
       <c r="F286" s="6" t="n"/>
       <c r="G286" s="6" t="n"/>
       <c r="H286" s="6" t="n"/>
-      <c r="I286" s="6" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="6" t="n"/>
@@ -12146,7 +11835,6 @@
       <c r="F287" s="6" t="n"/>
       <c r="G287" s="6" t="n"/>
       <c r="H287" s="6" t="n"/>
-      <c r="I287" s="6" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="6" t="n"/>
@@ -12157,7 +11845,6 @@
       <c r="F288" s="6" t="n"/>
       <c r="G288" s="6" t="n"/>
       <c r="H288" s="6" t="n"/>
-      <c r="I288" s="6" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="6" t="n"/>
@@ -12168,7 +11855,6 @@
       <c r="F289" s="6" t="n"/>
       <c r="G289" s="6" t="n"/>
       <c r="H289" s="6" t="n"/>
-      <c r="I289" s="6" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="6" t="n"/>
@@ -12179,7 +11865,6 @@
       <c r="F290" s="6" t="n"/>
       <c r="G290" s="6" t="n"/>
       <c r="H290" s="6" t="n"/>
-      <c r="I290" s="6" t="n"/>
     </row>
     <row r="291">
       <c r="A291" s="6" t="n"/>
@@ -12190,7 +11875,6 @@
       <c r="F291" s="6" t="n"/>
       <c r="G291" s="6" t="n"/>
       <c r="H291" s="6" t="n"/>
-      <c r="I291" s="6" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="6" t="n"/>
@@ -12201,7 +11885,6 @@
       <c r="F292" s="6" t="n"/>
       <c r="G292" s="6" t="n"/>
       <c r="H292" s="6" t="n"/>
-      <c r="I292" s="6" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="6" t="n"/>
@@ -12212,7 +11895,6 @@
       <c r="F293" s="6" t="n"/>
       <c r="G293" s="6" t="n"/>
       <c r="H293" s="6" t="n"/>
-      <c r="I293" s="6" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="6" t="n"/>
@@ -12223,7 +11905,6 @@
       <c r="F294" s="6" t="n"/>
       <c r="G294" s="6" t="n"/>
       <c r="H294" s="6" t="n"/>
-      <c r="I294" s="6" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="6" t="n"/>
@@ -12234,7 +11915,6 @@
       <c r="F295" s="6" t="n"/>
       <c r="G295" s="6" t="n"/>
       <c r="H295" s="6" t="n"/>
-      <c r="I295" s="6" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="6" t="n"/>
@@ -12245,7 +11925,6 @@
       <c r="F296" s="6" t="n"/>
       <c r="G296" s="6" t="n"/>
       <c r="H296" s="6" t="n"/>
-      <c r="I296" s="6" t="n"/>
     </row>
     <row r="297">
       <c r="A297" s="6" t="n"/>
@@ -12256,7 +11935,6 @@
       <c r="F297" s="6" t="n"/>
       <c r="G297" s="6" t="n"/>
       <c r="H297" s="6" t="n"/>
-      <c r="I297" s="6" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="6" t="n"/>
@@ -12267,7 +11945,6 @@
       <c r="F298" s="6" t="n"/>
       <c r="G298" s="6" t="n"/>
       <c r="H298" s="6" t="n"/>
-      <c r="I298" s="6" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="6" t="n"/>
@@ -12278,7 +11955,6 @@
       <c r="F299" s="6" t="n"/>
       <c r="G299" s="6" t="n"/>
       <c r="H299" s="6" t="n"/>
-      <c r="I299" s="6" t="n"/>
     </row>
     <row r="300">
       <c r="A300" s="6" t="n"/>
@@ -12289,7 +11965,6 @@
       <c r="F300" s="6" t="n"/>
       <c r="G300" s="6" t="n"/>
       <c r="H300" s="6" t="n"/>
-      <c r="I300" s="6" t="n"/>
     </row>
     <row r="301">
       <c r="A301" s="6" t="n"/>
@@ -12300,7 +11975,6 @@
       <c r="F301" s="6" t="n"/>
       <c r="G301" s="6" t="n"/>
       <c r="H301" s="6" t="n"/>
-      <c r="I301" s="6" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="6" t="n"/>
@@ -12311,7 +11985,6 @@
       <c r="F302" s="6" t="n"/>
       <c r="G302" s="6" t="n"/>
       <c r="H302" s="6" t="n"/>
-      <c r="I302" s="6" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="6" t="n"/>
@@ -12322,7 +11995,6 @@
       <c r="F303" s="6" t="n"/>
       <c r="G303" s="6" t="n"/>
       <c r="H303" s="6" t="n"/>
-      <c r="I303" s="6" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="6" t="n"/>
@@ -12333,7 +12005,6 @@
       <c r="F304" s="6" t="n"/>
       <c r="G304" s="6" t="n"/>
       <c r="H304" s="6" t="n"/>
-      <c r="I304" s="6" t="n"/>
     </row>
     <row r="305">
       <c r="A305" s="6" t="n"/>
@@ -12344,7 +12015,6 @@
       <c r="F305" s="6" t="n"/>
       <c r="G305" s="6" t="n"/>
       <c r="H305" s="6" t="n"/>
-      <c r="I305" s="6" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="6" t="n"/>
@@ -12355,7 +12025,6 @@
       <c r="F306" s="6" t="n"/>
       <c r="G306" s="6" t="n"/>
       <c r="H306" s="6" t="n"/>
-      <c r="I306" s="6" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="6" t="n"/>
@@ -12366,7 +12035,6 @@
       <c r="F307" s="6" t="n"/>
       <c r="G307" s="6" t="n"/>
       <c r="H307" s="6" t="n"/>
-      <c r="I307" s="6" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="6" t="n"/>
@@ -12377,7 +12045,6 @@
       <c r="F308" s="6" t="n"/>
       <c r="G308" s="6" t="n"/>
       <c r="H308" s="6" t="n"/>
-      <c r="I308" s="6" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="6" t="n"/>
@@ -12388,7 +12055,6 @@
       <c r="F309" s="6" t="n"/>
       <c r="G309" s="6" t="n"/>
       <c r="H309" s="6" t="n"/>
-      <c r="I309" s="6" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="6" t="n"/>
@@ -12399,7 +12065,6 @@
       <c r="F310" s="6" t="n"/>
       <c r="G310" s="6" t="n"/>
       <c r="H310" s="6" t="n"/>
-      <c r="I310" s="6" t="n"/>
     </row>
     <row r="311">
       <c r="A311" s="6" t="n"/>
@@ -12410,7 +12075,6 @@
       <c r="F311" s="6" t="n"/>
       <c r="G311" s="6" t="n"/>
       <c r="H311" s="6" t="n"/>
-      <c r="I311" s="6" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="6" t="n"/>
@@ -12421,7 +12085,6 @@
       <c r="F312" s="6" t="n"/>
       <c r="G312" s="6" t="n"/>
       <c r="H312" s="6" t="n"/>
-      <c r="I312" s="6" t="n"/>
     </row>
     <row r="313">
       <c r="A313" s="6" t="n"/>
@@ -12432,7 +12095,6 @@
       <c r="F313" s="6" t="n"/>
       <c r="G313" s="6" t="n"/>
       <c r="H313" s="6" t="n"/>
-      <c r="I313" s="6" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="6" t="n"/>
@@ -12443,7 +12105,6 @@
       <c r="F314" s="6" t="n"/>
       <c r="G314" s="6" t="n"/>
       <c r="H314" s="6" t="n"/>
-      <c r="I314" s="6" t="n"/>
     </row>
     <row r="315">
       <c r="A315" s="6" t="n"/>
@@ -12454,7 +12115,6 @@
       <c r="F315" s="6" t="n"/>
       <c r="G315" s="6" t="n"/>
       <c r="H315" s="6" t="n"/>
-      <c r="I315" s="6" t="n"/>
     </row>
     <row r="316">
       <c r="A316" s="6" t="n"/>
@@ -12465,7 +12125,6 @@
       <c r="F316" s="6" t="n"/>
       <c r="G316" s="6" t="n"/>
       <c r="H316" s="6" t="n"/>
-      <c r="I316" s="6" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="6" t="n"/>
@@ -12476,7 +12135,6 @@
       <c r="F317" s="6" t="n"/>
       <c r="G317" s="6" t="n"/>
       <c r="H317" s="6" t="n"/>
-      <c r="I317" s="6" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="6" t="n"/>
@@ -12487,7 +12145,6 @@
       <c r="F318" s="6" t="n"/>
       <c r="G318" s="6" t="n"/>
       <c r="H318" s="6" t="n"/>
-      <c r="I318" s="6" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="6" t="n"/>
@@ -12498,7 +12155,6 @@
       <c r="F319" s="6" t="n"/>
       <c r="G319" s="6" t="n"/>
       <c r="H319" s="6" t="n"/>
-      <c r="I319" s="6" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="6" t="n"/>
@@ -12509,7 +12165,6 @@
       <c r="F320" s="6" t="n"/>
       <c r="G320" s="6" t="n"/>
       <c r="H320" s="6" t="n"/>
-      <c r="I320" s="6" t="n"/>
     </row>
     <row r="321">
       <c r="A321" s="6" t="n"/>
@@ -12520,7 +12175,6 @@
       <c r="F321" s="6" t="n"/>
       <c r="G321" s="6" t="n"/>
       <c r="H321" s="6" t="n"/>
-      <c r="I321" s="6" t="n"/>
     </row>
     <row r="322">
       <c r="A322" s="6" t="n"/>
@@ -12531,7 +12185,6 @@
       <c r="F322" s="6" t="n"/>
       <c r="G322" s="6" t="n"/>
       <c r="H322" s="6" t="n"/>
-      <c r="I322" s="6" t="n"/>
     </row>
     <row r="323">
       <c r="A323" s="6" t="n"/>
@@ -12542,7 +12195,6 @@
       <c r="F323" s="6" t="n"/>
       <c r="G323" s="6" t="n"/>
       <c r="H323" s="6" t="n"/>
-      <c r="I323" s="6" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="6" t="n"/>
@@ -12553,7 +12205,6 @@
       <c r="F324" s="6" t="n"/>
       <c r="G324" s="6" t="n"/>
       <c r="H324" s="6" t="n"/>
-      <c r="I324" s="6" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="6" t="n"/>
@@ -12564,7 +12215,6 @@
       <c r="F325" s="6" t="n"/>
       <c r="G325" s="6" t="n"/>
       <c r="H325" s="6" t="n"/>
-      <c r="I325" s="6" t="n"/>
     </row>
     <row r="326">
       <c r="A326" s="6" t="n"/>
@@ -12575,7 +12225,6 @@
       <c r="F326" s="6" t="n"/>
       <c r="G326" s="6" t="n"/>
       <c r="H326" s="6" t="n"/>
-      <c r="I326" s="6" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="6" t="n"/>
@@ -12586,7 +12235,6 @@
       <c r="F327" s="6" t="n"/>
       <c r="G327" s="6" t="n"/>
       <c r="H327" s="6" t="n"/>
-      <c r="I327" s="6" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="6" t="n"/>
@@ -12597,7 +12245,6 @@
       <c r="F328" s="6" t="n"/>
       <c r="G328" s="6" t="n"/>
       <c r="H328" s="6" t="n"/>
-      <c r="I328" s="6" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="6" t="n"/>
@@ -12608,7 +12255,6 @@
       <c r="F329" s="6" t="n"/>
       <c r="G329" s="6" t="n"/>
       <c r="H329" s="6" t="n"/>
-      <c r="I329" s="6" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="6" t="n"/>
@@ -12619,7 +12265,6 @@
       <c r="F330" s="6" t="n"/>
       <c r="G330" s="6" t="n"/>
       <c r="H330" s="6" t="n"/>
-      <c r="I330" s="6" t="n"/>
     </row>
     <row r="331">
       <c r="A331" s="6" t="n"/>
@@ -12630,7 +12275,6 @@
       <c r="F331" s="6" t="n"/>
       <c r="G331" s="6" t="n"/>
       <c r="H331" s="6" t="n"/>
-      <c r="I331" s="6" t="n"/>
     </row>
     <row r="332">
       <c r="A332" s="6" t="n"/>
@@ -12641,7 +12285,6 @@
       <c r="F332" s="6" t="n"/>
       <c r="G332" s="6" t="n"/>
       <c r="H332" s="6" t="n"/>
-      <c r="I332" s="6" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="6" t="n"/>
@@ -12652,7 +12295,6 @@
       <c r="F333" s="6" t="n"/>
       <c r="G333" s="6" t="n"/>
       <c r="H333" s="6" t="n"/>
-      <c r="I333" s="6" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="6" t="n"/>
@@ -12663,7 +12305,6 @@
       <c r="F334" s="6" t="n"/>
       <c r="G334" s="6" t="n"/>
       <c r="H334" s="6" t="n"/>
-      <c r="I334" s="6" t="n"/>
     </row>
     <row r="335">
       <c r="A335" s="6" t="n"/>
@@ -12674,7 +12315,6 @@
       <c r="F335" s="6" t="n"/>
       <c r="G335" s="6" t="n"/>
       <c r="H335" s="6" t="n"/>
-      <c r="I335" s="6" t="n"/>
     </row>
     <row r="336">
       <c r="A336" s="6" t="n"/>
@@ -12685,7 +12325,6 @@
       <c r="F336" s="6" t="n"/>
       <c r="G336" s="6" t="n"/>
       <c r="H336" s="6" t="n"/>
-      <c r="I336" s="6" t="n"/>
     </row>
     <row r="337">
       <c r="A337" s="6" t="n"/>
@@ -12696,7 +12335,6 @@
       <c r="F337" s="6" t="n"/>
       <c r="G337" s="6" t="n"/>
       <c r="H337" s="6" t="n"/>
-      <c r="I337" s="6" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="6" t="n"/>
@@ -12707,7 +12345,6 @@
       <c r="F338" s="6" t="n"/>
       <c r="G338" s="6" t="n"/>
       <c r="H338" s="6" t="n"/>
-      <c r="I338" s="6" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="6" t="n"/>
@@ -12718,7 +12355,6 @@
       <c r="F339" s="6" t="n"/>
       <c r="G339" s="6" t="n"/>
       <c r="H339" s="6" t="n"/>
-      <c r="I339" s="6" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="6" t="n"/>
@@ -12729,7 +12365,6 @@
       <c r="F340" s="6" t="n"/>
       <c r="G340" s="6" t="n"/>
       <c r="H340" s="6" t="n"/>
-      <c r="I340" s="6" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="6" t="n"/>
@@ -12740,7 +12375,6 @@
       <c r="F341" s="6" t="n"/>
       <c r="G341" s="6" t="n"/>
       <c r="H341" s="6" t="n"/>
-      <c r="I341" s="6" t="n"/>
     </row>
     <row r="342">
       <c r="A342" s="6" t="n"/>
@@ -12751,7 +12385,6 @@
       <c r="F342" s="6" t="n"/>
       <c r="G342" s="6" t="n"/>
       <c r="H342" s="6" t="n"/>
-      <c r="I342" s="6" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="6" t="n"/>
@@ -12762,7 +12395,6 @@
       <c r="F343" s="6" t="n"/>
       <c r="G343" s="6" t="n"/>
       <c r="H343" s="6" t="n"/>
-      <c r="I343" s="6" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="6" t="n"/>
@@ -12773,7 +12405,6 @@
       <c r="F344" s="6" t="n"/>
       <c r="G344" s="6" t="n"/>
       <c r="H344" s="6" t="n"/>
-      <c r="I344" s="6" t="n"/>
     </row>
     <row r="345">
       <c r="A345" s="6" t="n"/>
@@ -12784,7 +12415,6 @@
       <c r="F345" s="6" t="n"/>
       <c r="G345" s="6" t="n"/>
       <c r="H345" s="6" t="n"/>
-      <c r="I345" s="6" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="6" t="n"/>
@@ -12795,7 +12425,6 @@
       <c r="F346" s="6" t="n"/>
       <c r="G346" s="6" t="n"/>
       <c r="H346" s="6" t="n"/>
-      <c r="I346" s="6" t="n"/>
     </row>
     <row r="347">
       <c r="A347" s="6" t="n"/>
@@ -12806,7 +12435,6 @@
       <c r="F347" s="6" t="n"/>
       <c r="G347" s="6" t="n"/>
       <c r="H347" s="6" t="n"/>
-      <c r="I347" s="6" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="6" t="n"/>
@@ -12817,7 +12445,6 @@
       <c r="F348" s="6" t="n"/>
       <c r="G348" s="6" t="n"/>
       <c r="H348" s="6" t="n"/>
-      <c r="I348" s="6" t="n"/>
     </row>
     <row r="349">
       <c r="A349" s="6" t="n"/>
@@ -12828,7 +12455,6 @@
       <c r="F349" s="6" t="n"/>
       <c r="G349" s="6" t="n"/>
       <c r="H349" s="6" t="n"/>
-      <c r="I349" s="6" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="6" t="n"/>
@@ -12839,7 +12465,6 @@
       <c r="F350" s="6" t="n"/>
       <c r="G350" s="6" t="n"/>
       <c r="H350" s="6" t="n"/>
-      <c r="I350" s="6" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="6" t="n"/>
@@ -12850,7 +12475,6 @@
       <c r="F351" s="6" t="n"/>
       <c r="G351" s="6" t="n"/>
       <c r="H351" s="6" t="n"/>
-      <c r="I351" s="6" t="n"/>
     </row>
     <row r="352">
       <c r="A352" s="6" t="n"/>
@@ -12861,7 +12485,6 @@
       <c r="F352" s="6" t="n"/>
       <c r="G352" s="6" t="n"/>
       <c r="H352" s="6" t="n"/>
-      <c r="I352" s="6" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="6" t="n"/>
@@ -12872,7 +12495,6 @@
       <c r="F353" s="6" t="n"/>
       <c r="G353" s="6" t="n"/>
       <c r="H353" s="6" t="n"/>
-      <c r="I353" s="6" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="6" t="n"/>
@@ -12883,7 +12505,6 @@
       <c r="F354" s="6" t="n"/>
       <c r="G354" s="6" t="n"/>
       <c r="H354" s="6" t="n"/>
-      <c r="I354" s="6" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="6" t="n"/>
@@ -12894,7 +12515,6 @@
       <c r="F355" s="6" t="n"/>
       <c r="G355" s="6" t="n"/>
       <c r="H355" s="6" t="n"/>
-      <c r="I355" s="6" t="n"/>
     </row>
     <row r="356">
       <c r="A356" s="6" t="n"/>
@@ -12905,7 +12525,6 @@
       <c r="F356" s="6" t="n"/>
       <c r="G356" s="6" t="n"/>
       <c r="H356" s="6" t="n"/>
-      <c r="I356" s="6" t="n"/>
     </row>
     <row r="357">
       <c r="A357" s="6" t="n"/>
@@ -12916,7 +12535,6 @@
       <c r="F357" s="6" t="n"/>
       <c r="G357" s="6" t="n"/>
       <c r="H357" s="6" t="n"/>
-      <c r="I357" s="6" t="n"/>
     </row>
     <row r="358">
       <c r="A358" s="6" t="n"/>
@@ -12927,7 +12545,6 @@
       <c r="F358" s="6" t="n"/>
       <c r="G358" s="6" t="n"/>
       <c r="H358" s="6" t="n"/>
-      <c r="I358" s="6" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="6" t="n"/>
@@ -12938,7 +12555,6 @@
       <c r="F359" s="6" t="n"/>
       <c r="G359" s="6" t="n"/>
       <c r="H359" s="6" t="n"/>
-      <c r="I359" s="6" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="6" t="n"/>
@@ -12949,7 +12565,6 @@
       <c r="F360" s="6" t="n"/>
       <c r="G360" s="6" t="n"/>
       <c r="H360" s="6" t="n"/>
-      <c r="I360" s="6" t="n"/>
     </row>
     <row r="361">
       <c r="A361" s="6" t="n"/>
@@ -12960,7 +12575,6 @@
       <c r="F361" s="6" t="n"/>
       <c r="G361" s="6" t="n"/>
       <c r="H361" s="6" t="n"/>
-      <c r="I361" s="6" t="n"/>
     </row>
     <row r="362">
       <c r="A362" s="6" t="n"/>
@@ -12971,7 +12585,6 @@
       <c r="F362" s="6" t="n"/>
       <c r="G362" s="6" t="n"/>
       <c r="H362" s="6" t="n"/>
-      <c r="I362" s="6" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="6" t="n"/>
@@ -12982,7 +12595,6 @@
       <c r="F363" s="6" t="n"/>
       <c r="G363" s="6" t="n"/>
       <c r="H363" s="6" t="n"/>
-      <c r="I363" s="6" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="6" t="n"/>
@@ -12993,7 +12605,6 @@
       <c r="F364" s="6" t="n"/>
       <c r="G364" s="6" t="n"/>
       <c r="H364" s="6" t="n"/>
-      <c r="I364" s="6" t="n"/>
     </row>
     <row r="365">
       <c r="A365" s="6" t="n"/>
@@ -13004,7 +12615,6 @@
       <c r="F365" s="6" t="n"/>
       <c r="G365" s="6" t="n"/>
       <c r="H365" s="6" t="n"/>
-      <c r="I365" s="6" t="n"/>
     </row>
     <row r="366">
       <c r="A366" s="6" t="n"/>
@@ -13015,7 +12625,6 @@
       <c r="F366" s="6" t="n"/>
       <c r="G366" s="6" t="n"/>
       <c r="H366" s="6" t="n"/>
-      <c r="I366" s="6" t="n"/>
     </row>
     <row r="367">
       <c r="A367" s="6" t="n"/>
@@ -13026,7 +12635,6 @@
       <c r="F367" s="6" t="n"/>
       <c r="G367" s="6" t="n"/>
       <c r="H367" s="6" t="n"/>
-      <c r="I367" s="6" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="6" t="n"/>
@@ -13037,7 +12645,6 @@
       <c r="F368" s="6" t="n"/>
       <c r="G368" s="6" t="n"/>
       <c r="H368" s="6" t="n"/>
-      <c r="I368" s="6" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="6" t="n"/>
@@ -13048,7 +12655,6 @@
       <c r="F369" s="6" t="n"/>
       <c r="G369" s="6" t="n"/>
       <c r="H369" s="6" t="n"/>
-      <c r="I369" s="6" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="6" t="n"/>
@@ -13059,7 +12665,6 @@
       <c r="F370" s="6" t="n"/>
       <c r="G370" s="6" t="n"/>
       <c r="H370" s="6" t="n"/>
-      <c r="I370" s="6" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="6" t="n"/>
@@ -13070,7 +12675,6 @@
       <c r="F371" s="6" t="n"/>
       <c r="G371" s="6" t="n"/>
       <c r="H371" s="6" t="n"/>
-      <c r="I371" s="6" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="6" t="n"/>
@@ -13081,7 +12685,6 @@
       <c r="F372" s="6" t="n"/>
       <c r="G372" s="6" t="n"/>
       <c r="H372" s="6" t="n"/>
-      <c r="I372" s="6" t="n"/>
     </row>
     <row r="373">
       <c r="A373" s="6" t="n"/>
@@ -13092,7 +12695,6 @@
       <c r="F373" s="6" t="n"/>
       <c r="G373" s="6" t="n"/>
       <c r="H373" s="6" t="n"/>
-      <c r="I373" s="6" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="6" t="n"/>
@@ -13103,7 +12705,6 @@
       <c r="F374" s="6" t="n"/>
       <c r="G374" s="6" t="n"/>
       <c r="H374" s="6" t="n"/>
-      <c r="I374" s="6" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="6" t="n"/>
@@ -13114,7 +12715,6 @@
       <c r="F375" s="6" t="n"/>
       <c r="G375" s="6" t="n"/>
       <c r="H375" s="6" t="n"/>
-      <c r="I375" s="6" t="n"/>
     </row>
     <row r="376">
       <c r="A376" s="6" t="n"/>
@@ -13125,7 +12725,6 @@
       <c r="F376" s="6" t="n"/>
       <c r="G376" s="6" t="n"/>
       <c r="H376" s="6" t="n"/>
-      <c r="I376" s="6" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="6" t="n"/>
@@ -13136,7 +12735,6 @@
       <c r="F377" s="6" t="n"/>
       <c r="G377" s="6" t="n"/>
       <c r="H377" s="6" t="n"/>
-      <c r="I377" s="6" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="6" t="n"/>
@@ -13147,7 +12745,6 @@
       <c r="F378" s="6" t="n"/>
       <c r="G378" s="6" t="n"/>
       <c r="H378" s="6" t="n"/>
-      <c r="I378" s="6" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="6" t="n"/>
@@ -13158,7 +12755,6 @@
       <c r="F379" s="6" t="n"/>
       <c r="G379" s="6" t="n"/>
       <c r="H379" s="6" t="n"/>
-      <c r="I379" s="6" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="6" t="n"/>
@@ -13169,7 +12765,6 @@
       <c r="F380" s="6" t="n"/>
       <c r="G380" s="6" t="n"/>
       <c r="H380" s="6" t="n"/>
-      <c r="I380" s="6" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="6" t="n"/>
@@ -13180,7 +12775,6 @@
       <c r="F381" s="6" t="n"/>
       <c r="G381" s="6" t="n"/>
       <c r="H381" s="6" t="n"/>
-      <c r="I381" s="6" t="n"/>
     </row>
     <row r="382">
       <c r="A382" s="6" t="n"/>
@@ -13191,7 +12785,6 @@
       <c r="F382" s="6" t="n"/>
       <c r="G382" s="6" t="n"/>
       <c r="H382" s="6" t="n"/>
-      <c r="I382" s="6" t="n"/>
     </row>
     <row r="383">
       <c r="A383" s="6" t="n"/>
@@ -13202,7 +12795,6 @@
       <c r="F383" s="6" t="n"/>
       <c r="G383" s="6" t="n"/>
       <c r="H383" s="6" t="n"/>
-      <c r="I383" s="6" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="6" t="n"/>
@@ -13213,7 +12805,6 @@
       <c r="F384" s="6" t="n"/>
       <c r="G384" s="6" t="n"/>
       <c r="H384" s="6" t="n"/>
-      <c r="I384" s="6" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="6" t="n"/>
@@ -13224,7 +12815,6 @@
       <c r="F385" s="6" t="n"/>
       <c r="G385" s="6" t="n"/>
       <c r="H385" s="6" t="n"/>
-      <c r="I385" s="6" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="6" t="n"/>
@@ -13235,7 +12825,6 @@
       <c r="F386" s="6" t="n"/>
       <c r="G386" s="6" t="n"/>
       <c r="H386" s="6" t="n"/>
-      <c r="I386" s="6" t="n"/>
     </row>
     <row r="387">
       <c r="A387" s="6" t="n"/>
@@ -13246,7 +12835,6 @@
       <c r="F387" s="6" t="n"/>
       <c r="G387" s="6" t="n"/>
       <c r="H387" s="6" t="n"/>
-      <c r="I387" s="6" t="n"/>
     </row>
     <row r="388">
       <c r="A388" s="6" t="n"/>
@@ -13257,7 +12845,6 @@
       <c r="F388" s="6" t="n"/>
       <c r="G388" s="6" t="n"/>
       <c r="H388" s="6" t="n"/>
-      <c r="I388" s="6" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="6" t="n"/>
@@ -13268,7 +12855,6 @@
       <c r="F389" s="6" t="n"/>
       <c r="G389" s="6" t="n"/>
       <c r="H389" s="6" t="n"/>
-      <c r="I389" s="6" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="6" t="n"/>
@@ -13279,7 +12865,6 @@
       <c r="F390" s="6" t="n"/>
       <c r="G390" s="6" t="n"/>
       <c r="H390" s="6" t="n"/>
-      <c r="I390" s="6" t="n"/>
     </row>
     <row r="391">
       <c r="A391" s="6" t="n"/>
@@ -13290,7 +12875,6 @@
       <c r="F391" s="6" t="n"/>
       <c r="G391" s="6" t="n"/>
       <c r="H391" s="6" t="n"/>
-      <c r="I391" s="6" t="n"/>
     </row>
     <row r="392">
       <c r="A392" s="6" t="n"/>
@@ -13301,7 +12885,6 @@
       <c r="F392" s="6" t="n"/>
       <c r="G392" s="6" t="n"/>
       <c r="H392" s="6" t="n"/>
-      <c r="I392" s="6" t="n"/>
     </row>
     <row r="393">
       <c r="A393" s="6" t="n"/>
@@ -13312,7 +12895,6 @@
       <c r="F393" s="6" t="n"/>
       <c r="G393" s="6" t="n"/>
       <c r="H393" s="6" t="n"/>
-      <c r="I393" s="6" t="n"/>
     </row>
     <row r="394">
       <c r="A394" s="6" t="n"/>
@@ -13323,7 +12905,6 @@
       <c r="F394" s="6" t="n"/>
       <c r="G394" s="6" t="n"/>
       <c r="H394" s="6" t="n"/>
-      <c r="I394" s="6" t="n"/>
     </row>
     <row r="395">
       <c r="A395" s="6" t="n"/>
@@ -13334,7 +12915,6 @@
       <c r="F395" s="6" t="n"/>
       <c r="G395" s="6" t="n"/>
       <c r="H395" s="6" t="n"/>
-      <c r="I395" s="6" t="n"/>
     </row>
     <row r="396">
       <c r="A396" s="6" t="n"/>
@@ -13345,7 +12925,6 @@
       <c r="F396" s="6" t="n"/>
       <c r="G396" s="6" t="n"/>
       <c r="H396" s="6" t="n"/>
-      <c r="I396" s="6" t="n"/>
     </row>
     <row r="397">
       <c r="A397" s="6" t="n"/>
@@ -13356,7 +12935,6 @@
       <c r="F397" s="6" t="n"/>
       <c r="G397" s="6" t="n"/>
       <c r="H397" s="6" t="n"/>
-      <c r="I397" s="6" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="6" t="n"/>
@@ -13367,7 +12945,6 @@
       <c r="F398" s="6" t="n"/>
       <c r="G398" s="6" t="n"/>
       <c r="H398" s="6" t="n"/>
-      <c r="I398" s="6" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="6" t="n"/>
@@ -13378,7 +12955,6 @@
       <c r="F399" s="6" t="n"/>
       <c r="G399" s="6" t="n"/>
       <c r="H399" s="6" t="n"/>
-      <c r="I399" s="6" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="6" t="n"/>
@@ -13389,7 +12965,6 @@
       <c r="F400" s="6" t="n"/>
       <c r="G400" s="6" t="n"/>
       <c r="H400" s="6" t="n"/>
-      <c r="I400" s="6" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="6" t="n"/>
@@ -13400,7 +12975,6 @@
       <c r="F401" s="6" t="n"/>
       <c r="G401" s="6" t="n"/>
       <c r="H401" s="6" t="n"/>
-      <c r="I401" s="6" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="6" t="n"/>
@@ -13411,7 +12985,6 @@
       <c r="F402" s="6" t="n"/>
       <c r="G402" s="6" t="n"/>
       <c r="H402" s="6" t="n"/>
-      <c r="I402" s="6" t="n"/>
     </row>
     <row r="403">
       <c r="A403" s="6" t="n"/>
@@ -13422,7 +12995,6 @@
       <c r="F403" s="6" t="n"/>
       <c r="G403" s="6" t="n"/>
       <c r="H403" s="6" t="n"/>
-      <c r="I403" s="6" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="6" t="n"/>
@@ -13433,7 +13005,6 @@
       <c r="F404" s="6" t="n"/>
       <c r="G404" s="6" t="n"/>
       <c r="H404" s="6" t="n"/>
-      <c r="I404" s="6" t="n"/>
     </row>
     <row r="405">
       <c r="A405" s="6" t="n"/>
@@ -13444,7 +13015,6 @@
       <c r="F405" s="6" t="n"/>
       <c r="G405" s="6" t="n"/>
       <c r="H405" s="6" t="n"/>
-      <c r="I405" s="6" t="n"/>
     </row>
     <row r="406">
       <c r="A406" s="6" t="n"/>
@@ -13455,7 +13025,6 @@
       <c r="F406" s="6" t="n"/>
       <c r="G406" s="6" t="n"/>
       <c r="H406" s="6" t="n"/>
-      <c r="I406" s="6" t="n"/>
     </row>
     <row r="407">
       <c r="A407" s="6" t="n"/>
@@ -13466,7 +13035,6 @@
       <c r="F407" s="6" t="n"/>
       <c r="G407" s="6" t="n"/>
       <c r="H407" s="6" t="n"/>
-      <c r="I407" s="6" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="6" t="n"/>
@@ -13477,7 +13045,6 @@
       <c r="F408" s="6" t="n"/>
       <c r="G408" s="6" t="n"/>
       <c r="H408" s="6" t="n"/>
-      <c r="I408" s="6" t="n"/>
     </row>
     <row r="409">
       <c r="A409" s="6" t="n"/>
@@ -13488,7 +13055,6 @@
       <c r="F409" s="6" t="n"/>
       <c r="G409" s="6" t="n"/>
       <c r="H409" s="6" t="n"/>
-      <c r="I409" s="6" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="6" t="n"/>
@@ -13499,7 +13065,6 @@
       <c r="F410" s="6" t="n"/>
       <c r="G410" s="6" t="n"/>
       <c r="H410" s="6" t="n"/>
-      <c r="I410" s="6" t="n"/>
     </row>
     <row r="411">
       <c r="A411" s="6" t="n"/>
@@ -13510,7 +13075,6 @@
       <c r="F411" s="6" t="n"/>
       <c r="G411" s="6" t="n"/>
       <c r="H411" s="6" t="n"/>
-      <c r="I411" s="6" t="n"/>
     </row>
     <row r="412">
       <c r="A412" s="6" t="n"/>
@@ -13521,7 +13085,6 @@
       <c r="F412" s="6" t="n"/>
       <c r="G412" s="6" t="n"/>
       <c r="H412" s="6" t="n"/>
-      <c r="I412" s="6" t="n"/>
     </row>
     <row r="413">
       <c r="A413" s="6" t="n"/>
@@ -13532,7 +13095,6 @@
       <c r="F413" s="6" t="n"/>
       <c r="G413" s="6" t="n"/>
       <c r="H413" s="6" t="n"/>
-      <c r="I413" s="6" t="n"/>
     </row>
     <row r="414">
       <c r="A414" s="6" t="n"/>
@@ -13543,7 +13105,6 @@
       <c r="F414" s="6" t="n"/>
       <c r="G414" s="6" t="n"/>
       <c r="H414" s="6" t="n"/>
-      <c r="I414" s="6" t="n"/>
     </row>
     <row r="415">
       <c r="A415" s="6" t="n"/>
@@ -13554,7 +13115,6 @@
       <c r="F415" s="6" t="n"/>
       <c r="G415" s="6" t="n"/>
       <c r="H415" s="6" t="n"/>
-      <c r="I415" s="6" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="6" t="n"/>
@@ -13565,7 +13125,6 @@
       <c r="F416" s="6" t="n"/>
       <c r="G416" s="6" t="n"/>
       <c r="H416" s="6" t="n"/>
-      <c r="I416" s="6" t="n"/>
     </row>
     <row r="417">
       <c r="A417" s="6" t="n"/>
@@ -13576,7 +13135,6 @@
       <c r="F417" s="6" t="n"/>
       <c r="G417" s="6" t="n"/>
       <c r="H417" s="6" t="n"/>
-      <c r="I417" s="6" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="6" t="n"/>
@@ -13587,7 +13145,6 @@
       <c r="F418" s="6" t="n"/>
       <c r="G418" s="6" t="n"/>
       <c r="H418" s="6" t="n"/>
-      <c r="I418" s="6" t="n"/>
     </row>
     <row r="419">
       <c r="A419" s="6" t="n"/>
@@ -13598,7 +13155,6 @@
       <c r="F419" s="6" t="n"/>
       <c r="G419" s="6" t="n"/>
       <c r="H419" s="6" t="n"/>
-      <c r="I419" s="6" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="6" t="n"/>
@@ -13609,7 +13165,6 @@
       <c r="F420" s="6" t="n"/>
       <c r="G420" s="6" t="n"/>
       <c r="H420" s="6" t="n"/>
-      <c r="I420" s="6" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="6" t="n"/>
@@ -13620,7 +13175,6 @@
       <c r="F421" s="6" t="n"/>
       <c r="G421" s="6" t="n"/>
       <c r="H421" s="6" t="n"/>
-      <c r="I421" s="6" t="n"/>
     </row>
     <row r="422">
       <c r="A422" s="6" t="n"/>
@@ -13631,7 +13185,6 @@
       <c r="F422" s="6" t="n"/>
       <c r="G422" s="6" t="n"/>
       <c r="H422" s="6" t="n"/>
-      <c r="I422" s="6" t="n"/>
     </row>
     <row r="423">
       <c r="A423" s="6" t="n"/>
@@ -13642,7 +13195,6 @@
       <c r="F423" s="6" t="n"/>
       <c r="G423" s="6" t="n"/>
       <c r="H423" s="6" t="n"/>
-      <c r="I423" s="6" t="n"/>
     </row>
     <row r="424">
       <c r="A424" s="6" t="n"/>
@@ -13653,7 +13205,6 @@
       <c r="F424" s="6" t="n"/>
       <c r="G424" s="6" t="n"/>
       <c r="H424" s="6" t="n"/>
-      <c r="I424" s="6" t="n"/>
     </row>
     <row r="425">
       <c r="A425" s="6" t="n"/>
@@ -13664,7 +13215,6 @@
       <c r="F425" s="6" t="n"/>
       <c r="G425" s="6" t="n"/>
       <c r="H425" s="6" t="n"/>
-      <c r="I425" s="6" t="n"/>
     </row>
     <row r="426">
       <c r="A426" s="6" t="n"/>
@@ -13675,7 +13225,6 @@
       <c r="F426" s="6" t="n"/>
       <c r="G426" s="6" t="n"/>
       <c r="H426" s="6" t="n"/>
-      <c r="I426" s="6" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="6" t="n"/>
@@ -13686,7 +13235,6 @@
       <c r="F427" s="6" t="n"/>
       <c r="G427" s="6" t="n"/>
       <c r="H427" s="6" t="n"/>
-      <c r="I427" s="6" t="n"/>
     </row>
     <row r="428">
       <c r="A428" s="6" t="n"/>
@@ -13697,7 +13245,6 @@
       <c r="F428" s="6" t="n"/>
       <c r="G428" s="6" t="n"/>
       <c r="H428" s="6" t="n"/>
-      <c r="I428" s="6" t="n"/>
     </row>
     <row r="429">
       <c r="A429" s="6" t="n"/>
@@ -13708,7 +13255,6 @@
       <c r="F429" s="6" t="n"/>
       <c r="G429" s="6" t="n"/>
       <c r="H429" s="6" t="n"/>
-      <c r="I429" s="6" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="6" t="n"/>
@@ -13719,7 +13265,6 @@
       <c r="F430" s="6" t="n"/>
       <c r="G430" s="6" t="n"/>
       <c r="H430" s="6" t="n"/>
-      <c r="I430" s="6" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="6" t="n"/>
@@ -13730,7 +13275,6 @@
       <c r="F431" s="6" t="n"/>
       <c r="G431" s="6" t="n"/>
       <c r="H431" s="6" t="n"/>
-      <c r="I431" s="6" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="6" t="n"/>
@@ -13741,7 +13285,6 @@
       <c r="F432" s="6" t="n"/>
       <c r="G432" s="6" t="n"/>
       <c r="H432" s="6" t="n"/>
-      <c r="I432" s="6" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="6" t="n"/>
@@ -13752,7 +13295,6 @@
       <c r="F433" s="6" t="n"/>
       <c r="G433" s="6" t="n"/>
       <c r="H433" s="6" t="n"/>
-      <c r="I433" s="6" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="6" t="n"/>
@@ -13763,7 +13305,6 @@
       <c r="F434" s="6" t="n"/>
       <c r="G434" s="6" t="n"/>
       <c r="H434" s="6" t="n"/>
-      <c r="I434" s="6" t="n"/>
     </row>
     <row r="435">
       <c r="A435" s="6" t="n"/>
@@ -13774,7 +13315,6 @@
       <c r="F435" s="6" t="n"/>
       <c r="G435" s="6" t="n"/>
       <c r="H435" s="6" t="n"/>
-      <c r="I435" s="6" t="n"/>
     </row>
     <row r="436">
       <c r="A436" s="6" t="n"/>
@@ -13785,7 +13325,6 @@
       <c r="F436" s="6" t="n"/>
       <c r="G436" s="6" t="n"/>
       <c r="H436" s="6" t="n"/>
-      <c r="I436" s="6" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="6" t="n"/>
@@ -13796,7 +13335,6 @@
       <c r="F437" s="6" t="n"/>
       <c r="G437" s="6" t="n"/>
       <c r="H437" s="6" t="n"/>
-      <c r="I437" s="6" t="n"/>
     </row>
     <row r="438">
       <c r="A438" s="6" t="n"/>
@@ -13807,7 +13345,6 @@
       <c r="F438" s="6" t="n"/>
       <c r="G438" s="6" t="n"/>
       <c r="H438" s="6" t="n"/>
-      <c r="I438" s="6" t="n"/>
     </row>
     <row r="439">
       <c r="A439" s="6" t="n"/>
@@ -13818,7 +13355,6 @@
       <c r="F439" s="6" t="n"/>
       <c r="G439" s="6" t="n"/>
       <c r="H439" s="6" t="n"/>
-      <c r="I439" s="6" t="n"/>
     </row>
     <row r="440">
       <c r="A440" s="6" t="n"/>
@@ -13829,7 +13365,6 @@
       <c r="F440" s="6" t="n"/>
       <c r="G440" s="6" t="n"/>
       <c r="H440" s="6" t="n"/>
-      <c r="I440" s="6" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="6" t="n"/>
@@ -13840,7 +13375,6 @@
       <c r="F441" s="6" t="n"/>
       <c r="G441" s="6" t="n"/>
       <c r="H441" s="6" t="n"/>
-      <c r="I441" s="6" t="n"/>
     </row>
     <row r="442">
       <c r="A442" s="6" t="n"/>
@@ -13851,7 +13385,6 @@
       <c r="F442" s="6" t="n"/>
       <c r="G442" s="6" t="n"/>
       <c r="H442" s="6" t="n"/>
-      <c r="I442" s="6" t="n"/>
     </row>
     <row r="443">
       <c r="A443" s="6" t="n"/>
@@ -13862,7 +13395,6 @@
       <c r="F443" s="6" t="n"/>
       <c r="G443" s="6" t="n"/>
       <c r="H443" s="6" t="n"/>
-      <c r="I443" s="6" t="n"/>
     </row>
     <row r="444">
       <c r="A444" s="6" t="n"/>
@@ -13873,7 +13405,6 @@
       <c r="F444" s="6" t="n"/>
       <c r="G444" s="6" t="n"/>
       <c r="H444" s="6" t="n"/>
-      <c r="I444" s="6" t="n"/>
     </row>
     <row r="445">
       <c r="A445" s="6" t="n"/>
@@ -13884,7 +13415,6 @@
       <c r="F445" s="6" t="n"/>
       <c r="G445" s="6" t="n"/>
       <c r="H445" s="6" t="n"/>
-      <c r="I445" s="6" t="n"/>
     </row>
     <row r="446">
       <c r="A446" s="6" t="n"/>
@@ -13895,7 +13425,6 @@
       <c r="F446" s="6" t="n"/>
       <c r="G446" s="6" t="n"/>
       <c r="H446" s="6" t="n"/>
-      <c r="I446" s="6" t="n"/>
     </row>
     <row r="447">
       <c r="A447" s="6" t="n"/>
@@ -13906,7 +13435,6 @@
       <c r="F447" s="6" t="n"/>
       <c r="G447" s="6" t="n"/>
       <c r="H447" s="6" t="n"/>
-      <c r="I447" s="6" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="6" t="n"/>
@@ -13917,7 +13445,6 @@
       <c r="F448" s="6" t="n"/>
       <c r="G448" s="6" t="n"/>
       <c r="H448" s="6" t="n"/>
-      <c r="I448" s="6" t="n"/>
     </row>
     <row r="449">
       <c r="A449" s="6" t="n"/>
@@ -13928,7 +13455,6 @@
       <c r="F449" s="6" t="n"/>
       <c r="G449" s="6" t="n"/>
       <c r="H449" s="6" t="n"/>
-      <c r="I449" s="6" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="6" t="n"/>
@@ -13939,7 +13465,6 @@
       <c r="F450" s="6" t="n"/>
       <c r="G450" s="6" t="n"/>
       <c r="H450" s="6" t="n"/>
-      <c r="I450" s="6" t="n"/>
     </row>
     <row r="451">
       <c r="A451" s="6" t="n"/>
@@ -13950,7 +13475,6 @@
       <c r="F451" s="6" t="n"/>
       <c r="G451" s="6" t="n"/>
       <c r="H451" s="6" t="n"/>
-      <c r="I451" s="6" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="6" t="n"/>
@@ -13961,7 +13485,6 @@
       <c r="F452" s="6" t="n"/>
       <c r="G452" s="6" t="n"/>
       <c r="H452" s="6" t="n"/>
-      <c r="I452" s="6" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="6" t="n"/>
@@ -13972,7 +13495,6 @@
       <c r="F453" s="6" t="n"/>
       <c r="G453" s="6" t="n"/>
       <c r="H453" s="6" t="n"/>
-      <c r="I453" s="6" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="6" t="n"/>
@@ -13983,7 +13505,6 @@
       <c r="F454" s="6" t="n"/>
       <c r="G454" s="6" t="n"/>
       <c r="H454" s="6" t="n"/>
-      <c r="I454" s="6" t="n"/>
     </row>
     <row r="455">
       <c r="A455" s="6" t="n"/>
@@ -13994,7 +13515,6 @@
       <c r="F455" s="6" t="n"/>
       <c r="G455" s="6" t="n"/>
       <c r="H455" s="6" t="n"/>
-      <c r="I455" s="6" t="n"/>
     </row>
     <row r="456">
       <c r="A456" s="6" t="n"/>
@@ -14005,7 +13525,6 @@
       <c r="F456" s="6" t="n"/>
       <c r="G456" s="6" t="n"/>
       <c r="H456" s="6" t="n"/>
-      <c r="I456" s="6" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="6" t="n"/>
@@ -14016,7 +13535,6 @@
       <c r="F457" s="6" t="n"/>
       <c r="G457" s="6" t="n"/>
       <c r="H457" s="6" t="n"/>
-      <c r="I457" s="6" t="n"/>
     </row>
     <row r="458">
       <c r="A458" s="6" t="n"/>
@@ -14027,7 +13545,6 @@
       <c r="F458" s="6" t="n"/>
       <c r="G458" s="6" t="n"/>
       <c r="H458" s="6" t="n"/>
-      <c r="I458" s="6" t="n"/>
     </row>
     <row r="459">
       <c r="A459" s="6" t="n"/>
@@ -14038,7 +13555,6 @@
       <c r="F459" s="6" t="n"/>
       <c r="G459" s="6" t="n"/>
       <c r="H459" s="6" t="n"/>
-      <c r="I459" s="6" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="6" t="n"/>
@@ -14049,7 +13565,6 @@
       <c r="F460" s="6" t="n"/>
       <c r="G460" s="6" t="n"/>
       <c r="H460" s="6" t="n"/>
-      <c r="I460" s="6" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="6" t="n"/>
@@ -14060,7 +13575,6 @@
       <c r="F461" s="6" t="n"/>
       <c r="G461" s="6" t="n"/>
       <c r="H461" s="6" t="n"/>
-      <c r="I461" s="6" t="n"/>
     </row>
     <row r="462">
       <c r="A462" s="6" t="n"/>
@@ -14071,7 +13585,6 @@
       <c r="F462" s="6" t="n"/>
       <c r="G462" s="6" t="n"/>
       <c r="H462" s="6" t="n"/>
-      <c r="I462" s="6" t="n"/>
     </row>
     <row r="463">
       <c r="A463" s="6" t="n"/>
@@ -14082,7 +13595,6 @@
       <c r="F463" s="6" t="n"/>
       <c r="G463" s="6" t="n"/>
       <c r="H463" s="6" t="n"/>
-      <c r="I463" s="6" t="n"/>
     </row>
     <row r="464">
       <c r="A464" s="6" t="n"/>
@@ -14093,7 +13605,6 @@
       <c r="F464" s="6" t="n"/>
       <c r="G464" s="6" t="n"/>
       <c r="H464" s="6" t="n"/>
-      <c r="I464" s="6" t="n"/>
     </row>
     <row r="465">
       <c r="A465" s="6" t="n"/>
@@ -14104,7 +13615,6 @@
       <c r="F465" s="6" t="n"/>
       <c r="G465" s="6" t="n"/>
       <c r="H465" s="6" t="n"/>
-      <c r="I465" s="6" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="6" t="n"/>
@@ -14115,7 +13625,6 @@
       <c r="F466" s="6" t="n"/>
       <c r="G466" s="6" t="n"/>
       <c r="H466" s="6" t="n"/>
-      <c r="I466" s="6" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="6" t="n"/>
@@ -14126,7 +13635,6 @@
       <c r="F467" s="6" t="n"/>
       <c r="G467" s="6" t="n"/>
       <c r="H467" s="6" t="n"/>
-      <c r="I467" s="6" t="n"/>
     </row>
     <row r="468">
       <c r="A468" s="6" t="n"/>
@@ -14137,7 +13645,6 @@
       <c r="F468" s="6" t="n"/>
       <c r="G468" s="6" t="n"/>
       <c r="H468" s="6" t="n"/>
-      <c r="I468" s="6" t="n"/>
     </row>
     <row r="469">
       <c r="A469" s="6" t="n"/>
@@ -14148,7 +13655,6 @@
       <c r="F469" s="6" t="n"/>
       <c r="G469" s="6" t="n"/>
       <c r="H469" s="6" t="n"/>
-      <c r="I469" s="6" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="6" t="n"/>
@@ -14159,7 +13665,6 @@
       <c r="F470" s="6" t="n"/>
       <c r="G470" s="6" t="n"/>
       <c r="H470" s="6" t="n"/>
-      <c r="I470" s="6" t="n"/>
     </row>
     <row r="471">
       <c r="A471" s="6" t="n"/>
@@ -14170,7 +13675,6 @@
       <c r="F471" s="6" t="n"/>
       <c r="G471" s="6" t="n"/>
       <c r="H471" s="6" t="n"/>
-      <c r="I471" s="6" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="6" t="n"/>
@@ -14181,7 +13685,6 @@
       <c r="F472" s="6" t="n"/>
       <c r="G472" s="6" t="n"/>
       <c r="H472" s="6" t="n"/>
-      <c r="I472" s="6" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="6" t="n"/>
@@ -14192,7 +13695,6 @@
       <c r="F473" s="6" t="n"/>
       <c r="G473" s="6" t="n"/>
       <c r="H473" s="6" t="n"/>
-      <c r="I473" s="6" t="n"/>
     </row>
     <row r="474">
       <c r="A474" s="6" t="n"/>
@@ -14203,7 +13705,6 @@
       <c r="F474" s="6" t="n"/>
       <c r="G474" s="6" t="n"/>
       <c r="H474" s="6" t="n"/>
-      <c r="I474" s="6" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="6" t="n"/>
@@ -14214,7 +13715,6 @@
       <c r="F475" s="6" t="n"/>
       <c r="G475" s="6" t="n"/>
       <c r="H475" s="6" t="n"/>
-      <c r="I475" s="6" t="n"/>
     </row>
     <row r="476">
       <c r="A476" s="6" t="n"/>
@@ -14225,7 +13725,6 @@
       <c r="F476" s="6" t="n"/>
       <c r="G476" s="6" t="n"/>
       <c r="H476" s="6" t="n"/>
-      <c r="I476" s="6" t="n"/>
     </row>
     <row r="477">
       <c r="A477" s="6" t="n"/>
@@ -14236,7 +13735,6 @@
       <c r="F477" s="6" t="n"/>
       <c r="G477" s="6" t="n"/>
       <c r="H477" s="6" t="n"/>
-      <c r="I477" s="6" t="n"/>
     </row>
     <row r="478">
       <c r="A478" s="6" t="n"/>
@@ -14247,7 +13745,6 @@
       <c r="F478" s="6" t="n"/>
       <c r="G478" s="6" t="n"/>
       <c r="H478" s="6" t="n"/>
-      <c r="I478" s="6" t="n"/>
     </row>
     <row r="479">
       <c r="A479" s="6" t="n"/>
@@ -14258,7 +13755,6 @@
       <c r="F479" s="6" t="n"/>
       <c r="G479" s="6" t="n"/>
       <c r="H479" s="6" t="n"/>
-      <c r="I479" s="6" t="n"/>
     </row>
     <row r="480">
       <c r="A480" s="6" t="n"/>
@@ -14269,7 +13765,6 @@
       <c r="F480" s="6" t="n"/>
       <c r="G480" s="6" t="n"/>
       <c r="H480" s="6" t="n"/>
-      <c r="I480" s="6" t="n"/>
     </row>
     <row r="481">
       <c r="A481" s="6" t="n"/>
@@ -14280,7 +13775,6 @@
       <c r="F481" s="6" t="n"/>
       <c r="G481" s="6" t="n"/>
       <c r="H481" s="6" t="n"/>
-      <c r="I481" s="6" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="6" t="n"/>
@@ -14291,7 +13785,6 @@
       <c r="F482" s="6" t="n"/>
       <c r="G482" s="6" t="n"/>
       <c r="H482" s="6" t="n"/>
-      <c r="I482" s="6" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="6" t="n"/>
@@ -14302,7 +13795,6 @@
       <c r="F483" s="6" t="n"/>
       <c r="G483" s="6" t="n"/>
       <c r="H483" s="6" t="n"/>
-      <c r="I483" s="6" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="6" t="n"/>
@@ -14313,7 +13805,6 @@
       <c r="F484" s="6" t="n"/>
       <c r="G484" s="6" t="n"/>
       <c r="H484" s="6" t="n"/>
-      <c r="I484" s="6" t="n"/>
     </row>
     <row r="485">
       <c r="A485" s="6" t="n"/>
@@ -14324,7 +13815,6 @@
       <c r="F485" s="6" t="n"/>
       <c r="G485" s="6" t="n"/>
       <c r="H485" s="6" t="n"/>
-      <c r="I485" s="6" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="6" t="n"/>
@@ -14335,7 +13825,6 @@
       <c r="F486" s="6" t="n"/>
       <c r="G486" s="6" t="n"/>
       <c r="H486" s="6" t="n"/>
-      <c r="I486" s="6" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="6" t="n"/>
@@ -14346,7 +13835,6 @@
       <c r="F487" s="6" t="n"/>
       <c r="G487" s="6" t="n"/>
       <c r="H487" s="6" t="n"/>
-      <c r="I487" s="6" t="n"/>
     </row>
     <row r="488">
       <c r="A488" s="6" t="n"/>
@@ -14357,7 +13845,6 @@
       <c r="F488" s="6" t="n"/>
       <c r="G488" s="6" t="n"/>
       <c r="H488" s="6" t="n"/>
-      <c r="I488" s="6" t="n"/>
     </row>
     <row r="489">
       <c r="A489" s="6" t="n"/>
@@ -14368,7 +13855,6 @@
       <c r="F489" s="6" t="n"/>
       <c r="G489" s="6" t="n"/>
       <c r="H489" s="6" t="n"/>
-      <c r="I489" s="6" t="n"/>
     </row>
     <row r="490">
       <c r="A490" s="6" t="n"/>
@@ -14379,7 +13865,6 @@
       <c r="F490" s="6" t="n"/>
       <c r="G490" s="6" t="n"/>
       <c r="H490" s="6" t="n"/>
-      <c r="I490" s="6" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="6" t="n"/>
@@ -14390,7 +13875,6 @@
       <c r="F491" s="6" t="n"/>
       <c r="G491" s="6" t="n"/>
       <c r="H491" s="6" t="n"/>
-      <c r="I491" s="6" t="n"/>
     </row>
     <row r="492">
       <c r="A492" s="6" t="n"/>
@@ -14401,7 +13885,6 @@
       <c r="F492" s="6" t="n"/>
       <c r="G492" s="6" t="n"/>
       <c r="H492" s="6" t="n"/>
-      <c r="I492" s="6" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="6" t="n"/>
@@ -14412,7 +13895,6 @@
       <c r="F493" s="6" t="n"/>
       <c r="G493" s="6" t="n"/>
       <c r="H493" s="6" t="n"/>
-      <c r="I493" s="6" t="n"/>
     </row>
     <row r="494">
       <c r="A494" s="6" t="n"/>
@@ -14423,7 +13905,6 @@
       <c r="F494" s="6" t="n"/>
       <c r="G494" s="6" t="n"/>
       <c r="H494" s="6" t="n"/>
-      <c r="I494" s="6" t="n"/>
     </row>
     <row r="495">
       <c r="A495" s="6" t="n"/>
@@ -14434,7 +13915,6 @@
       <c r="F495" s="6" t="n"/>
       <c r="G495" s="6" t="n"/>
       <c r="H495" s="6" t="n"/>
-      <c r="I495" s="6" t="n"/>
     </row>
     <row r="496">
       <c r="A496" s="6" t="n"/>
@@ -14445,7 +13925,6 @@
       <c r="F496" s="6" t="n"/>
       <c r="G496" s="6" t="n"/>
       <c r="H496" s="6" t="n"/>
-      <c r="I496" s="6" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="6" t="n"/>
@@ -14456,7 +13935,6 @@
       <c r="F497" s="6" t="n"/>
       <c r="G497" s="6" t="n"/>
       <c r="H497" s="6" t="n"/>
-      <c r="I497" s="6" t="n"/>
     </row>
     <row r="498">
       <c r="A498" s="6" t="n"/>
@@ -14467,7 +13945,6 @@
       <c r="F498" s="6" t="n"/>
       <c r="G498" s="6" t="n"/>
       <c r="H498" s="6" t="n"/>
-      <c r="I498" s="6" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="6" t="n"/>
@@ -14478,7 +13955,6 @@
       <c r="F499" s="6" t="n"/>
       <c r="G499" s="6" t="n"/>
       <c r="H499" s="6" t="n"/>
-      <c r="I499" s="6" t="n"/>
     </row>
     <row r="500">
       <c r="A500" s="6" t="n"/>
@@ -14489,7 +13965,6 @@
       <c r="F500" s="6" t="n"/>
       <c r="G500" s="6" t="n"/>
       <c r="H500" s="6" t="n"/>
-      <c r="I500" s="6" t="n"/>
     </row>
     <row r="501">
       <c r="A501" s="6" t="n"/>
@@ -14500,7 +13975,6 @@
       <c r="F501" s="6" t="n"/>
       <c r="G501" s="6" t="n"/>
       <c r="H501" s="6" t="n"/>
-      <c r="I501" s="6" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="6" t="n"/>
@@ -14511,7 +13985,6 @@
       <c r="F502" s="6" t="n"/>
       <c r="G502" s="6" t="n"/>
       <c r="H502" s="6" t="n"/>
-      <c r="I502" s="6" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="6" t="n"/>
@@ -14522,7 +13995,6 @@
       <c r="F503" s="6" t="n"/>
       <c r="G503" s="6" t="n"/>
       <c r="H503" s="6" t="n"/>
-      <c r="I503" s="6" t="n"/>
     </row>
     <row r="504">
       <c r="A504" s="6" t="n"/>
@@ -14533,7 +14005,6 @@
       <c r="F504" s="6" t="n"/>
       <c r="G504" s="6" t="n"/>
       <c r="H504" s="6" t="n"/>
-      <c r="I504" s="6" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="6" t="n"/>
@@ -14544,7 +14015,6 @@
       <c r="F505" s="6" t="n"/>
       <c r="G505" s="6" t="n"/>
       <c r="H505" s="6" t="n"/>
-      <c r="I505" s="6" t="n"/>
     </row>
     <row r="506">
       <c r="A506" s="6" t="n"/>
@@ -14555,7 +14025,6 @@
       <c r="F506" s="6" t="n"/>
       <c r="G506" s="6" t="n"/>
       <c r="H506" s="6" t="n"/>
-      <c r="I506" s="6" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="6" t="n"/>
@@ -14566,7 +14035,6 @@
       <c r="F507" s="6" t="n"/>
       <c r="G507" s="6" t="n"/>
       <c r="H507" s="6" t="n"/>
-      <c r="I507" s="6" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="6" t="n"/>
@@ -14577,7 +14045,6 @@
       <c r="F508" s="6" t="n"/>
       <c r="G508" s="6" t="n"/>
       <c r="H508" s="6" t="n"/>
-      <c r="I508" s="6" t="n"/>
     </row>
     <row r="509">
       <c r="A509" s="6" t="n"/>
@@ -14588,7 +14055,6 @@
       <c r="F509" s="6" t="n"/>
       <c r="G509" s="6" t="n"/>
       <c r="H509" s="6" t="n"/>
-      <c r="I509" s="6" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="6" t="n"/>
@@ -14599,7 +14065,6 @@
       <c r="F510" s="6" t="n"/>
       <c r="G510" s="6" t="n"/>
       <c r="H510" s="6" t="n"/>
-      <c r="I510" s="6" t="n"/>
     </row>
     <row r="511">
       <c r="A511" s="6" t="n"/>
@@ -14610,7 +14075,6 @@
       <c r="F511" s="6" t="n"/>
       <c r="G511" s="6" t="n"/>
       <c r="H511" s="6" t="n"/>
-      <c r="I511" s="6" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="6" t="n"/>
@@ -14621,7 +14085,6 @@
       <c r="F512" s="6" t="n"/>
       <c r="G512" s="6" t="n"/>
       <c r="H512" s="6" t="n"/>
-      <c r="I512" s="6" t="n"/>
     </row>
     <row r="513">
       <c r="A513" s="6" t="n"/>
@@ -14632,7 +14095,6 @@
       <c r="F513" s="6" t="n"/>
       <c r="G513" s="6" t="n"/>
       <c r="H513" s="6" t="n"/>
-      <c r="I513" s="6" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="6" t="n"/>
@@ -14643,7 +14105,6 @@
       <c r="F514" s="6" t="n"/>
       <c r="G514" s="6" t="n"/>
       <c r="H514" s="6" t="n"/>
-      <c r="I514" s="6" t="n"/>
     </row>
     <row r="515">
       <c r="A515" s="6" t="n"/>
@@ -14654,7 +14115,6 @@
       <c r="F515" s="6" t="n"/>
       <c r="G515" s="6" t="n"/>
       <c r="H515" s="6" t="n"/>
-      <c r="I515" s="6" t="n"/>
     </row>
     <row r="516">
       <c r="A516" s="6" t="n"/>
@@ -14665,7 +14125,6 @@
       <c r="F516" s="6" t="n"/>
       <c r="G516" s="6" t="n"/>
       <c r="H516" s="6" t="n"/>
-      <c r="I516" s="6" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="6" t="n"/>
@@ -14676,7 +14135,6 @@
       <c r="F517" s="6" t="n"/>
       <c r="G517" s="6" t="n"/>
       <c r="H517" s="6" t="n"/>
-      <c r="I517" s="6" t="n"/>
     </row>
     <row r="518">
       <c r="A518" s="6" t="n"/>
@@ -14687,7 +14145,6 @@
       <c r="F518" s="6" t="n"/>
       <c r="G518" s="6" t="n"/>
       <c r="H518" s="6" t="n"/>
-      <c r="I518" s="6" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="6" t="n"/>
@@ -14698,7 +14155,6 @@
       <c r="F519" s="6" t="n"/>
       <c r="G519" s="6" t="n"/>
       <c r="H519" s="6" t="n"/>
-      <c r="I519" s="6" t="n"/>
     </row>
     <row r="520">
       <c r="A520" s="6" t="n"/>
@@ -14709,7 +14165,6 @@
       <c r="F520" s="6" t="n"/>
       <c r="G520" s="6" t="n"/>
       <c r="H520" s="6" t="n"/>
-      <c r="I520" s="6" t="n"/>
     </row>
     <row r="521">
       <c r="A521" s="6" t="n"/>
@@ -14720,7 +14175,6 @@
       <c r="F521" s="6" t="n"/>
       <c r="G521" s="6" t="n"/>
       <c r="H521" s="6" t="n"/>
-      <c r="I521" s="6" t="n"/>
     </row>
     <row r="522">
       <c r="A522" s="6" t="n"/>
@@ -14731,7 +14185,6 @@
       <c r="F522" s="6" t="n"/>
       <c r="G522" s="6" t="n"/>
       <c r="H522" s="6" t="n"/>
-      <c r="I522" s="6" t="n"/>
     </row>
     <row r="523">
       <c r="A523" s="6" t="n"/>
@@ -14742,7 +14195,6 @@
       <c r="F523" s="6" t="n"/>
       <c r="G523" s="6" t="n"/>
       <c r="H523" s="6" t="n"/>
-      <c r="I523" s="6" t="n"/>
     </row>
     <row r="524">
       <c r="A524" s="6" t="n"/>
@@ -14753,7 +14205,6 @@
       <c r="F524" s="6" t="n"/>
       <c r="G524" s="6" t="n"/>
       <c r="H524" s="6" t="n"/>
-      <c r="I524" s="6" t="n"/>
     </row>
     <row r="525">
       <c r="A525" s="6" t="n"/>
@@ -14764,7 +14215,6 @@
       <c r="F525" s="6" t="n"/>
       <c r="G525" s="6" t="n"/>
       <c r="H525" s="6" t="n"/>
-      <c r="I525" s="6" t="n"/>
     </row>
     <row r="526">
       <c r="A526" s="6" t="n"/>
@@ -14775,7 +14225,6 @@
       <c r="F526" s="6" t="n"/>
       <c r="G526" s="6" t="n"/>
       <c r="H526" s="6" t="n"/>
-      <c r="I526" s="6" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="6" t="n"/>
@@ -14786,7 +14235,6 @@
       <c r="F527" s="6" t="n"/>
       <c r="G527" s="6" t="n"/>
       <c r="H527" s="6" t="n"/>
-      <c r="I527" s="6" t="n"/>
     </row>
     <row r="528">
       <c r="A528" s="6" t="n"/>
@@ -14797,7 +14245,6 @@
       <c r="F528" s="6" t="n"/>
       <c r="G528" s="6" t="n"/>
       <c r="H528" s="6" t="n"/>
-      <c r="I528" s="6" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="6" t="n"/>
@@ -14808,7 +14255,6 @@
       <c r="F529" s="6" t="n"/>
       <c r="G529" s="6" t="n"/>
       <c r="H529" s="6" t="n"/>
-      <c r="I529" s="6" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="6" t="n"/>
@@ -14819,7 +14265,6 @@
       <c r="F530" s="6" t="n"/>
       <c r="G530" s="6" t="n"/>
       <c r="H530" s="6" t="n"/>
-      <c r="I530" s="6" t="n"/>
     </row>
     <row r="531">
       <c r="A531" s="6" t="n"/>
@@ -14830,7 +14275,6 @@
       <c r="F531" s="6" t="n"/>
       <c r="G531" s="6" t="n"/>
       <c r="H531" s="6" t="n"/>
-      <c r="I531" s="6" t="n"/>
     </row>
     <row r="532">
       <c r="A532" s="6" t="n"/>
@@ -14841,7 +14285,6 @@
       <c r="F532" s="6" t="n"/>
       <c r="G532" s="6" t="n"/>
       <c r="H532" s="6" t="n"/>
-      <c r="I532" s="6" t="n"/>
     </row>
     <row r="533">
       <c r="A533" s="6" t="n"/>
@@ -14852,7 +14295,6 @@
       <c r="F533" s="6" t="n"/>
       <c r="G533" s="6" t="n"/>
       <c r="H533" s="6" t="n"/>
-      <c r="I533" s="6" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="6" t="n"/>
@@ -14863,7 +14305,6 @@
       <c r="F534" s="6" t="n"/>
       <c r="G534" s="6" t="n"/>
       <c r="H534" s="6" t="n"/>
-      <c r="I534" s="6" t="n"/>
     </row>
     <row r="535">
       <c r="A535" s="6" t="n"/>
@@ -14874,7 +14315,6 @@
       <c r="F535" s="6" t="n"/>
       <c r="G535" s="6" t="n"/>
       <c r="H535" s="6" t="n"/>
-      <c r="I535" s="6" t="n"/>
     </row>
     <row r="536">
       <c r="A536" s="6" t="n"/>
@@ -14885,7 +14325,6 @@
       <c r="F536" s="6" t="n"/>
       <c r="G536" s="6" t="n"/>
       <c r="H536" s="6" t="n"/>
-      <c r="I536" s="6" t="n"/>
     </row>
     <row r="537">
       <c r="A537" s="6" t="n"/>
@@ -14896,7 +14335,6 @@
       <c r="F537" s="6" t="n"/>
       <c r="G537" s="6" t="n"/>
       <c r="H537" s="6" t="n"/>
-      <c r="I537" s="6" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="6" t="n"/>
@@ -14907,7 +14345,6 @@
       <c r="F538" s="6" t="n"/>
       <c r="G538" s="6" t="n"/>
       <c r="H538" s="6" t="n"/>
-      <c r="I538" s="6" t="n"/>
     </row>
     <row r="539">
       <c r="A539" s="6" t="n"/>
@@ -14918,7 +14355,6 @@
       <c r="F539" s="6" t="n"/>
       <c r="G539" s="6" t="n"/>
       <c r="H539" s="6" t="n"/>
-      <c r="I539" s="6" t="n"/>
     </row>
     <row r="540">
       <c r="A540" s="6" t="n"/>
@@ -14929,7 +14365,6 @@
       <c r="F540" s="6" t="n"/>
       <c r="G540" s="6" t="n"/>
       <c r="H540" s="6" t="n"/>
-      <c r="I540" s="6" t="n"/>
     </row>
     <row r="541">
       <c r="A541" s="6" t="n"/>
@@ -14940,7 +14375,6 @@
       <c r="F541" s="6" t="n"/>
       <c r="G541" s="6" t="n"/>
       <c r="H541" s="6" t="n"/>
-      <c r="I541" s="6" t="n"/>
     </row>
     <row r="542">
       <c r="A542" s="6" t="n"/>
@@ -14951,7 +14385,6 @@
       <c r="F542" s="6" t="n"/>
       <c r="G542" s="6" t="n"/>
       <c r="H542" s="6" t="n"/>
-      <c r="I542" s="6" t="n"/>
     </row>
     <row r="543">
       <c r="A543" s="6" t="n"/>
@@ -14962,7 +14395,6 @@
       <c r="F543" s="6" t="n"/>
       <c r="G543" s="6" t="n"/>
       <c r="H543" s="6" t="n"/>
-      <c r="I543" s="6" t="n"/>
     </row>
     <row r="544">
       <c r="A544" s="6" t="n"/>
@@ -14973,7 +14405,6 @@
       <c r="F544" s="6" t="n"/>
       <c r="G544" s="6" t="n"/>
       <c r="H544" s="6" t="n"/>
-      <c r="I544" s="6" t="n"/>
     </row>
     <row r="545">
       <c r="A545" s="6" t="n"/>
@@ -14984,7 +14415,6 @@
       <c r="F545" s="6" t="n"/>
       <c r="G545" s="6" t="n"/>
       <c r="H545" s="6" t="n"/>
-      <c r="I545" s="6" t="n"/>
     </row>
     <row r="546">
       <c r="A546" s="6" t="n"/>
@@ -14995,7 +14425,6 @@
       <c r="F546" s="6" t="n"/>
       <c r="G546" s="6" t="n"/>
       <c r="H546" s="6" t="n"/>
-      <c r="I546" s="6" t="n"/>
     </row>
     <row r="547">
       <c r="A547" s="6" t="n"/>
@@ -15006,7 +14435,6 @@
       <c r="F547" s="6" t="n"/>
       <c r="G547" s="6" t="n"/>
       <c r="H547" s="6" t="n"/>
-      <c r="I547" s="6" t="n"/>
     </row>
     <row r="548">
       <c r="A548" s="6" t="n"/>
@@ -15017,7 +14445,6 @@
       <c r="F548" s="6" t="n"/>
       <c r="G548" s="6" t="n"/>
       <c r="H548" s="6" t="n"/>
-      <c r="I548" s="6" t="n"/>
     </row>
     <row r="549">
       <c r="A549" s="6" t="n"/>
@@ -15028,7 +14455,6 @@
       <c r="F549" s="6" t="n"/>
       <c r="G549" s="6" t="n"/>
       <c r="H549" s="6" t="n"/>
-      <c r="I549" s="6" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="6" t="n"/>
@@ -15039,7 +14465,6 @@
       <c r="F550" s="6" t="n"/>
       <c r="G550" s="6" t="n"/>
       <c r="H550" s="6" t="n"/>
-      <c r="I550" s="6" t="n"/>
     </row>
     <row r="551">
       <c r="A551" s="6" t="n"/>
@@ -15050,7 +14475,6 @@
       <c r="F551" s="6" t="n"/>
       <c r="G551" s="6" t="n"/>
       <c r="H551" s="6" t="n"/>
-      <c r="I551" s="6" t="n"/>
     </row>
     <row r="552">
       <c r="A552" s="6" t="n"/>
@@ -15061,7 +14485,6 @@
       <c r="F552" s="6" t="n"/>
       <c r="G552" s="6" t="n"/>
       <c r="H552" s="6" t="n"/>
-      <c r="I552" s="6" t="n"/>
     </row>
     <row r="553">
       <c r="A553" s="6" t="n"/>
@@ -15072,7 +14495,6 @@
       <c r="F553" s="6" t="n"/>
       <c r="G553" s="6" t="n"/>
       <c r="H553" s="6" t="n"/>
-      <c r="I553" s="6" t="n"/>
     </row>
     <row r="554">
       <c r="A554" s="6" t="n"/>
@@ -15083,7 +14505,6 @@
       <c r="F554" s="6" t="n"/>
       <c r="G554" s="6" t="n"/>
       <c r="H554" s="6" t="n"/>
-      <c r="I554" s="6" t="n"/>
     </row>
     <row r="555">
       <c r="A555" s="6" t="n"/>
@@ -15094,7 +14515,6 @@
       <c r="F555" s="6" t="n"/>
       <c r="G555" s="6" t="n"/>
       <c r="H555" s="6" t="n"/>
-      <c r="I555" s="6" t="n"/>
     </row>
     <row r="556">
       <c r="A556" s="6" t="n"/>
@@ -15105,7 +14525,6 @@
       <c r="F556" s="6" t="n"/>
       <c r="G556" s="6" t="n"/>
       <c r="H556" s="6" t="n"/>
-      <c r="I556" s="6" t="n"/>
     </row>
     <row r="557">
       <c r="A557" s="6" t="n"/>
@@ -15116,7 +14535,6 @@
       <c r="F557" s="6" t="n"/>
       <c r="G557" s="6" t="n"/>
       <c r="H557" s="6" t="n"/>
-      <c r="I557" s="6" t="n"/>
     </row>
     <row r="558">
       <c r="A558" s="6" t="n"/>
@@ -15127,7 +14545,6 @@
       <c r="F558" s="6" t="n"/>
       <c r="G558" s="6" t="n"/>
       <c r="H558" s="6" t="n"/>
-      <c r="I558" s="6" t="n"/>
     </row>
     <row r="559">
       <c r="A559" s="6" t="n"/>
@@ -15138,7 +14555,6 @@
       <c r="F559" s="6" t="n"/>
       <c r="G559" s="6" t="n"/>
       <c r="H559" s="6" t="n"/>
-      <c r="I559" s="6" t="n"/>
     </row>
     <row r="560">
       <c r="A560" s="6" t="n"/>
@@ -15149,7 +14565,6 @@
       <c r="F560" s="6" t="n"/>
       <c r="G560" s="6" t="n"/>
       <c r="H560" s="6" t="n"/>
-      <c r="I560" s="6" t="n"/>
     </row>
     <row r="561">
       <c r="A561" s="6" t="n"/>
@@ -15160,7 +14575,6 @@
       <c r="F561" s="6" t="n"/>
       <c r="G561" s="6" t="n"/>
       <c r="H561" s="6" t="n"/>
-      <c r="I561" s="6" t="n"/>
     </row>
     <row r="562">
       <c r="A562" s="6" t="n"/>
@@ -15171,7 +14585,6 @@
       <c r="F562" s="6" t="n"/>
       <c r="G562" s="6" t="n"/>
       <c r="H562" s="6" t="n"/>
-      <c r="I562" s="6" t="n"/>
     </row>
     <row r="563">
       <c r="A563" s="6" t="n"/>
@@ -15182,7 +14595,6 @@
       <c r="F563" s="6" t="n"/>
       <c r="G563" s="6" t="n"/>
       <c r="H563" s="6" t="n"/>
-      <c r="I563" s="6" t="n"/>
     </row>
     <row r="564">
       <c r="A564" s="6" t="n"/>
@@ -15193,7 +14605,6 @@
       <c r="F564" s="6" t="n"/>
       <c r="G564" s="6" t="n"/>
       <c r="H564" s="6" t="n"/>
-      <c r="I564" s="6" t="n"/>
     </row>
     <row r="565">
       <c r="A565" s="6" t="n"/>
@@ -15204,7 +14615,6 @@
       <c r="F565" s="6" t="n"/>
       <c r="G565" s="6" t="n"/>
       <c r="H565" s="6" t="n"/>
-      <c r="I565" s="6" t="n"/>
     </row>
     <row r="566">
       <c r="A566" s="6" t="n"/>
@@ -15215,7 +14625,6 @@
       <c r="F566" s="6" t="n"/>
       <c r="G566" s="6" t="n"/>
       <c r="H566" s="6" t="n"/>
-      <c r="I566" s="6" t="n"/>
     </row>
     <row r="567">
       <c r="A567" s="6" t="n"/>
@@ -15226,7 +14635,6 @@
       <c r="F567" s="6" t="n"/>
       <c r="G567" s="6" t="n"/>
       <c r="H567" s="6" t="n"/>
-      <c r="I567" s="6" t="n"/>
     </row>
     <row r="568">
       <c r="A568" s="6" t="n"/>
@@ -15237,7 +14645,6 @@
       <c r="F568" s="6" t="n"/>
       <c r="G568" s="6" t="n"/>
       <c r="H568" s="6" t="n"/>
-      <c r="I568" s="6" t="n"/>
     </row>
     <row r="569">
       <c r="A569" s="6" t="n"/>
@@ -15248,7 +14655,6 @@
       <c r="F569" s="6" t="n"/>
       <c r="G569" s="6" t="n"/>
       <c r="H569" s="6" t="n"/>
-      <c r="I569" s="6" t="n"/>
     </row>
     <row r="570">
       <c r="A570" s="6" t="n"/>
@@ -15259,7 +14665,6 @@
       <c r="F570" s="6" t="n"/>
       <c r="G570" s="6" t="n"/>
       <c r="H570" s="6" t="n"/>
-      <c r="I570" s="6" t="n"/>
     </row>
     <row r="571">
       <c r="A571" s="6" t="n"/>
@@ -15270,7 +14675,6 @@
       <c r="F571" s="6" t="n"/>
       <c r="G571" s="6" t="n"/>
       <c r="H571" s="6" t="n"/>
-      <c r="I571" s="6" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="6" t="n"/>
@@ -15281,7 +14685,6 @@
       <c r="F572" s="6" t="n"/>
       <c r="G572" s="6" t="n"/>
       <c r="H572" s="6" t="n"/>
-      <c r="I572" s="6" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="6" t="n"/>
@@ -15292,7 +14695,6 @@
       <c r="F573" s="6" t="n"/>
       <c r="G573" s="6" t="n"/>
       <c r="H573" s="6" t="n"/>
-      <c r="I573" s="6" t="n"/>
     </row>
     <row r="574">
       <c r="A574" s="6" t="n"/>
@@ -15303,7 +14705,6 @@
       <c r="F574" s="6" t="n"/>
       <c r="G574" s="6" t="n"/>
       <c r="H574" s="6" t="n"/>
-      <c r="I574" s="6" t="n"/>
     </row>
     <row r="575">
       <c r="A575" s="6" t="n"/>
@@ -15314,7 +14715,6 @@
       <c r="F575" s="6" t="n"/>
       <c r="G575" s="6" t="n"/>
       <c r="H575" s="6" t="n"/>
-      <c r="I575" s="6" t="n"/>
     </row>
     <row r="576">
       <c r="A576" s="6" t="n"/>
@@ -15325,7 +14725,6 @@
       <c r="F576" s="6" t="n"/>
       <c r="G576" s="6" t="n"/>
       <c r="H576" s="6" t="n"/>
-      <c r="I576" s="6" t="n"/>
     </row>
     <row r="577">
       <c r="A577" s="6" t="n"/>
@@ -15336,7 +14735,6 @@
       <c r="F577" s="6" t="n"/>
       <c r="G577" s="6" t="n"/>
       <c r="H577" s="6" t="n"/>
-      <c r="I577" s="6" t="n"/>
     </row>
     <row r="578">
       <c r="A578" s="6" t="n"/>
@@ -15347,7 +14745,6 @@
       <c r="F578" s="6" t="n"/>
       <c r="G578" s="6" t="n"/>
       <c r="H578" s="6" t="n"/>
-      <c r="I578" s="6" t="n"/>
     </row>
     <row r="579">
       <c r="A579" s="6" t="n"/>
@@ -15358,7 +14755,6 @@
       <c r="F579" s="6" t="n"/>
       <c r="G579" s="6" t="n"/>
       <c r="H579" s="6" t="n"/>
-      <c r="I579" s="6" t="n"/>
     </row>
     <row r="580">
       <c r="A580" s="6" t="n"/>
@@ -15369,7 +14765,6 @@
       <c r="F580" s="6" t="n"/>
       <c r="G580" s="6" t="n"/>
       <c r="H580" s="6" t="n"/>
-      <c r="I580" s="6" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="6" t="n"/>
@@ -15380,7 +14775,6 @@
       <c r="F581" s="6" t="n"/>
       <c r="G581" s="6" t="n"/>
       <c r="H581" s="6" t="n"/>
-      <c r="I581" s="6" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="6" t="n"/>
@@ -15391,7 +14785,6 @@
       <c r="F582" s="6" t="n"/>
       <c r="G582" s="6" t="n"/>
       <c r="H582" s="6" t="n"/>
-      <c r="I582" s="6" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="6" t="n"/>
@@ -15402,7 +14795,6 @@
       <c r="F583" s="6" t="n"/>
       <c r="G583" s="6" t="n"/>
       <c r="H583" s="6" t="n"/>
-      <c r="I583" s="6" t="n"/>
     </row>
     <row r="584">
       <c r="A584" s="6" t="n"/>
@@ -15413,7 +14805,6 @@
       <c r="F584" s="6" t="n"/>
       <c r="G584" s="6" t="n"/>
       <c r="H584" s="6" t="n"/>
-      <c r="I584" s="6" t="n"/>
     </row>
     <row r="585">
       <c r="A585" s="6" t="n"/>
@@ -15424,7 +14815,6 @@
       <c r="F585" s="6" t="n"/>
       <c r="G585" s="6" t="n"/>
       <c r="H585" s="6" t="n"/>
-      <c r="I585" s="6" t="n"/>
     </row>
     <row r="586">
       <c r="A586" s="6" t="n"/>
@@ -15435,7 +14825,6 @@
       <c r="F586" s="6" t="n"/>
       <c r="G586" s="6" t="n"/>
       <c r="H586" s="6" t="n"/>
-      <c r="I586" s="6" t="n"/>
     </row>
     <row r="587">
       <c r="A587" s="6" t="n"/>
@@ -15446,7 +14835,6 @@
       <c r="F587" s="6" t="n"/>
       <c r="G587" s="6" t="n"/>
       <c r="H587" s="6" t="n"/>
-      <c r="I587" s="6" t="n"/>
     </row>
     <row r="588">
       <c r="A588" s="6" t="n"/>
@@ -15457,7 +14845,6 @@
       <c r="F588" s="6" t="n"/>
       <c r="G588" s="6" t="n"/>
       <c r="H588" s="6" t="n"/>
-      <c r="I588" s="6" t="n"/>
     </row>
     <row r="589">
       <c r="A589" s="6" t="n"/>
@@ -15468,7 +14855,6 @@
       <c r="F589" s="6" t="n"/>
       <c r="G589" s="6" t="n"/>
       <c r="H589" s="6" t="n"/>
-      <c r="I589" s="6" t="n"/>
     </row>
     <row r="590">
       <c r="A590" s="6" t="n"/>
@@ -15479,7 +14865,6 @@
       <c r="F590" s="6" t="n"/>
       <c r="G590" s="6" t="n"/>
       <c r="H590" s="6" t="n"/>
-      <c r="I590" s="6" t="n"/>
     </row>
     <row r="591">
       <c r="A591" s="6" t="n"/>
@@ -15490,7 +14875,6 @@
       <c r="F591" s="6" t="n"/>
       <c r="G591" s="6" t="n"/>
       <c r="H591" s="6" t="n"/>
-      <c r="I591" s="6" t="n"/>
     </row>
     <row r="592">
       <c r="A592" s="6" t="n"/>
@@ -15501,7 +14885,6 @@
       <c r="F592" s="6" t="n"/>
       <c r="G592" s="6" t="n"/>
       <c r="H592" s="6" t="n"/>
-      <c r="I592" s="6" t="n"/>
     </row>
     <row r="593">
       <c r="A593" s="6" t="n"/>
@@ -15512,7 +14895,6 @@
       <c r="F593" s="6" t="n"/>
       <c r="G593" s="6" t="n"/>
       <c r="H593" s="6" t="n"/>
-      <c r="I593" s="6" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="6" t="n"/>
@@ -15523,7 +14905,6 @@
       <c r="F594" s="6" t="n"/>
       <c r="G594" s="6" t="n"/>
       <c r="H594" s="6" t="n"/>
-      <c r="I594" s="6" t="n"/>
     </row>
     <row r="595">
       <c r="A595" s="6" t="n"/>
@@ -15534,7 +14915,6 @@
       <c r="F595" s="6" t="n"/>
       <c r="G595" s="6" t="n"/>
       <c r="H595" s="6" t="n"/>
-      <c r="I595" s="6" t="n"/>
     </row>
     <row r="596">
       <c r="A596" s="6" t="n"/>
@@ -15545,7 +14925,6 @@
       <c r="F596" s="6" t="n"/>
       <c r="G596" s="6" t="n"/>
       <c r="H596" s="6" t="n"/>
-      <c r="I596" s="6" t="n"/>
     </row>
     <row r="597">
       <c r="A597" s="6" t="n"/>
@@ -15556,7 +14935,6 @@
       <c r="F597" s="6" t="n"/>
       <c r="G597" s="6" t="n"/>
       <c r="H597" s="6" t="n"/>
-      <c r="I597" s="6" t="n"/>
     </row>
     <row r="598">
       <c r="A598" s="6" t="n"/>
@@ -15567,7 +14945,6 @@
       <c r="F598" s="6" t="n"/>
       <c r="G598" s="6" t="n"/>
       <c r="H598" s="6" t="n"/>
-      <c r="I598" s="6" t="n"/>
     </row>
     <row r="599">
       <c r="A599" s="6" t="n"/>
@@ -15578,7 +14955,6 @@
       <c r="F599" s="6" t="n"/>
       <c r="G599" s="6" t="n"/>
       <c r="H599" s="6" t="n"/>
-      <c r="I599" s="6" t="n"/>
     </row>
     <row r="600">
       <c r="A600" s="6" t="n"/>
@@ -15589,7 +14965,6 @@
       <c r="F600" s="6" t="n"/>
       <c r="G600" s="6" t="n"/>
       <c r="H600" s="6" t="n"/>
-      <c r="I600" s="6" t="n"/>
     </row>
     <row r="601">
       <c r="A601" s="6" t="n"/>
@@ -15600,7 +14975,6 @@
       <c r="F601" s="6" t="n"/>
       <c r="G601" s="6" t="n"/>
       <c r="H601" s="6" t="n"/>
-      <c r="I601" s="6" t="n"/>
     </row>
     <row r="602">
       <c r="A602" s="6" t="n"/>
@@ -15611,7 +14985,6 @@
       <c r="F602" s="6" t="n"/>
       <c r="G602" s="6" t="n"/>
       <c r="H602" s="6" t="n"/>
-      <c r="I602" s="6" t="n"/>
     </row>
     <row r="603">
       <c r="A603" s="6" t="n"/>
@@ -15622,7 +14995,6 @@
       <c r="F603" s="6" t="n"/>
       <c r="G603" s="6" t="n"/>
       <c r="H603" s="6" t="n"/>
-      <c r="I603" s="6" t="n"/>
     </row>
     <row r="604">
       <c r="A604" s="6" t="n"/>
@@ -15633,7 +15005,6 @@
       <c r="F604" s="6" t="n"/>
       <c r="G604" s="6" t="n"/>
       <c r="H604" s="6" t="n"/>
-      <c r="I604" s="6" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="6" t="n"/>
@@ -15644,7 +15015,6 @@
       <c r="F605" s="6" t="n"/>
       <c r="G605" s="6" t="n"/>
       <c r="H605" s="6" t="n"/>
-      <c r="I605" s="6" t="n"/>
     </row>
     <row r="606">
       <c r="A606" s="6" t="n"/>
@@ -15655,7 +15025,6 @@
       <c r="F606" s="6" t="n"/>
       <c r="G606" s="6" t="n"/>
       <c r="H606" s="6" t="n"/>
-      <c r="I606" s="6" t="n"/>
     </row>
     <row r="607">
       <c r="A607" s="6" t="n"/>
@@ -15666,7 +15035,6 @@
       <c r="F607" s="6" t="n"/>
       <c r="G607" s="6" t="n"/>
       <c r="H607" s="6" t="n"/>
-      <c r="I607" s="6" t="n"/>
     </row>
     <row r="608">
       <c r="A608" s="6" t="n"/>
@@ -15677,7 +15045,6 @@
       <c r="F608" s="6" t="n"/>
       <c r="G608" s="6" t="n"/>
       <c r="H608" s="6" t="n"/>
-      <c r="I608" s="6" t="n"/>
     </row>
     <row r="609">
       <c r="A609" s="6" t="n"/>
@@ -15688,7 +15055,6 @@
       <c r="F609" s="6" t="n"/>
       <c r="G609" s="6" t="n"/>
       <c r="H609" s="6" t="n"/>
-      <c r="I609" s="6" t="n"/>
     </row>
     <row r="610">
       <c r="A610" s="6" t="n"/>
@@ -15699,7 +15065,6 @@
       <c r="F610" s="6" t="n"/>
       <c r="G610" s="6" t="n"/>
       <c r="H610" s="6" t="n"/>
-      <c r="I610" s="6" t="n"/>
     </row>
     <row r="611">
       <c r="A611" s="6" t="n"/>
@@ -15710,7 +15075,6 @@
       <c r="F611" s="6" t="n"/>
       <c r="G611" s="6" t="n"/>
       <c r="H611" s="6" t="n"/>
-      <c r="I611" s="6" t="n"/>
     </row>
     <row r="612">
       <c r="A612" s="6" t="n"/>
@@ -15721,7 +15085,6 @@
       <c r="F612" s="6" t="n"/>
       <c r="G612" s="6" t="n"/>
       <c r="H612" s="6" t="n"/>
-      <c r="I612" s="6" t="n"/>
     </row>
     <row r="613">
       <c r="A613" s="6" t="n"/>
@@ -15732,7 +15095,6 @@
       <c r="F613" s="6" t="n"/>
       <c r="G613" s="6" t="n"/>
       <c r="H613" s="6" t="n"/>
-      <c r="I613" s="6" t="n"/>
     </row>
     <row r="614">
       <c r="A614" s="6" t="n"/>
@@ -15743,7 +15105,6 @@
       <c r="F614" s="6" t="n"/>
       <c r="G614" s="6" t="n"/>
       <c r="H614" s="6" t="n"/>
-      <c r="I614" s="6" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="6" t="n"/>
@@ -15754,7 +15115,6 @@
       <c r="F615" s="6" t="n"/>
       <c r="G615" s="6" t="n"/>
       <c r="H615" s="6" t="n"/>
-      <c r="I615" s="6" t="n"/>
     </row>
     <row r="616">
       <c r="A616" s="6" t="n"/>
@@ -15765,7 +15125,6 @@
       <c r="F616" s="6" t="n"/>
       <c r="G616" s="6" t="n"/>
       <c r="H616" s="6" t="n"/>
-      <c r="I616" s="6" t="n"/>
     </row>
     <row r="617">
       <c r="A617" s="6" t="n"/>
@@ -15776,7 +15135,6 @@
       <c r="F617" s="6" t="n"/>
       <c r="G617" s="6" t="n"/>
       <c r="H617" s="6" t="n"/>
-      <c r="I617" s="6" t="n"/>
     </row>
     <row r="618">
       <c r="A618" s="6" t="n"/>
@@ -15787,7 +15145,6 @@
       <c r="F618" s="6" t="n"/>
       <c r="G618" s="6" t="n"/>
       <c r="H618" s="6" t="n"/>
-      <c r="I618" s="6" t="n"/>
     </row>
     <row r="619">
       <c r="A619" s="6" t="n"/>
@@ -15798,7 +15155,6 @@
       <c r="F619" s="6" t="n"/>
       <c r="G619" s="6" t="n"/>
       <c r="H619" s="6" t="n"/>
-      <c r="I619" s="6" t="n"/>
     </row>
     <row r="620">
       <c r="A620" s="6" t="n"/>
@@ -15809,7 +15165,6 @@
       <c r="F620" s="6" t="n"/>
       <c r="G620" s="6" t="n"/>
       <c r="H620" s="6" t="n"/>
-      <c r="I620" s="6" t="n"/>
     </row>
     <row r="621">
       <c r="A621" s="6" t="n"/>
@@ -15820,7 +15175,6 @@
       <c r="F621" s="6" t="n"/>
       <c r="G621" s="6" t="n"/>
       <c r="H621" s="6" t="n"/>
-      <c r="I621" s="6" t="n"/>
     </row>
     <row r="622">
       <c r="A622" s="6" t="n"/>
@@ -15831,7 +15185,6 @@
       <c r="F622" s="6" t="n"/>
       <c r="G622" s="6" t="n"/>
       <c r="H622" s="6" t="n"/>
-      <c r="I622" s="6" t="n"/>
     </row>
     <row r="623">
       <c r="A623" s="6" t="n"/>
@@ -15842,7 +15195,6 @@
       <c r="F623" s="6" t="n"/>
       <c r="G623" s="6" t="n"/>
       <c r="H623" s="6" t="n"/>
-      <c r="I623" s="6" t="n"/>
     </row>
     <row r="624">
       <c r="A624" s="6" t="n"/>
@@ -15853,7 +15205,6 @@
       <c r="F624" s="6" t="n"/>
       <c r="G624" s="6" t="n"/>
       <c r="H624" s="6" t="n"/>
-      <c r="I624" s="6" t="n"/>
     </row>
     <row r="625">
       <c r="A625" s="6" t="n"/>
@@ -15864,7 +15215,6 @@
       <c r="F625" s="6" t="n"/>
       <c r="G625" s="6" t="n"/>
       <c r="H625" s="6" t="n"/>
-      <c r="I625" s="6" t="n"/>
     </row>
     <row r="626">
       <c r="A626" s="6" t="n"/>
@@ -15875,7 +15225,6 @@
       <c r="F626" s="6" t="n"/>
       <c r="G626" s="6" t="n"/>
       <c r="H626" s="6" t="n"/>
-      <c r="I626" s="6" t="n"/>
     </row>
     <row r="627">
       <c r="A627" s="6" t="n"/>
@@ -15886,7 +15235,6 @@
       <c r="F627" s="6" t="n"/>
       <c r="G627" s="6" t="n"/>
       <c r="H627" s="6" t="n"/>
-      <c r="I627" s="6" t="n"/>
     </row>
     <row r="628">
       <c r="A628" s="6" t="n"/>
@@ -15897,7 +15245,6 @@
       <c r="F628" s="6" t="n"/>
       <c r="G628" s="6" t="n"/>
       <c r="H628" s="6" t="n"/>
-      <c r="I628" s="6" t="n"/>
     </row>
     <row r="629">
       <c r="A629" s="6" t="n"/>
@@ -15908,7 +15255,6 @@
       <c r="F629" s="6" t="n"/>
       <c r="G629" s="6" t="n"/>
       <c r="H629" s="6" t="n"/>
-      <c r="I629" s="6" t="n"/>
     </row>
     <row r="630">
       <c r="A630" s="6" t="n"/>
@@ -15919,7 +15265,6 @@
       <c r="F630" s="6" t="n"/>
       <c r="G630" s="6" t="n"/>
       <c r="H630" s="6" t="n"/>
-      <c r="I630" s="6" t="n"/>
     </row>
     <row r="631">
       <c r="A631" s="6" t="n"/>
@@ -15930,7 +15275,6 @@
       <c r="F631" s="6" t="n"/>
       <c r="G631" s="6" t="n"/>
       <c r="H631" s="6" t="n"/>
-      <c r="I631" s="6" t="n"/>
     </row>
     <row r="632">
       <c r="A632" s="6" t="n"/>
@@ -15941,7 +15285,6 @@
       <c r="F632" s="6" t="n"/>
       <c r="G632" s="6" t="n"/>
       <c r="H632" s="6" t="n"/>
-      <c r="I632" s="6" t="n"/>
     </row>
     <row r="633">
       <c r="A633" s="6" t="n"/>
@@ -15952,7 +15295,6 @@
       <c r="F633" s="6" t="n"/>
       <c r="G633" s="6" t="n"/>
       <c r="H633" s="6" t="n"/>
-      <c r="I633" s="6" t="n"/>
     </row>
     <row r="634">
       <c r="A634" s="6" t="n"/>
@@ -15963,7 +15305,6 @@
       <c r="F634" s="6" t="n"/>
       <c r="G634" s="6" t="n"/>
       <c r="H634" s="6" t="n"/>
-      <c r="I634" s="6" t="n"/>
     </row>
     <row r="635">
       <c r="A635" s="6" t="n"/>
@@ -15974,7 +15315,6 @@
       <c r="F635" s="6" t="n"/>
       <c r="G635" s="6" t="n"/>
       <c r="H635" s="6" t="n"/>
-      <c r="I635" s="6" t="n"/>
     </row>
     <row r="636">
       <c r="A636" s="6" t="n"/>
@@ -15985,7 +15325,6 @@
       <c r="F636" s="6" t="n"/>
       <c r="G636" s="6" t="n"/>
       <c r="H636" s="6" t="n"/>
-      <c r="I636" s="6" t="n"/>
     </row>
     <row r="637">
       <c r="A637" s="6" t="n"/>
@@ -15996,7 +15335,6 @@
       <c r="F637" s="6" t="n"/>
       <c r="G637" s="6" t="n"/>
       <c r="H637" s="6" t="n"/>
-      <c r="I637" s="6" t="n"/>
     </row>
     <row r="638">
       <c r="A638" s="6" t="n"/>
@@ -16007,7 +15345,6 @@
       <c r="F638" s="6" t="n"/>
       <c r="G638" s="6" t="n"/>
       <c r="H638" s="6" t="n"/>
-      <c r="I638" s="6" t="n"/>
     </row>
     <row r="639">
       <c r="A639" s="6" t="n"/>
@@ -16018,7 +15355,6 @@
       <c r="F639" s="6" t="n"/>
       <c r="G639" s="6" t="n"/>
       <c r="H639" s="6" t="n"/>
-      <c r="I639" s="6" t="n"/>
     </row>
     <row r="640">
       <c r="A640" s="6" t="n"/>
@@ -16029,7 +15365,6 @@
       <c r="F640" s="6" t="n"/>
       <c r="G640" s="6" t="n"/>
       <c r="H640" s="6" t="n"/>
-      <c r="I640" s="6" t="n"/>
     </row>
     <row r="641">
       <c r="A641" s="6" t="n"/>
@@ -16040,7 +15375,6 @@
       <c r="F641" s="6" t="n"/>
       <c r="G641" s="6" t="n"/>
       <c r="H641" s="6" t="n"/>
-      <c r="I641" s="6" t="n"/>
     </row>
     <row r="642">
       <c r="A642" s="6" t="n"/>
@@ -16051,7 +15385,6 @@
       <c r="F642" s="6" t="n"/>
       <c r="G642" s="6" t="n"/>
       <c r="H642" s="6" t="n"/>
-      <c r="I642" s="6" t="n"/>
     </row>
     <row r="643">
       <c r="A643" s="6" t="n"/>
@@ -16062,7 +15395,6 @@
       <c r="F643" s="6" t="n"/>
       <c r="G643" s="6" t="n"/>
       <c r="H643" s="6" t="n"/>
-      <c r="I643" s="6" t="n"/>
     </row>
     <row r="644">
       <c r="A644" s="6" t="n"/>
@@ -16073,7 +15405,6 @@
       <c r="F644" s="6" t="n"/>
       <c r="G644" s="6" t="n"/>
       <c r="H644" s="6" t="n"/>
-      <c r="I644" s="6" t="n"/>
     </row>
     <row r="645">
       <c r="A645" s="6" t="n"/>
@@ -16084,7 +15415,6 @@
       <c r="F645" s="6" t="n"/>
       <c r="G645" s="6" t="n"/>
       <c r="H645" s="6" t="n"/>
-      <c r="I645" s="6" t="n"/>
     </row>
     <row r="646">
       <c r="A646" s="6" t="n"/>
@@ -16095,7 +15425,6 @@
       <c r="F646" s="6" t="n"/>
       <c r="G646" s="6" t="n"/>
       <c r="H646" s="6" t="n"/>
-      <c r="I646" s="6" t="n"/>
     </row>
     <row r="647">
       <c r="A647" s="6" t="n"/>
@@ -16106,7 +15435,6 @@
       <c r="F647" s="6" t="n"/>
       <c r="G647" s="6" t="n"/>
       <c r="H647" s="6" t="n"/>
-      <c r="I647" s="6" t="n"/>
     </row>
     <row r="648">
       <c r="A648" s="6" t="n"/>
@@ -16117,7 +15445,6 @@
       <c r="F648" s="6" t="n"/>
       <c r="G648" s="6" t="n"/>
       <c r="H648" s="6" t="n"/>
-      <c r="I648" s="6" t="n"/>
     </row>
     <row r="649">
       <c r="A649" s="6" t="n"/>
@@ -16128,7 +15455,6 @@
       <c r="F649" s="6" t="n"/>
       <c r="G649" s="6" t="n"/>
       <c r="H649" s="6" t="n"/>
-      <c r="I649" s="6" t="n"/>
     </row>
     <row r="650">
       <c r="A650" s="6" t="n"/>
@@ -16139,7 +15465,6 @@
       <c r="F650" s="6" t="n"/>
       <c r="G650" s="6" t="n"/>
       <c r="H650" s="6" t="n"/>
-      <c r="I650" s="6" t="n"/>
     </row>
     <row r="651">
       <c r="A651" s="6" t="n"/>
@@ -16150,7 +15475,6 @@
       <c r="F651" s="6" t="n"/>
       <c r="G651" s="6" t="n"/>
       <c r="H651" s="6" t="n"/>
-      <c r="I651" s="6" t="n"/>
     </row>
     <row r="652">
       <c r="A652" s="6" t="n"/>
@@ -16161,7 +15485,6 @@
       <c r="F652" s="6" t="n"/>
       <c r="G652" s="6" t="n"/>
       <c r="H652" s="6" t="n"/>
-      <c r="I652" s="6" t="n"/>
     </row>
     <row r="653">
       <c r="A653" s="6" t="n"/>
@@ -16172,7 +15495,6 @@
       <c r="F653" s="6" t="n"/>
       <c r="G653" s="6" t="n"/>
       <c r="H653" s="6" t="n"/>
-      <c r="I653" s="6" t="n"/>
     </row>
     <row r="654">
       <c r="A654" s="6" t="n"/>
@@ -16183,7 +15505,6 @@
       <c r="F654" s="6" t="n"/>
       <c r="G654" s="6" t="n"/>
       <c r="H654" s="6" t="n"/>
-      <c r="I654" s="6" t="n"/>
     </row>
     <row r="655">
       <c r="A655" s="6" t="n"/>
@@ -16194,7 +15515,6 @@
       <c r="F655" s="6" t="n"/>
       <c r="G655" s="6" t="n"/>
       <c r="H655" s="6" t="n"/>
-      <c r="I655" s="6" t="n"/>
     </row>
     <row r="656">
       <c r="A656" s="6" t="n"/>
@@ -16205,7 +15525,6 @@
       <c r="F656" s="6" t="n"/>
       <c r="G656" s="6" t="n"/>
       <c r="H656" s="6" t="n"/>
-      <c r="I656" s="6" t="n"/>
     </row>
     <row r="657">
       <c r="A657" s="6" t="n"/>
@@ -16216,7 +15535,6 @@
       <c r="F657" s="6" t="n"/>
       <c r="G657" s="6" t="n"/>
       <c r="H657" s="6" t="n"/>
-      <c r="I657" s="6" t="n"/>
     </row>
     <row r="658">
       <c r="A658" s="6" t="n"/>
@@ -16227,7 +15545,6 @@
       <c r="F658" s="6" t="n"/>
       <c r="G658" s="6" t="n"/>
       <c r="H658" s="6" t="n"/>
-      <c r="I658" s="6" t="n"/>
     </row>
     <row r="659">
       <c r="A659" s="6" t="n"/>
@@ -16238,7 +15555,6 @@
       <c r="F659" s="6" t="n"/>
       <c r="G659" s="6" t="n"/>
       <c r="H659" s="6" t="n"/>
-      <c r="I659" s="6" t="n"/>
     </row>
     <row r="660">
       <c r="A660" s="6" t="n"/>
@@ -16249,7 +15565,6 @@
       <c r="F660" s="6" t="n"/>
       <c r="G660" s="6" t="n"/>
       <c r="H660" s="6" t="n"/>
-      <c r="I660" s="6" t="n"/>
     </row>
     <row r="661">
       <c r="A661" s="6" t="n"/>
@@ -16260,7 +15575,6 @@
       <c r="F661" s="6" t="n"/>
       <c r="G661" s="6" t="n"/>
       <c r="H661" s="6" t="n"/>
-      <c r="I661" s="6" t="n"/>
     </row>
     <row r="662">
       <c r="A662" s="6" t="n"/>
@@ -16271,7 +15585,6 @@
       <c r="F662" s="6" t="n"/>
       <c r="G662" s="6" t="n"/>
       <c r="H662" s="6" t="n"/>
-      <c r="I662" s="6" t="n"/>
     </row>
     <row r="663">
       <c r="A663" s="6" t="n"/>
@@ -16282,7 +15595,6 @@
       <c r="F663" s="6" t="n"/>
       <c r="G663" s="6" t="n"/>
       <c r="H663" s="6" t="n"/>
-      <c r="I663" s="6" t="n"/>
     </row>
     <row r="664">
       <c r="A664" s="6" t="n"/>
@@ -16293,7 +15605,6 @@
       <c r="F664" s="6" t="n"/>
       <c r="G664" s="6" t="n"/>
       <c r="H664" s="6" t="n"/>
-      <c r="I664" s="6" t="n"/>
     </row>
     <row r="665">
       <c r="A665" s="6" t="n"/>
@@ -16304,7 +15615,6 @@
       <c r="F665" s="6" t="n"/>
       <c r="G665" s="6" t="n"/>
       <c r="H665" s="6" t="n"/>
-      <c r="I665" s="6" t="n"/>
     </row>
     <row r="666">
       <c r="A666" s="6" t="n"/>
@@ -16315,7 +15625,6 @@
       <c r="F666" s="6" t="n"/>
       <c r="G666" s="6" t="n"/>
       <c r="H666" s="6" t="n"/>
-      <c r="I666" s="6" t="n"/>
     </row>
     <row r="667">
       <c r="A667" s="6" t="n"/>
@@ -16326,7 +15635,6 @@
       <c r="F667" s="6" t="n"/>
       <c r="G667" s="6" t="n"/>
       <c r="H667" s="6" t="n"/>
-      <c r="I667" s="6" t="n"/>
     </row>
     <row r="668">
       <c r="A668" s="6" t="n"/>
@@ -16337,7 +15645,6 @@
       <c r="F668" s="6" t="n"/>
       <c r="G668" s="6" t="n"/>
       <c r="H668" s="6" t="n"/>
-      <c r="I668" s="6" t="n"/>
     </row>
     <row r="669">
       <c r="A669" s="6" t="n"/>
@@ -16348,7 +15655,6 @@
       <c r="F669" s="6" t="n"/>
       <c r="G669" s="6" t="n"/>
       <c r="H669" s="6" t="n"/>
-      <c r="I669" s="6" t="n"/>
     </row>
     <row r="670">
       <c r="A670" s="6" t="n"/>
@@ -16359,7 +15665,6 @@
       <c r="F670" s="6" t="n"/>
       <c r="G670" s="6" t="n"/>
       <c r="H670" s="6" t="n"/>
-      <c r="I670" s="6" t="n"/>
     </row>
     <row r="671">
       <c r="A671" s="6" t="n"/>
@@ -16370,7 +15675,6 @@
       <c r="F671" s="6" t="n"/>
       <c r="G671" s="6" t="n"/>
       <c r="H671" s="6" t="n"/>
-      <c r="I671" s="6" t="n"/>
     </row>
     <row r="672">
       <c r="A672" s="6" t="n"/>
@@ -16381,7 +15685,6 @@
       <c r="F672" s="6" t="n"/>
       <c r="G672" s="6" t="n"/>
       <c r="H672" s="6" t="n"/>
-      <c r="I672" s="6" t="n"/>
     </row>
     <row r="673">
       <c r="A673" s="6" t="n"/>
@@ -16392,7 +15695,6 @@
       <c r="F673" s="6" t="n"/>
       <c r="G673" s="6" t="n"/>
       <c r="H673" s="6" t="n"/>
-      <c r="I673" s="6" t="n"/>
     </row>
     <row r="674">
       <c r="A674" s="6" t="n"/>
@@ -16403,7 +15705,6 @@
       <c r="F674" s="6" t="n"/>
       <c r="G674" s="6" t="n"/>
       <c r="H674" s="6" t="n"/>
-      <c r="I674" s="6" t="n"/>
     </row>
     <row r="675">
       <c r="A675" s="6" t="n"/>
@@ -16414,7 +15715,6 @@
       <c r="F675" s="6" t="n"/>
       <c r="G675" s="6" t="n"/>
       <c r="H675" s="6" t="n"/>
-      <c r="I675" s="6" t="n"/>
     </row>
     <row r="676">
       <c r="A676" s="6" t="n"/>
@@ -16425,7 +15725,6 @@
       <c r="F676" s="6" t="n"/>
       <c r="G676" s="6" t="n"/>
       <c r="H676" s="6" t="n"/>
-      <c r="I676" s="6" t="n"/>
     </row>
     <row r="677">
       <c r="A677" s="6" t="n"/>
@@ -16436,7 +15735,6 @@
       <c r="F677" s="6" t="n"/>
       <c r="G677" s="6" t="n"/>
       <c r="H677" s="6" t="n"/>
-      <c r="I677" s="6" t="n"/>
     </row>
     <row r="678">
       <c r="A678" s="6" t="n"/>
@@ -16447,7 +15745,6 @@
       <c r="F678" s="6" t="n"/>
       <c r="G678" s="6" t="n"/>
       <c r="H678" s="6" t="n"/>
-      <c r="I678" s="6" t="n"/>
     </row>
     <row r="679">
       <c r="A679" s="6" t="n"/>
@@ -16458,7 +15755,6 @@
       <c r="F679" s="6" t="n"/>
       <c r="G679" s="6" t="n"/>
       <c r="H679" s="6" t="n"/>
-      <c r="I679" s="6" t="n"/>
     </row>
     <row r="680">
       <c r="A680" s="6" t="n"/>
@@ -16469,7 +15765,6 @@
       <c r="F680" s="6" t="n"/>
       <c r="G680" s="6" t="n"/>
       <c r="H680" s="6" t="n"/>
-      <c r="I680" s="6" t="n"/>
     </row>
     <row r="681">
       <c r="A681" s="6" t="n"/>
@@ -16480,7 +15775,6 @@
       <c r="F681" s="6" t="n"/>
       <c r="G681" s="6" t="n"/>
       <c r="H681" s="6" t="n"/>
-      <c r="I681" s="6" t="n"/>
     </row>
     <row r="682">
       <c r="A682" s="6" t="n"/>
@@ -16491,7 +15785,6 @@
       <c r="F682" s="6" t="n"/>
       <c r="G682" s="6" t="n"/>
       <c r="H682" s="6" t="n"/>
-      <c r="I682" s="6" t="n"/>
     </row>
     <row r="683">
       <c r="A683" s="6" t="n"/>
@@ -16502,7 +15795,6 @@
       <c r="F683" s="6" t="n"/>
       <c r="G683" s="6" t="n"/>
       <c r="H683" s="6" t="n"/>
-      <c r="I683" s="6" t="n"/>
     </row>
     <row r="684">
       <c r="A684" s="6" t="n"/>
@@ -16513,7 +15805,6 @@
       <c r="F684" s="6" t="n"/>
       <c r="G684" s="6" t="n"/>
       <c r="H684" s="6" t="n"/>
-      <c r="I684" s="6" t="n"/>
     </row>
     <row r="685">
       <c r="A685" s="6" t="n"/>
@@ -16524,7 +15815,6 @@
       <c r="F685" s="6" t="n"/>
       <c r="G685" s="6" t="n"/>
       <c r="H685" s="6" t="n"/>
-      <c r="I685" s="6" t="n"/>
     </row>
     <row r="686">
       <c r="A686" s="6" t="n"/>
@@ -16535,7 +15825,6 @@
       <c r="F686" s="6" t="n"/>
       <c r="G686" s="6" t="n"/>
       <c r="H686" s="6" t="n"/>
-      <c r="I686" s="6" t="n"/>
     </row>
     <row r="687">
       <c r="A687" s="6" t="n"/>
@@ -16546,7 +15835,6 @@
       <c r="F687" s="6" t="n"/>
       <c r="G687" s="6" t="n"/>
       <c r="H687" s="6" t="n"/>
-      <c r="I687" s="6" t="n"/>
     </row>
     <row r="688">
       <c r="A688" s="6" t="n"/>
@@ -16557,7 +15845,6 @@
       <c r="F688" s="6" t="n"/>
       <c r="G688" s="6" t="n"/>
       <c r="H688" s="6" t="n"/>
-      <c r="I688" s="6" t="n"/>
     </row>
     <row r="689">
       <c r="A689" s="6" t="n"/>
@@ -16568,7 +15855,6 @@
       <c r="F689" s="6" t="n"/>
       <c r="G689" s="6" t="n"/>
       <c r="H689" s="6" t="n"/>
-      <c r="I689" s="6" t="n"/>
     </row>
     <row r="690">
       <c r="A690" s="6" t="n"/>
@@ -16579,7 +15865,6 @@
       <c r="F690" s="6" t="n"/>
       <c r="G690" s="6" t="n"/>
       <c r="H690" s="6" t="n"/>
-      <c r="I690" s="6" t="n"/>
     </row>
     <row r="691">
       <c r="A691" s="6" t="n"/>
@@ -16590,7 +15875,6 @@
       <c r="F691" s="6" t="n"/>
       <c r="G691" s="6" t="n"/>
       <c r="H691" s="6" t="n"/>
-      <c r="I691" s="6" t="n"/>
     </row>
     <row r="692">
       <c r="A692" s="6" t="n"/>
@@ -16601,7 +15885,6 @@
       <c r="F692" s="6" t="n"/>
       <c r="G692" s="6" t="n"/>
       <c r="H692" s="6" t="n"/>
-      <c r="I692" s="6" t="n"/>
     </row>
     <row r="693">
       <c r="A693" s="6" t="n"/>
@@ -16612,7 +15895,6 @@
       <c r="F693" s="6" t="n"/>
       <c r="G693" s="6" t="n"/>
       <c r="H693" s="6" t="n"/>
-      <c r="I693" s="6" t="n"/>
     </row>
     <row r="694">
       <c r="A694" s="6" t="n"/>
@@ -16623,7 +15905,6 @@
       <c r="F694" s="6" t="n"/>
       <c r="G694" s="6" t="n"/>
       <c r="H694" s="6" t="n"/>
-      <c r="I694" s="6" t="n"/>
     </row>
     <row r="695">
       <c r="A695" s="6" t="n"/>
@@ -16634,7 +15915,6 @@
       <c r="F695" s="6" t="n"/>
       <c r="G695" s="6" t="n"/>
       <c r="H695" s="6" t="n"/>
-      <c r="I695" s="6" t="n"/>
     </row>
     <row r="696">
       <c r="A696" s="6" t="n"/>
@@ -16645,7 +15925,6 @@
       <c r="F696" s="6" t="n"/>
       <c r="G696" s="6" t="n"/>
       <c r="H696" s="6" t="n"/>
-      <c r="I696" s="6" t="n"/>
     </row>
     <row r="697">
       <c r="A697" s="6" t="n"/>
@@ -16656,7 +15935,6 @@
       <c r="F697" s="6" t="n"/>
       <c r="G697" s="6" t="n"/>
       <c r="H697" s="6" t="n"/>
-      <c r="I697" s="6" t="n"/>
     </row>
     <row r="698">
       <c r="A698" s="6" t="n"/>
@@ -16667,7 +15945,6 @@
       <c r="F698" s="6" t="n"/>
       <c r="G698" s="6" t="n"/>
       <c r="H698" s="6" t="n"/>
-      <c r="I698" s="6" t="n"/>
     </row>
     <row r="699">
       <c r="A699" s="6" t="n"/>
@@ -16678,7 +15955,6 @@
       <c r="F699" s="6" t="n"/>
       <c r="G699" s="6" t="n"/>
       <c r="H699" s="6" t="n"/>
-      <c r="I699" s="6" t="n"/>
     </row>
     <row r="700">
       <c r="A700" s="6" t="n"/>
@@ -16689,7 +15965,6 @@
       <c r="F700" s="6" t="n"/>
       <c r="G700" s="6" t="n"/>
       <c r="H700" s="6" t="n"/>
-      <c r="I700" s="6" t="n"/>
     </row>
     <row r="701">
       <c r="A701" s="6" t="n"/>
@@ -16700,7 +15975,6 @@
       <c r="F701" s="6" t="n"/>
       <c r="G701" s="6" t="n"/>
       <c r="H701" s="6" t="n"/>
-      <c r="I701" s="6" t="n"/>
     </row>
     <row r="702">
       <c r="A702" s="6" t="n"/>
@@ -16711,7 +15985,6 @@
       <c r="F702" s="6" t="n"/>
       <c r="G702" s="6" t="n"/>
       <c r="H702" s="6" t="n"/>
-      <c r="I702" s="6" t="n"/>
     </row>
     <row r="703">
       <c r="A703" s="6" t="n"/>
@@ -16722,7 +15995,6 @@
       <c r="F703" s="6" t="n"/>
       <c r="G703" s="6" t="n"/>
       <c r="H703" s="6" t="n"/>
-      <c r="I703" s="6" t="n"/>
     </row>
     <row r="704">
       <c r="A704" s="6" t="n"/>
@@ -16733,7 +16005,6 @@
       <c r="F704" s="6" t="n"/>
       <c r="G704" s="6" t="n"/>
       <c r="H704" s="6" t="n"/>
-      <c r="I704" s="6" t="n"/>
     </row>
     <row r="705">
       <c r="A705" s="6" t="n"/>
@@ -16744,7 +16015,6 @@
       <c r="F705" s="6" t="n"/>
       <c r="G705" s="6" t="n"/>
       <c r="H705" s="6" t="n"/>
-      <c r="I705" s="6" t="n"/>
     </row>
     <row r="706">
       <c r="A706" s="6" t="n"/>
@@ -16755,7 +16025,6 @@
       <c r="F706" s="6" t="n"/>
       <c r="G706" s="6" t="n"/>
       <c r="H706" s="6" t="n"/>
-      <c r="I706" s="6" t="n"/>
     </row>
     <row r="707">
       <c r="A707" s="6" t="n"/>
@@ -16766,7 +16035,6 @@
       <c r="F707" s="6" t="n"/>
       <c r="G707" s="6" t="n"/>
       <c r="H707" s="6" t="n"/>
-      <c r="I707" s="6" t="n"/>
     </row>
     <row r="708">
       <c r="A708" s="6" t="n"/>
@@ -16777,7 +16045,6 @@
       <c r="F708" s="6" t="n"/>
       <c r="G708" s="6" t="n"/>
       <c r="H708" s="6" t="n"/>
-      <c r="I708" s="6" t="n"/>
     </row>
     <row r="709">
       <c r="A709" s="6" t="n"/>
@@ -16788,7 +16055,6 @@
       <c r="F709" s="6" t="n"/>
       <c r="G709" s="6" t="n"/>
       <c r="H709" s="6" t="n"/>
-      <c r="I709" s="6" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="6" t="n"/>
@@ -16799,7 +16065,6 @@
       <c r="F710" s="6" t="n"/>
       <c r="G710" s="6" t="n"/>
       <c r="H710" s="6" t="n"/>
-      <c r="I710" s="6" t="n"/>
     </row>
     <row r="711">
       <c r="A711" s="6" t="n"/>
@@ -16810,7 +16075,6 @@
       <c r="F711" s="6" t="n"/>
       <c r="G711" s="6" t="n"/>
       <c r="H711" s="6" t="n"/>
-      <c r="I711" s="6" t="n"/>
     </row>
     <row r="712">
       <c r="A712" s="6" t="n"/>
@@ -16821,7 +16085,6 @@
       <c r="F712" s="6" t="n"/>
       <c r="G712" s="6" t="n"/>
       <c r="H712" s="6" t="n"/>
-      <c r="I712" s="6" t="n"/>
     </row>
     <row r="713">
       <c r="A713" s="6" t="n"/>
@@ -16832,7 +16095,6 @@
       <c r="F713" s="6" t="n"/>
       <c r="G713" s="6" t="n"/>
       <c r="H713" s="6" t="n"/>
-      <c r="I713" s="6" t="n"/>
     </row>
     <row r="714">
       <c r="A714" s="6" t="n"/>
@@ -16843,7 +16105,6 @@
       <c r="F714" s="6" t="n"/>
       <c r="G714" s="6" t="n"/>
       <c r="H714" s="6" t="n"/>
-      <c r="I714" s="6" t="n"/>
     </row>
     <row r="715">
       <c r="A715" s="6" t="n"/>
@@ -16854,7 +16115,6 @@
       <c r="F715" s="6" t="n"/>
       <c r="G715" s="6" t="n"/>
       <c r="H715" s="6" t="n"/>
-      <c r="I715" s="6" t="n"/>
     </row>
     <row r="716">
       <c r="A716" s="6" t="n"/>
@@ -16865,7 +16125,6 @@
       <c r="F716" s="6" t="n"/>
       <c r="G716" s="6" t="n"/>
       <c r="H716" s="6" t="n"/>
-      <c r="I716" s="6" t="n"/>
     </row>
     <row r="717">
       <c r="A717" s="6" t="n"/>
@@ -16876,7 +16135,6 @@
       <c r="F717" s="6" t="n"/>
       <c r="G717" s="6" t="n"/>
       <c r="H717" s="6" t="n"/>
-      <c r="I717" s="6" t="n"/>
     </row>
     <row r="718">
       <c r="A718" s="6" t="n"/>
@@ -16887,7 +16145,6 @@
       <c r="F718" s="6" t="n"/>
       <c r="G718" s="6" t="n"/>
       <c r="H718" s="6" t="n"/>
-      <c r="I718" s="6" t="n"/>
     </row>
     <row r="719">
       <c r="A719" s="6" t="n"/>
@@ -16898,7 +16155,6 @@
       <c r="F719" s="6" t="n"/>
       <c r="G719" s="6" t="n"/>
       <c r="H719" s="6" t="n"/>
-      <c r="I719" s="6" t="n"/>
     </row>
     <row r="720">
       <c r="A720" s="6" t="n"/>
@@ -16909,7 +16165,6 @@
       <c r="F720" s="6" t="n"/>
       <c r="G720" s="6" t="n"/>
       <c r="H720" s="6" t="n"/>
-      <c r="I720" s="6" t="n"/>
     </row>
     <row r="721">
       <c r="A721" s="6" t="n"/>
@@ -16920,7 +16175,6 @@
       <c r="F721" s="6" t="n"/>
       <c r="G721" s="6" t="n"/>
       <c r="H721" s="6" t="n"/>
-      <c r="I721" s="6" t="n"/>
     </row>
     <row r="722">
       <c r="A722" s="6" t="n"/>
@@ -16931,7 +16185,6 @@
       <c r="F722" s="6" t="n"/>
       <c r="G722" s="6" t="n"/>
       <c r="H722" s="6" t="n"/>
-      <c r="I722" s="6" t="n"/>
     </row>
     <row r="723">
       <c r="A723" s="6" t="n"/>
@@ -16942,7 +16195,6 @@
       <c r="F723" s="6" t="n"/>
       <c r="G723" s="6" t="n"/>
       <c r="H723" s="6" t="n"/>
-      <c r="I723" s="6" t="n"/>
     </row>
     <row r="724">
       <c r="A724" s="6" t="n"/>
@@ -16953,7 +16205,6 @@
       <c r="F724" s="6" t="n"/>
       <c r="G724" s="6" t="n"/>
       <c r="H724" s="6" t="n"/>
-      <c r="I724" s="6" t="n"/>
     </row>
     <row r="725">
       <c r="A725" s="6" t="n"/>
@@ -16964,7 +16215,6 @@
       <c r="F725" s="6" t="n"/>
       <c r="G725" s="6" t="n"/>
       <c r="H725" s="6" t="n"/>
-      <c r="I725" s="6" t="n"/>
     </row>
     <row r="726">
       <c r="A726" s="6" t="n"/>
@@ -16975,7 +16225,6 @@
       <c r="F726" s="6" t="n"/>
       <c r="G726" s="6" t="n"/>
       <c r="H726" s="6" t="n"/>
-      <c r="I726" s="6" t="n"/>
     </row>
     <row r="727">
       <c r="A727" s="6" t="n"/>
@@ -16986,7 +16235,6 @@
       <c r="F727" s="6" t="n"/>
       <c r="G727" s="6" t="n"/>
       <c r="H727" s="6" t="n"/>
-      <c r="I727" s="6" t="n"/>
     </row>
     <row r="728">
       <c r="A728" s="6" t="n"/>
@@ -16997,7 +16245,6 @@
       <c r="F728" s="6" t="n"/>
       <c r="G728" s="6" t="n"/>
       <c r="H728" s="6" t="n"/>
-      <c r="I728" s="6" t="n"/>
     </row>
     <row r="729">
       <c r="A729" s="6" t="n"/>
@@ -17008,7 +16255,6 @@
       <c r="F729" s="6" t="n"/>
       <c r="G729" s="6" t="n"/>
       <c r="H729" s="6" t="n"/>
-      <c r="I729" s="6" t="n"/>
     </row>
     <row r="730">
       <c r="A730" s="6" t="n"/>
@@ -17019,7 +16265,6 @@
       <c r="F730" s="6" t="n"/>
       <c r="G730" s="6" t="n"/>
       <c r="H730" s="6" t="n"/>
-      <c r="I730" s="6" t="n"/>
     </row>
     <row r="731">
       <c r="A731" s="6" t="n"/>
@@ -17030,7 +16275,6 @@
       <c r="F731" s="6" t="n"/>
       <c r="G731" s="6" t="n"/>
       <c r="H731" s="6" t="n"/>
-      <c r="I731" s="6" t="n"/>
     </row>
     <row r="732">
       <c r="A732" s="6" t="n"/>
@@ -17041,7 +16285,6 @@
       <c r="F732" s="6" t="n"/>
       <c r="G732" s="6" t="n"/>
       <c r="H732" s="6" t="n"/>
-      <c r="I732" s="6" t="n"/>
     </row>
     <row r="733">
       <c r="A733" s="6" t="n"/>
@@ -17052,7 +16295,6 @@
       <c r="F733" s="6" t="n"/>
       <c r="G733" s="6" t="n"/>
       <c r="H733" s="6" t="n"/>
-      <c r="I733" s="6" t="n"/>
     </row>
     <row r="734">
       <c r="A734" s="6" t="n"/>
@@ -17063,7 +16305,6 @@
       <c r="F734" s="6" t="n"/>
       <c r="G734" s="6" t="n"/>
       <c r="H734" s="6" t="n"/>
-      <c r="I734" s="6" t="n"/>
     </row>
     <row r="735">
       <c r="A735" s="6" t="n"/>
@@ -17074,7 +16315,6 @@
       <c r="F735" s="6" t="n"/>
       <c r="G735" s="6" t="n"/>
       <c r="H735" s="6" t="n"/>
-      <c r="I735" s="6" t="n"/>
     </row>
     <row r="736">
       <c r="A736" s="6" t="n"/>
@@ -17085,7 +16325,6 @@
       <c r="F736" s="6" t="n"/>
       <c r="G736" s="6" t="n"/>
       <c r="H736" s="6" t="n"/>
-      <c r="I736" s="6" t="n"/>
     </row>
     <row r="737">
       <c r="A737" s="6" t="n"/>
@@ -17096,7 +16335,6 @@
       <c r="F737" s="6" t="n"/>
       <c r="G737" s="6" t="n"/>
       <c r="H737" s="6" t="n"/>
-      <c r="I737" s="6" t="n"/>
     </row>
     <row r="738">
       <c r="A738" s="6" t="n"/>
@@ -17107,7 +16345,6 @@
       <c r="F738" s="6" t="n"/>
       <c r="G738" s="6" t="n"/>
       <c r="H738" s="6" t="n"/>
-      <c r="I738" s="6" t="n"/>
     </row>
     <row r="739">
       <c r="A739" s="6" t="n"/>
@@ -17118,7 +16355,6 @@
       <c r="F739" s="6" t="n"/>
       <c r="G739" s="6" t="n"/>
       <c r="H739" s="6" t="n"/>
-      <c r="I739" s="6" t="n"/>
     </row>
     <row r="740">
       <c r="A740" s="6" t="n"/>
@@ -17129,7 +16365,6 @@
       <c r="F740" s="6" t="n"/>
       <c r="G740" s="6" t="n"/>
       <c r="H740" s="6" t="n"/>
-      <c r="I740" s="6" t="n"/>
     </row>
     <row r="741">
       <c r="A741" s="6" t="n"/>
@@ -17140,7 +16375,6 @@
       <c r="F741" s="6" t="n"/>
       <c r="G741" s="6" t="n"/>
       <c r="H741" s="6" t="n"/>
-      <c r="I741" s="6" t="n"/>
     </row>
     <row r="742">
       <c r="A742" s="6" t="n"/>
@@ -17151,7 +16385,6 @@
       <c r="F742" s="6" t="n"/>
       <c r="G742" s="6" t="n"/>
       <c r="H742" s="6" t="n"/>
-      <c r="I742" s="6" t="n"/>
     </row>
     <row r="743">
       <c r="A743" s="6" t="n"/>
@@ -17162,7 +16395,6 @@
       <c r="F743" s="6" t="n"/>
       <c r="G743" s="6" t="n"/>
       <c r="H743" s="6" t="n"/>
-      <c r="I743" s="6" t="n"/>
     </row>
     <row r="744">
       <c r="A744" s="6" t="n"/>
@@ -17173,7 +16405,6 @@
       <c r="F744" s="6" t="n"/>
       <c r="G744" s="6" t="n"/>
       <c r="H744" s="6" t="n"/>
-      <c r="I744" s="6" t="n"/>
     </row>
     <row r="745">
       <c r="A745" s="6" t="n"/>
@@ -17184,7 +16415,6 @@
       <c r="F745" s="6" t="n"/>
       <c r="G745" s="6" t="n"/>
       <c r="H745" s="6" t="n"/>
-      <c r="I745" s="6" t="n"/>
     </row>
     <row r="746">
       <c r="A746" s="6" t="n"/>
@@ -17195,7 +16425,6 @@
       <c r="F746" s="6" t="n"/>
       <c r="G746" s="6" t="n"/>
       <c r="H746" s="6" t="n"/>
-      <c r="I746" s="6" t="n"/>
     </row>
     <row r="747">
       <c r="A747" s="6" t="n"/>
@@ -17206,7 +16435,6 @@
       <c r="F747" s="6" t="n"/>
       <c r="G747" s="6" t="n"/>
       <c r="H747" s="6" t="n"/>
-      <c r="I747" s="6" t="n"/>
     </row>
     <row r="748">
       <c r="A748" s="6" t="n"/>
@@ -17217,7 +16445,6 @@
       <c r="F748" s="6" t="n"/>
       <c r="G748" s="6" t="n"/>
       <c r="H748" s="6" t="n"/>
-      <c r="I748" s="6" t="n"/>
     </row>
     <row r="749">
       <c r="A749" s="6" t="n"/>
@@ -17228,7 +16455,6 @@
       <c r="F749" s="6" t="n"/>
       <c r="G749" s="6" t="n"/>
       <c r="H749" s="6" t="n"/>
-      <c r="I749" s="6" t="n"/>
     </row>
     <row r="750">
       <c r="A750" s="6" t="n"/>
@@ -17239,7 +16465,6 @@
       <c r="F750" s="6" t="n"/>
       <c r="G750" s="6" t="n"/>
       <c r="H750" s="6" t="n"/>
-      <c r="I750" s="6" t="n"/>
     </row>
     <row r="751">
       <c r="A751" s="6" t="n"/>
@@ -17250,7 +16475,6 @@
       <c r="F751" s="6" t="n"/>
       <c r="G751" s="6" t="n"/>
       <c r="H751" s="6" t="n"/>
-      <c r="I751" s="6" t="n"/>
     </row>
     <row r="752">
       <c r="A752" s="6" t="n"/>
@@ -17261,7 +16485,6 @@
       <c r="F752" s="6" t="n"/>
       <c r="G752" s="6" t="n"/>
       <c r="H752" s="6" t="n"/>
-      <c r="I752" s="6" t="n"/>
     </row>
     <row r="753">
       <c r="A753" s="6" t="n"/>
@@ -17272,7 +16495,6 @@
       <c r="F753" s="6" t="n"/>
       <c r="G753" s="6" t="n"/>
       <c r="H753" s="6" t="n"/>
-      <c r="I753" s="6" t="n"/>
     </row>
     <row r="754">
       <c r="A754" s="6" t="n"/>
@@ -17283,7 +16505,6 @@
       <c r="F754" s="6" t="n"/>
       <c r="G754" s="6" t="n"/>
       <c r="H754" s="6" t="n"/>
-      <c r="I754" s="6" t="n"/>
     </row>
     <row r="755">
       <c r="A755" s="6" t="n"/>
@@ -17294,7 +16515,6 @@
       <c r="F755" s="6" t="n"/>
       <c r="G755" s="6" t="n"/>
       <c r="H755" s="6" t="n"/>
-      <c r="I755" s="6" t="n"/>
     </row>
     <row r="756">
       <c r="A756" s="6" t="n"/>
@@ -17305,7 +16525,6 @@
       <c r="F756" s="6" t="n"/>
       <c r="G756" s="6" t="n"/>
       <c r="H756" s="6" t="n"/>
-      <c r="I756" s="6" t="n"/>
     </row>
     <row r="757">
       <c r="A757" s="6" t="n"/>
@@ -17316,7 +16535,6 @@
       <c r="F757" s="6" t="n"/>
       <c r="G757" s="6" t="n"/>
       <c r="H757" s="6" t="n"/>
-      <c r="I757" s="6" t="n"/>
     </row>
     <row r="758">
       <c r="A758" s="6" t="n"/>
@@ -17327,7 +16545,6 @@
       <c r="F758" s="6" t="n"/>
       <c r="G758" s="6" t="n"/>
       <c r="H758" s="6" t="n"/>
-      <c r="I758" s="6" t="n"/>
     </row>
     <row r="759">
       <c r="A759" s="6" t="n"/>
@@ -17338,7 +16555,6 @@
       <c r="F759" s="6" t="n"/>
       <c r="G759" s="6" t="n"/>
       <c r="H759" s="6" t="n"/>
-      <c r="I759" s="6" t="n"/>
     </row>
     <row r="760">
       <c r="A760" s="6" t="n"/>
@@ -17349,7 +16565,6 @@
       <c r="F760" s="6" t="n"/>
       <c r="G760" s="6" t="n"/>
       <c r="H760" s="6" t="n"/>
-      <c r="I760" s="6" t="n"/>
     </row>
     <row r="761">
       <c r="A761" s="6" t="n"/>
@@ -17360,7 +16575,6 @@
       <c r="F761" s="6" t="n"/>
       <c r="G761" s="6" t="n"/>
       <c r="H761" s="6" t="n"/>
-      <c r="I761" s="6" t="n"/>
     </row>
     <row r="762">
       <c r="A762" s="6" t="n"/>
@@ -17371,7 +16585,6 @@
       <c r="F762" s="6" t="n"/>
       <c r="G762" s="6" t="n"/>
       <c r="H762" s="6" t="n"/>
-      <c r="I762" s="6" t="n"/>
     </row>
     <row r="763">
       <c r="A763" s="6" t="n"/>
@@ -17382,7 +16595,6 @@
       <c r="F763" s="6" t="n"/>
       <c r="G763" s="6" t="n"/>
       <c r="H763" s="6" t="n"/>
-      <c r="I763" s="6" t="n"/>
     </row>
     <row r="764">
       <c r="A764" s="6" t="n"/>
@@ -17393,7 +16605,6 @@
       <c r="F764" s="6" t="n"/>
       <c r="G764" s="6" t="n"/>
       <c r="H764" s="6" t="n"/>
-      <c r="I764" s="6" t="n"/>
     </row>
     <row r="765">
       <c r="A765" s="6" t="n"/>
@@ -17404,7 +16615,6 @@
       <c r="F765" s="6" t="n"/>
       <c r="G765" s="6" t="n"/>
       <c r="H765" s="6" t="n"/>
-      <c r="I765" s="6" t="n"/>
     </row>
     <row r="766">
       <c r="A766" s="6" t="n"/>
@@ -17415,7 +16625,6 @@
       <c r="F766" s="6" t="n"/>
       <c r="G766" s="6" t="n"/>
       <c r="H766" s="6" t="n"/>
-      <c r="I766" s="6" t="n"/>
     </row>
     <row r="767">
       <c r="A767" s="6" t="n"/>
@@ -17426,7 +16635,6 @@
       <c r="F767" s="6" t="n"/>
       <c r="G767" s="6" t="n"/>
       <c r="H767" s="6" t="n"/>
-      <c r="I767" s="6" t="n"/>
     </row>
     <row r="768">
       <c r="A768" s="6" t="n"/>
@@ -17437,7 +16645,6 @@
       <c r="F768" s="6" t="n"/>
       <c r="G768" s="6" t="n"/>
       <c r="H768" s="6" t="n"/>
-      <c r="I768" s="6" t="n"/>
     </row>
     <row r="769">
       <c r="A769" s="6" t="n"/>
@@ -17448,7 +16655,6 @@
       <c r="F769" s="6" t="n"/>
       <c r="G769" s="6" t="n"/>
       <c r="H769" s="6" t="n"/>
-      <c r="I769" s="6" t="n"/>
     </row>
     <row r="770">
       <c r="A770" s="6" t="n"/>
@@ -17459,7 +16665,6 @@
       <c r="F770" s="6" t="n"/>
       <c r="G770" s="6" t="n"/>
       <c r="H770" s="6" t="n"/>
-      <c r="I770" s="6" t="n"/>
     </row>
     <row r="771">
       <c r="A771" s="6" t="n"/>
@@ -17470,7 +16675,6 @@
       <c r="F771" s="6" t="n"/>
       <c r="G771" s="6" t="n"/>
       <c r="H771" s="6" t="n"/>
-      <c r="I771" s="6" t="n"/>
     </row>
     <row r="772">
       <c r="A772" s="6" t="n"/>
@@ -17481,7 +16685,6 @@
       <c r="F772" s="6" t="n"/>
       <c r="G772" s="6" t="n"/>
       <c r="H772" s="6" t="n"/>
-      <c r="I772" s="6" t="n"/>
     </row>
     <row r="773">
       <c r="A773" s="6" t="n"/>
@@ -17492,7 +16695,6 @@
       <c r="F773" s="6" t="n"/>
       <c r="G773" s="6" t="n"/>
       <c r="H773" s="6" t="n"/>
-      <c r="I773" s="6" t="n"/>
     </row>
     <row r="774">
       <c r="A774" s="6" t="n"/>
@@ -17503,7 +16705,6 @@
       <c r="F774" s="6" t="n"/>
       <c r="G774" s="6" t="n"/>
       <c r="H774" s="6" t="n"/>
-      <c r="I774" s="6" t="n"/>
     </row>
     <row r="775">
       <c r="A775" s="6" t="n"/>
@@ -17514,7 +16715,6 @@
       <c r="F775" s="6" t="n"/>
       <c r="G775" s="6" t="n"/>
       <c r="H775" s="6" t="n"/>
-      <c r="I775" s="6" t="n"/>
     </row>
     <row r="776">
       <c r="A776" s="6" t="n"/>
@@ -17525,7 +16725,6 @@
       <c r="F776" s="6" t="n"/>
       <c r="G776" s="6" t="n"/>
       <c r="H776" s="6" t="n"/>
-      <c r="I776" s="6" t="n"/>
     </row>
     <row r="777">
       <c r="A777" s="6" t="n"/>
@@ -17536,7 +16735,6 @@
       <c r="F777" s="6" t="n"/>
       <c r="G777" s="6" t="n"/>
       <c r="H777" s="6" t="n"/>
-      <c r="I777" s="6" t="n"/>
     </row>
     <row r="778">
       <c r="A778" s="6" t="n"/>
@@ -17547,7 +16745,6 @@
       <c r="F778" s="6" t="n"/>
       <c r="G778" s="6" t="n"/>
       <c r="H778" s="6" t="n"/>
-      <c r="I778" s="6" t="n"/>
     </row>
     <row r="779">
       <c r="A779" s="6" t="n"/>
@@ -17558,7 +16755,6 @@
       <c r="F779" s="6" t="n"/>
       <c r="G779" s="6" t="n"/>
       <c r="H779" s="6" t="n"/>
-      <c r="I779" s="6" t="n"/>
     </row>
     <row r="780">
       <c r="A780" s="6" t="n"/>
@@ -17569,7 +16765,6 @@
       <c r="F780" s="6" t="n"/>
       <c r="G780" s="6" t="n"/>
       <c r="H780" s="6" t="n"/>
-      <c r="I780" s="6" t="n"/>
     </row>
     <row r="781">
       <c r="A781" s="6" t="n"/>
@@ -17580,7 +16775,6 @@
       <c r="F781" s="6" t="n"/>
       <c r="G781" s="6" t="n"/>
       <c r="H781" s="6" t="n"/>
-      <c r="I781" s="6" t="n"/>
     </row>
     <row r="782">
       <c r="A782" s="6" t="n"/>
@@ -17591,7 +16785,6 @@
       <c r="F782" s="6" t="n"/>
       <c r="G782" s="6" t="n"/>
       <c r="H782" s="6" t="n"/>
-      <c r="I782" s="6" t="n"/>
     </row>
     <row r="783">
       <c r="A783" s="6" t="n"/>
@@ -17602,7 +16795,6 @@
       <c r="F783" s="6" t="n"/>
       <c r="G783" s="6" t="n"/>
       <c r="H783" s="6" t="n"/>
-      <c r="I783" s="6" t="n"/>
     </row>
     <row r="784">
       <c r="A784" s="6" t="n"/>
@@ -17613,7 +16805,6 @@
       <c r="F784" s="6" t="n"/>
       <c r="G784" s="6" t="n"/>
       <c r="H784" s="6" t="n"/>
-      <c r="I784" s="6" t="n"/>
     </row>
     <row r="785">
       <c r="A785" s="6" t="n"/>
@@ -17624,7 +16815,6 @@
       <c r="F785" s="6" t="n"/>
       <c r="G785" s="6" t="n"/>
       <c r="H785" s="6" t="n"/>
-      <c r="I785" s="6" t="n"/>
     </row>
     <row r="786">
       <c r="A786" s="6" t="n"/>
@@ -17635,7 +16825,6 @@
       <c r="F786" s="6" t="n"/>
       <c r="G786" s="6" t="n"/>
       <c r="H786" s="6" t="n"/>
-      <c r="I786" s="6" t="n"/>
     </row>
     <row r="787">
       <c r="A787" s="6" t="n"/>
@@ -17646,7 +16835,6 @@
       <c r="F787" s="6" t="n"/>
       <c r="G787" s="6" t="n"/>
       <c r="H787" s="6" t="n"/>
-      <c r="I787" s="6" t="n"/>
     </row>
     <row r="788">
       <c r="A788" s="6" t="n"/>
@@ -17657,7 +16845,6 @@
       <c r="F788" s="6" t="n"/>
       <c r="G788" s="6" t="n"/>
       <c r="H788" s="6" t="n"/>
-      <c r="I788" s="6" t="n"/>
     </row>
     <row r="789">
       <c r="A789" s="6" t="n"/>
@@ -17668,7 +16855,6 @@
       <c r="F789" s="6" t="n"/>
       <c r="G789" s="6" t="n"/>
       <c r="H789" s="6" t="n"/>
-      <c r="I789" s="6" t="n"/>
     </row>
     <row r="790">
       <c r="A790" s="6" t="n"/>
@@ -17679,7 +16865,6 @@
       <c r="F790" s="6" t="n"/>
       <c r="G790" s="6" t="n"/>
       <c r="H790" s="6" t="n"/>
-      <c r="I790" s="6" t="n"/>
     </row>
     <row r="791">
       <c r="A791" s="6" t="n"/>
@@ -17690,7 +16875,6 @@
       <c r="F791" s="6" t="n"/>
       <c r="G791" s="6" t="n"/>
       <c r="H791" s="6" t="n"/>
-      <c r="I791" s="6" t="n"/>
     </row>
     <row r="792">
       <c r="A792" s="6" t="n"/>
@@ -17701,7 +16885,6 @@
       <c r="F792" s="6" t="n"/>
       <c r="G792" s="6" t="n"/>
       <c r="H792" s="6" t="n"/>
-      <c r="I792" s="6" t="n"/>
     </row>
     <row r="793">
       <c r="A793" s="6" t="n"/>
@@ -17712,7 +16895,6 @@
       <c r="F793" s="6" t="n"/>
       <c r="G793" s="6" t="n"/>
       <c r="H793" s="6" t="n"/>
-      <c r="I793" s="6" t="n"/>
     </row>
     <row r="794">
       <c r="A794" s="6" t="n"/>
@@ -17723,7 +16905,6 @@
       <c r="F794" s="6" t="n"/>
       <c r="G794" s="6" t="n"/>
       <c r="H794" s="6" t="n"/>
-      <c r="I794" s="6" t="n"/>
     </row>
     <row r="795">
       <c r="A795" s="6" t="n"/>
@@ -17734,7 +16915,6 @@
       <c r="F795" s="6" t="n"/>
       <c r="G795" s="6" t="n"/>
       <c r="H795" s="6" t="n"/>
-      <c r="I795" s="6" t="n"/>
     </row>
     <row r="796">
       <c r="A796" s="6" t="n"/>
@@ -17745,7 +16925,6 @@
       <c r="F796" s="6" t="n"/>
       <c r="G796" s="6" t="n"/>
       <c r="H796" s="6" t="n"/>
-      <c r="I796" s="6" t="n"/>
     </row>
     <row r="797">
       <c r="A797" s="6" t="n"/>
@@ -17756,7 +16935,6 @@
       <c r="F797" s="6" t="n"/>
       <c r="G797" s="6" t="n"/>
       <c r="H797" s="6" t="n"/>
-      <c r="I797" s="6" t="n"/>
     </row>
     <row r="798">
       <c r="A798" s="6" t="n"/>
@@ -17767,7 +16945,6 @@
       <c r="F798" s="6" t="n"/>
       <c r="G798" s="6" t="n"/>
       <c r="H798" s="6" t="n"/>
-      <c r="I798" s="6" t="n"/>
     </row>
     <row r="799">
       <c r="A799" s="6" t="n"/>
@@ -17778,7 +16955,6 @@
       <c r="F799" s="6" t="n"/>
       <c r="G799" s="6" t="n"/>
       <c r="H799" s="6" t="n"/>
-      <c r="I799" s="6" t="n"/>
     </row>
     <row r="800">
       <c r="A800" s="6" t="n"/>
@@ -17789,7 +16965,6 @@
       <c r="F800" s="6" t="n"/>
       <c r="G800" s="6" t="n"/>
       <c r="H800" s="6" t="n"/>
-      <c r="I800" s="6" t="n"/>
     </row>
     <row r="801">
       <c r="A801" s="6" t="n"/>
@@ -17800,7 +16975,6 @@
       <c r="F801" s="6" t="n"/>
       <c r="G801" s="6" t="n"/>
       <c r="H801" s="6" t="n"/>
-      <c r="I801" s="6" t="n"/>
     </row>
     <row r="802">
       <c r="A802" s="6" t="n"/>
@@ -17811,7 +16985,6 @@
       <c r="F802" s="6" t="n"/>
       <c r="G802" s="6" t="n"/>
       <c r="H802" s="6" t="n"/>
-      <c r="I802" s="6" t="n"/>
     </row>
     <row r="803">
       <c r="A803" s="6" t="n"/>
@@ -17822,7 +16995,6 @@
       <c r="F803" s="6" t="n"/>
       <c r="G803" s="6" t="n"/>
       <c r="H803" s="6" t="n"/>
-      <c r="I803" s="6" t="n"/>
     </row>
     <row r="804">
       <c r="A804" s="6" t="n"/>
@@ -17833,7 +17005,6 @@
       <c r="F804" s="6" t="n"/>
       <c r="G804" s="6" t="n"/>
       <c r="H804" s="6" t="n"/>
-      <c r="I804" s="6" t="n"/>
     </row>
     <row r="805">
       <c r="A805" s="6" t="n"/>
@@ -17844,7 +17015,6 @@
       <c r="F805" s="6" t="n"/>
       <c r="G805" s="6" t="n"/>
       <c r="H805" s="6" t="n"/>
-      <c r="I805" s="6" t="n"/>
     </row>
     <row r="806">
       <c r="A806" s="6" t="n"/>
@@ -17855,7 +17025,6 @@
       <c r="F806" s="6" t="n"/>
       <c r="G806" s="6" t="n"/>
       <c r="H806" s="6" t="n"/>
-      <c r="I806" s="6" t="n"/>
     </row>
     <row r="807">
       <c r="A807" s="6" t="n"/>
@@ -17866,7 +17035,6 @@
       <c r="F807" s="6" t="n"/>
       <c r="G807" s="6" t="n"/>
       <c r="H807" s="6" t="n"/>
-      <c r="I807" s="6" t="n"/>
     </row>
     <row r="808">
       <c r="A808" s="6" t="n"/>
@@ -17877,7 +17045,6 @@
       <c r="F808" s="6" t="n"/>
       <c r="G808" s="6" t="n"/>
       <c r="H808" s="6" t="n"/>
-      <c r="I808" s="6" t="n"/>
     </row>
     <row r="809">
       <c r="A809" s="6" t="n"/>
@@ -17888,7 +17055,6 @@
       <c r="F809" s="6" t="n"/>
       <c r="G809" s="6" t="n"/>
       <c r="H809" s="6" t="n"/>
-      <c r="I809" s="6" t="n"/>
     </row>
     <row r="810">
       <c r="A810" s="6" t="n"/>
@@ -17899,7 +17065,6 @@
       <c r="F810" s="6" t="n"/>
       <c r="G810" s="6" t="n"/>
       <c r="H810" s="6" t="n"/>
-      <c r="I810" s="6" t="n"/>
     </row>
     <row r="811">
       <c r="A811" s="6" t="n"/>
@@ -17910,7 +17075,6 @@
       <c r="F811" s="6" t="n"/>
       <c r="G811" s="6" t="n"/>
       <c r="H811" s="6" t="n"/>
-      <c r="I811" s="6" t="n"/>
     </row>
     <row r="812">
       <c r="A812" s="6" t="n"/>
@@ -17921,7 +17085,6 @@
       <c r="F812" s="6" t="n"/>
       <c r="G812" s="6" t="n"/>
       <c r="H812" s="6" t="n"/>
-      <c r="I812" s="6" t="n"/>
     </row>
     <row r="813">
       <c r="A813" s="6" t="n"/>
@@ -17932,7 +17095,6 @@
       <c r="F813" s="6" t="n"/>
       <c r="G813" s="6" t="n"/>
       <c r="H813" s="6" t="n"/>
-      <c r="I813" s="6" t="n"/>
     </row>
     <row r="814">
       <c r="A814" s="6" t="n"/>
@@ -17943,7 +17105,6 @@
       <c r="F814" s="6" t="n"/>
       <c r="G814" s="6" t="n"/>
       <c r="H814" s="6" t="n"/>
-      <c r="I814" s="6" t="n"/>
     </row>
     <row r="815">
       <c r="A815" s="6" t="n"/>
@@ -17954,7 +17115,6 @@
       <c r="F815" s="6" t="n"/>
       <c r="G815" s="6" t="n"/>
       <c r="H815" s="6" t="n"/>
-      <c r="I815" s="6" t="n"/>
     </row>
     <row r="816">
       <c r="A816" s="6" t="n"/>
@@ -17965,7 +17125,6 @@
       <c r="F816" s="6" t="n"/>
       <c r="G816" s="6" t="n"/>
       <c r="H816" s="6" t="n"/>
-      <c r="I816" s="6" t="n"/>
     </row>
     <row r="817">
       <c r="A817" s="6" t="n"/>
@@ -17976,7 +17135,6 @@
       <c r="F817" s="6" t="n"/>
       <c r="G817" s="6" t="n"/>
       <c r="H817" s="6" t="n"/>
-      <c r="I817" s="6" t="n"/>
     </row>
     <row r="818">
       <c r="A818" s="6" t="n"/>
@@ -17987,7 +17145,6 @@
       <c r="F818" s="6" t="n"/>
       <c r="G818" s="6" t="n"/>
       <c r="H818" s="6" t="n"/>
-      <c r="I818" s="6" t="n"/>
     </row>
     <row r="819">
       <c r="A819" s="6" t="n"/>
@@ -17998,7 +17155,6 @@
       <c r="F819" s="6" t="n"/>
       <c r="G819" s="6" t="n"/>
       <c r="H819" s="6" t="n"/>
-      <c r="I819" s="6" t="n"/>
     </row>
     <row r="820">
       <c r="A820" s="6" t="n"/>
@@ -18009,7 +17165,6 @@
       <c r="F820" s="6" t="n"/>
       <c r="G820" s="6" t="n"/>
       <c r="H820" s="6" t="n"/>
-      <c r="I820" s="6" t="n"/>
     </row>
     <row r="821">
       <c r="A821" s="6" t="n"/>
@@ -18020,7 +17175,6 @@
       <c r="F821" s="6" t="n"/>
       <c r="G821" s="6" t="n"/>
       <c r="H821" s="6" t="n"/>
-      <c r="I821" s="6" t="n"/>
     </row>
     <row r="822">
       <c r="A822" s="6" t="n"/>
@@ -18031,7 +17185,6 @@
       <c r="F822" s="6" t="n"/>
       <c r="G822" s="6" t="n"/>
       <c r="H822" s="6" t="n"/>
-      <c r="I822" s="6" t="n"/>
     </row>
     <row r="823">
       <c r="A823" s="6" t="n"/>
@@ -18042,7 +17195,6 @@
       <c r="F823" s="6" t="n"/>
       <c r="G823" s="6" t="n"/>
       <c r="H823" s="6" t="n"/>
-      <c r="I823" s="6" t="n"/>
     </row>
     <row r="824">
       <c r="A824" s="6" t="n"/>
@@ -18053,7 +17205,6 @@
       <c r="F824" s="6" t="n"/>
       <c r="G824" s="6" t="n"/>
       <c r="H824" s="6" t="n"/>
-      <c r="I824" s="6" t="n"/>
     </row>
     <row r="825">
       <c r="A825" s="6" t="n"/>
@@ -18064,7 +17215,6 @@
       <c r="F825" s="6" t="n"/>
       <c r="G825" s="6" t="n"/>
       <c r="H825" s="6" t="n"/>
-      <c r="I825" s="6" t="n"/>
     </row>
     <row r="826">
       <c r="A826" s="6" t="n"/>
@@ -18075,7 +17225,6 @@
       <c r="F826" s="6" t="n"/>
       <c r="G826" s="6" t="n"/>
       <c r="H826" s="6" t="n"/>
-      <c r="I826" s="6" t="n"/>
     </row>
     <row r="827">
       <c r="A827" s="6" t="n"/>
@@ -18086,7 +17235,6 @@
       <c r="F827" s="6" t="n"/>
       <c r="G827" s="6" t="n"/>
       <c r="H827" s="6" t="n"/>
-      <c r="I827" s="6" t="n"/>
     </row>
     <row r="828">
       <c r="A828" s="6" t="n"/>
@@ -18097,7 +17245,6 @@
       <c r="F828" s="6" t="n"/>
       <c r="G828" s="6" t="n"/>
       <c r="H828" s="6" t="n"/>
-      <c r="I828" s="6" t="n"/>
     </row>
     <row r="829">
       <c r="A829" s="6" t="n"/>
@@ -18108,7 +17255,6 @@
       <c r="F829" s="6" t="n"/>
       <c r="G829" s="6" t="n"/>
       <c r="H829" s="6" t="n"/>
-      <c r="I829" s="6" t="n"/>
     </row>
     <row r="830">
       <c r="A830" s="6" t="n"/>
@@ -18119,7 +17265,6 @@
       <c r="F830" s="6" t="n"/>
       <c r="G830" s="6" t="n"/>
       <c r="H830" s="6" t="n"/>
-      <c r="I830" s="6" t="n"/>
     </row>
     <row r="831">
       <c r="A831" s="6" t="n"/>
@@ -18130,7 +17275,6 @@
       <c r="F831" s="6" t="n"/>
       <c r="G831" s="6" t="n"/>
       <c r="H831" s="6" t="n"/>
-      <c r="I831" s="6" t="n"/>
     </row>
     <row r="832">
       <c r="A832" s="6" t="n"/>
@@ -18141,7 +17285,6 @@
       <c r="F832" s="6" t="n"/>
       <c r="G832" s="6" t="n"/>
       <c r="H832" s="6" t="n"/>
-      <c r="I832" s="6" t="n"/>
     </row>
     <row r="833">
       <c r="A833" s="6" t="n"/>
@@ -18152,7 +17295,6 @@
       <c r="F833" s="6" t="n"/>
       <c r="G833" s="6" t="n"/>
       <c r="H833" s="6" t="n"/>
-      <c r="I833" s="6" t="n"/>
     </row>
     <row r="834">
       <c r="A834" s="6" t="n"/>
@@ -18163,7 +17305,6 @@
       <c r="F834" s="6" t="n"/>
       <c r="G834" s="6" t="n"/>
       <c r="H834" s="6" t="n"/>
-      <c r="I834" s="6" t="n"/>
     </row>
     <row r="835">
       <c r="A835" s="6" t="n"/>
@@ -18174,7 +17315,6 @@
       <c r="F835" s="6" t="n"/>
       <c r="G835" s="6" t="n"/>
       <c r="H835" s="6" t="n"/>
-      <c r="I835" s="6" t="n"/>
     </row>
     <row r="836">
       <c r="A836" s="6" t="n"/>
@@ -18185,7 +17325,6 @@
       <c r="F836" s="6" t="n"/>
       <c r="G836" s="6" t="n"/>
       <c r="H836" s="6" t="n"/>
-      <c r="I836" s="6" t="n"/>
     </row>
     <row r="837">
       <c r="A837" s="6" t="n"/>
@@ -18196,7 +17335,6 @@
       <c r="F837" s="6" t="n"/>
       <c r="G837" s="6" t="n"/>
       <c r="H837" s="6" t="n"/>
-      <c r="I837" s="6" t="n"/>
     </row>
     <row r="838">
       <c r="A838" s="6" t="n"/>
@@ -18207,7 +17345,6 @@
       <c r="F838" s="6" t="n"/>
       <c r="G838" s="6" t="n"/>
       <c r="H838" s="6" t="n"/>
-      <c r="I838" s="6" t="n"/>
     </row>
     <row r="839">
       <c r="A839" s="6" t="n"/>
@@ -18218,7 +17355,6 @@
       <c r="F839" s="6" t="n"/>
       <c r="G839" s="6" t="n"/>
       <c r="H839" s="6" t="n"/>
-      <c r="I839" s="6" t="n"/>
     </row>
     <row r="840">
       <c r="A840" s="6" t="n"/>
@@ -18229,7 +17365,6 @@
       <c r="F840" s="6" t="n"/>
       <c r="G840" s="6" t="n"/>
       <c r="H840" s="6" t="n"/>
-      <c r="I840" s="6" t="n"/>
     </row>
     <row r="841">
       <c r="A841" s="6" t="n"/>
@@ -18240,7 +17375,6 @@
       <c r="F841" s="6" t="n"/>
       <c r="G841" s="6" t="n"/>
       <c r="H841" s="6" t="n"/>
-      <c r="I841" s="6" t="n"/>
     </row>
     <row r="842">
       <c r="A842" s="6" t="n"/>
@@ -18251,7 +17385,6 @@
       <c r="F842" s="6" t="n"/>
       <c r="G842" s="6" t="n"/>
       <c r="H842" s="6" t="n"/>
-      <c r="I842" s="6" t="n"/>
     </row>
     <row r="843">
       <c r="A843" s="6" t="n"/>
@@ -18262,7 +17395,6 @@
       <c r="F843" s="6" t="n"/>
       <c r="G843" s="6" t="n"/>
       <c r="H843" s="6" t="n"/>
-      <c r="I843" s="6" t="n"/>
     </row>
     <row r="844">
       <c r="A844" s="6" t="n"/>
@@ -18273,7 +17405,6 @@
       <c r="F844" s="6" t="n"/>
       <c r="G844" s="6" t="n"/>
       <c r="H844" s="6" t="n"/>
-      <c r="I844" s="6" t="n"/>
     </row>
     <row r="845">
       <c r="A845" s="6" t="n"/>
@@ -18284,7 +17415,6 @@
       <c r="F845" s="6" t="n"/>
       <c r="G845" s="6" t="n"/>
       <c r="H845" s="6" t="n"/>
-      <c r="I845" s="6" t="n"/>
     </row>
     <row r="846">
       <c r="A846" s="6" t="n"/>
@@ -18295,7 +17425,6 @@
       <c r="F846" s="6" t="n"/>
       <c r="G846" s="6" t="n"/>
       <c r="H846" s="6" t="n"/>
-      <c r="I846" s="6" t="n"/>
     </row>
     <row r="847">
       <c r="A847" s="6" t="n"/>
@@ -18306,7 +17435,6 @@
       <c r="F847" s="6" t="n"/>
       <c r="G847" s="6" t="n"/>
       <c r="H847" s="6" t="n"/>
-      <c r="I847" s="6" t="n"/>
     </row>
     <row r="848">
       <c r="A848" s="6" t="n"/>
@@ -18317,7 +17445,6 @@
       <c r="F848" s="6" t="n"/>
       <c r="G848" s="6" t="n"/>
       <c r="H848" s="6" t="n"/>
-      <c r="I848" s="6" t="n"/>
     </row>
     <row r="849">
       <c r="A849" s="6" t="n"/>
@@ -18328,7 +17455,6 @@
       <c r="F849" s="6" t="n"/>
       <c r="G849" s="6" t="n"/>
       <c r="H849" s="6" t="n"/>
-      <c r="I849" s="6" t="n"/>
     </row>
     <row r="850">
       <c r="A850" s="6" t="n"/>
@@ -18339,7 +17465,6 @@
       <c r="F850" s="6" t="n"/>
       <c r="G850" s="6" t="n"/>
       <c r="H850" s="6" t="n"/>
-      <c r="I850" s="6" t="n"/>
     </row>
     <row r="851">
       <c r="A851" s="6" t="n"/>
@@ -18350,7 +17475,6 @@
       <c r="F851" s="6" t="n"/>
       <c r="G851" s="6" t="n"/>
       <c r="H851" s="6" t="n"/>
-      <c r="I851" s="6" t="n"/>
     </row>
     <row r="852">
       <c r="A852" s="6" t="n"/>
@@ -18361,7 +17485,6 @@
       <c r="F852" s="6" t="n"/>
       <c r="G852" s="6" t="n"/>
       <c r="H852" s="6" t="n"/>
-      <c r="I852" s="6" t="n"/>
     </row>
     <row r="853">
       <c r="A853" s="6" t="n"/>
@@ -18372,7 +17495,6 @@
       <c r="F853" s="6" t="n"/>
       <c r="G853" s="6" t="n"/>
       <c r="H853" s="6" t="n"/>
-      <c r="I853" s="6" t="n"/>
     </row>
     <row r="854">
       <c r="A854" s="6" t="n"/>
@@ -18383,7 +17505,6 @@
       <c r="F854" s="6" t="n"/>
       <c r="G854" s="6" t="n"/>
       <c r="H854" s="6" t="n"/>
-      <c r="I854" s="6" t="n"/>
     </row>
     <row r="855">
       <c r="A855" s="6" t="n"/>
@@ -18394,7 +17515,6 @@
       <c r="F855" s="6" t="n"/>
       <c r="G855" s="6" t="n"/>
       <c r="H855" s="6" t="n"/>
-      <c r="I855" s="6" t="n"/>
     </row>
     <row r="856">
       <c r="A856" s="6" t="n"/>
@@ -18405,7 +17525,6 @@
       <c r="F856" s="6" t="n"/>
       <c r="G856" s="6" t="n"/>
       <c r="H856" s="6" t="n"/>
-      <c r="I856" s="6" t="n"/>
     </row>
     <row r="857">
       <c r="A857" s="6" t="n"/>
@@ -18416,7 +17535,6 @@
       <c r="F857" s="6" t="n"/>
       <c r="G857" s="6" t="n"/>
       <c r="H857" s="6" t="n"/>
-      <c r="I857" s="6" t="n"/>
     </row>
     <row r="858">
       <c r="A858" s="6" t="n"/>
@@ -18427,7 +17545,6 @@
       <c r="F858" s="6" t="n"/>
       <c r="G858" s="6" t="n"/>
       <c r="H858" s="6" t="n"/>
-      <c r="I858" s="6" t="n"/>
     </row>
     <row r="859">
       <c r="A859" s="6" t="n"/>
@@ -18438,7 +17555,6 @@
       <c r="F859" s="6" t="n"/>
       <c r="G859" s="6" t="n"/>
       <c r="H859" s="6" t="n"/>
-      <c r="I859" s="6" t="n"/>
     </row>
     <row r="860">
       <c r="A860" s="6" t="n"/>
@@ -18449,7 +17565,6 @@
       <c r="F860" s="6" t="n"/>
       <c r="G860" s="6" t="n"/>
       <c r="H860" s="6" t="n"/>
-      <c r="I860" s="6" t="n"/>
     </row>
     <row r="861">
       <c r="A861" s="6" t="n"/>
@@ -18460,7 +17575,6 @@
       <c r="F861" s="6" t="n"/>
       <c r="G861" s="6" t="n"/>
       <c r="H861" s="6" t="n"/>
-      <c r="I861" s="6" t="n"/>
     </row>
     <row r="862">
       <c r="A862" s="6" t="n"/>
@@ -18471,7 +17585,6 @@
       <c r="F862" s="6" t="n"/>
       <c r="G862" s="6" t="n"/>
       <c r="H862" s="6" t="n"/>
-      <c r="I862" s="6" t="n"/>
     </row>
     <row r="863">
       <c r="A863" s="6" t="n"/>
@@ -18482,7 +17595,6 @@
       <c r="F863" s="6" t="n"/>
       <c r="G863" s="6" t="n"/>
       <c r="H863" s="6" t="n"/>
-      <c r="I863" s="6" t="n"/>
     </row>
     <row r="864">
       <c r="A864" s="6" t="n"/>
@@ -18493,7 +17605,6 @@
       <c r="F864" s="6" t="n"/>
       <c r="G864" s="6" t="n"/>
       <c r="H864" s="6" t="n"/>
-      <c r="I864" s="6" t="n"/>
     </row>
     <row r="865">
       <c r="A865" s="6" t="n"/>
@@ -18504,7 +17615,6 @@
       <c r="F865" s="6" t="n"/>
       <c r="G865" s="6" t="n"/>
       <c r="H865" s="6" t="n"/>
-      <c r="I865" s="6" t="n"/>
     </row>
     <row r="866">
       <c r="A866" s="6" t="n"/>
@@ -18515,7 +17625,6 @@
       <c r="F866" s="6" t="n"/>
       <c r="G866" s="6" t="n"/>
       <c r="H866" s="6" t="n"/>
-      <c r="I866" s="6" t="n"/>
     </row>
     <row r="867">
       <c r="A867" s="6" t="n"/>
@@ -18526,7 +17635,6 @@
       <c r="F867" s="6" t="n"/>
       <c r="G867" s="6" t="n"/>
       <c r="H867" s="6" t="n"/>
-      <c r="I867" s="6" t="n"/>
     </row>
     <row r="868">
       <c r="A868" s="6" t="n"/>
@@ -18537,7 +17645,6 @@
       <c r="F868" s="6" t="n"/>
       <c r="G868" s="6" t="n"/>
       <c r="H868" s="6" t="n"/>
-      <c r="I868" s="6" t="n"/>
     </row>
     <row r="869">
       <c r="A869" s="6" t="n"/>
@@ -18548,7 +17655,6 @@
       <c r="F869" s="6" t="n"/>
       <c r="G869" s="6" t="n"/>
       <c r="H869" s="6" t="n"/>
-      <c r="I869" s="6" t="n"/>
     </row>
     <row r="870">
       <c r="A870" s="6" t="n"/>
@@ -18559,7 +17665,6 @@
       <c r="F870" s="6" t="n"/>
       <c r="G870" s="6" t="n"/>
       <c r="H870" s="6" t="n"/>
-      <c r="I870" s="6" t="n"/>
     </row>
     <row r="871">
       <c r="A871" s="6" t="n"/>
@@ -18570,7 +17675,6 @@
       <c r="F871" s="6" t="n"/>
       <c r="G871" s="6" t="n"/>
       <c r="H871" s="6" t="n"/>
-      <c r="I871" s="6" t="n"/>
     </row>
     <row r="872">
       <c r="A872" s="6" t="n"/>
@@ -18581,7 +17685,6 @@
       <c r="F872" s="6" t="n"/>
       <c r="G872" s="6" t="n"/>
       <c r="H872" s="6" t="n"/>
-      <c r="I872" s="6" t="n"/>
     </row>
     <row r="873">
       <c r="A873" s="6" t="n"/>
@@ -18592,7 +17695,6 @@
       <c r="F873" s="6" t="n"/>
       <c r="G873" s="6" t="n"/>
       <c r="H873" s="6" t="n"/>
-      <c r="I873" s="6" t="n"/>
     </row>
     <row r="874">
       <c r="A874" s="6" t="n"/>
@@ -18603,7 +17705,6 @@
       <c r="F874" s="6" t="n"/>
       <c r="G874" s="6" t="n"/>
       <c r="H874" s="6" t="n"/>
-      <c r="I874" s="6" t="n"/>
     </row>
     <row r="875">
       <c r="A875" s="6" t="n"/>
@@ -18614,7 +17715,6 @@
       <c r="F875" s="6" t="n"/>
       <c r="G875" s="6" t="n"/>
       <c r="H875" s="6" t="n"/>
-      <c r="I875" s="6" t="n"/>
     </row>
     <row r="876">
       <c r="A876" s="6" t="n"/>
@@ -18625,7 +17725,6 @@
       <c r="F876" s="6" t="n"/>
       <c r="G876" s="6" t="n"/>
       <c r="H876" s="6" t="n"/>
-      <c r="I876" s="6" t="n"/>
     </row>
     <row r="877">
       <c r="A877" s="6" t="n"/>
@@ -18636,7 +17735,6 @@
       <c r="F877" s="6" t="n"/>
       <c r="G877" s="6" t="n"/>
       <c r="H877" s="6" t="n"/>
-      <c r="I877" s="6" t="n"/>
     </row>
     <row r="878">
       <c r="A878" s="6" t="n"/>
@@ -18647,7 +17745,6 @@
       <c r="F878" s="6" t="n"/>
       <c r="G878" s="6" t="n"/>
       <c r="H878" s="6" t="n"/>
-      <c r="I878" s="6" t="n"/>
     </row>
     <row r="879">
       <c r="A879" s="6" t="n"/>
@@ -18658,7 +17755,6 @@
       <c r="F879" s="6" t="n"/>
       <c r="G879" s="6" t="n"/>
       <c r="H879" s="6" t="n"/>
-      <c r="I879" s="6" t="n"/>
     </row>
     <row r="880">
       <c r="A880" s="6" t="n"/>
@@ -18669,7 +17765,6 @@
       <c r="F880" s="6" t="n"/>
       <c r="G880" s="6" t="n"/>
       <c r="H880" s="6" t="n"/>
-      <c r="I880" s="6" t="n"/>
     </row>
     <row r="881">
       <c r="A881" s="6" t="n"/>
@@ -18680,7 +17775,6 @@
       <c r="F881" s="6" t="n"/>
       <c r="G881" s="6" t="n"/>
       <c r="H881" s="6" t="n"/>
-      <c r="I881" s="6" t="n"/>
     </row>
     <row r="882">
       <c r="A882" s="6" t="n"/>
@@ -18691,7 +17785,6 @@
       <c r="F882" s="6" t="n"/>
       <c r="G882" s="6" t="n"/>
       <c r="H882" s="6" t="n"/>
-      <c r="I882" s="6" t="n"/>
     </row>
     <row r="883">
       <c r="A883" s="6" t="n"/>
@@ -18702,7 +17795,6 @@
       <c r="F883" s="6" t="n"/>
       <c r="G883" s="6" t="n"/>
       <c r="H883" s="6" t="n"/>
-      <c r="I883" s="6" t="n"/>
     </row>
     <row r="884">
       <c r="A884" s="6" t="n"/>
@@ -18713,7 +17805,6 @@
       <c r="F884" s="6" t="n"/>
       <c r="G884" s="6" t="n"/>
       <c r="H884" s="6" t="n"/>
-      <c r="I884" s="6" t="n"/>
     </row>
     <row r="885">
       <c r="A885" s="6" t="n"/>
@@ -18724,7 +17815,6 @@
       <c r="F885" s="6" t="n"/>
       <c r="G885" s="6" t="n"/>
       <c r="H885" s="6" t="n"/>
-      <c r="I885" s="6" t="n"/>
     </row>
     <row r="886">
       <c r="A886" s="6" t="n"/>
@@ -18735,7 +17825,6 @@
       <c r="F886" s="6" t="n"/>
       <c r="G886" s="6" t="n"/>
       <c r="H886" s="6" t="n"/>
-      <c r="I886" s="6" t="n"/>
     </row>
     <row r="887">
       <c r="A887" s="6" t="n"/>
@@ -18746,7 +17835,6 @@
       <c r="F887" s="6" t="n"/>
       <c r="G887" s="6" t="n"/>
       <c r="H887" s="6" t="n"/>
-      <c r="I887" s="6" t="n"/>
     </row>
     <row r="888">
       <c r="A888" s="6" t="n"/>
@@ -18757,7 +17845,6 @@
       <c r="F888" s="6" t="n"/>
       <c r="G888" s="6" t="n"/>
       <c r="H888" s="6" t="n"/>
-      <c r="I888" s="6" t="n"/>
     </row>
     <row r="889">
       <c r="A889" s="6" t="n"/>
@@ -18768,7 +17855,6 @@
       <c r="F889" s="6" t="n"/>
       <c r="G889" s="6" t="n"/>
       <c r="H889" s="6" t="n"/>
-      <c r="I889" s="6" t="n"/>
     </row>
     <row r="890">
       <c r="A890" s="6" t="n"/>
@@ -18779,7 +17865,6 @@
       <c r="F890" s="6" t="n"/>
       <c r="G890" s="6" t="n"/>
       <c r="H890" s="6" t="n"/>
-      <c r="I890" s="6" t="n"/>
     </row>
     <row r="891">
       <c r="A891" s="6" t="n"/>
@@ -18790,7 +17875,6 @@
       <c r="F891" s="6" t="n"/>
       <c r="G891" s="6" t="n"/>
       <c r="H891" s="6" t="n"/>
-      <c r="I891" s="6" t="n"/>
     </row>
     <row r="892">
       <c r="A892" s="6" t="n"/>
@@ -18801,7 +17885,6 @@
       <c r="F892" s="6" t="n"/>
       <c r="G892" s="6" t="n"/>
       <c r="H892" s="6" t="n"/>
-      <c r="I892" s="6" t="n"/>
     </row>
     <row r="893">
       <c r="A893" s="6" t="n"/>
@@ -18812,7 +17895,6 @@
       <c r="F893" s="6" t="n"/>
       <c r="G893" s="6" t="n"/>
       <c r="H893" s="6" t="n"/>
-      <c r="I893" s="6" t="n"/>
     </row>
     <row r="894">
       <c r="A894" s="6" t="n"/>
@@ -18823,7 +17905,6 @@
       <c r="F894" s="6" t="n"/>
       <c r="G894" s="6" t="n"/>
       <c r="H894" s="6" t="n"/>
-      <c r="I894" s="6" t="n"/>
     </row>
     <row r="895">
       <c r="A895" s="6" t="n"/>
@@ -18834,7 +17915,6 @@
       <c r="F895" s="6" t="n"/>
       <c r="G895" s="6" t="n"/>
       <c r="H895" s="6" t="n"/>
-      <c r="I895" s="6" t="n"/>
     </row>
     <row r="896">
       <c r="A896" s="6" t="n"/>
@@ -18845,7 +17925,6 @@
       <c r="F896" s="6" t="n"/>
       <c r="G896" s="6" t="n"/>
       <c r="H896" s="6" t="n"/>
-      <c r="I896" s="6" t="n"/>
     </row>
     <row r="897">
       <c r="A897" s="6" t="n"/>
@@ -18856,7 +17935,6 @@
       <c r="F897" s="6" t="n"/>
       <c r="G897" s="6" t="n"/>
       <c r="H897" s="6" t="n"/>
-      <c r="I897" s="6" t="n"/>
     </row>
     <row r="898">
       <c r="A898" s="6" t="n"/>
@@ -18867,7 +17945,6 @@
       <c r="F898" s="6" t="n"/>
       <c r="G898" s="6" t="n"/>
       <c r="H898" s="6" t="n"/>
-      <c r="I898" s="6" t="n"/>
     </row>
     <row r="899">
       <c r="A899" s="6" t="n"/>
@@ -18878,7 +17955,6 @@
       <c r="F899" s="6" t="n"/>
       <c r="G899" s="6" t="n"/>
       <c r="H899" s="6" t="n"/>
-      <c r="I899" s="6" t="n"/>
     </row>
     <row r="900">
       <c r="A900" s="6" t="n"/>
@@ -18889,7 +17965,6 @@
       <c r="F900" s="6" t="n"/>
       <c r="G900" s="6" t="n"/>
       <c r="H900" s="6" t="n"/>
-      <c r="I900" s="6" t="n"/>
     </row>
     <row r="901">
       <c r="A901" s="6" t="n"/>
@@ -18900,7 +17975,6 @@
       <c r="F901" s="6" t="n"/>
       <c r="G901" s="6" t="n"/>
       <c r="H901" s="6" t="n"/>
-      <c r="I901" s="6" t="n"/>
     </row>
     <row r="902">
       <c r="A902" s="6" t="n"/>
@@ -18911,7 +17985,6 @@
       <c r="F902" s="6" t="n"/>
       <c r="G902" s="6" t="n"/>
       <c r="H902" s="6" t="n"/>
-      <c r="I902" s="6" t="n"/>
     </row>
     <row r="903">
       <c r="A903" s="6" t="n"/>
@@ -18922,7 +17995,6 @@
       <c r="F903" s="6" t="n"/>
       <c r="G903" s="6" t="n"/>
       <c r="H903" s="6" t="n"/>
-      <c r="I903" s="6" t="n"/>
     </row>
     <row r="904">
       <c r="A904" s="6" t="n"/>
@@ -18933,7 +18005,6 @@
       <c r="F904" s="6" t="n"/>
       <c r="G904" s="6" t="n"/>
       <c r="H904" s="6" t="n"/>
-      <c r="I904" s="6" t="n"/>
     </row>
     <row r="905">
       <c r="A905" s="6" t="n"/>
@@ -18944,7 +18015,6 @@
       <c r="F905" s="6" t="n"/>
       <c r="G905" s="6" t="n"/>
       <c r="H905" s="6" t="n"/>
-      <c r="I905" s="6" t="n"/>
     </row>
     <row r="906">
       <c r="A906" s="6" t="n"/>
@@ -18955,7 +18025,6 @@
       <c r="F906" s="6" t="n"/>
       <c r="G906" s="6" t="n"/>
       <c r="H906" s="6" t="n"/>
-      <c r="I906" s="6" t="n"/>
     </row>
     <row r="907">
       <c r="A907" s="6" t="n"/>
@@ -18966,7 +18035,6 @@
       <c r="F907" s="6" t="n"/>
       <c r="G907" s="6" t="n"/>
       <c r="H907" s="6" t="n"/>
-      <c r="I907" s="6" t="n"/>
     </row>
     <row r="908">
       <c r="A908" s="6" t="n"/>
@@ -18977,7 +18045,6 @@
       <c r="F908" s="6" t="n"/>
       <c r="G908" s="6" t="n"/>
       <c r="H908" s="6" t="n"/>
-      <c r="I908" s="6" t="n"/>
     </row>
     <row r="909">
       <c r="A909" s="6" t="n"/>
@@ -18988,7 +18055,6 @@
       <c r="F909" s="6" t="n"/>
       <c r="G909" s="6" t="n"/>
       <c r="H909" s="6" t="n"/>
-      <c r="I909" s="6" t="n"/>
     </row>
     <row r="910">
       <c r="A910" s="6" t="n"/>
@@ -18999,7 +18065,6 @@
       <c r="F910" s="6" t="n"/>
       <c r="G910" s="6" t="n"/>
       <c r="H910" s="6" t="n"/>
-      <c r="I910" s="6" t="n"/>
     </row>
     <row r="911">
       <c r="A911" s="6" t="n"/>
@@ -19010,7 +18075,6 @@
       <c r="F911" s="6" t="n"/>
       <c r="G911" s="6" t="n"/>
       <c r="H911" s="6" t="n"/>
-      <c r="I911" s="6" t="n"/>
     </row>
     <row r="912">
       <c r="A912" s="6" t="n"/>
@@ -19021,7 +18085,6 @@
       <c r="F912" s="6" t="n"/>
       <c r="G912" s="6" t="n"/>
       <c r="H912" s="6" t="n"/>
-      <c r="I912" s="6" t="n"/>
     </row>
     <row r="913">
       <c r="A913" s="6" t="n"/>
@@ -19032,7 +18095,6 @@
       <c r="F913" s="6" t="n"/>
       <c r="G913" s="6" t="n"/>
       <c r="H913" s="6" t="n"/>
-      <c r="I913" s="6" t="n"/>
     </row>
     <row r="914">
       <c r="A914" s="6" t="n"/>
@@ -19043,7 +18105,6 @@
       <c r="F914" s="6" t="n"/>
       <c r="G914" s="6" t="n"/>
       <c r="H914" s="6" t="n"/>
-      <c r="I914" s="6" t="n"/>
     </row>
     <row r="915">
       <c r="A915" s="6" t="n"/>
@@ -19054,7 +18115,6 @@
       <c r="F915" s="6" t="n"/>
       <c r="G915" s="6" t="n"/>
       <c r="H915" s="6" t="n"/>
-      <c r="I915" s="6" t="n"/>
     </row>
     <row r="916">
       <c r="A916" s="6" t="n"/>
@@ -19065,7 +18125,6 @@
       <c r="F916" s="6" t="n"/>
       <c r="G916" s="6" t="n"/>
       <c r="H916" s="6" t="n"/>
-      <c r="I916" s="6" t="n"/>
     </row>
     <row r="917">
       <c r="A917" s="6" t="n"/>
@@ -19076,7 +18135,6 @@
       <c r="F917" s="6" t="n"/>
       <c r="G917" s="6" t="n"/>
       <c r="H917" s="6" t="n"/>
-      <c r="I917" s="6" t="n"/>
     </row>
     <row r="918">
       <c r="A918" s="6" t="n"/>
@@ -19087,7 +18145,6 @@
       <c r="F918" s="6" t="n"/>
       <c r="G918" s="6" t="n"/>
       <c r="H918" s="6" t="n"/>
-      <c r="I918" s="6" t="n"/>
     </row>
     <row r="919">
       <c r="A919" s="6" t="n"/>
@@ -19098,7 +18155,6 @@
       <c r="F919" s="6" t="n"/>
       <c r="G919" s="6" t="n"/>
       <c r="H919" s="6" t="n"/>
-      <c r="I919" s="6" t="n"/>
     </row>
     <row r="920">
       <c r="A920" s="6" t="n"/>
@@ -19109,7 +18165,6 @@
       <c r="F920" s="6" t="n"/>
       <c r="G920" s="6" t="n"/>
       <c r="H920" s="6" t="n"/>
-      <c r="I920" s="6" t="n"/>
     </row>
     <row r="921">
       <c r="A921" s="6" t="n"/>
@@ -19120,7 +18175,6 @@
       <c r="F921" s="6" t="n"/>
       <c r="G921" s="6" t="n"/>
       <c r="H921" s="6" t="n"/>
-      <c r="I921" s="6" t="n"/>
     </row>
     <row r="922">
       <c r="A922" s="6" t="n"/>
@@ -19131,7 +18185,6 @@
       <c r="F922" s="6" t="n"/>
       <c r="G922" s="6" t="n"/>
       <c r="H922" s="6" t="n"/>
-      <c r="I922" s="6" t="n"/>
     </row>
     <row r="923">
       <c r="A923" s="6" t="n"/>
@@ -19142,7 +18195,6 @@
       <c r="F923" s="6" t="n"/>
       <c r="G923" s="6" t="n"/>
       <c r="H923" s="6" t="n"/>
-      <c r="I923" s="6" t="n"/>
     </row>
     <row r="924">
       <c r="A924" s="6" t="n"/>
@@ -19153,7 +18205,6 @@
       <c r="F924" s="6" t="n"/>
       <c r="G924" s="6" t="n"/>
       <c r="H924" s="6" t="n"/>
-      <c r="I924" s="6" t="n"/>
     </row>
     <row r="925">
       <c r="A925" s="6" t="n"/>
@@ -19164,7 +18215,6 @@
       <c r="F925" s="6" t="n"/>
       <c r="G925" s="6" t="n"/>
       <c r="H925" s="6" t="n"/>
-      <c r="I925" s="6" t="n"/>
     </row>
     <row r="926">
       <c r="A926" s="6" t="n"/>
@@ -19175,7 +18225,6 @@
       <c r="F926" s="6" t="n"/>
       <c r="G926" s="6" t="n"/>
       <c r="H926" s="6" t="n"/>
-      <c r="I926" s="6" t="n"/>
     </row>
     <row r="927">
       <c r="A927" s="6" t="n"/>
@@ -19186,7 +18235,6 @@
       <c r="F927" s="6" t="n"/>
       <c r="G927" s="6" t="n"/>
       <c r="H927" s="6" t="n"/>
-      <c r="I927" s="6" t="n"/>
     </row>
     <row r="928">
       <c r="A928" s="6" t="n"/>
@@ -19197,7 +18245,6 @@
       <c r="F928" s="6" t="n"/>
       <c r="G928" s="6" t="n"/>
       <c r="H928" s="6" t="n"/>
-      <c r="I928" s="6" t="n"/>
     </row>
     <row r="929">
       <c r="A929" s="6" t="n"/>
@@ -19208,7 +18255,6 @@
       <c r="F929" s="6" t="n"/>
       <c r="G929" s="6" t="n"/>
       <c r="H929" s="6" t="n"/>
-      <c r="I929" s="6" t="n"/>
     </row>
     <row r="930">
       <c r="A930" s="6" t="n"/>
@@ -19219,7 +18265,6 @@
       <c r="F930" s="6" t="n"/>
       <c r="G930" s="6" t="n"/>
       <c r="H930" s="6" t="n"/>
-      <c r="I930" s="6" t="n"/>
     </row>
     <row r="931">
       <c r="A931" s="6" t="n"/>
@@ -19230,7 +18275,6 @@
       <c r="F931" s="6" t="n"/>
       <c r="G931" s="6" t="n"/>
       <c r="H931" s="6" t="n"/>
-      <c r="I931" s="6" t="n"/>
     </row>
     <row r="932">
       <c r="A932" s="6" t="n"/>
@@ -19241,7 +18285,6 @@
       <c r="F932" s="6" t="n"/>
       <c r="G932" s="6" t="n"/>
       <c r="H932" s="6" t="n"/>
-      <c r="I932" s="6" t="n"/>
     </row>
     <row r="933">
       <c r="A933" s="6" t="n"/>
@@ -19252,7 +18295,6 @@
       <c r="F933" s="6" t="n"/>
       <c r="G933" s="6" t="n"/>
       <c r="H933" s="6" t="n"/>
-      <c r="I933" s="6" t="n"/>
     </row>
     <row r="934">
       <c r="A934" s="6" t="n"/>
@@ -19263,7 +18305,6 @@
       <c r="F934" s="6" t="n"/>
       <c r="G934" s="6" t="n"/>
       <c r="H934" s="6" t="n"/>
-      <c r="I934" s="6" t="n"/>
     </row>
     <row r="935">
       <c r="A935" s="6" t="n"/>
@@ -19274,7 +18315,6 @@
       <c r="F935" s="6" t="n"/>
       <c r="G935" s="6" t="n"/>
       <c r="H935" s="6" t="n"/>
-      <c r="I935" s="6" t="n"/>
     </row>
     <row r="936">
       <c r="A936" s="6" t="n"/>
@@ -19285,7 +18325,6 @@
       <c r="F936" s="6" t="n"/>
       <c r="G936" s="6" t="n"/>
       <c r="H936" s="6" t="n"/>
-      <c r="I936" s="6" t="n"/>
     </row>
     <row r="937">
       <c r="A937" s="6" t="n"/>
@@ -19296,7 +18335,6 @@
       <c r="F937" s="6" t="n"/>
       <c r="G937" s="6" t="n"/>
       <c r="H937" s="6" t="n"/>
-      <c r="I937" s="6" t="n"/>
     </row>
     <row r="938">
       <c r="A938" s="6" t="n"/>
@@ -19307,7 +18345,6 @@
       <c r="F938" s="6" t="n"/>
       <c r="G938" s="6" t="n"/>
       <c r="H938" s="6" t="n"/>
-      <c r="I938" s="6" t="n"/>
     </row>
     <row r="939">
       <c r="A939" s="6" t="n"/>
@@ -19318,7 +18355,6 @@
       <c r="F939" s="6" t="n"/>
       <c r="G939" s="6" t="n"/>
       <c r="H939" s="6" t="n"/>
-      <c r="I939" s="6" t="n"/>
     </row>
     <row r="940">
       <c r="A940" s="6" t="n"/>
@@ -19329,7 +18365,6 @@
       <c r="F940" s="6" t="n"/>
       <c r="G940" s="6" t="n"/>
       <c r="H940" s="6" t="n"/>
-      <c r="I940" s="6" t="n"/>
     </row>
     <row r="941">
       <c r="A941" s="6" t="n"/>
@@ -19340,7 +18375,6 @@
       <c r="F941" s="6" t="n"/>
       <c r="G941" s="6" t="n"/>
       <c r="H941" s="6" t="n"/>
-      <c r="I941" s="6" t="n"/>
     </row>
     <row r="942">
       <c r="A942" s="6" t="n"/>
@@ -19351,7 +18385,6 @@
       <c r="F942" s="6" t="n"/>
       <c r="G942" s="6" t="n"/>
       <c r="H942" s="6" t="n"/>
-      <c r="I942" s="6" t="n"/>
     </row>
     <row r="943">
       <c r="A943" s="6" t="n"/>
@@ -19362,7 +18395,6 @@
       <c r="F943" s="6" t="n"/>
       <c r="G943" s="6" t="n"/>
       <c r="H943" s="6" t="n"/>
-      <c r="I943" s="6" t="n"/>
     </row>
     <row r="944">
       <c r="A944" s="6" t="n"/>
@@ -19373,7 +18405,6 @@
       <c r="F944" s="6" t="n"/>
       <c r="G944" s="6" t="n"/>
       <c r="H944" s="6" t="n"/>
-      <c r="I944" s="6" t="n"/>
     </row>
     <row r="945">
       <c r="A945" s="6" t="n"/>
@@ -19384,7 +18415,6 @@
       <c r="F945" s="6" t="n"/>
       <c r="G945" s="6" t="n"/>
       <c r="H945" s="6" t="n"/>
-      <c r="I945" s="6" t="n"/>
     </row>
     <row r="946">
       <c r="A946" s="6" t="n"/>
@@ -19395,7 +18425,6 @@
       <c r="F946" s="6" t="n"/>
       <c r="G946" s="6" t="n"/>
       <c r="H946" s="6" t="n"/>
-      <c r="I946" s="6" t="n"/>
     </row>
     <row r="947">
       <c r="A947" s="6" t="n"/>
@@ -19406,7 +18435,6 @@
       <c r="F947" s="6" t="n"/>
       <c r="G947" s="6" t="n"/>
       <c r="H947" s="6" t="n"/>
-      <c r="I947" s="6" t="n"/>
     </row>
     <row r="948">
       <c r="A948" s="6" t="n"/>
@@ -19417,7 +18445,6 @@
       <c r="F948" s="6" t="n"/>
       <c r="G948" s="6" t="n"/>
       <c r="H948" s="6" t="n"/>
-      <c r="I948" s="6" t="n"/>
     </row>
     <row r="949">
       <c r="A949" s="6" t="n"/>
@@ -19428,7 +18455,6 @@
       <c r="F949" s="6" t="n"/>
       <c r="G949" s="6" t="n"/>
       <c r="H949" s="6" t="n"/>
-      <c r="I949" s="6" t="n"/>
     </row>
     <row r="950">
       <c r="A950" s="6" t="n"/>
@@ -19439,7 +18465,6 @@
       <c r="F950" s="6" t="n"/>
       <c r="G950" s="6" t="n"/>
       <c r="H950" s="6" t="n"/>
-      <c r="I950" s="6" t="n"/>
     </row>
     <row r="951">
       <c r="A951" s="6" t="n"/>
@@ -19450,7 +18475,6 @@
       <c r="F951" s="6" t="n"/>
       <c r="G951" s="6" t="n"/>
       <c r="H951" s="6" t="n"/>
-      <c r="I951" s="6" t="n"/>
     </row>
     <row r="952">
       <c r="A952" s="6" t="n"/>
@@ -19461,7 +18485,6 @@
       <c r="F952" s="6" t="n"/>
       <c r="G952" s="6" t="n"/>
       <c r="H952" s="6" t="n"/>
-      <c r="I952" s="6" t="n"/>
     </row>
     <row r="953">
       <c r="A953" s="6" t="n"/>
@@ -19472,7 +18495,6 @@
       <c r="F953" s="6" t="n"/>
       <c r="G953" s="6" t="n"/>
       <c r="H953" s="6" t="n"/>
-      <c r="I953" s="6" t="n"/>
     </row>
     <row r="954">
       <c r="A954" s="6" t="n"/>
@@ -19483,7 +18505,6 @@
       <c r="F954" s="6" t="n"/>
       <c r="G954" s="6" t="n"/>
       <c r="H954" s="6" t="n"/>
-      <c r="I954" s="6" t="n"/>
     </row>
     <row r="955">
       <c r="A955" s="6" t="n"/>
@@ -19494,7 +18515,6 @@
       <c r="F955" s="6" t="n"/>
       <c r="G955" s="6" t="n"/>
       <c r="H955" s="6" t="n"/>
-      <c r="I955" s="6" t="n"/>
     </row>
     <row r="956">
       <c r="A956" s="6" t="n"/>
@@ -19505,7 +18525,6 @@
       <c r="F956" s="6" t="n"/>
       <c r="G956" s="6" t="n"/>
       <c r="H956" s="6" t="n"/>
-      <c r="I956" s="6" t="n"/>
     </row>
     <row r="957">
       <c r="A957" s="6" t="n"/>
@@ -19516,7 +18535,6 @@
       <c r="F957" s="6" t="n"/>
       <c r="G957" s="6" t="n"/>
       <c r="H957" s="6" t="n"/>
-      <c r="I957" s="6" t="n"/>
     </row>
     <row r="958">
       <c r="A958" s="6" t="n"/>
@@ -19527,7 +18545,6 @@
       <c r="F958" s="6" t="n"/>
       <c r="G958" s="6" t="n"/>
       <c r="H958" s="6" t="n"/>
-      <c r="I958" s="6" t="n"/>
     </row>
     <row r="959">
       <c r="A959" s="6" t="n"/>
@@ -19538,7 +18555,6 @@
       <c r="F959" s="6" t="n"/>
       <c r="G959" s="6" t="n"/>
       <c r="H959" s="6" t="n"/>
-      <c r="I959" s="6" t="n"/>
     </row>
     <row r="960">
       <c r="A960" s="6" t="n"/>
@@ -19549,7 +18565,6 @@
       <c r="F960" s="6" t="n"/>
       <c r="G960" s="6" t="n"/>
       <c r="H960" s="6" t="n"/>
-      <c r="I960" s="6" t="n"/>
     </row>
     <row r="961">
       <c r="A961" s="6" t="n"/>
@@ -19560,7 +18575,6 @@
       <c r="F961" s="6" t="n"/>
       <c r="G961" s="6" t="n"/>
       <c r="H961" s="6" t="n"/>
-      <c r="I961" s="6" t="n"/>
     </row>
     <row r="962">
       <c r="A962" s="6" t="n"/>
@@ -19571,7 +18585,6 @@
       <c r="F962" s="6" t="n"/>
       <c r="G962" s="6" t="n"/>
       <c r="H962" s="6" t="n"/>
-      <c r="I962" s="6" t="n"/>
     </row>
     <row r="963">
       <c r="A963" s="6" t="n"/>
@@ -19582,7 +18595,6 @@
       <c r="F963" s="6" t="n"/>
       <c r="G963" s="6" t="n"/>
       <c r="H963" s="6" t="n"/>
-      <c r="I963" s="6" t="n"/>
     </row>
     <row r="964">
       <c r="A964" s="6" t="n"/>
@@ -19593,7 +18605,6 @@
       <c r="F964" s="6" t="n"/>
       <c r="G964" s="6" t="n"/>
       <c r="H964" s="6" t="n"/>
-      <c r="I964" s="6" t="n"/>
     </row>
     <row r="965">
       <c r="A965" s="6" t="n"/>
@@ -19604,7 +18615,6 @@
       <c r="F965" s="6" t="n"/>
       <c r="G965" s="6" t="n"/>
       <c r="H965" s="6" t="n"/>
-      <c r="I965" s="6" t="n"/>
     </row>
     <row r="966">
       <c r="A966" s="6" t="n"/>
@@ -19615,7 +18625,6 @@
       <c r="F966" s="6" t="n"/>
       <c r="G966" s="6" t="n"/>
       <c r="H966" s="6" t="n"/>
-      <c r="I966" s="6" t="n"/>
     </row>
     <row r="967">
       <c r="A967" s="6" t="n"/>
@@ -19626,7 +18635,6 @@
       <c r="F967" s="6" t="n"/>
       <c r="G967" s="6" t="n"/>
       <c r="H967" s="6" t="n"/>
-      <c r="I967" s="6" t="n"/>
     </row>
     <row r="968">
       <c r="A968" s="6" t="n"/>
@@ -19637,7 +18645,6 @@
       <c r="F968" s="6" t="n"/>
       <c r="G968" s="6" t="n"/>
       <c r="H968" s="6" t="n"/>
-      <c r="I968" s="6" t="n"/>
     </row>
     <row r="969">
       <c r="A969" s="6" t="n"/>
@@ -19648,7 +18655,6 @@
       <c r="F969" s="6" t="n"/>
       <c r="G969" s="6" t="n"/>
       <c r="H969" s="6" t="n"/>
-      <c r="I969" s="6" t="n"/>
     </row>
     <row r="970">
       <c r="A970" s="6" t="n"/>
@@ -19659,7 +18665,6 @@
       <c r="F970" s="6" t="n"/>
       <c r="G970" s="6" t="n"/>
       <c r="H970" s="6" t="n"/>
-      <c r="I970" s="6" t="n"/>
     </row>
     <row r="971">
       <c r="A971" s="6" t="n"/>
@@ -19670,7 +18675,6 @@
       <c r="F971" s="6" t="n"/>
       <c r="G971" s="6" t="n"/>
       <c r="H971" s="6" t="n"/>
-      <c r="I971" s="6" t="n"/>
     </row>
     <row r="972">
       <c r="A972" s="6" t="n"/>
@@ -19681,7 +18685,6 @@
       <c r="F972" s="6" t="n"/>
       <c r="G972" s="6" t="n"/>
       <c r="H972" s="6" t="n"/>
-      <c r="I972" s="6" t="n"/>
     </row>
     <row r="973">
       <c r="A973" s="6" t="n"/>
@@ -19692,7 +18695,6 @@
       <c r="F973" s="6" t="n"/>
       <c r="G973" s="6" t="n"/>
       <c r="H973" s="6" t="n"/>
-      <c r="I973" s="6" t="n"/>
     </row>
     <row r="974">
       <c r="A974" s="6" t="n"/>
@@ -19703,7 +18705,6 @@
       <c r="F974" s="6" t="n"/>
       <c r="G974" s="6" t="n"/>
       <c r="H974" s="6" t="n"/>
-      <c r="I974" s="6" t="n"/>
     </row>
     <row r="975">
       <c r="A975" s="6" t="n"/>
@@ -19714,7 +18715,6 @@
       <c r="F975" s="6" t="n"/>
       <c r="G975" s="6" t="n"/>
       <c r="H975" s="6" t="n"/>
-      <c r="I975" s="6" t="n"/>
     </row>
     <row r="976">
       <c r="A976" s="6" t="n"/>
@@ -19725,7 +18725,6 @@
       <c r="F976" s="6" t="n"/>
       <c r="G976" s="6" t="n"/>
       <c r="H976" s="6" t="n"/>
-      <c r="I976" s="6" t="n"/>
     </row>
     <row r="977">
       <c r="A977" s="6" t="n"/>
@@ -19736,7 +18735,6 @@
       <c r="F977" s="6" t="n"/>
       <c r="G977" s="6" t="n"/>
       <c r="H977" s="6" t="n"/>
-      <c r="I977" s="6" t="n"/>
     </row>
     <row r="978">
       <c r="A978" s="6" t="n"/>
@@ -19747,7 +18745,6 @@
       <c r="F978" s="6" t="n"/>
       <c r="G978" s="6" t="n"/>
       <c r="H978" s="6" t="n"/>
-      <c r="I978" s="6" t="n"/>
     </row>
     <row r="979">
       <c r="A979" s="6" t="n"/>
@@ -19758,7 +18755,6 @@
       <c r="F979" s="6" t="n"/>
       <c r="G979" s="6" t="n"/>
       <c r="H979" s="6" t="n"/>
-      <c r="I979" s="6" t="n"/>
     </row>
     <row r="980">
       <c r="A980" s="6" t="n"/>
@@ -19769,7 +18765,6 @@
       <c r="F980" s="6" t="n"/>
       <c r="G980" s="6" t="n"/>
       <c r="H980" s="6" t="n"/>
-      <c r="I980" s="6" t="n"/>
     </row>
     <row r="981">
       <c r="A981" s="6" t="n"/>
@@ -19780,7 +18775,6 @@
       <c r="F981" s="6" t="n"/>
       <c r="G981" s="6" t="n"/>
       <c r="H981" s="6" t="n"/>
-      <c r="I981" s="6" t="n"/>
     </row>
     <row r="982">
       <c r="A982" s="6" t="n"/>
@@ -19791,7 +18785,6 @@
       <c r="F982" s="6" t="n"/>
       <c r="G982" s="6" t="n"/>
       <c r="H982" s="6" t="n"/>
-      <c r="I982" s="6" t="n"/>
     </row>
     <row r="983">
       <c r="A983" s="6" t="n"/>
@@ -19802,7 +18795,6 @@
       <c r="F983" s="6" t="n"/>
       <c r="G983" s="6" t="n"/>
       <c r="H983" s="6" t="n"/>
-      <c r="I983" s="6" t="n"/>
     </row>
     <row r="984">
       <c r="A984" s="6" t="n"/>
@@ -19813,7 +18805,6 @@
       <c r="F984" s="6" t="n"/>
       <c r="G984" s="6" t="n"/>
       <c r="H984" s="6" t="n"/>
-      <c r="I984" s="6" t="n"/>
     </row>
     <row r="985">
       <c r="A985" s="6" t="n"/>
@@ -19824,7 +18815,6 @@
       <c r="F985" s="6" t="n"/>
       <c r="G985" s="6" t="n"/>
       <c r="H985" s="6" t="n"/>
-      <c r="I985" s="6" t="n"/>
     </row>
     <row r="986">
       <c r="A986" s="6" t="n"/>
@@ -19835,7 +18825,6 @@
       <c r="F986" s="6" t="n"/>
       <c r="G986" s="6" t="n"/>
       <c r="H986" s="6" t="n"/>
-      <c r="I986" s="6" t="n"/>
     </row>
     <row r="987">
       <c r="A987" s="6" t="n"/>
@@ -19846,7 +18835,6 @@
       <c r="F987" s="6" t="n"/>
       <c r="G987" s="6" t="n"/>
       <c r="H987" s="6" t="n"/>
-      <c r="I987" s="6" t="n"/>
     </row>
     <row r="988">
       <c r="A988" s="6" t="n"/>
@@ -19857,7 +18845,6 @@
       <c r="F988" s="6" t="n"/>
       <c r="G988" s="6" t="n"/>
       <c r="H988" s="6" t="n"/>
-      <c r="I988" s="6" t="n"/>
     </row>
     <row r="989">
       <c r="A989" s="6" t="n"/>
@@ -19868,7 +18855,6 @@
       <c r="F989" s="6" t="n"/>
       <c r="G989" s="6" t="n"/>
       <c r="H989" s="6" t="n"/>
-      <c r="I989" s="6" t="n"/>
     </row>
     <row r="990">
       <c r="A990" s="6" t="n"/>
@@ -19879,7 +18865,6 @@
       <c r="F990" s="6" t="n"/>
       <c r="G990" s="6" t="n"/>
       <c r="H990" s="6" t="n"/>
-      <c r="I990" s="6" t="n"/>
     </row>
     <row r="991">
       <c r="A991" s="6" t="n"/>
@@ -19890,7 +18875,6 @@
       <c r="F991" s="6" t="n"/>
       <c r="G991" s="6" t="n"/>
       <c r="H991" s="6" t="n"/>
-      <c r="I991" s="6" t="n"/>
     </row>
     <row r="992">
       <c r="A992" s="6" t="n"/>
@@ -19901,7 +18885,6 @@
       <c r="F992" s="6" t="n"/>
       <c r="G992" s="6" t="n"/>
       <c r="H992" s="6" t="n"/>
-      <c r="I992" s="6" t="n"/>
     </row>
     <row r="993">
       <c r="A993" s="6" t="n"/>
@@ -19912,7 +18895,6 @@
       <c r="F993" s="6" t="n"/>
       <c r="G993" s="6" t="n"/>
       <c r="H993" s="6" t="n"/>
-      <c r="I993" s="6" t="n"/>
     </row>
     <row r="994">
       <c r="A994" s="6" t="n"/>
@@ -19923,7 +18905,6 @@
       <c r="F994" s="6" t="n"/>
       <c r="G994" s="6" t="n"/>
       <c r="H994" s="6" t="n"/>
-      <c r="I994" s="6" t="n"/>
     </row>
     <row r="995">
       <c r="A995" s="6" t="n"/>
@@ -19934,7 +18915,6 @@
       <c r="F995" s="6" t="n"/>
       <c r="G995" s="6" t="n"/>
       <c r="H995" s="6" t="n"/>
-      <c r="I995" s="6" t="n"/>
     </row>
     <row r="996">
       <c r="A996" s="6" t="n"/>
@@ -19945,7 +18925,6 @@
       <c r="F996" s="6" t="n"/>
       <c r="G996" s="6" t="n"/>
       <c r="H996" s="6" t="n"/>
-      <c r="I996" s="6" t="n"/>
     </row>
     <row r="997">
       <c r="A997" s="6" t="n"/>
@@ -19956,7 +18935,6 @@
       <c r="F997" s="6" t="n"/>
       <c r="G997" s="6" t="n"/>
       <c r="H997" s="6" t="n"/>
-      <c r="I997" s="6" t="n"/>
     </row>
     <row r="998">
       <c r="A998" s="6" t="n"/>
@@ -19967,7 +18945,6 @@
       <c r="F998" s="6" t="n"/>
       <c r="G998" s="6" t="n"/>
       <c r="H998" s="6" t="n"/>
-      <c r="I998" s="6" t="n"/>
     </row>
     <row r="999">
       <c r="A999" s="6" t="n"/>
@@ -19978,7 +18955,6 @@
       <c r="F999" s="6" t="n"/>
       <c r="G999" s="6" t="n"/>
       <c r="H999" s="6" t="n"/>
-      <c r="I999" s="6" t="n"/>
     </row>
     <row r="1000">
       <c r="A1000" s="6" t="n"/>
@@ -19989,7 +18965,6 @@
       <c r="F1000" s="6" t="n"/>
       <c r="G1000" s="6" t="n"/>
       <c r="H1000" s="6" t="n"/>
-      <c r="I1000" s="6" t="n"/>
     </row>
     <row r="1001">
       <c r="A1001" s="6" t="n"/>
@@ -20000,7 +18975,6 @@
       <c r="F1001" s="6" t="n"/>
       <c r="G1001" s="6" t="n"/>
       <c r="H1001" s="6" t="n"/>
-      <c r="I1001" s="6" t="n"/>
     </row>
     <row r="1002">
       <c r="A1002" s="6" t="n"/>
@@ -20011,7 +18985,6 @@
       <c r="F1002" s="6" t="n"/>
       <c r="G1002" s="6" t="n"/>
       <c r="H1002" s="6" t="n"/>
-      <c r="I1002" s="6" t="n"/>
     </row>
     <row r="1003">
       <c r="A1003" s="6" t="n"/>
@@ -20022,7 +18995,6 @@
       <c r="F1003" s="6" t="n"/>
       <c r="G1003" s="6" t="n"/>
       <c r="H1003" s="6" t="n"/>
-      <c r="I1003" s="6" t="n"/>
     </row>
     <row r="1004">
       <c r="A1004" s="6" t="n"/>
@@ -20033,7 +19005,6 @@
       <c r="F1004" s="6" t="n"/>
       <c r="G1004" s="6" t="n"/>
       <c r="H1004" s="6" t="n"/>
-      <c r="I1004" s="6" t="n"/>
     </row>
     <row r="1005">
       <c r="A1005" s="6" t="n"/>
@@ -20044,7 +19015,6 @@
       <c r="F1005" s="6" t="n"/>
       <c r="G1005" s="6" t="n"/>
       <c r="H1005" s="6" t="n"/>
-      <c r="I1005" s="6" t="n"/>
     </row>
     <row r="1006">
       <c r="A1006" s="6" t="n"/>
@@ -20055,7 +19025,6 @@
       <c r="F1006" s="6" t="n"/>
       <c r="G1006" s="6" t="n"/>
       <c r="H1006" s="6" t="n"/>
-      <c r="I1006" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
